--- a/docs/weekly_nerf_meta_data.xlsx
+++ b/docs/weekly_nerf_meta_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zelinzhao/cache/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8195D18-03C0-7C48-875F-E85D0FEF4FD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C60FB59-60DA-B44B-8FE0-6B92E0534BA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="783" uniqueCount="625">
   <si>
     <t>week</t>
   </si>
@@ -175,9 +175,6 @@
     <t>Deforming Radiance Fields with Cages</t>
   </si>
   <si>
-    <t>ECCV2022 (Oral)</t>
-  </si>
-  <si>
     <t>NeuMesh: Learning Disentangled Neural Mesh-based Implicit Field for Geometry and Texture Editing</t>
   </si>
   <si>
@@ -497,6 +494,1419 @@
   </si>
   <si>
     <t>pose-slam</t>
+  </si>
+  <si>
+    <t>Previous weeks</t>
+  </si>
+  <si>
+    <t>NeRF: Representing Scenes as Neural Radiance Fields for View Synthesis</t>
+  </si>
+  <si>
+    <t>Neural Sparse Voxel Fields</t>
+  </si>
+  <si>
+    <t>ECCV2020</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2003.08934</t>
+  </si>
+  <si>
+    <t>http://tancik.com/nerf</t>
+  </si>
+  <si>
+    <t>NeRF：将场景表示为用于视图合成的神经辐射场</t>
+  </si>
+  <si>
+    <t>我们提出了一种方法，该方法通过使用稀疏输入视图集优化底层连续体积场景函数，实现了合成复杂场景的新视图的最新结果。我们的算法使用全连接（非卷积）深度网络表示场景，其输入是单个连续 5D 坐标（空间位置（x,y,z）和观察方向（θ,φ）），其输出是该空间位置的体积密度和与视图相关的发射辐射。我们通过沿相机光线查询 5D 坐标来合成视图，并使用经典的体渲染技术将输出颜色和密度投影到图像中。因为体积渲染是自然可微的，所以优化我们的表示所需的唯一输入是一组具有已知相机姿势的图像。我们描述了如何有效地优化神经辐射场以渲染具有复杂几何形状和外观的场景的逼真的新颖视图，并展示了优于先前在神经渲染和视图合成方面的工作的结果。查看合成结果最好以视频形式观看，因此我们敦促读者观看我们的补充视频以进行令人信服的比较。</t>
+  </si>
+  <si>
+    <t>We introduce Neural Sparse Voxel Fields (NSVF), a new neural scene representation for fast and high-quality free-viewpoint rendering. NSVF defines a set of voxel-bounded implicit fields organized in a sparse voxel octree to model local properties in each cell. We progressively learn the underlying voxel structures with a diffentiable ray-marching operation from only a set of posed RGB images. With the sparse voxel octree structure, rendering novel views can be accelerated by skipping the voxels containing no relevant scene content. Our method is over 10 times faster than the state-of-the-art (namely, NeRF (Mildenhall et al., 2020)) at inference time while achieving higher quality results. Furthermore, by utilizing an explicit sparse voxel representation, our method can easily be applied to scene editing and scene composition. We also demonstrate several challenging tasks, including multi-scene learning, free-viewpoint rendering of a moving human, and large-scale scene rendering.</t>
+  </si>
+  <si>
+    <t>https://lingjie0206.github.io/papers/NSVF/</t>
+  </si>
+  <si>
+    <t>https://github.com/facebookresearch/NSVF</t>
+  </si>
+  <si>
+    <t>我们介绍了神经稀疏体素场 (NSVF)，这是一种用于快速和高质量自由视点渲染的新神经场景表示。 NSVF 定义了一组以稀疏体素八叉树组织的体素有界隐式字段，以对每个单元中的局部属性进行建模。 我们仅从一组姿势的 RGB 图像中通过可区分的光线行进操作逐步学习底层体素结构。 使用稀疏体素八叉树结构，可以通过跳过不包含相关场景内容的体素来加速渲染新颖的视图。 我们的方法在推理时比最先进的方法（即 NeRF (Mildenhall et al., 2020)）快 10 倍以上，同时获得更高质量的结果。 此外，通过利用显式稀疏体素表示，我们的方法可以很容易地应用于场景编辑和场景合成。 我们还展示了几个具有挑战性的任务，包括多场景学习、移动人体的自由视点渲染和大规模场景渲染。</t>
+  </si>
+  <si>
+    <t>神经稀疏体素场</t>
+  </si>
+  <si>
+    <t>AutoInt: Automatic Integration for Fast Neural Volume Rendering</t>
+  </si>
+  <si>
+    <t>CVPR2021</t>
+  </si>
+  <si>
+    <t>Numerical integration is a foundational technique in scientific computing and is at the core of many computer vision applications. Among these applications, implicit neural volume rendering has recently been proposed as a new paradigm for view synthesis, achieving photorealistic image quality. However, a fundamental obstacle to making these methods practical is the extreme computational and memory requirements caused by the required volume integrations along the rendered rays during training and inference. Millions of rays, each requiring hundreds of forward passes through a neural network are needed to approximate those integrations with Monte Carlo sampling. Here, we propose automatic integration, a new framework for learning efficient, closed-form solutions to integrals using implicit neural representation networks. For training, we instantiate the computational graph corresponding to the derivative of the implicit neural representation. The graph is fitted to the signal to integrate. After optimization, we reassemble the graph to obtain a network that represents the antiderivative. By the fundamental theorem of calculus, this enables the calculation of any definite integral in two evaluations of the network. Using this approach, we demonstrate a greater than 10× improvement in computation requirements, enabling fast neural volume rendering.</t>
+  </si>
+  <si>
+    <t>数值积分是科学计算的基础技术，是许多计算机视觉应用的核心。在这些应用中，隐式神经体绘制最近被提出作为视图合成的新范式，实现逼真的图像质量。然而，使这些方法实用的一个基本障碍是在训练和推理期间沿渲染光线所需的体积积分导致的极端计算和内存要求。需要数百万条光线，每条光线都需要数百次通过神经网络的前向传播，才能通过蒙特卡罗采样来近似这些集成。在这里，我们提出了自动积分，这是一种使用隐式神经表示网络来学习有效的、封闭形式的积分解决方案的新框架。对于训练，我们实例化对应于隐式神经表示的导数的计算图。该图适合要积分的信号。优化后，我们重新组装图以获得代表反导数的网络。根据微积分的基本定理，这可以在网络的两次评估中计算任何定积分。使用这种方法，我们展示了超过 10 倍的计算要求改进，从而实现了快速的神经体绘制。</t>
+  </si>
+  <si>
+    <t>AutoInt：快速神经体积渲染的自动集成</t>
+  </si>
+  <si>
+    <t>http://www.computationalimaging.org/publications/automatic-integration/</t>
+  </si>
+  <si>
+    <t>https://github.com/computational-imaging/automatic-integration</t>
+  </si>
+  <si>
+    <t>DeRF: Decomposed Radiance Fields</t>
+  </si>
+  <si>
+    <t>With the advent of Neural Radiance Fields (NeRF), neural networks can now render novel views of a 3D scene with quality that fools the human eye. Yet, generating these images is very computationally intensive, limiting their applicability in practical scenarios. In this paper, we propose a technique based on spatial decomposition capable of mitigating this issue. Our key observation is that there are diminishing returns in employing larger (deeper and/or wider) networks. Hence, we propose to spatially decompose a scene and dedicate smaller networks for each decomposed part. When working together, these networks can render the whole scene. This allows us near-constant inference time regardless of the number of decomposed parts. Moreover, we show that a Voronoi spatial decomposition is preferable for this purpose, as it is provably compatible with the Painter's Algorithm for efficient and GPU-friendly rendering. Our experiments show that for real-world scenes, our method provides up to 3x more efficient inference than NeRF (with the same rendering quality), or an improvement of up to 1.0~dB in PSNR (for the same inference cost).</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2011.12490</t>
+  </si>
+  <si>
+    <t>DONeRF: Towards Real-Time Rendering of Compact Neural Radiance Fields using Depth Oracle Networks</t>
+  </si>
+  <si>
+    <t>CGF2021</t>
+  </si>
+  <si>
+    <t>The recent research explosion around Neural Radiance Fields (NeRFs) shows that there is immense potential for implicitly storing scene and lighting information in neural networks, e.g., for novel view generation. However, one major limitation preventing the widespread use of NeRFs is the prohibitive computational cost of excessive network evaluations along each view ray, requiring dozens of petaFLOPS when aiming for real-time rendering on current devices. We show that the number of samples required for each view ray can be significantly reduced when local samples are placed around surfaces in the scene. To this end, we propose a depth oracle network, which predicts ray sample locations for each view ray with a single network evaluation. We show that using a classification network around logarithmically discretized and spherically warped depth values is essential to encode surface locations rather than directly estimating depth. The combination of these techniques leads to DONeRF, a dual network design with a depth oracle network as a first step and a locally sampled shading network for ray accumulation. With our design, we reduce the inference costs by up to 48x compared to NeRF. Using an off-the-shelf inference API in combination with simple compute kernels, we are the first to render raymarching-based neural representations at interactive frame rates (15 frames per second at 800x800) on a single GPU. At the same time, since we focus on the important parts of the scene around surfaces, we achieve equal or better quality compared to NeRF.</t>
+  </si>
+  <si>
+    <t>https://depthoraclenerf.github.io/</t>
+  </si>
+  <si>
+    <t>https://github.com/facebookresearch/DONERF</t>
+  </si>
+  <si>
+    <t>FastNeRF: High-Fidelity Neural Rendering at 200FPS</t>
+  </si>
+  <si>
+    <t>Recent work on Neural Radiance Fields (NeRF) showed how neural networks can be used to encode complex 3D environments that can be rendered photorealistically from novel viewpoints. Rendering these images is very computationally demanding and recent improvements are still a long way from enabling interactive rates, even on high-end hardware. Motivated by scenarios on mobile and mixed reality devices, we propose FastNeRF, the first NeRF-based system capable of rendering high fidelity photorealistic images at 200Hz on a high-end consumer GPU. The core of our method is a graphics-inspired factorization that allows for (i) compactly caching a deep radiance map at each position in space, (ii) efficiently querying that map using ray directions to estimate the pixel values in the rendered image. Extensive experiments show that the proposed method is 3000 times faster than the original NeRF algorithm and at least an order of magnitude faster than existing work on accelerating NeRF, while maintaining visual quality and extensibility.</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2103.10380</t>
+  </si>
+  <si>
+    <t>ICCV2021</t>
+  </si>
+  <si>
+    <t>KiloNeRF: Speeding up Neural Radiance Fields with Thousands of Tiny MLPs </t>
+  </si>
+  <si>
+    <t>NeRF synthesizes novel views of a scene with unprecedented quality by fitting a neural radiance field to RGB images. However, NeRF requires querying a deep Multi-Layer Perceptron (MLP) millions of times, leading to slow rendering times, even on modern GPUs. In this paper, we demonstrate that real-time rendering is possible by utilizing thousands of tiny MLPs instead of one single large MLP. In our setting, each individual MLP only needs to represent parts of the scene, thus smaller and faster-to-evaluate MLPs can be used. By combining this divide-and-conquer strategy with further optimizations, rendering is accelerated by three orders of magnitude compared to the original NeRF model without incurring high storage costs. Further, using teacher-student distillation for training, we show that this speed-up can be achieved without sacrificing visual quality.</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2103.13744</t>
+  </si>
+  <si>
+    <t>https://github.com/creiser/kilonerf/</t>
+  </si>
+  <si>
+    <t>PlenOctrees for Real-time Rendering of Neural Radiance Fields</t>
+  </si>
+  <si>
+    <t>ICCV2021(oral)</t>
+  </si>
+  <si>
+    <t>Real-time performance is achieved by pre-tabulating the NeRF into an octree-based radiance field that we call PlenOctrees. In order to preserve view-dependent effects such as specularities, we propose to encode appearances via closed-form spherical basis functions. Specifically, we show that it is possible to train NeRFs to predict a spherical harmonic representation of radiance, removing the viewing direction as input to the neural network. Furthermore, we show that our PlenOctrees can be directly optimized to further minimize the reconstruction loss, which leads to equal or better quality than competing methods. We further show that this octree optimization step can be used to accelerate the training time, as we no longer need to wait for the NeRF training to converge fully. Our real-time neural rendering approach may potentially enable new applications such as 6-DOF industrial and product visualizations, as well as next generation AR/VR systems.</t>
+  </si>
+  <si>
+    <t>https://alexyu.net/plenoctrees/</t>
+  </si>
+  <si>
+    <t>https://github.com/sxyu/volrend</t>
+  </si>
+  <si>
+    <t>Mixture of Volumetric Primitives for Efficient Neural Rendering</t>
+  </si>
+  <si>
+    <t>SIGGRAPH2021</t>
+  </si>
+  <si>
+    <t>Real-time rendering and animation of humans is a core function in games, movies, and telepresence applications. Existing methods have a number of drawbacks we aim to address with our work. Triangle meshes have difficulty modeling thin structures like hair, volumetric representations like Neural Volumes are too low-resolution given a reasonable memory budget, and high-resolution implicit representations like Neural Radiance Fields are too slow for use in real-time applications. We present Mixture of Volumetric Primitives (MVP), a representation for rendering dynamic 3D content that combines the completeness of volumetric representations with the efficiency of primitive-based rendering, e.g., point-based or mesh-based methods. Our approach achieves this by leveraging spatially shared computation with a deconvolutional architecture and by minimizing computation in empty regions of space with volumetric primitives that can move to cover only occupied regions. Our parameterization supports the integration of correspondence and tracking constraints, while being robust to areas where classical tracking fails, such as around thin or translucent structures and areas with large topological variability. MVP is a hybrid that generalizes both volumetric and primitive-based representations. Through a series of extensive experiments we demonstrate that it inherits the strengths of each, while avoiding many of their limitations. We also compare our approach to several state-of-the-art methods and demonstrate that MVP produces superior results in terms of quality and runtime performance.</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2103.01954</t>
+  </si>
+  <si>
+    <t>Light Field Networks: Neural Scene Representations with Single-Evaluation Rendering</t>
+  </si>
+  <si>
+    <t>Inferring representations of 3D scenes from 2D observations is a fundamental problem of computer graphics, computer vision, and artificial intelligence. Emerging 3D-structured neural scene representations are a promising approach to 3D scene understanding. In this work, we propose a novel neural scene representation, Light Field Networks or LFNs, which represent both geometry and appearance of the underlying 3D scene in a 360-degree, four-dimensional light field parameterized via a neural implicit representation. Rendering a ray from an LFN requires only a *single* network evaluation, as opposed to hundreds of evaluations per ray for ray-marching or volumetric based renderers in 3D-structured neural scene representations. In the setting of simple scenes, we leverage meta-learning to learn a prior over LFNs that enables multi-view consistent light field reconstruction from as little as a single image observation. This results in dramatic reductions in time and memory complexity, and enables real-time rendering. The cost of storing a 360-degree light field via an LFN is two orders of magnitude lower than conventional methods such as the Lumigraph. Utilizing the analytical differentiability of neural implicit representations and a novel parameterization of light space, we further demonstrate the extraction of sparse depth maps from LFNs.</t>
+  </si>
+  <si>
+    <t>https://www.vincentsitzmann.com/lfns/</t>
+  </si>
+  <si>
+    <t>https://github.com/vsitzmann/light-field-networks</t>
+  </si>
+  <si>
+    <t>Depth-supervised NeRF: Fewer Views and Faster Training for Free</t>
+  </si>
+  <si>
+    <t>https://github.com/dunbar12138/DSNeRF</t>
+  </si>
+  <si>
+    <t>CVPR2022</t>
+  </si>
+  <si>
+    <t>A commonly observed failure mode of Neural Radiance Field (NeRF) is fitting incorrect geometries when given an insufficient number of input views. One potential reason is that standard volumetric rendering does not enforce the constraint that most of a scene's geometry consist of empty space and opaque surfaces. We formalize the above assumption through DS-NeRF (Depth-supervised Neural Radiance Fields), a loss for learning radiance fields that takes advantage of readily-available depth supervision. We leverage the fact that current NeRF pipelines require images with known camera poses that are typically estimated by running structure-from-motion (SFM). Crucially, SFM also produces sparse 3D points that can be used as "free" depth supervision during training: we add a loss to encourage the distribution of a ray's terminating depth matches a given 3D keypoint, incorporating depth uncertainty. DS-NeRF can render better images given fewer training views while training 2-3x faster. Further, we show that our loss is compatible with other recently proposed NeRF methods, demonstrating that depth is a cheap and easily digestible supervisory signal. And finally, we find that DS-NeRF can support other types of depth supervision such as scanned depth sensors and RGB-D reconstruction outputs.</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2107.02791</t>
+  </si>
+  <si>
+    <t>Direct Voxel Grid Optimization: Super-fast Convergence for Radiance Fields Reconstruction</t>
+  </si>
+  <si>
+    <t>CVPR2022(oral)</t>
+  </si>
+  <si>
+    <t>We present a super-fast convergence approach to reconstructing the per-scene radiance field from a set of images that capture the scene with known poses. This task, which is often applied to novel view synthesis, is recently revolutionized by Neural Radiance Field (NeRF) for its state-of-the-art quality and flexibility. However, NeRF and its variants require a lengthy training time ranging from hours to days for a single scene. In contrast, our approach achieves NeRF-comparable quality and converges rapidly from scratch in less than 15 minutes with a single GPU. We adopt a representation consisting of a density voxel grid for scene geometry and a feature voxel grid with a shallow network for complex view-dependent appearance. Modeling with explicit and discretized volume representations is not new, but we propose two simple yet non-trivial techniques that contribute to fast convergence speed and high-quality output. First, we introduce the post-activation interpolation on voxel density, which is capable of producing sharp surfaces in lower grid resolution. Second, direct voxel density optimization is prone to suboptimal geometry solutions, so we robustify the optimization process by imposing several priors. Finally, evaluation on five inward-facing benchmarks shows that our method matches, if not surpasses, NeRF's quality, yet it only takes about 15 minutes to train from scratch for a new scene.</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2111.11215</t>
+  </si>
+  <si>
+    <t>https://github.com/sunset1995/DirectVoxGO</t>
+  </si>
+  <si>
+    <t>NeRF in the Wild: Neural Radiance Fields for Unconstrained Photo Collections</t>
+  </si>
+  <si>
+    <t>We present a learning-based method for synthesizing novel views of complex scenes using only unstructured collections of in-the-wild photographs. We build on Neural Radiance Fields (NeRF), which uses the weights of a multilayer perceptron to model the density and color of a scene as a function of 3D coordinates. While NeRF works well on images of static subjects captured under controlled settings, it is incapable of modeling many ubiquitous, real-world phenomena in uncontrolled images, such as variable illumination or transient occluders. We introduce a series of extensions to NeRF to address these issues, thereby enabling accurate reconstructions from unstructured image collections taken from the internet. We apply our system, dubbed NeRF-W, to internet photo collections of famous landmarks, and demonstrate temporally consistent novel view renderings that are significantly closer to photorealism than the prior state of the art.</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2008.02268</t>
+  </si>
+  <si>
+    <t>Ha-NeRF: Hallucinated Neural Radiance Fields in the Wild</t>
+  </si>
+  <si>
+    <t>Neural Radiance Fields (NeRF) has recently gained popularity for its impressive novel view synthesis ability. This paper studies the problem of hallucinated NeRF: i.e., recovering a realistic NeRF at a different time of day from a group of tourism images. Existing solutions adopt NeRF with a controllable appearance embedding to render novel views under various conditions, but they cannot render view-consistent images with an unseen appearance. To solve this problem, we present an end-to-end framework for constructing a hallucinated NeRF, dubbed as Ha-NeRF. Specifically, we propose an appearance hallucination module to handle time-varying appearances and transfer them to novel views. Considering the complex occlusions of tourism images, we introduce an anti-occlusion module to decompose the static subjects for visibility accurately. Experimental results on synthetic data and real tourism photo collections demonstrate that our method can hallucinate the desired appearances and render occlusion-free images from different views.</t>
+  </si>
+  <si>
+    <t>https://rover-xingyu.github.io/Ha-NeRF/</t>
+  </si>
+  <si>
+    <t>https://github.com/rover-xingyu/Ha-NeRF</t>
+  </si>
+  <si>
+    <t>Nerfies: Deformable Neural Radiance Fields</t>
+  </si>
+  <si>
+    <t>We present the first method capable of photorealistically reconstructing deformable scenes using photos/videos captured casually from mobile phones. Our approach augments neural radiance fields (NeRF) by optimizing an additional continuous volumetric deformation field that warps each observed point into a canonical 5D NeRF. We observe that these NeRF-like deformation fields are prone to local minima, and propose a coarse-to-fine optimization method for coordinate-based models that allows for more robust optimization. By adapting principles from geometry processing and physical simulation to NeRF-like models, we propose an elastic regularization of the deformation field that further improves robustness. We show that our method can turn casually captured selfie photos/videos into deformable NeRF models that allow for photorealistic renderings of the subject from arbitrary viewpoints, which we dub "nerfies." We evaluate our method by collecting time-synchronized data using a rig with two mobile phones, yielding train/validation images of the same pose at different viewpoints. We show that our method faithfully reconstructs non-rigidly deforming scenes and reproduces unseen views with high fidelity.</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2011.12948</t>
+  </si>
+  <si>
+    <t>D-NeRF: Neural Radiance Fields for Dynamic Scenes</t>
+  </si>
+  <si>
+    <t>Neural rendering techniques combining machine learning with geometric reasoning have arisen as one of the most promising approaches for synthesizing novel views of a scene from a sparse set of images. Among these, stands out the Neural radiance fields (NeRF), which trains a deep network to map 5D input coordinates (representing spatial location and viewing direction) into a volume density and view-dependent emitted radiance. However, despite achieving an unprecedented level of photorealism on the generated images, NeRF is only applicable to static scenes, where the same spatial location can be queried from different images. In this paper we introduce D-NeRF, a method that extends neural radiance fields to a dynamic domain, allowing to reconstruct and render novel images of objects under rigid and non-rigid motions from a \emph{single} camera moving around the scene. For this purpose we consider time as an additional input to the system, and split the learning process in two main stages: one that encodes the scene into a canonical space and another that maps this canonical representation into the deformed scene at a particular time. Both mappings are simultaneously learned using fully-connected networks. Once the networks are trained, D-NeRF can render novel images, controlling both the camera view and the time variable, and thus, the object movement. We demonstrate the effectiveness of our approach on scenes with objects under rigid, articulated and non-rigid motions. Code, model weights and the dynamic scenes dataset will be released.</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2011.13961</t>
+  </si>
+  <si>
+    <t>https://github.com/albertpumarola/D-NeRF</t>
+  </si>
+  <si>
+    <t>Dynamic Neural Radiance Fields for Monocular 4D Facial Avatar Reconstruction</t>
+  </si>
+  <si>
+    <t>We present dynamic neural radiance fields for modeling the appearance and dynamics of a human face. Digitally modeling and reconstructing a talking human is a key building-block for a variety of applications. Especially, for telepresence applications in AR or VR, a faithful reproduction of the appearance including novel viewpoint or head-poses is required. In contrast to state-of-the-art approaches that model the geometry and material properties explicitly, or are purely image-based, we introduce an implicit representation of the head based on scene representation networks. To handle the dynamics of the face, we combine our scene representation network with a low-dimensional morphable model which provides explicit control over pose and expressions. We use volumetric rendering to generate images from this hybrid representation and demonstrate that such a dynamic neural scene representation can be learned from monocular input data only, without the need of a specialized capture setup. In our experiments, we show that this learned volumetric representation allows for photo-realistic image generation that surpasses the quality of state-of-the-art video-based reenactment methods.</t>
+  </si>
+  <si>
+    <t>https://gafniguy.github.io/4D-Facial-Avatars/</t>
+  </si>
+  <si>
+    <t>https://github.com/gafniguy/4D-Facial-Avatars</t>
+  </si>
+  <si>
+    <t>Non-Rigid Neural Radiance Fields: Reconstruction and Novel View Synthesis of a Deforming Scene from Monocular Video,</t>
+  </si>
+  <si>
+    <t>We present Non-Rigid Neural Radiance Fields (NR-NeRF), a reconstruction and novel view synthesis approach for general non-rigid dynamic scenes. Our approach takes RGB images of a dynamic scene as input (e.g., from a monocular video recording), and creates a high-quality space-time geometry and appearance representation. We show that a single handheld consumer-grade camera is sufficient to synthesize sophisticated renderings of a dynamic scene from novel virtual camera views, e.g. a `bullet-time' video effect. NR-NeRF disentangles the dynamic scene into a canonical volume and its deformation. Scene deformation is implemented as ray bending, where straight rays are deformed non-rigidly. We also propose a novel rigidity network to better constrain rigid regions of the scene, leading to more stable results. The ray bending and rigidity network are trained without explicit supervision. Our formulation enables dense correspondence estimation across views and time, and compelling video editing applications such as motion exaggeration. Our code will be open sourced.</t>
+  </si>
+  <si>
+    <t>https://vcai.mpi-inf.mpg.de/projects/nonrigid_nerf/</t>
+  </si>
+  <si>
+    <t>https://github.com/facebookresearch/nonrigid_nerf</t>
+  </si>
+  <si>
+    <t>PVA: Pixel-aligned Volumetric Avatars</t>
+  </si>
+  <si>
+    <t>Acquisition and rendering of photorealistic human heads is a highly challenging research problem of particular importance for virtual telepresence. Currently, the highest quality is achieved by volumetric approaches trained in a person-specific manner on multi-view data. These models better represent fine structure, such as hair, compared to simpler mesh-based models. Volumetric models typically employ a global code to represent facial expressions, such that they can be driven by a small set of animation parameters. While such architectures achieve impressive rendering quality, they can not easily be extended to the multi-identity setting. In this paper, we devise a novel approach for predicting volumetric avatars of the human head given just a small number of inputs. We enable generalization across identities by a novel parameterization that combines neural radiance fields with local, pixel-aligned features extracted directly from the inputs, thus side-stepping the need for very deep or complex networks. Our approach is trained in an end-to-end manner solely based on a photometric rerendering loss without requiring explicit 3D supervision.We demonstrate that our approach outperforms the existing state of the art in terms of quality and is able to generate faithful facial expressions in a multi-identity setting.</t>
+  </si>
+  <si>
+    <t>https://volumetric-avatars.github.io/</t>
+  </si>
+  <si>
+    <t>Neural Articulated Radiance Field</t>
+  </si>
+  <si>
+    <t>We present Neural Articulated Radiance Field (NARF), a novel deformable 3D representation for articulated objects learned from images. While recent advances in 3D implicit representation have made it possible to learn models of complex objects, learning pose-controllable representations of articulated objects remains a challenge, as current methods require 3D shape supervision and are unable to render appearance. In formulating an implicit representation of 3D articulated objects, our method considers only the rigid transformation of the most relevant object part in solving for the radiance field at each 3D location. In this way, the proposed method represents pose-dependent changes without significantly increasing the computational complexity. NARF is fully differentiable and can be trained from images with pose annotations. Moreover, through the use of an autoencoder, it can learn appearance variations over multiple instances of an object class. Experiments show that the proposed method is efficient and can generalize well to novel poses.</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2104.03110</t>
+  </si>
+  <si>
+    <t>https://github.com/nogu-atsu/NARF#code</t>
+  </si>
+  <si>
+    <t>CLA-NeRF: Category-Level Articulated Neural Radiance Field</t>
+  </si>
+  <si>
+    <t>ICRA2022</t>
+  </si>
+  <si>
+    <t>We propose CLA-NeRF -- a Category-Level Articulated Neural Radiance Field that can perform view synthesis, part segmentation, and articulated pose estimation. CLA-NeRF is trained at the object category level using no CAD models and no depth, but a set of RGB images with ground truth camera poses and part segments. During inference, it only takes a few RGB views (i.e., few-shot) of an unseen 3D object instance within the known category to infer the object part segmentation and the neural radiance field. Given an articulated pose as input, CLA-NeRF can perform articulation-aware volume rendering to generate the corresponding RGB image at any camera pose. Moreover, the articulated pose of an object can be estimated via inverse rendering. In our experiments, we evaluate the framework across five categories on both synthetic and real-world data. In all cases, our method shows realistic deformation results and accurate articulated pose estimation. We believe that both few-shot articulated object rendering and articulated pose estimation open doors for robots to perceive and interact with unseen articulated objects.</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2202.00181</t>
+  </si>
+  <si>
+    <t>Animatable Neural Radiance Fields for Human Body Modeling</t>
+  </si>
+  <si>
+    <t>This paper addresses the challenge of reconstructing an animatable human model from a multi-view video. Some recent works have proposed to decompose a non-rigidly deforming scene into a canonical neural radiance field and a set of deformation fields that map observation-space points to the canonical space, thereby enabling them to learn the dynamic scene from images. However, they represent the deformation field as translational vector field or SE(3) field, which makes the optimization highly under-constrained. Moreover, these representations cannot be explicitly controlled by input motions. Instead, we introduce neural blend weight fields to produce the deformation fields. Based on the skeleton-driven deformation, blend weight fields are used with 3D human skeletons to generate observation-to-canonical and canonical-to-observation correspondences. Since 3D human skeletons are more observable, they can regularize the learning of deformation fields. Moreover, the learned blend weight fields can be combined with input skeletal motions to generate new deformation fields to animate the human model. Experiments show that our approach significantly outperforms recent human synthesis methods. The code will be available at https://zju3dv.github.io/animatable_nerf/.</t>
+  </si>
+  <si>
+    <t>https://zju3dv.github.io/animatable_nerf/</t>
+  </si>
+  <si>
+    <t>https://github.com/zju3dv/animatable_nerf</t>
+  </si>
+  <si>
+    <t>Neural Actor: Neural Free-view Synthesis of Human Actors with Pose Control</t>
+  </si>
+  <si>
+    <t>SIGSIGGRAPH Asia 2021</t>
+  </si>
+  <si>
+    <t>We propose Neural Actor (NA), a new method for high-quality synthesis of humans from arbitrary viewpoints and under arbitrary controllable poses. Our method is built upon recent neural scene representation and rendering works which learn representations of geometry and appearance from only 2D images. While existing works demonstrated compelling rendering of static scenes and playback of dynamic scenes, photo-realistic reconstruction and rendering of humans with neural implicit methods, in particular under user-controlled novel poses, is still difficult. To address this problem, we utilize a coarse body model as the proxy to unwarp the surrounding 3D space into a canonical pose. A neural radiance field learns pose-dependent geometric deformations and pose- and view-dependent appearance effects in the canonical space from multi-view video input. To synthesize novel views of high fidelity dynamic geometry and appearance, we leverage 2D texture maps defined on the body model as latent variables for predicting residual deformations and the dynamic appearance. Experiments demonstrate that our method achieves better quality than the state-of-the-arts on playback as well as novel pose synthesis, and can even generalize well to new poses that starkly differ from the training poses. Furthermore, our method also supports body shape control of the synthesized results.</t>
+  </si>
+  <si>
+    <t>https://vcai.mpi-inf.mpg.de/projects/NeuralActor/</t>
+  </si>
+  <si>
+    <t>https://people.mpi-inf.mpg.de/~lliu/projects/NeuralActor/</t>
+  </si>
+  <si>
+    <t>Neural Scene Flow Fields for Space-Time View Synthesis of Dynamic Scenes</t>
+  </si>
+  <si>
+    <t>http://www.cs.cornell.edu/~zl548/NSFF/</t>
+  </si>
+  <si>
+    <t>https://github.com/zhengqili/Neural-Scene-Flow-Fields</t>
+  </si>
+  <si>
+    <t>video</t>
+  </si>
+  <si>
+    <t>We present a method that achieves state-of-the-art results for synthesizing novel views of complex scenes by optimizing an underlying continuous volumetric scene function using a sparse set of input views. Our algorithm represents a scene using a fully-connected (non-convolutional) deep network, whose input is a single continuous 5D coordinate (spatial location (x,y,z) and viewing direction (θ,ϕ)) and whose output is the volume density and view-dependent emitted radiance at that spatial location. We synthesize views by querying 5D coordinates along camera rays and use classic volume rendering techniques to project the output colors and densities into an image. Because volume rendering is naturally differentiable, the only input required to optimize our representation is a set of images with known camera poses. We describe how to effectively optimize neural radiance fields to render photorealistic novel views of scenes with complicated geometry and appearance, and demonstrate results that outperform prior work on neural rendering and view synthesis. View synthesis results are best viewed as videos, so we urge readers to view our supplementary video for convincing comparisons.</t>
+  </si>
+  <si>
+    <t>We present a method to perform novel view and time synthesis of dynamic scenes, requiring only a monocular video with known camera poses as input. To do this, we introduce Neural Scene Flow Fields, a new representation that models the dynamic scene as a time-variant continuous function of appearance, geometry, and 3D scene motion. Our representation is optimized through a neural network to fit the observed input views. We show that our representation can be used for complex dynamic scenes, including thin structures, view-dependent effects, and natural degrees of motion. We conduct a number of experiments that demonstrate our approach significantly outperforms recent monocular view synthesis methods, and show qualitative results of space-time view synthesis on a variety of real-world videos.</t>
+  </si>
+  <si>
+    <t>human</t>
+  </si>
+  <si>
+    <t>Neural Body: Implicit Neural Representations with Structured Latent Codes for Novel View Synthesis of Dynamic Humans</t>
+  </si>
+  <si>
+    <t>This paper addresses the challenge of novel view synthesis for a human performer from a very sparse set of camera views. Some recent works have shown that learning implicit neural representations of 3D scenes achieves remarkable view synthesis quality given dense input views. However, the representation learning will be ill-posed if the views are highly sparse. To solve this ill-posed problem, our key idea is to integrate observations over video frames. To this end, we propose Neural Body, a new human body representation which assumes that the learned neural representations at different frames share the same set of latent codes anchored to a deformable mesh, so that the observations across frames can be naturally integrated. The deformable mesh also provides geometric guidance for the network to learn 3D representations more efficiently. To evaluate our approach, we create a multi-view dataset named ZJU-MoCap that captures performers with complex motions. Experiments on ZJU-MoCap show that our approach outperforms prior works by a large margin in terms of novel view synthesis quality. We also demonstrate the capability of our approach to reconstruct a moving person from a monocular video on the People-Snapshot dataset.</t>
+  </si>
+  <si>
+    <t>https://zju3dv.github.io/neuralbody/</t>
+  </si>
+  <si>
+    <t>https://github.com/zju3dv/neuralbody</t>
+  </si>
+  <si>
+    <t>Neural 3D Video Synthesis from Multi-view Video</t>
+  </si>
+  <si>
+    <t>We propose a novel approach for 3D video synthesis that is able to represent multi-view video recordings of a dynamic real-world scene in a compact, yet expressive representation that enables high-quality view synthesis and motion interpolation. Our approach takes the high quality and compactness of static neural radiance fields in a new direction: to a model-free, dynamic setting. At the core of our approach is a novel time-conditioned neural radiance fields that represents scene dynamics using a set of compact latent codes. To exploit the fact that changes between adjacent frames of a video are typically small and locally consistent, we propose two novel strategies for efficient training of our neural network: 1) An efficient hierarchical training scheme, and 2) an importance sampling strategy that selects the next rays for training based on the temporal variation of the input videos. In combination, these two strategies significantly boost the training speed, lead to fast convergence of the training process, and enable high quality results. Our learned representation is highly compact and able to represent a 10 second 30 FPS multi-view video recording by 18 cameras with a model size of just 28MB. We demonstrate that our method can render high-fidelity wide-angle novel views at over 1K resolution, even for highly complex and dynamic scenes. We perform an extensive qualitative and quantitative evaluation that shows that our approach outperforms the current state of the art. Project website: https://neural-3d-video.github.io.</t>
+  </si>
+  <si>
+    <t>https://neural-3d-video.github.io/</t>
+  </si>
+  <si>
+    <t>Dynamic View Synthesis from Dynamic Monocular Video</t>
+  </si>
+  <si>
+    <t>We present an algorithm for generating novel views at arbitrary viewpoints and any input time step given a monocular video of a dynamic scene. Our work builds upon recent advances in neural implicit representation and uses continuous and differentiable functions for modeling the time-varying structure and the appearance of the scene. We jointly train a time-invariant static NeRF and a time-varying dynamic NeRF, and learn how to blend the results in an unsupervised manner. However, learning this implicit function from a single video is highly ill-posed (with infinitely many solutions that match the input video). To resolve the ambiguity, we introduce regularization losses to encourage a more physically plausible solution. We show extensive quantitative and qualitative results of dynamic view synthesis from casually captured videos.</t>
+  </si>
+  <si>
+    <t>https://free-view-video.github.io/</t>
+  </si>
+  <si>
+    <t>https://github.com/gaochen315/DynamicNeRF</t>
+  </si>
+  <si>
+    <t>GRAF: Generative Radiance Fields for 3D-Aware Image Synthesis</t>
+  </si>
+  <si>
+    <t>https://github.com/autonomousvision/graf</t>
+  </si>
+  <si>
+    <t>While 2D generative adversarial networks have enabled high-resolution image synthesis, they largely lack an understanding of the 3D world and the image formation process. Thus, they do not provide precise control over camera viewpoint or object pose. To address this problem, several recent approaches leverage intermediate voxel-based representations in combination with differentiable rendering. However, existing methods either produce low image resolution or fall short in disentangling camera and scene properties, eg, the object identity may vary with the viewpoint. In this paper, we propose a generative model for radiance fields which have recently proven successful for novel view synthesis of a single scene. In contrast to voxel-based representations, radiance fields are not confined to a coarse discretization of the 3D space, yet allow for disentangling camera and scene properties while degrading gracefully in the presence of reconstruction ambiguity. By introducing a multi-scale patch-based discriminator, we demonstrate synthesis of high-resolution images while training our model from unposed 2D images alone. We systematically analyze our approach on several challenging synthetic and real-world datasets. Our experiments reveal that radiance fields are a powerful representation for generative image synthesis, leading to 3D consistent models that render with high fidelity.</t>
+  </si>
+  <si>
+    <t>GRF: Learning a General Radiance Field for 3D Scene Representation and Rendering</t>
+  </si>
+  <si>
+    <t>We present a simple yet powerful neural network that implicitly represents and renders 3D objects and scenes only from 2D observations. The network models 3D geometries as a general radiance field, which takes a set of 2D images with camera poses and intrinsics as input, constructs an internal representation for each point of the 3D space, and then renders the corresponding appearance and geometry of that point viewed from an arbitrary position. The key to our approach is to learn local features for each pixel in 2D images and to then project these features to 3D points, thus yielding general and rich point representations. We additionally integrate an attention mechanism to aggregate pixel features from multiple 2D views, such that visual occlusions are implicitly taken into account. Extensive experiments demonstrate that our method can generate high-quality and realistic novel views for novel objects, unseen categories and challenging real-world scenes.</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2010.04595</t>
+  </si>
+  <si>
+    <t>https://github.com/alextrevithick/GRF</t>
+  </si>
+  <si>
+    <t>pixelNeRF: Neural Radiance Fields from One or Few Images</t>
+  </si>
+  <si>
+    <t>We propose pixelNeRF, a learning framework that predicts a continuous neural scene representation conditioned on one or few input images. The existing approach for constructing neural radiance fields involves optimizing the representation to every scene independently, requiring many calibrated views and significant compute time. We take a step towards resolving these shortcomings by introducing an architecture that conditions a NeRF on image inputs in a fully convolutional manner. This allows the network to be trained across multiple scenes to learn a scene prior, enabling it to perform novel view synthesis in a feed-forward manner from a sparse set of views (as few as one). Leveraging the volume rendering approach of NeRF, our model can be trained directly from images with no explicit 3D supervision. We conduct extensive experiments on ShapeNet benchmarks for single image novel view synthesis tasks with held-out objects as well as entire unseen categories. We further demonstrate the flexibility of pixelNeRF by demonstrating it on multi-object ShapeNet scenes and real scenes from the DTU dataset. In all cases, pixelNeRF outperforms current state-of-the-art baselines for novel view synthesis and single image 3D reconstruction. For the video and code, please visit the project website: this https URL</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2012.02190</t>
+  </si>
+  <si>
+    <t>https://github.com/sxyu/pixel-nerf</t>
+  </si>
+  <si>
+    <t>Learned Initializations for Optimizing Coordinate-Based Neural Representations</t>
+  </si>
+  <si>
+    <t>Coordinate-based neural representations have shown significant promise as an alternative to discrete, array-based representations for complex low dimensional signals. However, optimizing a coordinate-based network from randomly initialized weights for each new signal is inefficient. We propose applying standard meta-learning algorithms to learn the initial weight parameters for these fully-connected networks based on the underlying class of signals being represented (e.g., images of faces or 3D models of chairs). Despite requiring only a minor change in implementation, using these learned initial weights enables faster convergence during optimization and can serve as a strong prior over the signal class being modeled, resulting in better generalization when only partial observations of a given signal are available. We explore these benefits across a variety of tasks, including representing 2D images, reconstructing CT scans, and recovering 3D shapes and scenes from 2D image observations.</t>
+  </si>
+  <si>
+    <t>https://github.com/tancik/learnit</t>
+  </si>
+  <si>
+    <t>https://www.matthewtancik.com/learnit</t>
+  </si>
+  <si>
+    <t>pi-GAN: Periodic Implicit Generative Adversarial Networks for 3D-Aware Image Synthesis</t>
+  </si>
+  <si>
+    <t>CVPR2021(oral)</t>
+  </si>
+  <si>
+    <t>ECCV2022(oral)</t>
+  </si>
+  <si>
+    <t>We have witnessed rapid progress on 3D-aware image synthesis, leveraging recent advances in generative visual models and neural rendering. Existing approaches however fall short in two ways: first, they may lack an underlying 3D representation or rely on view-inconsistent rendering, hence synthesizing images that are not multi-view consistent; second, they often depend upon representation network architectures that are not expressive enough, and their results thus lack in image quality. We propose a novel generative model, named Periodic Implicit Generative Adversarial Networks (π-GAN or pi-GAN), for high-quality 3D-aware image synthesis. π-GAN leverages neural representations with periodic activation functions and volumetric rendering to represent scenes as view-consistent 3D representations with fine detail. The proposed approach obtains state-of-the-art results for 3D-aware image synthesis with multiple real and synthetic datasets.</t>
+  </si>
+  <si>
+    <t>https://marcoamonteiro.github.io/pi-GAN-website/</t>
+  </si>
+  <si>
+    <t>https://github.com/marcoamonteiro/pi-GAN</t>
+  </si>
+  <si>
+    <t>Portrait Neural Radiance Fields from a Single Image</t>
+  </si>
+  <si>
+    <t>We present a method for estimating Neural Radiance Fields (NeRF) from a single headshot portrait. While NeRF has demonstrated high-quality view synthesis, it requires multiple images of static scenes and thus impractical for casual captures and moving subjects. In this work, we propose to pretrain the weights of a multilayer perceptron (MLP), which implicitly models the volumetric density and colors, with a meta-learning framework using a light stage portrait dataset. To improve the generalization to unseen faces, we train the MLP in the canonical coordinate space approximated by 3D face morphable models. We quantitatively evaluate the method using controlled captures and demonstrate the generalization to real portrait images, showing favorable results against state-of-the-arts.</t>
+  </si>
+  <si>
+    <t>https://portrait-nerf.github.io/</t>
+  </si>
+  <si>
+    <t>ShaRF: Shape-conditioned Radiance Fields from a Single View</t>
+  </si>
+  <si>
+    <t>ICML2021</t>
+  </si>
+  <si>
+    <t>We present a method for estimating neural scenes representations of objects given only a single image. The core of our method is the estimation of a geometric scaffold for the object and its use as a guide for the reconstruction of the underlying radiance field. Our formulation is based on a generative process that first maps a latent code to a voxelized shape, and then renders it to an image, with the object appearance being controlled by a second latent code. During inference, we optimize both the latent codes and the networks to fit a test image of a new object. The explicit disentanglement of shape and appearance allows our model to be fine-tuned given a single image. We can then render new views in a geometrically consistent manner and they represent faithfully the input object. Additionally, our method is able to generalize to images outside of the training domain (more realistic renderings and even real photographs). Finally, the inferred geometric scaffold is itself an accurate estimate of the object's 3D shape. We demonstrate in several experiments the effectiveness of our approach in both synthetic and real images.</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2102.08860</t>
+  </si>
+  <si>
+    <t>https://github.com/tensorflow/graphics/tree/master/tensorflow_graphics/projects/radiance_fields</t>
+  </si>
+  <si>
+    <t>IBRNet: Learning Multi-View Image-Based Rendering</t>
+  </si>
+  <si>
+    <t>We present a method that synthesizes novel views of complex scenes by interpolating a sparse set of nearby views. The core of our method is a network architecture that includes a multilayer perceptron and a ray transformer that estimates radiance and volume density at continuous 5D locations (3D spatial locations and 2D viewing directions), drawing appearance information on the fly from multiple source views. By drawing on source views at render time, our method hearkens back to classic work on image-based rendering (IBR), and allows us to render high-resolution imagery. Unlike neural scene representation work that optimizes per-scene functions for rendering, we learn a generic view interpolation function that generalizes to novel scenes. We render images using classic volume rendering, which is fully differentiable and allows us to train using only multi-view posed images as supervision. Experiments show that our method outperforms recent novel view synthesis methods that also seek to generalize to novel scenes. Further, if fine-tuned on each scene, our method is competitive with state-of-the-art single-scene neural rendering methods. Project page: this https URL</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2102.13090</t>
+  </si>
+  <si>
+    <t>https://github.com/googleinterns/IBRNet</t>
+  </si>
+  <si>
+    <t>CAMPARI: Camera-Aware Decomposed Generative Neural Radiance Fields</t>
+  </si>
+  <si>
+    <t>Tremendous progress in deep generative models has led to photorealistic image synthesis. While achieving compelling results, most approaches operate in the two-dimensional image domain, ignoring the three-dimensional nature of our world. Several recent works therefore propose generative models which are 3D-aware, i.e., scenes are modeled in 3D and then rendered differentiably to the image plane. This leads to impressive 3D consistency, but incorporating such a bias comes at a price: the camera needs to be modeled as well. Current approaches assume fixed intrinsics and a predefined prior over camera pose ranges. As a result, parameter tuning is typically required for real-world data, and results degrade if the data distribution is not matched. Our key hypothesis is that learning a camera generator jointly with the image generator leads to a more principled approach to 3D-aware image synthesis. Further, we propose to decompose the scene into a background and foreground model, leading to more efficient and disentangled scene representations. While training from raw, unposed image collections, we learn a 3D- and camera-aware generative model which faithfully recovers not only the image but also the camera data distribution. At test time, our model generates images with explicit control over the camera as well as the shape and appearance of the scene.</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/pdf/2103.17269.pdf</t>
+  </si>
+  <si>
+    <t>NeRF-VAE: A Geometry Aware 3D Scene Generative Model</t>
+  </si>
+  <si>
+    <t>We propose NeRF-VAE, a 3D scene generative model that incorporates geometric structure via NeRF and differentiable volume rendering. In contrast to NeRF, our model takes into account shared structure across scenes, and is able to infer the structure of a novel scene -- without the need to re-train -- using amortized inference. NeRF-VAE's explicit 3D rendering process further contrasts previous generative models with convolution-based rendering which lacks geometric structure. Our model is a VAE that learns a distribution over radiance fields by conditioning them on a latent scene representation. We show that, once trained, NeRF-VAE is able to infer and render geometrically-consistent scenes from previously unseen 3D environments using very few input images. We further demonstrate that NeRF-VAE generalizes well to out-of-distribution cameras, while convolutional models do not. Finally, we introduce and study an attention-based conditioning mechanism of NeRF-VAE's decoder, which improves model performance.</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2104.00587</t>
+  </si>
+  <si>
+    <t>Unconstrained Scene Generation with Locally Conditioned Radiance Fields</t>
+  </si>
+  <si>
+    <t>https://apple.github.io/ml-gsn/</t>
+  </si>
+  <si>
+    <t>https://github.com/apple/ml-gsn</t>
+  </si>
+  <si>
+    <t>MVSNeRF: Fast Generalizable Radiance Field Reconstruction from Multi-View Stereo</t>
+  </si>
+  <si>
+    <t>We present MVSNeRF, a novel neural rendering approach that can efficiently reconstruct neural radiance fields for view synthesis. Unlike prior works on neural radiance fields that consider per-scene optimization on densely captured images, we propose a generic deep neural network that can reconstruct radiance fields from only three nearby input views via fast network inference. Our approach leverages plane-swept cost volumes (widely used in multi-view stereo) for geometry-aware scene reasoning, and combines this with physically based volume rendering for neural radiance field reconstruction. We train our network on real objects in the DTU dataset, and test it on three different datasets to evaluate its effectiveness and generalizability. Our approach can generalize across scenes (even indoor scenes, completely different from our training scenes of objects) and generate realistic view synthesis results using only three input images, significantly outperforming concurrent works on generalizable radiance field reconstruction. Moreover, if dense images are captured, our estimated radiance field representation can be easily fine-tuned; this leads to fast per-scene reconstruction with higher rendering quality and substantially less optimization time than NeRF.</t>
+  </si>
+  <si>
+    <t>https://apchenstu.github.io/mvsnerf/</t>
+  </si>
+  <si>
+    <t>https://github.com/apchenstu/mvsnerf</t>
+  </si>
+  <si>
+    <t>Stereo Radiance Fields (SRF): Learning View Synthesis from Sparse Views of Novel Scenes</t>
+  </si>
+  <si>
+    <t>Recent neural view synthesis methods have achieved impressive quality and realism, surpassing classical pipelines which rely on multi-view reconstruction. State-of-the-Art methods, such as NeRF, are designed to learn a single scene with a neural network and require dense multi-view inputs. Testing on a new scene requires re-training from scratch, which takes 2-3 days. In this work, we introduce Stereo Radiance Fields (SRF), a neural view synthesis approach that is trained end-to-end, generalizes to new scenes, and requires only sparse views at test time. The core idea is a neural architecture inspired by classical multi-view stereo methods, which estimates surface points by finding similar image regions in stereo images. In SRF, we predict color and density for each 3D point given an encoding of its stereo correspondence in the input images. The encoding is implicitly learned by an ensemble of pair-wise similarities -- emulating classical stereo. Experiments show that SRF learns structure instead of overfitting on a scene. We train on multiple scenes of the DTU dataset and generalize to new ones without re-training, requiring only 10 sparse and spread-out views as input. We show that 10-15 minutes of fine-tuning further improve the results, achieving significantly sharper, more detailed results than scene-specific models. The code, model, and videos are available at this https URL.</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2104.06935</t>
+  </si>
+  <si>
+    <t>https://virtualhumans.mpi-inf.mpg.de/srf/</t>
+  </si>
+  <si>
+    <t>Neural Rays for Occlusion-aware Image-based Rendering</t>
+  </si>
+  <si>
+    <t>We present a new neural representation, called Neural Ray (NeuRay), for the novel view synthesis task. Recent works construct radiance fields from image features of input views to render novel view images, which enables the generalization to new scenes. However, due to occlusions, a 3D point may be invisible to some input views. On such a 3D point, these generalization methods will include inconsistent image features from invisible views, which interfere with the radiance field construction. To solve this problem, we predict the visibility of 3D points to input views within our NeuRay representation. This visibility enables the radiance field construction to focus on visible image features, which significantly improves its rendering quality. Meanwhile, a novel consistency loss is proposed to refine the visibility in NeuRay when finetuning on a specific scene. Experiments demonstrate that our approach achieves state-of-the-art performance on the novel view synthesis task when generalizing to unseen scenes and outperforms per-scene optimization methods after finetuning.</t>
+  </si>
+  <si>
+    <t>https://liuyuan-pal.github.io/NeuRay/</t>
+  </si>
+  <si>
+    <t>https://github.com/liuyuan-pal/NeuRay</t>
+  </si>
+  <si>
+    <t>Putting NeRF on a Diet: Semantically Consistent Few-Shot View Synthesis</t>
+  </si>
+  <si>
+    <t>https://www.ajayj.com/dietnerf</t>
+  </si>
+  <si>
+    <t>https://github.com/ajayjain/DietNeRF</t>
+  </si>
+  <si>
+    <t>Towards Continuous Depth MPI with NeRF for Novel View Synthesis</t>
+  </si>
+  <si>
+    <t>In this paper, we propose MINE to perform novel view synthesis and depth estimation via dense 3D reconstruction from a single image. Our approach is a continuous depth generalization of the Multiplane Images (MPI) by introducing the NEural radiance fields (NeRF). Given a single image as input, MINE predicts a 4-channel image (RGB and volume density) at arbitrary depth values to jointly reconstruct the camera frustum and fill in occluded contents. The reconstructed and inpainted frustum can then be easily rendered into novel RGB or depth views using differentiable rendering. Extensive experiments on RealEstate10K, KITTI and Flowers Light Fields show that our MINE outperforms state-of-the-art by a large margin in novel view synthesis. We also achieve competitive results in depth estimation on iBims-1 and NYU-v2 without annotated depth supervision. Our source code is available at this https URL</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2103.14910</t>
+  </si>
+  <si>
+    <t>https://github.com/vincentfung13/MINE</t>
+  </si>
+  <si>
+    <t>TöRF: Time-of-Flight Radiance Fields for Dynamic Scene View Synthesis</t>
+  </si>
+  <si>
+    <t>Neural networks can represent and accurately reconstruct radiance fields for static 3D scenes (e.g., NeRF). Several works extend these to dynamic scenes captured with monocular video, with promising performance. However, the monocular setting is known to be an under-constrained problem, and so methods rely on data-driven priors for reconstructing dynamic content. We replace these priors with measurements from a time-of-flight (ToF) camera, and introduce a neural representation based on an image formation model for continuous-wave ToF cameras. Instead of working with processed depth maps, we model the raw ToF sensor measurements to improve reconstruction quality and avoid issues with low reflectance regions, multi-path interference, and a sensor's limited unambiguous depth range. We show that this approach improves robustness of dynamic scene reconstruction to erroneous calibration and large motions, and discuss the benefits and limitations of integrating RGB+ToF sensors that are now available on modern smartphones.</t>
+  </si>
+  <si>
+    <t>https://imaging.cs.cmu.edu/torf/</t>
+  </si>
+  <si>
+    <t>https://github.com/breuckelen/torf</t>
+  </si>
+  <si>
+    <t>CodeNeRF: Disentangled Neural Radiance Fields for Object Categories</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeNeRF is an implicit 3D neural representation that learns the variation of object shapes and textures across a category and can be trained, from a set of posed images, to synthesize novel views of unseen objects. Unlike the original NeRF, which is scene specific, CodeNeRF learns to disentangle shape and texture by learning separate embeddings. At test time, given a single unposed image of an unseen object, CodeNeRF jointly estimates camera viewpoint, and shape and appearance codes via optimization. Unseen objects can be reconstructed from a single image, and then rendered from new viewpoints or their shape and texture edited by varying the latent codes. We conduct experiments on the SRN benchmark, which show that CodeNeRF generalises well to unseen objects and achieves on-par performance with methods that require known camera pose at test time. Our results on real-world images demonstrate that CodeNeRF can bridge the sim-to-real gap. </t>
+  </si>
+  <si>
+    <t>https://www.google.com/url?q=https%3A%2F%2Fgithub.com%2Fwbjang%2Fcode-nerf&amp;sa=D&amp;sntz=1&amp;usg=AOvVaw2eD5ZoRbk2aWFuwUSHlh5_</t>
+  </si>
+  <si>
+    <t>https://www.google.com/url?q=https%3A%2F%2Farxiv.org%2Fpdf%2F2109.01750.pdf&amp;sa=D&amp;sntz=1&amp;usg=AOvVaw1Fnir0e4aRa22Nt0HoXDWh</t>
+  </si>
+  <si>
+    <t>StyleNeRF: A Style-based 3D-Aware Generator for High-resolution Image Synthesis</t>
+  </si>
+  <si>
+    <t>ICLR2022</t>
+  </si>
+  <si>
+    <t>We propose StyleNeRF, a 3D-aware generative model for photo-realistic high-resolution image synthesis with high multi-view consistency, which can be trained on unstructured 2D images. Existing approaches either cannot synthesize high-resolution images with fine details or yield noticeable 3D-inconsistent artifacts. In addition, many of them lack control over style attributes and explicit 3D camera poses. StyleNeRF integrates the neural radiance field (NeRF) into a style-based generator to tackle the aforementioned challenges, i.e., improving rendering efficiency and 3D consistency for high-resolution image generation. We perform volume rendering only to produce a low-resolution feature map and progressively apply upsampling in 2D to address the first issue. To mitigate the inconsistencies caused by 2D upsampling, we propose multiple designs, including a better upsampler and a new regularization loss. With these designs, StyleNeRF can synthesize high-resolution images at interactive rates while preserving 3D consistency at high quality. StyleNeRF also enables control of camera poses and different levels of styles, which can generalize to unseen views. It also supports challenging tasks, including zoom-in and-out, style mixing, inversion, and semantic editing.</t>
+  </si>
+  <si>
+    <t>https://jiataogu.me/style_nerf/</t>
+  </si>
+  <si>
+    <t>https://github.com/facebookresearch/StyleNeRF</t>
+  </si>
+  <si>
+    <t>NeRF in the Dark: High Dynamic Range View Synthesis from Noisy Raw Images</t>
+  </si>
+  <si>
+    <t>Neural Radiance Fields (NeRF) is a technique for high quality novel view synthesis from a collection of posed input images. Like most view synthesis methods, NeRF uses tonemapped low dynamic range (LDR) as input; these images have been processed by a lossy camera pipeline that smooths detail, clips highlights, and distorts the simple noise distribution of raw sensor data. We modify NeRF to instead train directly on linear raw images, preserving the scene's full dynamic range. By rendering raw output images from the resulting NeRF, we can perform novel high dynamic range (HDR) view synthesis tasks. In addition to changing the camera viewpoint, we can manipulate focus, exposure, and tonemapping after the fact. Although a single raw image appears significantly more noisy than a postprocessed one, we show that NeRF is highly robust to the zero-mean distribution of raw noise. When optimized over many noisy raw inputs (25-200), NeRF produces a scene representation so accurate that its rendered novel views outperform dedicated single and multi-image deep raw denoisers run on the same wide baseline input images. As a result, our method, which we call RawNeRF, can reconstruct scenes from extremely noisy images captured in near-darkness.</t>
+  </si>
+  <si>
+    <t>https://bmild.github.io/rawnerf/</t>
+  </si>
+  <si>
+    <t>https://github.com/google-research/multinerf</t>
+  </si>
+  <si>
+    <t>iNeRF: Inverting Neural Radiance Fields for Pose Estimation</t>
+  </si>
+  <si>
+    <t>IROS2021</t>
+  </si>
+  <si>
+    <t>We present iNeRF, a framework that performs pose estimation by “inverting” a trained Neural Radiance Field(NeRF). NeRFs have been shown to be remarkably effective for the task of view synthesis — synthesizing photorealisticnovel views of real-world scenes or objects. In this work, we investigate whether we can apply analysis-by-synthesis with NeRF for 6DoF pose estimation – given an image, find the translation and rotation of a camera relative to a 3Dmodel. Starting from an initial pose estimate, we use gradient descent to minimize the residual between pixels rendered from an already-trained NeRF and pixels in an observed image. In our experiments, we first study 1) how to sample rays during pose refinement for iNeRF to collect informative gradients and 2) how different batch sizes ofrays affect iNeRF on a synthetic dataset. We then show that for complex real-world scenes from the LLFF dataset, iNeRF can improve NeRF by estimating the camera poses of novel images and using these images as additional trainingdata for NeRF. Finally, we show iNeRF can be combinedwith feature-based pose initialization. The approach outperforms all other RGB-based methods relying on syntheticdata on LineMOD.</t>
+  </si>
+  <si>
+    <t>http://yenchenlin.me/inerf/</t>
+  </si>
+  <si>
+    <t>https://github.com/yenchenlin/iNeRF-public</t>
+  </si>
+  <si>
+    <t>A-NeRF: Surface-free Human 3D Pose Refinement via Neural Rendering</t>
+  </si>
+  <si>
+    <t>NeurIPS2020</t>
+  </si>
+  <si>
+    <t>NeurIPS2021(spotlight)</t>
+  </si>
+  <si>
+    <t>https://avg.is.mpg.de/publications/schwarz2020NeurIPS</t>
+  </si>
+  <si>
+    <t>NeurIPS2021</t>
+  </si>
+  <si>
+    <t>While deep learning reshaped the classical motion capture pipeline with feed-forward networks, generative models are required to recover fine alignment via iterative refinement. Unfortunately, the existing models are usually hand-crafted or learned in controlled conditions, only applicable to limited domains. We propose a method to learn a generative neural body model from unlabelled monocular videos by extending Neural Radiance Fields (NeRFs). We equip them with a skeleton to apply to time-varying and articulated motion. A key insight is that implicit models require the inverse of the forward kinematics used in explicit surface models. Our reparameterization defines spatial latent variables relative to the pose of body parts and thereby overcomes ill-posed inverse operations with an overparameterization. This enables learning volumetric body shape and appearance from scratch while jointly refining the articulated pose; all without ground truth labels for appearance, pose, or 3D shape on the input videos. When used for novel-view-synthesis and motion capture, our neural model improves accuracy on diverse datasets. Project website: this https URL .</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2102.06199</t>
+  </si>
+  <si>
+    <t>https://github.com/LemonATsu/A-NeRF</t>
+  </si>
+  <si>
+    <t>https://nerfmm.active.vision/</t>
+  </si>
+  <si>
+    <t>NeRF--: Neural Radiance Fields Without Known Camera Parameters</t>
+  </si>
+  <si>
+    <t>https://github.com/ActiveVisionLab/nerfmm</t>
+  </si>
+  <si>
+    <t>Implicit Mapping and Positioning in Real-Time</t>
+  </si>
+  <si>
+    <t>We show for the first time that a multilayer perceptron (MLP) can serve as the only scene representation in a real-time SLAM system for a handheld RGB-D camera. Our network is trained in live operation without prior data, building a dense, scene-specific implicit 3D model of occupancy and colour which is also immediately used for tracking.</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2103.12352</t>
+  </si>
+  <si>
+    <t>NICE-SLAM  Neural Implicit Scalable Encoding for SLAM</t>
+  </si>
+  <si>
+    <t>Neural implicit representations have recently shown encouraging results in various domains, including promising progress in simultaneous localization and mapping (SLAM). Nevertheless, existing methods produce over-smoothed scene reconstructions and have difficulty scaling up to large scenes. These limitations are mainly due to their simple fully-connected network architecture that does not incorporate local information in the observations. In this paper, we present NICE-SLAM, a dense SLAM system that incorporates multi-level local information by introducing a hierarchical scene representation. Optimizing this representation with pre-trained geometric priors enables detailed reconstruction on large indoor scenes. Compared to recent neural implicit SLAM systems, our approach is more scalable, efficient, and robust. Experiments on five challenging datasets demonstrate competitive results of NICE-SLAM in both mapping and tracking quality.</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2112.12130</t>
+  </si>
+  <si>
+    <t>https://github.com/cvg/nice-slam</t>
+  </si>
+  <si>
+    <t>GNeRF: GAN-based Neural Radiance Field without Posed Camera</t>
+  </si>
+  <si>
+    <t>We introduce GNeRF, a framework to marry Generative Adversarial Networks (GAN) with Neural Radiance Field (NeRF) reconstruction for the complex scenarios with unknown and even randomly initialized camera poses. Recent NeRF-based advances have gained popularity for remarkable realistic novel view synthesis. However, most of them heavily rely on accurate camera poses estimation, while few recent methods can only optimize the unknown camera poses in roughly forward-facing scenes with relatively short camera trajectories and require rough camera poses initialization. Differently, our GNeRF only utilizes randomly initialized poses for complex outside-in scenarios. We propose a novel two-phases end-to-end framework. The first phase takes the use of GANs into the new realm for optimizing coarse camera poses and radiance fields jointly, while the second phase refines them with additional photometric loss. We overcome local minima using a hybrid and iterative optimization scheme. Extensive experiments on a variety of synthetic and natural scenes demonstrate the effectiveness of GNeRF. More impressively, our approach outperforms the baselines favorably in those scenes with repeated patterns or even low textures that are regarded as extremely challenging before.</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2103.15606</t>
+  </si>
+  <si>
+    <t>BARF: Bundle-Adjusting Neural Radiance Fields</t>
+  </si>
+  <si>
+    <t>Neural Radiance Fields (NeRF) have recently gained a surge of interest within the computer vision community for its power to synthesize photorealistic novel views of real-world scenes. One limitation of NeRF, however, is its requirement of accurate camera poses to learn the scene representations. In this paper, we propose Bundle-Adjusting Neural Radiance Fields (BARF) for training NeRF from imperfect (or even unknown) camera poses — the joint problem of learning neural 3D representations and registering camera frames. We establish a theoretical connection to classical image alignment and show that coarse-to-fine registration is also applicable to NeRF. Furthermore, we show that naively applying positional encoding in NeRF has a negative impact on registration with a synthesis-based objective. Experiments on synthetic and real-world data show that BARF can effectively optimize the neural scene representations and resolve large camera pose misalignment at the same time. This enables view synthesis and localization of video sequences from unknown camera poses, opening up new avenues for visual localization systems (e.g. SLAM) and potential applications for dense 3D mapping and reconstruction.</t>
+  </si>
+  <si>
+    <t>https://chenhsuanlin.bitbucket.io/bundle-adjusting-NeRF/</t>
+  </si>
+  <si>
+    <t>https://github.com/chenhsuanlin/bundle-adjusting-NeRF</t>
+  </si>
+  <si>
+    <t>Self-Calibrating Neural Radiance Fields</t>
+  </si>
+  <si>
+    <t>In this work, we propose a camera self-calibration algorithm for generic cameras with arbitrary non-linear distortions. We jointly learn the geometry of the scene and the accurate camera parameters without any calibration objects. Our camera model consists a pinhole model, radial distortion, and a generic noise model that can learn arbitrary non-linear camera distortions. While traditional self-calibration algorithms mostly rely on geometric constraints, we additionally incorporate photometric consistency. This requires learning the geometry of the scene and we use Neural Radiance Fields (NeRF). We also propose a new geometric loss function, viz., projected ray distance loss, to incorporate geometric consistency for complex non-linear camera models. We validate our approach on standard real image datasets and demonstrate our model can learn the camera intrinsics and extrinsics (pose) from scratch without COLMAP initialization. Also, we show that learning accurate camera models in differentiable manner allows us to improves PSNR over NeRF. We experimentally demonstrate that our proposed method is applicable to variants of NeRF. In addition, we use a set of images captured with a fish-eye lens to demonstrate that learning camera model jointly improves the performance significantly over the COLMAP initialization.</t>
+  </si>
+  <si>
+    <t>https://postech-cvlab.github.io/SCNeRF/</t>
+  </si>
+  <si>
+    <t>https://github.com/POSTECH-CVLab/SCNeRF</t>
+  </si>
+  <si>
+    <t>NeRD: Neural Reflectance Decomposition from Image Collections</t>
+  </si>
+  <si>
+    <t>Decomposing a scene into its shape, reflectance, and illumination is a challenging but important problem in computer vision and graphics. This problem is inherently more challenging when the illumination is not a single light source under laboratory conditions but is instead an unconstrained environmental illumination. Though recent work has shown that implicit representations can be used to model the radiance field of an object, most of these techniques only enable view synthesis and not relighting. Additionally, evaluating these radiance fields is resource and time-intensive. We propose a neural reflectance decomposition (NeRD) technique that uses physically-based rendering to decompose the scene into spatially varying BRDF material properties. In contrast to existing techniques, our input images can be captured under different illumination conditions. In addition, we also propose techniques to convert the learned reflectance volume into a relightable textured mesh enabling fast real-time rendering with novel illuminations. We demonstrate the potential of the proposed approach with experiments on both synthetic and real datasets, where we are able to obtain high-quality relightable 3D assets from image collections.</t>
+  </si>
+  <si>
+    <t>https://markboss.me/publication/2021-nerd/#:~:text=NeRD%20is%20a%20novel%20method,can%20turn%20around%20the%20object.</t>
+  </si>
+  <si>
+    <t>https://github.com/cgtuebingen/NeRD-Neural-Reflectance-Decomposition</t>
+  </si>
+  <si>
+    <t>NeRV: Neural Reflectance and Visibility Fields for Relighting and View Synthesis</t>
+  </si>
+  <si>
+    <t>We present a method that takes as input a set of images of a scene illuminated by unconstrained known lighting, and produces as output a 3D representation that can be rendered from novel viewpoints under arbitrary lighting conditions. Our method represents the scene as a continuous volumetric function parameterized as MLPs whose inputs are a 3D location and whose outputs are the following scene properties at that input location: volume density, surface normal, material parameters, distance to the first surface intersection in any direction, and visibility of the external environment in any direction. Together, these allow us to render novel views of the object under arbitrary lighting, including indirect illumination effects. The predicted visibility and surface intersection fields are critical to our model's ability to simulate direct and indirect illumination during training, because the brute-force techniques used by prior work are intractable for lighting conditions outside of controlled setups with a single light. Our method outperforms alternative approaches for recovering relightable 3D scene representations, and performs well in complex lighting settings that have posed a significant challenge to prior work.</t>
+  </si>
+  <si>
+    <t>https://pratulsrinivasan.github.io/nerv/</t>
+  </si>
+  <si>
+    <t>NeX: Real-time View Synthesis with Neural Basis Expansion</t>
+  </si>
+  <si>
+    <t>We present NeX, a new approach to novel view synthesis based on enhancements of multiplane image (MPI) that can reproduce NeXt-level view-dependent effects---in real time. Unlike traditional MPI that uses a set of simple RGBα planes, our technique models view-dependent effects by instead parameterizing each pixel as a linear combination of basis functions learned from a neural network. Moreover, we propose a hybrid implicit-explicit modeling strategy that improves upon fine detail and produces state-of-the-art results. Our method is evaluated on benchmark forward-facing datasets as well as our newly-introduced dataset designed to test the limit of view-dependent modeling with significantly more challenging effects such as the rainbow reflections on a CD. Our method achieves the best overall scores across all major metrics on these datasets with more than 1000× faster rendering time than the state of the art.</t>
+  </si>
+  <si>
+    <t>https://nex-mpi.github.io/</t>
+  </si>
+  <si>
+    <t>https://github.com/nex-mpi/nex-code/</t>
+  </si>
+  <si>
+    <t>https://xiuming.info/projects/nerfactor/</t>
+  </si>
+  <si>
+    <t>NeRFactor: Neural Factorization of Shape and Reflectance Under an Unknown Illumination</t>
+  </si>
+  <si>
+    <t>TOG 2021 (Proc. SIGGRAPH Asia)</t>
+  </si>
+  <si>
+    <t>We address the problem of recovering the shape and spatially-varying reflectance of an object from multi-view images (and their camera poses) of an object illuminated by one unknown lighting condition. This enables the rendering of novel views of the object under arbitrary environment lighting and editing of the object's material properties. The key to our approach, which we call Neural Radiance Factorization (NeRFactor), is to distill the volumetric geometry of a Neural Radiance Field (NeRF) [Mildenhall et al. 2020] representation of the object into a surface representation and then jointly refine the geometry while solving for the spatially-varying reflectance and environment lighting. Specifically, NeRFactor recovers 3D neural fields of surface normals, light visibility, albedo, and Bidirectional Reflectance Distribution Functions (BRDFs) without any supervision, using only a re-rendering loss, simple smoothness priors, and a data-driven BRDF prior learned from real-world BRDF measurements. By explicitly modeling light visibility, NeRFactor is able to separate shadows from albedo and synthesize realistic soft or hard shadows under arbitrary lighting conditions. NeRFactor is able to recover convincing 3D models for free-viewpoint relighting in this challenging and underconstrained capture setup for both synthetic and real scenes. Qualitative and quantitative experiments show that NeRFactor outperforms classic and deep learning-based state of the art across various tasks. Our videos, code, and data are available at people.csail.mit.edu/xiuming/projects/nerfactor/.</t>
+  </si>
+  <si>
+    <t>NeRF++: Analyzing and Improving Neural Radiance Fields</t>
+  </si>
+  <si>
+    <t>Neural Radiance Fields (NeRF) achieve impressive view synthesis results for a variety of capture settings, including 360 capture of bounded scenes and forward-facing capture of bounded and unbounded scenes. NeRF fits multi-layer perceptrons (MLPs) representing view-invariant opacity and view-dependent color volumes to a set of training images, and samples novel views based on volume rendering techniques. In this technical report, we first remark on radiance fields and their potential ambiguities, namely the shape-radiance ambiguity, and analyze NeRF's success in avoiding such ambiguities. Second, we address a parametrization issue involved in applying NeRF to 360 captures of objects within large-scale, unbounded 3D scenes. Our method improves view synthesis fidelity in this challenging scenario. Code is available at this https URL.</t>
+  </si>
+  <si>
+    <t>https://github.com/Kai-46/nerfplusplus;</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2010.07492</t>
+  </si>
+  <si>
+    <t>GIRAFFE: Representing Scenes as Compositional Generative Neural Feature Fields</t>
+  </si>
+  <si>
+    <t>Deep generative models allow for photorealistic image synthesis at high resolutions. But for many applications, this is not enough: content creation also needs to be controllable. While several recent works investigate how to disentangle underlying factors of variation in the data, most of them operate in 2D and hence ignore that our world is three-dimensional. Further, only few works consider the compositional nature of scenes. Our key hypothesis is that incorporating a compositional 3D scene representation into the generative model leads to more controllable image synthesis. Representing scenes as compositional generative neural feature fields allows us to disentangle one or multiple objects from the background as well as individual objects' shapes and appearances while learning from unstructured and unposed image collections without any additional supervision. Combining this scene representation with a neural rendering pipeline yields a fast and realistic image synthesis model. As evidenced by our experiments, our model is able to disentangle individual objects and allows for translating and rotating them in the scene as well as changing the camera pose.</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2011.12100</t>
+  </si>
+  <si>
+    <t>https://github.com/autonomousvision/giraffe</t>
+  </si>
+  <si>
+    <t>Object-Centric Neural Scene Rendering</t>
+  </si>
+  <si>
+    <t>We present a method for composing photorealistic scenes from captured images of objects. Our work builds upon neural radiance fields (NeRFs), which implicitly model the volumetric density and directionally-emitted radiance of a scene. While NeRFs synthesize realistic pictures, they only model static scenes and are closely tied to specific imaging conditions. This property makes NeRFs hard to generalize to new scenarios, including new lighting or new arrangements of objects. Instead of learning a scene radiance field as a NeRF does, we propose to learn object-centric neural scattering functions (OSFs), a representation that models per-object light transport implicitly using a lighting- and view-dependent neural network. This enables rendering scenes even when objects or lights move, without retraining. Combined with a volumetric path tracing procedure, our framework is capable of rendering both intra- and inter-object light transport effects including occlusions, specularities, shadows, and indirect illumination. We evaluate our approach on scene composition and show that it generalizes to novel illumination conditions, producing photorealistic, physically accurate renderings of multi-object scenes.</t>
+  </si>
+  <si>
+    <t>https://shellguo.com/osf/</t>
+  </si>
+  <si>
+    <t>Learning Compositional Radiance Fields of Dynamic Human Heads</t>
+  </si>
+  <si>
+    <t>Photorealistic rendering of dynamic humans is an important ability for telepresence systems, virtual shopping, synthetic data generation, and more. Recently, neural rendering methods, which combine techniques from computer graphics and machine learning, have created high-fidelity models of humans and objects. Some of these methods do not produce results with high-enough fidelity for driveable human models (Neural Volumes) whereas others have extremely long rendering times (NeRF). We propose a novel compositional 3D representation that combines the best of previous methods to produce both higher-resolution and faster results. Our representation bridges the gap between discrete and continuous volumetric representations by combining a coarse 3D-structure-aware grid of animation codes with a continuous learned scene function that maps every position and its corresponding local animation code to its view-dependent emitted radiance and local volume density. Differentiable volume rendering is employed to compute photo-realistic novel views of the human head and upper body as well as to train our novel representation end-to-end using only 2D supervision. In addition, we show that the learned dynamic radiance field can be used to synthesize novel unseen expressions based on a global animation code. Our approach achieves state-of-the-art results for synthesizing novel views of dynamic human heads and the upper body.</t>
+  </si>
+  <si>
+    <t>https://ziyanw1.github.io/hybrid_nerf/</t>
+  </si>
+  <si>
+    <t>Neural Scene Graphs for Dynamic Scenes</t>
+  </si>
+  <si>
+    <t>Recent implicit neural rendering methods have demonstrated that it is possible to learn accurate view synthesis for complex scenes by predicting their volumetric density and color supervised solely by a set of RGB images. However, existing methods are restricted to learning efficient representations of static scenes that encode all scene objects into a single neural network, and lack the ability to represent dynamic scenes and decompositions into individual scene objects. In this work, we present the first neural rendering method that decomposes dynamic scenes into scene graphs. We propose a learned scene graph representation, which encodes object transformation and radiance, to efficiently render novel arrangements and views of the scene. To this end, we learn implicitly encoded scenes, combined with a jointly learned latent representation to describe objects with a single implicit function. We assess the proposed method on synthetic and real automotive data, validating that our approach learns dynamic scenes -- only by observing a video of this scene -- and allows for rendering novel photo-realistic views of novel scene compositions with unseen sets of objects at unseen poses.</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2011.10379</t>
+  </si>
+  <si>
+    <t>https://github.com/princeton-computational-imaging/neural-scene-graphs</t>
+  </si>
+  <si>
+    <t>Unsupervised Discovery of Object Radiance Fields</t>
+  </si>
+  <si>
+    <t>We study the problem of inferring an object-centric scene representation from a single image, aiming to derive a representation that explains the image formation process, captures the scene's 3D nature, and is learned without supervision. Most existing methods on scene decomposition lack one or more of these characteristics, due to the fundamental challenge in integrating the complex 3D-to-2D image formation process into powerful inference schemes like deep networks. In this paper, we propose unsupervised discovery of Object Radiance Fields (uORF), integrating recent progresses in neural 3D scene representations and rendering with deep inference networks for unsupervised 3D scene decomposition. Trained on multi-view RGB images without annotations, uORF learns to decompose complex scenes with diverse, textured background from a single image. We show that uORF performs well on unsupervised 3D scene segmentation, novel view synthesis, and scene editing on three datasets.</t>
+  </si>
+  <si>
+    <t>Learning Object-Compositional Neural Radiance Field for Editable Scene Rendering</t>
+  </si>
+  <si>
+    <t>Implicit neural rendering techniques have shown promising results for novel view synthesis. However, existing methods usually encode the entire scene as a whole, which is generally not aware of the object identity and limits the ability to the high-level editing tasks such as moving or adding furniture. In this paper, we present a novel neural scene rendering system, which learns an object-compositional neural radiance field and produces realistic rendering with editing capability for a clustered and real-world scene. Specifically, we design a novel two-pathway architecture, in which the scene branch encodes the scene geometry and appearance, and the object branch encodes each standalone object conditioned on learnable object activation codes. To survive the training in heavily cluttered scenes, we propose a scene-guided training strategy to solve the 3D space ambiguity in the occluded regions and learn sharp boundaries for each object. Extensive experiments demonstrate that our system not only achieves competitive performance for static scene novel-view synthesis, but also produces realistic rendering for object-level editing.</t>
+  </si>
+  <si>
+    <t>https://zju3dv.github.io/object_nerf/</t>
+  </si>
+  <si>
+    <t>https://github.com/zju3dv/object_nerf</t>
+  </si>
+  <si>
+    <t>https://shuaifengzhi.com/Semantic-NeRF/</t>
+  </si>
+  <si>
+    <t>https://github.com/Harry-Zhi/semantic_nerf/</t>
+  </si>
+  <si>
+    <t>Semantic labelling is highly correlated with geometry and radiance reconstruction, as scene entities with similar shape and appearance are more likely to come from similar classes. Recent implicit neural reconstruction techniques are appealing as they do not require prior training data, but the same fully self-supervised approach is not possible for semantics because labels are human-defined properties.</t>
+  </si>
+  <si>
+    <t>In-Place Scene Labelling and Understanding with Implicit Scene Representation</t>
+  </si>
+  <si>
+    <t>Editing Conditional Radiance Fields</t>
+  </si>
+  <si>
+    <t>A neural radiance field (NeRF) is a scene model supporting high-quality view synthesis, optimized per scene. In this paper, we explore enabling user editing of a category-level NeRF - also known as a conditional radiance field - trained on a shape category. Specifically, we introduce a method for propagating coarse 2D user scribbles to the 3D space, to modify the color or shape of a local region. First, we propose a conditional radiance field that incorporates new modular network components, including a shape branch that is shared across object instances. Observing multiple instances of the same category, our model learns underlying part semantics without any supervision, thereby allowing the propagation of coarse 2D user scribbles to the entire 3D region (e.g., chair seat). Next, we propose a hybrid network update strategy that targets specific network components, which balances efficiency and accuracy. During user interaction, we formulate an optimization problem that both satisfies the user's constraints and preserves the original object structure. We demonstrate our approach on various editing tasks over three shape datasets and show that it outperforms prior neural editing approaches. Finally, we edit the appearance and shape of a real photograph and show that the edit propagates to extrapolated novel views.</t>
+  </si>
+  <si>
+    <t>http://editnerf.csail.mit.edu/</t>
+  </si>
+  <si>
+    <t>https://github.com/stevliu/editnerf</t>
+  </si>
+  <si>
+    <t>Editable Free-Viewpoint Video using a Layered Neural Representation</t>
+  </si>
+  <si>
+    <t>Generating free-viewpoint videos is critical for immersive VR/AR experience but recent neural advances still lack the editing ability to manipulate the visual perception for large dynamic scenes. To fill this gap, in this paper we propose the first approach for editable photo-realistic free-viewpoint video generation for large-scale dynamic scenes using only sparse 16 cameras. The core of our approach is a new layered neural representation, where each dynamic entity including the environment itself is formulated into a space-time coherent neural layered radiance representation called ST-NeRF. Such layered representation supports fully perception and realistic manipulation of the dynamic scene whilst still supporting a free viewing experience in a wide range. In our ST-NeRF, the dynamic entity/layer is represented as continuous functions, which achieves the disentanglement of location, deformation as well as the appearance of the dynamic entity in a continuous and self-supervised manner. We propose a scene parsing 4D label map tracking to disentangle the spatial information explicitly, and a continuous deform module to disentangle the temporal motion implicitly. An object-aware volume rendering scheme is further introduced for the re-assembling of all the neural layers. We adopt a novel layered loss and motion-aware ray sampling strategy to enable efficient training for a large dynamic scene with multiple performers, Our framework further enables a variety of editing functions, i.e., manipulating the scale and location, duplicating or retiming individual neural layers to create numerous visual effects while preserving high realism. Extensive experiments demonstrate the effectiveness of our approach to achieve high-quality, photo-realistic, and editable free-viewpoint video generation for dynamic scenes.</t>
+  </si>
+  <si>
+    <t>https://jiakai-zhang.github.io/st-nerf/</t>
+  </si>
+  <si>
+    <t>https://jiakai-zhang.github.io/st-nerf/#code</t>
+  </si>
+  <si>
+    <t>FiG-NeRF: Figure Ground Neural Radiance Fields for 3D Object Category Modelling</t>
+  </si>
+  <si>
+    <t>3DV2021</t>
+  </si>
+  <si>
+    <t>We investigate the use of Neural Radiance Fields (NeRF) to learn high quality 3D object category models from collections of input images. In contrast to previous work, we are able to do this whilst simultaneously separating foreground objects from their varying backgrounds. We achieve this via a 2-component NeRF model, FiG-NeRF, that prefers explanation of the scene as a geometrically constant background and a deformable foreground that represents the object category. We show that this method can learn accurate 3D object category models using only photometric supervision and casually captured images of the objects. Additionally, our 2-part decomposition allows the model to perform accurate and crisp amodal segmentation. We quantitatively evaluate our method with view synthesis and image fidelity metrics, using synthetic, lab-captured, and in-the-wild data. Our results demonstrate convincing 3D object category modelling that exceed the performance of existing methods.</t>
+  </si>
+  <si>
+    <t>https://fig-nerf.github.io/</t>
+  </si>
+  <si>
+    <t>NeRF-Tex: Neural Reflectance Field Textures</t>
+  </si>
+  <si>
+    <t>EGSR2021</t>
+  </si>
+  <si>
+    <t>We investigate the use of neural fields for modeling diverse mesoscale structures, such as fur, fabric, and grass. Instead of using classical graphics primitives to model the structure, we propose to employ a versatile volumetric primitive represented by a neural reflectance field (NeRF-Tex), which jointly models the geometry of the material and its response to lighting. The NeRF-Tex primitive can be instantiated over a base mesh to “texture” it with the desired meso and microscale appearance. We condition the reflectance field on user-defined parameters that control the appearance. A single NeRF texture thus captures an entire space of reflectance fields rather than one specific structure. This increases the gamut of appearances that can be modeled and provides a solution for combating repetitive texturing artifacts. We also demonstrate that NeRF textures naturally facilitate continuous level-of-detail rendering. Our approach unites the versatility and modeling power of neural networks with the artistic control needed for precise modeling of virtual scenes. While all our training data is currently synthetic, our work provides a recipe that can be further extended to extract complex, hard-to-model appearances from real images.</t>
+  </si>
+  <si>
+    <t>https://developer.nvidia.com/blog/nvidia-research-nerf-tex-neural-reflectance-field-textures/</t>
+  </si>
+  <si>
+    <t>https://github.com/hbaatz/nerf-tex</t>
+  </si>
+  <si>
+    <t>Mip-NeRF: A Multiscale Representation for Anti-Aliasing Neural Radiance Fields</t>
+  </si>
+  <si>
+    <t>The rendering procedure used by neural radiance fields (NeRF) samples a scene with a single ray per pixel and may therefore produce renderings that are excessively blurred or aliased when training or testing images observe scene content at different resolutions. The straightforward solution of supersampling by rendering with multiple rays per pixel is impractical for NeRF, because rendering each ray requires querying a multilayer perceptron hundreds of times. Our solution, which we call "mip-NeRF" (à la "mipmap"), extends NeRF to represent the scene at a continuously-valued scale. By efficiently rendering anti-aliased conical frustums instead of rays, mip-NeRF reduces objectionable aliasing artifacts and significantly improves NeRF's ability to represent fine details, while also being 7% faster than NeRF and half the size. Compared to NeRF, mip-NeRF reduces average error rates by 17% on the dataset presented with NeRF and by 60% on a challenging multiscale variant of that dataset that we present. mip-NeRF is also able to match the accuracy of a brute-force supersampled NeRF on our multiscale dataset while being 22x faster.</t>
+  </si>
+  <si>
+    <t>https://jonbarron.info/mipnerf/</t>
+  </si>
+  <si>
+    <t>https://github.com/google/mipnerf</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2104.10078</t>
+  </si>
+  <si>
+    <t>UNISURF: Unifying Neural Implicit Surfaces and Radiance Fields for Multi-View Reconstruction</t>
+  </si>
+  <si>
+    <t>Neural implicit 3D representations have emerged as a powerful paradigm for reconstructing surfaces from multi-view images and synthesizing novel views. Unfortunately, existing methods such as DVR or IDR require accurate per-pixel object masks as supervision. At the same time, neural radiance fields have revolutionized novel view synthesis. However, NeRF's estimated volume density does not admit accurate surface reconstruction. Our key insight is that implicit surface models and radiance fields can be formulated in a unified way, enabling both surface and volume rendering using the same model. This unified perspective enables novel, more efficient sampling procedures and the ability to reconstruct accurate surfaces without input masks. We compare our method on the DTU, BlendedMVS, and a synthetic indoor dataset. Our experiments demonstrate that we outperform NeRF in terms of reconstruction quality while performing on par with IDR without requiring masks.</t>
+  </si>
+  <si>
+    <t>https://github.com/autonomousvision/unisurf</t>
+  </si>
+  <si>
+    <t>NeuS: Learning Neural Implicit Surfaces by Volume Rendering for Multi-view Reconstruction</t>
+  </si>
+  <si>
+    <t>We present a novel neural surface reconstruction method, called NeuS, for reconstructing objects and scenes with high fidelity from 2D image inputs. Existing neural surface reconstruction approaches, such as DVR and IDR, require foreground mask as supervision, easily get trapped in local minima, and therefore struggle with the reconstruction of objects with severe self-occlusion or thin structures. Meanwhile, recent neural methods for novel view synthesis, such as NeRF and its variants, use volume rendering to produce a neural scene representation with robustness of optimization, even for highly complex objects. However, extracting high-quality surfaces from this learned implicit representation is difficult because there are not sufficient surface constraints in the representation. In NeuS, we propose to represent a surface as the zero-level set of a signed distance function (SDF) and develop a new volume rendering method to train a neural SDF representation. We observe that the conventional volume rendering method causes inherent geometric errors (i.e. bias) for surface reconstruction, and therefore propose a new formulation that is free of bias in the first order of approximation, thus leading to more accurate surface reconstruction even without the mask supervision. Experiments on the DTU dataset and the BlendedMVS dataset show that NeuS outperforms the state-of-the-arts in high-quality surface reconstruction, especially for objects and scenes with complex structures and self-occlusion.</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2106.10689</t>
+  </si>
+  <si>
+    <t>https://github.com/Totoro97/NeuS</t>
+  </si>
+  <si>
+    <t>Volume Rendering of Neural Implicit Surfaces</t>
+  </si>
+  <si>
+    <t>Neural volume rendering became increasingly popular recently due to its success in synthesizing novel views of a scene from a sparse set of input images. So far, the geometry learned by neural volume rendering techniques was modeled using a generic density function. Furthermore, the geometry itself was extracted using an arbitrary level set of the density function leading to a noisy, often low fidelity reconstruction. The goal of this paper is to improve geometry representation and reconstruction in neural volume rendering. We achieve that by modeling the volume density as a function of the geometry. This is in contrast to previous work modeling the geometry as a function of the volume density. In more detail, we define the volume density function as Laplace's cumulative distribution function (CDF) applied to a signed distance function (SDF) representation. This simple density representation has three benefits: (i) it provides a useful inductive bias to the geometry learned in the neural volume rendering process; (ii) it facilitates a bound on the opacity approximation error, leading to an accurate sampling of the viewing ray. Accurate sampling is important to provide a precise coupling of geometry and radiance; and (iii) it allows efficient unsupervised disentanglement of shape and appearance in volume rendering. Applying this new density representation to challenging scene multiview datasets produced high quality geometry reconstructions, outperforming relevant baselines. Furthermore, switching shape and appearance between scenes is possible due to the disentanglement of the two.</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2106.12052</t>
+  </si>
+  <si>
+    <t>NerfingMVS: Guided Optimization of Neural Radiance Fields for Indoor Multi-view Stereo</t>
+  </si>
+  <si>
+    <t>In this work, we present a new multi-view depth estimation method that utilizes both conventional SfM reconstruction and learning-based priors over the recently proposed neural radiance fields (NeRF). Unlike existing neural network based optimization method that relies on estimated correspondences, our method directly optimizes over implicit volumes, eliminating the challenging step of matching pixels in indoor scenes. The key to our approach is to utilize the learning-based priors to guide the optimization process of NeRF. Our system firstly adapts a monocular depth network over the target scene by finetuning on its sparse SfM reconstruction. Then, we show that the shape-radiance ambiguity of NeRF still exists in indoor environments and propose to address the issue by employing the adapted depth priors to monitor the sampling process of volume rendering. Finally, a per-pixel confidence map acquired by error computation on the rendered image can be used to further improve the depth quality. Experiments show that our proposed framework significantly outperforms state-of-the-art methods on indoor scenes, with surprising findings presented on the effectiveness of correspondence-based optimization and NeRF-based optimization over the adapted depth priors. In addition, we show that the guided optimization scheme does not sacrifice the original synthesis capability of neural radiance fields, improving the rendering quality on both seen and novel views.</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2109.01129</t>
+  </si>
+  <si>
+    <t>https://github.com/weiyithu/NerfingMVS</t>
+  </si>
+  <si>
+    <t>3D Neural Scene Representations for Visuomotor Control</t>
+  </si>
+  <si>
+    <t>CoRL2021(oral)</t>
+  </si>
+  <si>
+    <t>Humans have a strong intuitive understanding of the 3D environment around us. The mental model of the physics in our brain applies to objects of different materials and enables us to perform a wide range of manipulation tasks that are far beyond the reach of current robots. In this work, we desire to learn models for dynamic 3D scenes purely from 2D visual observations. Our model combines Neural Radiance Fields (NeRF) and time contrastive learning with an autoencoding framework, which learns viewpoint-invariant 3D-aware scene representations. We show that a dynamics model, constructed over the learned representation space, enables visuomotor control for challenging manipulation tasks involving both rigid bodies and fluids, where the target is specified in a viewpoint different from what the robot operates on. When coupled with an auto-decoding framework, it can even support goal specification from camera viewpoints that are outside the training distribution. We further demonstrate the richness of the learned 3D dynamics model by performing future prediction and novel view synthesis. Finally, we provide detailed ablation studies regarding different system designs and qualitative analysis of the learned representations.</t>
+  </si>
+  <si>
+    <t>https://3d-representation-learning.github.io/nerf-dy/</t>
+  </si>
+  <si>
+    <t>Vision-Only Robot Navigation in a Neural Radiance World</t>
+  </si>
+  <si>
+    <t>Neural Radiance Fields (NeRFs) have recently emerged as a powerful paradigm for the representation of natural, complex 3D scenes. NeRFs represent continuous volumetric density and RGB values in a neural network, and generate photo-realistic images from unseen camera viewpoints through ray tracing. We propose an algorithm for navigating a robot through a 3D environment represented as a NeRF using only an on-board RGB camera for localization. We assume the NeRF for the scene has been pre-trained offline, and the robot's objective is to navigate through unoccupied space in the NeRF to reach a goal pose. We introduce a trajectory optimization algorithm that avoids collisions with high-density regions in the NeRF based on a discrete time version of differential flatness that is amenable to constraining the robot's full pose and control inputs. We also introduce an optimization based filtering method to estimate 6DoF pose and velocities for the robot in the NeRF given only an onboard RGB camera. We combine the trajectory planner with the pose filter in an online replanning loop to give a vision-based robot navigation pipeline. We present simulation results with a quadrotor robot navigating through a jungle gym environment, the inside of a church, and Stonehenge using only an RGB camera. We also demonstrate an omnidirectional ground robot navigating through the church, requiring it to reorient to fit through the narrow gap. Videos of this work can be found at this https URL .</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2110.00168</t>
+  </si>
+  <si>
+    <t>We follow an adversarial learning framework, where the generator models scenes via their radiance field, and the discriminator attempts to distinguish between images rendered from those radiance fields and images of real scenes. Conceptually, our model decomposes the radiance field of a scene into many small local radiance fields that result from conditioning on a 2D grid of latent codes W. W can be interpreted as a latent floorplan representing the scene.</t>
+  </si>
+  <si>
+    <t>We present DietNeRF, a 3D neural scene representation estimated from a few images. Neural Radiance Fields (NeRF) learn a continuous volumetric representation of a scene through multi-view consistency, and can be rendered from novel viewpoints by ray casting. While NeRF has an impressive ability to reconstruct geometry and fine details given many images, up to 100 for challenging 360° scenes, it often finds a degenerate solution to its image reconstruction objective when only a few input views are available. To improve few-shot quality, we propose DietNeRF. We introduce an auxiliary semantic consistency loss that encourages realistic renderings at novel poses. DietNeRF is trained on individual scenes to (1) correctly render given input views from the same pose, and (2) match high-level semantic attributes across different, random poses. Our semantic loss allows us to supervise DietNeRF from arbitrary poses. We extract these semantics using a pre-trained visual encoder such as CLIP, a Vision Transformer trained on hundreds of millions of diverse single-view, 2D photographs mined from the web with natural language supervision. In experiments, DietNeRF improves the perceptual quality of few-shot view synthesis when learned from scratch, can render novel views with as few as one observed image when pre-trained on a multi-view dataset, and produces plausible completions of completely unobserved regions.</t>
+  </si>
+  <si>
+    <t>Considering the problem of novel view synthesis (NVS) from only a set of 2D images, we simplify the training process of Neural Radiance Field (NeRF) on forward-facing scenes by removing the requirement of known or pre-computed camera parameters, including both intrinsics and 6DoF poses. To this end, we propose NeRF−−, with three contributions: First, we show that the camera parameters can be jointly optimised as learnable parameters with NeRF training, through a photometric reconstruction; Second, to benchmark the camera parameter estimation and the quality of novel view renderings, we introduce a new dataset of path-traced synthetic scenes, termed as Blender Forward-Facing Dataset (BLEFF); Third, we conduct extensive analyses to understand the training behaviours under various camera motions, and show that in most scenarios, the joint optimisation pipeline can recover accurate camera parameters and achieve comparable novel view synthesis quality as those trained with COLMAP pre-computed camera parameters.</t>
+  </si>
+  <si>
+    <t>DeRF：分解的辐射场</t>
+  </si>
+  <si>
+    <t>DONeRF：使用 Depth Oracle Networks 实现紧凑神经辐射场的实时渲染</t>
+  </si>
+  <si>
+    <t>FastNeRF：200FPS 的高保真神经渲染</t>
+  </si>
+  <si>
+    <t>KiloNeRF：使用数千个微型 MLP 加速神经辐射场</t>
+  </si>
+  <si>
+    <t>用于实时渲染神经辐射场的 PlenOctrees</t>
+  </si>
+  <si>
+    <t>用于高效神经渲染的体积基元混合</t>
+  </si>
+  <si>
+    <t>光场网络：具有单次评估渲染的神经场景表示</t>
+  </si>
+  <si>
+    <t>深度监督的 NeRF：更少的视图和更快的免费训练</t>
+  </si>
+  <si>
+    <t>直接体素网格优化：辐射场重建的超快速收敛</t>
+  </si>
+  <si>
+    <t>野外的 NeRF：无约束照片集的神经辐射场</t>
+  </si>
+  <si>
+    <t>Ha-NeRF：野外的幻觉神经辐射场</t>
+  </si>
+  <si>
+    <t>Nerfies：可变形的神经辐射场</t>
+  </si>
+  <si>
+    <t>D-NeRF：动态场景的神经辐射场</t>
+  </si>
+  <si>
+    <t>用于单目 4D 面部头像重建的动态神经辐射场</t>
+  </si>
+  <si>
+    <t>非刚性神经辐射场：单目视频变形场景的重建和新视图合成，</t>
+  </si>
+  <si>
+    <t>PVA：像素对齐的体积化身</t>
+  </si>
+  <si>
+    <t>神经关节辐射场</t>
+  </si>
+  <si>
+    <t>CLA-NeRF：类别级关节神经辐射场</t>
+  </si>
+  <si>
+    <t>用于人体建模的动画神经辐射场</t>
+  </si>
+  <si>
+    <t>神经演员：具有姿势控制的人类演员的神经自由视图合成</t>
+  </si>
+  <si>
+    <t>用于动态场景时空视图合成的神经场景流场</t>
+  </si>
+  <si>
+    <t>神经体：具有结构化潜在代码的隐式神经表示，用于动态人类的新视图合成</t>
+  </si>
+  <si>
+    <t>来自多视图视频的神经 3D 视频合成</t>
+  </si>
+  <si>
+    <t>动态单目视频的动态视图合成</t>
+  </si>
+  <si>
+    <t>GRAF：用于 3D 感知图像合成的生成辐射场</t>
+  </si>
+  <si>
+    <t>GRF：学习用于 3D 场景表示和渲染的一般辐射场</t>
+  </si>
+  <si>
+    <t>pixelNeRF：来自一个或几个图像的神经辐射场</t>
+  </si>
+  <si>
+    <t>用于优化基于坐标的神经表示的学习初始化</t>
+  </si>
+  <si>
+    <t>pi-GAN：用于 3D 感知图像合成的周期性隐式生成对抗网络</t>
+  </si>
+  <si>
+    <t>单张图像的人像神经辐射场</t>
+  </si>
+  <si>
+    <t>ShaRF：单一视图的形状条件辐射场</t>
+  </si>
+  <si>
+    <t>IBRNet：学习基于图像的多视图渲染</t>
+  </si>
+  <si>
+    <t>CAMPARI：相机感知分解生成神经辐射场</t>
+  </si>
+  <si>
+    <t>NeRF-VAE：几何感知 3D 场景生成模型</t>
+  </si>
+  <si>
+    <t>具有局部条件辐射场的无约束场景生成</t>
+  </si>
+  <si>
+    <t>MVSNeRF：从多视图立体快速概括辐射场重建</t>
+  </si>
+  <si>
+    <t>立体辐射场 (SRF)：从新场景的稀疏视图中学习视图合成</t>
+  </si>
+  <si>
+    <t>用于遮挡感知的基于图像的渲染的神经射线</t>
+  </si>
+  <si>
+    <t>节食 NeRF：语义一致的 Few-Shot 视图合成</t>
+  </si>
+  <si>
+    <t>使用 NeRF 实现新视图合成的连续深度 MPI</t>
+  </si>
+  <si>
+    <t>TöRF：动态场景视图合成的飞行时间辐射场</t>
+  </si>
+  <si>
+    <t>CodeNeRF：对象类别的解开神经辐射场</t>
+  </si>
+  <si>
+    <t>StyleNeRF：用于高分辨率图像合成的基于样式的 3D 感知生成器</t>
+  </si>
+  <si>
+    <t>黑暗中的 NeRF：来自嘈杂原始图像的高动态范围视图合成</t>
+  </si>
+  <si>
+    <t>iNeRF：用于姿势估计的反转神经辐射场</t>
+  </si>
+  <si>
+    <t>A-NeRF：通过神经渲染进行无表面人体 3D 姿势细化</t>
+  </si>
+  <si>
+    <t>NeRF--：没有已知相机参数的神经辐射场</t>
+  </si>
+  <si>
+    <t>实时隐式映射和定位</t>
+  </si>
+  <si>
+    <t>用于 SLAM 的 NICE-SLAM 神经隐​​式可扩展编码</t>
+  </si>
+  <si>
+    <t>GNeRF：基于 GAN 的无姿势相机的神经辐射场</t>
+  </si>
+  <si>
+    <t>BARF：捆绑调整神经辐射场</t>
+  </si>
+  <si>
+    <t>自校准神经辐射场</t>
+  </si>
+  <si>
+    <t>NeRD：来自图像集合的神经反射分解</t>
+  </si>
+  <si>
+    <t>NeRV：用于重新照明和视图合成的神经反射率和可见性场</t>
+  </si>
+  <si>
+    <t>NeX：具有神经基础扩展的实时视图合成</t>
+  </si>
+  <si>
+    <t>NeRFactor：未知光照下形状和反射率的神经分解</t>
+  </si>
+  <si>
+    <t>NeRF++：分析和改进神经辐射场</t>
+  </si>
+  <si>
+    <t>GIRAFFE：将场景表示为合成生成神经特征场</t>
+  </si>
+  <si>
+    <t>以对象为中心的神经场景渲染</t>
+  </si>
+  <si>
+    <t>学习动态人头的组成辐射场</t>
+  </si>
+  <si>
+    <t>动态场景的神经场景图</t>
+  </si>
+  <si>
+    <t>物体辐射场的无监督发现</t>
+  </si>
+  <si>
+    <t>学习用于可编辑场景渲染的对象组合神经辐射场</t>
+  </si>
+  <si>
+    <t>使用隐式场景表示进行就地场景标记和理解</t>
+  </si>
+  <si>
+    <t>编辑条件辐射场</t>
+  </si>
+  <si>
+    <t>使用分层神经表示的可编辑自由视点视频</t>
+  </si>
+  <si>
+    <t>Fig-NeRF：用于 3D 对象类别建模的图地面神经辐射场</t>
+  </si>
+  <si>
+    <t>NeRF-Tex：神经反射场纹理</t>
+  </si>
+  <si>
+    <t>Mip-NeRF：抗锯齿神经辐射场的多尺度表示</t>
+  </si>
+  <si>
+    <t>UNISURF：统一神经隐式表面和辐射场以进行多视图重建</t>
+  </si>
+  <si>
+    <t>NeuS：通过体渲染学习神经隐式表面以进行多视图重建</t>
+  </si>
+  <si>
+    <t>神经隐式表面的体积渲染</t>
+  </si>
+  <si>
+    <t>NerfingMVS：室内多视角立体神经辐射场的引导优化</t>
+  </si>
+  <si>
+    <t>用于视觉运动控制的 3D 神经场景表示</t>
+  </si>
+  <si>
+    <t>神经辐射世界中的仅视觉机器人导航</t>
+  </si>
+  <si>
+    <t>随着神经辐射场 (NeRF) 的出现，神经网络现在可以渲染 3D 场景的新颖视图，其质量足以愚弄人眼。然而，生成这些图像的计算量非常大，限制了它们在实际场景中的适用性。在本文中，我们提出了一种基于空间分解的技术，能够缓解这个问题。我们的主要观察结果是，使用更大（更深和/或更宽）的网络会带来收益递减。因此，我们建议对场景进行空间分解，并为每个分解部分分配更小的网络。当一起工作时，这些网络可以渲染整个场景。这使我们无论分解部分的数量如何，都能获得近乎恒定的推理时间。此外，我们表明，Voronoi 空间分解更适合此目的，因为它可证明与 Painter 算法兼容，可实现高效且 GPU 友好的渲染。我们的实验表明，对于现实世界的场景，我们的方法提供的推理效率比 NeRF 高出 3 倍（具有相同的渲染质量），或者 PSNR 提高了 1.0~dB（对于相同的推理成本）。</t>
+  </si>
+  <si>
+    <t>最近围绕神经辐射场 (NeRFs) 的研究爆炸表明，在神经网络中隐式存储场景和照明信息具有巨大的潜力，例如，用于生成新的视图。然而，阻止 NeRF 广泛使用的一个主要限制是沿每个视图射线进行过多网络评估的计算成本过高，当针对当前设备上的实时渲染时需要数十 petaFLOPS。我们表明，当将局部样本放置在场景中的表面周围时，可以显着减少每个视图光线所需的样本数量。为此，我们提出了一个深度预言网络，它通过单个网络评估来预测每个视图光线的光线样本位置。我们表明，使用围绕对数离散和球面扭曲深度值的分类网络对于编码表面位置而不是直接估计深度至关重要。这些技术的结合产生了 DONeRF，这是一种双网络设计，第一步是深度预言网络，以及用于光线累积的局部采样着色网络。通过我们的设计，与 NeRF 相比，我们将推理成本降低了 48 倍。使用现成的推理 API 与简单的计算内核相结合，我们率先在单个 GPU 上以交互式帧速率（每秒 15 帧，800x800）渲染基于光线追踪的神经表示。同时，由于我们专注于表面周围场景的重要部分，与 NeRF 相比，我们获得了相同或更好的质量。</t>
+  </si>
+  <si>
+    <t>最近关于神经辐射场 (NeRF) 的工作展示了如何使用神经网络对复杂的 3D 环境进行编码，这些环境可以从新颖的视角进行逼真的渲染。渲染这些图像对计算的要求非常高，最近的改进距离实现交互速率还有很长的路要走，即使在高端硬件上也是如此。受移动和混合现实设备场景的启发，我们提出了 FastNeRF，这是第一个基于 NeRF 的系统，能够在高端消费 GPU 上以 200Hz 渲染高保真逼真图像。我们方法的核心是受图形启发的分解，它允许 (i) 在空间中的每个位置紧凑地缓存深度辐射图，(ii) 使用光线方向有效地查询该图以估计渲染图像中的像素值。大量实验表明，所提出的方法比原始的 NeRF 算法快 3000 倍，并且比现有的加速 NeRF 的工作至少快一个数量级，同时保持视觉质量和可扩展性。</t>
+  </si>
+  <si>
+    <t>NeRF 通过将神经辐射场拟合到 RGB 图像，以前所未有的质量合成场景的新视图。然而，NeRF 需要数百万次查询深度多层感知器 (MLP)，导致渲染时间变慢，即使在现代 GPU 上也是如此。在本文中，我们证明了通过使用数千个微型 MLP 而不是一个大型 MLP，实时渲染是可能的。在我们的设置中，每个单独的 MLP 只需要表示场景的一部分，因此可以使用更小、更快评估的 MLP。通过将这种分而治之的策略与进一步的优化相结合，与原始 NeRF 模型相比，渲染速度提高了三个数量级，而不会产生高昂的存储成本。此外，使用师生蒸馏进行培训，我们表明可以在不牺牲视觉质量的情况下实现这种加速。</t>
+  </si>
+  <si>
+    <t>实时性能是通过将 NeRF 预先制成基于八叉树的辐射场（我们称为 PlenOctrees）来实现的。为了保留与视图相关的效果，例如镜面反射，我们建议通过封闭形式的球面基函数对外观进行编码。具体来说，我们表明可以训练 NeRFs 来预测辐射的球谐表示，将观察方向作为神经网络的输入。此外，我们表明我们的 PlenOctrees 可以直接优化以进一步最小化重建损失，这导致与竞争方法相同或更好的质量。我们进一步表明，这个八叉树优化步骤可用于加快训练时间，因为我们不再需要等待 NeRF 训练完全收敛。我们的实时神经渲染方法可能会支持新的应用，例如 6 自由度工业和产品可视化，以及下一代 AR/VR 系统。</t>
+  </si>
+  <si>
+    <t>人类的实时渲染和动画是游戏、电影和远程呈现应用中的核心功能。现有方法有许多我们的工作旨在解决的缺点。三角形网格难以建模像头发这样的细结构，像神经体积这样的体积表示在合理的内存预算下分辨率太低，而像神经辐射场这样的高分辨率隐式表示在实时应用中使用太慢。我们提出了体积基元混合（MVP），一种用于渲染动态 3D 内容的表示，它结合了体积表示的完整性和基于基元的渲染的效率，例如，基于点或基于网格的方法。我们的方法通过利用具有反卷积架构的空间共享计算以及通过使用可以移动以仅覆盖被占用区域的体积基元来最小化空间空白区域中的计算来实现这一点。我们的参数化支持对应和跟踪约束的集成，同时对经典跟踪失败的区域具有鲁棒性，例如薄或半透明结构周围以及具有大拓扑可变性的区域。 MVP 是一种混合体，它概括了基于体积和基元的表示。通过一系列广泛的实验，我们证明它继承了每种方法的优点，同时避免了它们的许多局限性。我们还将我们的方法与几种最先进的方法进行比较，并证明 MVP 在质量和运行时性能方面产生了卓越的结果。</t>
+  </si>
+  <si>
+    <t>从 2D 观察推断 3D 场景的表示是计算机图形学、计算机视觉和人工智能的基本问题。新兴的 3D 结构神经场景表示是一种有前途的 3D 场景理解方法。在这项工作中，我们提出了一种新的神经场景表示，光场网络或 LFN，它通过神经隐式表示在 360 度、四维光场中表示底层 3D 场景的几何形状和外观。渲染来自 LFN 的光线只需要*单个*网络评估，而 3D 结构化神经场景表示中的光线行进或基于体积的渲染器每条光线需要数百次评估。在简单场景的设置中，我们利用元学习来学习 LFN 的先验，从而能够从单个图像观察中进行多视图一致的光场重建。这导致时间和内存复杂性的显着降低，并实现了实时渲染。通过 LFN 存储 360 度光场的成本比 Lumigraph 等传统方法低两个数量级。利用神经隐式表示的分析可微性和光空间的新参数化，我们进一步证明了从 LFN 中提取稀疏深度图。</t>
+  </si>
+  <si>
+    <t>当输入视图数量不足时，通常观察到的神经辐射场 (NeRF) 故障模式会拟合不正确的几何形状。一个潜在的原因是标准体积渲染不会强制执行大多数场景几何体由空白空间和不透明表面组成的约束。我们通过 DS-NeRF（深度监督神经辐射场）将上述假设形式化，这是一种利用现成的深度监督学习辐射场的损失。我们利用当前的 NeRF 管道需要具有已知相机姿势的图像这一事实，这些图像通常通过运行从运动结构 (SFM) 来估计。至关重要的是，SFM 还产生稀疏 3D 点，可在训练期间用作“免费”深度监督：我们添加损失以鼓励光线的终止深度分布匹配给定的 3D 关键点，并结合深度不确定性。 DS-NeRF 可以在训练视图更少的情况下渲染更好的图像，同时训练速度提高 2-3 倍。此外，我们表明我们的损失与最近提出的其他 NeRF 方法兼容，证明深度是一种廉价且易于消化的监督信号。最后，我们发现 DS-NeRF 可以支持其他类型的深度监督，例如扫描深度传感器和 RGB-D 重建输出。</t>
+  </si>
+  <si>
+    <t>我们提出了一种超快速收敛方法，用于从一组捕获具有已知姿势的场景的图像中重建每个场景的辐射场。这项任务通常应用于新颖的视图合成，最近因其最先进的质量和灵活性而被神经辐射场 (NeRF) 彻底改变。然而，对于单个场景，NeRF 及其变体需要很长的训练时间，从数小时到数天不等。相比之下，我们的方法实现了与 NeRF 相当的质量，并在不到 15 分钟的时间内使用单个 GPU 从头开始​​快速收敛。我们采用由用于场景几何的密度体素网格和具有浅层网络的特征体素网格组成的表示，用于复杂的依赖于视图的外观。使用显式和离散化的体积表示进行建模并不新鲜，但我们提出了两种简单但非平凡的技术，有助于快速收敛和高质量输出。首先，我们介绍了体素密度的激活后插值，它能够以较低的网格分辨率产生锐利的表面。其次，直接体素密度优化容易出现次优几何解决方案，因此我们通过强加几个先验来加强优化过程。最后，对五个内向基准的评估表明，我们的方法与 NeRF 的质量相匹配，甚至超过，但从头开始训练新场景只需要大约 15 分钟。</t>
+  </si>
+  <si>
+    <t>我们提出了一种基于学习的方法，用于仅使用野外照片的非结构化集合来合成复杂场景的新视图。我们建立在神经辐射场 (NeRF) 的基础上，它使用多层感知器的权重将场景的密度和颜色建模为 3D 坐标的函数。虽然 NeRF 在受控设置下捕获的静态对象的图像上效果很好，但它无法在不受控的图像中模拟许多普遍存在的真实世界现象，例如可变照明或瞬态遮挡物。我们为 NeRF 引入了一系列扩展来解决这些问题，从而能够从互联网上获取的非结构化图像集合中进行准确的重建。我们将我们的系统（称为 NeRF-W）应用于著名地标的互联网照片集，并展示时间一致的新颖视图渲染，这些渲染比现有技术更接近真实感。</t>
+  </si>
+  <si>
+    <t>神经辐射场 (NeRF) 最近因其令人印象深刻的新颖视图合成能力而广受欢迎。本文研究了幻觉 NeRF 的问题：即在一天中的不同时间从一组旅游图像中恢复一个真实的 NeRF。现有的解决方案采用具有可控外观嵌入的 NeRF 在各种条件下渲染新颖的视图，但它们无法渲染具有看不见的外观的视图一致图像。为了解决这个问题，我们提出了一个用于构建幻觉 NeRF 的端到端框架，称为 Ha-NeRF。具体来说，我们提出了一个外观幻觉模块来处理随时间变化的外观并将它们转移到新的视图中。考虑到旅游图像的复杂遮挡，我们引入了一个反遮挡模块来准确地分解静态主体以获得可见性。合成数据和真实旅游照片集的实验结果表明，我们的方法可以产生幻觉，并从不同的视图呈现无遮挡的图像。</t>
+  </si>
+  <si>
+    <t>我们提出了第一种能够使用从手机随便捕获的照片/视频来逼真地重建可变形场景的方法。我们的方法通过优化一个额外的连续体积变形场来增强神经辐射场 (NeRF)，该场将每个观察点扭曲成一个规范的 5D NeRF。我们观察到这些类似 NeRF 的变形场容易出现局部最小值，并为基于坐标的模型提出了一种从粗到细的优化方法，可以实现更稳健的优化。通过将几何处理和物理模拟的原理应用于类似 NeRF 的模型，我们提出了变形场的弹性正则化，进一步提高了鲁棒性。我们表明，我们的方法可以将随意捕获的自拍照片/视频转换为可变形的 NeRF 模型，允许从任意视角对主体进行逼真的渲染，我们称之为“nerfies”。我们通过使用带有两部手机的装备收集时间同步数据来评估我们的方法，从而在不同视点产生相同姿势的训练/验证图像。我们表明，我们的方法忠实地重建了非刚性变形的场景，并以高保真度再现了看不见的视图。</t>
+  </si>
+  <si>
+    <t>将机器学习与几何推理相结合的神经渲染技术已成为从一组稀疏图像中合成场景新视图的最有前途的方法之一。其中，神经辐射场 (NeRF) 尤为突出，它训练深度网络将 5D 输入坐标（表示空间位置和观察方向）映射为体积密度和与视图相关的发射辐射。然而，尽管在生成的图像上实现了前所未有的真实感水平，但 NeRF 仅适用于静态场景，其中可以从不同的图像中查询相同的空间位置。在本文中，我们介绍了 D-NeRF，这是一种将神经辐射场扩展到动态域的方法，允许在场景中移动的 \emph{single} 相机的刚性和非刚性运动下重建和渲染物体的新图像。为此，我们将时间视为系统的附加输入，并将学习过程分为两个主要阶段：一个将场景编码为规范空间，另一个将这个规范表示映射到特定时间的变形场景。两种映射都是使用全连接网络同时学习的。一旦网络经过训练，D-NeRF 就可以渲染新颖的图像，同时控制相机视图和时间变量，从而控制对象的移动。我们展示了我们的方法在物体处​​于刚性、关节和非刚性运动的场景中的有效性。代码、模型权重和动态场景数据集将发布。</t>
+  </si>
+  <si>
+    <t>我们提出了用于模拟人脸外观和动态的动态神经辐射场。对说话的人进行数字建模和重建是各种应用程序的关键组成部分。特别是对于 AR 或 VR 中的远程呈现应用，需要忠实再现外观，包括新颖的视点或头部姿势。与显式建模几何和材料属性或纯粹基于图像的最先进方法相比，我们引入了基于场景表示网络的头部隐式表示。为了处理面部的动态，我们将场景表示网络与低维可变形模型相结合，该模型提供对姿势和表情的显式控制。我们使用体积渲染从这种混合表示中生成图像，并证明这种动态神经场景表示只能从单目输入数据中学习，而不需要专门的捕获设置。在我们的实验中，我们表明这种学习的体积表示允许生成照片般逼真的图像，其质量超过了基于视频的最先进的重演方法的质量。</t>
+  </si>
+  <si>
+    <t>我们提出了非刚性神经辐射场 (NR-NeRF)，这是一种用于一般非刚性动态场景的重建和新颖的视图合成方法。我们的方法将动态场景的 RGB 图像作为输入（例如，来自单目视频记录），并创建高质量的时空几何和外观表示。我们表明，单个手持消费级相机足以从新颖的虚拟相机视图合成动态场景的复杂渲染，例如一个“子弹时间”的视频效果。 NR-NeRF 将动态场景分解为规范体积及其变形。场景变形被实现为光线弯曲，其中直线光线被非刚性变形。我们还提出了一种新的刚性网络来更好地约束场景的刚性区域，从而获得更稳定的结果。射线弯曲和刚性网络在没有明确监督的情况下进行训练。我们的公式可以实现跨视图和时间的密集对应估计，以及引人注目的视频编辑应用程序，例如运动夸张。我们的代码将是开源的。</t>
+  </si>
+  <si>
+    <t>逼真的人头的采集和渲染是一个极具挑战性的研究问题，对于虚拟远程呈现特别重要。目前，最高质量是通过在多视图数据上以个人特定方式训练的体积方法实现的。与更简单的基于网格的模型相比，这些模型更好地表示精细结构，例如头发。体积模型通常使用全局代码来表示面部表情，以便它们可以由一小组动画参数驱动。虽然这样的架构实现了令人印象深刻的渲染质量，但它们不能轻易地扩展到多身份设置。在本文中，我们设计了一种新颖的方法，用于在仅给定少量输入的情况下预测人头的体积化身。我们通过一种新颖的参数化实现跨身份的泛化，该参数化将神经辐射场与直接从输入中提取的局部像素对齐特征相结合，从而避免了对非常深或复杂网络的需求。我们的方法仅基于光度重新渲染损失以端到端的方式进行训练，无需明确的 3D 监督。我们证明我们的方法在质量方面优于现有的现有技术，并且能够生成忠实的面部表情多身份设置。</t>
+  </si>
+  <si>
+    <t>我们提出了神经关节辐射场 (NARF)，这是一种新颖的可变形 3D 表示，用于从图像中学习到的关节对象。虽然 3D 隐式表示的最新进展使得学习复杂对象的模型成为可能，但学习关节对象的姿势可控表示仍然是一个挑战，因为当前的方法需要 3D 形状监督并且无法呈现外观。在制定 3D 关节对象的隐式表示时，我们的方法在求解每个 3D 位置的辐射场时仅考虑最相关对象部分的刚性变换。通过这种方式，所提出的方法可以表示与姿势相关的变化，而不会显着增加计算复杂度。 NARF 是完全可微的，可以从带有姿势注释的图像中训练出来。此外，通过使用自动编码器，它可以学习对象类的多个实例的外观变化。实验表明，所提出的方法是有效的，并且可以很好地推广到新的姿势。</t>
+  </si>
+  <si>
+    <t>我们提出了 CLA-NeRF——一种类别级的关节神经辐射场，可以执行视图合成、部分分割和关节姿态估计。 CLA-NeRF 在对象类别级别进行训练，不使用 CAD 模型和深度，而是使用一组具有地面实况相机姿势和部分片段的 RGB 图像。在推理过程中，只需对已知类别中未见过的 3D 对象实例进行少量 RGB 视图（即少镜头）即可推断对象部分分割和神经辐射场。给定一个关节姿态作为输入，CLA-NeRF 可以执行关节感知体积渲染，以在任何相机姿态下生成相应的 RGB 图像。此外，可以通过逆向渲染来估计对象的关节姿势。在我们的实验中，我们对合成数据和真实数据的五个类别的框架进行了评估。在所有情况下，我们的方法都显示了真实的变形结果和准确的关节姿态估计。我们相信，少量的关节对象渲染和关节姿势估计都为机器人感知和与看不见的关节对象交互打开了大门。</t>
+  </si>
+  <si>
+    <t>本文解决了从多视图视频中重建可动画人体模型的挑战。最近的一些工作提出将非刚性变形场景分解为规范神经辐射场和一组将观察空间点映射到规范空间的变形场，从而使他们能够从图像中学习动态场景。然而，它们将变形场表示为平移矢量场或 SE(3) 场，这使得优化受到高度约束。此外，这些表示不能由输入运动明确控制。相反，我们引入了神经混合权重场来产生变形场。基于骨架驱动的变形，混合权重场与 3D 人体骨骼一起使用，以生成观察到规范和规范到观察的对应关系。由于 3D 人体骨骼更易观察，它们可以规范变形场的学习。此外，学习到的混合权重场可以与输入的骨骼运动相结合，以生成新的变形场来为人体模型设置动画。实验表明，我们的方法明显优于最近的人类合成方法。该代码将在 https://zju3dv.github.io/animatable_nerf/ 上提供。</t>
+  </si>
+  <si>
+    <t>我们提出了神经演员 (NA)，这是一种从任意视角和任意可控姿势下高质量合成人类的新方法。我们的方法建立在最近的神经场景表示和渲染工作之上，这些工作仅从 2D 图像中学习几何和外观的表示。虽然现有作品展示了令人信服的静态场景渲染和动态场景回放，但使用神经隐式方法对人类进行逼真的重建和渲染，特别是在用户控制的新姿势下，仍然很困难。为了解决这个问题，我们利用粗体模型作为代理将周围的 3D 空间展开为规范姿势。神经辐射场从多视图视频输入中学习规范空间中与姿势相关的几何变形以及与姿势和视图相关的外观效果。为了合成高保真动态几何和外观的新视图，我们利用在身体模型上定义的 2D 纹理图作为潜在变量来预测残余变形和动态外观。实验表明，我们的方法在回放和新颖的姿势合成方面取得了比现有技术更好的质量，甚至可以很好地推广到与训练姿势截然不同的新姿势。此外，我们的方法还支持合成结果的体形控制。</t>
+  </si>
+  <si>
+    <t>我们提出了一种方法来执行动态场景的新颖视图和时间合成，只需要具有已知相机姿势的单目视频作为输入。为此，我们引入了神经场景流场，这是一种将动态场景建模为外观、几何和 3D 场景运动的时变连续函数的新表示。我们的表示通过神经网络进行优化，以适应观察到的输入视图。我们表明，我们的表示可用于复杂的动态场景，包括薄结构、视图相关效果和自然运动度。我们进行了许多实验，证明我们的方法明显优于最近的单目视图合成方法，并展示了各种真实世界视频的时空视图合成的定性结果。</t>
+  </si>
+  <si>
+    <t>本文解决了人类表演者从一组非常稀疏的摄像机视图中合成新颖视图的挑战。最近的一些工作表明，在给定密集输入视图的情况下，学习 3D 场景的隐式神经表示可以实现显着的视图合成质量。但是，如果视图高度稀疏，则表示学习将是不适定的。为了解决这个不适定问题，我们的关键思想是整合对视频帧的观察。为此，我们提出了神经体，这是一种新的人体表示，它假设在不同帧上学习到的神经表示共享同一组锚定到可变形网格的潜在代码，以便可以自然地整合跨帧的观察结果。可变形网格还为网络提供几何指导，以更有效地学习 3D 表示。为了评估我们的方法，我们创建了一个名为 ZJU-MoCap 的多视图数据集，用于捕捉具有复杂动作的表演者。 ZJU-MoCap 的实验表明，我们的方法在新颖的视图合成质量方面大大优于先前的工作。我们还展示了我们的方法从 People-Snapshot 数据集上的单目视频重建移动人物的能力。</t>
+  </si>
+  <si>
+    <t>我们提出了一种新颖的 3D 视频合成方法，能够以紧凑但富有表现力的表示形式表示动态真实世界场景的多视图视频记录，从而实现高质量的视图合成和运动插值。我们的方法将静态神经辐射场的高质量和紧凑性带到了一个新的方向：无模型的动态设置。我们方法的核心是一种新颖的时间条件神经辐射场，它使用一组紧凑的潜在代码来表示场景动态。为了利用视频相邻帧之间的变化通常很小且局部一致的事实，我们提出了两种有效训练神经网络的新策略：1）有效的分层训练方案，以及 2）选择根据输入视频的时间变化进行训练的下一条光线。结合起来，这两种策略显着提高了训练速度，导致训练过程快速收敛，并获得高质量的结果。我们学习的表示非常紧凑，能够表示由 18 个摄像机录制的 10 秒 30 FPS 多视图视频，模型大小仅为 28MB。我们证明了我们的方法可以以超过 1K 的分辨率渲染高保真广角新颖视图，即使对于高度复杂和动态的场景也是如此。我们进行了广泛的定性和定量评估，表明我们的方法优于当前的技术水平。项目网站：https://neural-3d-video.github.io。</t>
+  </si>
+  <si>
+    <t>我们提出了一种算法，用于在给定动态场景的单目视频的任意视点和任何输入时间步长处生成新视图。我们的工作建立在神经隐式表示的最新进展的基础上，并使用连续和可微的函数来建模时变结构和场景的外观。我们联合训练一个时不变的静态 NeRF 和一个时变的动态 NeRF，并学习如何以无监督的方式混合结果。然而，从单个视频中学习这个隐式函数是非常不适定的（与输入视频匹配的解决方案有无限多）。为了解决歧义，我们引入了正则化损失以鼓励更合理的解决方案。我们展示了从随意捕获的视频中进行动态视图合成的广泛定量和定性结果。</t>
+  </si>
+  <si>
+    <t>虽然 2D 生成对抗网络已经实现了高分辨率图像合成，但它们在很大程度上缺乏对 3D 世界和图像形成过程的理解。因此，它们不提供对相机视点或物体姿势的精确控制。为了解决这个问题，最近的几种方法将基于中间体素的表示与可微渲染相结合。然而，现有方法要么产生低图像分辨率，要么在解开相机和场景属性方面存在不足，例如，对象身份可能随视点而变化。在本文中，我们提出了一种辐射场的生成模型，该模型最近被证明在单个场景的新颖视图合成方面是成功的。与基于体素的表示相比，辐射场并不局限于 3D 空间的粗略离散化，还允许解开相机和场景属性，同时在存在重建模糊性的情况下优雅地退化。通过引入基于多尺度补丁的鉴别器，我们展示了高分辨率图像的合成，同时仅从未定位的 2D 图像训练我们的模型。我们系统地分析了我们在几个具有挑战性的合成和现实世界数据集上的方法。我们的实验表明，辐射场是生成图像合成的强大表示，可生成以高保真度渲染的 3D 一致模型。</t>
+  </si>
+  <si>
+    <t>我们提出了一个简单而强大的神经网络，它仅从 2D 观察中隐式表示和渲染 3D 对象和场景。该网络将 3D 几何建模为一般辐射场，它以一组具有相机位姿和内在函数的 2D 图像作为输入，为 3D 空间的每个点构建内部表示，然后渲染该点的相应外观和几何观察从任意位置。我们方法的关键是学习 2D 图像中每个像素的局部特征，然后将这些特征投影到 3D 点，从而产生一般和丰富的点表示。我们还集成了一种注意力机制来聚合来自多个 2D 视图的像素特征，从而隐式考虑视觉遮挡。大量实验表明，我们的方法可以为新物体、看不见的类别和具有挑战性的现实世界场景生成高质量和逼真的新视图。</t>
+  </si>
+  <si>
+    <t>我们提出了 pixelNeRF，这是一种学习框架，可以预测以一个或几个输入图像为条件的连续神经场景表示。构建神经辐射场的现有方法涉及独立优化每个场景的表示，需要许多校准视图和大量计算时间。我们通过引入一种以完全卷积方式在图像输入上调节 NeRF 的架构，朝着解决这些缺点迈出了一步。这允许网络在多个场景中进行训练，以先学习一个场景，使其能够从一组稀疏的视图（少至一个）以前馈方式执行新颖的视图合成。利用 NeRF 的体积渲染方法，我们的模型可以直接从图像中训练，无需明确的 3D 监督。我们在 ShapeNet 基准上进行了广泛的实验，用于具有保留对象以及整个未见类别的单图像新颖视图合成任务。我们通过在多对象 ShapeNet 场景和来自 DTU 数据集的真实场景上展示 pixelNeRF 的灵活性，进一步展示了它的灵活性。在所有情况下，对于新颖的视图合成和单图像 3D 重建，pixelNeRF 都优于当前最先进的基线。有关视频和代码，请访问项目网站：此 https 网址</t>
+  </si>
+  <si>
+    <t>基于坐标的神经表示已显示出作为复杂低维信号的离散、基于数组的表示的替代方案的重要前景。然而，从每个新信号的随机初始化权重优化基于坐标的网络是低效的。我们建议应用标准的元学习算法来学习这些全连接网络的初始权重参数，这些参数基于所表示的底层信号类别（例如，面部图像或椅子的 3D 模型）。尽管只需要在实现中进行微小的更改，但使用这些学习到的初始权重可以在优化过程中实现更快的收敛，并且可以作为所建模信号类的强先验，从而在只有给定信号的部分观察可用时产生更好的泛化。我们在各种任务中探索这些好处，包括表示 2D 图像、重建 CT 扫描以及从 2D 图像观察中恢复 3D 形状和场景。</t>
+  </si>
+  <si>
+    <t>我们见证了 3D 感知图像合成的快速进展，利用了生成视觉模型和神经渲染的最新进展。然而，现有方法在两个方面存在不足：首先，它们可能缺乏底层 3D 表示或依赖于视图不一致的渲染，因此合成的图像不是多视图一致的；其次，它们通常依赖于表达能力不足的表示网络架构，因此它们的结果缺乏图像质量。我们提出了一种新颖的生成模型，称为周期性隐式生成对抗网络（π-GAN 或 pi-GAN），用于高质量的 3D 感知图像合成。 π-GAN 利用具有周期性激活函数和体积渲染的神经表示将场景表示为具有精细细节的视图一致的 3D 表示。所提出的方法获得了具有多个真实和合成数据集的 3D 感知图像合成的最新结果。</t>
+  </si>
+  <si>
+    <t>我们提出了一种从单个爆头肖像估计神经辐射场 (NeRF) 的方法。虽然 NeRF 已经展示了高质量的视图合成，但它需要静态场景的多个图像，因此对于随意捕捉和移动主体是不切实际的。在这项工作中，我们建议使用使用灯光舞台肖像数据集的元学习框架来预训练多层感知器 (MLP) 的权重，该多层感知器隐含地对体积密度和颜色进行建模。为了提高对看不见的人脸的泛化能力，我们在由 3D 人脸可变形模型近似的规范坐标空间中训练 MLP。我们使用受控捕获对方法进行定量评估，并展示了对真实肖像图像的泛化性，显示出对最先进技术的有利结果。</t>
+  </si>
+  <si>
+    <t>我们提出了一种方法，用于估计仅给定单个图像的对象的神经场景表示。我们方法的核心是估计物体的几何支架，并将其用作重建底层辐射场的指导。我们的公式基于一个生成过程，该过程首先将潜在代码映射到体素化形状，然后将其渲染为图像，对象外观由第二个潜在代码控制。在推理过程中，我们优化了潜在代码和网络以适应新对象的测试图像。形状和外观的明确解开允许我们的模型在给定单个图像的情况下进行微调。然后，我们可以以几何一致的方式渲染新视图，它们忠实地表示输入对象。此外，我们的方法能够推广到训练域之外的图像（更逼真的渲染甚至真实照片）。最后，推断的几何支架本身就是对物体 3D 形状的准确估计。我们在几个实验中证明了我们的方法在合成图像和真实图像中的有效性。</t>
+  </si>
+  <si>
+    <t>我们提出了一种通过插入一组稀疏的附近视图来合成复杂场景的新视图的方法。我们方法的核心是一个网络架构，其中包括一个多层感知器和一个光线转换器，用于估计连续 5D 位置（3D 空间位置和 2D 观察方向）的辐射和体积密度，从多个源视图动态绘制外观信息。通过在渲染时绘制源视图，我们的方法回归了基于图像的渲染 (IBR) 的经典工作，并允许我们渲染高分辨率图像。与优化每个场景函数以进行渲染的神经场景表示工作不同，我们学习了一种通用视图插值函数，该函数可以推广到新场景。我们使用经典的体渲染来渲染图像，这是完全可微的，并且允许我们仅使用多视图姿势图像作为监督进行训练。实验表明，我们的方法优于最近的新视图合成方法，这些方法也试图推广到新场景。此外，如果在每个场景上进行微调，我们的方法与最先进的单场景神经渲染方法具有竞争力。项目页面：此 https 网址</t>
+  </si>
+  <si>
+    <t>深度生成模型的巨大进步导致了逼真的图像合成。在取得令人信服的结果的同时，大多数方法都在二维图像域中运行，而忽略了我们世界的三维性质。因此，最近的几项工作提出了具有 3D 感知能力的生成模型，即场景以 3D 建模，然后可微分地渲染到图像平面。这导致了令人印象深刻的 3D 一致性，但纳入这种偏差是有代价的：相机也需要建模。当前的方法假定固定的内在函数和预先定义的相机姿势范围。因此，实际数据通常需要参数调整，如果数据分布不匹配，结果会下降。我们的关键假设是，与图像生成器一起学习相机生成器会导致更原则性的 3D 感知图像合成方法。此外，我们建议将场景分解为背景和前景模型，从而实现更有效和更清晰的场景表示。在从原始的、未定型的图像集合中进行训练时，我们学习了一个 3D 和相机感知的生成模型，它不仅忠实地恢复了图像，而且还忠实地恢复了相机数据分布。在测试时，我们的模型生成的图像可以显式控制相机以及场景的形状和外观。</t>
+  </si>
+  <si>
+    <t>我们提出了 NeRF-VAE，这是一种 3D 场景生成模型，它通过 NeRF 和可微体渲染结合了几何结构。与 NeRF 相比，我们的模型考虑了跨场景的共享结构，并且能够使用摊销推理推断新场景的结构——无需重新训练。 NeRF-VAE 的显式 3D 渲染过程进一步将先前的生成模型与缺乏几何结构的基于卷积的渲染进行对比。我们的模型是一个 VAE，它通过在潜在场景表示上调节辐射场来学习辐射场的分布。我们表明，经过训练，NeRF-VAE 能够使用很少的输入图像从以前看不见的 3D 环境中推断和渲染几何一致的场景。我们进一步证明了 NeRF-VAE 可以很好地推广到分布式相机，而卷积模型则不能。最后，我们介绍并研究了 NeRF-VAE 解码器的一种基于注意力的调节机制，该机制提高了模型性能。</t>
+  </si>
+  <si>
+    <t>我们遵循对抗性学习框架，其中生成器通过其辐射场对场景进行建模，鉴别器尝试区分从这些辐射场渲染的图像和真实场景的图像。从概念上讲，我们的模型将场景的辐射场分解为许多小的局部辐射场，这些辐射场是由二维潜在代码 W 网格上的条件产生的。W 可以解释为表示场景的潜在平面图。</t>
+  </si>
+  <si>
+    <t>我们提出了 MVSNeRF，一种新颖的神经渲染方法，可以有效地重建神经辐射场以进行视图合成。与先前的神经辐射场工作考虑对密集捕获的图像进行逐场景优化不同，我们提出了一个通用的深度神经网络，它可以通过快速网络推理仅从三个附近的输入视图重建辐射场。我们的方法利用平面扫描成本体积（广泛用于多视图立体）进行几何感知场景推理，并将其与基于物理的体积渲染相结合用于神经辐射场重建。我们在 DTU 数据集中的真实对象上训练我们的网络，并在三个不同的数据集上对其进行测试，以评估其有效性和普遍性。我们的方法可以跨场景（甚至是室内场景，与我们的对象训练场景完全不同）进行泛化，并仅使用三个输入图像生成逼真的视图合成结果，显着优于可泛化辐射场重建的并行工作。此外，如果捕捉到密集的图像，我们估计的辐射场表示可以很容易地进行微调；与 NeRF 相比，这导致具有更高渲染质量和更短优化时间的快速每场景重建。</t>
+  </si>
+  <si>
+    <t>最近的神经视图合成方法取得了令人印象深刻的质量和真实性，超越了依赖多视图重建的经典管道。最先进的方法，例如 NeRF，旨在使用神经网络学习单个场景，并且需要密集的多视图输入。在新场景上进行测试需要从头开始重新训练，这需要 2-3 天。在这项工作中，我们介绍了立体辐射场 (SRF)，这是一种端到端训练的神经视图合成方法，可以推广到新场景，并且在测试时只需要稀疏视图。核心思想是一种受经典多视图立体方法启发的神经架构，它通过在立体图像中找到相似的图像区域来估计表面点。在 SRF 中，我们预测每个 3D 点的颜色和密度，给定输入图像中立体对应的编码。编码是通过成对相似性的集合隐式学习的——模拟经典立体声。实验表明，SRF 在场景上学习结构而不是过度拟合。我们在 DTU 数据集的多个场景上进行训练，并在不重新训练的情况下推广到新场景，只需要 10 个稀疏和展开的视图作为输入。我们展示了 10-15 分钟的微调进一步改善了结果，与特定场景的模型相比，获得了更清晰、更详细的结果。代码、模型和视频可在此 https 网址上找到。</t>
+  </si>
+  <si>
+    <t>我们提出了一种新的神经表示，称为神经射线 (NeuRay)，用于新的视图合成任务。最近的工作从输入视图的图像特征构建辐射场以渲染新颖的视图图像，从而能够泛化到新场景。但是，由于遮挡，3D 点可能对某些输入视图不可见。在这样的 3D 点上，这些泛化方法将包括来自不可见视图的不一致图像特征，这会干扰辐射场的构建。为了解决这个问题，我们在 NeuRay 表示中预测 3D 点对输入视图的可见性。这种可见性使辐射场构建能够专注于可见图像特征，从而显着提高其渲染质量。同时，提出了一种新颖的一致性损失，以在对特定场景进行微调时改进 NeuRay 中的可见性。实验表明，我们的方法在推广到看不见的场景时在新颖的视图合成任务上实现了最先进的性能，并且在微调后优于每个场景的优化方法。</t>
+  </si>
+  <si>
+    <t>我们提出了 DietNeRF，一种从几张图像估计的 3D 神经场景表示。神经辐射场 (NeRF) 通过多视图一致性学习场景的连续体积表示，并且可以通过光线投射从新颖的视点进行渲染。虽然 NeRF 在给定许多图像的情况下具有令人印象深刻的重建几何和精细细节的能力，对于具有挑战性的 360° 场景最多可重建 100 个，但当只有少数输入视图可用时，它通常会为其图像重建目标找到退化的解决方案。为了提高few-shot质量，我们提出了DietNeRF。我们引入了一种辅助语义一致性损失，它鼓励以新颖的姿势进行逼真的渲染。 DietNeRF 在单个场景上进行训练，以 (1) 从相同的姿势正确渲染给定的输入视图，以及 (2) 在不同的随机姿势中匹配高级语义属性。我们的语义损失使我们能够从任意姿势监督 DietNeRF。我们使用预训练的视觉编码器提取这些语义，例如 CLIP，这是一种视觉转换器，通过自然语言监督从网络挖掘出的数亿张不同的单视图 2D 照片进行训练。在实验中，DietNeRF 在从头开始学习时提高了少镜头视图合成的感知质量，在多视图数据集上进行预训练时，可以用少至一张观察到的图像渲染新视图，并生成完全未观察到的区域的合理完成。</t>
+  </si>
+  <si>
+    <t>在本文中，我们建议 MINE 通过从单个图像进行密集 3D 重建来执行新颖的视图合成和深度估计。我们的方法是通过引入神经辐射场 (NeRF) 对多平面图像 (MPI) 进行连续深度泛化。给定单个图像作为输入，MINE 预测任意深度值的 4 通道图像（RGB 和体积密度）以联合重建相机平截头体并填充被遮挡的内容。然后可以使用可微分渲染轻松地将重建和修复的截锥体渲染为新颖的 RGB 或深度视图。在 RealEstate10K、KITTI 和 Flowers Light Fields 上进行的大量实验表明，我们的 MINE 在新颖的视图合成中大大优于最先进的技术。我们还在 iBims-1 和 NYU-v2 的深度估计方面取得了具有竞争力的结果，而无需注释深度监督。我们的源代码可在此 https 网址获得</t>
+  </si>
+  <si>
+    <t>神经网络可以表示和准确重建静态 3D 场景（例如 NeRF）的辐射场。一些作品将这些扩展到用单目视频捕获的动态场景，并具有可观的性能。然而，众所周知，单眼设置是一个约束不足的问题，因此方法依赖于数据驱动的先验来重建动态内容。我们用飞行时间 (ToF) 相机的测量值替换这些先验，并引入基于连续波 ToF 相机图像形成模型的神经表示。我们不使用处理过的深度图，而是对原始 ToF 传感器测量进行建模，以提高重建质量并避免低反射率区域、多路径干扰和传感器有限的明确深度范围等问题。我们展示了这种方法提高了动态场景重建对错误校准和大运动的鲁棒性，并讨论了集成现代智能手机上现在可用的 RGB+ToF 传感器的好处和局限性。</t>
+  </si>
+  <si>
+    <t>CodeNeRF 是一种隐式 3D 神经表示，它学习对象形状和纹理在一个类别中的变化，并且可以从一组姿势图像中进行训练，以合成看不见的对象的新视图。与特定场景的原始 NeRF 不同，CodeNeRF 通过学习单独的嵌入来学习解开形状和纹理。在测试时，给定一个看不见的物体的单个未定位图像，CodeNeRF 通过优化联合估计相机视点、形状和外观代码。看不见的物体可以从单个图像中重建，然后从新的视点渲染，或者通过改变潜在代码编辑它们的形状和纹理。我们在 SRN 基准上进行了实验，结果表明 CodeNeRF 可以很好地泛化到看不见的对象，并且在测试时需要已知相机姿态的方法达到同等性能。我们在真实世界图像上的结果表明，CodeNeRF 可以弥合模拟到真实的差距。</t>
+  </si>
+  <si>
+    <t>我们提出了 StyleNeRF，这是一种 3D 感知生成模型，用于具有高多视图一致性的逼真的高分辨率图像合成，可以在非结构化 2D 图像上进行训练。现有方法要么无法合成具有精细细节的高分辨率图像，要么产生明显的 3D 不一致伪影。此外，他们中的许多人缺乏对风格属性和明确的 3D 相机姿势的控制。 StyleNeRF 将神经辐射场 (NeRF) 集成到基于样式的生成器中，以应对上述挑战，即提高渲染效率和 3D 一致性以生成高分辨率图像。我们执行体积渲染只是为了生成一个低分辨率的特征图，并在 2D 中逐步应用上采样来解决第一个问题。为了减轻 2D 上采样引起的不一致性，我们提出了多种设计，包括更好的上采样器和新的正则化损失。通过这些设计，StyleNeRF 可以以交互速率合成高分辨率图像，同时保持高质量的 3D 一致性。 StyleNeRF 还可以控制相机姿势和不同级别的样式，可以推广到看不见的视图。它还支持具有挑战性的任务，包括放大和缩小、样式混合、反转和语义编辑。</t>
+  </si>
+  <si>
+    <t>神经辐射场 (NeRF) 是一种从姿势输入图像的集合中合成高质量新颖视图的技术。与大多数视图合成方法一样，NeRF 使用色调映射低动态范围（LDR）作为输入；这些图像已由有损相机管道处理，该管道可以平滑细节、剪辑高光并扭曲原始传感器数据的简单噪声分布。我们将 NeRF 修改为直接在线性原始图像上进行训练，保留场景的完整动态范围。通过从生成的 NeRF 渲染原始输出图像，我们可以执行新颖的高动态范围 (HDR) 视图合成任务。除了改变相机视角之外，我们还可以在事后操纵焦点、曝光和色调映射。尽管单个原始图像看起来比后处理的图像噪声大得多，但我们表明 NeRF 对原始噪声的零均值分布具有高度鲁棒性。当针对许多嘈杂的原始输入 (25-200) 进行优化时，NeRF 生成的场景表示非常准确，以至于其渲染的新颖视图优于在相同宽基线输入图像上运行的专用单图像和多图像深度原始降噪器。因此，我们的方法（我们称为 RawNeRF）可以从在近黑暗中捕获的极其嘈杂的图像中重建场景。</t>
+  </si>
+  <si>
+    <t>我们提出了 iNeRF，这是一个通过“反转”经过训练的神经辐射场 (NeRF) 来执行姿态估计的框架。 NeRF 已被证明对视图合成任务非常有效——合成真实世界场景或对象的逼真的新视图。在这项工作中，我们研究是否可以使用 NeRF 进行综合分析来进行 6DoF 姿势估计——给定图像，找到相机相对于 3D 模型的平移和旋转。从初始姿态估计开始，我们使用梯度下降来最小化从已经训练的 NeRF 渲染的像素和观察图像中的像素之间的残差。在我们的实验中，我们首先研究 1）如何在 iNeRF 的姿势细化过程中对光线进行采样以收集信息梯度，以及 2）不同批次大小的光线如何影响合成数据集上的 iNeRF。然后，我们展示了对于来自 LLFF 数据集的复杂现实世界场景，iNeRF 可以通过估计新图像的相机位姿并将这些图像用作 NeRF 的额外训练数据来改进 NeRF。最后，我们展示了 iNeRF 可以与基于特征的姿势初始化相结合。该方法优于所有其他依赖 LineMOD 上的合成数据的基于 RGB 的方法。</t>
+  </si>
+  <si>
+    <t>虽然深度学习使用前馈网络重塑了经典的运动捕捉管道，但需要生成模型通过迭代细化来恢复精细对齐。不幸的是，现有模型通常是在受控条件下手工制作或学习的，仅适用于有限的领域。我们提出了一种通过扩展神经辐射场 (NeRFs) 从未标记的单目视频中学习生成神经体模型的方法。我们为它们配备了骨架，以适用于时变和关节运动。一个关键的见解是，隐式模型需要与显式曲面模型中使用的正向运动学相反。我们的重新参数化定义了相对于身体部位姿势的空间潜在变量，从而克服了过度参数化的不适定逆运算。这使得从头开始学习体积身体形状和外观，同时共同改进关节姿势；输入视频上的所有外观、姿势或 3D 形状都没有地面实况标签。当用于新视图合成和动作捕捉时，我们的神经模型提高了不同数据集的准确性。项目网站：此 https 网址。</t>
+  </si>
+  <si>
+    <t>考虑到仅来自一组 2D 图像的新视图合成 (NVS) 问题，我们通过消除已知或预先计算的相机参数的要求，简化了前向场景中神经辐射场 (NeRF) 的训练过程，包括内在函数和 6DoF 姿势。为此，我们提出了 NeRF−−，具有三个贡献：首先，我们表明相机参数可以通过光度重建作为可学习参数与 NeRF 训练联合优化；其次，为了对相机参数估计和新颖视图渲染的质量进行基准测试，我们引入了一个新的路径跟踪合成场景数据集，称为 Blender Forward-Facing Dataset (BLEFF)；第三，我们进行了广泛的分析以了解各种相机运动下的训练行为，并表明在大多数情况下，联合优化管道可以恢复准确的相机参数并实现与使用 COLMAP 预计算相机参数训练的方法相当的新视图合成质量。</t>
+  </si>
+  <si>
+    <t>我们首次展示了多层感知器 (MLP) 可以作为手持 RGB-D 相机的实时 SLAM 系统中唯一的场景表示。我们的网络在没有先验数据的情况下进行实时操作训练，构建了一个密集的、特定于场景的隐式 3D 占用率和颜色模型，该模型也可立即用于跟踪。</t>
+  </si>
+  <si>
+    <t>神经隐式表示最近在各个领域都显示出令人鼓舞的结果，包括在同时定位和映射 (SLAM) 方面取得的可喜进展。然而，现有方法会产生过度平滑的场景重建，并且难以扩展到大场景。这些限制主要是由于它们简单的全连接网络架构没有在观察中包含本地信息。在本文中，我们提出了 NICE-SLAM，这是一种密集的 SLAM 系统，它通过引入分层场景表示来结合多级局部信息。使用预先训练的几何先验优化这种表示可以在大型室内场景中进行详细的重建。与最近的神经隐式 SLAM 系统相比，我们的方法更具可扩展性、高效性和鲁棒性。在五个具有挑战性的数据集上的实验证明了 NICE-SLAM 在映射和跟踪质量方面的竞争结果。</t>
+  </si>
+  <si>
+    <t>我们介绍了 GNeRF，这是一个将生成对抗网络 (GAN) 与神经辐射场 (NeRF) 重建相结合的框架，用于具有未知甚至随机初始化相机姿势的复杂场景。最近基于 NeRF 的进展因显着的逼真的新视图合成而受到欢迎。然而，它们中的大多数严重依赖于准确的相机位姿估计，而最近的一些方法只能在相机轨迹相对较短的大致前向场景中优化未知相机位姿，并且需要粗略的相机位姿初始化。不同的是，我们的 GNeRF 仅将随机初始化的姿势用于复杂的由外而内的场景。我们提出了一种新颖的两阶段端到端框架。第一阶段将 GAN 的使用带入新领域，以联合优化粗略的相机姿势和辐射场，而第二阶段通过额外的光度损失对它们进行细化。我们使用混合迭代优化方案克服了局部最小值。对各种合成和自然场景的广泛实验证明了 GNeRF 的有效性。更令人印象深刻的是，我们的方法在那些以前被认为极具挑战性的重复模式甚至低纹理的场景中优于基线。</t>
+  </si>
+  <si>
+    <t>神经辐射场 (NeRF) 最近在计算机视觉界引起了极大的兴趣，因为它具有合成真实世界场景的逼真的新颖视图的能力。然而，NeRF 的一个限制是它需要准确的相机姿势来学习场景表示。在本文中，我们提出了 Bundle-Adjusting Neural Radiance Fields (BARF)，用于从不完美（甚至未知）的相机姿势训练 NeRF——学习神经 3D 表示和注册相机帧的联合问题。我们建立了与经典图像对齐的理论联系，并表明从粗到细的配准也适用于 NeRF。此外，我们表明，在 NeRF 中天真地应用位置编码会对基于合成的目标的注册产生负面影响。合成数据和真实世界数据的实验表明，BARF 可以有效地优化神经场景表示并同时解决大的相机位姿错位问题。这使得来自未知相机位姿的视频序列的视图合成和定位成为可能，为视觉定位系统（例如 SLAM）和密集 3D 映射和重建的潜在应用开辟了新途径。</t>
+  </si>
+  <si>
+    <t>在这项工作中，我们提出了一种用于具有任意非线性失真的通用相机的相机自校准算法。我们共同学习场景的几何形状和准确的相机参数，无需任何校准对象。我们的相机模型包括针孔模型、径向失真和可以学习任意非线性相机失真的通用噪声模型。虽然传统的自校准算法主要依赖于几何约束，但我们还结合了光度一致性。这需要学习场景的几何形状，我们使用神经辐射场 (NeRF)。我们还提出了一种新的几何损失函数，即投影射线距离损失，以结合复杂非线性相机模型的几何一致性。我们在标准真实图像数据集上验证了我们的方法，并证明我们的模型可以从头开始学习相机的内在和外在（姿势），而无需 COLMAP 初始化。此外，我们表明，以可微分的方式学习准确的相机模型可以让我们在 NeRF 上提高 PSNR。我们通过实验证明我们提出的方法适用于 NeRF 的变体。此外，我们使用一组用鱼眼镜头拍摄的图像来证明学习相机模型与 COLMAP 初始化相比，共同提高了性能。</t>
+  </si>
+  <si>
+    <t>将场景分解为其形状、反射率和照明度是计算机视觉和图形学中一个具有挑战性但重要的问题。当照明不是实验室条件下的单一光源而是不受约束的环境照明时，这个问题本质上更具挑战性。尽管最近的工作表明可以使用隐式表示来模拟物体的辐射场，但这些技术中的大多数只能实现视图合成而不是重新照明。此外，评估这些辐射场是资源和时间密集型的。我们提出了一种神经反射分解 (NeRD) 技术，该技术使用基于物理的渲染将场景分解为空间变化的 BRDF 材料属性。与现有技术相比，我们的输入图像可以在不同的照明条件下捕获。此外，我们还提出了将学习到的反射体积转换为可重新照明的纹理网格的技术，从而能够使用新颖的照明进行快速实时渲染。我们通过在合成数据集和真实数据集上的实验证明了所提出方法的潜力，我们能够从图像集合中获得高质量的可重新点亮的 3D 资产。</t>
+  </si>
+  <si>
+    <t>我们提出了一种方法，该方法将由不受约束的已知照明照明的场景的一组图像作为输入，并生成可以在任意照明条件下从新视点渲染的 3D 表示作为输出。我们的方法将场景表示为参数化为 MLP 的连续体积函数，其输入是 3D 位置，其输出是该输入位置的以下场景属性：体积密度、表面法线、材料参数、到任何方向上第一个表面交点的距离，以及任何方向的外部环境的可见性。总之，这些允许我们在任意照明下渲染物体的新视图，包括间接照明效果。预测的能见度和表面相交场对于我们的模型在训练期间模拟直接和间接照明的能力至关重要，因为先前工作使用的蛮力技术对于具有单灯的受控设置之外的照明条件是难以处理的。我们的方法在恢复可重新照明的 3D 场景表示方面优于替代方法，并且在对先前工作构成重大挑战的复杂照明设置中表现良好。</t>
+  </si>
+  <si>
+    <t>我们提出了 NeX，这是一种基于多平面图像 (MPI) 增强的新型视图合成的新方法，可以实时再现 NeXt 级别的视图相关效果。与使用一组简单 RGBα 平面的传统 MPI 不同，我们的技术通过将每个像素参数化为从神经网络学习的基函数的线性组合来模拟视图相关的效果。此外，我们提出了一种混合隐式-显式建模策略，该策略改进了精细细节并产生了最先进的结果。我们的方法在基准前向数据集以及我们新引入的数据集上进行了评估，该数据集旨在测试与视图相关的建模的极限，具有明显更具挑战性的效果，例如 CD 上的彩虹反射。我们的方法在这些数据集的所有主要指标上都取得了最好的总体得分，渲染时间比现有技术快 1000 倍以上。</t>
+  </si>
+  <si>
+    <t>我们解决了从由一种未知光照条件照射的物体的多视图图像（及其相机姿势）中恢复物体的形状和空间变化反射率的问题。这使得能够在任意环境照明下渲染对象的新颖视图并编辑对象的材质属性。我们方法的关键，我们称之为神经辐射分解（NeRFactor），是提取神经辐射场（NeRF）的体积几何[Mildenhall et al。 2020] 将对象表示为表面表示，然后在解决空间变化的反射率和环境照明的同时联合细化几何。具体来说，NeRFactor 在没有任何监督的情况下恢复表面法线、光能见度、反照率和双向反射分布函数 (BRDF) 的 3D 神经场，仅使用重新渲染损失、简单的平滑先验和从真实数据中学习的数据驱动的 BRDF 先验-世界BRDF测量。通过显式建模光可见性，NeRFactor 能够从反照率中分离出阴影，并在任意光照条件下合成逼真的软阴影或硬阴影。 NeRFactor 能够恢复令人信服的 3D 模型，用于在合成场景和真实场景的这种具有挑战性且约束不足的捕获设置中进行自由视点重新照明。定性和定量实验表明，NeRFactor 在各种任务中都优于经典和基于深度学习的最新技术。我们的视频、代码和数据可在 people.csail.mit.edu/xiuming/projects/nerfactor/ 上找到。</t>
+  </si>
+  <si>
+    <t>神经辐射场 (NeRF) 为各种捕捉设置实现了令人印象深刻的视图合成结果，包括有界场景的 360 度捕捉以及有界和无界场景的前向捕捉。 NeRF 将表示视图不变不透明度和视图相关颜色体积的多层感知器 (MLP) 拟合到一组训练图像，并基于体积渲染技术对新视图进行采样。在这份技术报告中，我们首先评论了辐射场及其潜在的模糊性，即形状-辐射模糊度，并分析了 NeRF 在避免这种模糊性方面的成功。其次，我们解决了将 NeRF 应用于大规模、无界 3D 场景中对象的 360 度捕获所涉及的参数化问题。我们的方法在这种具有挑战性的场景中提高了视图合成保真度。此 https 网址提供了代码。</t>
+  </si>
+  <si>
+    <t>深度生成模型允许以高分辨率进行逼真的图像合成。但对于许多应用程序来说，这还不够：内容创建还需要可控。虽然最近的几项工作研究了如何解开数据变化的潜在因素，但它们中的大多数都在 2D 中运行，因此忽略了我们的世界是 3D 的。此外，只有少数作品考虑场景的构图性质。我们的关键假设是，将合成 3D 场景表示合并到生成模型中会导致更可控的图像合成。将场景表示为合成生成神经特征场使我们能够从背景中解开一个或多个对象以及单个对象的形状和外观，同时从非结构化和未定型的图像集合中学习，而无需任何额外的监督。将这种场景表示与神经渲染管道相结合，可以生成快速且逼真的图像合成模型。正如我们的实验所证明的那样，我们的模型能够解开单个对象，并允许在场景中平移和旋转它们以及改变相机姿势。</t>
+  </si>
+  <si>
+    <t>我们提出了一种从捕获的对象图像中合成逼真场景的方法。我们的工作建立在神经辐射场 (NeRFs) 之上，它隐含地模拟了场景的体积密度和定向发射的辐射。虽然 NeRF 可以合成逼真的图片，但它们只对静态场景进行建模，并且与特定的成像条件密切相关。这个属性使得 NeRFs 难以泛化到新场景，包括新的光照或对象的新排列。我们建议学习以对象为中心的神经散射函数 (OSF)，而不是像 NeRF 那样学习场景辐射场，这是一种使用与光照和视图相关的神经网络隐式模拟每个对象的光传输的表示。即使物体或灯光移动，这也可以渲染场景，而无需重新训练。结合体积路径跟踪程序，我们的框架能够渲染对象内和对象间的光传输效果，包括遮挡、镜面反射、阴影和间接照明。我们评估了我们的场景合成方法，并表明它可以推广到新的照明条件，产生逼真的、物理上精确的多对象场景渲染。</t>
+  </si>
+  <si>
+    <t>动态人体的逼真渲染是远程呈现系统、虚拟购物、合成数据生成等的重要能力。最近，结合计算机图形学和机器学习技术的神经渲染方法已经创建了人类和物体的高保真模型。其中一些方法不会为可驱动的人体模型（神经体积）产生足够高保真度的结果，而其他方法则具有极长的渲染时间（NeRF）。我们提出了一种新颖的组合 3D 表示，它结合了以前最好的方法来产生更高分辨率和更快的结果。我们的表示通过将粗略的 3D 结构感知动画代码网格与连续学习的场景函数相结合，弥合了离散和连续体积表示之间的差距，该函数将每个位置及其相应的局部动画代码映射到其与视图相关的发射辐射和局部体积密度。可微分体渲染用于计算人头和上身的照片般逼真的新颖视图，并仅使用 2D 监督来端到端训练我们的新颖表示。此外，我们表明，学习到的动态辐射场可用于基于全局动画代码合成新的看不见的表情。我们的方法在合成动态人头和上半身的新视图方面取得了最先进的结果。</t>
+  </si>
+  <si>
+    <t>最近的隐式神经渲染方法表明，可以通过仅由一组 RGB 图像监督的预测其体积密度和颜色来学习复杂场景的准确视图合成。然而，现有方法仅限于学习将所有场景对象编码为单个神经网络的静态场景的有效表示，并且缺乏将动态场景表示和分解为单个场景对象的能力。在这项工作中，我们提出了第一个将动态场景分解为场景图的神经渲染方法。我们提出了一种学习的场景图表示，它对对象变换和辐射进行编码，以有效地渲染场景的新颖排列和视图。为此，我们学习隐式编码的场景，并结合联合学习的潜在表示来描述具有单个隐式函数的对象。我们在合成和真实汽车数据上评估所提出的方法，验证我们的方法学习动态场景 - 仅通过观察该场景的视频 - 并允许渲染具有看不见的对象集的新颖场景组合的新颖照片般逼真的视图看不见的姿势。</t>
+  </si>
+  <si>
+    <t>我们研究从单个图像推断以对象为中心的场景表示的问题，旨在推导出解释图像形成过程的表示，捕捉场景的 3D 性质，并且在没有监督的情况下学习。由于将复杂的 3D 到 2D 图像形成过程集成到强大的推理方案（如深度网络）中存在根本性挑战，大多数现有的场景分解方法都缺乏这些特征中的一个或多个。在本文中，我们提出了对象辐射场 (uORF) 的无监督发现，将神经 3D 场景表示和渲染的最新进展与深度推理网络相结合，用于无监督 3D 场景分解。在没有注释的多视图 RGB 图像上进行训练，uORF 学习从单个图像分解具有不同纹理背景的复杂场景。我们展示了 uORF 在无监督 3D 场景分割、新视图合成和三个数据集上的场景编辑方面表现良好。</t>
+  </si>
+  <si>
+    <t>隐式神经渲染技术已经显示出用于新视图合成的有希望的结果。然而，现有方法通常将整个场景编码为一个整体，这通常不知道对象身份，并且限制了移动或添加家具等高级编辑任务的能力。在本文中，我们提出了一种新颖的神经场景渲染系统，该系统学习对象组成的神经辐射场，并为集群和真实世界场景生成具有编辑能力的逼真渲染。具体来说，我们设计了一种新颖的双路径架构，其中场景分支对场景几何和外观进行编码，对象分支根据可学习的对象激活码对每个独立对象进行编码。为了在严重混乱的场景中进行训练，我们提出了一种场景引导的训练策略来解决遮挡区域中的 3D 空间模糊性并学习每个对象的清晰边界。大量实验表明，我们的系统不仅在静态场景新视图合成方面取得了有竞争力的性能，而且为对象级编辑产生了逼真的渲染。</t>
+  </si>
+  <si>
+    <t>语义标签与几何和辐射重建高度相关，因为具有相似形状和外观的场景实体更有可能来自相似的类别。最近的隐式神经重建技术很有吸引力，因为它们不需要事先的训练数据，但同样的完全自我监督的方法对于语义来说是不可能的，因为标签是人类定义的属性。</t>
+  </si>
+  <si>
+    <t>神经辐射场 (NeRF) 是支持高质量视图合成的场景模型，针对每个场景进行了优化。在本文中，我们探索启用用户编辑类别级 NeRF - 也称为条件辐射场 - 在形状类别上训练。具体来说，我们介绍了一种将粗略的 2D 用户涂鸦传播到 3D 空间的方法，以修改局部区域的颜色或形状。首先，我们提出了一个条件辐射场，它结合了新的模块化网络组件，包括一个跨对象实例共享的形状分支。观察同一类别的多个实例，我们的模型在没有任何监督的情况下学习底层部分语义，从而允许将粗略的 2D 用户涂鸦传播到整个 3D 区域（例如，椅子座位）。接下来，我们提出了一种针对特定网络组件的混合网络更新策略，该策略平衡了效率和准确性。在用户交互过程中，我们制定了一个既满足用户约束又保留原始对象结构的优化问题。我们在三个形状数据集上展示了我们在各种编辑任务上的方法，并表明它优于以前的神经编辑方法。最后，我们编辑真实照片的外观和形状，并显示编辑传播到外推的新视图。</t>
+  </si>
+  <si>
+    <t>生成自由视点视频对于沉浸式 VR/AR 体验至关重要，但最近的神经学进展仍然缺乏编辑能力来操纵大型动态场景的视觉感知。为了填补这一空白，在本文中，我们提出了第一种仅使用稀疏的 16 个摄像头为大规模动态场景生成可编辑照片般逼真的自由视点视频的方法。我们方法的核心是一种新的分层神经表示，其中包括环境本身的每个动态实体都被制定为称为 ST-NeRF 的时空相干神经分层辐射表示。这种分层表示支持对动态场景的完全感知和真实操作，同时仍支持大范围的自由观看体验。在我们的 ST-NeRF 中，动态实体/层被表示为连续函数，以连续和自监督的方式实现动态实体的位置、变形以及外观的解耦。我们提出了一个场景解析 4D 标签映射跟踪来显式地解开空间信息，以及一个连续变形模块来隐式地解开时间运动。进一步引入了一种对象感知体绘制方案，用于重新组装所有神经层。我们采用了一种新颖的分层损失和运动感知光线采样策略，以实现对具有多个表演者的大型动态场景的有效训练，我们的框架进一步实现了各种编辑功能，即操纵规模和位置，复制或重新定时单个神经层在保持高度真实感的同时创造众多视觉效果。大量实验证明了我们的方法在为动态场景生成高质量、照片般逼真和可编辑的自由视点视频方面的有效性。</t>
+  </si>
+  <si>
+    <t>我们研究使用神经辐射场 (NeRF) 从输入图像的集合中学习高质量的 3D 对象类别模型。与以前的工作相比，我们能够做到这一点，同时将前景对象与不同的背景分开。我们通过 2 分量 NeRF 模型 FiG-NeRF 实现了这一点，该模型更喜欢将场景解释为几何恒定的背景和代表对象类别的可变形前景。我们表明，这种方法可以仅使用光度监督和随意捕获的对象图像来学习准确的 3D 对象类别模型。此外，我们的两部分分解允许模型执行准确和清晰的模态分割。我们使用合成的、实验室捕获的和野外数据，通过视图合成和图像保真度指标对我们的方法进行定量评估。我们的结果证明了令人信服的 3D 对象类别建模，其性能超过了现有方法的性能。</t>
+  </si>
+  <si>
+    <t>我们研究使用神经场来模拟不同的中尺度结构，例如毛皮、织物和草。我们建议使用由神经反射场 (NeRF-Tex) 表示的多功能体积基元，而不是使用经典的图形基元来建模结构，它联合建模材料的几何形状及其对照明的响应。 NeRF-Tex 原语可以在基础网格上实例化，以使用所需的细观和微尺度外观对其进行“纹理化”。我们根据控制外观的用户定义参数来调节反射率场。因此，单个 NeRF 纹理捕获了反射场的整个空间，而不是一个特定的结构。这增加了可以建模的外观范围，并提供了一种解决重复纹理伪影的解决方案。我们还证明了 NeRF 纹理自然地促进了连续的细节层次渲染。我们的方法将神经网络的多功能性和建模能力与虚拟场景精确建模所需的艺术控制相结合。虽然我们所有的训练数据目前都是合成的，但我们的工作提供了一个方法，可以进一步扩展以从真实图像中提取复杂、难以建模的外观。</t>
+  </si>
+  <si>
+    <t>神经辐射场 (NeRF) 使用的渲染过程对每个像素单条射线进行采样，因此在训练或测试图像以不同分辨率观察场景内容时，可能会产生过度模糊或混叠的渲染。对于 NeRF 来说，通过每个像素渲染多条光线来进行超级采样的直接解决方案是不切实际的，因为渲染每条光线需要查询多层感知器数百次。我们的解决方案，我们称之为“mip-NeRF”（à la“mipmap”），扩展了 NeRF 以在连续值的尺度上表示场景。通过有效地渲染抗锯齿圆锥截头体而不是射线，mip-NeRF 减少了令人反感的锯齿伪影并显着提高了 NeRF 表示精细细节的能力，同时也比 NeRF 快 7% 和一半的大小。与 NeRF 相比，mip-NeRF 在使用 NeRF 呈现的数据集上将平均错误率降低了 17%，在我们呈现的该数据集的具有挑战性的多尺度变体上降低了 60%。 mip-NeRF 还能够在我们的多尺度数据集上匹配蛮力超采样 NeRF 的准确性，同时速度提高 22 倍。</t>
+  </si>
+  <si>
+    <t>神经隐式 3D 表示已成为从多视图图像重建表面和合成新视图的强大范例。不幸的是，DVR 或 IDR 等现有方法需要精确的每像素对象掩码作为监督。同时，神经辐射场已经彻底改变了新的视图合成。然而，NeRF 的估计体积密度不允许精确的表面重建。我们的主要见解是隐式表面模型和辐射场可以以统一的方式制定，从而使用相同的模型实现表面和体积渲染。这种统一的视角实现了新颖、更有效的采样程序，并能够在没有输入掩码的情况下重建准确的表面。我们在 DTU、BlendedMVS 和合成室内数据集上比较我们的方法。我们的实验表明，我们在重建质量方面优于 NeRF，同时在不需要掩码的情况下与 IDR 相当。</t>
+  </si>
+  <si>
+    <t>我们提出了一种新的神经表面重建方法，称为 NeuS，用于从 2D 图像输入中重建具有高保真度的对象和场景。现有的神经表面重建方法，如 DVR 和 IDR，需要前景掩码作为监督，容易陷入局部最小值，因此难以重建具有严重自遮挡或薄结构的物体。同时，最近用于新视图合成的神经方法，例如 NeRF 及其变体，使用体积渲染来生成具有优化鲁棒性的神经场景表示，即使对于高度复杂的对象也是如此。然而，从这种学习到的隐式表示中提取高质量的表面是很困难的，因为表示中没有足够的表面约束。在 NeuS 中，我们建议将表面表示为有符号距离函数 (SDF) 的零级集，并开发一种新的体绘制方法来训练神经 SDF 表示。我们观察到传统的体绘制方法会导致表面重建的固有几何误差（即偏差），因此提出了一种新的公式，该公式在一阶近似中没有偏差，从而即使没有掩模监督也能实现更准确的表面重建.在 DTU 数据集和 BlendedMVS 数据集上的实验表明，NeuS 在高质量表面重建方面优于最先进的技术，特别是对于具有复杂结构和自遮挡的物体和场景。</t>
+  </si>
+  <si>
+    <t>神经体绘制最近变得越来越流行，因为它成功地从一组稀疏的输入图像中合成了场景的新视图。到目前为止，通过神经体绘制技术学习的几何图形是使用通用密度函数建模的。此外，几何本身是使用密度函数的任意水平集提取的，这会导致嘈杂的、通常是低保真度的重建。本文的目标是改进神经体绘制中的几何表示和重建。我们通过将体积密度建模为几何形状的函数来实现这一点。这与之前将几何建模为体积密度函数的工作形成对比。更详细地说，我们将体积密度函数定义为应用于有符号距离函数 (SDF) 表示的拉普拉斯累积分布函数 (CDF)。这种简单的密度表示具有三个好处：（i）它为在神经体绘制过程中学习的几何图形提供了有用的归纳偏差； (ii) 它有助于限制不透明度近似误差，从而实现对视线的准确采样。准确的采样对于提供几何和辐射的精确耦合很重要； (iii) 它允许在体积渲染中对形状和外观进行有效的无监督解开。将这种新的密度表示应用于具有挑战性的场景多视图数据集产生了高质量的几何重建，优于相关的基线。此外，由于两者的分离，可以在场景之间切换形状和外观。</t>
+  </si>
+  <si>
+    <t>在这项工作中，我们提出了一种新的多视图深度估计方法，该方法在最近提出的神经辐射场 (NeRF) 上利用了传统的 SfM 重建和基于学习的先验。与现有的依赖于估计对应的基于神经网络的优化方法不同，我们的方法直接优化隐式体积，消除了在室内场景中匹配像素的挑战性步骤。我们方法的关键是利用基于学习的先验来指导 NeRF 的优化过程。我们的系统首先通过微调其稀疏 SfM 重建来适应目标场景上的单目深度网络。然后，我们证明了 NeRF 的形状-辐射模糊性仍然存在于室内环境中，并建议通过采用适应的深度先验来监控体绘制的采样过程来解决这个问题。最后，通过对渲染图像进行误差计算获得的每像素置信度图可用于进一步提高深度质量。实验表明，我们提出的框架在室内场景中显着优于最先进的方法，在基于对应的优化和基于 NeRF 的优化对适应深度先验的有效性方面提出了令人惊讶的发现。此外，我们表明引导优化方案不会牺牲神经辐射场的原始合成能力，提高了可见视图和新视图的渲染质量。</t>
+  </si>
+  <si>
+    <t>人类对我们周围的 3D 环境有着强烈的直觉理解。我们大脑中的物理心智模型适用于不同材料的物体，使我们能够执行远远超出当前机器人范围的广泛操作任务。在这项工作中，我们希望纯粹从 2D 视觉观察中学习动态 3D 场景的模型。我们的模型结合了神经弧度</t>
+  </si>
+  <si>
+    <t>神经辐射场 (NeRFs) 最近已成为表示自然、复杂 3D 场景的强大范例。 NeRF 表示神经网络中的连续体积密度和 RGB 值，并通过光线追踪从看不见的相机视点生成照片般逼真的图像。我们提出了一种算法，用于在表示为 NeRF 的 3D 环境中导航机器人，仅使用板载 RGB 相机进行定位。我们假设场景的 NeRF 已经离线预训练，机器人的目标是在 NeRF 中的未占用空间中导航以达到目标姿势。我们引入了一种轨迹优化算法，该算法基于离散时间版本的差分平坦度避免与 NeRF 中的高密度区域发生碰撞，该版本可以约束机器人的完整姿势和控制输入。我们还引入了一种基于优化的过滤方法来估计 NeRF 中机器人的 6DoF 姿势和速度，仅给定一个板载 RGB 相机。我们将轨迹规划器与位姿过滤器结合在一个在线重新规划循环中，以提供基于视觉的机器人导航管道。我们展示了一个四旋翼机器人仅使用 RGB 相机在丛林健身房环境、教堂内部和巨石阵中导航的模拟结果。我们还演示了一个在教堂中导航的全向地面机器人，要求它重新定向以适应狭窄的缝隙。可以在此 https 网址上找到这项工作的视频。</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2107.07905</t>
   </si>
 </sst>
 </file>
@@ -986,11 +2396,8 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1346,23 +2753,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="O1" sqref="O1"/>
+      <selection pane="bottomLeft" activeCell="E95" sqref="E95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19.1640625" customWidth="1"/>
-    <col min="2" max="2" width="93.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="61.5" customWidth="1"/>
     <col min="3" max="7" width="10.83203125" customWidth="1"/>
-    <col min="8" max="8" width="161.5" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5" customWidth="1"/>
+    <col min="9" max="17" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1384,7 +2792,7 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
       <c r="I1" t="s">
@@ -1406,19 +2814,25 @@
         <v>13</v>
       </c>
       <c r="O1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="P1" t="s">
         <v>14</v>
       </c>
       <c r="Q1" t="s">
+        <v>258</v>
+      </c>
+      <c r="R1" t="s">
+        <v>261</v>
+      </c>
+      <c r="S1" t="s">
         <v>15</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="119" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -1437,14 +2851,14 @@
       <c r="G2" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" t="s">
         <v>23</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="85" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -1452,25 +2866,25 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G3" t="s">
-        <v>109</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>130</v>
+        <v>108</v>
+      </c>
+      <c r="H3" t="s">
+        <v>129</v>
       </c>
       <c r="M3">
         <v>1</v>
       </c>
-      <c r="Q3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" ht="68" x14ac:dyDescent="0.2">
+      <c r="S3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -1478,16 +2892,16 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G4" t="s">
         <v>26</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>131</v>
+      <c r="H4" t="s">
+        <v>130</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -1496,7 +2910,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="119" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -1504,28 +2918,28 @@
         <v>34</v>
       </c>
       <c r="C5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G5" t="s">
         <v>34</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>132</v>
+      <c r="H5" t="s">
+        <v>131</v>
       </c>
       <c r="M5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="85" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -1533,22 +2947,22 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G6" t="s">
-        <v>110</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>133</v>
+        <v>109</v>
+      </c>
+      <c r="H6" t="s">
+        <v>132</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="85" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -1556,19 +2970,19 @@
         <v>28</v>
       </c>
       <c r="D7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G7" t="s">
-        <v>111</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>134</v>
+        <v>110</v>
+      </c>
+      <c r="H7" t="s">
+        <v>133</v>
       </c>
       <c r="J7">
         <v>1</v>
@@ -1577,7 +2991,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="102" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -1585,19 +2999,19 @@
         <v>35</v>
       </c>
       <c r="C8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G8" t="s">
-        <v>112</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>135</v>
+        <v>111</v>
+      </c>
+      <c r="H8" t="s">
+        <v>134</v>
       </c>
       <c r="J8">
         <v>1</v>
@@ -1606,7 +3020,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="102" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -1614,20 +3028,20 @@
         <v>36</v>
       </c>
       <c r="C9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D9" t="s">
+        <v>151</v>
+      </c>
+      <c r="E9" t="s">
+        <v>83</v>
+      </c>
+      <c r="G9" t="s">
+        <v>127</v>
+      </c>
+      <c r="H9" t="s">
         <v>152</v>
       </c>
-      <c r="E9" t="s">
-        <v>84</v>
-      </c>
-      <c r="G9" t="s">
-        <v>128</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>153</v>
-      </c>
       <c r="J9">
         <v>1</v>
       </c>
@@ -1635,7 +3049,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="102" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -1643,28 +3057,28 @@
         <v>37</v>
       </c>
       <c r="C10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G10" t="s">
-        <v>113</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="R10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" ht="119" x14ac:dyDescent="0.2">
+        <v>112</v>
+      </c>
+      <c r="H10" t="s">
+        <v>135</v>
+      </c>
+      <c r="T10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -1672,25 +3086,25 @@
         <v>38</v>
       </c>
       <c r="C11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G11" t="s">
-        <v>114</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>137</v>
+        <v>113</v>
+      </c>
+      <c r="H11" t="s">
+        <v>136</v>
       </c>
       <c r="M11">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="102" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -1698,19 +3112,19 @@
         <v>39</v>
       </c>
       <c r="C12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G12" t="s">
-        <v>115</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>138</v>
+        <v>114</v>
+      </c>
+      <c r="H12" t="s">
+        <v>137</v>
       </c>
       <c r="M12">
         <v>1</v>
@@ -1719,7 +3133,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:18" ht="85" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -1727,19 +3141,19 @@
         <v>29</v>
       </c>
       <c r="D13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G13" t="s">
-        <v>116</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>139</v>
+        <v>115</v>
+      </c>
+      <c r="H13" t="s">
+        <v>138</v>
       </c>
       <c r="J13">
         <v>1</v>
@@ -1748,7 +3162,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="119" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -1756,31 +3170,31 @@
         <v>40</v>
       </c>
       <c r="C14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G14" t="s">
-        <v>117</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>140</v>
+        <v>116</v>
+      </c>
+      <c r="H14" t="s">
+        <v>139</v>
       </c>
       <c r="O14">
         <v>1</v>
       </c>
-      <c r="R14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" ht="102" x14ac:dyDescent="0.2">
+      <c r="T14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -1788,16 +3202,16 @@
         <v>30</v>
       </c>
       <c r="D15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G15" t="s">
-        <v>118</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>141</v>
+        <v>117</v>
+      </c>
+      <c r="H15" t="s">
+        <v>140</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -1805,11 +3219,11 @@
       <c r="M15">
         <v>1</v>
       </c>
-      <c r="R15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" ht="119" x14ac:dyDescent="0.2">
+      <c r="T15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>18</v>
       </c>
@@ -1817,19 +3231,19 @@
         <v>41</v>
       </c>
       <c r="C16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E16" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G16" t="s">
-        <v>119</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>142</v>
+        <v>118</v>
+      </c>
+      <c r="H16" t="s">
+        <v>141</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -1838,7 +3252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:18" ht="85" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -1846,28 +3260,31 @@
         <v>42</v>
       </c>
       <c r="C17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E17" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F17" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G17" t="s">
-        <v>120</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>143</v>
+        <v>119</v>
+      </c>
+      <c r="H17" t="s">
+        <v>142</v>
       </c>
       <c r="R17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:18" ht="85" x14ac:dyDescent="0.2">
+      <c r="T17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -1875,22 +3292,22 @@
         <v>31</v>
       </c>
       <c r="D18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G18" t="s">
-        <v>121</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>144</v>
+        <v>120</v>
+      </c>
+      <c r="H18" t="s">
+        <v>143</v>
       </c>
       <c r="I18">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:18" ht="119" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -1898,22 +3315,22 @@
         <v>43</v>
       </c>
       <c r="C19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D19" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E19" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F19" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G19" t="s">
-        <v>122</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>145</v>
+        <v>121</v>
+      </c>
+      <c r="H19" t="s">
+        <v>144</v>
       </c>
       <c r="O19">
         <v>1</v>
@@ -1922,7 +3339,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:18" ht="85" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -1930,19 +3347,19 @@
         <v>32</v>
       </c>
       <c r="D20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G20" t="s">
-        <v>123</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>146</v>
+        <v>122</v>
+      </c>
+      <c r="H20" t="s">
+        <v>145</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1951,7 +3368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:18" ht="85" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -1959,22 +3376,22 @@
         <v>44</v>
       </c>
       <c r="C21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D21" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E21" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F21" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G21" t="s">
-        <v>124</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>147</v>
+        <v>123</v>
+      </c>
+      <c r="H21" t="s">
+        <v>146</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1983,7 +3400,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:18" ht="68" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>18</v>
       </c>
@@ -1991,25 +3408,25 @@
         <v>45</v>
       </c>
       <c r="C22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D22" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E22" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G22" t="s">
-        <v>125</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="R22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" ht="68" x14ac:dyDescent="0.2">
+        <v>124</v>
+      </c>
+      <c r="H22" t="s">
+        <v>147</v>
+      </c>
+      <c r="T22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>18</v>
       </c>
@@ -2017,19 +3434,19 @@
         <v>46</v>
       </c>
       <c r="C23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D23" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E23" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G23" t="s">
-        <v>126</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>149</v>
+        <v>125</v>
+      </c>
+      <c r="H23" t="s">
+        <v>148</v>
       </c>
       <c r="J23">
         <v>1</v>
@@ -2038,27 +3455,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:18" ht="85" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>18</v>
       </c>
       <c r="B24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C24" t="s">
-        <v>47</v>
+        <v>290</v>
       </c>
       <c r="D24" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E24" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G24" t="s">
-        <v>127</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>150</v>
+        <v>126</v>
+      </c>
+      <c r="H24" t="s">
+        <v>149</v>
       </c>
       <c r="J24">
         <v>1</v>
@@ -2070,7 +3487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:18" ht="119" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>18</v>
       </c>
@@ -2078,23 +3495,2365 @@
         <v>33</v>
       </c>
       <c r="D25" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E25" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G25" t="s">
-        <v>129</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="R25">
+        <v>128</v>
+      </c>
+      <c r="H25" t="s">
+        <v>150</v>
+      </c>
+      <c r="T25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>154</v>
+      </c>
+      <c r="B26" t="s">
+        <v>155</v>
+      </c>
+      <c r="C26" t="s">
+        <v>157</v>
+      </c>
+      <c r="D26" t="s">
+        <v>259</v>
+      </c>
+      <c r="E26" t="s">
+        <v>158</v>
+      </c>
+      <c r="F26" t="s">
+        <v>159</v>
+      </c>
+      <c r="G26" t="s">
+        <v>160</v>
+      </c>
+      <c r="H26" t="s">
+        <v>161</v>
+      </c>
+      <c r="T26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>154</v>
+      </c>
+      <c r="B27" t="s">
+        <v>156</v>
+      </c>
+      <c r="C27" t="s">
+        <v>357</v>
+      </c>
+      <c r="D27" t="s">
+        <v>162</v>
+      </c>
+      <c r="E27" t="s">
+        <v>163</v>
+      </c>
+      <c r="F27" t="s">
+        <v>164</v>
+      </c>
+      <c r="G27" t="s">
+        <v>166</v>
+      </c>
+      <c r="H27" t="s">
+        <v>165</v>
+      </c>
+      <c r="J27">
+        <v>1</v>
+      </c>
+      <c r="K27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>154</v>
+      </c>
+      <c r="B28" t="s">
+        <v>167</v>
+      </c>
+      <c r="C28" t="s">
+        <v>168</v>
+      </c>
+      <c r="D28" t="s">
+        <v>169</v>
+      </c>
+      <c r="E28" t="s">
+        <v>172</v>
+      </c>
+      <c r="F28" t="s">
+        <v>173</v>
+      </c>
+      <c r="G28" t="s">
+        <v>171</v>
+      </c>
+      <c r="H28" t="s">
+        <v>170</v>
+      </c>
+      <c r="K28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>154</v>
+      </c>
+      <c r="B29" t="s">
+        <v>174</v>
+      </c>
+      <c r="D29" t="s">
+        <v>175</v>
+      </c>
+      <c r="E29" t="s">
+        <v>176</v>
+      </c>
+      <c r="G29" t="s">
+        <v>474</v>
+      </c>
+      <c r="H29" t="s">
+        <v>549</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>154</v>
+      </c>
+      <c r="B30" t="s">
+        <v>177</v>
+      </c>
+      <c r="C30" t="s">
+        <v>178</v>
+      </c>
+      <c r="D30" t="s">
+        <v>179</v>
+      </c>
+      <c r="E30" t="s">
+        <v>180</v>
+      </c>
+      <c r="F30" t="s">
+        <v>181</v>
+      </c>
+      <c r="G30" t="s">
+        <v>475</v>
+      </c>
+      <c r="H30" t="s">
+        <v>550</v>
+      </c>
+      <c r="K30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>154</v>
+      </c>
+      <c r="B31" t="s">
+        <v>182</v>
+      </c>
+      <c r="C31" t="s">
+        <v>185</v>
+      </c>
+      <c r="D31" t="s">
+        <v>183</v>
+      </c>
+      <c r="E31" t="s">
+        <v>184</v>
+      </c>
+      <c r="G31" t="s">
+        <v>476</v>
+      </c>
+      <c r="H31" t="s">
+        <v>551</v>
+      </c>
+      <c r="K31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>154</v>
+      </c>
+      <c r="B32" t="s">
+        <v>186</v>
+      </c>
+      <c r="C32" t="s">
+        <v>185</v>
+      </c>
+      <c r="D32" t="s">
+        <v>187</v>
+      </c>
+      <c r="E32" t="s">
+        <v>188</v>
+      </c>
+      <c r="F32" t="s">
+        <v>189</v>
+      </c>
+      <c r="G32" t="s">
+        <v>477</v>
+      </c>
+      <c r="H32" t="s">
+        <v>552</v>
+      </c>
+      <c r="K32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>154</v>
+      </c>
+      <c r="B33" t="s">
+        <v>190</v>
+      </c>
+      <c r="C33" t="s">
+        <v>191</v>
+      </c>
+      <c r="D33" t="s">
+        <v>192</v>
+      </c>
+      <c r="E33" t="s">
+        <v>193</v>
+      </c>
+      <c r="F33" t="s">
+        <v>194</v>
+      </c>
+      <c r="G33" t="s">
+        <v>478</v>
+      </c>
+      <c r="H33" t="s">
+        <v>553</v>
+      </c>
+      <c r="K33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>154</v>
+      </c>
+      <c r="B34" t="s">
+        <v>195</v>
+      </c>
+      <c r="C34" t="s">
+        <v>196</v>
+      </c>
+      <c r="D34" t="s">
+        <v>197</v>
+      </c>
+      <c r="E34" t="s">
+        <v>198</v>
+      </c>
+      <c r="G34" t="s">
+        <v>479</v>
+      </c>
+      <c r="H34" t="s">
+        <v>554</v>
+      </c>
+      <c r="K34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>154</v>
+      </c>
+      <c r="B35" t="s">
+        <v>199</v>
+      </c>
+      <c r="C35" t="s">
+        <v>358</v>
+      </c>
+      <c r="D35" t="s">
+        <v>200</v>
+      </c>
+      <c r="E35" t="s">
+        <v>201</v>
+      </c>
+      <c r="F35" t="s">
+        <v>202</v>
+      </c>
+      <c r="G35" t="s">
+        <v>480</v>
+      </c>
+      <c r="H35" t="s">
+        <v>555</v>
+      </c>
+      <c r="K35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>154</v>
+      </c>
+      <c r="B36" t="s">
+        <v>203</v>
+      </c>
+      <c r="C36" t="s">
+        <v>205</v>
+      </c>
+      <c r="D36" t="s">
+        <v>206</v>
+      </c>
+      <c r="E36" t="s">
+        <v>207</v>
+      </c>
+      <c r="F36" t="s">
+        <v>204</v>
+      </c>
+      <c r="G36" t="s">
+        <v>481</v>
+      </c>
+      <c r="H36" t="s">
+        <v>556</v>
+      </c>
+      <c r="K36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>154</v>
+      </c>
+      <c r="B37" t="s">
+        <v>208</v>
+      </c>
+      <c r="C37" t="s">
+        <v>209</v>
+      </c>
+      <c r="D37" t="s">
+        <v>210</v>
+      </c>
+      <c r="E37" t="s">
+        <v>211</v>
+      </c>
+      <c r="F37" t="s">
+        <v>212</v>
+      </c>
+      <c r="G37" t="s">
+        <v>482</v>
+      </c>
+      <c r="H37" t="s">
+        <v>557</v>
+      </c>
+      <c r="K37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>154</v>
+      </c>
+      <c r="B38" t="s">
+        <v>213</v>
+      </c>
+      <c r="C38" t="s">
+        <v>168</v>
+      </c>
+      <c r="D38" t="s">
+        <v>214</v>
+      </c>
+      <c r="E38" t="s">
+        <v>215</v>
+      </c>
+      <c r="G38" t="s">
+        <v>483</v>
+      </c>
+      <c r="H38" t="s">
+        <v>558</v>
+      </c>
+      <c r="I38">
+        <v>1</v>
+      </c>
+      <c r="O38">
+        <v>1</v>
+      </c>
+      <c r="T38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>154</v>
+      </c>
+      <c r="B39" t="s">
+        <v>216</v>
+      </c>
+      <c r="C39" t="s">
+        <v>205</v>
+      </c>
+      <c r="D39" t="s">
+        <v>217</v>
+      </c>
+      <c r="E39" t="s">
+        <v>218</v>
+      </c>
+      <c r="F39" t="s">
+        <v>219</v>
+      </c>
+      <c r="G39" t="s">
+        <v>484</v>
+      </c>
+      <c r="H39" t="s">
+        <v>559</v>
+      </c>
+      <c r="I39">
+        <v>1</v>
+      </c>
+      <c r="O39">
+        <v>1</v>
+      </c>
+      <c r="T39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>154</v>
+      </c>
+      <c r="B40" t="s">
+        <v>220</v>
+      </c>
+      <c r="C40" t="s">
+        <v>185</v>
+      </c>
+      <c r="D40" t="s">
+        <v>221</v>
+      </c>
+      <c r="E40" t="s">
+        <v>222</v>
+      </c>
+      <c r="G40" t="s">
+        <v>485</v>
+      </c>
+      <c r="H40" t="s">
+        <v>560</v>
+      </c>
+      <c r="O40">
+        <v>1</v>
+      </c>
+      <c r="T40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>154</v>
+      </c>
+      <c r="B41" t="s">
+        <v>223</v>
+      </c>
+      <c r="C41" t="s">
+        <v>168</v>
+      </c>
+      <c r="D41" t="s">
+        <v>224</v>
+      </c>
+      <c r="E41" t="s">
+        <v>225</v>
+      </c>
+      <c r="F41" t="s">
+        <v>226</v>
+      </c>
+      <c r="G41" t="s">
+        <v>486</v>
+      </c>
+      <c r="H41" t="s">
+        <v>561</v>
+      </c>
+      <c r="L41">
+        <v>1</v>
+      </c>
+      <c r="T41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>154</v>
+      </c>
+      <c r="B42" t="s">
+        <v>227</v>
+      </c>
+      <c r="C42" t="s">
+        <v>168</v>
+      </c>
+      <c r="D42" t="s">
+        <v>228</v>
+      </c>
+      <c r="E42" t="s">
+        <v>229</v>
+      </c>
+      <c r="F42" t="s">
+        <v>230</v>
+      </c>
+      <c r="G42" t="s">
+        <v>487</v>
+      </c>
+      <c r="H42" t="s">
+        <v>562</v>
+      </c>
+      <c r="L42">
+        <v>1</v>
+      </c>
+      <c r="O42">
+        <v>1</v>
+      </c>
+      <c r="R42">
+        <v>1</v>
+      </c>
+      <c r="T42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>154</v>
+      </c>
+      <c r="B43" t="s">
+        <v>231</v>
+      </c>
+      <c r="C43" t="s">
+        <v>185</v>
+      </c>
+      <c r="D43" t="s">
+        <v>232</v>
+      </c>
+      <c r="E43" t="s">
+        <v>233</v>
+      </c>
+      <c r="F43" t="s">
+        <v>234</v>
+      </c>
+      <c r="G43" t="s">
+        <v>488</v>
+      </c>
+      <c r="H43" t="s">
+        <v>563</v>
+      </c>
+      <c r="L43">
+        <v>1</v>
+      </c>
+      <c r="N43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>154</v>
+      </c>
+      <c r="B44" t="s">
+        <v>235</v>
+      </c>
+      <c r="C44" t="s">
+        <v>168</v>
+      </c>
+      <c r="D44" t="s">
+        <v>236</v>
+      </c>
+      <c r="E44" t="s">
+        <v>237</v>
+      </c>
+      <c r="G44" t="s">
+        <v>489</v>
+      </c>
+      <c r="H44" t="s">
+        <v>564</v>
+      </c>
+      <c r="R44">
+        <v>1</v>
+      </c>
+      <c r="T44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>154</v>
+      </c>
+      <c r="B45" t="s">
+        <v>238</v>
+      </c>
+      <c r="C45" t="s">
+        <v>185</v>
+      </c>
+      <c r="D45" t="s">
+        <v>239</v>
+      </c>
+      <c r="E45" t="s">
+        <v>240</v>
+      </c>
+      <c r="F45" t="s">
+        <v>241</v>
+      </c>
+      <c r="G45" t="s">
+        <v>490</v>
+      </c>
+      <c r="H45" t="s">
+        <v>565</v>
+      </c>
+      <c r="N45">
+        <v>1</v>
+      </c>
+      <c r="O45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>154</v>
+      </c>
+      <c r="B46" t="s">
+        <v>242</v>
+      </c>
+      <c r="C46" t="s">
+        <v>243</v>
+      </c>
+      <c r="D46" t="s">
+        <v>244</v>
+      </c>
+      <c r="E46" t="s">
+        <v>245</v>
+      </c>
+      <c r="G46" t="s">
+        <v>491</v>
+      </c>
+      <c r="H46" t="s">
+        <v>566</v>
+      </c>
+      <c r="M46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>154</v>
+      </c>
+      <c r="B47" t="s">
+        <v>246</v>
+      </c>
+      <c r="C47" t="s">
+        <v>185</v>
+      </c>
+      <c r="D47" t="s">
+        <v>247</v>
+      </c>
+      <c r="E47" t="s">
+        <v>248</v>
+      </c>
+      <c r="F47" t="s">
+        <v>249</v>
+      </c>
+      <c r="G47" t="s">
+        <v>492</v>
+      </c>
+      <c r="H47" t="s">
+        <v>567</v>
+      </c>
+      <c r="R47">
+        <v>1</v>
+      </c>
+      <c r="T47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>154</v>
+      </c>
+      <c r="B48" t="s">
+        <v>250</v>
+      </c>
+      <c r="C48" t="s">
+        <v>251</v>
+      </c>
+      <c r="D48" t="s">
+        <v>252</v>
+      </c>
+      <c r="E48" t="s">
+        <v>253</v>
+      </c>
+      <c r="F48" t="s">
+        <v>254</v>
+      </c>
+      <c r="G48" t="s">
+        <v>493</v>
+      </c>
+      <c r="H48" t="s">
+        <v>568</v>
+      </c>
+      <c r="O48">
+        <v>1</v>
+      </c>
+      <c r="R48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>154</v>
+      </c>
+      <c r="B49" t="s">
+        <v>255</v>
+      </c>
+      <c r="C49" t="s">
+        <v>168</v>
+      </c>
+      <c r="D49" t="s">
+        <v>260</v>
+      </c>
+      <c r="E49" t="s">
+        <v>256</v>
+      </c>
+      <c r="F49" t="s">
+        <v>257</v>
+      </c>
+      <c r="G49" t="s">
+        <v>494</v>
+      </c>
+      <c r="H49" t="s">
+        <v>569</v>
+      </c>
+      <c r="Q49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>154</v>
+      </c>
+      <c r="B50" t="s">
+        <v>262</v>
+      </c>
+      <c r="C50" t="s">
+        <v>168</v>
+      </c>
+      <c r="D50" t="s">
+        <v>263</v>
+      </c>
+      <c r="E50" t="s">
+        <v>264</v>
+      </c>
+      <c r="F50" t="s">
+        <v>265</v>
+      </c>
+      <c r="G50" t="s">
+        <v>495</v>
+      </c>
+      <c r="H50" t="s">
+        <v>570</v>
+      </c>
+      <c r="L50">
+        <v>1</v>
+      </c>
+      <c r="R50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>154</v>
+      </c>
+      <c r="B51" t="s">
+        <v>266</v>
+      </c>
+      <c r="C51" t="s">
+        <v>209</v>
+      </c>
+      <c r="D51" t="s">
+        <v>267</v>
+      </c>
+      <c r="E51" t="s">
+        <v>268</v>
+      </c>
+      <c r="G51" t="s">
+        <v>496</v>
+      </c>
+      <c r="H51" t="s">
+        <v>571</v>
+      </c>
+      <c r="Q51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>154</v>
+      </c>
+      <c r="B52" t="s">
+        <v>269</v>
+      </c>
+      <c r="C52" t="s">
+        <v>185</v>
+      </c>
+      <c r="D52" t="s">
+        <v>270</v>
+      </c>
+      <c r="E52" t="s">
+        <v>271</v>
+      </c>
+      <c r="F52" t="s">
+        <v>272</v>
+      </c>
+      <c r="G52" t="s">
+        <v>497</v>
+      </c>
+      <c r="H52" t="s">
+        <v>572</v>
+      </c>
+      <c r="L52">
+        <v>1</v>
+      </c>
+      <c r="Q52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>154</v>
+      </c>
+      <c r="B53" t="s">
+        <v>273</v>
+      </c>
+      <c r="C53" t="s">
+        <v>357</v>
+      </c>
+      <c r="D53" t="s">
+        <v>275</v>
+      </c>
+      <c r="E53" t="s">
+        <v>359</v>
+      </c>
+      <c r="F53" t="s">
+        <v>274</v>
+      </c>
+      <c r="G53" t="s">
+        <v>498</v>
+      </c>
+      <c r="H53" t="s">
+        <v>573</v>
+      </c>
+      <c r="M53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>154</v>
+      </c>
+      <c r="B54" t="s">
+        <v>276</v>
+      </c>
+      <c r="C54" t="s">
+        <v>191</v>
+      </c>
+      <c r="D54" t="s">
+        <v>277</v>
+      </c>
+      <c r="E54" t="s">
+        <v>278</v>
+      </c>
+      <c r="F54" t="s">
+        <v>279</v>
+      </c>
+      <c r="G54" t="s">
+        <v>499</v>
+      </c>
+      <c r="H54" t="s">
+        <v>574</v>
+      </c>
+      <c r="M54">
+        <v>1</v>
+      </c>
+      <c r="N54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>154</v>
+      </c>
+      <c r="B55" t="s">
+        <v>280</v>
+      </c>
+      <c r="C55" t="s">
+        <v>168</v>
+      </c>
+      <c r="D55" t="s">
+        <v>281</v>
+      </c>
+      <c r="E55" t="s">
+        <v>282</v>
+      </c>
+      <c r="F55" t="s">
+        <v>283</v>
+      </c>
+      <c r="G55" t="s">
+        <v>500</v>
+      </c>
+      <c r="H55" t="s">
+        <v>575</v>
+      </c>
+      <c r="M55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>154</v>
+      </c>
+      <c r="B56" t="s">
+        <v>284</v>
+      </c>
+      <c r="C56" t="s">
+        <v>168</v>
+      </c>
+      <c r="D56" t="s">
+        <v>285</v>
+      </c>
+      <c r="E56" t="s">
+        <v>287</v>
+      </c>
+      <c r="F56" t="s">
+        <v>286</v>
+      </c>
+      <c r="G56" t="s">
+        <v>501</v>
+      </c>
+      <c r="H56" t="s">
+        <v>576</v>
+      </c>
+      <c r="M56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>154</v>
+      </c>
+      <c r="B57" t="s">
+        <v>288</v>
+      </c>
+      <c r="C57" t="s">
+        <v>289</v>
+      </c>
+      <c r="D57" t="s">
+        <v>291</v>
+      </c>
+      <c r="E57" t="s">
+        <v>292</v>
+      </c>
+      <c r="F57" t="s">
+        <v>293</v>
+      </c>
+      <c r="G57" t="s">
+        <v>502</v>
+      </c>
+      <c r="H57" t="s">
+        <v>577</v>
+      </c>
+      <c r="M57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>154</v>
+      </c>
+      <c r="B58" t="s">
+        <v>294</v>
+      </c>
+      <c r="D58" t="s">
+        <v>295</v>
+      </c>
+      <c r="E58" t="s">
+        <v>296</v>
+      </c>
+      <c r="G58" t="s">
+        <v>503</v>
+      </c>
+      <c r="H58" t="s">
+        <v>578</v>
+      </c>
+      <c r="M58">
+        <v>1</v>
+      </c>
+      <c r="R58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>154</v>
+      </c>
+      <c r="B59" t="s">
+        <v>297</v>
+      </c>
+      <c r="C59" t="s">
+        <v>298</v>
+      </c>
+      <c r="D59" t="s">
+        <v>299</v>
+      </c>
+      <c r="E59" t="s">
+        <v>300</v>
+      </c>
+      <c r="F59" t="s">
+        <v>301</v>
+      </c>
+      <c r="G59" t="s">
+        <v>504</v>
+      </c>
+      <c r="H59" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>154</v>
+      </c>
+      <c r="B60" t="s">
+        <v>302</v>
+      </c>
+      <c r="C60" t="s">
+        <v>168</v>
+      </c>
+      <c r="D60" t="s">
+        <v>303</v>
+      </c>
+      <c r="E60" t="s">
+        <v>304</v>
+      </c>
+      <c r="F60" t="s">
+        <v>305</v>
+      </c>
+      <c r="G60" t="s">
+        <v>505</v>
+      </c>
+      <c r="H60" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>154</v>
+      </c>
+      <c r="B61" t="s">
+        <v>306</v>
+      </c>
+      <c r="D61" t="s">
+        <v>307</v>
+      </c>
+      <c r="E61" t="s">
+        <v>308</v>
+      </c>
+      <c r="G61" t="s">
+        <v>506</v>
+      </c>
+      <c r="H61" t="s">
+        <v>581</v>
+      </c>
+      <c r="J61">
+        <v>1</v>
+      </c>
+      <c r="M61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>154</v>
+      </c>
+      <c r="B62" t="s">
+        <v>309</v>
+      </c>
+      <c r="D62" t="s">
+        <v>310</v>
+      </c>
+      <c r="E62" t="s">
+        <v>311</v>
+      </c>
+      <c r="G62" t="s">
+        <v>507</v>
+      </c>
+      <c r="H62" t="s">
+        <v>582</v>
+      </c>
+      <c r="M62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>154</v>
+      </c>
+      <c r="B63" t="s">
+        <v>312</v>
+      </c>
+      <c r="C63" t="s">
+        <v>185</v>
+      </c>
+      <c r="D63" t="s">
+        <v>471</v>
+      </c>
+      <c r="E63" t="s">
+        <v>313</v>
+      </c>
+      <c r="F63" t="s">
+        <v>314</v>
+      </c>
+      <c r="G63" t="s">
+        <v>508</v>
+      </c>
+      <c r="H63" t="s">
+        <v>583</v>
+      </c>
+      <c r="M63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>154</v>
+      </c>
+      <c r="B64" t="s">
+        <v>315</v>
+      </c>
+      <c r="C64" t="s">
+        <v>185</v>
+      </c>
+      <c r="D64" t="s">
+        <v>316</v>
+      </c>
+      <c r="E64" t="s">
+        <v>317</v>
+      </c>
+      <c r="F64" t="s">
+        <v>318</v>
+      </c>
+      <c r="G64" t="s">
+        <v>509</v>
+      </c>
+      <c r="H64" t="s">
+        <v>584</v>
+      </c>
+      <c r="M64">
+        <v>1</v>
+      </c>
+      <c r="N64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>154</v>
+      </c>
+      <c r="B65" t="s">
+        <v>319</v>
+      </c>
+      <c r="C65" t="s">
+        <v>168</v>
+      </c>
+      <c r="D65" t="s">
+        <v>320</v>
+      </c>
+      <c r="E65" t="s">
+        <v>321</v>
+      </c>
+      <c r="F65" t="s">
+        <v>322</v>
+      </c>
+      <c r="G65" t="s">
+        <v>510</v>
+      </c>
+      <c r="H65" t="s">
+        <v>585</v>
+      </c>
+      <c r="M65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>154</v>
+      </c>
+      <c r="B66" t="s">
+        <v>323</v>
+      </c>
+      <c r="C66" t="s">
+        <v>205</v>
+      </c>
+      <c r="D66" t="s">
+        <v>324</v>
+      </c>
+      <c r="E66" t="s">
+        <v>325</v>
+      </c>
+      <c r="F66" t="s">
+        <v>326</v>
+      </c>
+      <c r="G66" t="s">
+        <v>511</v>
+      </c>
+      <c r="H66" t="s">
+        <v>586</v>
+      </c>
+      <c r="M66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>154</v>
+      </c>
+      <c r="B67" t="s">
+        <v>327</v>
+      </c>
+      <c r="C67" t="s">
+        <v>185</v>
+      </c>
+      <c r="D67" t="s">
+        <v>472</v>
+      </c>
+      <c r="E67" t="s">
+        <v>328</v>
+      </c>
+      <c r="F67" t="s">
+        <v>329</v>
+      </c>
+      <c r="G67" t="s">
+        <v>512</v>
+      </c>
+      <c r="H67" t="s">
+        <v>587</v>
+      </c>
+      <c r="M67">
+        <v>1</v>
+      </c>
+      <c r="S67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>154</v>
+      </c>
+      <c r="B68" t="s">
+        <v>330</v>
+      </c>
+      <c r="C68" t="s">
+        <v>185</v>
+      </c>
+      <c r="D68" t="s">
+        <v>331</v>
+      </c>
+      <c r="E68" t="s">
+        <v>332</v>
+      </c>
+      <c r="F68" t="s">
+        <v>333</v>
+      </c>
+      <c r="G68" t="s">
+        <v>513</v>
+      </c>
+      <c r="H68" t="s">
+        <v>588</v>
+      </c>
+      <c r="N68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>154</v>
+      </c>
+      <c r="B69" t="s">
+        <v>334</v>
+      </c>
+      <c r="C69" t="s">
+        <v>360</v>
+      </c>
+      <c r="D69" t="s">
+        <v>335</v>
+      </c>
+      <c r="E69" t="s">
+        <v>336</v>
+      </c>
+      <c r="F69" t="s">
+        <v>337</v>
+      </c>
+      <c r="G69" t="s">
+        <v>514</v>
+      </c>
+      <c r="H69" t="s">
+        <v>589</v>
+      </c>
+      <c r="L69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>154</v>
+      </c>
+      <c r="B70" t="s">
+        <v>338</v>
+      </c>
+      <c r="C70" t="s">
+        <v>191</v>
+      </c>
+      <c r="D70" t="s">
+        <v>339</v>
+      </c>
+      <c r="E70" t="s">
+        <v>341</v>
+      </c>
+      <c r="F70" t="s">
+        <v>340</v>
+      </c>
+      <c r="G70" t="s">
+        <v>515</v>
+      </c>
+      <c r="H70" t="s">
+        <v>590</v>
+      </c>
+      <c r="M70">
+        <v>1</v>
+      </c>
+      <c r="P70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>154</v>
+      </c>
+      <c r="B71" t="s">
+        <v>342</v>
+      </c>
+      <c r="C71" t="s">
+        <v>343</v>
+      </c>
+      <c r="D71" t="s">
+        <v>344</v>
+      </c>
+      <c r="E71" t="s">
+        <v>345</v>
+      </c>
+      <c r="F71" t="s">
+        <v>346</v>
+      </c>
+      <c r="G71" t="s">
+        <v>516</v>
+      </c>
+      <c r="H71" t="s">
+        <v>591</v>
+      </c>
+      <c r="M71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>154</v>
+      </c>
+      <c r="B72" t="s">
+        <v>347</v>
+      </c>
+      <c r="C72" t="s">
+        <v>209</v>
+      </c>
+      <c r="D72" t="s">
+        <v>348</v>
+      </c>
+      <c r="E72" t="s">
+        <v>349</v>
+      </c>
+      <c r="F72" t="s">
+        <v>350</v>
+      </c>
+      <c r="G72" t="s">
+        <v>517</v>
+      </c>
+      <c r="H72" t="s">
+        <v>592</v>
+      </c>
+      <c r="I72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>154</v>
+      </c>
+      <c r="B73" t="s">
+        <v>351</v>
+      </c>
+      <c r="C73" t="s">
+        <v>352</v>
+      </c>
+      <c r="D73" t="s">
+        <v>353</v>
+      </c>
+      <c r="E73" t="s">
+        <v>354</v>
+      </c>
+      <c r="F73" t="s">
+        <v>355</v>
+      </c>
+      <c r="G73" t="s">
+        <v>518</v>
+      </c>
+      <c r="H73" t="s">
+        <v>593</v>
+      </c>
+      <c r="O73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>154</v>
+      </c>
+      <c r="B74" t="s">
+        <v>356</v>
+      </c>
+      <c r="C74" t="s">
+        <v>360</v>
+      </c>
+      <c r="D74" t="s">
+        <v>361</v>
+      </c>
+      <c r="E74" t="s">
+        <v>362</v>
+      </c>
+      <c r="F74" t="s">
+        <v>363</v>
+      </c>
+      <c r="G74" t="s">
+        <v>519</v>
+      </c>
+      <c r="H74" t="s">
+        <v>594</v>
+      </c>
+      <c r="O74">
+        <v>1</v>
+      </c>
+      <c r="R74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>154</v>
+      </c>
+      <c r="B75" t="s">
+        <v>365</v>
+      </c>
+      <c r="D75" t="s">
+        <v>473</v>
+      </c>
+      <c r="E75" t="s">
+        <v>364</v>
+      </c>
+      <c r="F75" t="s">
+        <v>366</v>
+      </c>
+      <c r="G75" t="s">
+        <v>520</v>
+      </c>
+      <c r="H75" t="s">
+        <v>595</v>
+      </c>
+      <c r="O75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>154</v>
+      </c>
+      <c r="B76" t="s">
+        <v>367</v>
+      </c>
+      <c r="C76" t="s">
+        <v>185</v>
+      </c>
+      <c r="D76" t="s">
+        <v>368</v>
+      </c>
+      <c r="E76" t="s">
+        <v>369</v>
+      </c>
+      <c r="G76" t="s">
+        <v>521</v>
+      </c>
+      <c r="H76" t="s">
+        <v>596</v>
+      </c>
+      <c r="K76">
+        <v>1</v>
+      </c>
+      <c r="O76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>154</v>
+      </c>
+      <c r="B77" t="s">
+        <v>370</v>
+      </c>
+      <c r="C77" t="s">
+        <v>205</v>
+      </c>
+      <c r="D77" t="s">
+        <v>371</v>
+      </c>
+      <c r="E77" t="s">
+        <v>372</v>
+      </c>
+      <c r="F77" t="s">
+        <v>373</v>
+      </c>
+      <c r="G77" t="s">
+        <v>522</v>
+      </c>
+      <c r="H77" t="s">
+        <v>597</v>
+      </c>
+      <c r="O77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>154</v>
+      </c>
+      <c r="B78" t="s">
+        <v>374</v>
+      </c>
+      <c r="C78" t="s">
+        <v>191</v>
+      </c>
+      <c r="D78" t="s">
+        <v>375</v>
+      </c>
+      <c r="E78" t="s">
+        <v>376</v>
+      </c>
+      <c r="G78" t="s">
+        <v>523</v>
+      </c>
+      <c r="H78" t="s">
+        <v>598</v>
+      </c>
+      <c r="M78">
+        <v>1</v>
+      </c>
+      <c r="O78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>154</v>
+      </c>
+      <c r="B79" t="s">
+        <v>377</v>
+      </c>
+      <c r="C79" t="s">
+        <v>191</v>
+      </c>
+      <c r="D79" t="s">
+        <v>378</v>
+      </c>
+      <c r="E79" t="s">
+        <v>379</v>
+      </c>
+      <c r="F79" t="s">
+        <v>380</v>
+      </c>
+      <c r="G79" t="s">
+        <v>524</v>
+      </c>
+      <c r="H79" t="s">
+        <v>599</v>
+      </c>
+      <c r="O79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>154</v>
+      </c>
+      <c r="B80" t="s">
+        <v>381</v>
+      </c>
+      <c r="C80" t="s">
+        <v>185</v>
+      </c>
+      <c r="D80" t="s">
+        <v>382</v>
+      </c>
+      <c r="E80" t="s">
+        <v>383</v>
+      </c>
+      <c r="F80" t="s">
+        <v>384</v>
+      </c>
+      <c r="G80" t="s">
+        <v>525</v>
+      </c>
+      <c r="H80" t="s">
+        <v>600</v>
+      </c>
+      <c r="O80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>154</v>
+      </c>
+      <c r="B81" t="s">
+        <v>385</v>
+      </c>
+      <c r="C81" t="s">
+        <v>185</v>
+      </c>
+      <c r="D81" t="s">
+        <v>386</v>
+      </c>
+      <c r="E81" t="s">
+        <v>387</v>
+      </c>
+      <c r="F81" t="s">
+        <v>388</v>
+      </c>
+      <c r="G81" t="s">
+        <v>526</v>
+      </c>
+      <c r="H81" t="s">
+        <v>601</v>
+      </c>
+      <c r="M81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>154</v>
+      </c>
+      <c r="B82" t="s">
+        <v>389</v>
+      </c>
+      <c r="C82" t="s">
+        <v>168</v>
+      </c>
+      <c r="D82" t="s">
+        <v>390</v>
+      </c>
+      <c r="E82" t="s">
+        <v>391</v>
+      </c>
+      <c r="G82" t="s">
+        <v>527</v>
+      </c>
+      <c r="H82" t="s">
+        <v>602</v>
+      </c>
+      <c r="I82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>154</v>
+      </c>
+      <c r="B83" t="s">
+        <v>392</v>
+      </c>
+      <c r="C83" t="s">
+        <v>289</v>
+      </c>
+      <c r="D83" t="s">
+        <v>393</v>
+      </c>
+      <c r="E83" t="s">
+        <v>394</v>
+      </c>
+      <c r="F83" t="s">
+        <v>395</v>
+      </c>
+      <c r="G83" t="s">
+        <v>528</v>
+      </c>
+      <c r="H83" t="s">
+        <v>603</v>
+      </c>
+      <c r="I83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>154</v>
+      </c>
+      <c r="B84" t="s">
+        <v>397</v>
+      </c>
+      <c r="C84" t="s">
+        <v>398</v>
+      </c>
+      <c r="D84" t="s">
+        <v>399</v>
+      </c>
+      <c r="E84" t="s">
+        <v>396</v>
+      </c>
+      <c r="G84" t="s">
+        <v>529</v>
+      </c>
+      <c r="H84" t="s">
+        <v>604</v>
+      </c>
+      <c r="I84">
+        <v>1</v>
+      </c>
+      <c r="J84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>154</v>
+      </c>
+      <c r="B85" t="s">
+        <v>400</v>
+      </c>
+      <c r="D85" t="s">
+        <v>401</v>
+      </c>
+      <c r="E85" t="s">
+        <v>403</v>
+      </c>
+      <c r="F85" t="s">
+        <v>402</v>
+      </c>
+      <c r="G85" t="s">
+        <v>530</v>
+      </c>
+      <c r="H85" t="s">
+        <v>605</v>
+      </c>
+      <c r="M85">
+        <v>1</v>
+      </c>
+      <c r="T85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>154</v>
+      </c>
+      <c r="B86" t="s">
+        <v>404</v>
+      </c>
+      <c r="C86" t="s">
+        <v>289</v>
+      </c>
+      <c r="D86" t="s">
+        <v>405</v>
+      </c>
+      <c r="E86" t="s">
+        <v>406</v>
+      </c>
+      <c r="F86" t="s">
+        <v>407</v>
+      </c>
+      <c r="G86" t="s">
+        <v>531</v>
+      </c>
+      <c r="H86" t="s">
+        <v>606</v>
+      </c>
+      <c r="M86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>154</v>
+      </c>
+      <c r="B87" t="s">
+        <v>408</v>
+      </c>
+      <c r="D87" t="s">
+        <v>409</v>
+      </c>
+      <c r="E87" t="s">
+        <v>410</v>
+      </c>
+      <c r="F87" t="s">
+        <v>410</v>
+      </c>
+      <c r="G87" t="s">
+        <v>532</v>
+      </c>
+      <c r="H87" t="s">
+        <v>607</v>
+      </c>
+      <c r="J87">
+        <v>1</v>
+      </c>
+      <c r="L87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>154</v>
+      </c>
+      <c r="B88" t="s">
+        <v>411</v>
+      </c>
+      <c r="C88" t="s">
+        <v>289</v>
+      </c>
+      <c r="D88" t="s">
+        <v>412</v>
+      </c>
+      <c r="E88" t="s">
+        <v>413</v>
+      </c>
+      <c r="G88" t="s">
+        <v>533</v>
+      </c>
+      <c r="H88" t="s">
+        <v>608</v>
+      </c>
+      <c r="L88">
+        <v>1</v>
+      </c>
+      <c r="R88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>154</v>
+      </c>
+      <c r="B89" t="s">
+        <v>414</v>
+      </c>
+      <c r="C89" t="s">
+        <v>289</v>
+      </c>
+      <c r="D89" t="s">
+        <v>415</v>
+      </c>
+      <c r="E89" t="s">
+        <v>416</v>
+      </c>
+      <c r="F89" t="s">
+        <v>417</v>
+      </c>
+      <c r="G89" t="s">
+        <v>534</v>
+      </c>
+      <c r="H89" t="s">
+        <v>609</v>
+      </c>
+      <c r="L89">
+        <v>1</v>
+      </c>
+      <c r="O89">
+        <v>1</v>
+      </c>
+      <c r="T89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>154</v>
+      </c>
+      <c r="B90" t="s">
+        <v>418</v>
+      </c>
+      <c r="C90" t="s">
+        <v>343</v>
+      </c>
+      <c r="D90" t="s">
+        <v>419</v>
+      </c>
+      <c r="E90" t="s">
+        <v>624</v>
+      </c>
+      <c r="G90" t="s">
+        <v>535</v>
+      </c>
+      <c r="H90" t="s">
+        <v>610</v>
+      </c>
+      <c r="J90">
+        <v>1</v>
+      </c>
+      <c r="P90">
+        <v>1</v>
+      </c>
+      <c r="S90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>154</v>
+      </c>
+      <c r="B91" t="s">
+        <v>420</v>
+      </c>
+      <c r="C91" t="s">
+        <v>185</v>
+      </c>
+      <c r="D91" t="s">
+        <v>421</v>
+      </c>
+      <c r="E91" t="s">
+        <v>422</v>
+      </c>
+      <c r="F91" t="s">
+        <v>423</v>
+      </c>
+      <c r="G91" t="s">
+        <v>536</v>
+      </c>
+      <c r="H91" t="s">
+        <v>611</v>
+      </c>
+      <c r="J91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>154</v>
+      </c>
+      <c r="B92" t="s">
+        <v>427</v>
+      </c>
+      <c r="C92" t="s">
+        <v>191</v>
+      </c>
+      <c r="D92" t="s">
+        <v>426</v>
+      </c>
+      <c r="E92" t="s">
+        <v>424</v>
+      </c>
+      <c r="F92" t="s">
+        <v>425</v>
+      </c>
+      <c r="G92" t="s">
+        <v>537</v>
+      </c>
+      <c r="H92" t="s">
+        <v>612</v>
+      </c>
+      <c r="S92">
+        <v>1</v>
+      </c>
+      <c r="T92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>154</v>
+      </c>
+      <c r="B93" t="s">
+        <v>428</v>
+      </c>
+      <c r="C93" t="s">
+        <v>185</v>
+      </c>
+      <c r="D93" t="s">
+        <v>429</v>
+      </c>
+      <c r="E93" t="s">
+        <v>430</v>
+      </c>
+      <c r="F93" t="s">
+        <v>431</v>
+      </c>
+      <c r="G93" t="s">
+        <v>538</v>
+      </c>
+      <c r="H93" t="s">
+        <v>613</v>
+      </c>
+      <c r="J93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>154</v>
+      </c>
+      <c r="B94" t="s">
+        <v>432</v>
+      </c>
+      <c r="C94" t="s">
+        <v>196</v>
+      </c>
+      <c r="D94" t="s">
+        <v>433</v>
+      </c>
+      <c r="E94" t="s">
+        <v>434</v>
+      </c>
+      <c r="F94" t="s">
+        <v>435</v>
+      </c>
+      <c r="G94" t="s">
+        <v>539</v>
+      </c>
+      <c r="H94" t="s">
+        <v>614</v>
+      </c>
+      <c r="J94">
+        <v>1</v>
+      </c>
+      <c r="Q94">
+        <v>1</v>
+      </c>
+      <c r="R94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>154</v>
+      </c>
+      <c r="B95" t="s">
+        <v>436</v>
+      </c>
+      <c r="C95" t="s">
+        <v>437</v>
+      </c>
+      <c r="D95" t="s">
+        <v>438</v>
+      </c>
+      <c r="E95" t="s">
+        <v>439</v>
+      </c>
+      <c r="G95" t="s">
+        <v>540</v>
+      </c>
+      <c r="H95" t="s">
+        <v>615</v>
+      </c>
+      <c r="I95">
+        <v>1</v>
+      </c>
+      <c r="M95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>154</v>
+      </c>
+      <c r="B96" t="s">
+        <v>440</v>
+      </c>
+      <c r="C96" t="s">
+        <v>441</v>
+      </c>
+      <c r="D96" t="s">
+        <v>442</v>
+      </c>
+      <c r="E96" t="s">
+        <v>443</v>
+      </c>
+      <c r="F96" t="s">
+        <v>444</v>
+      </c>
+      <c r="G96" t="s">
+        <v>541</v>
+      </c>
+      <c r="H96" t="s">
+        <v>616</v>
+      </c>
+      <c r="P96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>154</v>
+      </c>
+      <c r="B97" t="s">
+        <v>445</v>
+      </c>
+      <c r="C97" t="s">
+        <v>191</v>
+      </c>
+      <c r="D97" t="s">
+        <v>446</v>
+      </c>
+      <c r="E97" t="s">
+        <v>447</v>
+      </c>
+      <c r="F97" t="s">
+        <v>448</v>
+      </c>
+      <c r="G97" t="s">
+        <v>542</v>
+      </c>
+      <c r="H97" t="s">
+        <v>617</v>
+      </c>
+      <c r="K97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>154</v>
+      </c>
+      <c r="B98" t="s">
+        <v>450</v>
+      </c>
+      <c r="C98" t="s">
+        <v>191</v>
+      </c>
+      <c r="D98" t="s">
+        <v>451</v>
+      </c>
+      <c r="E98" t="s">
+        <v>449</v>
+      </c>
+      <c r="F98" t="s">
+        <v>452</v>
+      </c>
+      <c r="G98" t="s">
+        <v>543</v>
+      </c>
+      <c r="H98" t="s">
+        <v>618</v>
+      </c>
+      <c r="N98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>154</v>
+      </c>
+      <c r="B99" t="s">
+        <v>453</v>
+      </c>
+      <c r="C99" t="s">
+        <v>360</v>
+      </c>
+      <c r="D99" t="s">
+        <v>454</v>
+      </c>
+      <c r="E99" t="s">
+        <v>455</v>
+      </c>
+      <c r="F99" t="s">
+        <v>456</v>
+      </c>
+      <c r="G99" t="s">
+        <v>544</v>
+      </c>
+      <c r="H99" t="s">
+        <v>619</v>
+      </c>
+      <c r="N99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>154</v>
+      </c>
+      <c r="B100" t="s">
+        <v>457</v>
+      </c>
+      <c r="C100" t="s">
+        <v>360</v>
+      </c>
+      <c r="D100" t="s">
+        <v>458</v>
+      </c>
+      <c r="E100" t="s">
+        <v>459</v>
+      </c>
+      <c r="G100" t="s">
+        <v>545</v>
+      </c>
+      <c r="H100" t="s">
+        <v>620</v>
+      </c>
+      <c r="N100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>154</v>
+      </c>
+      <c r="B101" t="s">
+        <v>460</v>
+      </c>
+      <c r="C101" t="s">
+        <v>191</v>
+      </c>
+      <c r="D101" t="s">
+        <v>461</v>
+      </c>
+      <c r="E101" t="s">
+        <v>462</v>
+      </c>
+      <c r="F101" t="s">
+        <v>463</v>
+      </c>
+      <c r="G101" t="s">
+        <v>546</v>
+      </c>
+      <c r="H101" t="s">
+        <v>621</v>
+      </c>
+      <c r="I101">
+        <v>1</v>
+      </c>
+      <c r="M101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>154</v>
+      </c>
+      <c r="B102" t="s">
+        <v>464</v>
+      </c>
+      <c r="C102" t="s">
+        <v>465</v>
+      </c>
+      <c r="D102" t="s">
+        <v>466</v>
+      </c>
+      <c r="E102" t="s">
+        <v>467</v>
+      </c>
+      <c r="G102" t="s">
+        <v>547</v>
+      </c>
+      <c r="H102" t="s">
+        <v>622</v>
+      </c>
+      <c r="L102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>154</v>
+      </c>
+      <c r="B103" t="s">
+        <v>468</v>
+      </c>
+      <c r="D103" t="s">
+        <v>469</v>
+      </c>
+      <c r="E103" t="s">
+        <v>470</v>
+      </c>
+      <c r="G103" t="s">
+        <v>548</v>
+      </c>
+      <c r="H103" t="s">
+        <v>623</v>
+      </c>
+      <c r="L103">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B26" r:id="rId1" display="https://www.matthewtancik.com/nerf" xr:uid="{35967FB2-814A-154F-8541-7714319F096C}"/>
+    <hyperlink ref="B27" r:id="rId2" display="https://lingjie0206.github.io/papers/NSVF/" xr:uid="{F2DD4E80-7653-6B46-BE0A-8E826172F88C}"/>
+    <hyperlink ref="B28" r:id="rId3" display="http://www.computationalimaging.org/publications/automatic-integration/" xr:uid="{A28EC183-687F-8A46-9CA4-4A7708A6C750}"/>
+    <hyperlink ref="B29" r:id="rId4" display="https://arxiv.org/abs/2011.12490" xr:uid="{C5B06987-5C0D-E443-82C4-02F6431045D1}"/>
+    <hyperlink ref="B30" r:id="rId5" display="https://depthoraclenerf.github.io/" xr:uid="{3CEB0E14-63E6-574A-9FC6-2051AD0460B0}"/>
+    <hyperlink ref="B31" r:id="rId6" display="https://arxiv.org/abs/2103.10380" xr:uid="{EA18432D-CDAD-5D46-AB83-9539228413CB}"/>
+    <hyperlink ref="B32" r:id="rId7" display="https://arxiv.org/abs/2103.13744" xr:uid="{429A6E53-E8CB-BC4C-9538-A2470024449F}"/>
+    <hyperlink ref="B33" r:id="rId8" display="https://alexyu.net/plenoctrees/" xr:uid="{7DC25326-9D8E-8D47-A044-DD17F9ED0CD0}"/>
+    <hyperlink ref="B34" r:id="rId9" display="https://arxiv.org/abs/2103.01954" xr:uid="{A2FF4FE9-43D0-5F44-93A7-55BE57938D31}"/>
+    <hyperlink ref="B35" r:id="rId10" display="https://vsitzmann.github.io/lfns/" xr:uid="{F6597C48-9252-3349-B84C-D97A31F62416}"/>
+    <hyperlink ref="B36" r:id="rId11" display="https://arxiv.org/pdf/2107.02791.pdf" xr:uid="{4E32310C-E8E8-1445-9B6E-B1A0C6585A89}"/>
+    <hyperlink ref="B38" r:id="rId12" display="https://nerf-w.github.io/" xr:uid="{1C3AF7E4-0ED6-6341-ACDB-04910971A9DA}"/>
+    <hyperlink ref="B43" r:id="rId13" display="https://gvv.mpi-inf.mpg.de/projects/nonrigid_nerf/" xr:uid="{2DDCA2B8-C06B-604A-A893-ED7E083125F7}"/>
+    <hyperlink ref="B44" r:id="rId14" display="https://volumetric-avatars.github.io/" xr:uid="{B38221A4-28D3-EC48-BD13-F22F93351407}"/>
+    <hyperlink ref="B46" r:id="rId15" display="https://arxiv.org/abs/2202.00181" xr:uid="{A924BD42-5B3F-3740-81C0-0C81F8B5122D}"/>
+    <hyperlink ref="B47" r:id="rId16" display="https://zju3dv.github.io/animatable_nerf/" xr:uid="{79B54E94-A634-C04E-BBD6-E0740CB05D22}"/>
+    <hyperlink ref="B48" r:id="rId17" display="https://vcai.mpi-inf.mpg.de/projects/NeuralActor/" xr:uid="{8B2119CC-BEBB-1141-9295-5A03BB8F0926}"/>
+    <hyperlink ref="B50" r:id="rId18" display="https://zju3dv.github.io/neuralbody/" xr:uid="{B4F98C3C-2C12-3647-8B14-C77A228D92A6}"/>
+    <hyperlink ref="D51" r:id="rId19" display="https://neural-3d-video.github.io/" xr:uid="{F5C4215C-421A-2E4F-9166-06F8B5156E7B}"/>
+    <hyperlink ref="B55" r:id="rId20" display="https://arxiv.org/abs/2012.02190" xr:uid="{53D1B557-9DD9-0941-A181-C2437740945C}"/>
+    <hyperlink ref="D55" r:id="rId21" display="https://alexyu.net/pixelnerf" xr:uid="{FE08CB9D-CA82-2641-899B-1CED2638D0C9}"/>
+    <hyperlink ref="B56" r:id="rId22" display="https://arxiv.org/abs/2012.02189" xr:uid="{A3166556-FD50-524F-9D7B-7DFABC9BA22F}"/>
+    <hyperlink ref="B59" r:id="rId23" display="https://arxiv.org/pdf/2102.08860.pdf" xr:uid="{C98AD7DA-8A21-4B40-A0E6-ABB79200584D}"/>
+    <hyperlink ref="B60" r:id="rId24" display="https://ibrnet.github.io/static/paper.pdf" xr:uid="{B64854DE-6A9F-EE41-8605-5F214EE9ADE2}"/>
+    <hyperlink ref="D60" r:id="rId25" display="https://ibrnet.github.io/" xr:uid="{5B6CC4DE-F7F9-2647-9B5C-A1E194127C73}"/>
+    <hyperlink ref="B61" r:id="rId26" display="https://arxiv.org/pdf/2103.17269.pdf" xr:uid="{62D8EC5C-C4AC-DA46-9FDF-0E23E2D5C874}"/>
+    <hyperlink ref="B62" r:id="rId27" display="https://arxiv.org/pdf/2104.00587.pdf" xr:uid="{B37AC469-58DD-BF4C-8A04-F712B1A8EB94}"/>
+    <hyperlink ref="B63" r:id="rId28" display="https://apple.github.io/ml-gsn/" xr:uid="{7717E2BE-FF3E-EF48-92FF-8653D9AB6AAE}"/>
+    <hyperlink ref="B64" r:id="rId29" display="https://apchenstu.github.io/mvsnerf/" xr:uid="{D01EC804-00BD-B442-AED3-391DEE153AF0}"/>
+    <hyperlink ref="B65" r:id="rId30" display="https://virtualhumans.mpi-inf.mpg.de/srf/" xr:uid="{BBFCEAB6-1067-4A46-B94B-1149F1DB3378}"/>
+    <hyperlink ref="D65" r:id="rId31" display="https://virtualhumans.mpi-inf.mpg.de/srf/" xr:uid="{99CFE0A6-49E8-6C47-AD0F-4876EDDD5257}"/>
+    <hyperlink ref="B66" r:id="rId32" display="https://liuyuan-pal.github.io/NeuRay/" xr:uid="{B8E198D5-170F-6445-ABD6-FC745FE3BB4F}"/>
+    <hyperlink ref="D68" r:id="rId33" display="https://github.com/vincentfung13/MINE" xr:uid="{BC5BAD36-364E-6749-BCB4-A976C125DDC5}"/>
+    <hyperlink ref="B70" r:id="rId34" display="https://sites.google.com/view/wbjang/home/codenerf" xr:uid="{187E0164-3464-5F42-AACD-3D5C2BF3C820}"/>
+    <hyperlink ref="B72" r:id="rId35" display="https://bmild.github.io/rawnerf/" xr:uid="{A6B8E96F-1F53-7041-B6A4-60B9508480D4}"/>
+    <hyperlink ref="B73" r:id="rId36" display="http://yenchenlin.me/inerf/" xr:uid="{EE610F53-3CF1-1E40-8ACB-F1984A3C3C5D}"/>
+    <hyperlink ref="B74" r:id="rId37" display="https://lemonatsu.github.io/ANeRF-Surface-free-Pose-Refinement/" xr:uid="{8812967F-CC98-5B4A-995D-AC01039F534F}"/>
+    <hyperlink ref="D74" r:id="rId38" display="https://lemonatsu.github.io/anerf/" xr:uid="{9D7EFC10-490A-E447-9D5C-8E801A904206}"/>
+    <hyperlink ref="B79" r:id="rId39" display="https://chenhsuanlin.bitbucket.io/bundle-adjusting-NeRF/" xr:uid="{20F5B6EF-8807-F341-AF88-60ED41CC6280}"/>
+    <hyperlink ref="B80" r:id="rId40" display="https://postech-cvlab.github.io/SCNeRF/" xr:uid="{2F6B0D04-F664-0240-95C8-8B039E05A6FE}"/>
+    <hyperlink ref="B81" r:id="rId41" display="https://markboss.me/publication/2021-nerd/" xr:uid="{D07E6E46-FE31-B345-8F53-0E980351DB40}"/>
+    <hyperlink ref="B82" r:id="rId42" display="https://people.eecs.berkeley.edu/~pratul/nerv/" xr:uid="{8DA1DFFB-66B7-D945-A567-262763835FE0}"/>
+    <hyperlink ref="B85" r:id="rId43" display="https://arxiv.org/abs/2010.07492" xr:uid="{24173C9F-D45A-1744-981B-21CA290E8730}"/>
+    <hyperlink ref="D85" r:id="rId44" display="https://github.com/Kai-46/nerfplusplus" xr:uid="{AC3D8F12-8792-6341-9EDD-3119722F4FB3}"/>
+    <hyperlink ref="B86" r:id="rId45" display="https://arxiv.org/abs/2011.12100" xr:uid="{A6421490-778F-404C-9B50-F4DF3C3222E3}"/>
+    <hyperlink ref="B88" r:id="rId46" display="https://ziyanw1.github.io/hybrid_nerf/" xr:uid="{21255C5F-2079-BD42-A4E8-1473A711251E}"/>
+    <hyperlink ref="B95" r:id="rId47" display="https://fig-nerf.github.io/" xr:uid="{BCB08482-216E-F445-961F-79B17BAB2894}"/>
+    <hyperlink ref="B96" r:id="rId48" display="https://developer.nvidia.com/blog/nvidia-research-nerf-tex-neural-reflectance-field-textures/" xr:uid="{46F7C388-1CC4-9149-B59B-559EE7BCD36A}"/>
+    <hyperlink ref="B97" r:id="rId49" display="https://jonbarron.info/mipnerf/" xr:uid="{3CF7024E-5382-C942-836E-26A20DA4524C}"/>
+    <hyperlink ref="B99" r:id="rId50" display="https://arxiv.org/abs/2106.10689" xr:uid="{E7185A93-C91C-F24C-9829-6325E236C3EB}"/>
+    <hyperlink ref="B101" r:id="rId51" display="https://weiyithu.github.io/NerfingMVS/" xr:uid="{22220255-E2B3-4341-A8DE-DF8098C5B6B6}"/>
+    <hyperlink ref="B102" r:id="rId52" display="https://3d-representation-learning.github.io/nerf-dy/" xr:uid="{433A7789-7958-4642-A629-FBF537BFB55E}"/>
+    <hyperlink ref="D103" r:id="rId53" display="https://mikh3x4.github.io/nerf-navigation/" xr:uid="{8A666769-9523-DC43-A0CD-D271CCCC1BDC}"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/docs/weekly_nerf_meta_data.xlsx
+++ b/docs/weekly_nerf_meta_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zelinzhao/cache/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C60FB59-60DA-B44B-8FE0-6B92E0534BA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02467484-6133-BF41-B3EC-F6DEBE1007CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="783" uniqueCount="625">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="870" uniqueCount="697">
   <si>
     <t>week</t>
   </si>
@@ -1907,6 +1907,222 @@
   </si>
   <si>
     <t>https://arxiv.org/abs/2107.07905</t>
+  </si>
+  <si>
+    <t>Aug7 - Aug13, 2022</t>
+  </si>
+  <si>
+    <t>PS-NeRV: Patch-wise Stylized Neural Representations for Videos</t>
+  </si>
+  <si>
+    <t>We study how to represent a video with implicit neural representations (INRs). Classical INRs methods generally utilize MLPs to map input coordinates to output pixels. While some recent works have tried to directly reconstruct the whole image with CNNs. However, we argue that both the above pixel-wise and image-wise strategies are not favorable to video data. Instead, we propose a patch-wise solution, PS-NeRV, which represents videos as a function of patches and the corresponding patch coordinate. It naturally inherits the advantages of image-wise methods, and achieves excellent reconstruction performance with fast decoding speed. The whole method includes conventional modules, like positional embedding, MLPs and CNNs, while also introduces AdaIN to enhance intermediate features. These simple yet essential changes could help the network easily fit high-frequency details. Extensive experiments have demonstrated its effectiveness in several video-related tasks, such as video compression and video inpainting.</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2208.03742</t>
+  </si>
+  <si>
+    <t>PlaneFormers: From Sparse View Planes to 3D Reconstruction</t>
+  </si>
+  <si>
+    <t>We present an approach for the planar surface reconstruction of a scene from images with limited overlap. This reconstruction task is challenging since it requires jointly reasoning about single image 3D reconstruction, correspondence between images, and the relative camera pose between images. Past work has proposed optimization-based approaches. We introduce a simpler approach, the PlaneFormer, that uses a transformer applied to 3D-aware plane tokens to perform 3D reasoning. Our experiments show that our approach is substantially more effective than prior work, and that several 3D-specific design decisions are crucial for its success.</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2208.04307</t>
+  </si>
+  <si>
+    <t>Fast Gradient Descent for Surface Capture Via Differentiable Rendering</t>
+  </si>
+  <si>
+    <t>3DV2022</t>
+  </si>
+  <si>
+    <t>Differential rendering has recently emerged as a powerful tool for image-based rendering or geometric reconstruction from multiple views, with very high quality. Up to now, such methods have been benchmarked on generic object databases and promisingly applied to some real data, but have yet to be applied to specific applications that may benefit. In this paper, we investigate how a differential rendering system can be crafted for raw multi-camera performance capture. We address several key issues in the way of practical usability and reproducibility, such as processing speed, explainability of the model, and general output model quality. This leads us to several contributions to the differential rendering framework. In particular we show that a unified view of differential rendering and classic optimization is possible, leading to a formulation and implementation where complete non-stochastic gradient steps can be analytically computed and the full perframe data stored in video memory, yielding a straightforward and efficient implementation. We also use a sparse storage and coarse-to-fine scheme to achieve extremely high resolution with contained memory and computation time. We show experimentally that results rivaling in quality with state of the art multi-view human surface capture methods are achievable in a fraction of the time, typically around a minute per frame.</t>
+  </si>
+  <si>
+    <t>https://hal.inria.fr/hal-03748662/</t>
+  </si>
+  <si>
+    <t>Monte Carlo Denoising Using Implicit Neural Representation</t>
+  </si>
+  <si>
+    <t>Monte Carlo path tracing is a popular 3D rendering technique in computer graphics, but it often requires a costly tradeoff between the amount of noise in the image and computation time. Therefore, it is useful to attempt to “smooth out” a noisy image, typically by constructing new data between the samples or applying filters to the image. In this work, we investigate the feasibility of training a neural network to implicitly represent the radiance of a fixed-viewpoint scene as a continuous function. We implement the neural network using a multilayer perceptron network and train it on a sparsely sampled image that is generated by an offline Monte Carlo renderer. This training data uses the (x, y) coordinate of each sample on the image plane as inputs and the RGB color of the sample as outputs. Additionally, we provide the network with the surface normal, depth, and albedo of the first ray intersection as extra inputs alongside the pixel coordinates. These extra input dimensions improve the quality of the implicit representation by helping the network account for changes in depth, normal, and diffuse color. Once the network is trained on the sparsely sampled scene, we can densely sample the network many times per pixel to create the final denoised image. We find that this network can quickly learn and denoise images in scenes with soft lighting and glossy reflections, and it can easily handle discontinuities in depth, normal, and diffuse color with just a small amount of training.</t>
+  </si>
+  <si>
+    <t>https://oaktrust.library.tamu.edu/handle/1969.1/196567</t>
+  </si>
+  <si>
+    <t>HRF-Net: Holistic Radiance Fields from Sparse Inputs</t>
+  </si>
+  <si>
+    <t>We present HRF-Net, a novel view synthesis method based on holistic radiance fields that renders novel views using a set of sparse inputs. Recent generalizing view synthesis methods also leverage the radiance fields but the rendering speed is not real-time. There are existing methods that can train and render novel views efficiently but they can not generalize to unseen scenes. Our approach addresses the problem of real-time rendering for generalizing view synthesis and consists of two main stages: a holistic radiance fields predictor and a convolutional-based neural renderer. This architecture infers not only consistent scene geometry based on the implicit neural fields but also renders new views efficiently using a single GPU. We first train HRF-Net on multiple 3D scenes of the DTU dataset and the network can produce plausible novel views on unseen real and synthetics data using only photometric losses. Moreover, our method can leverage a denser set of reference images of a single scene to produce accurate novel views without relying on additional explicit representations and still maintains the high-speed rendering of the pre-trained model. Experimental results show that HRF-Net outperforms state-of-the-art generalizable neural rendering methods on various synthetic and real datasets.</t>
+  </si>
+  <si>
+    <t>NIDN: Neural Inverse Design of Nanostructures</t>
+  </si>
+  <si>
+    <t>In the recent decade, computational tools have become central in material design, allowing rapid development cycles at reduced costs. Machine learning tools are especially on the rise in photonics. However, the inversion of the Maxwell equations needed for the design is particularly challenging from an optimization standpoint, requiring sophisticated software. We present an innovative, open-source software tool called Neural Inverse Design of Nanostructures (NIDN) that allows designing complex, stacked material nanostructures using a physics-based deep learning approach. Instead of a derivative-free or data-driven optimization or learning method, we perform a gradient-based neural network training where we directly optimize the material and its structure based on its spectral characteristics. NIDN supports two different solvers, rigorous coupled-wave analysis and a finite-difference time-domain method. The utility and validity of NIDN are demonstrated on several synthetic examples as well as the design of a 1550 nm filter and anti-reflection coating. Results match experimental baselines, other simulation tools, and the desired spectral characteristics. Given its full modularity in regard to network architectures and Maxwell solvers as well as open-source, permissive availability, NIDN will be able to support computational material design processes in a broad range of applications.</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2208.05480</t>
+  </si>
+  <si>
+    <t>RelPose: Predicting Probabilistic Relative Rotation for Single Objects in the Wild</t>
+  </si>
+  <si>
+    <t>https://github.com/jasonyzhang/relpose</t>
+  </si>
+  <si>
+    <t>https://jasonyzhang.com/relpose/</t>
+  </si>
+  <si>
+    <t>We describe a data-driven method for inferring the camera viewpoints given multiple images of an arbitrary object. This task is a core component of classic geometric pipelines such as SfM and SLAM, and also serves as a vital pre-processing requirement for contemporary neural approaches (e.g. NeRF) to object reconstruction and view synthesis. In contrast to existing correspondence-driven methods that do not perform well given sparse views, we propose a top-down prediction based approach for estimating camera viewpoints. Our key technical insight is the use of an energy-based formulation for representing distributions over relative camera rotations, thus allowing us to explicitly represent multiple camera modes arising from object symmetries or views. Leveraging these relative predictions, we jointly estimate a consistent set of camera rotations from multiple images. We show that our approach outperforms state-of-the-art SfM and SLAM methods given sparse images on both seen and unseen categories. Further, our probabilistic approach significantly outperforms directly regressing relative poses, suggesting that modeling multimodality is important for coherent joint reconstruction. We demonstrate that our system can be a stepping stone toward in-the-wild reconstruction from multi-view datasets. The project page with code and videos can be found at this https URL.</t>
+  </si>
+  <si>
+    <t>HyperTime: Implicit Neural Representation for Time Series</t>
+  </si>
+  <si>
+    <t>Implicit neural representations (INRs) have recently emerged as a powerful tool that provides an accurate and resolution-independent encoding of data. Their robustness as general approximators has been shown in a wide variety of data sources, with applications on image, sound, and 3D scene representation. However, little attention has been given to leveraging these architectures for the representation and analysis of time series data. In this paper, we analyze the representation of time series using INRs, comparing different activation functions in terms of reconstruction accuracy and training convergence speed. We show how these networks can be leveraged for the imputation of time series, with applications on both univariate and multivariate data. Finally, we propose a hypernetwork architecture that leverages INRs to learn a compressed latent representation of an entire time series dataset. We introduce an FFT-based loss to guide training so that all frequencies are preserved in the time series. We show that this network can be used to encode time series as INRs, and their embeddings can be interpolated to generate new time series from existing ones. We evaluate our generative method by using it for data augmentation, and show that it is competitive against current state-of-the-art approaches for augmentation of time series.</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2208.05836</t>
+  </si>
+  <si>
+    <t>OmniVoxel: A Fast and Precise Reconstruction Method of Omnidirectional Neural Radiance Field</t>
+  </si>
+  <si>
+    <t>GCCE 2022</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2208.06335</t>
+  </si>
+  <si>
+    <t>Progressive Multi-scale Light Field Networks</t>
+  </si>
+  <si>
+    <t>Neural representations have shown great promise in their ability to represent radiance and light fields while being very compact compared to the image set representation. However, current representations are not well suited for streaming as decoding can only be done at a single level of detail and requires downloading the entire neural network model. Furthermore, high-resolution light field networks can exhibit flickering and aliasing as neural networks are sampled without appropriate filtering. To resolve these issues, we present a progressive multi-scale light field network that encodes a light field with multiple levels of detail. Lower levels of detail are encoded using fewer neural network weights enabling progressive streaming and reducing rendering time. Our progressive multi-scale light field network addresses aliasing by encoding smaller anti-aliased representations at its lower levels of detail. Additionally, per-pixel level of detail enables our representation to support dithered transitions and foveated rendering.</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2208.06710</t>
+  </si>
+  <si>
+    <t>HDR-Plenoxels: Self-Calibrating High Dynamic Range Radiance Fields</t>
+  </si>
+  <si>
+    <t>We propose high dynamic range radiance (HDR) fields, HDR-Plenoxels, that learn a plenoptic function of 3D HDR radiance fields, geometry information, and varying camera settings inherent in 2D low dynamic range (LDR) images. Our voxel-based volume rendering pipeline reconstructs HDR radiance fields with only multi-view LDR images taken from varying camera settings in an end-to-end manner and has a fast convergence speed. To deal with various cameras in real-world scenarios, we introduce a tone mapping module that models the digital in-camera imaging pipeline (ISP) and disentangles radiometric settings. Our tone mapping module allows us to render by controlling the radiometric settings of each novel view. Finally, we build a multi-view dataset with varying camera conditions, which fits our problem setting. Our experiments show that HDR-Plenoxels can express detail and high-quality HDR novel views from only LDR images with various cameras.</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2208.06787</t>
+  </si>
+  <si>
+    <t>DM-NeRF: 3D Scene Geometry Decomposition and Manipulation from 2D Images</t>
+  </si>
+  <si>
+    <t>In this paper, we study the problem of 3D scene geometry decomposition and manipulation from 2D views. By leveraging the recent implicit neural representation techniques, particularly the appealing neural radiance fields, we introduce an object field component to learn unique codes for all individual objects in 3D space only from 2D supervision. The key to this component is a series of carefully designed loss functions to enable every 3D point, especially in non-occupied space, to be effectively optimized even without 3D labels. In addition, we introduce an inverse query algorithm to freely manipulate any specified 3D object shape in the learned scene representation. Notably, our manipulation algorithm can explicitly tackle key issues such as object collisions and visual occlusions. Our method, called DM-NeRF, is among the first to simultaneously reconstruct, decompose, manipulate and render complex 3D scenes in a single pipeline. Extensive experiments on three datasets clearly show that our method can accurately decompose all 3D objects from 2D views, allowing any interested object to be freely manipulated in 3D space such as translation, rotation, size adjustment, and deformation.</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2208.07227</t>
+  </si>
+  <si>
+    <t>https://github.com/vLAR-group/DM-NeRF</t>
+  </si>
+  <si>
+    <t>UPST-NeRF: Universal Photorealistic Style Transfer of Neural Radiance Fields for 3D Scene</t>
+  </si>
+  <si>
+    <t>3D scenes photorealistic stylization aims to generate photorealistic images from arbitrary novel views according to a given style image while ensuring consistency when rendering from different viewpoints. Some existing stylization methods with neural radiance fields can effectively predict stylized scenes by combining the features of the style image with multi-view images to train 3D scenes. However, these methods generate novel view images that contain objectionable artifacts. Besides, they cannot achieve universal photorealistic stylization for a 3D scene. Therefore, a styling image must retrain a 3D scene representation network based on a neural radiation field. We propose a novel 3D scene photorealistic style transfer framework to address these issues. It can realize photorealistic 3D scene style transfer with a 2D style image. We first pre-trained a 2D photorealistic style transfer network, which can meet the photorealistic style transfer between any given content image and style image. Then, we use voxel features to optimize a 3D scene and get the geometric representation of the scene. Finally, we jointly optimize a hyper network to realize the scene photorealistic style transfer of arbitrary style images. In the transfer stage, we use a pre-trained 2D photorealistic network to constrain the photorealistic style of different views and different style images in the 3D scene. The experimental results show that our method not only realizes the 3D photorealistic style transfer of arbitrary style images but also outperforms the existing methods in terms of visual quality and consistency. Project page:this https URL.</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2208.07059</t>
+  </si>
+  <si>
+    <t>https://github.com/semchan/UPST-NeRF</t>
+  </si>
+  <si>
+    <t>Aug14 - Aug20, 2022</t>
+  </si>
+  <si>
+    <t>This paper proposes a method to reconstruct the neural radiance field with equirectangular omnidirectional images. Implicit neural scene representation with a radiance field can reconstruct the 3D shape of a scene continuously within a limited spatial area. However, training a fully implicit representation on commercial PC hardware requires a lot of time and computing resources (15 ∼ 20 hours per scene). Therefore, we propose a method to accelerate this process significantly (20 ∼ 40 minutes per scene). Instead of using a fully implicit representation of rays for radiance field reconstruction, we adopt feature voxels that contain density and color features in tensors. Considering omnidirectional equirectangular input and the camera layout, we use spherical voxelization for representation instead of cubic representation. Our voxelization method could balance the reconstruction quality of the inner scene and outer scene. In addition, we adopt the axis-aligned positional encoding method on the color features to increase the total image quality. Our method achieves satisfying empirical performance on synthetic datasets with random camera poses. Moreover, we test our method with real scenes which contain complex geometries and also achieve state-of-the-art performance. Our code and complete dataset will be released at the same time as the paper publication.</t>
+  </si>
+  <si>
+    <t>3D 场景逼真风格化旨在根据给定的风格图像从任意新颖的视图生成逼真的图像，同时确保从不同视点渲染时的一致性。现有的一些具有神经辐射场的风格化方法可以通过将风格图像的特征与多视图图像相结合来训练3D场景，从而有效地预测风格化场景。然而，这些方法会生成包含令人反感的伪影的新颖视图图像。此外，它们无法为 3D 场景实现通用的逼真风格化。因此，造型图像必须重新训练基于神经辐射场的 3D 场景表示网络。我们提出了一种新颖的 3D 场景逼真风格迁移框架来解决这些问题。它可以用 2D 风格的图像实现逼真的 3D 场景风格转换。我们首先预训练了一个 2D 真实感风格迁移网络，可以满足任何给定内容图像和风格图像之间的真实感风格迁移。然后，我们使用体素特征来优化 3D 场景并获得场景的几何表示。最后，我们共同优化了一个超网络，以实现任意风格图像的场景逼真风格迁移。在迁移阶段，我们使用预训练的 2D 真实感网络来约束 3D 场景中不同视图和不同风格图像的真实感风格。实验结果表明，我们的方法不仅实现了任意风格图像的 3D 逼真风格转换，而且在视觉质量和一致性方面优于现有方法。项目页面：此 https URL。</t>
+  </si>
+  <si>
+    <t>在本文中，我们从 2D 视图研究 3D 场景几何分解和操纵问题。通过利用最近的隐式神经表示技术，特别是吸引人的神经辐射场，我们引入了一个对象场组件，仅从 2D 监督中学习 3D 空间中所有单个对象的唯一代码。该组件的关键是一系列精心设计的损失函数，以使每个 3D 点，尤其是在非占用空间中，即使没有 3D 标签也能得到有效优化。此外，我们引入了一种逆查询算法，可以在学习的场景表示中自由操作任何指定的 3D 对象形状。值得注意的是，我们的操作算法可以明确地解决关键问题，例如对象碰撞和视觉遮挡。我们的方法称为 DM-NeRF，是最早在单个管道中同时重建、分解、操作和渲染复杂 3D 场景的方法之一。在三个数据集上的大量实验清楚地表明，我们的方法可以准确地从 2D 视图中分解所有 3D 对象，允许在 3D 空间中自由操作任何感兴趣的对象，例如平移、旋转、大小调整和变形。</t>
+  </si>
+  <si>
+    <t>我们提出了高动态范围辐射 (HDR) 场 HDR-Plenoxels，它学习 3D HDR 辐射场、几何信息和 2D 低动态范围 (LDR) 图像中固有的不同相机设置的全光函数。我们基于体素的体素渲染管道仅使用从不同相机设置中以端到端方式拍摄的多视图 LDR 图像来重建 HDR 辐射场，并且具有快速的收敛速度。为了处理现实世界场景中的各种相机，我们引入了一个色调映射模块，该模块对相机内的数字成像管道 (ISP) 进行建模并解开辐射设置。我们的色调映射模块允许我们通过控制每个新视图的辐射设置来进行渲染。最后，我们构建了一个具有不同相机条件的多视图数据集，这符合我们的问题设置。我们的实验表明，HDR-Plenoxels 可以仅从带有各种相机的 LDR 图像中表达细节和高质量的 HDR 新颖视图。</t>
+  </si>
+  <si>
+    <t>与图像集表示相比，神经表示在表示辐射和光场的能力方面显示出了巨大的希望，同时非常紧凑。然而，当前的表示不太适合流式传输，因为解码只能在单个细节级别上完成，并且需要下载整个神经网络模型。此外，高分辨率光场网络可能会出现闪烁和混叠，因为在没有适当过滤的情况下对神经网络进行采样。为了解决这些问题，我们提出了一个渐进式多尺度光场网络，它对具有多层次细节的光场进行编码。使用较少的神经网络权重对较低级别的细节进行编码，从而实现渐进式流传输并减少渲染时间。我们的渐进式多尺度光场网络通过在较低细节级别编码较小的抗锯齿表示来解决锯齿问题。此外，每个像素级别的细节使我们的表示能够支持抖动过渡和中心点渲染。</t>
+  </si>
+  <si>
+    <t>本文提出了一种利用等矩形全向图像重建神经辐射场的方法。具有辐射场的隐式神经场景表示可以在有限的空间区域内连续重建场景的 3D 形状。然而，在商用 PC 硬件上训练完全隐式表示需要大量时间和计算资源（每个场景 15 ~ 20 小时）。因此，我们提出了一种显着加速这一过程的方法（每个场景 20 ∼ 40 分钟）。我们没有使用完全隐式的光线表示来重建辐射场，而是采用包含张量中的密度和颜色特征的特征体素。考虑到全向 equirectangular 输入和相机布局，我们使用球面体素化来表示，而不是三次表示。我们的体素化方法可以平衡内景和外景的重建质量。此外，我们对颜色特征采用轴对齐位置编码方法来提高整体图像质量。我们的方法在具有随机相机姿势的合成数据集上实现了令人满意的经验性能。此外，我们在包含复杂几何形状的真实场景中测试了我们的方法，并实现了最先进的性能。我们的代码和完整的数据集将与论文发表的同时发布。</t>
+  </si>
+  <si>
+    <t>隐式神经表示 (INR) 最近已成为一种强大的工具，可提供准确且与分辨率无关的数据编码。它们作为通用逼近器的鲁棒性已在各种数据源中得到证明，并应用于图像、声音和 3D 场景表示。然而，很少有人关注利用这些架构来表示和分析时间序列数据。在本文中，我们使用 INR 分析时间序列的表示，比较不同的激活函数在重建精度和训练收敛速度方面。我们展示了如何利用这些网络对时间序列进行插补，以及在单变量和多变量数据上的应用。最后，我们提出了一种利用 INR 来学习整个时间序列数据集的压缩潜在表示的超网络架构。我们引入了基于 FFT 的损失来指导训练，以便在时间序列中保留所有频率。我们展示了该网络可用于将时间序列编码为 INR，并且可以对它们的嵌入进行插值以从现有的时间序列中生成新的时间序列。我们通过将其用于数据增强来评估我们的生成方法，并表明它与当前最先进的时间序列增强方法具有竞争力。</t>
+  </si>
+  <si>
+    <t>我们描述了一种数据驱动的方法，用于在给定任意对象的多个图像的情况下推断相机视点。该任务是经典几何流水线（如 SfM 和 SLAM）的核心组成部分，也是当代神经方法（例如 NeRF）对对象重建和视图合成的重要预处理要求。与现有的在稀疏视图中表现不佳的对应驱动方法相比，我们提出了一种基于自上而下预测的方法来估计相机视点。我们的关键技术见解是使用基于能量的公式来表示相对相机旋转的分布，从而使我们能够明确表示由对象对称性或视图产生的多个相机模式。利用这些相对预测，我们从多张图像中共同估计一组一致的相机旋转。我们表明，在给定可见和不可见类别的稀疏图像的情况下，我们的方法优于最先进的 SfM 和 SLAM 方法。此外，我们的概率方法明显优于直接回归相对姿势，这表明建模多模态对于连贯的关节重建很重要。我们证明我们的系统可以成为从多视图数据集进行野外重建的垫脚石。包含代码和视频的项目页面可以在这个 https URL 找到。</t>
+  </si>
+  <si>
+    <t>近十年来，计算工具已成为材料设计的核心，以降低成本实现快速开发周期。机器学习工具在光子学领域尤其兴起。然而，从优化的角度来看，设计所需的麦克斯韦方程的反演特别具有挑战性，需要复杂的软件。我们提出了一种创新的开源软件工具，称为纳米结构的神经逆向设计 (NIDN)，它允许使用基于物理的深度学习方法设计复杂的堆叠材料纳米结构。我们执行基于梯度的神经网络训练，而不是无导数或数据驱动的优化或学习方法，在这种训练中，我们根据其光谱特性直接优化材料及其结构。 NIDN 支持两种不同的求解器，严格的耦合波分析和有限差分时域方法。 NIDN 的实用性和有效性在几个合成示例以及 1550 nm 滤光片和抗反射涂层的设计中得到了证明。结果与实验基线、其他模拟工具和所需的光谱特性相匹配。鉴于其在网络架构和 Maxwell 求解器方面的完全模块化以及开源、许可的可用性，NIDN 将能够支持广泛应用中的计算材料设计过程。</t>
+  </si>
+  <si>
+    <t>我们提出了 HRF-Net，这是一种基于整体辐射场的新型视图合成方法，它使用一组稀疏输入来渲染新颖的视图。最近的泛化视图合成方法也利用了辐射场，但渲染速度不是实时的。现有的方法可以有效地训练和渲染新颖的视图，但它们不能推广到看不见的场景。我们的方法解决了用于泛化视图合成的实时渲染问题，包括两个主要阶段：整体辐射场预测器和基于卷积的神经渲染器。这种架构不仅可以基于隐式神经场推断出一致的场景几何，还可以使用单个 GPU 有效地渲染新视图。我们首先在 DTU 数据集的多个 3D 场景上训练 HRF-Net，并且该网络可以仅使用光度损失对看不见的真实和合成数据产生似是而非的新颖视图。此外，我们的方法可以利用单个场景的一组更密集的参考图像来生成准确的新颖视图，而无需依赖额外的显式表示，并且仍然保持预训练模型的高速渲染。实验结果表明，HRF-Net 在各种合成和真实数据集上优于最先进的可泛化神经渲染方法。</t>
+  </si>
+  <si>
+    <t>Monte Carlo 路径追踪是计算机图形学中流行的 3D 渲染技术，但它通常需要在图像中的噪声量和计算时间之间进行代价高昂的权衡。因此，尝试“平滑”噪声图像是有用的，通常通过在样本之间构建新数据或对图像应用过滤器。在这项工作中，我们研究了训练神经网络以将固定视点场景的亮度隐式表示为连续函数的可行性。我们使用多层感知器网络实现神经网络，并在由离线 Monte Carlo 渲染器生成的稀疏采样图像上对其进行训练。该训练数据使用图像平面上每个样本的 (x, y) 坐标作为输入，并将样本的 RGB 颜色作为输出。此外，我们为网络提供第一条光线交点的表面法线、深度和反照率，作为像素坐标旁边的额外输入。这些额外的输入维度通过帮助网络考虑深度、法线和漫反射颜色的变化来提高隐式表示的质量。一旦网络在稀疏采样的场景上得到训练，我们就可以对每个像素的网络进行多次密集采样，以创建最终的去噪图像。我们发现该网络可以在具有柔和照明和光泽反射的场景中快速学习和去噪图像，并且只需少量训练即可轻松处理深度、正常和漫反射颜色的不连续性。</t>
+  </si>
+  <si>
+    <t>差分渲染最近已成为一种强大的工具，用于从多个视图进行基于图像的渲染或几何重建，具有非常高的质量。到目前为止，此类方法已在通用对象数据库上进行了基准测试，并有望应用于一些真实数据，但尚未应用于可能受益的特定应用程序。在本文中，我们研究了如何为原始多相机性能捕获制作差分渲染系统。我们以实际可用性和可重复性的方式解决了几个关键问题，例如处理速度、模型的可解释性和一般输出模型质量。这导致我们对差分渲染框架做出了一些贡献。特别是，我们展示了差分渲染和经典优化的统一视图是可能的，从而导致可以分析计算完整的非随机梯度步骤并将完整的每帧数据存储在视频内存中的公式和实现，从而产生简单有效的实现.我们还使用稀疏存储和从粗到细的方案来实现极高的分辨率，同时包含内存和计算时间。我们通过实验表明，在质量上与最先进的多视图人体表面捕获方法相媲美的结果可以在很短的时间内实现，通常每帧大约一分钟。</t>
+  </si>
+  <si>
+    <t>我们提出了一种从具有有限重叠的图像中对场景进行平面表面重建的方法。这种重建任务具有挑战性，因为它需要联合推理单图像 3D 重建、图像之间的对应关系以及图像之间的相对相机位姿。过去的工作提出了基于优化的方法。我们介绍了一种更简单的方法，PlaneFormer，它使用一个应用于 3D 感知平面令牌的转换器来执行 3D 推理。我们的实验表明，我们的方法比以前的工作要有效得多，并且几个特定于 3D 的设计决策对其成功至关重要。</t>
+  </si>
+  <si>
+    <t>我们研究如何使用隐式神经表示 (INR) 来表示视频。经典的 INR 方法通常利用 MLP 将输入坐标映射到输出像素。虽然最近的一些作品试图用 CNN 直接重建整个图像。然而，我们认为上述像素级和图像级策略都不利于视频数据。相反，我们提出了一种补丁解决方案 PS-NeRV，它将视频表示为补丁和相应补丁坐标的函数。它自然继承了image-wise方法的优点，并以快速的解码速度实现了出色的重建性能。整个方法包括传统的模块，如位置嵌入、MLPs 和 CNNs，同时还引入了 AdaIN 来增强中间特征。这些简单而重要的变化可以帮助网络轻松适应高频细节。大量实验证明了它在视频压缩和视频修复等视频相关任务中的有效性。</t>
+  </si>
+  <si>
+    <t>UPST-NeRF：用于 3D 场景的神经辐射场的通用逼真风格转移</t>
+  </si>
+  <si>
+    <t>DM-NeRF：2D 图像的 3D 场景几何分解和操作</t>
+  </si>
+  <si>
+    <t>HDR-Plenoxels：自校准高动态范围辐射场</t>
+  </si>
+  <si>
+    <t>渐进式多尺度光场网络</t>
+  </si>
+  <si>
+    <t>OmniVoxel：一种快速精确的全向神经辐射场重建方法</t>
+  </si>
+  <si>
+    <t>HyperTime：时间序列的隐式神经表示</t>
+  </si>
+  <si>
+    <t>RelPose：预测野外单个物体的概率相对旋转</t>
+  </si>
+  <si>
+    <t>NIDN：纳米结构的神经逆向设计</t>
+  </si>
+  <si>
+    <t>HRF-Net：来自稀疏输入的整体辐射场</t>
+  </si>
+  <si>
+    <t>使用隐式神经表示的蒙特卡罗去噪</t>
+  </si>
+  <si>
+    <t>通过可微分渲染进行表面捕获的快速梯度下降</t>
+  </si>
+  <si>
+    <t>PlaneFormers：从稀疏视图平面到 3D 重建</t>
+  </si>
+  <si>
+    <t>PS-NeRV：视频的补丁风格化神经表示</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2208.04717</t>
   </si>
 </sst>
 </file>
@@ -2753,19 +2969,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T103"/>
+  <dimension ref="A1:T116"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="E95" sqref="E95"/>
+      <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19.1640625" customWidth="1"/>
     <col min="2" max="2" width="61.5" customWidth="1"/>
-    <col min="3" max="7" width="10.83203125" customWidth="1"/>
+    <col min="3" max="6" width="10.83203125" customWidth="1"/>
+    <col min="7" max="7" width="57.83203125" customWidth="1"/>
     <col min="8" max="8" width="12.5" customWidth="1"/>
     <col min="9" max="17" width="10.83203125" customWidth="1"/>
   </cols>
@@ -2834,595 +3051,556 @@
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>668</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" t="s">
-        <v>19</v>
+        <v>664</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>665</v>
       </c>
       <c r="E2" t="s">
-        <v>21</v>
+        <v>666</v>
+      </c>
+      <c r="F2" t="s">
+        <v>667</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>683</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
-      </c>
-      <c r="L2">
+        <v>670</v>
+      </c>
+      <c r="M2">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>668</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>660</v>
       </c>
       <c r="D3" t="s">
-        <v>56</v>
+        <v>661</v>
       </c>
       <c r="E3" t="s">
-        <v>78</v>
+        <v>662</v>
+      </c>
+      <c r="F3" t="s">
+        <v>663</v>
       </c>
       <c r="G3" t="s">
-        <v>108</v>
+        <v>684</v>
       </c>
       <c r="H3" t="s">
-        <v>129</v>
-      </c>
-      <c r="M3">
-        <v>1</v>
-      </c>
-      <c r="S3">
+        <v>671</v>
+      </c>
+      <c r="J3">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>668</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>657</v>
+      </c>
+      <c r="C4" t="s">
+        <v>48</v>
       </c>
       <c r="D4" t="s">
-        <v>57</v>
+        <v>658</v>
       </c>
       <c r="E4" t="s">
-        <v>79</v>
+        <v>659</v>
       </c>
       <c r="G4" t="s">
-        <v>26</v>
+        <v>685</v>
       </c>
       <c r="H4" t="s">
-        <v>130</v>
-      </c>
-      <c r="N4">
-        <v>1</v>
-      </c>
-      <c r="O4">
+        <v>672</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="K4">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>625</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>654</v>
       </c>
       <c r="C5" t="s">
-        <v>48</v>
+        <v>633</v>
       </c>
       <c r="D5" t="s">
-        <v>58</v>
+        <v>655</v>
       </c>
       <c r="E5" t="s">
-        <v>80</v>
-      </c>
-      <c r="F5" t="s">
-        <v>100</v>
+        <v>656</v>
       </c>
       <c r="G5" t="s">
-        <v>34</v>
+        <v>686</v>
       </c>
       <c r="H5" t="s">
-        <v>131</v>
-      </c>
-      <c r="M5">
+        <v>673</v>
+      </c>
+      <c r="R5">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>625</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>651</v>
+      </c>
+      <c r="C6" t="s">
+        <v>652</v>
       </c>
       <c r="D6" t="s">
-        <v>59</v>
+        <v>669</v>
       </c>
       <c r="E6" t="s">
-        <v>81</v>
+        <v>653</v>
       </c>
       <c r="G6" t="s">
-        <v>109</v>
+        <v>687</v>
       </c>
       <c r="H6" t="s">
-        <v>132</v>
+        <v>674</v>
       </c>
       <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="N6">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>625</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>648</v>
       </c>
       <c r="D7" t="s">
-        <v>60</v>
+        <v>649</v>
       </c>
       <c r="E7" t="s">
-        <v>82</v>
-      </c>
-      <c r="F7" t="s">
-        <v>82</v>
+        <v>650</v>
       </c>
       <c r="G7" t="s">
-        <v>110</v>
+        <v>688</v>
       </c>
       <c r="H7" t="s">
-        <v>133</v>
-      </c>
-      <c r="J7">
-        <v>1</v>
-      </c>
-      <c r="M7">
+        <v>675</v>
+      </c>
+      <c r="T7">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>625</v>
       </c>
       <c r="B8" t="s">
-        <v>35</v>
+        <v>644</v>
       </c>
       <c r="C8" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="D8" t="s">
-        <v>61</v>
+        <v>647</v>
       </c>
       <c r="E8" t="s">
-        <v>83</v>
+        <v>646</v>
+      </c>
+      <c r="F8" t="s">
+        <v>645</v>
       </c>
       <c r="G8" t="s">
-        <v>111</v>
+        <v>689</v>
       </c>
       <c r="H8" t="s">
-        <v>134</v>
-      </c>
-      <c r="J8">
-        <v>1</v>
-      </c>
-      <c r="L8">
+        <v>676</v>
+      </c>
+      <c r="O8">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>625</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C9" t="s">
-        <v>54</v>
+        <v>641</v>
       </c>
       <c r="D9" t="s">
-        <v>151</v>
+        <v>642</v>
       </c>
       <c r="E9" t="s">
-        <v>83</v>
+        <v>643</v>
       </c>
       <c r="G9" t="s">
-        <v>127</v>
+        <v>690</v>
       </c>
       <c r="H9" t="s">
-        <v>152</v>
-      </c>
-      <c r="J9">
-        <v>1</v>
-      </c>
-      <c r="L9">
+        <v>677</v>
+      </c>
+      <c r="T9">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>625</v>
       </c>
       <c r="B10" t="s">
-        <v>37</v>
-      </c>
-      <c r="C10" t="s">
-        <v>53</v>
+        <v>639</v>
       </c>
       <c r="D10" t="s">
-        <v>62</v>
+        <v>640</v>
       </c>
       <c r="E10" t="s">
-        <v>84</v>
-      </c>
-      <c r="F10" t="s">
-        <v>101</v>
+        <v>696</v>
       </c>
       <c r="G10" t="s">
-        <v>112</v>
+        <v>691</v>
       </c>
       <c r="H10" t="s">
-        <v>135</v>
-      </c>
-      <c r="T10">
+        <v>678</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="M10">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>625</v>
       </c>
       <c r="B11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C11" t="s">
-        <v>52</v>
+        <v>636</v>
       </c>
       <c r="D11" t="s">
-        <v>63</v>
+        <v>637</v>
       </c>
       <c r="E11" t="s">
-        <v>85</v>
+        <v>638</v>
       </c>
       <c r="G11" t="s">
-        <v>113</v>
+        <v>692</v>
       </c>
       <c r="H11" t="s">
-        <v>136</v>
-      </c>
-      <c r="M11">
+        <v>679</v>
+      </c>
+      <c r="T11">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>625</v>
       </c>
       <c r="B12" t="s">
-        <v>39</v>
+        <v>632</v>
       </c>
       <c r="C12" t="s">
-        <v>51</v>
+        <v>633</v>
       </c>
       <c r="D12" t="s">
-        <v>64</v>
+        <v>634</v>
       </c>
       <c r="E12" t="s">
-        <v>86</v>
+        <v>635</v>
       </c>
       <c r="G12" t="s">
-        <v>114</v>
+        <v>693</v>
       </c>
       <c r="H12" t="s">
-        <v>137</v>
-      </c>
-      <c r="M12">
-        <v>1</v>
-      </c>
-      <c r="O12">
+        <v>680</v>
+      </c>
+      <c r="N12">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>625</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
+        <v>629</v>
+      </c>
+      <c r="C13" t="s">
+        <v>48</v>
       </c>
       <c r="D13" t="s">
-        <v>65</v>
+        <v>630</v>
       </c>
       <c r="E13" t="s">
-        <v>87</v>
-      </c>
-      <c r="F13" t="s">
-        <v>102</v>
+        <v>631</v>
       </c>
       <c r="G13" t="s">
-        <v>115</v>
+        <v>694</v>
       </c>
       <c r="H13" t="s">
-        <v>138</v>
-      </c>
-      <c r="J13">
-        <v>1</v>
-      </c>
-      <c r="K13">
+        <v>681</v>
+      </c>
+      <c r="N13">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>625</v>
       </c>
       <c r="B14" t="s">
-        <v>40</v>
-      </c>
-      <c r="C14" t="s">
-        <v>48</v>
+        <v>626</v>
       </c>
       <c r="D14" t="s">
-        <v>66</v>
+        <v>627</v>
       </c>
       <c r="E14" t="s">
-        <v>88</v>
-      </c>
-      <c r="F14" t="s">
-        <v>103</v>
+        <v>628</v>
       </c>
       <c r="G14" t="s">
-        <v>116</v>
+        <v>695</v>
       </c>
       <c r="H14" t="s">
-        <v>139</v>
-      </c>
-      <c r="O14">
-        <v>1</v>
-      </c>
-      <c r="T14">
+        <v>682</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="Q14">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>30</v>
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>19</v>
       </c>
       <c r="D15" t="s">
-        <v>67</v>
+        <v>20</v>
       </c>
       <c r="E15" t="s">
-        <v>89</v>
+        <v>21</v>
       </c>
       <c r="G15" t="s">
-        <v>117</v>
+        <v>22</v>
       </c>
       <c r="H15" t="s">
-        <v>140</v>
-      </c>
-      <c r="K15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>1</v>
-      </c>
-      <c r="T15">
+        <v>23</v>
+      </c>
+      <c r="L15">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>41</v>
-      </c>
-      <c r="C16" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="D16" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="E16" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="G16" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="H16" t="s">
-        <v>141</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="N16">
+        <v>129</v>
+      </c>
+      <c r="M16">
+        <v>1</v>
+      </c>
+      <c r="S16">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>42</v>
-      </c>
-      <c r="C17" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="E17" t="s">
-        <v>91</v>
-      </c>
-      <c r="F17" t="s">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="G17" t="s">
-        <v>119</v>
+        <v>26</v>
       </c>
       <c r="H17" t="s">
-        <v>142</v>
-      </c>
-      <c r="R17">
-        <v>1</v>
-      </c>
-      <c r="T17">
+        <v>130</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>31</v>
+        <v>34</v>
+      </c>
+      <c r="C18" t="s">
+        <v>48</v>
       </c>
       <c r="D18" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="E18" t="s">
-        <v>92</v>
+        <v>80</v>
+      </c>
+      <c r="F18" t="s">
+        <v>100</v>
       </c>
       <c r="G18" t="s">
-        <v>120</v>
+        <v>34</v>
       </c>
       <c r="H18" t="s">
-        <v>143</v>
-      </c>
-      <c r="I18">
+        <v>131</v>
+      </c>
+      <c r="M18">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>43</v>
-      </c>
-      <c r="C19" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="E19" t="s">
-        <v>93</v>
-      </c>
-      <c r="F19" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="G19" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="H19" t="s">
-        <v>144</v>
-      </c>
-      <c r="O19">
-        <v>1</v>
-      </c>
-      <c r="P19">
+        <v>132</v>
+      </c>
+      <c r="K19">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B20" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D20" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="E20" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="F20" t="s">
-        <v>106</v>
+        <v>82</v>
       </c>
       <c r="G20" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="H20" t="s">
-        <v>145</v>
-      </c>
-      <c r="N20">
-        <v>1</v>
-      </c>
-      <c r="O20">
+        <v>133</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+      <c r="M20">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B21" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="C21" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="D21" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="E21" t="s">
-        <v>95</v>
-      </c>
-      <c r="F21" t="s">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="G21" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="H21" t="s">
-        <v>146</v>
-      </c>
-      <c r="N21">
-        <v>1</v>
-      </c>
-      <c r="O21">
+        <v>134</v>
+      </c>
+      <c r="J21">
+        <v>1</v>
+      </c>
+      <c r="L21">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B22" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="C22" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D22" t="s">
-        <v>74</v>
+        <v>151</v>
       </c>
       <c r="E22" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="G22" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="H22" t="s">
-        <v>147</v>
-      </c>
-      <c r="T22">
+        <v>152</v>
+      </c>
+      <c r="J22">
+        <v>1</v>
+      </c>
+      <c r="L22">
         <v>1</v>
       </c>
     </row>
@@ -3431,27 +3609,27 @@
         <v>18</v>
       </c>
       <c r="B23" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="C23" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D23" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="E23" t="s">
-        <v>97</v>
+        <v>84</v>
+      </c>
+      <c r="F23" t="s">
+        <v>101</v>
       </c>
       <c r="G23" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="H23" t="s">
-        <v>148</v>
-      </c>
-      <c r="J23">
-        <v>1</v>
-      </c>
-      <c r="L23">
+        <v>135</v>
+      </c>
+      <c r="T23">
         <v>1</v>
       </c>
     </row>
@@ -3460,30 +3638,24 @@
         <v>18</v>
       </c>
       <c r="B24" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="C24" t="s">
-        <v>290</v>
+        <v>52</v>
       </c>
       <c r="D24" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="E24" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="G24" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="H24" t="s">
-        <v>149</v>
-      </c>
-      <c r="J24">
-        <v>1</v>
-      </c>
-      <c r="N24">
-        <v>1</v>
-      </c>
-      <c r="P24">
+        <v>136</v>
+      </c>
+      <c r="M24">
         <v>1</v>
       </c>
     </row>
@@ -3492,390 +3664,402 @@
         <v>18</v>
       </c>
       <c r="B25" t="s">
-        <v>33</v>
+        <v>39</v>
+      </c>
+      <c r="C25" t="s">
+        <v>51</v>
       </c>
       <c r="D25" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="E25" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="G25" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="H25" t="s">
-        <v>150</v>
-      </c>
-      <c r="T25">
+        <v>137</v>
+      </c>
+      <c r="M25">
+        <v>1</v>
+      </c>
+      <c r="O25">
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>154</v>
+        <v>18</v>
       </c>
       <c r="B26" t="s">
-        <v>155</v>
-      </c>
-      <c r="C26" t="s">
-        <v>157</v>
+        <v>29</v>
       </c>
       <c r="D26" t="s">
-        <v>259</v>
+        <v>65</v>
       </c>
       <c r="E26" t="s">
-        <v>158</v>
+        <v>87</v>
       </c>
       <c r="F26" t="s">
-        <v>159</v>
+        <v>102</v>
       </c>
       <c r="G26" t="s">
-        <v>160</v>
+        <v>115</v>
       </c>
       <c r="H26" t="s">
-        <v>161</v>
-      </c>
-      <c r="T26">
+        <v>138</v>
+      </c>
+      <c r="J26">
+        <v>1</v>
+      </c>
+      <c r="K26">
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>154</v>
+        <v>18</v>
       </c>
       <c r="B27" t="s">
-        <v>156</v>
+        <v>40</v>
       </c>
       <c r="C27" t="s">
-        <v>357</v>
+        <v>48</v>
       </c>
       <c r="D27" t="s">
-        <v>162</v>
+        <v>66</v>
       </c>
       <c r="E27" t="s">
-        <v>163</v>
+        <v>88</v>
       </c>
       <c r="F27" t="s">
-        <v>164</v>
+        <v>103</v>
       </c>
       <c r="G27" t="s">
-        <v>166</v>
+        <v>116</v>
       </c>
       <c r="H27" t="s">
-        <v>165</v>
-      </c>
-      <c r="J27">
-        <v>1</v>
-      </c>
-      <c r="K27">
+        <v>139</v>
+      </c>
+      <c r="O27">
+        <v>1</v>
+      </c>
+      <c r="T27">
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>154</v>
+        <v>18</v>
       </c>
       <c r="B28" t="s">
-        <v>167</v>
-      </c>
-      <c r="C28" t="s">
-        <v>168</v>
+        <v>30</v>
       </c>
       <c r="D28" t="s">
-        <v>169</v>
+        <v>67</v>
       </c>
       <c r="E28" t="s">
-        <v>172</v>
-      </c>
-      <c r="F28" t="s">
-        <v>173</v>
+        <v>89</v>
       </c>
       <c r="G28" t="s">
-        <v>171</v>
+        <v>117</v>
       </c>
       <c r="H28" t="s">
-        <v>170</v>
+        <v>140</v>
       </c>
       <c r="K28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>1</v>
+      </c>
+      <c r="T28">
         <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>154</v>
+        <v>18</v>
       </c>
       <c r="B29" t="s">
-        <v>174</v>
+        <v>41</v>
+      </c>
+      <c r="C29" t="s">
+        <v>50</v>
       </c>
       <c r="D29" t="s">
-        <v>175</v>
+        <v>68</v>
       </c>
       <c r="E29" t="s">
-        <v>176</v>
+        <v>90</v>
       </c>
       <c r="G29" t="s">
-        <v>474</v>
+        <v>118</v>
       </c>
       <c r="H29" t="s">
-        <v>549</v>
+        <v>141</v>
       </c>
       <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="N29">
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>154</v>
+        <v>18</v>
       </c>
       <c r="B30" t="s">
-        <v>177</v>
+        <v>42</v>
       </c>
       <c r="C30" t="s">
-        <v>178</v>
+        <v>48</v>
       </c>
       <c r="D30" t="s">
-        <v>179</v>
+        <v>69</v>
       </c>
       <c r="E30" t="s">
-        <v>180</v>
+        <v>91</v>
       </c>
       <c r="F30" t="s">
-        <v>181</v>
+        <v>104</v>
       </c>
       <c r="G30" t="s">
-        <v>475</v>
+        <v>119</v>
       </c>
       <c r="H30" t="s">
-        <v>550</v>
-      </c>
-      <c r="K30">
+        <v>142</v>
+      </c>
+      <c r="R30">
+        <v>1</v>
+      </c>
+      <c r="T30">
         <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>154</v>
+        <v>18</v>
       </c>
       <c r="B31" t="s">
-        <v>182</v>
-      </c>
-      <c r="C31" t="s">
-        <v>185</v>
+        <v>31</v>
       </c>
       <c r="D31" t="s">
-        <v>183</v>
+        <v>70</v>
       </c>
       <c r="E31" t="s">
-        <v>184</v>
+        <v>92</v>
       </c>
       <c r="G31" t="s">
-        <v>476</v>
+        <v>120</v>
       </c>
       <c r="H31" t="s">
-        <v>551</v>
-      </c>
-      <c r="K31">
+        <v>143</v>
+      </c>
+      <c r="I31">
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>154</v>
+        <v>18</v>
       </c>
       <c r="B32" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="C32" t="s">
-        <v>185</v>
+        <v>48</v>
       </c>
       <c r="D32" t="s">
-        <v>187</v>
+        <v>71</v>
       </c>
       <c r="E32" t="s">
-        <v>188</v>
+        <v>93</v>
       </c>
       <c r="F32" t="s">
-        <v>189</v>
+        <v>105</v>
       </c>
       <c r="G32" t="s">
-        <v>477</v>
+        <v>121</v>
       </c>
       <c r="H32" t="s">
-        <v>552</v>
-      </c>
-      <c r="K32">
+        <v>144</v>
+      </c>
+      <c r="O32">
+        <v>1</v>
+      </c>
+      <c r="P32">
         <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>154</v>
+        <v>18</v>
       </c>
       <c r="B33" t="s">
-        <v>190</v>
-      </c>
-      <c r="C33" t="s">
-        <v>191</v>
+        <v>32</v>
       </c>
       <c r="D33" t="s">
-        <v>192</v>
+        <v>72</v>
       </c>
       <c r="E33" t="s">
-        <v>193</v>
+        <v>94</v>
       </c>
       <c r="F33" t="s">
-        <v>194</v>
+        <v>106</v>
       </c>
       <c r="G33" t="s">
-        <v>478</v>
+        <v>122</v>
       </c>
       <c r="H33" t="s">
-        <v>553</v>
-      </c>
-      <c r="K33">
+        <v>145</v>
+      </c>
+      <c r="N33">
+        <v>1</v>
+      </c>
+      <c r="O33">
         <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>154</v>
+        <v>18</v>
       </c>
       <c r="B34" t="s">
-        <v>195</v>
+        <v>44</v>
       </c>
       <c r="C34" t="s">
-        <v>196</v>
+        <v>48</v>
       </c>
       <c r="D34" t="s">
-        <v>197</v>
+        <v>73</v>
       </c>
       <c r="E34" t="s">
-        <v>198</v>
+        <v>95</v>
+      </c>
+      <c r="F34" t="s">
+        <v>107</v>
       </c>
       <c r="G34" t="s">
-        <v>479</v>
+        <v>123</v>
       </c>
       <c r="H34" t="s">
-        <v>554</v>
-      </c>
-      <c r="K34">
+        <v>146</v>
+      </c>
+      <c r="N34">
+        <v>1</v>
+      </c>
+      <c r="O34">
         <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>154</v>
+        <v>18</v>
       </c>
       <c r="B35" t="s">
-        <v>199</v>
+        <v>45</v>
       </c>
       <c r="C35" t="s">
-        <v>358</v>
+        <v>49</v>
       </c>
       <c r="D35" t="s">
-        <v>200</v>
+        <v>74</v>
       </c>
       <c r="E35" t="s">
-        <v>201</v>
-      </c>
-      <c r="F35" t="s">
-        <v>202</v>
+        <v>96</v>
       </c>
       <c r="G35" t="s">
-        <v>480</v>
+        <v>124</v>
       </c>
       <c r="H35" t="s">
-        <v>555</v>
-      </c>
-      <c r="K35">
+        <v>147</v>
+      </c>
+      <c r="T35">
         <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>154</v>
+        <v>18</v>
       </c>
       <c r="B36" t="s">
-        <v>203</v>
+        <v>46</v>
       </c>
       <c r="C36" t="s">
-        <v>205</v>
+        <v>48</v>
       </c>
       <c r="D36" t="s">
-        <v>206</v>
+        <v>75</v>
       </c>
       <c r="E36" t="s">
-        <v>207</v>
-      </c>
-      <c r="F36" t="s">
-        <v>204</v>
+        <v>97</v>
       </c>
       <c r="G36" t="s">
-        <v>481</v>
+        <v>125</v>
       </c>
       <c r="H36" t="s">
-        <v>556</v>
-      </c>
-      <c r="K36">
+        <v>148</v>
+      </c>
+      <c r="J36">
+        <v>1</v>
+      </c>
+      <c r="L36">
         <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>154</v>
+        <v>18</v>
       </c>
       <c r="B37" t="s">
-        <v>208</v>
+        <v>47</v>
       </c>
       <c r="C37" t="s">
-        <v>209</v>
+        <v>290</v>
       </c>
       <c r="D37" t="s">
-        <v>210</v>
+        <v>76</v>
       </c>
       <c r="E37" t="s">
-        <v>211</v>
-      </c>
-      <c r="F37" t="s">
-        <v>212</v>
+        <v>98</v>
       </c>
       <c r="G37" t="s">
-        <v>482</v>
+        <v>126</v>
       </c>
       <c r="H37" t="s">
-        <v>557</v>
-      </c>
-      <c r="K37">
+        <v>149</v>
+      </c>
+      <c r="J37">
+        <v>1</v>
+      </c>
+      <c r="N37">
+        <v>1</v>
+      </c>
+      <c r="P37">
         <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>154</v>
+        <v>18</v>
       </c>
       <c r="B38" t="s">
-        <v>213</v>
-      </c>
-      <c r="C38" t="s">
-        <v>168</v>
+        <v>33</v>
       </c>
       <c r="D38" t="s">
-        <v>214</v>
+        <v>77</v>
       </c>
       <c r="E38" t="s">
-        <v>215</v>
+        <v>99</v>
       </c>
       <c r="G38" t="s">
-        <v>483</v>
+        <v>128</v>
       </c>
       <c r="H38" t="s">
-        <v>558</v>
-      </c>
-      <c r="I38">
-        <v>1</v>
-      </c>
-      <c r="O38">
-        <v>1</v>
+        <v>150</v>
       </c>
       <c r="T38">
         <v>1</v>
@@ -3886,31 +4070,25 @@
         <v>154</v>
       </c>
       <c r="B39" t="s">
-        <v>216</v>
+        <v>155</v>
       </c>
       <c r="C39" t="s">
-        <v>205</v>
+        <v>157</v>
       </c>
       <c r="D39" t="s">
-        <v>217</v>
+        <v>259</v>
       </c>
       <c r="E39" t="s">
-        <v>218</v>
+        <v>158</v>
       </c>
       <c r="F39" t="s">
-        <v>219</v>
+        <v>159</v>
       </c>
       <c r="G39" t="s">
-        <v>484</v>
+        <v>160</v>
       </c>
       <c r="H39" t="s">
-        <v>559</v>
-      </c>
-      <c r="I39">
-        <v>1</v>
-      </c>
-      <c r="O39">
-        <v>1</v>
+        <v>161</v>
       </c>
       <c r="T39">
         <v>1</v>
@@ -3921,27 +4099,30 @@
         <v>154</v>
       </c>
       <c r="B40" t="s">
-        <v>220</v>
+        <v>156</v>
       </c>
       <c r="C40" t="s">
-        <v>185</v>
+        <v>357</v>
       </c>
       <c r="D40" t="s">
-        <v>221</v>
+        <v>162</v>
       </c>
       <c r="E40" t="s">
-        <v>222</v>
+        <v>163</v>
+      </c>
+      <c r="F40" t="s">
+        <v>164</v>
       </c>
       <c r="G40" t="s">
-        <v>485</v>
+        <v>166</v>
       </c>
       <c r="H40" t="s">
-        <v>560</v>
-      </c>
-      <c r="O40">
-        <v>1</v>
-      </c>
-      <c r="T40">
+        <v>165</v>
+      </c>
+      <c r="J40">
+        <v>1</v>
+      </c>
+      <c r="K40">
         <v>1</v>
       </c>
     </row>
@@ -3950,30 +4131,27 @@
         <v>154</v>
       </c>
       <c r="B41" t="s">
-        <v>223</v>
+        <v>167</v>
       </c>
       <c r="C41" t="s">
         <v>168</v>
       </c>
       <c r="D41" t="s">
-        <v>224</v>
+        <v>169</v>
       </c>
       <c r="E41" t="s">
-        <v>225</v>
+        <v>172</v>
       </c>
       <c r="F41" t="s">
-        <v>226</v>
+        <v>173</v>
       </c>
       <c r="G41" t="s">
-        <v>486</v>
+        <v>171</v>
       </c>
       <c r="H41" t="s">
-        <v>561</v>
-      </c>
-      <c r="L41">
-        <v>1</v>
-      </c>
-      <c r="T41">
+        <v>170</v>
+      </c>
+      <c r="K41">
         <v>1</v>
       </c>
     </row>
@@ -3982,36 +4160,21 @@
         <v>154</v>
       </c>
       <c r="B42" t="s">
-        <v>227</v>
-      </c>
-      <c r="C42" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="D42" t="s">
-        <v>228</v>
+        <v>175</v>
       </c>
       <c r="E42" t="s">
-        <v>229</v>
-      </c>
-      <c r="F42" t="s">
-        <v>230</v>
+        <v>176</v>
       </c>
       <c r="G42" t="s">
-        <v>487</v>
+        <v>474</v>
       </c>
       <c r="H42" t="s">
-        <v>562</v>
-      </c>
-      <c r="L42">
-        <v>1</v>
-      </c>
-      <c r="O42">
-        <v>1</v>
-      </c>
-      <c r="R42">
-        <v>1</v>
-      </c>
-      <c r="T42">
+        <v>549</v>
+      </c>
+      <c r="K42">
         <v>1</v>
       </c>
     </row>
@@ -4020,30 +4183,27 @@
         <v>154</v>
       </c>
       <c r="B43" t="s">
-        <v>231</v>
+        <v>177</v>
       </c>
       <c r="C43" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="D43" t="s">
-        <v>232</v>
+        <v>179</v>
       </c>
       <c r="E43" t="s">
-        <v>233</v>
+        <v>180</v>
       </c>
       <c r="F43" t="s">
-        <v>234</v>
+        <v>181</v>
       </c>
       <c r="G43" t="s">
-        <v>488</v>
+        <v>475</v>
       </c>
       <c r="H43" t="s">
-        <v>563</v>
-      </c>
-      <c r="L43">
-        <v>1</v>
-      </c>
-      <c r="N43">
+        <v>550</v>
+      </c>
+      <c r="K43">
         <v>1</v>
       </c>
     </row>
@@ -4052,27 +4212,24 @@
         <v>154</v>
       </c>
       <c r="B44" t="s">
-        <v>235</v>
+        <v>182</v>
       </c>
       <c r="C44" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="D44" t="s">
-        <v>236</v>
+        <v>183</v>
       </c>
       <c r="E44" t="s">
-        <v>237</v>
+        <v>184</v>
       </c>
       <c r="G44" t="s">
-        <v>489</v>
+        <v>476</v>
       </c>
       <c r="H44" t="s">
-        <v>564</v>
-      </c>
-      <c r="R44">
-        <v>1</v>
-      </c>
-      <c r="T44">
+        <v>551</v>
+      </c>
+      <c r="K44">
         <v>1</v>
       </c>
     </row>
@@ -4081,30 +4238,27 @@
         <v>154</v>
       </c>
       <c r="B45" t="s">
-        <v>238</v>
+        <v>186</v>
       </c>
       <c r="C45" t="s">
         <v>185</v>
       </c>
       <c r="D45" t="s">
-        <v>239</v>
+        <v>187</v>
       </c>
       <c r="E45" t="s">
-        <v>240</v>
+        <v>188</v>
       </c>
       <c r="F45" t="s">
-        <v>241</v>
+        <v>189</v>
       </c>
       <c r="G45" t="s">
-        <v>490</v>
+        <v>477</v>
       </c>
       <c r="H45" t="s">
-        <v>565</v>
-      </c>
-      <c r="N45">
-        <v>1</v>
-      </c>
-      <c r="O45">
+        <v>552</v>
+      </c>
+      <c r="K45">
         <v>1</v>
       </c>
     </row>
@@ -4113,24 +4267,27 @@
         <v>154</v>
       </c>
       <c r="B46" t="s">
-        <v>242</v>
+        <v>190</v>
       </c>
       <c r="C46" t="s">
-        <v>243</v>
+        <v>191</v>
       </c>
       <c r="D46" t="s">
-        <v>244</v>
+        <v>192</v>
       </c>
       <c r="E46" t="s">
-        <v>245</v>
+        <v>193</v>
+      </c>
+      <c r="F46" t="s">
+        <v>194</v>
       </c>
       <c r="G46" t="s">
-        <v>491</v>
+        <v>478</v>
       </c>
       <c r="H46" t="s">
-        <v>566</v>
-      </c>
-      <c r="M46">
+        <v>553</v>
+      </c>
+      <c r="K46">
         <v>1</v>
       </c>
     </row>
@@ -4139,30 +4296,24 @@
         <v>154</v>
       </c>
       <c r="B47" t="s">
-        <v>246</v>
+        <v>195</v>
       </c>
       <c r="C47" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="D47" t="s">
-        <v>247</v>
+        <v>197</v>
       </c>
       <c r="E47" t="s">
-        <v>248</v>
-      </c>
-      <c r="F47" t="s">
-        <v>249</v>
+        <v>198</v>
       </c>
       <c r="G47" t="s">
-        <v>492</v>
+        <v>479</v>
       </c>
       <c r="H47" t="s">
-        <v>567</v>
-      </c>
-      <c r="R47">
-        <v>1</v>
-      </c>
-      <c r="T47">
+        <v>554</v>
+      </c>
+      <c r="K47">
         <v>1</v>
       </c>
     </row>
@@ -4171,485 +4322,521 @@
         <v>154</v>
       </c>
       <c r="B48" t="s">
-        <v>250</v>
+        <v>199</v>
       </c>
       <c r="C48" t="s">
-        <v>251</v>
+        <v>358</v>
       </c>
       <c r="D48" t="s">
-        <v>252</v>
+        <v>200</v>
       </c>
       <c r="E48" t="s">
-        <v>253</v>
+        <v>201</v>
       </c>
       <c r="F48" t="s">
-        <v>254</v>
+        <v>202</v>
       </c>
       <c r="G48" t="s">
-        <v>493</v>
+        <v>480</v>
       </c>
       <c r="H48" t="s">
-        <v>568</v>
-      </c>
-      <c r="O48">
-        <v>1</v>
-      </c>
-      <c r="R48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
+        <v>555</v>
+      </c>
+      <c r="K48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>154</v>
       </c>
       <c r="B49" t="s">
-        <v>255</v>
+        <v>203</v>
       </c>
       <c r="C49" t="s">
+        <v>205</v>
+      </c>
+      <c r="D49" t="s">
+        <v>206</v>
+      </c>
+      <c r="E49" t="s">
+        <v>207</v>
+      </c>
+      <c r="F49" t="s">
+        <v>204</v>
+      </c>
+      <c r="G49" t="s">
+        <v>481</v>
+      </c>
+      <c r="H49" t="s">
+        <v>556</v>
+      </c>
+      <c r="K49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>154</v>
+      </c>
+      <c r="B50" t="s">
+        <v>208</v>
+      </c>
+      <c r="C50" t="s">
+        <v>209</v>
+      </c>
+      <c r="D50" t="s">
+        <v>210</v>
+      </c>
+      <c r="E50" t="s">
+        <v>211</v>
+      </c>
+      <c r="F50" t="s">
+        <v>212</v>
+      </c>
+      <c r="G50" t="s">
+        <v>482</v>
+      </c>
+      <c r="H50" t="s">
+        <v>557</v>
+      </c>
+      <c r="K50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>154</v>
+      </c>
+      <c r="B51" t="s">
+        <v>213</v>
+      </c>
+      <c r="C51" t="s">
         <v>168</v>
       </c>
-      <c r="D49" t="s">
-        <v>260</v>
-      </c>
-      <c r="E49" t="s">
-        <v>256</v>
-      </c>
-      <c r="F49" t="s">
-        <v>257</v>
-      </c>
-      <c r="G49" t="s">
-        <v>494</v>
-      </c>
-      <c r="H49" t="s">
-        <v>569</v>
-      </c>
-      <c r="Q49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>154</v>
-      </c>
-      <c r="B50" t="s">
-        <v>262</v>
-      </c>
-      <c r="C50" t="s">
+      <c r="D51" t="s">
+        <v>214</v>
+      </c>
+      <c r="E51" t="s">
+        <v>215</v>
+      </c>
+      <c r="G51" t="s">
+        <v>483</v>
+      </c>
+      <c r="H51" t="s">
+        <v>558</v>
+      </c>
+      <c r="I51">
+        <v>1</v>
+      </c>
+      <c r="O51">
+        <v>1</v>
+      </c>
+      <c r="T51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>154</v>
+      </c>
+      <c r="B52" t="s">
+        <v>216</v>
+      </c>
+      <c r="C52" t="s">
+        <v>205</v>
+      </c>
+      <c r="D52" t="s">
+        <v>217</v>
+      </c>
+      <c r="E52" t="s">
+        <v>218</v>
+      </c>
+      <c r="F52" t="s">
+        <v>219</v>
+      </c>
+      <c r="G52" t="s">
+        <v>484</v>
+      </c>
+      <c r="H52" t="s">
+        <v>559</v>
+      </c>
+      <c r="I52">
+        <v>1</v>
+      </c>
+      <c r="O52">
+        <v>1</v>
+      </c>
+      <c r="T52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>154</v>
+      </c>
+      <c r="B53" t="s">
+        <v>220</v>
+      </c>
+      <c r="C53" t="s">
+        <v>185</v>
+      </c>
+      <c r="D53" t="s">
+        <v>221</v>
+      </c>
+      <c r="E53" t="s">
+        <v>222</v>
+      </c>
+      <c r="G53" t="s">
+        <v>485</v>
+      </c>
+      <c r="H53" t="s">
+        <v>560</v>
+      </c>
+      <c r="O53">
+        <v>1</v>
+      </c>
+      <c r="T53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>154</v>
+      </c>
+      <c r="B54" t="s">
+        <v>223</v>
+      </c>
+      <c r="C54" t="s">
         <v>168</v>
       </c>
-      <c r="D50" t="s">
-        <v>263</v>
-      </c>
-      <c r="E50" t="s">
-        <v>264</v>
-      </c>
-      <c r="F50" t="s">
-        <v>265</v>
-      </c>
-      <c r="G50" t="s">
-        <v>495</v>
-      </c>
-      <c r="H50" t="s">
-        <v>570</v>
-      </c>
-      <c r="L50">
-        <v>1</v>
-      </c>
-      <c r="R50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>154</v>
-      </c>
-      <c r="B51" t="s">
-        <v>266</v>
-      </c>
-      <c r="C51" t="s">
-        <v>209</v>
-      </c>
-      <c r="D51" t="s">
-        <v>267</v>
-      </c>
-      <c r="E51" t="s">
-        <v>268</v>
-      </c>
-      <c r="G51" t="s">
-        <v>496</v>
-      </c>
-      <c r="H51" t="s">
-        <v>571</v>
-      </c>
-      <c r="Q51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>154</v>
-      </c>
-      <c r="B52" t="s">
-        <v>269</v>
-      </c>
-      <c r="C52" t="s">
-        <v>185</v>
-      </c>
-      <c r="D52" t="s">
-        <v>270</v>
-      </c>
-      <c r="E52" t="s">
-        <v>271</v>
-      </c>
-      <c r="F52" t="s">
-        <v>272</v>
-      </c>
-      <c r="G52" t="s">
-        <v>497</v>
-      </c>
-      <c r="H52" t="s">
-        <v>572</v>
-      </c>
-      <c r="L52">
-        <v>1</v>
-      </c>
-      <c r="Q52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>154</v>
-      </c>
-      <c r="B53" t="s">
-        <v>273</v>
-      </c>
-      <c r="C53" t="s">
-        <v>357</v>
-      </c>
-      <c r="D53" t="s">
-        <v>275</v>
-      </c>
-      <c r="E53" t="s">
-        <v>359</v>
-      </c>
-      <c r="F53" t="s">
-        <v>274</v>
-      </c>
-      <c r="G53" t="s">
-        <v>498</v>
-      </c>
-      <c r="H53" t="s">
-        <v>573</v>
-      </c>
-      <c r="M53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>154</v>
-      </c>
-      <c r="B54" t="s">
-        <v>276</v>
-      </c>
-      <c r="C54" t="s">
-        <v>191</v>
-      </c>
       <c r="D54" t="s">
-        <v>277</v>
+        <v>224</v>
       </c>
       <c r="E54" t="s">
-        <v>278</v>
+        <v>225</v>
       </c>
       <c r="F54" t="s">
-        <v>279</v>
+        <v>226</v>
       </c>
       <c r="G54" t="s">
-        <v>499</v>
+        <v>486</v>
       </c>
       <c r="H54" t="s">
-        <v>574</v>
-      </c>
-      <c r="M54">
-        <v>1</v>
-      </c>
-      <c r="N54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.2">
+        <v>561</v>
+      </c>
+      <c r="L54">
+        <v>1</v>
+      </c>
+      <c r="T54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>154</v>
       </c>
       <c r="B55" t="s">
-        <v>280</v>
+        <v>227</v>
       </c>
       <c r="C55" t="s">
         <v>168</v>
       </c>
       <c r="D55" t="s">
-        <v>281</v>
+        <v>228</v>
       </c>
       <c r="E55" t="s">
-        <v>282</v>
+        <v>229</v>
       </c>
       <c r="F55" t="s">
-        <v>283</v>
+        <v>230</v>
       </c>
       <c r="G55" t="s">
-        <v>500</v>
+        <v>487</v>
       </c>
       <c r="H55" t="s">
-        <v>575</v>
-      </c>
-      <c r="M55">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.2">
+        <v>562</v>
+      </c>
+      <c r="L55">
+        <v>1</v>
+      </c>
+      <c r="O55">
+        <v>1</v>
+      </c>
+      <c r="R55">
+        <v>1</v>
+      </c>
+      <c r="T55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>154</v>
       </c>
       <c r="B56" t="s">
-        <v>284</v>
+        <v>231</v>
       </c>
       <c r="C56" t="s">
+        <v>185</v>
+      </c>
+      <c r="D56" t="s">
+        <v>232</v>
+      </c>
+      <c r="E56" t="s">
+        <v>233</v>
+      </c>
+      <c r="F56" t="s">
+        <v>234</v>
+      </c>
+      <c r="G56" t="s">
+        <v>488</v>
+      </c>
+      <c r="H56" t="s">
+        <v>563</v>
+      </c>
+      <c r="L56">
+        <v>1</v>
+      </c>
+      <c r="N56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>154</v>
+      </c>
+      <c r="B57" t="s">
+        <v>235</v>
+      </c>
+      <c r="C57" t="s">
         <v>168</v>
       </c>
-      <c r="D56" t="s">
-        <v>285</v>
-      </c>
-      <c r="E56" t="s">
-        <v>287</v>
-      </c>
-      <c r="F56" t="s">
-        <v>286</v>
-      </c>
-      <c r="G56" t="s">
-        <v>501</v>
-      </c>
-      <c r="H56" t="s">
-        <v>576</v>
-      </c>
-      <c r="M56">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>154</v>
-      </c>
-      <c r="B57" t="s">
-        <v>288</v>
-      </c>
-      <c r="C57" t="s">
-        <v>289</v>
-      </c>
       <c r="D57" t="s">
-        <v>291</v>
+        <v>236</v>
       </c>
       <c r="E57" t="s">
-        <v>292</v>
-      </c>
-      <c r="F57" t="s">
-        <v>293</v>
+        <v>237</v>
       </c>
       <c r="G57" t="s">
-        <v>502</v>
+        <v>489</v>
       </c>
       <c r="H57" t="s">
-        <v>577</v>
-      </c>
-      <c r="M57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.2">
+        <v>564</v>
+      </c>
+      <c r="R57">
+        <v>1</v>
+      </c>
+      <c r="T57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>154</v>
       </c>
       <c r="B58" t="s">
-        <v>294</v>
+        <v>238</v>
+      </c>
+      <c r="C58" t="s">
+        <v>185</v>
       </c>
       <c r="D58" t="s">
-        <v>295</v>
+        <v>239</v>
       </c>
       <c r="E58" t="s">
-        <v>296</v>
+        <v>240</v>
+      </c>
+      <c r="F58" t="s">
+        <v>241</v>
       </c>
       <c r="G58" t="s">
-        <v>503</v>
+        <v>490</v>
       </c>
       <c r="H58" t="s">
-        <v>578</v>
-      </c>
-      <c r="M58">
-        <v>1</v>
-      </c>
-      <c r="R58">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.2">
+        <v>565</v>
+      </c>
+      <c r="N58">
+        <v>1</v>
+      </c>
+      <c r="O58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>154</v>
       </c>
       <c r="B59" t="s">
-        <v>297</v>
+        <v>242</v>
       </c>
       <c r="C59" t="s">
-        <v>298</v>
+        <v>243</v>
       </c>
       <c r="D59" t="s">
-        <v>299</v>
+        <v>244</v>
       </c>
       <c r="E59" t="s">
-        <v>300</v>
-      </c>
-      <c r="F59" t="s">
-        <v>301</v>
+        <v>245</v>
       </c>
       <c r="G59" t="s">
-        <v>504</v>
+        <v>491</v>
       </c>
       <c r="H59" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.2">
+        <v>566</v>
+      </c>
+      <c r="M59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>154</v>
       </c>
       <c r="B60" t="s">
-        <v>302</v>
+        <v>246</v>
       </c>
       <c r="C60" t="s">
+        <v>185</v>
+      </c>
+      <c r="D60" t="s">
+        <v>247</v>
+      </c>
+      <c r="E60" t="s">
+        <v>248</v>
+      </c>
+      <c r="F60" t="s">
+        <v>249</v>
+      </c>
+      <c r="G60" t="s">
+        <v>492</v>
+      </c>
+      <c r="H60" t="s">
+        <v>567</v>
+      </c>
+      <c r="R60">
+        <v>1</v>
+      </c>
+      <c r="T60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>154</v>
+      </c>
+      <c r="B61" t="s">
+        <v>250</v>
+      </c>
+      <c r="C61" t="s">
+        <v>251</v>
+      </c>
+      <c r="D61" t="s">
+        <v>252</v>
+      </c>
+      <c r="E61" t="s">
+        <v>253</v>
+      </c>
+      <c r="F61" t="s">
+        <v>254</v>
+      </c>
+      <c r="G61" t="s">
+        <v>493</v>
+      </c>
+      <c r="H61" t="s">
+        <v>568</v>
+      </c>
+      <c r="O61">
+        <v>1</v>
+      </c>
+      <c r="R61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>154</v>
+      </c>
+      <c r="B62" t="s">
+        <v>255</v>
+      </c>
+      <c r="C62" t="s">
         <v>168</v>
       </c>
-      <c r="D60" t="s">
-        <v>303</v>
-      </c>
-      <c r="E60" t="s">
-        <v>304</v>
-      </c>
-      <c r="F60" t="s">
-        <v>305</v>
-      </c>
-      <c r="G60" t="s">
-        <v>505</v>
-      </c>
-      <c r="H60" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
-        <v>154</v>
-      </c>
-      <c r="B61" t="s">
-        <v>306</v>
-      </c>
-      <c r="D61" t="s">
-        <v>307</v>
-      </c>
-      <c r="E61" t="s">
-        <v>308</v>
-      </c>
-      <c r="G61" t="s">
-        <v>506</v>
-      </c>
-      <c r="H61" t="s">
-        <v>581</v>
-      </c>
-      <c r="J61">
-        <v>1</v>
-      </c>
-      <c r="M61">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
-        <v>154</v>
-      </c>
-      <c r="B62" t="s">
-        <v>309</v>
-      </c>
       <c r="D62" t="s">
-        <v>310</v>
+        <v>260</v>
       </c>
       <c r="E62" t="s">
-        <v>311</v>
+        <v>256</v>
+      </c>
+      <c r="F62" t="s">
+        <v>257</v>
       </c>
       <c r="G62" t="s">
-        <v>507</v>
+        <v>494</v>
       </c>
       <c r="H62" t="s">
-        <v>582</v>
-      </c>
-      <c r="M62">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.2">
+        <v>569</v>
+      </c>
+      <c r="Q62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>154</v>
       </c>
       <c r="B63" t="s">
-        <v>312</v>
+        <v>262</v>
       </c>
       <c r="C63" t="s">
-        <v>185</v>
+        <v>168</v>
       </c>
       <c r="D63" t="s">
-        <v>471</v>
+        <v>263</v>
       </c>
       <c r="E63" t="s">
-        <v>313</v>
+        <v>264</v>
       </c>
       <c r="F63" t="s">
-        <v>314</v>
+        <v>265</v>
       </c>
       <c r="G63" t="s">
-        <v>508</v>
+        <v>495</v>
       </c>
       <c r="H63" t="s">
-        <v>583</v>
-      </c>
-      <c r="M63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.2">
+        <v>570</v>
+      </c>
+      <c r="L63">
+        <v>1</v>
+      </c>
+      <c r="R63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>154</v>
       </c>
       <c r="B64" t="s">
-        <v>315</v>
+        <v>266</v>
       </c>
       <c r="C64" t="s">
-        <v>185</v>
+        <v>209</v>
       </c>
       <c r="D64" t="s">
-        <v>316</v>
+        <v>267</v>
       </c>
       <c r="E64" t="s">
-        <v>317</v>
-      </c>
-      <c r="F64" t="s">
-        <v>318</v>
+        <v>268</v>
       </c>
       <c r="G64" t="s">
-        <v>509</v>
+        <v>496</v>
       </c>
       <c r="H64" t="s">
-        <v>584</v>
-      </c>
-      <c r="M64">
-        <v>1</v>
-      </c>
-      <c r="N64">
+        <v>571</v>
+      </c>
+      <c r="Q64">
         <v>1</v>
       </c>
     </row>
@@ -4658,27 +4845,30 @@
         <v>154</v>
       </c>
       <c r="B65" t="s">
-        <v>319</v>
+        <v>269</v>
       </c>
       <c r="C65" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="D65" t="s">
-        <v>320</v>
+        <v>270</v>
       </c>
       <c r="E65" t="s">
-        <v>321</v>
+        <v>271</v>
       </c>
       <c r="F65" t="s">
-        <v>322</v>
+        <v>272</v>
       </c>
       <c r="G65" t="s">
-        <v>510</v>
+        <v>497</v>
       </c>
       <c r="H65" t="s">
-        <v>585</v>
-      </c>
-      <c r="M65">
+        <v>572</v>
+      </c>
+      <c r="L65">
+        <v>1</v>
+      </c>
+      <c r="Q65">
         <v>1</v>
       </c>
     </row>
@@ -4687,25 +4877,25 @@
         <v>154</v>
       </c>
       <c r="B66" t="s">
-        <v>323</v>
+        <v>273</v>
       </c>
       <c r="C66" t="s">
-        <v>205</v>
+        <v>357</v>
       </c>
       <c r="D66" t="s">
-        <v>324</v>
+        <v>275</v>
       </c>
       <c r="E66" t="s">
-        <v>325</v>
+        <v>359</v>
       </c>
       <c r="F66" t="s">
-        <v>326</v>
+        <v>274</v>
       </c>
       <c r="G66" t="s">
-        <v>511</v>
+        <v>498</v>
       </c>
       <c r="H66" t="s">
-        <v>586</v>
+        <v>573</v>
       </c>
       <c r="M66">
         <v>1</v>
@@ -4716,30 +4906,30 @@
         <v>154</v>
       </c>
       <c r="B67" t="s">
-        <v>327</v>
+        <v>276</v>
       </c>
       <c r="C67" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="D67" t="s">
-        <v>472</v>
+        <v>277</v>
       </c>
       <c r="E67" t="s">
-        <v>328</v>
+        <v>278</v>
       </c>
       <c r="F67" t="s">
-        <v>329</v>
+        <v>279</v>
       </c>
       <c r="G67" t="s">
-        <v>512</v>
+        <v>499</v>
       </c>
       <c r="H67" t="s">
-        <v>587</v>
+        <v>574</v>
       </c>
       <c r="M67">
         <v>1</v>
       </c>
-      <c r="S67">
+      <c r="N67">
         <v>1</v>
       </c>
     </row>
@@ -4748,27 +4938,27 @@
         <v>154</v>
       </c>
       <c r="B68" t="s">
-        <v>330</v>
+        <v>280</v>
       </c>
       <c r="C68" t="s">
-        <v>185</v>
+        <v>168</v>
       </c>
       <c r="D68" t="s">
-        <v>331</v>
+        <v>281</v>
       </c>
       <c r="E68" t="s">
-        <v>332</v>
+        <v>282</v>
       </c>
       <c r="F68" t="s">
-        <v>333</v>
+        <v>283</v>
       </c>
       <c r="G68" t="s">
-        <v>513</v>
+        <v>500</v>
       </c>
       <c r="H68" t="s">
-        <v>588</v>
-      </c>
-      <c r="N68">
+        <v>575</v>
+      </c>
+      <c r="M68">
         <v>1</v>
       </c>
     </row>
@@ -4777,27 +4967,27 @@
         <v>154</v>
       </c>
       <c r="B69" t="s">
-        <v>334</v>
+        <v>284</v>
       </c>
       <c r="C69" t="s">
-        <v>360</v>
+        <v>168</v>
       </c>
       <c r="D69" t="s">
-        <v>335</v>
+        <v>285</v>
       </c>
       <c r="E69" t="s">
-        <v>336</v>
+        <v>287</v>
       </c>
       <c r="F69" t="s">
-        <v>337</v>
+        <v>286</v>
       </c>
       <c r="G69" t="s">
-        <v>514</v>
+        <v>501</v>
       </c>
       <c r="H69" t="s">
-        <v>589</v>
-      </c>
-      <c r="L69">
+        <v>576</v>
+      </c>
+      <c r="M69">
         <v>1</v>
       </c>
     </row>
@@ -4806,30 +4996,27 @@
         <v>154</v>
       </c>
       <c r="B70" t="s">
-        <v>338</v>
+        <v>288</v>
       </c>
       <c r="C70" t="s">
-        <v>191</v>
+        <v>289</v>
       </c>
       <c r="D70" t="s">
-        <v>339</v>
+        <v>291</v>
       </c>
       <c r="E70" t="s">
-        <v>341</v>
+        <v>292</v>
       </c>
       <c r="F70" t="s">
-        <v>340</v>
+        <v>293</v>
       </c>
       <c r="G70" t="s">
-        <v>515</v>
+        <v>502</v>
       </c>
       <c r="H70" t="s">
-        <v>590</v>
+        <v>577</v>
       </c>
       <c r="M70">
-        <v>1</v>
-      </c>
-      <c r="P70">
         <v>1</v>
       </c>
     </row>
@@ -4838,27 +5025,24 @@
         <v>154</v>
       </c>
       <c r="B71" t="s">
-        <v>342</v>
-      </c>
-      <c r="C71" t="s">
-        <v>343</v>
+        <v>294</v>
       </c>
       <c r="D71" t="s">
-        <v>344</v>
+        <v>295</v>
       </c>
       <c r="E71" t="s">
-        <v>345</v>
-      </c>
-      <c r="F71" t="s">
-        <v>346</v>
+        <v>296</v>
       </c>
       <c r="G71" t="s">
-        <v>516</v>
+        <v>503</v>
       </c>
       <c r="H71" t="s">
-        <v>591</v>
+        <v>578</v>
       </c>
       <c r="M71">
+        <v>1</v>
+      </c>
+      <c r="R71">
         <v>1</v>
       </c>
     </row>
@@ -4867,28 +5051,25 @@
         <v>154</v>
       </c>
       <c r="B72" t="s">
-        <v>347</v>
+        <v>297</v>
       </c>
       <c r="C72" t="s">
-        <v>209</v>
+        <v>298</v>
       </c>
       <c r="D72" t="s">
-        <v>348</v>
+        <v>299</v>
       </c>
       <c r="E72" t="s">
-        <v>349</v>
+        <v>300</v>
       </c>
       <c r="F72" t="s">
-        <v>350</v>
+        <v>301</v>
       </c>
       <c r="G72" t="s">
-        <v>517</v>
+        <v>504</v>
       </c>
       <c r="H72" t="s">
-        <v>592</v>
-      </c>
-      <c r="I72">
-        <v>1</v>
+        <v>579</v>
       </c>
     </row>
     <row r="73" spans="1:19" x14ac:dyDescent="0.2">
@@ -4896,28 +5077,25 @@
         <v>154</v>
       </c>
       <c r="B73" t="s">
-        <v>351</v>
+        <v>302</v>
       </c>
       <c r="C73" t="s">
-        <v>352</v>
+        <v>168</v>
       </c>
       <c r="D73" t="s">
-        <v>353</v>
+        <v>303</v>
       </c>
       <c r="E73" t="s">
-        <v>354</v>
+        <v>304</v>
       </c>
       <c r="F73" t="s">
-        <v>355</v>
+        <v>305</v>
       </c>
       <c r="G73" t="s">
-        <v>518</v>
+        <v>505</v>
       </c>
       <c r="H73" t="s">
-        <v>593</v>
-      </c>
-      <c r="O73">
-        <v>1</v>
+        <v>580</v>
       </c>
     </row>
     <row r="74" spans="1:19" x14ac:dyDescent="0.2">
@@ -4925,30 +5103,24 @@
         <v>154</v>
       </c>
       <c r="B74" t="s">
-        <v>356</v>
-      </c>
-      <c r="C74" t="s">
-        <v>360</v>
+        <v>306</v>
       </c>
       <c r="D74" t="s">
-        <v>361</v>
+        <v>307</v>
       </c>
       <c r="E74" t="s">
-        <v>362</v>
-      </c>
-      <c r="F74" t="s">
-        <v>363</v>
+        <v>308</v>
       </c>
       <c r="G74" t="s">
-        <v>519</v>
+        <v>506</v>
       </c>
       <c r="H74" t="s">
-        <v>594</v>
-      </c>
-      <c r="O74">
-        <v>1</v>
-      </c>
-      <c r="R74">
+        <v>581</v>
+      </c>
+      <c r="J74">
+        <v>1</v>
+      </c>
+      <c r="M74">
         <v>1</v>
       </c>
     </row>
@@ -4957,24 +5129,21 @@
         <v>154</v>
       </c>
       <c r="B75" t="s">
-        <v>365</v>
+        <v>309</v>
       </c>
       <c r="D75" t="s">
-        <v>473</v>
+        <v>310</v>
       </c>
       <c r="E75" t="s">
-        <v>364</v>
-      </c>
-      <c r="F75" t="s">
-        <v>366</v>
+        <v>311</v>
       </c>
       <c r="G75" t="s">
-        <v>520</v>
+        <v>507</v>
       </c>
       <c r="H75" t="s">
-        <v>595</v>
-      </c>
-      <c r="O75">
+        <v>582</v>
+      </c>
+      <c r="M75">
         <v>1</v>
       </c>
     </row>
@@ -4983,27 +5152,27 @@
         <v>154</v>
       </c>
       <c r="B76" t="s">
-        <v>367</v>
+        <v>312</v>
       </c>
       <c r="C76" t="s">
         <v>185</v>
       </c>
       <c r="D76" t="s">
-        <v>368</v>
+        <v>471</v>
       </c>
       <c r="E76" t="s">
-        <v>369</v>
+        <v>313</v>
+      </c>
+      <c r="F76" t="s">
+        <v>314</v>
       </c>
       <c r="G76" t="s">
-        <v>521</v>
+        <v>508</v>
       </c>
       <c r="H76" t="s">
-        <v>596</v>
-      </c>
-      <c r="K76">
-        <v>1</v>
-      </c>
-      <c r="O76">
+        <v>583</v>
+      </c>
+      <c r="M76">
         <v>1</v>
       </c>
     </row>
@@ -5012,27 +5181,30 @@
         <v>154</v>
       </c>
       <c r="B77" t="s">
-        <v>370</v>
+        <v>315</v>
       </c>
       <c r="C77" t="s">
-        <v>205</v>
+        <v>185</v>
       </c>
       <c r="D77" t="s">
-        <v>371</v>
+        <v>316</v>
       </c>
       <c r="E77" t="s">
-        <v>372</v>
+        <v>317</v>
       </c>
       <c r="F77" t="s">
-        <v>373</v>
+        <v>318</v>
       </c>
       <c r="G77" t="s">
-        <v>522</v>
+        <v>509</v>
       </c>
       <c r="H77" t="s">
-        <v>597</v>
-      </c>
-      <c r="O77">
+        <v>584</v>
+      </c>
+      <c r="M77">
+        <v>1</v>
+      </c>
+      <c r="N77">
         <v>1</v>
       </c>
     </row>
@@ -5041,27 +5213,27 @@
         <v>154</v>
       </c>
       <c r="B78" t="s">
-        <v>374</v>
+        <v>319</v>
       </c>
       <c r="C78" t="s">
-        <v>191</v>
+        <v>168</v>
       </c>
       <c r="D78" t="s">
-        <v>375</v>
+        <v>320</v>
       </c>
       <c r="E78" t="s">
-        <v>376</v>
+        <v>321</v>
+      </c>
+      <c r="F78" t="s">
+        <v>322</v>
       </c>
       <c r="G78" t="s">
-        <v>523</v>
+        <v>510</v>
       </c>
       <c r="H78" t="s">
-        <v>598</v>
+        <v>585</v>
       </c>
       <c r="M78">
-        <v>1</v>
-      </c>
-      <c r="O78">
         <v>1</v>
       </c>
     </row>
@@ -5070,27 +5242,27 @@
         <v>154</v>
       </c>
       <c r="B79" t="s">
-        <v>377</v>
+        <v>323</v>
       </c>
       <c r="C79" t="s">
-        <v>191</v>
+        <v>205</v>
       </c>
       <c r="D79" t="s">
-        <v>378</v>
+        <v>324</v>
       </c>
       <c r="E79" t="s">
-        <v>379</v>
+        <v>325</v>
       </c>
       <c r="F79" t="s">
-        <v>380</v>
+        <v>326</v>
       </c>
       <c r="G79" t="s">
-        <v>524</v>
+        <v>511</v>
       </c>
       <c r="H79" t="s">
-        <v>599</v>
-      </c>
-      <c r="O79">
+        <v>586</v>
+      </c>
+      <c r="M79">
         <v>1</v>
       </c>
     </row>
@@ -5099,759 +5271,1142 @@
         <v>154</v>
       </c>
       <c r="B80" t="s">
-        <v>381</v>
+        <v>327</v>
       </c>
       <c r="C80" t="s">
         <v>185</v>
       </c>
       <c r="D80" t="s">
-        <v>382</v>
+        <v>472</v>
       </c>
       <c r="E80" t="s">
-        <v>383</v>
+        <v>328</v>
       </c>
       <c r="F80" t="s">
-        <v>384</v>
+        <v>329</v>
       </c>
       <c r="G80" t="s">
-        <v>525</v>
+        <v>512</v>
       </c>
       <c r="H80" t="s">
-        <v>600</v>
-      </c>
-      <c r="O80">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:20" x14ac:dyDescent="0.2">
+        <v>587</v>
+      </c>
+      <c r="M80">
+        <v>1</v>
+      </c>
+      <c r="S80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>154</v>
       </c>
       <c r="B81" t="s">
-        <v>385</v>
+        <v>330</v>
       </c>
       <c r="C81" t="s">
         <v>185</v>
       </c>
       <c r="D81" t="s">
-        <v>386</v>
+        <v>331</v>
       </c>
       <c r="E81" t="s">
-        <v>387</v>
+        <v>332</v>
       </c>
       <c r="F81" t="s">
-        <v>388</v>
+        <v>333</v>
       </c>
       <c r="G81" t="s">
-        <v>526</v>
+        <v>513</v>
       </c>
       <c r="H81" t="s">
-        <v>601</v>
-      </c>
-      <c r="M81">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:20" x14ac:dyDescent="0.2">
+        <v>588</v>
+      </c>
+      <c r="N81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>154</v>
       </c>
       <c r="B82" t="s">
-        <v>389</v>
+        <v>334</v>
       </c>
       <c r="C82" t="s">
-        <v>168</v>
+        <v>360</v>
       </c>
       <c r="D82" t="s">
-        <v>390</v>
+        <v>335</v>
       </c>
       <c r="E82" t="s">
-        <v>391</v>
+        <v>336</v>
+      </c>
+      <c r="F82" t="s">
+        <v>337</v>
       </c>
       <c r="G82" t="s">
-        <v>527</v>
+        <v>514</v>
       </c>
       <c r="H82" t="s">
-        <v>602</v>
-      </c>
-      <c r="I82">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:20" x14ac:dyDescent="0.2">
+        <v>589</v>
+      </c>
+      <c r="L82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>154</v>
       </c>
       <c r="B83" t="s">
-        <v>392</v>
+        <v>338</v>
       </c>
       <c r="C83" t="s">
-        <v>289</v>
+        <v>191</v>
       </c>
       <c r="D83" t="s">
-        <v>393</v>
+        <v>339</v>
       </c>
       <c r="E83" t="s">
-        <v>394</v>
+        <v>341</v>
       </c>
       <c r="F83" t="s">
-        <v>395</v>
+        <v>340</v>
       </c>
       <c r="G83" t="s">
-        <v>528</v>
+        <v>515</v>
       </c>
       <c r="H83" t="s">
-        <v>603</v>
-      </c>
-      <c r="I83">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:20" x14ac:dyDescent="0.2">
+        <v>590</v>
+      </c>
+      <c r="M83">
+        <v>1</v>
+      </c>
+      <c r="P83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>154</v>
       </c>
       <c r="B84" t="s">
-        <v>397</v>
+        <v>342</v>
       </c>
       <c r="C84" t="s">
-        <v>398</v>
+        <v>343</v>
       </c>
       <c r="D84" t="s">
-        <v>399</v>
+        <v>344</v>
       </c>
       <c r="E84" t="s">
-        <v>396</v>
+        <v>345</v>
+      </c>
+      <c r="F84" t="s">
+        <v>346</v>
       </c>
       <c r="G84" t="s">
-        <v>529</v>
+        <v>516</v>
       </c>
       <c r="H84" t="s">
-        <v>604</v>
-      </c>
-      <c r="I84">
-        <v>1</v>
-      </c>
-      <c r="J84">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:20" x14ac:dyDescent="0.2">
+        <v>591</v>
+      </c>
+      <c r="M84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>154</v>
       </c>
       <c r="B85" t="s">
-        <v>400</v>
+        <v>347</v>
+      </c>
+      <c r="C85" t="s">
+        <v>209</v>
       </c>
       <c r="D85" t="s">
-        <v>401</v>
+        <v>348</v>
       </c>
       <c r="E85" t="s">
-        <v>403</v>
+        <v>349</v>
       </c>
       <c r="F85" t="s">
-        <v>402</v>
+        <v>350</v>
       </c>
       <c r="G85" t="s">
-        <v>530</v>
+        <v>517</v>
       </c>
       <c r="H85" t="s">
-        <v>605</v>
-      </c>
-      <c r="M85">
-        <v>1</v>
-      </c>
-      <c r="T85">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:20" x14ac:dyDescent="0.2">
+        <v>592</v>
+      </c>
+      <c r="I85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>154</v>
       </c>
       <c r="B86" t="s">
-        <v>404</v>
+        <v>351</v>
       </c>
       <c r="C86" t="s">
-        <v>289</v>
+        <v>352</v>
       </c>
       <c r="D86" t="s">
-        <v>405</v>
+        <v>353</v>
       </c>
       <c r="E86" t="s">
-        <v>406</v>
+        <v>354</v>
       </c>
       <c r="F86" t="s">
-        <v>407</v>
+        <v>355</v>
       </c>
       <c r="G86" t="s">
-        <v>531</v>
+        <v>518</v>
       </c>
       <c r="H86" t="s">
-        <v>606</v>
-      </c>
-      <c r="M86">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:20" x14ac:dyDescent="0.2">
+        <v>593</v>
+      </c>
+      <c r="O86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>154</v>
       </c>
       <c r="B87" t="s">
-        <v>408</v>
+        <v>356</v>
+      </c>
+      <c r="C87" t="s">
+        <v>360</v>
       </c>
       <c r="D87" t="s">
-        <v>409</v>
+        <v>361</v>
       </c>
       <c r="E87" t="s">
-        <v>410</v>
+        <v>362</v>
       </c>
       <c r="F87" t="s">
-        <v>410</v>
+        <v>363</v>
       </c>
       <c r="G87" t="s">
-        <v>532</v>
+        <v>519</v>
       </c>
       <c r="H87" t="s">
-        <v>607</v>
-      </c>
-      <c r="J87">
-        <v>1</v>
-      </c>
-      <c r="L87">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="1:20" x14ac:dyDescent="0.2">
+        <v>594</v>
+      </c>
+      <c r="O87">
+        <v>1</v>
+      </c>
+      <c r="R87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>154</v>
       </c>
       <c r="B88" t="s">
-        <v>411</v>
-      </c>
-      <c r="C88" t="s">
-        <v>289</v>
+        <v>365</v>
       </c>
       <c r="D88" t="s">
-        <v>412</v>
+        <v>473</v>
       </c>
       <c r="E88" t="s">
-        <v>413</v>
+        <v>364</v>
+      </c>
+      <c r="F88" t="s">
+        <v>366</v>
       </c>
       <c r="G88" t="s">
-        <v>533</v>
+        <v>520</v>
       </c>
       <c r="H88" t="s">
-        <v>608</v>
-      </c>
-      <c r="L88">
-        <v>1</v>
-      </c>
-      <c r="R88">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="1:20" x14ac:dyDescent="0.2">
+        <v>595</v>
+      </c>
+      <c r="O88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>154</v>
       </c>
       <c r="B89" t="s">
-        <v>414</v>
+        <v>367</v>
       </c>
       <c r="C89" t="s">
-        <v>289</v>
+        <v>185</v>
       </c>
       <c r="D89" t="s">
-        <v>415</v>
+        <v>368</v>
       </c>
       <c r="E89" t="s">
-        <v>416</v>
-      </c>
-      <c r="F89" t="s">
-        <v>417</v>
+        <v>369</v>
       </c>
       <c r="G89" t="s">
-        <v>534</v>
+        <v>521</v>
       </c>
       <c r="H89" t="s">
-        <v>609</v>
-      </c>
-      <c r="L89">
+        <v>596</v>
+      </c>
+      <c r="K89">
         <v>1</v>
       </c>
       <c r="O89">
         <v>1</v>
       </c>
-      <c r="T89">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="1:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="90" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>154</v>
       </c>
       <c r="B90" t="s">
-        <v>418</v>
+        <v>370</v>
       </c>
       <c r="C90" t="s">
-        <v>343</v>
+        <v>205</v>
       </c>
       <c r="D90" t="s">
-        <v>419</v>
+        <v>371</v>
       </c>
       <c r="E90" t="s">
-        <v>624</v>
+        <v>372</v>
+      </c>
+      <c r="F90" t="s">
+        <v>373</v>
       </c>
       <c r="G90" t="s">
-        <v>535</v>
+        <v>522</v>
       </c>
       <c r="H90" t="s">
-        <v>610</v>
-      </c>
-      <c r="J90">
-        <v>1</v>
-      </c>
-      <c r="P90">
-        <v>1</v>
-      </c>
-      <c r="S90">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="1:20" x14ac:dyDescent="0.2">
+        <v>597</v>
+      </c>
+      <c r="O90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>154</v>
       </c>
       <c r="B91" t="s">
-        <v>420</v>
+        <v>374</v>
       </c>
       <c r="C91" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="D91" t="s">
-        <v>421</v>
+        <v>375</v>
       </c>
       <c r="E91" t="s">
-        <v>422</v>
-      </c>
-      <c r="F91" t="s">
-        <v>423</v>
+        <v>376</v>
       </c>
       <c r="G91" t="s">
-        <v>536</v>
+        <v>523</v>
       </c>
       <c r="H91" t="s">
-        <v>611</v>
-      </c>
-      <c r="J91">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="1:20" x14ac:dyDescent="0.2">
+        <v>598</v>
+      </c>
+      <c r="M91">
+        <v>1</v>
+      </c>
+      <c r="O91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>154</v>
       </c>
       <c r="B92" t="s">
-        <v>427</v>
+        <v>377</v>
       </c>
       <c r="C92" t="s">
         <v>191</v>
       </c>
       <c r="D92" t="s">
-        <v>426</v>
+        <v>378</v>
       </c>
       <c r="E92" t="s">
-        <v>424</v>
+        <v>379</v>
       </c>
       <c r="F92" t="s">
-        <v>425</v>
+        <v>380</v>
       </c>
       <c r="G92" t="s">
-        <v>537</v>
+        <v>524</v>
       </c>
       <c r="H92" t="s">
-        <v>612</v>
-      </c>
-      <c r="S92">
-        <v>1</v>
-      </c>
-      <c r="T92">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:20" x14ac:dyDescent="0.2">
+        <v>599</v>
+      </c>
+      <c r="O92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>154</v>
       </c>
       <c r="B93" t="s">
-        <v>428</v>
+        <v>381</v>
       </c>
       <c r="C93" t="s">
         <v>185</v>
       </c>
       <c r="D93" t="s">
+        <v>382</v>
+      </c>
+      <c r="E93" t="s">
+        <v>383</v>
+      </c>
+      <c r="F93" t="s">
+        <v>384</v>
+      </c>
+      <c r="G93" t="s">
+        <v>525</v>
+      </c>
+      <c r="H93" t="s">
+        <v>600</v>
+      </c>
+      <c r="O93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>154</v>
+      </c>
+      <c r="B94" t="s">
+        <v>385</v>
+      </c>
+      <c r="C94" t="s">
+        <v>185</v>
+      </c>
+      <c r="D94" t="s">
+        <v>386</v>
+      </c>
+      <c r="E94" t="s">
+        <v>387</v>
+      </c>
+      <c r="F94" t="s">
+        <v>388</v>
+      </c>
+      <c r="G94" t="s">
+        <v>526</v>
+      </c>
+      <c r="H94" t="s">
+        <v>601</v>
+      </c>
+      <c r="M94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>154</v>
+      </c>
+      <c r="B95" t="s">
+        <v>389</v>
+      </c>
+      <c r="C95" t="s">
+        <v>168</v>
+      </c>
+      <c r="D95" t="s">
+        <v>390</v>
+      </c>
+      <c r="E95" t="s">
+        <v>391</v>
+      </c>
+      <c r="G95" t="s">
+        <v>527</v>
+      </c>
+      <c r="H95" t="s">
+        <v>602</v>
+      </c>
+      <c r="I95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>154</v>
+      </c>
+      <c r="B96" t="s">
+        <v>392</v>
+      </c>
+      <c r="C96" t="s">
+        <v>289</v>
+      </c>
+      <c r="D96" t="s">
+        <v>393</v>
+      </c>
+      <c r="E96" t="s">
+        <v>394</v>
+      </c>
+      <c r="F96" t="s">
+        <v>395</v>
+      </c>
+      <c r="G96" t="s">
+        <v>528</v>
+      </c>
+      <c r="H96" t="s">
+        <v>603</v>
+      </c>
+      <c r="I96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>154</v>
+      </c>
+      <c r="B97" t="s">
+        <v>397</v>
+      </c>
+      <c r="C97" t="s">
+        <v>398</v>
+      </c>
+      <c r="D97" t="s">
+        <v>399</v>
+      </c>
+      <c r="E97" t="s">
+        <v>396</v>
+      </c>
+      <c r="G97" t="s">
+        <v>529</v>
+      </c>
+      <c r="H97" t="s">
+        <v>604</v>
+      </c>
+      <c r="I97">
+        <v>1</v>
+      </c>
+      <c r="J97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>154</v>
+      </c>
+      <c r="B98" t="s">
+        <v>400</v>
+      </c>
+      <c r="D98" t="s">
+        <v>401</v>
+      </c>
+      <c r="E98" t="s">
+        <v>403</v>
+      </c>
+      <c r="F98" t="s">
+        <v>402</v>
+      </c>
+      <c r="G98" t="s">
+        <v>530</v>
+      </c>
+      <c r="H98" t="s">
+        <v>605</v>
+      </c>
+      <c r="M98">
+        <v>1</v>
+      </c>
+      <c r="T98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>154</v>
+      </c>
+      <c r="B99" t="s">
+        <v>404</v>
+      </c>
+      <c r="C99" t="s">
+        <v>289</v>
+      </c>
+      <c r="D99" t="s">
+        <v>405</v>
+      </c>
+      <c r="E99" t="s">
+        <v>406</v>
+      </c>
+      <c r="F99" t="s">
+        <v>407</v>
+      </c>
+      <c r="G99" t="s">
+        <v>531</v>
+      </c>
+      <c r="H99" t="s">
+        <v>606</v>
+      </c>
+      <c r="M99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>154</v>
+      </c>
+      <c r="B100" t="s">
+        <v>408</v>
+      </c>
+      <c r="D100" t="s">
+        <v>409</v>
+      </c>
+      <c r="E100" t="s">
+        <v>410</v>
+      </c>
+      <c r="F100" t="s">
+        <v>410</v>
+      </c>
+      <c r="G100" t="s">
+        <v>532</v>
+      </c>
+      <c r="H100" t="s">
+        <v>607</v>
+      </c>
+      <c r="J100">
+        <v>1</v>
+      </c>
+      <c r="L100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>154</v>
+      </c>
+      <c r="B101" t="s">
+        <v>411</v>
+      </c>
+      <c r="C101" t="s">
+        <v>289</v>
+      </c>
+      <c r="D101" t="s">
+        <v>412</v>
+      </c>
+      <c r="E101" t="s">
+        <v>413</v>
+      </c>
+      <c r="G101" t="s">
+        <v>533</v>
+      </c>
+      <c r="H101" t="s">
+        <v>608</v>
+      </c>
+      <c r="L101">
+        <v>1</v>
+      </c>
+      <c r="R101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>154</v>
+      </c>
+      <c r="B102" t="s">
+        <v>414</v>
+      </c>
+      <c r="C102" t="s">
+        <v>289</v>
+      </c>
+      <c r="D102" t="s">
+        <v>415</v>
+      </c>
+      <c r="E102" t="s">
+        <v>416</v>
+      </c>
+      <c r="F102" t="s">
+        <v>417</v>
+      </c>
+      <c r="G102" t="s">
+        <v>534</v>
+      </c>
+      <c r="H102" t="s">
+        <v>609</v>
+      </c>
+      <c r="L102">
+        <v>1</v>
+      </c>
+      <c r="O102">
+        <v>1</v>
+      </c>
+      <c r="T102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>154</v>
+      </c>
+      <c r="B103" t="s">
+        <v>418</v>
+      </c>
+      <c r="C103" t="s">
+        <v>343</v>
+      </c>
+      <c r="D103" t="s">
+        <v>419</v>
+      </c>
+      <c r="E103" t="s">
+        <v>624</v>
+      </c>
+      <c r="G103" t="s">
+        <v>535</v>
+      </c>
+      <c r="H103" t="s">
+        <v>610</v>
+      </c>
+      <c r="J103">
+        <v>1</v>
+      </c>
+      <c r="P103">
+        <v>1</v>
+      </c>
+      <c r="S103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>154</v>
+      </c>
+      <c r="B104" t="s">
+        <v>420</v>
+      </c>
+      <c r="C104" t="s">
+        <v>185</v>
+      </c>
+      <c r="D104" t="s">
+        <v>421</v>
+      </c>
+      <c r="E104" t="s">
+        <v>422</v>
+      </c>
+      <c r="F104" t="s">
+        <v>423</v>
+      </c>
+      <c r="G104" t="s">
+        <v>536</v>
+      </c>
+      <c r="H104" t="s">
+        <v>611</v>
+      </c>
+      <c r="J104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>154</v>
+      </c>
+      <c r="B105" t="s">
+        <v>427</v>
+      </c>
+      <c r="C105" t="s">
+        <v>191</v>
+      </c>
+      <c r="D105" t="s">
+        <v>426</v>
+      </c>
+      <c r="E105" t="s">
+        <v>424</v>
+      </c>
+      <c r="F105" t="s">
+        <v>425</v>
+      </c>
+      <c r="G105" t="s">
+        <v>537</v>
+      </c>
+      <c r="H105" t="s">
+        <v>612</v>
+      </c>
+      <c r="S105">
+        <v>1</v>
+      </c>
+      <c r="T105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>154</v>
+      </c>
+      <c r="B106" t="s">
+        <v>428</v>
+      </c>
+      <c r="C106" t="s">
+        <v>185</v>
+      </c>
+      <c r="D106" t="s">
         <v>429</v>
       </c>
-      <c r="E93" t="s">
+      <c r="E106" t="s">
         <v>430</v>
       </c>
-      <c r="F93" t="s">
+      <c r="F106" t="s">
         <v>431</v>
       </c>
-      <c r="G93" t="s">
+      <c r="G106" t="s">
         <v>538</v>
       </c>
-      <c r="H93" t="s">
+      <c r="H106" t="s">
         <v>613</v>
       </c>
-      <c r="J93">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A94" t="s">
-        <v>154</v>
-      </c>
-      <c r="B94" t="s">
+      <c r="J106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>154</v>
+      </c>
+      <c r="B107" t="s">
         <v>432</v>
       </c>
-      <c r="C94" t="s">
+      <c r="C107" t="s">
         <v>196</v>
       </c>
-      <c r="D94" t="s">
+      <c r="D107" t="s">
         <v>433</v>
       </c>
-      <c r="E94" t="s">
+      <c r="E107" t="s">
         <v>434</v>
       </c>
-      <c r="F94" t="s">
+      <c r="F107" t="s">
         <v>435</v>
       </c>
-      <c r="G94" t="s">
+      <c r="G107" t="s">
         <v>539</v>
       </c>
-      <c r="H94" t="s">
+      <c r="H107" t="s">
         <v>614</v>
       </c>
-      <c r="J94">
-        <v>1</v>
-      </c>
-      <c r="Q94">
-        <v>1</v>
-      </c>
-      <c r="R94">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A95" t="s">
-        <v>154</v>
-      </c>
-      <c r="B95" t="s">
+      <c r="J107">
+        <v>1</v>
+      </c>
+      <c r="Q107">
+        <v>1</v>
+      </c>
+      <c r="R107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>154</v>
+      </c>
+      <c r="B108" t="s">
         <v>436</v>
       </c>
-      <c r="C95" t="s">
+      <c r="C108" t="s">
         <v>437</v>
       </c>
-      <c r="D95" t="s">
+      <c r="D108" t="s">
         <v>438</v>
       </c>
-      <c r="E95" t="s">
+      <c r="E108" t="s">
         <v>439</v>
       </c>
-      <c r="G95" t="s">
+      <c r="G108" t="s">
         <v>540</v>
       </c>
-      <c r="H95" t="s">
+      <c r="H108" t="s">
         <v>615</v>
       </c>
-      <c r="I95">
-        <v>1</v>
-      </c>
-      <c r="M95">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A96" t="s">
-        <v>154</v>
-      </c>
-      <c r="B96" t="s">
+      <c r="I108">
+        <v>1</v>
+      </c>
+      <c r="M108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>154</v>
+      </c>
+      <c r="B109" t="s">
         <v>440</v>
       </c>
-      <c r="C96" t="s">
+      <c r="C109" t="s">
         <v>441</v>
       </c>
-      <c r="D96" t="s">
+      <c r="D109" t="s">
         <v>442</v>
       </c>
-      <c r="E96" t="s">
+      <c r="E109" t="s">
         <v>443</v>
       </c>
-      <c r="F96" t="s">
+      <c r="F109" t="s">
         <v>444</v>
       </c>
-      <c r="G96" t="s">
+      <c r="G109" t="s">
         <v>541</v>
       </c>
-      <c r="H96" t="s">
+      <c r="H109" t="s">
         <v>616</v>
       </c>
-      <c r="P96">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A97" t="s">
-        <v>154</v>
-      </c>
-      <c r="B97" t="s">
+      <c r="P109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>154</v>
+      </c>
+      <c r="B110" t="s">
         <v>445</v>
       </c>
-      <c r="C97" t="s">
+      <c r="C110" t="s">
         <v>191</v>
       </c>
-      <c r="D97" t="s">
+      <c r="D110" t="s">
         <v>446</v>
       </c>
-      <c r="E97" t="s">
+      <c r="E110" t="s">
         <v>447</v>
       </c>
-      <c r="F97" t="s">
+      <c r="F110" t="s">
         <v>448</v>
       </c>
-      <c r="G97" t="s">
+      <c r="G110" t="s">
         <v>542</v>
       </c>
-      <c r="H97" t="s">
+      <c r="H110" t="s">
         <v>617</v>
       </c>
-      <c r="K97">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A98" t="s">
-        <v>154</v>
-      </c>
-      <c r="B98" t="s">
+      <c r="K110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>154</v>
+      </c>
+      <c r="B111" t="s">
         <v>450</v>
       </c>
-      <c r="C98" t="s">
+      <c r="C111" t="s">
         <v>191</v>
       </c>
-      <c r="D98" t="s">
+      <c r="D111" t="s">
         <v>451</v>
       </c>
-      <c r="E98" t="s">
+      <c r="E111" t="s">
         <v>449</v>
       </c>
-      <c r="F98" t="s">
+      <c r="F111" t="s">
         <v>452</v>
       </c>
-      <c r="G98" t="s">
+      <c r="G111" t="s">
         <v>543</v>
       </c>
-      <c r="H98" t="s">
+      <c r="H111" t="s">
         <v>618</v>
       </c>
-      <c r="N98">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A99" t="s">
-        <v>154</v>
-      </c>
-      <c r="B99" t="s">
+      <c r="N111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>154</v>
+      </c>
+      <c r="B112" t="s">
         <v>453</v>
       </c>
-      <c r="C99" t="s">
+      <c r="C112" t="s">
         <v>360</v>
       </c>
-      <c r="D99" t="s">
+      <c r="D112" t="s">
         <v>454</v>
       </c>
-      <c r="E99" t="s">
+      <c r="E112" t="s">
         <v>455</v>
       </c>
-      <c r="F99" t="s">
+      <c r="F112" t="s">
         <v>456</v>
       </c>
-      <c r="G99" t="s">
+      <c r="G112" t="s">
         <v>544</v>
       </c>
-      <c r="H99" t="s">
+      <c r="H112" t="s">
         <v>619</v>
       </c>
-      <c r="N99">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A100" t="s">
-        <v>154</v>
-      </c>
-      <c r="B100" t="s">
+      <c r="N112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>154</v>
+      </c>
+      <c r="B113" t="s">
         <v>457</v>
       </c>
-      <c r="C100" t="s">
+      <c r="C113" t="s">
         <v>360</v>
       </c>
-      <c r="D100" t="s">
+      <c r="D113" t="s">
         <v>458</v>
       </c>
-      <c r="E100" t="s">
+      <c r="E113" t="s">
         <v>459</v>
       </c>
-      <c r="G100" t="s">
+      <c r="G113" t="s">
         <v>545</v>
       </c>
-      <c r="H100" t="s">
+      <c r="H113" t="s">
         <v>620</v>
       </c>
-      <c r="N100">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A101" t="s">
-        <v>154</v>
-      </c>
-      <c r="B101" t="s">
+      <c r="N113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>154</v>
+      </c>
+      <c r="B114" t="s">
         <v>460</v>
       </c>
-      <c r="C101" t="s">
+      <c r="C114" t="s">
         <v>191</v>
       </c>
-      <c r="D101" t="s">
+      <c r="D114" t="s">
         <v>461</v>
       </c>
-      <c r="E101" t="s">
+      <c r="E114" t="s">
         <v>462</v>
       </c>
-      <c r="F101" t="s">
+      <c r="F114" t="s">
         <v>463</v>
       </c>
-      <c r="G101" t="s">
+      <c r="G114" t="s">
         <v>546</v>
       </c>
-      <c r="H101" t="s">
+      <c r="H114" t="s">
         <v>621</v>
       </c>
-      <c r="I101">
-        <v>1</v>
-      </c>
-      <c r="M101">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A102" t="s">
-        <v>154</v>
-      </c>
-      <c r="B102" t="s">
+      <c r="I114">
+        <v>1</v>
+      </c>
+      <c r="M114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>154</v>
+      </c>
+      <c r="B115" t="s">
         <v>464</v>
       </c>
-      <c r="C102" t="s">
+      <c r="C115" t="s">
         <v>465</v>
       </c>
-      <c r="D102" t="s">
+      <c r="D115" t="s">
         <v>466</v>
       </c>
-      <c r="E102" t="s">
+      <c r="E115" t="s">
         <v>467</v>
       </c>
-      <c r="G102" t="s">
+      <c r="G115" t="s">
         <v>547</v>
       </c>
-      <c r="H102" t="s">
+      <c r="H115" t="s">
         <v>622</v>
       </c>
-      <c r="L102">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A103" t="s">
-        <v>154</v>
-      </c>
-      <c r="B103" t="s">
+      <c r="L115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>154</v>
+      </c>
+      <c r="B116" t="s">
         <v>468</v>
       </c>
-      <c r="D103" t="s">
+      <c r="D116" t="s">
         <v>469</v>
       </c>
-      <c r="E103" t="s">
+      <c r="E116" t="s">
         <v>470</v>
       </c>
-      <c r="G103" t="s">
+      <c r="G116" t="s">
         <v>548</v>
       </c>
-      <c r="H103" t="s">
+      <c r="H116" t="s">
         <v>623</v>
       </c>
-      <c r="L103">
+      <c r="L116">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B26" r:id="rId1" display="https://www.matthewtancik.com/nerf" xr:uid="{35967FB2-814A-154F-8541-7714319F096C}"/>
-    <hyperlink ref="B27" r:id="rId2" display="https://lingjie0206.github.io/papers/NSVF/" xr:uid="{F2DD4E80-7653-6B46-BE0A-8E826172F88C}"/>
-    <hyperlink ref="B28" r:id="rId3" display="http://www.computationalimaging.org/publications/automatic-integration/" xr:uid="{A28EC183-687F-8A46-9CA4-4A7708A6C750}"/>
-    <hyperlink ref="B29" r:id="rId4" display="https://arxiv.org/abs/2011.12490" xr:uid="{C5B06987-5C0D-E443-82C4-02F6431045D1}"/>
-    <hyperlink ref="B30" r:id="rId5" display="https://depthoraclenerf.github.io/" xr:uid="{3CEB0E14-63E6-574A-9FC6-2051AD0460B0}"/>
-    <hyperlink ref="B31" r:id="rId6" display="https://arxiv.org/abs/2103.10380" xr:uid="{EA18432D-CDAD-5D46-AB83-9539228413CB}"/>
-    <hyperlink ref="B32" r:id="rId7" display="https://arxiv.org/abs/2103.13744" xr:uid="{429A6E53-E8CB-BC4C-9538-A2470024449F}"/>
-    <hyperlink ref="B33" r:id="rId8" display="https://alexyu.net/plenoctrees/" xr:uid="{7DC25326-9D8E-8D47-A044-DD17F9ED0CD0}"/>
-    <hyperlink ref="B34" r:id="rId9" display="https://arxiv.org/abs/2103.01954" xr:uid="{A2FF4FE9-43D0-5F44-93A7-55BE57938D31}"/>
-    <hyperlink ref="B35" r:id="rId10" display="https://vsitzmann.github.io/lfns/" xr:uid="{F6597C48-9252-3349-B84C-D97A31F62416}"/>
-    <hyperlink ref="B36" r:id="rId11" display="https://arxiv.org/pdf/2107.02791.pdf" xr:uid="{4E32310C-E8E8-1445-9B6E-B1A0C6585A89}"/>
-    <hyperlink ref="B38" r:id="rId12" display="https://nerf-w.github.io/" xr:uid="{1C3AF7E4-0ED6-6341-ACDB-04910971A9DA}"/>
-    <hyperlink ref="B43" r:id="rId13" display="https://gvv.mpi-inf.mpg.de/projects/nonrigid_nerf/" xr:uid="{2DDCA2B8-C06B-604A-A893-ED7E083125F7}"/>
-    <hyperlink ref="B44" r:id="rId14" display="https://volumetric-avatars.github.io/" xr:uid="{B38221A4-28D3-EC48-BD13-F22F93351407}"/>
-    <hyperlink ref="B46" r:id="rId15" display="https://arxiv.org/abs/2202.00181" xr:uid="{A924BD42-5B3F-3740-81C0-0C81F8B5122D}"/>
-    <hyperlink ref="B47" r:id="rId16" display="https://zju3dv.github.io/animatable_nerf/" xr:uid="{79B54E94-A634-C04E-BBD6-E0740CB05D22}"/>
-    <hyperlink ref="B48" r:id="rId17" display="https://vcai.mpi-inf.mpg.de/projects/NeuralActor/" xr:uid="{8B2119CC-BEBB-1141-9295-5A03BB8F0926}"/>
-    <hyperlink ref="B50" r:id="rId18" display="https://zju3dv.github.io/neuralbody/" xr:uid="{B4F98C3C-2C12-3647-8B14-C77A228D92A6}"/>
-    <hyperlink ref="D51" r:id="rId19" display="https://neural-3d-video.github.io/" xr:uid="{F5C4215C-421A-2E4F-9166-06F8B5156E7B}"/>
-    <hyperlink ref="B55" r:id="rId20" display="https://arxiv.org/abs/2012.02190" xr:uid="{53D1B557-9DD9-0941-A181-C2437740945C}"/>
-    <hyperlink ref="D55" r:id="rId21" display="https://alexyu.net/pixelnerf" xr:uid="{FE08CB9D-CA82-2641-899B-1CED2638D0C9}"/>
-    <hyperlink ref="B56" r:id="rId22" display="https://arxiv.org/abs/2012.02189" xr:uid="{A3166556-FD50-524F-9D7B-7DFABC9BA22F}"/>
-    <hyperlink ref="B59" r:id="rId23" display="https://arxiv.org/pdf/2102.08860.pdf" xr:uid="{C98AD7DA-8A21-4B40-A0E6-ABB79200584D}"/>
-    <hyperlink ref="B60" r:id="rId24" display="https://ibrnet.github.io/static/paper.pdf" xr:uid="{B64854DE-6A9F-EE41-8605-5F214EE9ADE2}"/>
-    <hyperlink ref="D60" r:id="rId25" display="https://ibrnet.github.io/" xr:uid="{5B6CC4DE-F7F9-2647-9B5C-A1E194127C73}"/>
-    <hyperlink ref="B61" r:id="rId26" display="https://arxiv.org/pdf/2103.17269.pdf" xr:uid="{62D8EC5C-C4AC-DA46-9FDF-0E23E2D5C874}"/>
-    <hyperlink ref="B62" r:id="rId27" display="https://arxiv.org/pdf/2104.00587.pdf" xr:uid="{B37AC469-58DD-BF4C-8A04-F712B1A8EB94}"/>
-    <hyperlink ref="B63" r:id="rId28" display="https://apple.github.io/ml-gsn/" xr:uid="{7717E2BE-FF3E-EF48-92FF-8653D9AB6AAE}"/>
-    <hyperlink ref="B64" r:id="rId29" display="https://apchenstu.github.io/mvsnerf/" xr:uid="{D01EC804-00BD-B442-AED3-391DEE153AF0}"/>
-    <hyperlink ref="B65" r:id="rId30" display="https://virtualhumans.mpi-inf.mpg.de/srf/" xr:uid="{BBFCEAB6-1067-4A46-B94B-1149F1DB3378}"/>
-    <hyperlink ref="D65" r:id="rId31" display="https://virtualhumans.mpi-inf.mpg.de/srf/" xr:uid="{99CFE0A6-49E8-6C47-AD0F-4876EDDD5257}"/>
-    <hyperlink ref="B66" r:id="rId32" display="https://liuyuan-pal.github.io/NeuRay/" xr:uid="{B8E198D5-170F-6445-ABD6-FC745FE3BB4F}"/>
-    <hyperlink ref="D68" r:id="rId33" display="https://github.com/vincentfung13/MINE" xr:uid="{BC5BAD36-364E-6749-BCB4-A976C125DDC5}"/>
-    <hyperlink ref="B70" r:id="rId34" display="https://sites.google.com/view/wbjang/home/codenerf" xr:uid="{187E0164-3464-5F42-AACD-3D5C2BF3C820}"/>
-    <hyperlink ref="B72" r:id="rId35" display="https://bmild.github.io/rawnerf/" xr:uid="{A6B8E96F-1F53-7041-B6A4-60B9508480D4}"/>
-    <hyperlink ref="B73" r:id="rId36" display="http://yenchenlin.me/inerf/" xr:uid="{EE610F53-3CF1-1E40-8ACB-F1984A3C3C5D}"/>
-    <hyperlink ref="B74" r:id="rId37" display="https://lemonatsu.github.io/ANeRF-Surface-free-Pose-Refinement/" xr:uid="{8812967F-CC98-5B4A-995D-AC01039F534F}"/>
-    <hyperlink ref="D74" r:id="rId38" display="https://lemonatsu.github.io/anerf/" xr:uid="{9D7EFC10-490A-E447-9D5C-8E801A904206}"/>
-    <hyperlink ref="B79" r:id="rId39" display="https://chenhsuanlin.bitbucket.io/bundle-adjusting-NeRF/" xr:uid="{20F5B6EF-8807-F341-AF88-60ED41CC6280}"/>
-    <hyperlink ref="B80" r:id="rId40" display="https://postech-cvlab.github.io/SCNeRF/" xr:uid="{2F6B0D04-F664-0240-95C8-8B039E05A6FE}"/>
-    <hyperlink ref="B81" r:id="rId41" display="https://markboss.me/publication/2021-nerd/" xr:uid="{D07E6E46-FE31-B345-8F53-0E980351DB40}"/>
-    <hyperlink ref="B82" r:id="rId42" display="https://people.eecs.berkeley.edu/~pratul/nerv/" xr:uid="{8DA1DFFB-66B7-D945-A567-262763835FE0}"/>
-    <hyperlink ref="B85" r:id="rId43" display="https://arxiv.org/abs/2010.07492" xr:uid="{24173C9F-D45A-1744-981B-21CA290E8730}"/>
-    <hyperlink ref="D85" r:id="rId44" display="https://github.com/Kai-46/nerfplusplus" xr:uid="{AC3D8F12-8792-6341-9EDD-3119722F4FB3}"/>
-    <hyperlink ref="B86" r:id="rId45" display="https://arxiv.org/abs/2011.12100" xr:uid="{A6421490-778F-404C-9B50-F4DF3C3222E3}"/>
-    <hyperlink ref="B88" r:id="rId46" display="https://ziyanw1.github.io/hybrid_nerf/" xr:uid="{21255C5F-2079-BD42-A4E8-1473A711251E}"/>
-    <hyperlink ref="B95" r:id="rId47" display="https://fig-nerf.github.io/" xr:uid="{BCB08482-216E-F445-961F-79B17BAB2894}"/>
-    <hyperlink ref="B96" r:id="rId48" display="https://developer.nvidia.com/blog/nvidia-research-nerf-tex-neural-reflectance-field-textures/" xr:uid="{46F7C388-1CC4-9149-B59B-559EE7BCD36A}"/>
-    <hyperlink ref="B97" r:id="rId49" display="https://jonbarron.info/mipnerf/" xr:uid="{3CF7024E-5382-C942-836E-26A20DA4524C}"/>
-    <hyperlink ref="B99" r:id="rId50" display="https://arxiv.org/abs/2106.10689" xr:uid="{E7185A93-C91C-F24C-9829-6325E236C3EB}"/>
-    <hyperlink ref="B101" r:id="rId51" display="https://weiyithu.github.io/NerfingMVS/" xr:uid="{22220255-E2B3-4341-A8DE-DF8098C5B6B6}"/>
-    <hyperlink ref="B102" r:id="rId52" display="https://3d-representation-learning.github.io/nerf-dy/" xr:uid="{433A7789-7958-4642-A629-FBF537BFB55E}"/>
-    <hyperlink ref="D103" r:id="rId53" display="https://mikh3x4.github.io/nerf-navigation/" xr:uid="{8A666769-9523-DC43-A0CD-D271CCCC1BDC}"/>
+    <hyperlink ref="B39" r:id="rId1" display="https://www.matthewtancik.com/nerf" xr:uid="{35967FB2-814A-154F-8541-7714319F096C}"/>
+    <hyperlink ref="B40" r:id="rId2" display="https://lingjie0206.github.io/papers/NSVF/" xr:uid="{F2DD4E80-7653-6B46-BE0A-8E826172F88C}"/>
+    <hyperlink ref="B41" r:id="rId3" display="http://www.computationalimaging.org/publications/automatic-integration/" xr:uid="{A28EC183-687F-8A46-9CA4-4A7708A6C750}"/>
+    <hyperlink ref="B42" r:id="rId4" display="https://arxiv.org/abs/2011.12490" xr:uid="{C5B06987-5C0D-E443-82C4-02F6431045D1}"/>
+    <hyperlink ref="B43" r:id="rId5" display="https://depthoraclenerf.github.io/" xr:uid="{3CEB0E14-63E6-574A-9FC6-2051AD0460B0}"/>
+    <hyperlink ref="B44" r:id="rId6" display="https://arxiv.org/abs/2103.10380" xr:uid="{EA18432D-CDAD-5D46-AB83-9539228413CB}"/>
+    <hyperlink ref="B45" r:id="rId7" display="https://arxiv.org/abs/2103.13744" xr:uid="{429A6E53-E8CB-BC4C-9538-A2470024449F}"/>
+    <hyperlink ref="B46" r:id="rId8" display="https://alexyu.net/plenoctrees/" xr:uid="{7DC25326-9D8E-8D47-A044-DD17F9ED0CD0}"/>
+    <hyperlink ref="B47" r:id="rId9" display="https://arxiv.org/abs/2103.01954" xr:uid="{A2FF4FE9-43D0-5F44-93A7-55BE57938D31}"/>
+    <hyperlink ref="B48" r:id="rId10" display="https://vsitzmann.github.io/lfns/" xr:uid="{F6597C48-9252-3349-B84C-D97A31F62416}"/>
+    <hyperlink ref="B49" r:id="rId11" display="https://arxiv.org/pdf/2107.02791.pdf" xr:uid="{4E32310C-E8E8-1445-9B6E-B1A0C6585A89}"/>
+    <hyperlink ref="B51" r:id="rId12" display="https://nerf-w.github.io/" xr:uid="{1C3AF7E4-0ED6-6341-ACDB-04910971A9DA}"/>
+    <hyperlink ref="B56" r:id="rId13" display="https://gvv.mpi-inf.mpg.de/projects/nonrigid_nerf/" xr:uid="{2DDCA2B8-C06B-604A-A893-ED7E083125F7}"/>
+    <hyperlink ref="B57" r:id="rId14" display="https://volumetric-avatars.github.io/" xr:uid="{B38221A4-28D3-EC48-BD13-F22F93351407}"/>
+    <hyperlink ref="B59" r:id="rId15" display="https://arxiv.org/abs/2202.00181" xr:uid="{A924BD42-5B3F-3740-81C0-0C81F8B5122D}"/>
+    <hyperlink ref="B60" r:id="rId16" display="https://zju3dv.github.io/animatable_nerf/" xr:uid="{79B54E94-A634-C04E-BBD6-E0740CB05D22}"/>
+    <hyperlink ref="B61" r:id="rId17" display="https://vcai.mpi-inf.mpg.de/projects/NeuralActor/" xr:uid="{8B2119CC-BEBB-1141-9295-5A03BB8F0926}"/>
+    <hyperlink ref="B63" r:id="rId18" display="https://zju3dv.github.io/neuralbody/" xr:uid="{B4F98C3C-2C12-3647-8B14-C77A228D92A6}"/>
+    <hyperlink ref="D64" r:id="rId19" display="https://neural-3d-video.github.io/" xr:uid="{F5C4215C-421A-2E4F-9166-06F8B5156E7B}"/>
+    <hyperlink ref="B68" r:id="rId20" display="https://arxiv.org/abs/2012.02190" xr:uid="{53D1B557-9DD9-0941-A181-C2437740945C}"/>
+    <hyperlink ref="D68" r:id="rId21" display="https://alexyu.net/pixelnerf" xr:uid="{FE08CB9D-CA82-2641-899B-1CED2638D0C9}"/>
+    <hyperlink ref="B69" r:id="rId22" display="https://arxiv.org/abs/2012.02189" xr:uid="{A3166556-FD50-524F-9D7B-7DFABC9BA22F}"/>
+    <hyperlink ref="B72" r:id="rId23" display="https://arxiv.org/pdf/2102.08860.pdf" xr:uid="{C98AD7DA-8A21-4B40-A0E6-ABB79200584D}"/>
+    <hyperlink ref="B73" r:id="rId24" display="https://ibrnet.github.io/static/paper.pdf" xr:uid="{B64854DE-6A9F-EE41-8605-5F214EE9ADE2}"/>
+    <hyperlink ref="D73" r:id="rId25" display="https://ibrnet.github.io/" xr:uid="{5B6CC4DE-F7F9-2647-9B5C-A1E194127C73}"/>
+    <hyperlink ref="B74" r:id="rId26" display="https://arxiv.org/pdf/2103.17269.pdf" xr:uid="{62D8EC5C-C4AC-DA46-9FDF-0E23E2D5C874}"/>
+    <hyperlink ref="B75" r:id="rId27" display="https://arxiv.org/pdf/2104.00587.pdf" xr:uid="{B37AC469-58DD-BF4C-8A04-F712B1A8EB94}"/>
+    <hyperlink ref="B76" r:id="rId28" display="https://apple.github.io/ml-gsn/" xr:uid="{7717E2BE-FF3E-EF48-92FF-8653D9AB6AAE}"/>
+    <hyperlink ref="B77" r:id="rId29" display="https://apchenstu.github.io/mvsnerf/" xr:uid="{D01EC804-00BD-B442-AED3-391DEE153AF0}"/>
+    <hyperlink ref="B78" r:id="rId30" display="https://virtualhumans.mpi-inf.mpg.de/srf/" xr:uid="{BBFCEAB6-1067-4A46-B94B-1149F1DB3378}"/>
+    <hyperlink ref="D78" r:id="rId31" display="https://virtualhumans.mpi-inf.mpg.de/srf/" xr:uid="{99CFE0A6-49E8-6C47-AD0F-4876EDDD5257}"/>
+    <hyperlink ref="B79" r:id="rId32" display="https://liuyuan-pal.github.io/NeuRay/" xr:uid="{B8E198D5-170F-6445-ABD6-FC745FE3BB4F}"/>
+    <hyperlink ref="D81" r:id="rId33" display="https://github.com/vincentfung13/MINE" xr:uid="{BC5BAD36-364E-6749-BCB4-A976C125DDC5}"/>
+    <hyperlink ref="B83" r:id="rId34" display="https://sites.google.com/view/wbjang/home/codenerf" xr:uid="{187E0164-3464-5F42-AACD-3D5C2BF3C820}"/>
+    <hyperlink ref="B85" r:id="rId35" display="https://bmild.github.io/rawnerf/" xr:uid="{A6B8E96F-1F53-7041-B6A4-60B9508480D4}"/>
+    <hyperlink ref="B86" r:id="rId36" display="http://yenchenlin.me/inerf/" xr:uid="{EE610F53-3CF1-1E40-8ACB-F1984A3C3C5D}"/>
+    <hyperlink ref="B87" r:id="rId37" display="https://lemonatsu.github.io/ANeRF-Surface-free-Pose-Refinement/" xr:uid="{8812967F-CC98-5B4A-995D-AC01039F534F}"/>
+    <hyperlink ref="D87" r:id="rId38" display="https://lemonatsu.github.io/anerf/" xr:uid="{9D7EFC10-490A-E447-9D5C-8E801A904206}"/>
+    <hyperlink ref="B92" r:id="rId39" display="https://chenhsuanlin.bitbucket.io/bundle-adjusting-NeRF/" xr:uid="{20F5B6EF-8807-F341-AF88-60ED41CC6280}"/>
+    <hyperlink ref="B93" r:id="rId40" display="https://postech-cvlab.github.io/SCNeRF/" xr:uid="{2F6B0D04-F664-0240-95C8-8B039E05A6FE}"/>
+    <hyperlink ref="B94" r:id="rId41" display="https://markboss.me/publication/2021-nerd/" xr:uid="{D07E6E46-FE31-B345-8F53-0E980351DB40}"/>
+    <hyperlink ref="B95" r:id="rId42" display="https://people.eecs.berkeley.edu/~pratul/nerv/" xr:uid="{8DA1DFFB-66B7-D945-A567-262763835FE0}"/>
+    <hyperlink ref="B98" r:id="rId43" display="https://arxiv.org/abs/2010.07492" xr:uid="{24173C9F-D45A-1744-981B-21CA290E8730}"/>
+    <hyperlink ref="D98" r:id="rId44" display="https://github.com/Kai-46/nerfplusplus" xr:uid="{AC3D8F12-8792-6341-9EDD-3119722F4FB3}"/>
+    <hyperlink ref="B99" r:id="rId45" display="https://arxiv.org/abs/2011.12100" xr:uid="{A6421490-778F-404C-9B50-F4DF3C3222E3}"/>
+    <hyperlink ref="B101" r:id="rId46" display="https://ziyanw1.github.io/hybrid_nerf/" xr:uid="{21255C5F-2079-BD42-A4E8-1473A711251E}"/>
+    <hyperlink ref="B108" r:id="rId47" display="https://fig-nerf.github.io/" xr:uid="{BCB08482-216E-F445-961F-79B17BAB2894}"/>
+    <hyperlink ref="B109" r:id="rId48" display="https://developer.nvidia.com/blog/nvidia-research-nerf-tex-neural-reflectance-field-textures/" xr:uid="{46F7C388-1CC4-9149-B59B-559EE7BCD36A}"/>
+    <hyperlink ref="B110" r:id="rId49" display="https://jonbarron.info/mipnerf/" xr:uid="{3CF7024E-5382-C942-836E-26A20DA4524C}"/>
+    <hyperlink ref="B112" r:id="rId50" display="https://arxiv.org/abs/2106.10689" xr:uid="{E7185A93-C91C-F24C-9829-6325E236C3EB}"/>
+    <hyperlink ref="B114" r:id="rId51" display="https://weiyithu.github.io/NerfingMVS/" xr:uid="{22220255-E2B3-4341-A8DE-DF8098C5B6B6}"/>
+    <hyperlink ref="B115" r:id="rId52" display="https://3d-representation-learning.github.io/nerf-dy/" xr:uid="{433A7789-7958-4642-A629-FBF537BFB55E}"/>
+    <hyperlink ref="D116" r:id="rId53" display="https://mikh3x4.github.io/nerf-navigation/" xr:uid="{8A666769-9523-DC43-A0CD-D271CCCC1BDC}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/docs/weekly_nerf_meta_data.xlsx
+++ b/docs/weekly_nerf_meta_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zelinzhao/cache/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02467484-6133-BF41-B3EC-F6DEBE1007CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7A38D8D-ED4E-4A46-9192-3EF3DE0EA80C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="870" uniqueCount="697">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="869" uniqueCount="697">
   <si>
     <t>week</t>
   </si>
@@ -2974,7 +2974,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
+      <selection pane="bottomLeft" activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3528,9 +3528,6 @@
         <v>60</v>
       </c>
       <c r="E20" t="s">
-        <v>82</v>
-      </c>
-      <c r="F20" t="s">
         <v>82</v>
       </c>
       <c r="G20" t="s">

--- a/docs/weekly_nerf_meta_data.xlsx
+++ b/docs/weekly_nerf_meta_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zelinzhao/cache/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7A38D8D-ED4E-4A46-9192-3EF3DE0EA80C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CD86066-0E08-3A4D-BF7B-945637033FAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38400" yWindow="1240" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="weekly_nerf_meta_data" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="869" uniqueCount="697">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="955" uniqueCount="766">
   <si>
     <t>week</t>
   </si>
@@ -2123,6 +2123,213 @@
   </si>
   <si>
     <t>https://arxiv.org/abs/2208.04717</t>
+  </si>
+  <si>
+    <t>Casual Indoor HDR Radiance Capture from Omnidirectional Images</t>
+  </si>
+  <si>
+    <t>Aug21 - Aug27, 2022</t>
+  </si>
+  <si>
+    <t>We present PanoHDR-NeRF, a novel pipeline to casually capture a plausible full HDR radiance field of a large indoor scene without elaborate setups or complex capture protocols. First, a user captures a low dynamic range (LDR) omnidirectional video of the scene by freely waving an off-the-shelf camera around the scene. Then, an LDR2HDR network uplifts the captured LDR frames to HDR, subsequently used to train a tailored NeRF++ model. The resulting PanoHDR-NeRF pipeline can estimate full HDR panoramas from any location of the scene. Through experiments on a novel test dataset of a variety of real scenes with the ground truth HDR radiance captured at locations not seen during training, we show that PanoHDR-NeRF predicts plausible radiance from any scene point. We also show that the HDR images produced by PanoHDR-NeRF can synthesize correct lighting effects, enabling the augmentation of indoor scenes with synthetic objects that are lit correctly.</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2208.07903</t>
+  </si>
+  <si>
+    <t>Text-to-Image Generation via Implicit Visual Guidance and Hypernetwork</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2208.08493</t>
+  </si>
+  <si>
+    <t>PDRF: Progressively Deblurring Radiance Field for Fast and Robust Scene Reconstruction from Blurry Images</t>
+  </si>
+  <si>
+    <t>We present Progressively Deblurring Radiance Field (PDRF), a novel approach to efficiently reconstruct high quality radiance fields from blurry images. While current State-of-The-Art (SoTA) scene reconstruction methods achieve photo-realistic rendering results from clean source views, their performances suffer when the source views are affected by blur, which is commonly observed for images in the wild. Previous deblurring methods either do not account for 3D geometry, or are computationally intense. To addresses these issues, PDRF, a progressively deblurring scheme in radiance field modeling, accurately models blur by incorporating 3D scene context. PDRF further uses an efficient importance sampling scheme, which results in fast scene optimization. Specifically, PDRF proposes a Coarse Ray Renderer to quickly estimate voxel density and feature; a Fine Voxel Renderer is then used to achieve high quality ray tracing. We perform extensive experiments and show that PDRF is 15X faster than previous SoTA while achieving better performance on both synthetic and real scenes.</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2208.08049</t>
+  </si>
+  <si>
+    <t>The 8-Point Algorithm as an Inductive Bias for Relative Pose Prediction by ViTs</t>
+  </si>
+  <si>
+    <t>We present a simple baseline for directly estimating the relative pose (rotation and translation, including scale) between two images. Deep methods have recently shown strong progress but often require complex or multi-stage architectures. We show that a handful of modifications can be applied to a Vision Transformer (ViT) to bring its computations close to the Eight-Point Algorithm. This inductive bias enables a simple method to be competitive in multiple settings, often substantially improving over the state of the art with strong performance gains in limited data regimes.</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2208.08988</t>
+  </si>
+  <si>
+    <t>https://github.com/crockwell/rel_pose</t>
+  </si>
+  <si>
+    <t>Neural Capture of Animatable 3D Human from Monocular Video</t>
+  </si>
+  <si>
+    <t>We present a novel paradigm of building an animatable 3D human representation from a monocular video input, such that it can be rendered in any unseen poses and views. Our method is based on a dynamic Neural Radiance Field (NeRF) rigged by a mesh-based parametric 3D human model serving as a geometry proxy. Previous methods usually rely on multi-view videos or accurate 3D geometry information as additional inputs; besides, most methods suffer from degraded quality when generalized to unseen poses. We identify that the key to generalization is a good input embedding for querying dynamic NeRF: A good input embedding should define an injective mapping in the full volumetric space, guided by surface mesh deformation under pose variation. Based on this observation, we propose to embed the input query with its relationship to local surface regions spanned by a set of geodesic nearest neighbors on mesh vertices. By including both position and relative distance information, our embedding defines a distance-preserved deformation mapping and generalizes well to unseen poses. To reduce the dependency on additional inputs, we first initialize per-frame 3D meshes using off-the-shelf tools and then propose a pipeline to jointly optimize NeRF and refine the initial mesh. Extensive experiments show our method can synthesize plausible human rendering results under unseen poses and views.</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2208.08728</t>
+  </si>
+  <si>
+    <t>LoRD: Local 4D Implicit Representation for High-Fidelity Dynamic Human Modeling</t>
+  </si>
+  <si>
+    <t>Recent progress in 4D implicit representation focuses on globally controlling the shape and motion with low dimensional latent vectors, which is prone to missing surface details and accumulating tracking error. While many deep local representations have shown promising results for 3D shape modeling, their 4D counterpart does not exist yet. In this paper, we fill this blank by proposing a novel Local 4D implicit Representation for Dynamic clothed human, named LoRD, which has the merits of both 4D human modeling and local representation, and enables high-fidelity reconstruction with detailed surface deformations, such as clothing wrinkles. Particularly, our key insight is to encourage the network to learn the latent codes of local part-level representation, capable of explaining the local geometry and temporal deformations. To make the inference at test-time, we first estimate the inner body skeleton motion to track local parts at each time step, and then optimize the latent codes for each part via auto-decoding based on different types of observed data. Extensive experiments demonstrate that the proposed method has strong capability for representing 4D human, and outperforms state-of-the-art methods on practical applications, including 4D reconstruction from sparse points, non-rigid depth fusion, both qualitatively and quantitatively.</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2208.08622</t>
+  </si>
+  <si>
+    <t>Temporal View Synthesis of Dynamic Scenes through 3D Object Motion Estimation with Multi-Plane Images</t>
+  </si>
+  <si>
+    <t>ISMAR2022</t>
+  </si>
+  <si>
+    <t>The challenge of graphically rendering high frame-rate videos on low compute devices can be addressed through periodic prediction of future frames to enhance the user experience in virtual reality applications. This is studied through the problem of temporal view synthesis (TVS), where the goal is to predict the next frames of a video given the previous frames and the head poses of the previous and the next frames. In this work, we consider the TVS of dynamic scenes in which both the user and objects are moving. We design a framework that decouples the motion into user and object motion to effectively use the available user motion while predicting the next frames. We predict the motion of objects by isolating and estimating the 3D object motion in the past frames and then extrapolating it. We employ multi-plane images (MPI) as a 3D representation of the scenes and model the object motion as the 3D displacement between the corresponding points in the MPI representation. In order to handle the sparsity in MPIs while estimating the motion, we incorporate partial convolutions and masked correlation layers to estimate corresponding points. The predicted object motion is then integrated with the given user or camera motion to generate the next frame. Using a disocclusion infilling module, we synthesize the regions uncovered due to the camera and object motion. We develop a new synthetic dataset for TVS of dynamic scenes consisting of 800 videos at full HD resolution. We show through experiments on our dataset and the MPI Sintel dataset that our model outperforms all the competing methods in the literature.</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2208.09463</t>
+  </si>
+  <si>
+    <t>https://github.com/NagabhushanSN95/DeCOMPnet</t>
+  </si>
+  <si>
+    <t>Vox-Surf: Voxel-based Implicit Surface Representation</t>
+  </si>
+  <si>
+    <t>Virtual content creation and interaction play an important role in modern 3D applications such as AR and VR. Recovering detailed 3D models from real scenes can significantly expand the scope of its applications and has been studied for decades in the computer vision and computer graphics community. We propose Vox-Surf, a voxel-based implicit surface representation. Our Vox-Surf divides the space into finite bounded voxels. Each voxel stores geometry and appearance information in its corner vertices. Vox-Surf is suitable for almost any scenario thanks to sparsity inherited from voxel representation and can be easily trained from multiple view images. We leverage the progressive training procedure to extract important voxels gradually for further optimization so that only valid voxels are preserved, which greatly reduces the number of sampling points and increases rendering speed.The fine voxels can also be considered as the bounding volume for collision detection.The experiments show that Vox-Surf representation can learn delicate surface details and accurate color with less memory and faster rendering speed than other methods.We also show that Vox-Surf can be more practical in scene editing and AR applications.</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2208.10925</t>
+  </si>
+  <si>
+    <t>SCONE: Surface Coverage Optimization in Unknown Environments by Volumetric Integration</t>
+  </si>
+  <si>
+    <t>Next Best View computation (NBV) is a long-standing problem in robotics, and consists in identifying the next most informative sensor position(s) for reconstructing a 3D object or scene efficiently and accurately. Like most current methods, we consider NBV prediction from a depth sensor. Learning-based methods relying on a volumetric representation of the scene are suitable for path planning, but do not scale well with the size of the scene and have lower accuracy than methods using a surface-based representation. However, the latter constrain the camera to a small number of poses. To obtain the advantages of both representations, we show that we can maximize surface metrics by Monte Carlo integration over a volumetric representation. Our method scales to large scenes and handles free camera motion: It takes as input an arbitrarily large point cloud gathered by a depth sensor like Lidar systems as well as camera poses to predict NBV. We demonstrate our approach on a novel dataset made of large and complex 3D scenes.</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2208.10449</t>
+  </si>
+  <si>
+    <t>FurryGAN: High Quality Foreground-aware Image Synthesis</t>
+  </si>
+  <si>
+    <t>Foreground-aware image synthesis aims to generate images as well as their foreground masks. A common approach is to formulate an image as an masked blending of a foreground image and a background image. It is a challenging problem because it is prone to reach the trivial solution where either image overwhelms the other, i.e., the masks become completely full or empty, and the foreground and background are not meaningfully separated. We present FurryGAN with three key components: 1) imposing both the foreground image and the composite image to be realistic, 2) designing a mask as a combination of coarse and fine masks, and 3) guiding the generator by an auxiliary mask predictor in the discriminator. Our method produces realistic images with remarkably detailed alpha masks which cover hair, fur, and whiskers in a fully unsupervised manner.</t>
+  </si>
+  <si>
+    <t>https://jeongminb.github.io/FurryGAN/</t>
+  </si>
+  <si>
+    <t>E-NeRF: Neural Radiance Fields from a Moving Event Camera</t>
+  </si>
+  <si>
+    <t>Estimating neural radiance fields (NeRFs) from ideal images has been extensively studied in the computer vision community. Most approaches assume optimal illumination and slow camera motion. These assumptions are often violated in robotic applications, where images contain motion blur and the scene may not have suitable illumination. This can cause significant problems for downstream tasks such as navigation, inspection or visualization of the scene. To alleviate these problems we present E-NeRF, the first method which estimates a volumetric scene representation in the form of a NeRF from a fast-moving event camera. Our method can recover NeRFs during very fast motion and in high dynamic range conditions, where frame-based approaches fail. We show that rendering high-quality frames is possible by only providing an event stream as input. Furthermore, by combining events and frames, we can estimate NeRFs of higher quality than state-of-the-art approaches under severe motion blur. We also show that combining events and frames can overcome failure cases of NeRF estimation in scenarios where only few input views are available, without requiring additional regularization.</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2208.11300</t>
+  </si>
+  <si>
+    <t>DreamBooth: Fine Tuning Text-to-Image Diffusion Models for Subject-Driven Generation</t>
+  </si>
+  <si>
+    <t>Large text-to-image models achieved a remarkable leap in the evolution of AI, enabling high-quality and diverse synthesis of images from a given text prompt. However, these models lack the ability to mimic the appearance of subjects in a given reference set and synthesize novel renditions of them in different contexts. In this work, we present a new approach for "personalization" of text-to-image diffusion models (specializing them to users' needs). Given as input just a few images of a subject, we fine-tune a pretrained text-to-image model (Imagen, although our method is not limited to a specific model) such that it learns to bind a unique identifier with that specific subject. Once the subject is embedded in the output domain of the model, the unique identifier can then be used to synthesize fully-novel photorealistic images of the subject contextualized in different scenes. By leveraging the semantic prior embedded in the model with a new autogenous class-specific prior preservation loss, our technique enables synthesizing the subject in diverse scenes, poses, views, and lighting conditions that do not appear in the reference images. We apply our technique to several previously-unassailable tasks, including subject recontextualization, text-guided view synthesis, appearance modification, and artistic rendering (all while preserving the subject's key features). Project page: this https URL</t>
+  </si>
+  <si>
+    <t>https://dreambooth.github.io/</t>
+  </si>
+  <si>
+    <t>Neural Novel Actor: Learning a Generalized Animatable Neural Representation for Human Actors</t>
+  </si>
+  <si>
+    <t>We propose a new method for learning a generalized animatable neural human representation from a sparse set of multi-view imagery of multiple persons. The learned representation can be used to synthesize novel view images of an arbitrary person from a sparse set of cameras, and further animate them with the user's pose control. While existing methods can either generalize to new persons or synthesize animations with user control, none of them can achieve both at the same time. We attribute this accomplishment to the employment of a 3D proxy for a shared multi-person human model, and further the warping of the spaces of different poses to a shared canonical pose space, in which we learn a neural field and predict the person- and pose-dependent deformations, as well as appearance with the features extracted from input images. To cope with the complexity of the large variations in body shapes, poses, and clothing deformations, we design our neural human model with disentangled geometry and appearance. Furthermore, we utilize the image features both at the spatial point and on the surface points of the 3D proxy for predicting person- and pose-dependent properties. Experiments show that our method significantly outperforms the state-of-the-arts on both tasks. The video and code are available at this https URL.</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2208.11905</t>
+  </si>
+  <si>
+    <t>We develop an approach for text-to-image generation that embraces additional retrieval images, driven by a combination of implicit visual guidance loss and generative objectives. Unlike most existing text-to-image generation methods which merely take the text as input, our method dynamically feeds cross-modal search results into a unified training stage, hence improving the quality, controllability and diversity of generation results. We propose a novel hypernetwork modulated visual-text encoding scheme to predict the weight update of the encoding layer, enabling effective transfer from visual information (e.g. layout, content) into the corresponding latent domain. Experimental results show that our model guided with additional retrieval visual data outperforms existing GAN-based models. On COCO dataset, we achieve better FID of 9.13 with up to 3.5× fewer generator parameters, compared with the state-of-the-art method.</t>
+  </si>
+  <si>
+    <t>神经小说演员：学习人类演员的广义动画神经表示</t>
+  </si>
+  <si>
+    <t>DreamBooth：为主题驱动生成微调文本到图像的扩散模型</t>
+  </si>
+  <si>
+    <t>E-NeRF：来自移动事件相机的神经辐射场</t>
+  </si>
+  <si>
+    <t>FurryGAN：高质量的前景感知图像合成</t>
+  </si>
+  <si>
+    <t>SCONE：通过体积积分优化未知环境中的表面覆盖率</t>
+  </si>
+  <si>
+    <t>Vox-Surf：基于体素的隐式表面表示</t>
+  </si>
+  <si>
+    <t>通过多平面图像的 3D 对象运动估计动态场景的时间视图合成</t>
+  </si>
+  <si>
+    <t>LoRD：用于高保真动态人体建模的局部 4D 隐式表示</t>
+  </si>
+  <si>
+    <t>从单目视频中对动画 3D 人体进行神经捕获</t>
+  </si>
+  <si>
+    <t>8 点算法作为 ViTs 相对姿势预测的归纳偏差</t>
+  </si>
+  <si>
+    <t>PDRF：渐进式去模糊辐射场，用于从模糊图像中快速、稳健地重建场景</t>
+  </si>
+  <si>
+    <t>通过隐式视觉引导和超网络生成文本到图像</t>
+  </si>
+  <si>
+    <t>从全向图像中捕捉休闲室内 HDR 辐射</t>
+  </si>
+  <si>
+    <t>我们提出了一种新方法，用于从一组稀疏的多人多视图图像中学习广义的可动画神经人类表示。学习到的表示可用于从一组稀疏的相机中合成任意人的新颖视图图像，并使用用户的姿势控制进一步对它们进行动画处理。虽然现有方法可以推广到新人或使用用户控制合成动画，但它们都不能同时实现这两者。我们将这一成就归功于为共享的多人人体模型使用 3D 代理，并进一步将不同姿势的空间扭曲到共享的规范姿势空间，在该空间中，我们学习了一个神经领域并预测了人和与姿势相关的变形，以及从输入图像中提取的特征的外观。为了应对身体形状、姿势和服装变形的巨大变化的复杂性，我们设计了具有解开几何和外观的神经人体模型。此外，我们利用 3D 代理的空间点和表面点的图像特征来预测与人和姿势相关的属性。实验表明，我们的方法在这两项任务上都显着优于现有技术。视频和代码可在此 https 网址上找到。</t>
+  </si>
+  <si>
+    <t>大型文本到图像模型在人工智能的演进中实现了显着的飞跃，能够从给定的文本提示中对图像进行高质量和多样化的合成。然而，这些模型缺乏模仿给定参考集中对象的外观并在不同上下文中合成它们的新颖再现的能力。在这项工作中，我们提出了一种“个性化”文本到图像扩散模型的新方法（专门针对用户的需求）。给定主题的几张图像作为输入，我们微调预训练的文本到图像模型（Imagen，尽管我们的方法不限于特定模型），以便它学会将唯一标识符与该特定主题绑定.一旦对象被嵌入模型的输出域中，唯一标识符就可以用于合成在不同场景中情境化的对象的完全新颖的真实感图像。通过利用嵌入在模型中的语义先验和新的自生类特定先验保存损失，我们的技术能够在参考图像中没有出现的不同场景、姿势、视图和照明条件下合成主体。我们将我们的技术应用于几个以前无懈可击的任务，包括主题重新上下文化、文本引导视图合成、外观修改和艺术渲染（同时保留主题的关键特征）。项目页面：此 https 网址</t>
+  </si>
+  <si>
+    <t>从理想图像估计神经辐射场 (NeRFs) 已在计算机视觉领域得到广泛研究。大多数方法假设最佳照明和缓慢的相机运动。这些假设在机器人应用中经常被违反，其中图像包含运动模糊并且场景可能没有合适的照明。这可能会导致下游任务（例如场景的导航、检查或可视化）出现重大问题。为了缓解这些问题，我们提出了 E-NeRF，这是第一种从快速移动的事件摄像机中以 NeRF 形式估计体积场景表示的方法。我们的方法可以在非常快速的运动和高动态范围条件下恢复 NeRF，在这种情况下，基于帧的方法会失败。我们展示了仅通过提供事件流作为输入来渲染高质量帧是可能的。此外，通过结合事件和帧，我们可以估计在严重运动模糊下比最先进的方法质量更高的 NeRF。我们还表明，在只有很少的输入视图可用的情况下，结合事件和帧可以克服 NeRF 估计的失败情况，而无需额外的正则化。</t>
+  </si>
+  <si>
+    <t>前景感知图像合成旨在生成图像及其前景蒙版。一种常见的方法是将图像公式化为前景图像和背景图像的蒙版混合。这是一个具有挑战性的问题，因为它很容易达到一个简单的解决方案，即任一图像压倒另一个图像，即蒙版完全满或空，前景和背景没有有意义地分离。我们展示了 FurryGAN 的三个关键组件：1）将前景图像和合成图像都强加为逼真，2）将掩码设计为粗略和精细掩码的组合，以及 3）通过辅助掩码预测器引导生成器鉴别器。我们的方法使用非常详细的 alpha 蒙版生成逼真的图像，这些蒙版以完全无人监督的方式覆盖头发、毛皮和胡须。</t>
+  </si>
+  <si>
+    <t>下一个最佳视图计算 (NBV) 是机器人技术中长期存在的问题，包括识别下一个信息量最大的传感器位置，以有效且准确地重建 3D 对象或场景。像大多数当前方法一样，我们考虑来自深度传感器的 NBV 预测。依赖于场景体积表示的基于学习的方法适用于路径规划，但不能很好地适应场景的大小，并且精度低于使用基于表面的表示的方法。然而，后者将相机限制在少数姿势。为了获得这两种表示的优点，我们表明我们可以通过蒙特卡罗积分在体积表示上最大化表面度量。我们的方法可扩展到大型场景并处理自由相机运动：它将由深度传感器（如激光雷达系统）收集的任意大点云以及相机姿势作为输入来预测 NBV。我们在由大型复杂 3D 场景组成的新数据集上展示了我们的方法。</t>
+  </si>
+  <si>
+    <t>虚拟内容创建和交互在 AR 和 VR 等现代 3D 应用中发挥着重要作用。从真实场景中恢复详细的 3D 模型可以显着扩展其应用范围，并且已经在计算机视觉和计算机图形学界进行了数十年的研究。我们提出了 Vox-Surf，一种基于体素的隐式表面表示。我们的 Vox-Surf 将空间划分为有限的有界体素。每个体素在其角顶点中存储几何和外观信息。由于从体素表示继承而来的稀疏性，Vox-Surf 几乎适用于任何场景，并且可以从多个视图图像中轻松训练。我们利用渐进式训练过程逐步提取重要体素进行进一步优化，从而只保留有效体素，这大大减少了采样点的数量并提高了渲染速度。精细体素也可以视为碰撞检测的边界体积。实验表明，与其他方法相比，Vox-Surf 表示可以以更少的内存和更快的渲染速度学习精细的表面细节和准确的颜色。我们还表明，Vox-Surf 在场景编辑和 AR 应用中可以更实用。</t>
+  </si>
+  <si>
+    <t>在低计算设备上以图形方式渲染高帧率视频的挑战可以通过对未来帧的定期预测来解决，以增强虚拟现实应用程序中的用户体验。这是通过时间视图合成 (TVS) 的问题来研究的，其目标是在给定前一帧以及前一帧和下一帧的头部姿势的情况下预测视频的下一帧。在这项工作中，我们考虑了用户和对象都在移动的动态场景的 TVS。我们设计了一个框架，将运动解耦为用户和对象运动，以在预测下一帧的同时有效地使用可用的用户运动。我们通过隔离和估计过去帧中的 3D 对象运动然后外推来预测对象的运动。我们使用多平面图像 (MPI) 作为场景的 3D 表示，并将对象运动建模为 MPI 表示中对应点之间的 3D 位移。为了在估计运动时处理 MPI 中的稀疏性，我们结合了部分卷积和掩蔽相关层来估计对应点。然后将预测的对象运动与给定的用户或相机运动集成以生成下一帧。使用遮蔽填充模块，我们合成由于相机和物体运动而未覆盖的区域。我们为包含 800 个全高清分辨率视频的动态场景 TVS 开发了一个新的合成数据集。我们通过对我们的数据集和 MPI Sintel 数据集的实验表明，我们的模型优于文献中的所有竞争方法。</t>
+  </si>
+  <si>
+    <t>4D 隐式表示的最新进展集中在使用低维潜在向量全局控制形状和运动，这容易丢失表面细节和累积跟踪误差。尽管许多深度局部表示已显示出可用于 3D 形状建模的有希望的结果，但它们的 4D 对应物尚不存在。在本文中，我们提出了一种新颖的用于动态服装人体的局部 4D 隐式表示，名为 LoRD，以填补这一空白，它兼具 4D 人体建模和局部表示的优点，并能够通过详细的表面变形进行高保真重建，例如衣服褶皱。特别是，我们的关键见解是鼓励网络学习局部部分级表示的潜在代码，能够解释局部几何和时间变形。为了在测试时进行推断，我们首先在每个时间步估计体内骨骼运动以跟踪局部部位，然后根据不同类型的观察数据通过自动解码优化每个部位的潜在代码。大量实验表明，该方法具有很强的表示 4D 人体的能力，并且在实际应用中优于最先进的方法，包括从稀疏点进行 4D 重建、非刚性深度融合，无论是定性还是定量。</t>
+  </si>
+  <si>
+    <t>我们提出了一种从单目视频输入构建可动画 3D 人体表示的新颖范例，这样它就可以以任何看不见的姿势和视图进行渲染。我们的方法基于动态神经辐射场 (NeRF)，该动态神经辐射场 (NeRF) 由作为几何代理的基于网格的参数化 3D 人体模型装配。以前的方法通常依赖多视图视频或准确的 3D 几何信息作为附加输入；此外，大多数方法在推广到看不见的姿势时质量会下降。我们认为，泛化的关键是用于查询动态 NeRF 的良好输入嵌入：良好的输入嵌入应该定义全体积空间中的单射映射，由姿态变化下的表面网格变形引导。基于这一观察，我们建议嵌入输入查询及其与网格顶点上一组测地最近邻所跨越的局部表面区域的关系。通过包含位置和相对距离信息，我们的嵌入定义了距离保留的变形映射，并很好地推广到看不见的姿势。为了减少对额外输入的依赖，我们首先使用现成的工具初始化每帧 3D 网格，然后提出一个管道来联合优化 NeRF 并细化初始网格。大量实验表明，我们的方法可以在看不见的姿势和视图下合成合理的人类渲染结果。</t>
+  </si>
+  <si>
+    <t>我们提出了一个简单的基线，用于直接估计两个图像之间的相对姿势（旋转和平移，包括比例）。深度方法最近显示出强劲的进展，但通常需要复杂或多阶段的架构。我们展示了一些修改可以应用于视觉转换器 (ViT)，以使其计算接近八点算法。这种归纳偏差使一种简单的方法在多种环境中具有竞争力，通常在有限的数据机制中显着提高现有技术水平，并具有强大的性能提升。</t>
+  </si>
+  <si>
+    <t>我们提出了渐进式去模糊辐射场 (PDRF)，这是一种从模糊图像中有效重建高质量辐射场的新方法。虽然当前最先进的 (SoTA) 场景重建方法从干净的源视图实现照片般逼真的渲染结果，但当源视图受到模糊影响时，它们的性能会受到影响，这在野外图像中很常见。以前的去模糊方法要么不考虑 3D 几何，要么计算量很大。为了解决这些问题，PDRF 是辐射场建模中的一种渐进式去模糊方案，它通过结合 3D 场景上下文准确地模拟模糊。 PDRF 进一步使用有效的重要性采样方案，从而实现快速的场景优化。具体来说，PDRF 提出了一种 Coarse Ray Renderer 来快速估计体素密度和特征；然后使用 Fine Voxel Renderer 来实现高质量的光线追踪。我们进行了广泛的实验，结果表明 PDRF 比以前的 SoTA 快 15 倍，同时在合成场景和真实场景上都取得了更好的性能。</t>
+  </si>
+  <si>
+    <t>我们开发了一种文本到图像生成的方法，该方法包含额外的检索图像，由隐式视觉引导损失和生成目标的组合驱动。与大多数现有的仅以文本为输入的文本到图像生成方法不同，我们的方法将跨模态搜索结果动态地馈送到统一的训练阶段，从而提高了生成结果的质量、可控性和多样性。我们提出了一种新的超网络调制的视觉文本编码方案来预测编码层的权重更新，从而实现从视觉信息（例如布局、内容）到相应的潜在域的有效传输。实验结果表明，我们的模型以额外的检索视觉数据为指导，优于现有的基于 GAN 的模型。在 COCO 数据集上，与最先进的方法相比，我们实现了更好的 FID 为 9.13，生成器参数减少了 3.5 倍。</t>
+  </si>
+  <si>
+    <t>我们提出了 PanoHDR-NeRF，这是一种新颖的管道，可以随意捕获大型室内场景的合理全 HDR 辐射场，而无需精心设置或复杂的捕获协议。首先，用户通过在场景周围自由挥动现成的相机来捕捉场景的低动态范围 (LDR) 全向视频。 然后，LDR2HDR 网络将捕获的 LDR 帧提升为 HDR，随后用于训练定制的 NeRF++ 模型。 由此产生的 PanoHDR-NeRF 管道可以从场景的任何位置估计完整的 HDR 全景图。 通过对各种真实场景的新测试数据集进行实验，在训练期间未看到的位置捕获地面实况 HDR 辐射，我们表明 PanoHDR-NeRF 可以预测来自任何场景点的合理辐射。我们还表明，由 PanoHDR-NeRF 生成的 HDR 图像可以合成正确的照明效果，从而能够使用正确照明的合成对象来增强室内场景。</t>
   </si>
 </sst>
 </file>
@@ -2969,12 +3176,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T116"/>
+  <dimension ref="A1:T129"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="F20" sqref="F20"/>
+      <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2983,7 +3190,7 @@
     <col min="2" max="2" width="61.5" customWidth="1"/>
     <col min="3" max="6" width="10.83203125" customWidth="1"/>
     <col min="7" max="7" width="57.83203125" customWidth="1"/>
-    <col min="8" max="8" width="12.5" customWidth="1"/>
+    <col min="8" max="8" width="88.6640625" customWidth="1"/>
     <col min="9" max="17" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3051,336 +3258,354 @@
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>668</v>
+        <v>698</v>
       </c>
       <c r="B2" t="s">
-        <v>664</v>
+        <v>736</v>
       </c>
       <c r="D2" t="s">
-        <v>665</v>
+        <v>737</v>
       </c>
       <c r="E2" t="s">
-        <v>666</v>
-      </c>
-      <c r="F2" t="s">
-        <v>667</v>
+        <v>738</v>
       </c>
       <c r="G2" t="s">
-        <v>683</v>
+        <v>740</v>
       </c>
       <c r="H2" t="s">
-        <v>670</v>
-      </c>
-      <c r="M2">
+        <v>753</v>
+      </c>
+      <c r="R2">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>668</v>
+        <v>698</v>
       </c>
       <c r="B3" t="s">
-        <v>660</v>
+        <v>733</v>
       </c>
       <c r="D3" t="s">
-        <v>661</v>
+        <v>734</v>
       </c>
       <c r="E3" t="s">
-        <v>662</v>
-      </c>
-      <c r="F3" t="s">
-        <v>663</v>
+        <v>735</v>
       </c>
       <c r="G3" t="s">
-        <v>684</v>
+        <v>741</v>
       </c>
       <c r="H3" t="s">
-        <v>671</v>
+        <v>754</v>
       </c>
       <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="S3">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>668</v>
+        <v>698</v>
       </c>
       <c r="B4" t="s">
-        <v>657</v>
-      </c>
-      <c r="C4" t="s">
-        <v>48</v>
+        <v>730</v>
       </c>
       <c r="D4" t="s">
-        <v>658</v>
+        <v>731</v>
       </c>
       <c r="E4" t="s">
-        <v>659</v>
+        <v>732</v>
       </c>
       <c r="G4" t="s">
-        <v>685</v>
+        <v>742</v>
       </c>
       <c r="H4" t="s">
-        <v>672</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
+        <v>755</v>
       </c>
       <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>625</v>
+        <v>698</v>
       </c>
       <c r="B5" t="s">
-        <v>654</v>
+        <v>727</v>
       </c>
       <c r="C5" t="s">
-        <v>633</v>
+        <v>48</v>
       </c>
       <c r="D5" t="s">
-        <v>655</v>
+        <v>728</v>
       </c>
       <c r="E5" t="s">
-        <v>656</v>
+        <v>729</v>
+      </c>
+      <c r="F5" t="s">
+        <v>729</v>
       </c>
       <c r="G5" t="s">
-        <v>686</v>
+        <v>743</v>
       </c>
       <c r="H5" t="s">
-        <v>673</v>
-      </c>
-      <c r="R5">
+        <v>756</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="M5">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>625</v>
+        <v>698</v>
       </c>
       <c r="B6" t="s">
-        <v>651</v>
-      </c>
-      <c r="C6" t="s">
-        <v>652</v>
+        <v>724</v>
       </c>
       <c r="D6" t="s">
-        <v>669</v>
+        <v>725</v>
       </c>
       <c r="E6" t="s">
-        <v>653</v>
+        <v>726</v>
       </c>
       <c r="G6" t="s">
-        <v>687</v>
+        <v>744</v>
       </c>
       <c r="H6" t="s">
-        <v>674</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="N6">
+        <v>757</v>
+      </c>
+      <c r="O6">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>625</v>
+        <v>668</v>
       </c>
       <c r="B7" t="s">
-        <v>648</v>
+        <v>721</v>
       </c>
       <c r="D7" t="s">
-        <v>649</v>
+        <v>722</v>
       </c>
       <c r="E7" t="s">
-        <v>650</v>
+        <v>723</v>
       </c>
       <c r="G7" t="s">
-        <v>688</v>
+        <v>745</v>
       </c>
       <c r="H7" t="s">
-        <v>675</v>
-      </c>
-      <c r="T7">
+        <v>758</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="N7">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>625</v>
+        <v>668</v>
       </c>
       <c r="B8" t="s">
-        <v>644</v>
+        <v>716</v>
       </c>
       <c r="C8" t="s">
-        <v>48</v>
+        <v>717</v>
       </c>
       <c r="D8" t="s">
-        <v>647</v>
+        <v>718</v>
       </c>
       <c r="E8" t="s">
-        <v>646</v>
+        <v>719</v>
       </c>
       <c r="F8" t="s">
-        <v>645</v>
+        <v>720</v>
       </c>
       <c r="G8" t="s">
-        <v>689</v>
+        <v>746</v>
       </c>
       <c r="H8" t="s">
-        <v>676</v>
-      </c>
-      <c r="O8">
+        <v>759</v>
+      </c>
+      <c r="Q8">
+        <v>1</v>
+      </c>
+      <c r="R8">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>625</v>
+        <v>668</v>
       </c>
       <c r="B9" t="s">
-        <v>641</v>
+        <v>713</v>
+      </c>
+      <c r="C9" t="s">
+        <v>48</v>
       </c>
       <c r="D9" t="s">
-        <v>642</v>
+        <v>714</v>
       </c>
       <c r="E9" t="s">
-        <v>643</v>
+        <v>715</v>
       </c>
       <c r="G9" t="s">
-        <v>690</v>
+        <v>747</v>
       </c>
       <c r="H9" t="s">
-        <v>677</v>
-      </c>
-      <c r="T9">
+        <v>760</v>
+      </c>
+      <c r="R9">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>625</v>
+        <v>668</v>
       </c>
       <c r="B10" t="s">
-        <v>639</v>
+        <v>710</v>
+      </c>
+      <c r="C10" t="s">
+        <v>48</v>
       </c>
       <c r="D10" t="s">
-        <v>640</v>
+        <v>711</v>
       </c>
       <c r="E10" t="s">
-        <v>696</v>
+        <v>712</v>
       </c>
       <c r="G10" t="s">
-        <v>691</v>
+        <v>748</v>
       </c>
       <c r="H10" t="s">
-        <v>678</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="M10">
+        <v>761</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="Q10">
+        <v>1</v>
+      </c>
+      <c r="R10">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>625</v>
+        <v>668</v>
       </c>
       <c r="B11" t="s">
-        <v>636</v>
+        <v>706</v>
+      </c>
+      <c r="C11" t="s">
+        <v>633</v>
       </c>
       <c r="D11" t="s">
-        <v>637</v>
+        <v>707</v>
       </c>
       <c r="E11" t="s">
-        <v>638</v>
+        <v>708</v>
+      </c>
+      <c r="F11" t="s">
+        <v>709</v>
       </c>
       <c r="G11" t="s">
-        <v>692</v>
+        <v>749</v>
       </c>
       <c r="H11" t="s">
-        <v>679</v>
-      </c>
-      <c r="T11">
+        <v>762</v>
+      </c>
+      <c r="O11">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>625</v>
+        <v>668</v>
       </c>
       <c r="B12" t="s">
-        <v>632</v>
-      </c>
-      <c r="C12" t="s">
-        <v>633</v>
+        <v>703</v>
       </c>
       <c r="D12" t="s">
-        <v>634</v>
+        <v>704</v>
       </c>
       <c r="E12" t="s">
-        <v>635</v>
+        <v>705</v>
       </c>
       <c r="G12" t="s">
-        <v>693</v>
+        <v>750</v>
       </c>
       <c r="H12" t="s">
-        <v>680</v>
-      </c>
-      <c r="N12">
+        <v>763</v>
+      </c>
+      <c r="K12">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>625</v>
+        <v>668</v>
       </c>
       <c r="B13" t="s">
-        <v>629</v>
-      </c>
-      <c r="C13" t="s">
-        <v>48</v>
+        <v>701</v>
       </c>
       <c r="D13" t="s">
-        <v>630</v>
+        <v>739</v>
       </c>
       <c r="E13" t="s">
-        <v>631</v>
+        <v>702</v>
       </c>
       <c r="G13" t="s">
-        <v>694</v>
+        <v>751</v>
       </c>
       <c r="H13" t="s">
-        <v>681</v>
-      </c>
-      <c r="N13">
+        <v>764</v>
+      </c>
+      <c r="M13">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>625</v>
+        <v>668</v>
       </c>
       <c r="B14" t="s">
-        <v>626</v>
+        <v>697</v>
       </c>
       <c r="D14" t="s">
-        <v>627</v>
+        <v>699</v>
       </c>
       <c r="E14" t="s">
-        <v>628</v>
+        <v>700</v>
       </c>
       <c r="G14" t="s">
-        <v>695</v>
+        <v>752</v>
       </c>
       <c r="H14" t="s">
-        <v>682</v>
-      </c>
-      <c r="N14">
+        <v>765</v>
+      </c>
+      <c r="I14">
         <v>1</v>
       </c>
       <c r="Q14">
@@ -3389,592 +3614,553 @@
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>668</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" t="s">
-        <v>19</v>
+        <v>664</v>
       </c>
       <c r="D15" t="s">
-        <v>20</v>
+        <v>665</v>
       </c>
       <c r="E15" t="s">
-        <v>21</v>
+        <v>666</v>
+      </c>
+      <c r="F15" t="s">
+        <v>667</v>
       </c>
       <c r="G15" t="s">
-        <v>22</v>
+        <v>683</v>
       </c>
       <c r="H15" t="s">
-        <v>23</v>
-      </c>
-      <c r="L15">
+        <v>670</v>
+      </c>
+      <c r="M15">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>668</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>660</v>
       </c>
       <c r="D16" t="s">
-        <v>56</v>
+        <v>661</v>
       </c>
       <c r="E16" t="s">
-        <v>78</v>
+        <v>662</v>
+      </c>
+      <c r="F16" t="s">
+        <v>663</v>
       </c>
       <c r="G16" t="s">
-        <v>108</v>
+        <v>684</v>
       </c>
       <c r="H16" t="s">
-        <v>129</v>
-      </c>
-      <c r="M16">
-        <v>1</v>
-      </c>
-      <c r="S16">
+        <v>671</v>
+      </c>
+      <c r="J16">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>668</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>657</v>
+      </c>
+      <c r="C17" t="s">
+        <v>48</v>
       </c>
       <c r="D17" t="s">
-        <v>57</v>
+        <v>658</v>
       </c>
       <c r="E17" t="s">
-        <v>79</v>
+        <v>659</v>
       </c>
       <c r="G17" t="s">
-        <v>26</v>
+        <v>685</v>
       </c>
       <c r="H17" t="s">
-        <v>130</v>
-      </c>
-      <c r="N17">
-        <v>1</v>
-      </c>
-      <c r="O17">
+        <v>672</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="K17">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>625</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>654</v>
       </c>
       <c r="C18" t="s">
-        <v>48</v>
+        <v>633</v>
       </c>
       <c r="D18" t="s">
-        <v>58</v>
+        <v>655</v>
       </c>
       <c r="E18" t="s">
-        <v>80</v>
-      </c>
-      <c r="F18" t="s">
-        <v>100</v>
+        <v>656</v>
       </c>
       <c r="G18" t="s">
-        <v>34</v>
+        <v>686</v>
       </c>
       <c r="H18" t="s">
-        <v>131</v>
-      </c>
-      <c r="M18">
+        <v>673</v>
+      </c>
+      <c r="R18">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>17</v>
+        <v>625</v>
       </c>
       <c r="B19" t="s">
-        <v>27</v>
+        <v>651</v>
+      </c>
+      <c r="C19" t="s">
+        <v>652</v>
       </c>
       <c r="D19" t="s">
-        <v>59</v>
+        <v>669</v>
       </c>
       <c r="E19" t="s">
-        <v>81</v>
+        <v>653</v>
       </c>
       <c r="G19" t="s">
-        <v>109</v>
+        <v>687</v>
       </c>
       <c r="H19" t="s">
-        <v>132</v>
+        <v>674</v>
       </c>
       <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="N19">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>17</v>
+        <v>625</v>
       </c>
       <c r="B20" t="s">
-        <v>28</v>
+        <v>648</v>
       </c>
       <c r="D20" t="s">
-        <v>60</v>
+        <v>649</v>
       </c>
       <c r="E20" t="s">
-        <v>82</v>
+        <v>650</v>
       </c>
       <c r="G20" t="s">
-        <v>110</v>
+        <v>688</v>
       </c>
       <c r="H20" t="s">
-        <v>133</v>
-      </c>
-      <c r="J20">
-        <v>1</v>
-      </c>
-      <c r="M20">
+        <v>675</v>
+      </c>
+      <c r="T20">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>17</v>
+        <v>625</v>
       </c>
       <c r="B21" t="s">
-        <v>35</v>
+        <v>644</v>
       </c>
       <c r="C21" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="D21" t="s">
-        <v>61</v>
+        <v>647</v>
       </c>
       <c r="E21" t="s">
-        <v>83</v>
+        <v>646</v>
+      </c>
+      <c r="F21" t="s">
+        <v>645</v>
       </c>
       <c r="G21" t="s">
-        <v>111</v>
+        <v>689</v>
       </c>
       <c r="H21" t="s">
-        <v>134</v>
-      </c>
-      <c r="J21">
-        <v>1</v>
-      </c>
-      <c r="L21">
+        <v>676</v>
+      </c>
+      <c r="O21">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>17</v>
+        <v>625</v>
       </c>
       <c r="B22" t="s">
-        <v>36</v>
-      </c>
-      <c r="C22" t="s">
-        <v>54</v>
+        <v>641</v>
       </c>
       <c r="D22" t="s">
-        <v>151</v>
+        <v>642</v>
       </c>
       <c r="E22" t="s">
-        <v>83</v>
+        <v>643</v>
       </c>
       <c r="G22" t="s">
-        <v>127</v>
+        <v>690</v>
       </c>
       <c r="H22" t="s">
-        <v>152</v>
-      </c>
-      <c r="J22">
-        <v>1</v>
-      </c>
-      <c r="L22">
+        <v>677</v>
+      </c>
+      <c r="T22">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>18</v>
+        <v>625</v>
       </c>
       <c r="B23" t="s">
-        <v>37</v>
-      </c>
-      <c r="C23" t="s">
-        <v>53</v>
+        <v>639</v>
       </c>
       <c r="D23" t="s">
-        <v>62</v>
+        <v>640</v>
       </c>
       <c r="E23" t="s">
-        <v>84</v>
-      </c>
-      <c r="F23" t="s">
-        <v>101</v>
+        <v>696</v>
       </c>
       <c r="G23" t="s">
-        <v>112</v>
+        <v>691</v>
       </c>
       <c r="H23" t="s">
-        <v>135</v>
-      </c>
-      <c r="T23">
+        <v>678</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="M23">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>18</v>
+        <v>625</v>
       </c>
       <c r="B24" t="s">
-        <v>38</v>
-      </c>
-      <c r="C24" t="s">
-        <v>52</v>
+        <v>636</v>
       </c>
       <c r="D24" t="s">
-        <v>63</v>
+        <v>637</v>
       </c>
       <c r="E24" t="s">
-        <v>85</v>
+        <v>638</v>
       </c>
       <c r="G24" t="s">
-        <v>113</v>
+        <v>692</v>
       </c>
       <c r="H24" t="s">
-        <v>136</v>
-      </c>
-      <c r="M24">
+        <v>679</v>
+      </c>
+      <c r="T24">
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>18</v>
+        <v>625</v>
       </c>
       <c r="B25" t="s">
-        <v>39</v>
+        <v>632</v>
       </c>
       <c r="C25" t="s">
-        <v>51</v>
+        <v>633</v>
       </c>
       <c r="D25" t="s">
-        <v>64</v>
+        <v>634</v>
       </c>
       <c r="E25" t="s">
-        <v>86</v>
+        <v>635</v>
       </c>
       <c r="G25" t="s">
-        <v>114</v>
+        <v>693</v>
       </c>
       <c r="H25" t="s">
-        <v>137</v>
-      </c>
-      <c r="M25">
-        <v>1</v>
-      </c>
-      <c r="O25">
+        <v>680</v>
+      </c>
+      <c r="N25">
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>18</v>
+        <v>625</v>
       </c>
       <c r="B26" t="s">
-        <v>29</v>
+        <v>629</v>
+      </c>
+      <c r="C26" t="s">
+        <v>48</v>
       </c>
       <c r="D26" t="s">
-        <v>65</v>
+        <v>630</v>
       </c>
       <c r="E26" t="s">
-        <v>87</v>
-      </c>
-      <c r="F26" t="s">
-        <v>102</v>
+        <v>631</v>
       </c>
       <c r="G26" t="s">
-        <v>115</v>
+        <v>694</v>
       </c>
       <c r="H26" t="s">
-        <v>138</v>
-      </c>
-      <c r="J26">
-        <v>1</v>
-      </c>
-      <c r="K26">
+        <v>681</v>
+      </c>
+      <c r="N26">
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>18</v>
+        <v>625</v>
       </c>
       <c r="B27" t="s">
-        <v>40</v>
-      </c>
-      <c r="C27" t="s">
-        <v>48</v>
+        <v>626</v>
       </c>
       <c r="D27" t="s">
-        <v>66</v>
+        <v>627</v>
       </c>
       <c r="E27" t="s">
-        <v>88</v>
-      </c>
-      <c r="F27" t="s">
-        <v>103</v>
+        <v>628</v>
       </c>
       <c r="G27" t="s">
-        <v>116</v>
+        <v>695</v>
       </c>
       <c r="H27" t="s">
-        <v>139</v>
-      </c>
-      <c r="O27">
-        <v>1</v>
-      </c>
-      <c r="T27">
+        <v>682</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="Q27">
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B28" t="s">
-        <v>30</v>
+        <v>24</v>
+      </c>
+      <c r="C28" t="s">
+        <v>19</v>
       </c>
       <c r="D28" t="s">
-        <v>67</v>
+        <v>20</v>
       </c>
       <c r="E28" t="s">
-        <v>89</v>
+        <v>21</v>
       </c>
       <c r="G28" t="s">
-        <v>117</v>
+        <v>22</v>
       </c>
       <c r="H28" t="s">
-        <v>140</v>
-      </c>
-      <c r="K28">
-        <v>1</v>
-      </c>
-      <c r="M28">
-        <v>1</v>
-      </c>
-      <c r="T28">
+        <v>23</v>
+      </c>
+      <c r="L28">
         <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B29" t="s">
-        <v>41</v>
-      </c>
-      <c r="C29" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="D29" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="E29" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="G29" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="H29" t="s">
-        <v>141</v>
-      </c>
-      <c r="K29">
-        <v>1</v>
-      </c>
-      <c r="N29">
+        <v>129</v>
+      </c>
+      <c r="M29">
+        <v>1</v>
+      </c>
+      <c r="S29">
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B30" t="s">
-        <v>42</v>
-      </c>
-      <c r="C30" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="D30" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="E30" t="s">
-        <v>91</v>
-      </c>
-      <c r="F30" t="s">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="G30" t="s">
-        <v>119</v>
+        <v>26</v>
       </c>
       <c r="H30" t="s">
-        <v>142</v>
-      </c>
-      <c r="R30">
-        <v>1</v>
-      </c>
-      <c r="T30">
+        <v>130</v>
+      </c>
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="O30">
         <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B31" t="s">
-        <v>31</v>
+        <v>34</v>
+      </c>
+      <c r="C31" t="s">
+        <v>48</v>
       </c>
       <c r="D31" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="E31" t="s">
-        <v>92</v>
+        <v>80</v>
+      </c>
+      <c r="F31" t="s">
+        <v>100</v>
       </c>
       <c r="G31" t="s">
-        <v>120</v>
+        <v>34</v>
       </c>
       <c r="H31" t="s">
-        <v>143</v>
-      </c>
-      <c r="I31">
+        <v>131</v>
+      </c>
+      <c r="M31">
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B32" t="s">
-        <v>43</v>
-      </c>
-      <c r="C32" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="D32" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="E32" t="s">
-        <v>93</v>
-      </c>
-      <c r="F32" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="G32" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="H32" t="s">
-        <v>144</v>
-      </c>
-      <c r="O32">
-        <v>1</v>
-      </c>
-      <c r="P32">
+        <v>132</v>
+      </c>
+      <c r="K32">
         <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B33" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D33" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="E33" t="s">
-        <v>94</v>
-      </c>
-      <c r="F33" t="s">
-        <v>106</v>
+        <v>82</v>
       </c>
       <c r="G33" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="H33" t="s">
-        <v>145</v>
-      </c>
-      <c r="N33">
-        <v>1</v>
-      </c>
-      <c r="O33">
+        <v>133</v>
+      </c>
+      <c r="J33">
+        <v>1</v>
+      </c>
+      <c r="M33">
         <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B34" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="C34" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="D34" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="E34" t="s">
-        <v>95</v>
-      </c>
-      <c r="F34" t="s">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="G34" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="H34" t="s">
-        <v>146</v>
-      </c>
-      <c r="N34">
-        <v>1</v>
-      </c>
-      <c r="O34">
+        <v>134</v>
+      </c>
+      <c r="J34">
+        <v>1</v>
+      </c>
+      <c r="L34">
         <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B35" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="C35" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D35" t="s">
-        <v>74</v>
+        <v>151</v>
       </c>
       <c r="E35" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="G35" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="H35" t="s">
-        <v>147</v>
-      </c>
-      <c r="T35">
+        <v>152</v>
+      </c>
+      <c r="J35">
+        <v>1</v>
+      </c>
+      <c r="L35">
         <v>1</v>
       </c>
     </row>
@@ -3983,27 +4169,27 @@
         <v>18</v>
       </c>
       <c r="B36" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="C36" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D36" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="E36" t="s">
-        <v>97</v>
+        <v>84</v>
+      </c>
+      <c r="F36" t="s">
+        <v>101</v>
       </c>
       <c r="G36" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="H36" t="s">
-        <v>148</v>
-      </c>
-      <c r="J36">
-        <v>1</v>
-      </c>
-      <c r="L36">
+        <v>135</v>
+      </c>
+      <c r="T36">
         <v>1</v>
       </c>
     </row>
@@ -4012,30 +4198,24 @@
         <v>18</v>
       </c>
       <c r="B37" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="C37" t="s">
-        <v>290</v>
+        <v>52</v>
       </c>
       <c r="D37" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="E37" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="G37" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="H37" t="s">
-        <v>149</v>
-      </c>
-      <c r="J37">
-        <v>1</v>
-      </c>
-      <c r="N37">
-        <v>1</v>
-      </c>
-      <c r="P37">
+        <v>136</v>
+      </c>
+      <c r="M37">
         <v>1</v>
       </c>
     </row>
@@ -4044,390 +4224,402 @@
         <v>18</v>
       </c>
       <c r="B38" t="s">
-        <v>33</v>
+        <v>39</v>
+      </c>
+      <c r="C38" t="s">
+        <v>51</v>
       </c>
       <c r="D38" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="E38" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="G38" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="H38" t="s">
-        <v>150</v>
-      </c>
-      <c r="T38">
+        <v>137</v>
+      </c>
+      <c r="M38">
+        <v>1</v>
+      </c>
+      <c r="O38">
         <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>154</v>
+        <v>18</v>
       </c>
       <c r="B39" t="s">
-        <v>155</v>
-      </c>
-      <c r="C39" t="s">
-        <v>157</v>
+        <v>29</v>
       </c>
       <c r="D39" t="s">
-        <v>259</v>
+        <v>65</v>
       </c>
       <c r="E39" t="s">
-        <v>158</v>
+        <v>87</v>
       </c>
       <c r="F39" t="s">
-        <v>159</v>
+        <v>102</v>
       </c>
       <c r="G39" t="s">
-        <v>160</v>
+        <v>115</v>
       </c>
       <c r="H39" t="s">
-        <v>161</v>
-      </c>
-      <c r="T39">
+        <v>138</v>
+      </c>
+      <c r="J39">
+        <v>1</v>
+      </c>
+      <c r="K39">
         <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>154</v>
+        <v>18</v>
       </c>
       <c r="B40" t="s">
-        <v>156</v>
+        <v>40</v>
       </c>
       <c r="C40" t="s">
-        <v>357</v>
+        <v>48</v>
       </c>
       <c r="D40" t="s">
-        <v>162</v>
+        <v>66</v>
       </c>
       <c r="E40" t="s">
-        <v>163</v>
+        <v>88</v>
       </c>
       <c r="F40" t="s">
-        <v>164</v>
+        <v>103</v>
       </c>
       <c r="G40" t="s">
-        <v>166</v>
+        <v>116</v>
       </c>
       <c r="H40" t="s">
-        <v>165</v>
-      </c>
-      <c r="J40">
-        <v>1</v>
-      </c>
-      <c r="K40">
+        <v>139</v>
+      </c>
+      <c r="O40">
+        <v>1</v>
+      </c>
+      <c r="T40">
         <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>154</v>
+        <v>18</v>
       </c>
       <c r="B41" t="s">
-        <v>167</v>
-      </c>
-      <c r="C41" t="s">
-        <v>168</v>
+        <v>30</v>
       </c>
       <c r="D41" t="s">
-        <v>169</v>
+        <v>67</v>
       </c>
       <c r="E41" t="s">
-        <v>172</v>
-      </c>
-      <c r="F41" t="s">
-        <v>173</v>
+        <v>89</v>
       </c>
       <c r="G41" t="s">
-        <v>171</v>
+        <v>117</v>
       </c>
       <c r="H41" t="s">
-        <v>170</v>
+        <v>140</v>
       </c>
       <c r="K41">
+        <v>1</v>
+      </c>
+      <c r="M41">
+        <v>1</v>
+      </c>
+      <c r="T41">
         <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>154</v>
+        <v>18</v>
       </c>
       <c r="B42" t="s">
-        <v>174</v>
+        <v>41</v>
+      </c>
+      <c r="C42" t="s">
+        <v>50</v>
       </c>
       <c r="D42" t="s">
-        <v>175</v>
+        <v>68</v>
       </c>
       <c r="E42" t="s">
-        <v>176</v>
+        <v>90</v>
       </c>
       <c r="G42" t="s">
-        <v>474</v>
+        <v>118</v>
       </c>
       <c r="H42" t="s">
-        <v>549</v>
+        <v>141</v>
       </c>
       <c r="K42">
+        <v>1</v>
+      </c>
+      <c r="N42">
         <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>154</v>
+        <v>18</v>
       </c>
       <c r="B43" t="s">
-        <v>177</v>
+        <v>42</v>
       </c>
       <c r="C43" t="s">
-        <v>178</v>
+        <v>48</v>
       </c>
       <c r="D43" t="s">
-        <v>179</v>
+        <v>69</v>
       </c>
       <c r="E43" t="s">
-        <v>180</v>
+        <v>91</v>
       </c>
       <c r="F43" t="s">
-        <v>181</v>
+        <v>104</v>
       </c>
       <c r="G43" t="s">
-        <v>475</v>
+        <v>119</v>
       </c>
       <c r="H43" t="s">
-        <v>550</v>
-      </c>
-      <c r="K43">
+        <v>142</v>
+      </c>
+      <c r="R43">
+        <v>1</v>
+      </c>
+      <c r="T43">
         <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>154</v>
+        <v>18</v>
       </c>
       <c r="B44" t="s">
-        <v>182</v>
-      </c>
-      <c r="C44" t="s">
-        <v>185</v>
+        <v>31</v>
       </c>
       <c r="D44" t="s">
-        <v>183</v>
+        <v>70</v>
       </c>
       <c r="E44" t="s">
-        <v>184</v>
+        <v>92</v>
       </c>
       <c r="G44" t="s">
-        <v>476</v>
+        <v>120</v>
       </c>
       <c r="H44" t="s">
-        <v>551</v>
-      </c>
-      <c r="K44">
+        <v>143</v>
+      </c>
+      <c r="I44">
         <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>154</v>
+        <v>18</v>
       </c>
       <c r="B45" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="C45" t="s">
-        <v>185</v>
+        <v>48</v>
       </c>
       <c r="D45" t="s">
-        <v>187</v>
+        <v>71</v>
       </c>
       <c r="E45" t="s">
-        <v>188</v>
+        <v>93</v>
       </c>
       <c r="F45" t="s">
-        <v>189</v>
+        <v>105</v>
       </c>
       <c r="G45" t="s">
-        <v>477</v>
+        <v>121</v>
       </c>
       <c r="H45" t="s">
-        <v>552</v>
-      </c>
-      <c r="K45">
+        <v>144</v>
+      </c>
+      <c r="O45">
+        <v>1</v>
+      </c>
+      <c r="P45">
         <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>154</v>
+        <v>18</v>
       </c>
       <c r="B46" t="s">
-        <v>190</v>
-      </c>
-      <c r="C46" t="s">
-        <v>191</v>
+        <v>32</v>
       </c>
       <c r="D46" t="s">
-        <v>192</v>
+        <v>72</v>
       </c>
       <c r="E46" t="s">
-        <v>193</v>
+        <v>94</v>
       </c>
       <c r="F46" t="s">
-        <v>194</v>
+        <v>106</v>
       </c>
       <c r="G46" t="s">
-        <v>478</v>
+        <v>122</v>
       </c>
       <c r="H46" t="s">
-        <v>553</v>
-      </c>
-      <c r="K46">
+        <v>145</v>
+      </c>
+      <c r="N46">
+        <v>1</v>
+      </c>
+      <c r="O46">
         <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>154</v>
+        <v>18</v>
       </c>
       <c r="B47" t="s">
-        <v>195</v>
+        <v>44</v>
       </c>
       <c r="C47" t="s">
-        <v>196</v>
+        <v>48</v>
       </c>
       <c r="D47" t="s">
-        <v>197</v>
+        <v>73</v>
       </c>
       <c r="E47" t="s">
-        <v>198</v>
+        <v>95</v>
+      </c>
+      <c r="F47" t="s">
+        <v>107</v>
       </c>
       <c r="G47" t="s">
-        <v>479</v>
+        <v>123</v>
       </c>
       <c r="H47" t="s">
-        <v>554</v>
-      </c>
-      <c r="K47">
+        <v>146</v>
+      </c>
+      <c r="N47">
+        <v>1</v>
+      </c>
+      <c r="O47">
         <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>154</v>
+        <v>18</v>
       </c>
       <c r="B48" t="s">
-        <v>199</v>
+        <v>45</v>
       </c>
       <c r="C48" t="s">
-        <v>358</v>
+        <v>49</v>
       </c>
       <c r="D48" t="s">
-        <v>200</v>
+        <v>74</v>
       </c>
       <c r="E48" t="s">
-        <v>201</v>
-      </c>
-      <c r="F48" t="s">
-        <v>202</v>
+        <v>96</v>
       </c>
       <c r="G48" t="s">
-        <v>480</v>
+        <v>124</v>
       </c>
       <c r="H48" t="s">
-        <v>555</v>
-      </c>
-      <c r="K48">
+        <v>147</v>
+      </c>
+      <c r="T48">
         <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>154</v>
+        <v>18</v>
       </c>
       <c r="B49" t="s">
-        <v>203</v>
+        <v>46</v>
       </c>
       <c r="C49" t="s">
-        <v>205</v>
+        <v>48</v>
       </c>
       <c r="D49" t="s">
-        <v>206</v>
+        <v>75</v>
       </c>
       <c r="E49" t="s">
-        <v>207</v>
-      </c>
-      <c r="F49" t="s">
-        <v>204</v>
+        <v>97</v>
       </c>
       <c r="G49" t="s">
-        <v>481</v>
+        <v>125</v>
       </c>
       <c r="H49" t="s">
-        <v>556</v>
-      </c>
-      <c r="K49">
+        <v>148</v>
+      </c>
+      <c r="J49">
+        <v>1</v>
+      </c>
+      <c r="L49">
         <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>154</v>
+        <v>18</v>
       </c>
       <c r="B50" t="s">
-        <v>208</v>
+        <v>47</v>
       </c>
       <c r="C50" t="s">
-        <v>209</v>
+        <v>290</v>
       </c>
       <c r="D50" t="s">
-        <v>210</v>
+        <v>76</v>
       </c>
       <c r="E50" t="s">
-        <v>211</v>
-      </c>
-      <c r="F50" t="s">
-        <v>212</v>
+        <v>98</v>
       </c>
       <c r="G50" t="s">
-        <v>482</v>
+        <v>126</v>
       </c>
       <c r="H50" t="s">
-        <v>557</v>
-      </c>
-      <c r="K50">
+        <v>149</v>
+      </c>
+      <c r="J50">
+        <v>1</v>
+      </c>
+      <c r="N50">
+        <v>1</v>
+      </c>
+      <c r="P50">
         <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>154</v>
+        <v>18</v>
       </c>
       <c r="B51" t="s">
-        <v>213</v>
-      </c>
-      <c r="C51" t="s">
-        <v>168</v>
+        <v>33</v>
       </c>
       <c r="D51" t="s">
-        <v>214</v>
+        <v>77</v>
       </c>
       <c r="E51" t="s">
-        <v>215</v>
+        <v>99</v>
       </c>
       <c r="G51" t="s">
-        <v>483</v>
+        <v>128</v>
       </c>
       <c r="H51" t="s">
-        <v>558</v>
-      </c>
-      <c r="I51">
-        <v>1</v>
-      </c>
-      <c r="O51">
-        <v>1</v>
+        <v>150</v>
       </c>
       <c r="T51">
         <v>1</v>
@@ -4438,31 +4630,25 @@
         <v>154</v>
       </c>
       <c r="B52" t="s">
-        <v>216</v>
+        <v>155</v>
       </c>
       <c r="C52" t="s">
-        <v>205</v>
+        <v>157</v>
       </c>
       <c r="D52" t="s">
-        <v>217</v>
+        <v>259</v>
       </c>
       <c r="E52" t="s">
-        <v>218</v>
+        <v>158</v>
       </c>
       <c r="F52" t="s">
-        <v>219</v>
+        <v>159</v>
       </c>
       <c r="G52" t="s">
-        <v>484</v>
+        <v>160</v>
       </c>
       <c r="H52" t="s">
-        <v>559</v>
-      </c>
-      <c r="I52">
-        <v>1</v>
-      </c>
-      <c r="O52">
-        <v>1</v>
+        <v>161</v>
       </c>
       <c r="T52">
         <v>1</v>
@@ -4473,27 +4659,30 @@
         <v>154</v>
       </c>
       <c r="B53" t="s">
-        <v>220</v>
+        <v>156</v>
       </c>
       <c r="C53" t="s">
-        <v>185</v>
+        <v>357</v>
       </c>
       <c r="D53" t="s">
-        <v>221</v>
+        <v>162</v>
       </c>
       <c r="E53" t="s">
-        <v>222</v>
+        <v>163</v>
+      </c>
+      <c r="F53" t="s">
+        <v>164</v>
       </c>
       <c r="G53" t="s">
-        <v>485</v>
+        <v>166</v>
       </c>
       <c r="H53" t="s">
-        <v>560</v>
-      </c>
-      <c r="O53">
-        <v>1</v>
-      </c>
-      <c r="T53">
+        <v>165</v>
+      </c>
+      <c r="J53">
+        <v>1</v>
+      </c>
+      <c r="K53">
         <v>1</v>
       </c>
     </row>
@@ -4502,30 +4691,27 @@
         <v>154</v>
       </c>
       <c r="B54" t="s">
-        <v>223</v>
+        <v>167</v>
       </c>
       <c r="C54" t="s">
         <v>168</v>
       </c>
       <c r="D54" t="s">
-        <v>224</v>
+        <v>169</v>
       </c>
       <c r="E54" t="s">
-        <v>225</v>
+        <v>172</v>
       </c>
       <c r="F54" t="s">
-        <v>226</v>
+        <v>173</v>
       </c>
       <c r="G54" t="s">
-        <v>486</v>
+        <v>171</v>
       </c>
       <c r="H54" t="s">
-        <v>561</v>
-      </c>
-      <c r="L54">
-        <v>1</v>
-      </c>
-      <c r="T54">
+        <v>170</v>
+      </c>
+      <c r="K54">
         <v>1</v>
       </c>
     </row>
@@ -4534,36 +4720,21 @@
         <v>154</v>
       </c>
       <c r="B55" t="s">
-        <v>227</v>
-      </c>
-      <c r="C55" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="D55" t="s">
-        <v>228</v>
+        <v>175</v>
       </c>
       <c r="E55" t="s">
-        <v>229</v>
-      </c>
-      <c r="F55" t="s">
-        <v>230</v>
+        <v>176</v>
       </c>
       <c r="G55" t="s">
-        <v>487</v>
+        <v>474</v>
       </c>
       <c r="H55" t="s">
-        <v>562</v>
-      </c>
-      <c r="L55">
-        <v>1</v>
-      </c>
-      <c r="O55">
-        <v>1</v>
-      </c>
-      <c r="R55">
-        <v>1</v>
-      </c>
-      <c r="T55">
+        <v>549</v>
+      </c>
+      <c r="K55">
         <v>1</v>
       </c>
     </row>
@@ -4572,30 +4743,27 @@
         <v>154</v>
       </c>
       <c r="B56" t="s">
-        <v>231</v>
+        <v>177</v>
       </c>
       <c r="C56" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="D56" t="s">
-        <v>232</v>
+        <v>179</v>
       </c>
       <c r="E56" t="s">
-        <v>233</v>
+        <v>180</v>
       </c>
       <c r="F56" t="s">
-        <v>234</v>
+        <v>181</v>
       </c>
       <c r="G56" t="s">
-        <v>488</v>
+        <v>475</v>
       </c>
       <c r="H56" t="s">
-        <v>563</v>
-      </c>
-      <c r="L56">
-        <v>1</v>
-      </c>
-      <c r="N56">
+        <v>550</v>
+      </c>
+      <c r="K56">
         <v>1</v>
       </c>
     </row>
@@ -4604,27 +4772,24 @@
         <v>154</v>
       </c>
       <c r="B57" t="s">
-        <v>235</v>
+        <v>182</v>
       </c>
       <c r="C57" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="D57" t="s">
-        <v>236</v>
+        <v>183</v>
       </c>
       <c r="E57" t="s">
-        <v>237</v>
+        <v>184</v>
       </c>
       <c r="G57" t="s">
-        <v>489</v>
+        <v>476</v>
       </c>
       <c r="H57" t="s">
-        <v>564</v>
-      </c>
-      <c r="R57">
-        <v>1</v>
-      </c>
-      <c r="T57">
+        <v>551</v>
+      </c>
+      <c r="K57">
         <v>1</v>
       </c>
     </row>
@@ -4633,30 +4798,27 @@
         <v>154</v>
       </c>
       <c r="B58" t="s">
-        <v>238</v>
+        <v>186</v>
       </c>
       <c r="C58" t="s">
         <v>185</v>
       </c>
       <c r="D58" t="s">
-        <v>239</v>
+        <v>187</v>
       </c>
       <c r="E58" t="s">
-        <v>240</v>
+        <v>188</v>
       </c>
       <c r="F58" t="s">
-        <v>241</v>
+        <v>189</v>
       </c>
       <c r="G58" t="s">
-        <v>490</v>
+        <v>477</v>
       </c>
       <c r="H58" t="s">
-        <v>565</v>
-      </c>
-      <c r="N58">
-        <v>1</v>
-      </c>
-      <c r="O58">
+        <v>552</v>
+      </c>
+      <c r="K58">
         <v>1</v>
       </c>
     </row>
@@ -4665,24 +4827,27 @@
         <v>154</v>
       </c>
       <c r="B59" t="s">
-        <v>242</v>
+        <v>190</v>
       </c>
       <c r="C59" t="s">
-        <v>243</v>
+        <v>191</v>
       </c>
       <c r="D59" t="s">
-        <v>244</v>
+        <v>192</v>
       </c>
       <c r="E59" t="s">
-        <v>245</v>
+        <v>193</v>
+      </c>
+      <c r="F59" t="s">
+        <v>194</v>
       </c>
       <c r="G59" t="s">
-        <v>491</v>
+        <v>478</v>
       </c>
       <c r="H59" t="s">
-        <v>566</v>
-      </c>
-      <c r="M59">
+        <v>553</v>
+      </c>
+      <c r="K59">
         <v>1</v>
       </c>
     </row>
@@ -4691,30 +4856,24 @@
         <v>154</v>
       </c>
       <c r="B60" t="s">
-        <v>246</v>
+        <v>195</v>
       </c>
       <c r="C60" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="D60" t="s">
-        <v>247</v>
+        <v>197</v>
       </c>
       <c r="E60" t="s">
-        <v>248</v>
-      </c>
-      <c r="F60" t="s">
-        <v>249</v>
+        <v>198</v>
       </c>
       <c r="G60" t="s">
-        <v>492</v>
+        <v>479</v>
       </c>
       <c r="H60" t="s">
-        <v>567</v>
-      </c>
-      <c r="R60">
-        <v>1</v>
-      </c>
-      <c r="T60">
+        <v>554</v>
+      </c>
+      <c r="K60">
         <v>1</v>
       </c>
     </row>
@@ -4723,30 +4882,27 @@
         <v>154</v>
       </c>
       <c r="B61" t="s">
-        <v>250</v>
+        <v>199</v>
       </c>
       <c r="C61" t="s">
-        <v>251</v>
+        <v>358</v>
       </c>
       <c r="D61" t="s">
-        <v>252</v>
+        <v>200</v>
       </c>
       <c r="E61" t="s">
-        <v>253</v>
+        <v>201</v>
       </c>
       <c r="F61" t="s">
-        <v>254</v>
+        <v>202</v>
       </c>
       <c r="G61" t="s">
-        <v>493</v>
+        <v>480</v>
       </c>
       <c r="H61" t="s">
-        <v>568</v>
-      </c>
-      <c r="O61">
-        <v>1</v>
-      </c>
-      <c r="R61">
+        <v>555</v>
+      </c>
+      <c r="K61">
         <v>1</v>
       </c>
     </row>
@@ -4755,27 +4911,27 @@
         <v>154</v>
       </c>
       <c r="B62" t="s">
-        <v>255</v>
+        <v>203</v>
       </c>
       <c r="C62" t="s">
-        <v>168</v>
+        <v>205</v>
       </c>
       <c r="D62" t="s">
-        <v>260</v>
+        <v>206</v>
       </c>
       <c r="E62" t="s">
-        <v>256</v>
+        <v>207</v>
       </c>
       <c r="F62" t="s">
-        <v>257</v>
+        <v>204</v>
       </c>
       <c r="G62" t="s">
-        <v>494</v>
+        <v>481</v>
       </c>
       <c r="H62" t="s">
-        <v>569</v>
-      </c>
-      <c r="Q62">
+        <v>556</v>
+      </c>
+      <c r="K62">
         <v>1</v>
       </c>
     </row>
@@ -4784,30 +4940,27 @@
         <v>154</v>
       </c>
       <c r="B63" t="s">
-        <v>262</v>
+        <v>208</v>
       </c>
       <c r="C63" t="s">
-        <v>168</v>
+        <v>209</v>
       </c>
       <c r="D63" t="s">
-        <v>263</v>
+        <v>210</v>
       </c>
       <c r="E63" t="s">
-        <v>264</v>
+        <v>211</v>
       </c>
       <c r="F63" t="s">
-        <v>265</v>
+        <v>212</v>
       </c>
       <c r="G63" t="s">
-        <v>495</v>
+        <v>482</v>
       </c>
       <c r="H63" t="s">
-        <v>570</v>
-      </c>
-      <c r="L63">
-        <v>1</v>
-      </c>
-      <c r="R63">
+        <v>557</v>
+      </c>
+      <c r="K63">
         <v>1</v>
       </c>
     </row>
@@ -4816,946 +4969,982 @@
         <v>154</v>
       </c>
       <c r="B64" t="s">
-        <v>266</v>
+        <v>213</v>
       </c>
       <c r="C64" t="s">
-        <v>209</v>
+        <v>168</v>
       </c>
       <c r="D64" t="s">
-        <v>267</v>
+        <v>214</v>
       </c>
       <c r="E64" t="s">
-        <v>268</v>
+        <v>215</v>
       </c>
       <c r="G64" t="s">
-        <v>496</v>
+        <v>483</v>
       </c>
       <c r="H64" t="s">
-        <v>571</v>
-      </c>
-      <c r="Q64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.2">
+        <v>558</v>
+      </c>
+      <c r="I64">
+        <v>1</v>
+      </c>
+      <c r="O64">
+        <v>1</v>
+      </c>
+      <c r="T64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>154</v>
       </c>
       <c r="B65" t="s">
-        <v>269</v>
+        <v>216</v>
       </c>
       <c r="C65" t="s">
+        <v>205</v>
+      </c>
+      <c r="D65" t="s">
+        <v>217</v>
+      </c>
+      <c r="E65" t="s">
+        <v>218</v>
+      </c>
+      <c r="F65" t="s">
+        <v>219</v>
+      </c>
+      <c r="G65" t="s">
+        <v>484</v>
+      </c>
+      <c r="H65" t="s">
+        <v>559</v>
+      </c>
+      <c r="I65">
+        <v>1</v>
+      </c>
+      <c r="O65">
+        <v>1</v>
+      </c>
+      <c r="T65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>154</v>
+      </c>
+      <c r="B66" t="s">
+        <v>220</v>
+      </c>
+      <c r="C66" t="s">
         <v>185</v>
       </c>
-      <c r="D65" t="s">
-        <v>270</v>
-      </c>
-      <c r="E65" t="s">
-        <v>271</v>
-      </c>
-      <c r="F65" t="s">
-        <v>272</v>
-      </c>
-      <c r="G65" t="s">
-        <v>497</v>
-      </c>
-      <c r="H65" t="s">
-        <v>572</v>
-      </c>
-      <c r="L65">
-        <v>1</v>
-      </c>
-      <c r="Q65">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
-        <v>154</v>
-      </c>
-      <c r="B66" t="s">
-        <v>273</v>
-      </c>
-      <c r="C66" t="s">
-        <v>357</v>
-      </c>
       <c r="D66" t="s">
-        <v>275</v>
+        <v>221</v>
       </c>
       <c r="E66" t="s">
-        <v>359</v>
-      </c>
-      <c r="F66" t="s">
-        <v>274</v>
+        <v>222</v>
       </c>
       <c r="G66" t="s">
-        <v>498</v>
+        <v>485</v>
       </c>
       <c r="H66" t="s">
-        <v>573</v>
-      </c>
-      <c r="M66">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.2">
+        <v>560</v>
+      </c>
+      <c r="O66">
+        <v>1</v>
+      </c>
+      <c r="T66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>154</v>
       </c>
       <c r="B67" t="s">
-        <v>276</v>
+        <v>223</v>
       </c>
       <c r="C67" t="s">
-        <v>191</v>
+        <v>168</v>
       </c>
       <c r="D67" t="s">
-        <v>277</v>
+        <v>224</v>
       </c>
       <c r="E67" t="s">
-        <v>278</v>
+        <v>225</v>
       </c>
       <c r="F67" t="s">
-        <v>279</v>
+        <v>226</v>
       </c>
       <c r="G67" t="s">
-        <v>499</v>
+        <v>486</v>
       </c>
       <c r="H67" t="s">
-        <v>574</v>
-      </c>
-      <c r="M67">
-        <v>1</v>
-      </c>
-      <c r="N67">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.2">
+        <v>561</v>
+      </c>
+      <c r="L67">
+        <v>1</v>
+      </c>
+      <c r="T67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>154</v>
       </c>
       <c r="B68" t="s">
-        <v>280</v>
+        <v>227</v>
       </c>
       <c r="C68" t="s">
         <v>168</v>
       </c>
       <c r="D68" t="s">
+        <v>228</v>
+      </c>
+      <c r="E68" t="s">
+        <v>229</v>
+      </c>
+      <c r="F68" t="s">
+        <v>230</v>
+      </c>
+      <c r="G68" t="s">
+        <v>487</v>
+      </c>
+      <c r="H68" t="s">
+        <v>562</v>
+      </c>
+      <c r="L68">
+        <v>1</v>
+      </c>
+      <c r="O68">
+        <v>1</v>
+      </c>
+      <c r="R68">
+        <v>1</v>
+      </c>
+      <c r="T68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>154</v>
+      </c>
+      <c r="B69" t="s">
+        <v>231</v>
+      </c>
+      <c r="C69" t="s">
+        <v>185</v>
+      </c>
+      <c r="D69" t="s">
+        <v>232</v>
+      </c>
+      <c r="E69" t="s">
+        <v>233</v>
+      </c>
+      <c r="F69" t="s">
+        <v>234</v>
+      </c>
+      <c r="G69" t="s">
+        <v>488</v>
+      </c>
+      <c r="H69" t="s">
+        <v>563</v>
+      </c>
+      <c r="L69">
+        <v>1</v>
+      </c>
+      <c r="N69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>154</v>
+      </c>
+      <c r="B70" t="s">
+        <v>235</v>
+      </c>
+      <c r="C70" t="s">
+        <v>168</v>
+      </c>
+      <c r="D70" t="s">
+        <v>236</v>
+      </c>
+      <c r="E70" t="s">
+        <v>237</v>
+      </c>
+      <c r="G70" t="s">
+        <v>489</v>
+      </c>
+      <c r="H70" t="s">
+        <v>564</v>
+      </c>
+      <c r="R70">
+        <v>1</v>
+      </c>
+      <c r="T70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>154</v>
+      </c>
+      <c r="B71" t="s">
+        <v>238</v>
+      </c>
+      <c r="C71" t="s">
+        <v>185</v>
+      </c>
+      <c r="D71" t="s">
+        <v>239</v>
+      </c>
+      <c r="E71" t="s">
+        <v>240</v>
+      </c>
+      <c r="F71" t="s">
+        <v>241</v>
+      </c>
+      <c r="G71" t="s">
+        <v>490</v>
+      </c>
+      <c r="H71" t="s">
+        <v>565</v>
+      </c>
+      <c r="N71">
+        <v>1</v>
+      </c>
+      <c r="O71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>154</v>
+      </c>
+      <c r="B72" t="s">
+        <v>242</v>
+      </c>
+      <c r="C72" t="s">
+        <v>243</v>
+      </c>
+      <c r="D72" t="s">
+        <v>244</v>
+      </c>
+      <c r="E72" t="s">
+        <v>245</v>
+      </c>
+      <c r="G72" t="s">
+        <v>491</v>
+      </c>
+      <c r="H72" t="s">
+        <v>566</v>
+      </c>
+      <c r="M72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>154</v>
+      </c>
+      <c r="B73" t="s">
+        <v>246</v>
+      </c>
+      <c r="C73" t="s">
+        <v>185</v>
+      </c>
+      <c r="D73" t="s">
+        <v>247</v>
+      </c>
+      <c r="E73" t="s">
+        <v>248</v>
+      </c>
+      <c r="F73" t="s">
+        <v>249</v>
+      </c>
+      <c r="G73" t="s">
+        <v>492</v>
+      </c>
+      <c r="H73" t="s">
+        <v>567</v>
+      </c>
+      <c r="R73">
+        <v>1</v>
+      </c>
+      <c r="T73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>154</v>
+      </c>
+      <c r="B74" t="s">
+        <v>250</v>
+      </c>
+      <c r="C74" t="s">
+        <v>251</v>
+      </c>
+      <c r="D74" t="s">
+        <v>252</v>
+      </c>
+      <c r="E74" t="s">
+        <v>253</v>
+      </c>
+      <c r="F74" t="s">
+        <v>254</v>
+      </c>
+      <c r="G74" t="s">
+        <v>493</v>
+      </c>
+      <c r="H74" t="s">
+        <v>568</v>
+      </c>
+      <c r="O74">
+        <v>1</v>
+      </c>
+      <c r="R74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>154</v>
+      </c>
+      <c r="B75" t="s">
+        <v>255</v>
+      </c>
+      <c r="C75" t="s">
+        <v>168</v>
+      </c>
+      <c r="D75" t="s">
+        <v>260</v>
+      </c>
+      <c r="E75" t="s">
+        <v>256</v>
+      </c>
+      <c r="F75" t="s">
+        <v>257</v>
+      </c>
+      <c r="G75" t="s">
+        <v>494</v>
+      </c>
+      <c r="H75" t="s">
+        <v>569</v>
+      </c>
+      <c r="Q75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>154</v>
+      </c>
+      <c r="B76" t="s">
+        <v>262</v>
+      </c>
+      <c r="C76" t="s">
+        <v>168</v>
+      </c>
+      <c r="D76" t="s">
+        <v>263</v>
+      </c>
+      <c r="E76" t="s">
+        <v>264</v>
+      </c>
+      <c r="F76" t="s">
+        <v>265</v>
+      </c>
+      <c r="G76" t="s">
+        <v>495</v>
+      </c>
+      <c r="H76" t="s">
+        <v>570</v>
+      </c>
+      <c r="L76">
+        <v>1</v>
+      </c>
+      <c r="R76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>154</v>
+      </c>
+      <c r="B77" t="s">
+        <v>266</v>
+      </c>
+      <c r="C77" t="s">
+        <v>209</v>
+      </c>
+      <c r="D77" t="s">
+        <v>267</v>
+      </c>
+      <c r="E77" t="s">
+        <v>268</v>
+      </c>
+      <c r="G77" t="s">
+        <v>496</v>
+      </c>
+      <c r="H77" t="s">
+        <v>571</v>
+      </c>
+      <c r="Q77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>154</v>
+      </c>
+      <c r="B78" t="s">
+        <v>269</v>
+      </c>
+      <c r="C78" t="s">
+        <v>185</v>
+      </c>
+      <c r="D78" t="s">
+        <v>270</v>
+      </c>
+      <c r="E78" t="s">
+        <v>271</v>
+      </c>
+      <c r="F78" t="s">
+        <v>272</v>
+      </c>
+      <c r="G78" t="s">
+        <v>497</v>
+      </c>
+      <c r="H78" t="s">
+        <v>572</v>
+      </c>
+      <c r="L78">
+        <v>1</v>
+      </c>
+      <c r="Q78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>154</v>
+      </c>
+      <c r="B79" t="s">
+        <v>273</v>
+      </c>
+      <c r="C79" t="s">
+        <v>357</v>
+      </c>
+      <c r="D79" t="s">
+        <v>275</v>
+      </c>
+      <c r="E79" t="s">
+        <v>359</v>
+      </c>
+      <c r="F79" t="s">
+        <v>274</v>
+      </c>
+      <c r="G79" t="s">
+        <v>498</v>
+      </c>
+      <c r="H79" t="s">
+        <v>573</v>
+      </c>
+      <c r="M79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>154</v>
+      </c>
+      <c r="B80" t="s">
+        <v>276</v>
+      </c>
+      <c r="C80" t="s">
+        <v>191</v>
+      </c>
+      <c r="D80" t="s">
+        <v>277</v>
+      </c>
+      <c r="E80" t="s">
+        <v>278</v>
+      </c>
+      <c r="F80" t="s">
+        <v>279</v>
+      </c>
+      <c r="G80" t="s">
+        <v>499</v>
+      </c>
+      <c r="H80" t="s">
+        <v>574</v>
+      </c>
+      <c r="M80">
+        <v>1</v>
+      </c>
+      <c r="N80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>154</v>
+      </c>
+      <c r="B81" t="s">
+        <v>280</v>
+      </c>
+      <c r="C81" t="s">
+        <v>168</v>
+      </c>
+      <c r="D81" t="s">
         <v>281</v>
       </c>
-      <c r="E68" t="s">
+      <c r="E81" t="s">
         <v>282</v>
       </c>
-      <c r="F68" t="s">
+      <c r="F81" t="s">
         <v>283</v>
       </c>
-      <c r="G68" t="s">
+      <c r="G81" t="s">
         <v>500</v>
       </c>
-      <c r="H68" t="s">
+      <c r="H81" t="s">
         <v>575</v>
       </c>
-      <c r="M68">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
-        <v>154</v>
-      </c>
-      <c r="B69" t="s">
+      <c r="M81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>154</v>
+      </c>
+      <c r="B82" t="s">
         <v>284</v>
       </c>
-      <c r="C69" t="s">
+      <c r="C82" t="s">
         <v>168</v>
       </c>
-      <c r="D69" t="s">
+      <c r="D82" t="s">
         <v>285</v>
       </c>
-      <c r="E69" t="s">
+      <c r="E82" t="s">
         <v>287</v>
       </c>
-      <c r="F69" t="s">
+      <c r="F82" t="s">
         <v>286</v>
       </c>
-      <c r="G69" t="s">
+      <c r="G82" t="s">
         <v>501</v>
       </c>
-      <c r="H69" t="s">
+      <c r="H82" t="s">
         <v>576</v>
       </c>
-      <c r="M69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
-        <v>154</v>
-      </c>
-      <c r="B70" t="s">
+      <c r="M82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>154</v>
+      </c>
+      <c r="B83" t="s">
         <v>288</v>
       </c>
-      <c r="C70" t="s">
+      <c r="C83" t="s">
         <v>289</v>
       </c>
-      <c r="D70" t="s">
+      <c r="D83" t="s">
         <v>291</v>
       </c>
-      <c r="E70" t="s">
+      <c r="E83" t="s">
         <v>292</v>
       </c>
-      <c r="F70" t="s">
+      <c r="F83" t="s">
         <v>293</v>
       </c>
-      <c r="G70" t="s">
+      <c r="G83" t="s">
         <v>502</v>
       </c>
-      <c r="H70" t="s">
+      <c r="H83" t="s">
         <v>577</v>
       </c>
-      <c r="M70">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
-        <v>154</v>
-      </c>
-      <c r="B71" t="s">
+      <c r="M83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>154</v>
+      </c>
+      <c r="B84" t="s">
         <v>294</v>
       </c>
-      <c r="D71" t="s">
+      <c r="D84" t="s">
         <v>295</v>
       </c>
-      <c r="E71" t="s">
+      <c r="E84" t="s">
         <v>296</v>
       </c>
-      <c r="G71" t="s">
+      <c r="G84" t="s">
         <v>503</v>
       </c>
-      <c r="H71" t="s">
+      <c r="H84" t="s">
         <v>578</v>
       </c>
-      <c r="M71">
-        <v>1</v>
-      </c>
-      <c r="R71">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
-        <v>154</v>
-      </c>
-      <c r="B72" t="s">
+      <c r="M84">
+        <v>1</v>
+      </c>
+      <c r="R84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>154</v>
+      </c>
+      <c r="B85" t="s">
         <v>297</v>
       </c>
-      <c r="C72" t="s">
+      <c r="C85" t="s">
         <v>298</v>
       </c>
-      <c r="D72" t="s">
+      <c r="D85" t="s">
         <v>299</v>
       </c>
-      <c r="E72" t="s">
+      <c r="E85" t="s">
         <v>300</v>
       </c>
-      <c r="F72" t="s">
+      <c r="F85" t="s">
         <v>301</v>
       </c>
-      <c r="G72" t="s">
+      <c r="G85" t="s">
         <v>504</v>
       </c>
-      <c r="H72" t="s">
+      <c r="H85" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
-        <v>154</v>
-      </c>
-      <c r="B73" t="s">
+    <row r="86" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>154</v>
+      </c>
+      <c r="B86" t="s">
         <v>302</v>
       </c>
-      <c r="C73" t="s">
+      <c r="C86" t="s">
         <v>168</v>
       </c>
-      <c r="D73" t="s">
+      <c r="D86" t="s">
         <v>303</v>
       </c>
-      <c r="E73" t="s">
+      <c r="E86" t="s">
         <v>304</v>
       </c>
-      <c r="F73" t="s">
+      <c r="F86" t="s">
         <v>305</v>
       </c>
-      <c r="G73" t="s">
+      <c r="G86" t="s">
         <v>505</v>
       </c>
-      <c r="H73" t="s">
+      <c r="H86" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
-        <v>154</v>
-      </c>
-      <c r="B74" t="s">
+    <row r="87" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>154</v>
+      </c>
+      <c r="B87" t="s">
         <v>306</v>
       </c>
-      <c r="D74" t="s">
+      <c r="D87" t="s">
         <v>307</v>
       </c>
-      <c r="E74" t="s">
+      <c r="E87" t="s">
         <v>308</v>
       </c>
-      <c r="G74" t="s">
+      <c r="G87" t="s">
         <v>506</v>
       </c>
-      <c r="H74" t="s">
+      <c r="H87" t="s">
         <v>581</v>
       </c>
-      <c r="J74">
-        <v>1</v>
-      </c>
-      <c r="M74">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A75" t="s">
-        <v>154</v>
-      </c>
-      <c r="B75" t="s">
+      <c r="J87">
+        <v>1</v>
+      </c>
+      <c r="M87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>154</v>
+      </c>
+      <c r="B88" t="s">
         <v>309</v>
       </c>
-      <c r="D75" t="s">
+      <c r="D88" t="s">
         <v>310</v>
       </c>
-      <c r="E75" t="s">
+      <c r="E88" t="s">
         <v>311</v>
       </c>
-      <c r="G75" t="s">
+      <c r="G88" t="s">
         <v>507</v>
       </c>
-      <c r="H75" t="s">
+      <c r="H88" t="s">
         <v>582</v>
       </c>
-      <c r="M75">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
-        <v>154</v>
-      </c>
-      <c r="B76" t="s">
+      <c r="M88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>154</v>
+      </c>
+      <c r="B89" t="s">
         <v>312</v>
-      </c>
-      <c r="C76" t="s">
-        <v>185</v>
-      </c>
-      <c r="D76" t="s">
-        <v>471</v>
-      </c>
-      <c r="E76" t="s">
-        <v>313</v>
-      </c>
-      <c r="F76" t="s">
-        <v>314</v>
-      </c>
-      <c r="G76" t="s">
-        <v>508</v>
-      </c>
-      <c r="H76" t="s">
-        <v>583</v>
-      </c>
-      <c r="M76">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A77" t="s">
-        <v>154</v>
-      </c>
-      <c r="B77" t="s">
-        <v>315</v>
-      </c>
-      <c r="C77" t="s">
-        <v>185</v>
-      </c>
-      <c r="D77" t="s">
-        <v>316</v>
-      </c>
-      <c r="E77" t="s">
-        <v>317</v>
-      </c>
-      <c r="F77" t="s">
-        <v>318</v>
-      </c>
-      <c r="G77" t="s">
-        <v>509</v>
-      </c>
-      <c r="H77" t="s">
-        <v>584</v>
-      </c>
-      <c r="M77">
-        <v>1</v>
-      </c>
-      <c r="N77">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A78" t="s">
-        <v>154</v>
-      </c>
-      <c r="B78" t="s">
-        <v>319</v>
-      </c>
-      <c r="C78" t="s">
-        <v>168</v>
-      </c>
-      <c r="D78" t="s">
-        <v>320</v>
-      </c>
-      <c r="E78" t="s">
-        <v>321</v>
-      </c>
-      <c r="F78" t="s">
-        <v>322</v>
-      </c>
-      <c r="G78" t="s">
-        <v>510</v>
-      </c>
-      <c r="H78" t="s">
-        <v>585</v>
-      </c>
-      <c r="M78">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A79" t="s">
-        <v>154</v>
-      </c>
-      <c r="B79" t="s">
-        <v>323</v>
-      </c>
-      <c r="C79" t="s">
-        <v>205</v>
-      </c>
-      <c r="D79" t="s">
-        <v>324</v>
-      </c>
-      <c r="E79" t="s">
-        <v>325</v>
-      </c>
-      <c r="F79" t="s">
-        <v>326</v>
-      </c>
-      <c r="G79" t="s">
-        <v>511</v>
-      </c>
-      <c r="H79" t="s">
-        <v>586</v>
-      </c>
-      <c r="M79">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A80" t="s">
-        <v>154</v>
-      </c>
-      <c r="B80" t="s">
-        <v>327</v>
-      </c>
-      <c r="C80" t="s">
-        <v>185</v>
-      </c>
-      <c r="D80" t="s">
-        <v>472</v>
-      </c>
-      <c r="E80" t="s">
-        <v>328</v>
-      </c>
-      <c r="F80" t="s">
-        <v>329</v>
-      </c>
-      <c r="G80" t="s">
-        <v>512</v>
-      </c>
-      <c r="H80" t="s">
-        <v>587</v>
-      </c>
-      <c r="M80">
-        <v>1</v>
-      </c>
-      <c r="S80">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A81" t="s">
-        <v>154</v>
-      </c>
-      <c r="B81" t="s">
-        <v>330</v>
-      </c>
-      <c r="C81" t="s">
-        <v>185</v>
-      </c>
-      <c r="D81" t="s">
-        <v>331</v>
-      </c>
-      <c r="E81" t="s">
-        <v>332</v>
-      </c>
-      <c r="F81" t="s">
-        <v>333</v>
-      </c>
-      <c r="G81" t="s">
-        <v>513</v>
-      </c>
-      <c r="H81" t="s">
-        <v>588</v>
-      </c>
-      <c r="N81">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A82" t="s">
-        <v>154</v>
-      </c>
-      <c r="B82" t="s">
-        <v>334</v>
-      </c>
-      <c r="C82" t="s">
-        <v>360</v>
-      </c>
-      <c r="D82" t="s">
-        <v>335</v>
-      </c>
-      <c r="E82" t="s">
-        <v>336</v>
-      </c>
-      <c r="F82" t="s">
-        <v>337</v>
-      </c>
-      <c r="G82" t="s">
-        <v>514</v>
-      </c>
-      <c r="H82" t="s">
-        <v>589</v>
-      </c>
-      <c r="L82">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A83" t="s">
-        <v>154</v>
-      </c>
-      <c r="B83" t="s">
-        <v>338</v>
-      </c>
-      <c r="C83" t="s">
-        <v>191</v>
-      </c>
-      <c r="D83" t="s">
-        <v>339</v>
-      </c>
-      <c r="E83" t="s">
-        <v>341</v>
-      </c>
-      <c r="F83" t="s">
-        <v>340</v>
-      </c>
-      <c r="G83" t="s">
-        <v>515</v>
-      </c>
-      <c r="H83" t="s">
-        <v>590</v>
-      </c>
-      <c r="M83">
-        <v>1</v>
-      </c>
-      <c r="P83">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A84" t="s">
-        <v>154</v>
-      </c>
-      <c r="B84" t="s">
-        <v>342</v>
-      </c>
-      <c r="C84" t="s">
-        <v>343</v>
-      </c>
-      <c r="D84" t="s">
-        <v>344</v>
-      </c>
-      <c r="E84" t="s">
-        <v>345</v>
-      </c>
-      <c r="F84" t="s">
-        <v>346</v>
-      </c>
-      <c r="G84" t="s">
-        <v>516</v>
-      </c>
-      <c r="H84" t="s">
-        <v>591</v>
-      </c>
-      <c r="M84">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A85" t="s">
-        <v>154</v>
-      </c>
-      <c r="B85" t="s">
-        <v>347</v>
-      </c>
-      <c r="C85" t="s">
-        <v>209</v>
-      </c>
-      <c r="D85" t="s">
-        <v>348</v>
-      </c>
-      <c r="E85" t="s">
-        <v>349</v>
-      </c>
-      <c r="F85" t="s">
-        <v>350</v>
-      </c>
-      <c r="G85" t="s">
-        <v>517</v>
-      </c>
-      <c r="H85" t="s">
-        <v>592</v>
-      </c>
-      <c r="I85">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A86" t="s">
-        <v>154</v>
-      </c>
-      <c r="B86" t="s">
-        <v>351</v>
-      </c>
-      <c r="C86" t="s">
-        <v>352</v>
-      </c>
-      <c r="D86" t="s">
-        <v>353</v>
-      </c>
-      <c r="E86" t="s">
-        <v>354</v>
-      </c>
-      <c r="F86" t="s">
-        <v>355</v>
-      </c>
-      <c r="G86" t="s">
-        <v>518</v>
-      </c>
-      <c r="H86" t="s">
-        <v>593</v>
-      </c>
-      <c r="O86">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A87" t="s">
-        <v>154</v>
-      </c>
-      <c r="B87" t="s">
-        <v>356</v>
-      </c>
-      <c r="C87" t="s">
-        <v>360</v>
-      </c>
-      <c r="D87" t="s">
-        <v>361</v>
-      </c>
-      <c r="E87" t="s">
-        <v>362</v>
-      </c>
-      <c r="F87" t="s">
-        <v>363</v>
-      </c>
-      <c r="G87" t="s">
-        <v>519</v>
-      </c>
-      <c r="H87" t="s">
-        <v>594</v>
-      </c>
-      <c r="O87">
-        <v>1</v>
-      </c>
-      <c r="R87">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A88" t="s">
-        <v>154</v>
-      </c>
-      <c r="B88" t="s">
-        <v>365</v>
-      </c>
-      <c r="D88" t="s">
-        <v>473</v>
-      </c>
-      <c r="E88" t="s">
-        <v>364</v>
-      </c>
-      <c r="F88" t="s">
-        <v>366</v>
-      </c>
-      <c r="G88" t="s">
-        <v>520</v>
-      </c>
-      <c r="H88" t="s">
-        <v>595</v>
-      </c>
-      <c r="O88">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A89" t="s">
-        <v>154</v>
-      </c>
-      <c r="B89" t="s">
-        <v>367</v>
       </c>
       <c r="C89" t="s">
         <v>185</v>
       </c>
       <c r="D89" t="s">
-        <v>368</v>
+        <v>471</v>
       </c>
       <c r="E89" t="s">
-        <v>369</v>
+        <v>313</v>
+      </c>
+      <c r="F89" t="s">
+        <v>314</v>
       </c>
       <c r="G89" t="s">
-        <v>521</v>
+        <v>508</v>
       </c>
       <c r="H89" t="s">
-        <v>596</v>
-      </c>
-      <c r="K89">
-        <v>1</v>
-      </c>
-      <c r="O89">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="1:18" x14ac:dyDescent="0.2">
+        <v>583</v>
+      </c>
+      <c r="M89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>154</v>
       </c>
       <c r="B90" t="s">
-        <v>370</v>
+        <v>315</v>
       </c>
       <c r="C90" t="s">
+        <v>185</v>
+      </c>
+      <c r="D90" t="s">
+        <v>316</v>
+      </c>
+      <c r="E90" t="s">
+        <v>317</v>
+      </c>
+      <c r="F90" t="s">
+        <v>318</v>
+      </c>
+      <c r="G90" t="s">
+        <v>509</v>
+      </c>
+      <c r="H90" t="s">
+        <v>584</v>
+      </c>
+      <c r="M90">
+        <v>1</v>
+      </c>
+      <c r="N90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>154</v>
+      </c>
+      <c r="B91" t="s">
+        <v>319</v>
+      </c>
+      <c r="C91" t="s">
+        <v>168</v>
+      </c>
+      <c r="D91" t="s">
+        <v>320</v>
+      </c>
+      <c r="E91" t="s">
+        <v>321</v>
+      </c>
+      <c r="F91" t="s">
+        <v>322</v>
+      </c>
+      <c r="G91" t="s">
+        <v>510</v>
+      </c>
+      <c r="H91" t="s">
+        <v>585</v>
+      </c>
+      <c r="M91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>154</v>
+      </c>
+      <c r="B92" t="s">
+        <v>323</v>
+      </c>
+      <c r="C92" t="s">
         <v>205</v>
       </c>
-      <c r="D90" t="s">
-        <v>371</v>
-      </c>
-      <c r="E90" t="s">
-        <v>372</v>
-      </c>
-      <c r="F90" t="s">
-        <v>373</v>
-      </c>
-      <c r="G90" t="s">
-        <v>522</v>
-      </c>
-      <c r="H90" t="s">
-        <v>597</v>
-      </c>
-      <c r="O90">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A91" t="s">
-        <v>154</v>
-      </c>
-      <c r="B91" t="s">
-        <v>374</v>
-      </c>
-      <c r="C91" t="s">
-        <v>191</v>
-      </c>
-      <c r="D91" t="s">
-        <v>375</v>
-      </c>
-      <c r="E91" t="s">
-        <v>376</v>
-      </c>
-      <c r="G91" t="s">
-        <v>523</v>
-      </c>
-      <c r="H91" t="s">
-        <v>598</v>
-      </c>
-      <c r="M91">
-        <v>1</v>
-      </c>
-      <c r="O91">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A92" t="s">
-        <v>154</v>
-      </c>
-      <c r="B92" t="s">
-        <v>377</v>
-      </c>
-      <c r="C92" t="s">
-        <v>191</v>
-      </c>
       <c r="D92" t="s">
-        <v>378</v>
+        <v>324</v>
       </c>
       <c r="E92" t="s">
-        <v>379</v>
+        <v>325</v>
       </c>
       <c r="F92" t="s">
-        <v>380</v>
+        <v>326</v>
       </c>
       <c r="G92" t="s">
-        <v>524</v>
+        <v>511</v>
       </c>
       <c r="H92" t="s">
-        <v>599</v>
-      </c>
-      <c r="O92">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:18" x14ac:dyDescent="0.2">
+        <v>586</v>
+      </c>
+      <c r="M92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>154</v>
       </c>
       <c r="B93" t="s">
-        <v>381</v>
+        <v>327</v>
       </c>
       <c r="C93" t="s">
         <v>185</v>
       </c>
       <c r="D93" t="s">
-        <v>382</v>
+        <v>472</v>
       </c>
       <c r="E93" t="s">
-        <v>383</v>
+        <v>328</v>
       </c>
       <c r="F93" t="s">
-        <v>384</v>
+        <v>329</v>
       </c>
       <c r="G93" t="s">
-        <v>525</v>
+        <v>512</v>
       </c>
       <c r="H93" t="s">
-        <v>600</v>
-      </c>
-      <c r="O93">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:18" x14ac:dyDescent="0.2">
+        <v>587</v>
+      </c>
+      <c r="M93">
+        <v>1</v>
+      </c>
+      <c r="S93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>154</v>
       </c>
       <c r="B94" t="s">
-        <v>385</v>
+        <v>330</v>
       </c>
       <c r="C94" t="s">
         <v>185</v>
       </c>
       <c r="D94" t="s">
-        <v>386</v>
+        <v>331</v>
       </c>
       <c r="E94" t="s">
-        <v>387</v>
+        <v>332</v>
       </c>
       <c r="F94" t="s">
-        <v>388</v>
+        <v>333</v>
       </c>
       <c r="G94" t="s">
-        <v>526</v>
+        <v>513</v>
       </c>
       <c r="H94" t="s">
-        <v>601</v>
-      </c>
-      <c r="M94">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="1:18" x14ac:dyDescent="0.2">
+        <v>588</v>
+      </c>
+      <c r="N94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>154</v>
       </c>
       <c r="B95" t="s">
-        <v>389</v>
+        <v>334</v>
       </c>
       <c r="C95" t="s">
-        <v>168</v>
+        <v>360</v>
       </c>
       <c r="D95" t="s">
-        <v>390</v>
+        <v>335</v>
       </c>
       <c r="E95" t="s">
-        <v>391</v>
+        <v>336</v>
+      </c>
+      <c r="F95" t="s">
+        <v>337</v>
       </c>
       <c r="G95" t="s">
-        <v>527</v>
+        <v>514</v>
       </c>
       <c r="H95" t="s">
-        <v>602</v>
-      </c>
-      <c r="I95">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" spans="1:18" x14ac:dyDescent="0.2">
+        <v>589</v>
+      </c>
+      <c r="L95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>154</v>
       </c>
       <c r="B96" t="s">
-        <v>392</v>
+        <v>338</v>
       </c>
       <c r="C96" t="s">
-        <v>289</v>
+        <v>191</v>
       </c>
       <c r="D96" t="s">
-        <v>393</v>
+        <v>339</v>
       </c>
       <c r="E96" t="s">
-        <v>394</v>
+        <v>341</v>
       </c>
       <c r="F96" t="s">
-        <v>395</v>
+        <v>340</v>
       </c>
       <c r="G96" t="s">
-        <v>528</v>
+        <v>515</v>
       </c>
       <c r="H96" t="s">
-        <v>603</v>
-      </c>
-      <c r="I96">
+        <v>590</v>
+      </c>
+      <c r="M96">
+        <v>1</v>
+      </c>
+      <c r="P96">
         <v>1</v>
       </c>
     </row>
@@ -5764,27 +5953,27 @@
         <v>154</v>
       </c>
       <c r="B97" t="s">
-        <v>397</v>
+        <v>342</v>
       </c>
       <c r="C97" t="s">
-        <v>398</v>
+        <v>343</v>
       </c>
       <c r="D97" t="s">
-        <v>399</v>
+        <v>344</v>
       </c>
       <c r="E97" t="s">
-        <v>396</v>
+        <v>345</v>
+      </c>
+      <c r="F97" t="s">
+        <v>346</v>
       </c>
       <c r="G97" t="s">
-        <v>529</v>
+        <v>516</v>
       </c>
       <c r="H97" t="s">
-        <v>604</v>
-      </c>
-      <c r="I97">
-        <v>1</v>
-      </c>
-      <c r="J97">
+        <v>591</v>
+      </c>
+      <c r="M97">
         <v>1</v>
       </c>
     </row>
@@ -5793,27 +5982,27 @@
         <v>154</v>
       </c>
       <c r="B98" t="s">
-        <v>400</v>
+        <v>347</v>
+      </c>
+      <c r="C98" t="s">
+        <v>209</v>
       </c>
       <c r="D98" t="s">
-        <v>401</v>
+        <v>348</v>
       </c>
       <c r="E98" t="s">
-        <v>403</v>
+        <v>349</v>
       </c>
       <c r="F98" t="s">
-        <v>402</v>
+        <v>350</v>
       </c>
       <c r="G98" t="s">
-        <v>530</v>
+        <v>517</v>
       </c>
       <c r="H98" t="s">
-        <v>605</v>
-      </c>
-      <c r="M98">
-        <v>1</v>
-      </c>
-      <c r="T98">
+        <v>592</v>
+      </c>
+      <c r="I98">
         <v>1</v>
       </c>
     </row>
@@ -5822,27 +6011,27 @@
         <v>154</v>
       </c>
       <c r="B99" t="s">
-        <v>404</v>
+        <v>351</v>
       </c>
       <c r="C99" t="s">
-        <v>289</v>
+        <v>352</v>
       </c>
       <c r="D99" t="s">
-        <v>405</v>
+        <v>353</v>
       </c>
       <c r="E99" t="s">
-        <v>406</v>
+        <v>354</v>
       </c>
       <c r="F99" t="s">
-        <v>407</v>
+        <v>355</v>
       </c>
       <c r="G99" t="s">
-        <v>531</v>
+        <v>518</v>
       </c>
       <c r="H99" t="s">
-        <v>606</v>
-      </c>
-      <c r="M99">
+        <v>593</v>
+      </c>
+      <c r="O99">
         <v>1</v>
       </c>
     </row>
@@ -5851,27 +6040,30 @@
         <v>154</v>
       </c>
       <c r="B100" t="s">
-        <v>408</v>
+        <v>356</v>
+      </c>
+      <c r="C100" t="s">
+        <v>360</v>
       </c>
       <c r="D100" t="s">
-        <v>409</v>
+        <v>361</v>
       </c>
       <c r="E100" t="s">
-        <v>410</v>
+        <v>362</v>
       </c>
       <c r="F100" t="s">
-        <v>410</v>
+        <v>363</v>
       </c>
       <c r="G100" t="s">
-        <v>532</v>
+        <v>519</v>
       </c>
       <c r="H100" t="s">
-        <v>607</v>
-      </c>
-      <c r="J100">
-        <v>1</v>
-      </c>
-      <c r="L100">
+        <v>594</v>
+      </c>
+      <c r="O100">
+        <v>1</v>
+      </c>
+      <c r="R100">
         <v>1</v>
       </c>
     </row>
@@ -5880,27 +6072,24 @@
         <v>154</v>
       </c>
       <c r="B101" t="s">
-        <v>411</v>
-      </c>
-      <c r="C101" t="s">
-        <v>289</v>
+        <v>365</v>
       </c>
       <c r="D101" t="s">
-        <v>412</v>
+        <v>473</v>
       </c>
       <c r="E101" t="s">
-        <v>413</v>
+        <v>364</v>
+      </c>
+      <c r="F101" t="s">
+        <v>366</v>
       </c>
       <c r="G101" t="s">
-        <v>533</v>
+        <v>520</v>
       </c>
       <c r="H101" t="s">
-        <v>608</v>
-      </c>
-      <c r="L101">
-        <v>1</v>
-      </c>
-      <c r="R101">
+        <v>595</v>
+      </c>
+      <c r="O101">
         <v>1</v>
       </c>
     </row>
@@ -5909,33 +6098,27 @@
         <v>154</v>
       </c>
       <c r="B102" t="s">
-        <v>414</v>
+        <v>367</v>
       </c>
       <c r="C102" t="s">
-        <v>289</v>
+        <v>185</v>
       </c>
       <c r="D102" t="s">
-        <v>415</v>
+        <v>368</v>
       </c>
       <c r="E102" t="s">
-        <v>416</v>
-      </c>
-      <c r="F102" t="s">
-        <v>417</v>
+        <v>369</v>
       </c>
       <c r="G102" t="s">
-        <v>534</v>
+        <v>521</v>
       </c>
       <c r="H102" t="s">
-        <v>609</v>
-      </c>
-      <c r="L102">
+        <v>596</v>
+      </c>
+      <c r="K102">
         <v>1</v>
       </c>
       <c r="O102">
-        <v>1</v>
-      </c>
-      <c r="T102">
         <v>1</v>
       </c>
     </row>
@@ -5944,30 +6127,27 @@
         <v>154</v>
       </c>
       <c r="B103" t="s">
-        <v>418</v>
+        <v>370</v>
       </c>
       <c r="C103" t="s">
-        <v>343</v>
+        <v>205</v>
       </c>
       <c r="D103" t="s">
-        <v>419</v>
+        <v>371</v>
       </c>
       <c r="E103" t="s">
-        <v>624</v>
+        <v>372</v>
+      </c>
+      <c r="F103" t="s">
+        <v>373</v>
       </c>
       <c r="G103" t="s">
-        <v>535</v>
+        <v>522</v>
       </c>
       <c r="H103" t="s">
-        <v>610</v>
-      </c>
-      <c r="J103">
-        <v>1</v>
-      </c>
-      <c r="P103">
-        <v>1</v>
-      </c>
-      <c r="S103">
+        <v>597</v>
+      </c>
+      <c r="O103">
         <v>1</v>
       </c>
     </row>
@@ -5976,27 +6156,27 @@
         <v>154</v>
       </c>
       <c r="B104" t="s">
-        <v>420</v>
+        <v>374</v>
       </c>
       <c r="C104" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="D104" t="s">
-        <v>421</v>
+        <v>375</v>
       </c>
       <c r="E104" t="s">
-        <v>422</v>
-      </c>
-      <c r="F104" t="s">
-        <v>423</v>
+        <v>376</v>
       </c>
       <c r="G104" t="s">
-        <v>536</v>
+        <v>523</v>
       </c>
       <c r="H104" t="s">
-        <v>611</v>
-      </c>
-      <c r="J104">
+        <v>598</v>
+      </c>
+      <c r="M104">
+        <v>1</v>
+      </c>
+      <c r="O104">
         <v>1</v>
       </c>
     </row>
@@ -6005,30 +6185,27 @@
         <v>154</v>
       </c>
       <c r="B105" t="s">
-        <v>427</v>
+        <v>377</v>
       </c>
       <c r="C105" t="s">
         <v>191</v>
       </c>
       <c r="D105" t="s">
-        <v>426</v>
+        <v>378</v>
       </c>
       <c r="E105" t="s">
-        <v>424</v>
+        <v>379</v>
       </c>
       <c r="F105" t="s">
-        <v>425</v>
+        <v>380</v>
       </c>
       <c r="G105" t="s">
-        <v>537</v>
+        <v>524</v>
       </c>
       <c r="H105" t="s">
-        <v>612</v>
-      </c>
-      <c r="S105">
-        <v>1</v>
-      </c>
-      <c r="T105">
+        <v>599</v>
+      </c>
+      <c r="O105">
         <v>1</v>
       </c>
     </row>
@@ -6037,27 +6214,27 @@
         <v>154</v>
       </c>
       <c r="B106" t="s">
-        <v>428</v>
+        <v>381</v>
       </c>
       <c r="C106" t="s">
         <v>185</v>
       </c>
       <c r="D106" t="s">
-        <v>429</v>
+        <v>382</v>
       </c>
       <c r="E106" t="s">
-        <v>430</v>
+        <v>383</v>
       </c>
       <c r="F106" t="s">
-        <v>431</v>
+        <v>384</v>
       </c>
       <c r="G106" t="s">
-        <v>538</v>
+        <v>525</v>
       </c>
       <c r="H106" t="s">
-        <v>613</v>
-      </c>
-      <c r="J106">
+        <v>600</v>
+      </c>
+      <c r="O106">
         <v>1</v>
       </c>
     </row>
@@ -6066,33 +6243,27 @@
         <v>154</v>
       </c>
       <c r="B107" t="s">
-        <v>432</v>
+        <v>385</v>
       </c>
       <c r="C107" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="D107" t="s">
-        <v>433</v>
+        <v>386</v>
       </c>
       <c r="E107" t="s">
-        <v>434</v>
+        <v>387</v>
       </c>
       <c r="F107" t="s">
-        <v>435</v>
+        <v>388</v>
       </c>
       <c r="G107" t="s">
-        <v>539</v>
+        <v>526</v>
       </c>
       <c r="H107" t="s">
-        <v>614</v>
-      </c>
-      <c r="J107">
-        <v>1</v>
-      </c>
-      <c r="Q107">
-        <v>1</v>
-      </c>
-      <c r="R107">
+        <v>601</v>
+      </c>
+      <c r="M107">
         <v>1</v>
       </c>
     </row>
@@ -6101,27 +6272,24 @@
         <v>154</v>
       </c>
       <c r="B108" t="s">
-        <v>436</v>
+        <v>389</v>
       </c>
       <c r="C108" t="s">
-        <v>437</v>
+        <v>168</v>
       </c>
       <c r="D108" t="s">
-        <v>438</v>
+        <v>390</v>
       </c>
       <c r="E108" t="s">
-        <v>439</v>
+        <v>391</v>
       </c>
       <c r="G108" t="s">
-        <v>540</v>
+        <v>527</v>
       </c>
       <c r="H108" t="s">
-        <v>615</v>
+        <v>602</v>
       </c>
       <c r="I108">
-        <v>1</v>
-      </c>
-      <c r="M108">
         <v>1</v>
       </c>
     </row>
@@ -6130,27 +6298,27 @@
         <v>154</v>
       </c>
       <c r="B109" t="s">
-        <v>440</v>
+        <v>392</v>
       </c>
       <c r="C109" t="s">
-        <v>441</v>
+        <v>289</v>
       </c>
       <c r="D109" t="s">
-        <v>442</v>
+        <v>393</v>
       </c>
       <c r="E109" t="s">
-        <v>443</v>
+        <v>394</v>
       </c>
       <c r="F109" t="s">
-        <v>444</v>
+        <v>395</v>
       </c>
       <c r="G109" t="s">
-        <v>541</v>
+        <v>528</v>
       </c>
       <c r="H109" t="s">
-        <v>616</v>
-      </c>
-      <c r="P109">
+        <v>603</v>
+      </c>
+      <c r="I109">
         <v>1</v>
       </c>
     </row>
@@ -6159,27 +6327,27 @@
         <v>154</v>
       </c>
       <c r="B110" t="s">
-        <v>445</v>
+        <v>397</v>
       </c>
       <c r="C110" t="s">
-        <v>191</v>
+        <v>398</v>
       </c>
       <c r="D110" t="s">
-        <v>446</v>
+        <v>399</v>
       </c>
       <c r="E110" t="s">
-        <v>447</v>
-      </c>
-      <c r="F110" t="s">
-        <v>448</v>
+        <v>396</v>
       </c>
       <c r="G110" t="s">
-        <v>542</v>
+        <v>529</v>
       </c>
       <c r="H110" t="s">
-        <v>617</v>
-      </c>
-      <c r="K110">
+        <v>604</v>
+      </c>
+      <c r="I110">
+        <v>1</v>
+      </c>
+      <c r="J110">
         <v>1</v>
       </c>
     </row>
@@ -6188,27 +6356,27 @@
         <v>154</v>
       </c>
       <c r="B111" t="s">
-        <v>450</v>
-      </c>
-      <c r="C111" t="s">
-        <v>191</v>
+        <v>400</v>
       </c>
       <c r="D111" t="s">
-        <v>451</v>
+        <v>401</v>
       </c>
       <c r="E111" t="s">
-        <v>449</v>
+        <v>403</v>
       </c>
       <c r="F111" t="s">
-        <v>452</v>
+        <v>402</v>
       </c>
       <c r="G111" t="s">
-        <v>543</v>
+        <v>530</v>
       </c>
       <c r="H111" t="s">
-        <v>618</v>
-      </c>
-      <c r="N111">
+        <v>605</v>
+      </c>
+      <c r="M111">
+        <v>1</v>
+      </c>
+      <c r="T111">
         <v>1</v>
       </c>
     </row>
@@ -6217,193 +6385,588 @@
         <v>154</v>
       </c>
       <c r="B112" t="s">
+        <v>404</v>
+      </c>
+      <c r="C112" t="s">
+        <v>289</v>
+      </c>
+      <c r="D112" t="s">
+        <v>405</v>
+      </c>
+      <c r="E112" t="s">
+        <v>406</v>
+      </c>
+      <c r="F112" t="s">
+        <v>407</v>
+      </c>
+      <c r="G112" t="s">
+        <v>531</v>
+      </c>
+      <c r="H112" t="s">
+        <v>606</v>
+      </c>
+      <c r="M112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>154</v>
+      </c>
+      <c r="B113" t="s">
+        <v>408</v>
+      </c>
+      <c r="D113" t="s">
+        <v>409</v>
+      </c>
+      <c r="E113" t="s">
+        <v>410</v>
+      </c>
+      <c r="F113" t="s">
+        <v>410</v>
+      </c>
+      <c r="G113" t="s">
+        <v>532</v>
+      </c>
+      <c r="H113" t="s">
+        <v>607</v>
+      </c>
+      <c r="J113">
+        <v>1</v>
+      </c>
+      <c r="L113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>154</v>
+      </c>
+      <c r="B114" t="s">
+        <v>411</v>
+      </c>
+      <c r="C114" t="s">
+        <v>289</v>
+      </c>
+      <c r="D114" t="s">
+        <v>412</v>
+      </c>
+      <c r="E114" t="s">
+        <v>413</v>
+      </c>
+      <c r="G114" t="s">
+        <v>533</v>
+      </c>
+      <c r="H114" t="s">
+        <v>608</v>
+      </c>
+      <c r="L114">
+        <v>1</v>
+      </c>
+      <c r="R114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>154</v>
+      </c>
+      <c r="B115" t="s">
+        <v>414</v>
+      </c>
+      <c r="C115" t="s">
+        <v>289</v>
+      </c>
+      <c r="D115" t="s">
+        <v>415</v>
+      </c>
+      <c r="E115" t="s">
+        <v>416</v>
+      </c>
+      <c r="F115" t="s">
+        <v>417</v>
+      </c>
+      <c r="G115" t="s">
+        <v>534</v>
+      </c>
+      <c r="H115" t="s">
+        <v>609</v>
+      </c>
+      <c r="L115">
+        <v>1</v>
+      </c>
+      <c r="O115">
+        <v>1</v>
+      </c>
+      <c r="T115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>154</v>
+      </c>
+      <c r="B116" t="s">
+        <v>418</v>
+      </c>
+      <c r="C116" t="s">
+        <v>343</v>
+      </c>
+      <c r="D116" t="s">
+        <v>419</v>
+      </c>
+      <c r="E116" t="s">
+        <v>624</v>
+      </c>
+      <c r="G116" t="s">
+        <v>535</v>
+      </c>
+      <c r="H116" t="s">
+        <v>610</v>
+      </c>
+      <c r="J116">
+        <v>1</v>
+      </c>
+      <c r="P116">
+        <v>1</v>
+      </c>
+      <c r="S116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>154</v>
+      </c>
+      <c r="B117" t="s">
+        <v>420</v>
+      </c>
+      <c r="C117" t="s">
+        <v>185</v>
+      </c>
+      <c r="D117" t="s">
+        <v>421</v>
+      </c>
+      <c r="E117" t="s">
+        <v>422</v>
+      </c>
+      <c r="F117" t="s">
+        <v>423</v>
+      </c>
+      <c r="G117" t="s">
+        <v>536</v>
+      </c>
+      <c r="H117" t="s">
+        <v>611</v>
+      </c>
+      <c r="J117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>154</v>
+      </c>
+      <c r="B118" t="s">
+        <v>427</v>
+      </c>
+      <c r="C118" t="s">
+        <v>191</v>
+      </c>
+      <c r="D118" t="s">
+        <v>426</v>
+      </c>
+      <c r="E118" t="s">
+        <v>424</v>
+      </c>
+      <c r="F118" t="s">
+        <v>425</v>
+      </c>
+      <c r="G118" t="s">
+        <v>537</v>
+      </c>
+      <c r="H118" t="s">
+        <v>612</v>
+      </c>
+      <c r="S118">
+        <v>1</v>
+      </c>
+      <c r="T118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>154</v>
+      </c>
+      <c r="B119" t="s">
+        <v>428</v>
+      </c>
+      <c r="C119" t="s">
+        <v>185</v>
+      </c>
+      <c r="D119" t="s">
+        <v>429</v>
+      </c>
+      <c r="E119" t="s">
+        <v>430</v>
+      </c>
+      <c r="F119" t="s">
+        <v>431</v>
+      </c>
+      <c r="G119" t="s">
+        <v>538</v>
+      </c>
+      <c r="H119" t="s">
+        <v>613</v>
+      </c>
+      <c r="J119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>154</v>
+      </c>
+      <c r="B120" t="s">
+        <v>432</v>
+      </c>
+      <c r="C120" t="s">
+        <v>196</v>
+      </c>
+      <c r="D120" t="s">
+        <v>433</v>
+      </c>
+      <c r="E120" t="s">
+        <v>434</v>
+      </c>
+      <c r="F120" t="s">
+        <v>435</v>
+      </c>
+      <c r="G120" t="s">
+        <v>539</v>
+      </c>
+      <c r="H120" t="s">
+        <v>614</v>
+      </c>
+      <c r="J120">
+        <v>1</v>
+      </c>
+      <c r="Q120">
+        <v>1</v>
+      </c>
+      <c r="R120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>154</v>
+      </c>
+      <c r="B121" t="s">
+        <v>436</v>
+      </c>
+      <c r="C121" t="s">
+        <v>437</v>
+      </c>
+      <c r="D121" t="s">
+        <v>438</v>
+      </c>
+      <c r="E121" t="s">
+        <v>439</v>
+      </c>
+      <c r="G121" t="s">
+        <v>540</v>
+      </c>
+      <c r="H121" t="s">
+        <v>615</v>
+      </c>
+      <c r="I121">
+        <v>1</v>
+      </c>
+      <c r="M121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>154</v>
+      </c>
+      <c r="B122" t="s">
+        <v>440</v>
+      </c>
+      <c r="C122" t="s">
+        <v>441</v>
+      </c>
+      <c r="D122" t="s">
+        <v>442</v>
+      </c>
+      <c r="E122" t="s">
+        <v>443</v>
+      </c>
+      <c r="F122" t="s">
+        <v>444</v>
+      </c>
+      <c r="G122" t="s">
+        <v>541</v>
+      </c>
+      <c r="H122" t="s">
+        <v>616</v>
+      </c>
+      <c r="P122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>154</v>
+      </c>
+      <c r="B123" t="s">
+        <v>445</v>
+      </c>
+      <c r="C123" t="s">
+        <v>191</v>
+      </c>
+      <c r="D123" t="s">
+        <v>446</v>
+      </c>
+      <c r="E123" t="s">
+        <v>447</v>
+      </c>
+      <c r="F123" t="s">
+        <v>448</v>
+      </c>
+      <c r="G123" t="s">
+        <v>542</v>
+      </c>
+      <c r="H123" t="s">
+        <v>617</v>
+      </c>
+      <c r="K123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>154</v>
+      </c>
+      <c r="B124" t="s">
+        <v>450</v>
+      </c>
+      <c r="C124" t="s">
+        <v>191</v>
+      </c>
+      <c r="D124" t="s">
+        <v>451</v>
+      </c>
+      <c r="E124" t="s">
+        <v>449</v>
+      </c>
+      <c r="F124" t="s">
+        <v>452</v>
+      </c>
+      <c r="G124" t="s">
+        <v>543</v>
+      </c>
+      <c r="H124" t="s">
+        <v>618</v>
+      </c>
+      <c r="N124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>154</v>
+      </c>
+      <c r="B125" t="s">
         <v>453</v>
       </c>
-      <c r="C112" t="s">
+      <c r="C125" t="s">
         <v>360</v>
       </c>
-      <c r="D112" t="s">
+      <c r="D125" t="s">
         <v>454</v>
       </c>
-      <c r="E112" t="s">
+      <c r="E125" t="s">
         <v>455</v>
       </c>
-      <c r="F112" t="s">
+      <c r="F125" t="s">
         <v>456</v>
       </c>
-      <c r="G112" t="s">
+      <c r="G125" t="s">
         <v>544</v>
       </c>
-      <c r="H112" t="s">
+      <c r="H125" t="s">
         <v>619</v>
       </c>
-      <c r="N112">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A113" t="s">
-        <v>154</v>
-      </c>
-      <c r="B113" t="s">
+      <c r="N125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>154</v>
+      </c>
+      <c r="B126" t="s">
         <v>457</v>
       </c>
-      <c r="C113" t="s">
+      <c r="C126" t="s">
         <v>360</v>
       </c>
-      <c r="D113" t="s">
+      <c r="D126" t="s">
         <v>458</v>
       </c>
-      <c r="E113" t="s">
+      <c r="E126" t="s">
         <v>459</v>
       </c>
-      <c r="G113" t="s">
+      <c r="G126" t="s">
         <v>545</v>
       </c>
-      <c r="H113" t="s">
+      <c r="H126" t="s">
         <v>620</v>
       </c>
-      <c r="N113">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A114" t="s">
-        <v>154</v>
-      </c>
-      <c r="B114" t="s">
+      <c r="N126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>154</v>
+      </c>
+      <c r="B127" t="s">
         <v>460</v>
       </c>
-      <c r="C114" t="s">
+      <c r="C127" t="s">
         <v>191</v>
       </c>
-      <c r="D114" t="s">
+      <c r="D127" t="s">
         <v>461</v>
       </c>
-      <c r="E114" t="s">
+      <c r="E127" t="s">
         <v>462</v>
       </c>
-      <c r="F114" t="s">
+      <c r="F127" t="s">
         <v>463</v>
       </c>
-      <c r="G114" t="s">
+      <c r="G127" t="s">
         <v>546</v>
       </c>
-      <c r="H114" t="s">
+      <c r="H127" t="s">
         <v>621</v>
       </c>
-      <c r="I114">
-        <v>1</v>
-      </c>
-      <c r="M114">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A115" t="s">
-        <v>154</v>
-      </c>
-      <c r="B115" t="s">
+      <c r="I127">
+        <v>1</v>
+      </c>
+      <c r="M127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>154</v>
+      </c>
+      <c r="B128" t="s">
         <v>464</v>
       </c>
-      <c r="C115" t="s">
+      <c r="C128" t="s">
         <v>465</v>
       </c>
-      <c r="D115" t="s">
+      <c r="D128" t="s">
         <v>466</v>
       </c>
-      <c r="E115" t="s">
+      <c r="E128" t="s">
         <v>467</v>
       </c>
-      <c r="G115" t="s">
+      <c r="G128" t="s">
         <v>547</v>
       </c>
-      <c r="H115" t="s">
+      <c r="H128" t="s">
         <v>622</v>
       </c>
-      <c r="L115">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A116" t="s">
-        <v>154</v>
-      </c>
-      <c r="B116" t="s">
+      <c r="L128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>154</v>
+      </c>
+      <c r="B129" t="s">
         <v>468</v>
       </c>
-      <c r="D116" t="s">
+      <c r="D129" t="s">
         <v>469</v>
       </c>
-      <c r="E116" t="s">
+      <c r="E129" t="s">
         <v>470</v>
       </c>
-      <c r="G116" t="s">
+      <c r="G129" t="s">
         <v>548</v>
       </c>
-      <c r="H116" t="s">
+      <c r="H129" t="s">
         <v>623</v>
       </c>
-      <c r="L116">
+      <c r="L129">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B39" r:id="rId1" display="https://www.matthewtancik.com/nerf" xr:uid="{35967FB2-814A-154F-8541-7714319F096C}"/>
-    <hyperlink ref="B40" r:id="rId2" display="https://lingjie0206.github.io/papers/NSVF/" xr:uid="{F2DD4E80-7653-6B46-BE0A-8E826172F88C}"/>
-    <hyperlink ref="B41" r:id="rId3" display="http://www.computationalimaging.org/publications/automatic-integration/" xr:uid="{A28EC183-687F-8A46-9CA4-4A7708A6C750}"/>
-    <hyperlink ref="B42" r:id="rId4" display="https://arxiv.org/abs/2011.12490" xr:uid="{C5B06987-5C0D-E443-82C4-02F6431045D1}"/>
-    <hyperlink ref="B43" r:id="rId5" display="https://depthoraclenerf.github.io/" xr:uid="{3CEB0E14-63E6-574A-9FC6-2051AD0460B0}"/>
-    <hyperlink ref="B44" r:id="rId6" display="https://arxiv.org/abs/2103.10380" xr:uid="{EA18432D-CDAD-5D46-AB83-9539228413CB}"/>
-    <hyperlink ref="B45" r:id="rId7" display="https://arxiv.org/abs/2103.13744" xr:uid="{429A6E53-E8CB-BC4C-9538-A2470024449F}"/>
-    <hyperlink ref="B46" r:id="rId8" display="https://alexyu.net/plenoctrees/" xr:uid="{7DC25326-9D8E-8D47-A044-DD17F9ED0CD0}"/>
-    <hyperlink ref="B47" r:id="rId9" display="https://arxiv.org/abs/2103.01954" xr:uid="{A2FF4FE9-43D0-5F44-93A7-55BE57938D31}"/>
-    <hyperlink ref="B48" r:id="rId10" display="https://vsitzmann.github.io/lfns/" xr:uid="{F6597C48-9252-3349-B84C-D97A31F62416}"/>
-    <hyperlink ref="B49" r:id="rId11" display="https://arxiv.org/pdf/2107.02791.pdf" xr:uid="{4E32310C-E8E8-1445-9B6E-B1A0C6585A89}"/>
-    <hyperlink ref="B51" r:id="rId12" display="https://nerf-w.github.io/" xr:uid="{1C3AF7E4-0ED6-6341-ACDB-04910971A9DA}"/>
-    <hyperlink ref="B56" r:id="rId13" display="https://gvv.mpi-inf.mpg.de/projects/nonrigid_nerf/" xr:uid="{2DDCA2B8-C06B-604A-A893-ED7E083125F7}"/>
-    <hyperlink ref="B57" r:id="rId14" display="https://volumetric-avatars.github.io/" xr:uid="{B38221A4-28D3-EC48-BD13-F22F93351407}"/>
-    <hyperlink ref="B59" r:id="rId15" display="https://arxiv.org/abs/2202.00181" xr:uid="{A924BD42-5B3F-3740-81C0-0C81F8B5122D}"/>
-    <hyperlink ref="B60" r:id="rId16" display="https://zju3dv.github.io/animatable_nerf/" xr:uid="{79B54E94-A634-C04E-BBD6-E0740CB05D22}"/>
-    <hyperlink ref="B61" r:id="rId17" display="https://vcai.mpi-inf.mpg.de/projects/NeuralActor/" xr:uid="{8B2119CC-BEBB-1141-9295-5A03BB8F0926}"/>
-    <hyperlink ref="B63" r:id="rId18" display="https://zju3dv.github.io/neuralbody/" xr:uid="{B4F98C3C-2C12-3647-8B14-C77A228D92A6}"/>
-    <hyperlink ref="D64" r:id="rId19" display="https://neural-3d-video.github.io/" xr:uid="{F5C4215C-421A-2E4F-9166-06F8B5156E7B}"/>
-    <hyperlink ref="B68" r:id="rId20" display="https://arxiv.org/abs/2012.02190" xr:uid="{53D1B557-9DD9-0941-A181-C2437740945C}"/>
-    <hyperlink ref="D68" r:id="rId21" display="https://alexyu.net/pixelnerf" xr:uid="{FE08CB9D-CA82-2641-899B-1CED2638D0C9}"/>
-    <hyperlink ref="B69" r:id="rId22" display="https://arxiv.org/abs/2012.02189" xr:uid="{A3166556-FD50-524F-9D7B-7DFABC9BA22F}"/>
-    <hyperlink ref="B72" r:id="rId23" display="https://arxiv.org/pdf/2102.08860.pdf" xr:uid="{C98AD7DA-8A21-4B40-A0E6-ABB79200584D}"/>
-    <hyperlink ref="B73" r:id="rId24" display="https://ibrnet.github.io/static/paper.pdf" xr:uid="{B64854DE-6A9F-EE41-8605-5F214EE9ADE2}"/>
-    <hyperlink ref="D73" r:id="rId25" display="https://ibrnet.github.io/" xr:uid="{5B6CC4DE-F7F9-2647-9B5C-A1E194127C73}"/>
-    <hyperlink ref="B74" r:id="rId26" display="https://arxiv.org/pdf/2103.17269.pdf" xr:uid="{62D8EC5C-C4AC-DA46-9FDF-0E23E2D5C874}"/>
-    <hyperlink ref="B75" r:id="rId27" display="https://arxiv.org/pdf/2104.00587.pdf" xr:uid="{B37AC469-58DD-BF4C-8A04-F712B1A8EB94}"/>
-    <hyperlink ref="B76" r:id="rId28" display="https://apple.github.io/ml-gsn/" xr:uid="{7717E2BE-FF3E-EF48-92FF-8653D9AB6AAE}"/>
-    <hyperlink ref="B77" r:id="rId29" display="https://apchenstu.github.io/mvsnerf/" xr:uid="{D01EC804-00BD-B442-AED3-391DEE153AF0}"/>
-    <hyperlink ref="B78" r:id="rId30" display="https://virtualhumans.mpi-inf.mpg.de/srf/" xr:uid="{BBFCEAB6-1067-4A46-B94B-1149F1DB3378}"/>
-    <hyperlink ref="D78" r:id="rId31" display="https://virtualhumans.mpi-inf.mpg.de/srf/" xr:uid="{99CFE0A6-49E8-6C47-AD0F-4876EDDD5257}"/>
-    <hyperlink ref="B79" r:id="rId32" display="https://liuyuan-pal.github.io/NeuRay/" xr:uid="{B8E198D5-170F-6445-ABD6-FC745FE3BB4F}"/>
-    <hyperlink ref="D81" r:id="rId33" display="https://github.com/vincentfung13/MINE" xr:uid="{BC5BAD36-364E-6749-BCB4-A976C125DDC5}"/>
-    <hyperlink ref="B83" r:id="rId34" display="https://sites.google.com/view/wbjang/home/codenerf" xr:uid="{187E0164-3464-5F42-AACD-3D5C2BF3C820}"/>
-    <hyperlink ref="B85" r:id="rId35" display="https://bmild.github.io/rawnerf/" xr:uid="{A6B8E96F-1F53-7041-B6A4-60B9508480D4}"/>
-    <hyperlink ref="B86" r:id="rId36" display="http://yenchenlin.me/inerf/" xr:uid="{EE610F53-3CF1-1E40-8ACB-F1984A3C3C5D}"/>
-    <hyperlink ref="B87" r:id="rId37" display="https://lemonatsu.github.io/ANeRF-Surface-free-Pose-Refinement/" xr:uid="{8812967F-CC98-5B4A-995D-AC01039F534F}"/>
-    <hyperlink ref="D87" r:id="rId38" display="https://lemonatsu.github.io/anerf/" xr:uid="{9D7EFC10-490A-E447-9D5C-8E801A904206}"/>
-    <hyperlink ref="B92" r:id="rId39" display="https://chenhsuanlin.bitbucket.io/bundle-adjusting-NeRF/" xr:uid="{20F5B6EF-8807-F341-AF88-60ED41CC6280}"/>
-    <hyperlink ref="B93" r:id="rId40" display="https://postech-cvlab.github.io/SCNeRF/" xr:uid="{2F6B0D04-F664-0240-95C8-8B039E05A6FE}"/>
-    <hyperlink ref="B94" r:id="rId41" display="https://markboss.me/publication/2021-nerd/" xr:uid="{D07E6E46-FE31-B345-8F53-0E980351DB40}"/>
-    <hyperlink ref="B95" r:id="rId42" display="https://people.eecs.berkeley.edu/~pratul/nerv/" xr:uid="{8DA1DFFB-66B7-D945-A567-262763835FE0}"/>
-    <hyperlink ref="B98" r:id="rId43" display="https://arxiv.org/abs/2010.07492" xr:uid="{24173C9F-D45A-1744-981B-21CA290E8730}"/>
-    <hyperlink ref="D98" r:id="rId44" display="https://github.com/Kai-46/nerfplusplus" xr:uid="{AC3D8F12-8792-6341-9EDD-3119722F4FB3}"/>
-    <hyperlink ref="B99" r:id="rId45" display="https://arxiv.org/abs/2011.12100" xr:uid="{A6421490-778F-404C-9B50-F4DF3C3222E3}"/>
-    <hyperlink ref="B101" r:id="rId46" display="https://ziyanw1.github.io/hybrid_nerf/" xr:uid="{21255C5F-2079-BD42-A4E8-1473A711251E}"/>
-    <hyperlink ref="B108" r:id="rId47" display="https://fig-nerf.github.io/" xr:uid="{BCB08482-216E-F445-961F-79B17BAB2894}"/>
-    <hyperlink ref="B109" r:id="rId48" display="https://developer.nvidia.com/blog/nvidia-research-nerf-tex-neural-reflectance-field-textures/" xr:uid="{46F7C388-1CC4-9149-B59B-559EE7BCD36A}"/>
-    <hyperlink ref="B110" r:id="rId49" display="https://jonbarron.info/mipnerf/" xr:uid="{3CF7024E-5382-C942-836E-26A20DA4524C}"/>
-    <hyperlink ref="B112" r:id="rId50" display="https://arxiv.org/abs/2106.10689" xr:uid="{E7185A93-C91C-F24C-9829-6325E236C3EB}"/>
-    <hyperlink ref="B114" r:id="rId51" display="https://weiyithu.github.io/NerfingMVS/" xr:uid="{22220255-E2B3-4341-A8DE-DF8098C5B6B6}"/>
-    <hyperlink ref="B115" r:id="rId52" display="https://3d-representation-learning.github.io/nerf-dy/" xr:uid="{433A7789-7958-4642-A629-FBF537BFB55E}"/>
-    <hyperlink ref="D116" r:id="rId53" display="https://mikh3x4.github.io/nerf-navigation/" xr:uid="{8A666769-9523-DC43-A0CD-D271CCCC1BDC}"/>
+    <hyperlink ref="B52" r:id="rId1" display="https://www.matthewtancik.com/nerf" xr:uid="{35967FB2-814A-154F-8541-7714319F096C}"/>
+    <hyperlink ref="B53" r:id="rId2" display="https://lingjie0206.github.io/papers/NSVF/" xr:uid="{F2DD4E80-7653-6B46-BE0A-8E826172F88C}"/>
+    <hyperlink ref="B54" r:id="rId3" display="http://www.computationalimaging.org/publications/automatic-integration/" xr:uid="{A28EC183-687F-8A46-9CA4-4A7708A6C750}"/>
+    <hyperlink ref="B55" r:id="rId4" display="https://arxiv.org/abs/2011.12490" xr:uid="{C5B06987-5C0D-E443-82C4-02F6431045D1}"/>
+    <hyperlink ref="B56" r:id="rId5" display="https://depthoraclenerf.github.io/" xr:uid="{3CEB0E14-63E6-574A-9FC6-2051AD0460B0}"/>
+    <hyperlink ref="B57" r:id="rId6" display="https://arxiv.org/abs/2103.10380" xr:uid="{EA18432D-CDAD-5D46-AB83-9539228413CB}"/>
+    <hyperlink ref="B58" r:id="rId7" display="https://arxiv.org/abs/2103.13744" xr:uid="{429A6E53-E8CB-BC4C-9538-A2470024449F}"/>
+    <hyperlink ref="B59" r:id="rId8" display="https://alexyu.net/plenoctrees/" xr:uid="{7DC25326-9D8E-8D47-A044-DD17F9ED0CD0}"/>
+    <hyperlink ref="B60" r:id="rId9" display="https://arxiv.org/abs/2103.01954" xr:uid="{A2FF4FE9-43D0-5F44-93A7-55BE57938D31}"/>
+    <hyperlink ref="B61" r:id="rId10" display="https://vsitzmann.github.io/lfns/" xr:uid="{F6597C48-9252-3349-B84C-D97A31F62416}"/>
+    <hyperlink ref="B62" r:id="rId11" display="https://arxiv.org/pdf/2107.02791.pdf" xr:uid="{4E32310C-E8E8-1445-9B6E-B1A0C6585A89}"/>
+    <hyperlink ref="B64" r:id="rId12" display="https://nerf-w.github.io/" xr:uid="{1C3AF7E4-0ED6-6341-ACDB-04910971A9DA}"/>
+    <hyperlink ref="B69" r:id="rId13" display="https://gvv.mpi-inf.mpg.de/projects/nonrigid_nerf/" xr:uid="{2DDCA2B8-C06B-604A-A893-ED7E083125F7}"/>
+    <hyperlink ref="B70" r:id="rId14" display="https://volumetric-avatars.github.io/" xr:uid="{B38221A4-28D3-EC48-BD13-F22F93351407}"/>
+    <hyperlink ref="B72" r:id="rId15" display="https://arxiv.org/abs/2202.00181" xr:uid="{A924BD42-5B3F-3740-81C0-0C81F8B5122D}"/>
+    <hyperlink ref="B73" r:id="rId16" display="https://zju3dv.github.io/animatable_nerf/" xr:uid="{79B54E94-A634-C04E-BBD6-E0740CB05D22}"/>
+    <hyperlink ref="B74" r:id="rId17" display="https://vcai.mpi-inf.mpg.de/projects/NeuralActor/" xr:uid="{8B2119CC-BEBB-1141-9295-5A03BB8F0926}"/>
+    <hyperlink ref="B76" r:id="rId18" display="https://zju3dv.github.io/neuralbody/" xr:uid="{B4F98C3C-2C12-3647-8B14-C77A228D92A6}"/>
+    <hyperlink ref="D77" r:id="rId19" display="https://neural-3d-video.github.io/" xr:uid="{F5C4215C-421A-2E4F-9166-06F8B5156E7B}"/>
+    <hyperlink ref="B81" r:id="rId20" display="https://arxiv.org/abs/2012.02190" xr:uid="{53D1B557-9DD9-0941-A181-C2437740945C}"/>
+    <hyperlink ref="D81" r:id="rId21" display="https://alexyu.net/pixelnerf" xr:uid="{FE08CB9D-CA82-2641-899B-1CED2638D0C9}"/>
+    <hyperlink ref="B82" r:id="rId22" display="https://arxiv.org/abs/2012.02189" xr:uid="{A3166556-FD50-524F-9D7B-7DFABC9BA22F}"/>
+    <hyperlink ref="B85" r:id="rId23" display="https://arxiv.org/pdf/2102.08860.pdf" xr:uid="{C98AD7DA-8A21-4B40-A0E6-ABB79200584D}"/>
+    <hyperlink ref="B86" r:id="rId24" display="https://ibrnet.github.io/static/paper.pdf" xr:uid="{B64854DE-6A9F-EE41-8605-5F214EE9ADE2}"/>
+    <hyperlink ref="D86" r:id="rId25" display="https://ibrnet.github.io/" xr:uid="{5B6CC4DE-F7F9-2647-9B5C-A1E194127C73}"/>
+    <hyperlink ref="B87" r:id="rId26" display="https://arxiv.org/pdf/2103.17269.pdf" xr:uid="{62D8EC5C-C4AC-DA46-9FDF-0E23E2D5C874}"/>
+    <hyperlink ref="B88" r:id="rId27" display="https://arxiv.org/pdf/2104.00587.pdf" xr:uid="{B37AC469-58DD-BF4C-8A04-F712B1A8EB94}"/>
+    <hyperlink ref="B89" r:id="rId28" display="https://apple.github.io/ml-gsn/" xr:uid="{7717E2BE-FF3E-EF48-92FF-8653D9AB6AAE}"/>
+    <hyperlink ref="B90" r:id="rId29" display="https://apchenstu.github.io/mvsnerf/" xr:uid="{D01EC804-00BD-B442-AED3-391DEE153AF0}"/>
+    <hyperlink ref="B91" r:id="rId30" display="https://virtualhumans.mpi-inf.mpg.de/srf/" xr:uid="{BBFCEAB6-1067-4A46-B94B-1149F1DB3378}"/>
+    <hyperlink ref="D91" r:id="rId31" display="https://virtualhumans.mpi-inf.mpg.de/srf/" xr:uid="{99CFE0A6-49E8-6C47-AD0F-4876EDDD5257}"/>
+    <hyperlink ref="B92" r:id="rId32" display="https://liuyuan-pal.github.io/NeuRay/" xr:uid="{B8E198D5-170F-6445-ABD6-FC745FE3BB4F}"/>
+    <hyperlink ref="D94" r:id="rId33" display="https://github.com/vincentfung13/MINE" xr:uid="{BC5BAD36-364E-6749-BCB4-A976C125DDC5}"/>
+    <hyperlink ref="B96" r:id="rId34" display="https://sites.google.com/view/wbjang/home/codenerf" xr:uid="{187E0164-3464-5F42-AACD-3D5C2BF3C820}"/>
+    <hyperlink ref="B98" r:id="rId35" display="https://bmild.github.io/rawnerf/" xr:uid="{A6B8E96F-1F53-7041-B6A4-60B9508480D4}"/>
+    <hyperlink ref="B99" r:id="rId36" display="http://yenchenlin.me/inerf/" xr:uid="{EE610F53-3CF1-1E40-8ACB-F1984A3C3C5D}"/>
+    <hyperlink ref="B100" r:id="rId37" display="https://lemonatsu.github.io/ANeRF-Surface-free-Pose-Refinement/" xr:uid="{8812967F-CC98-5B4A-995D-AC01039F534F}"/>
+    <hyperlink ref="D100" r:id="rId38" display="https://lemonatsu.github.io/anerf/" xr:uid="{9D7EFC10-490A-E447-9D5C-8E801A904206}"/>
+    <hyperlink ref="B105" r:id="rId39" display="https://chenhsuanlin.bitbucket.io/bundle-adjusting-NeRF/" xr:uid="{20F5B6EF-8807-F341-AF88-60ED41CC6280}"/>
+    <hyperlink ref="B106" r:id="rId40" display="https://postech-cvlab.github.io/SCNeRF/" xr:uid="{2F6B0D04-F664-0240-95C8-8B039E05A6FE}"/>
+    <hyperlink ref="B107" r:id="rId41" display="https://markboss.me/publication/2021-nerd/" xr:uid="{D07E6E46-FE31-B345-8F53-0E980351DB40}"/>
+    <hyperlink ref="B108" r:id="rId42" display="https://people.eecs.berkeley.edu/~pratul/nerv/" xr:uid="{8DA1DFFB-66B7-D945-A567-262763835FE0}"/>
+    <hyperlink ref="B111" r:id="rId43" display="https://arxiv.org/abs/2010.07492" xr:uid="{24173C9F-D45A-1744-981B-21CA290E8730}"/>
+    <hyperlink ref="D111" r:id="rId44" display="https://github.com/Kai-46/nerfplusplus" xr:uid="{AC3D8F12-8792-6341-9EDD-3119722F4FB3}"/>
+    <hyperlink ref="B112" r:id="rId45" display="https://arxiv.org/abs/2011.12100" xr:uid="{A6421490-778F-404C-9B50-F4DF3C3222E3}"/>
+    <hyperlink ref="B114" r:id="rId46" display="https://ziyanw1.github.io/hybrid_nerf/" xr:uid="{21255C5F-2079-BD42-A4E8-1473A711251E}"/>
+    <hyperlink ref="B121" r:id="rId47" display="https://fig-nerf.github.io/" xr:uid="{BCB08482-216E-F445-961F-79B17BAB2894}"/>
+    <hyperlink ref="B122" r:id="rId48" display="https://developer.nvidia.com/blog/nvidia-research-nerf-tex-neural-reflectance-field-textures/" xr:uid="{46F7C388-1CC4-9149-B59B-559EE7BCD36A}"/>
+    <hyperlink ref="B123" r:id="rId49" display="https://jonbarron.info/mipnerf/" xr:uid="{3CF7024E-5382-C942-836E-26A20DA4524C}"/>
+    <hyperlink ref="B125" r:id="rId50" display="https://arxiv.org/abs/2106.10689" xr:uid="{E7185A93-C91C-F24C-9829-6325E236C3EB}"/>
+    <hyperlink ref="B127" r:id="rId51" display="https://weiyithu.github.io/NerfingMVS/" xr:uid="{22220255-E2B3-4341-A8DE-DF8098C5B6B6}"/>
+    <hyperlink ref="B128" r:id="rId52" display="https://3d-representation-learning.github.io/nerf-dy/" xr:uid="{433A7789-7958-4642-A629-FBF537BFB55E}"/>
+    <hyperlink ref="D129" r:id="rId53" display="https://mikh3x4.github.io/nerf-navigation/" xr:uid="{8A666769-9523-DC43-A0CD-D271CCCC1BDC}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/docs/weekly_nerf_meta_data.xlsx
+++ b/docs/weekly_nerf_meta_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zelinzhao/cache/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02467484-6133-BF41-B3EC-F6DEBE1007CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CD86066-0E08-3A4D-BF7B-945637033FAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38400" yWindow="1240" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="weekly_nerf_meta_data" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="870" uniqueCount="697">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="955" uniqueCount="766">
   <si>
     <t>week</t>
   </si>
@@ -2123,6 +2123,213 @@
   </si>
   <si>
     <t>https://arxiv.org/abs/2208.04717</t>
+  </si>
+  <si>
+    <t>Casual Indoor HDR Radiance Capture from Omnidirectional Images</t>
+  </si>
+  <si>
+    <t>Aug21 - Aug27, 2022</t>
+  </si>
+  <si>
+    <t>We present PanoHDR-NeRF, a novel pipeline to casually capture a plausible full HDR radiance field of a large indoor scene without elaborate setups or complex capture protocols. First, a user captures a low dynamic range (LDR) omnidirectional video of the scene by freely waving an off-the-shelf camera around the scene. Then, an LDR2HDR network uplifts the captured LDR frames to HDR, subsequently used to train a tailored NeRF++ model. The resulting PanoHDR-NeRF pipeline can estimate full HDR panoramas from any location of the scene. Through experiments on a novel test dataset of a variety of real scenes with the ground truth HDR radiance captured at locations not seen during training, we show that PanoHDR-NeRF predicts plausible radiance from any scene point. We also show that the HDR images produced by PanoHDR-NeRF can synthesize correct lighting effects, enabling the augmentation of indoor scenes with synthetic objects that are lit correctly.</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2208.07903</t>
+  </si>
+  <si>
+    <t>Text-to-Image Generation via Implicit Visual Guidance and Hypernetwork</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2208.08493</t>
+  </si>
+  <si>
+    <t>PDRF: Progressively Deblurring Radiance Field for Fast and Robust Scene Reconstruction from Blurry Images</t>
+  </si>
+  <si>
+    <t>We present Progressively Deblurring Radiance Field (PDRF), a novel approach to efficiently reconstruct high quality radiance fields from blurry images. While current State-of-The-Art (SoTA) scene reconstruction methods achieve photo-realistic rendering results from clean source views, their performances suffer when the source views are affected by blur, which is commonly observed for images in the wild. Previous deblurring methods either do not account for 3D geometry, or are computationally intense. To addresses these issues, PDRF, a progressively deblurring scheme in radiance field modeling, accurately models blur by incorporating 3D scene context. PDRF further uses an efficient importance sampling scheme, which results in fast scene optimization. Specifically, PDRF proposes a Coarse Ray Renderer to quickly estimate voxel density and feature; a Fine Voxel Renderer is then used to achieve high quality ray tracing. We perform extensive experiments and show that PDRF is 15X faster than previous SoTA while achieving better performance on both synthetic and real scenes.</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2208.08049</t>
+  </si>
+  <si>
+    <t>The 8-Point Algorithm as an Inductive Bias for Relative Pose Prediction by ViTs</t>
+  </si>
+  <si>
+    <t>We present a simple baseline for directly estimating the relative pose (rotation and translation, including scale) between two images. Deep methods have recently shown strong progress but often require complex or multi-stage architectures. We show that a handful of modifications can be applied to a Vision Transformer (ViT) to bring its computations close to the Eight-Point Algorithm. This inductive bias enables a simple method to be competitive in multiple settings, often substantially improving over the state of the art with strong performance gains in limited data regimes.</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2208.08988</t>
+  </si>
+  <si>
+    <t>https://github.com/crockwell/rel_pose</t>
+  </si>
+  <si>
+    <t>Neural Capture of Animatable 3D Human from Monocular Video</t>
+  </si>
+  <si>
+    <t>We present a novel paradigm of building an animatable 3D human representation from a monocular video input, such that it can be rendered in any unseen poses and views. Our method is based on a dynamic Neural Radiance Field (NeRF) rigged by a mesh-based parametric 3D human model serving as a geometry proxy. Previous methods usually rely on multi-view videos or accurate 3D geometry information as additional inputs; besides, most methods suffer from degraded quality when generalized to unseen poses. We identify that the key to generalization is a good input embedding for querying dynamic NeRF: A good input embedding should define an injective mapping in the full volumetric space, guided by surface mesh deformation under pose variation. Based on this observation, we propose to embed the input query with its relationship to local surface regions spanned by a set of geodesic nearest neighbors on mesh vertices. By including both position and relative distance information, our embedding defines a distance-preserved deformation mapping and generalizes well to unseen poses. To reduce the dependency on additional inputs, we first initialize per-frame 3D meshes using off-the-shelf tools and then propose a pipeline to jointly optimize NeRF and refine the initial mesh. Extensive experiments show our method can synthesize plausible human rendering results under unseen poses and views.</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2208.08728</t>
+  </si>
+  <si>
+    <t>LoRD: Local 4D Implicit Representation for High-Fidelity Dynamic Human Modeling</t>
+  </si>
+  <si>
+    <t>Recent progress in 4D implicit representation focuses on globally controlling the shape and motion with low dimensional latent vectors, which is prone to missing surface details and accumulating tracking error. While many deep local representations have shown promising results for 3D shape modeling, their 4D counterpart does not exist yet. In this paper, we fill this blank by proposing a novel Local 4D implicit Representation for Dynamic clothed human, named LoRD, which has the merits of both 4D human modeling and local representation, and enables high-fidelity reconstruction with detailed surface deformations, such as clothing wrinkles. Particularly, our key insight is to encourage the network to learn the latent codes of local part-level representation, capable of explaining the local geometry and temporal deformations. To make the inference at test-time, we first estimate the inner body skeleton motion to track local parts at each time step, and then optimize the latent codes for each part via auto-decoding based on different types of observed data. Extensive experiments demonstrate that the proposed method has strong capability for representing 4D human, and outperforms state-of-the-art methods on practical applications, including 4D reconstruction from sparse points, non-rigid depth fusion, both qualitatively and quantitatively.</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2208.08622</t>
+  </si>
+  <si>
+    <t>Temporal View Synthesis of Dynamic Scenes through 3D Object Motion Estimation with Multi-Plane Images</t>
+  </si>
+  <si>
+    <t>ISMAR2022</t>
+  </si>
+  <si>
+    <t>The challenge of graphically rendering high frame-rate videos on low compute devices can be addressed through periodic prediction of future frames to enhance the user experience in virtual reality applications. This is studied through the problem of temporal view synthesis (TVS), where the goal is to predict the next frames of a video given the previous frames and the head poses of the previous and the next frames. In this work, we consider the TVS of dynamic scenes in which both the user and objects are moving. We design a framework that decouples the motion into user and object motion to effectively use the available user motion while predicting the next frames. We predict the motion of objects by isolating and estimating the 3D object motion in the past frames and then extrapolating it. We employ multi-plane images (MPI) as a 3D representation of the scenes and model the object motion as the 3D displacement between the corresponding points in the MPI representation. In order to handle the sparsity in MPIs while estimating the motion, we incorporate partial convolutions and masked correlation layers to estimate corresponding points. The predicted object motion is then integrated with the given user or camera motion to generate the next frame. Using a disocclusion infilling module, we synthesize the regions uncovered due to the camera and object motion. We develop a new synthetic dataset for TVS of dynamic scenes consisting of 800 videos at full HD resolution. We show through experiments on our dataset and the MPI Sintel dataset that our model outperforms all the competing methods in the literature.</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2208.09463</t>
+  </si>
+  <si>
+    <t>https://github.com/NagabhushanSN95/DeCOMPnet</t>
+  </si>
+  <si>
+    <t>Vox-Surf: Voxel-based Implicit Surface Representation</t>
+  </si>
+  <si>
+    <t>Virtual content creation and interaction play an important role in modern 3D applications such as AR and VR. Recovering detailed 3D models from real scenes can significantly expand the scope of its applications and has been studied for decades in the computer vision and computer graphics community. We propose Vox-Surf, a voxel-based implicit surface representation. Our Vox-Surf divides the space into finite bounded voxels. Each voxel stores geometry and appearance information in its corner vertices. Vox-Surf is suitable for almost any scenario thanks to sparsity inherited from voxel representation and can be easily trained from multiple view images. We leverage the progressive training procedure to extract important voxels gradually for further optimization so that only valid voxels are preserved, which greatly reduces the number of sampling points and increases rendering speed.The fine voxels can also be considered as the bounding volume for collision detection.The experiments show that Vox-Surf representation can learn delicate surface details and accurate color with less memory and faster rendering speed than other methods.We also show that Vox-Surf can be more practical in scene editing and AR applications.</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2208.10925</t>
+  </si>
+  <si>
+    <t>SCONE: Surface Coverage Optimization in Unknown Environments by Volumetric Integration</t>
+  </si>
+  <si>
+    <t>Next Best View computation (NBV) is a long-standing problem in robotics, and consists in identifying the next most informative sensor position(s) for reconstructing a 3D object or scene efficiently and accurately. Like most current methods, we consider NBV prediction from a depth sensor. Learning-based methods relying on a volumetric representation of the scene are suitable for path planning, but do not scale well with the size of the scene and have lower accuracy than methods using a surface-based representation. However, the latter constrain the camera to a small number of poses. To obtain the advantages of both representations, we show that we can maximize surface metrics by Monte Carlo integration over a volumetric representation. Our method scales to large scenes and handles free camera motion: It takes as input an arbitrarily large point cloud gathered by a depth sensor like Lidar systems as well as camera poses to predict NBV. We demonstrate our approach on a novel dataset made of large and complex 3D scenes.</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2208.10449</t>
+  </si>
+  <si>
+    <t>FurryGAN: High Quality Foreground-aware Image Synthesis</t>
+  </si>
+  <si>
+    <t>Foreground-aware image synthesis aims to generate images as well as their foreground masks. A common approach is to formulate an image as an masked blending of a foreground image and a background image. It is a challenging problem because it is prone to reach the trivial solution where either image overwhelms the other, i.e., the masks become completely full or empty, and the foreground and background are not meaningfully separated. We present FurryGAN with three key components: 1) imposing both the foreground image and the composite image to be realistic, 2) designing a mask as a combination of coarse and fine masks, and 3) guiding the generator by an auxiliary mask predictor in the discriminator. Our method produces realistic images with remarkably detailed alpha masks which cover hair, fur, and whiskers in a fully unsupervised manner.</t>
+  </si>
+  <si>
+    <t>https://jeongminb.github.io/FurryGAN/</t>
+  </si>
+  <si>
+    <t>E-NeRF: Neural Radiance Fields from a Moving Event Camera</t>
+  </si>
+  <si>
+    <t>Estimating neural radiance fields (NeRFs) from ideal images has been extensively studied in the computer vision community. Most approaches assume optimal illumination and slow camera motion. These assumptions are often violated in robotic applications, where images contain motion blur and the scene may not have suitable illumination. This can cause significant problems for downstream tasks such as navigation, inspection or visualization of the scene. To alleviate these problems we present E-NeRF, the first method which estimates a volumetric scene representation in the form of a NeRF from a fast-moving event camera. Our method can recover NeRFs during very fast motion and in high dynamic range conditions, where frame-based approaches fail. We show that rendering high-quality frames is possible by only providing an event stream as input. Furthermore, by combining events and frames, we can estimate NeRFs of higher quality than state-of-the-art approaches under severe motion blur. We also show that combining events and frames can overcome failure cases of NeRF estimation in scenarios where only few input views are available, without requiring additional regularization.</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2208.11300</t>
+  </si>
+  <si>
+    <t>DreamBooth: Fine Tuning Text-to-Image Diffusion Models for Subject-Driven Generation</t>
+  </si>
+  <si>
+    <t>Large text-to-image models achieved a remarkable leap in the evolution of AI, enabling high-quality and diverse synthesis of images from a given text prompt. However, these models lack the ability to mimic the appearance of subjects in a given reference set and synthesize novel renditions of them in different contexts. In this work, we present a new approach for "personalization" of text-to-image diffusion models (specializing them to users' needs). Given as input just a few images of a subject, we fine-tune a pretrained text-to-image model (Imagen, although our method is not limited to a specific model) such that it learns to bind a unique identifier with that specific subject. Once the subject is embedded in the output domain of the model, the unique identifier can then be used to synthesize fully-novel photorealistic images of the subject contextualized in different scenes. By leveraging the semantic prior embedded in the model with a new autogenous class-specific prior preservation loss, our technique enables synthesizing the subject in diverse scenes, poses, views, and lighting conditions that do not appear in the reference images. We apply our technique to several previously-unassailable tasks, including subject recontextualization, text-guided view synthesis, appearance modification, and artistic rendering (all while preserving the subject's key features). Project page: this https URL</t>
+  </si>
+  <si>
+    <t>https://dreambooth.github.io/</t>
+  </si>
+  <si>
+    <t>Neural Novel Actor: Learning a Generalized Animatable Neural Representation for Human Actors</t>
+  </si>
+  <si>
+    <t>We propose a new method for learning a generalized animatable neural human representation from a sparse set of multi-view imagery of multiple persons. The learned representation can be used to synthesize novel view images of an arbitrary person from a sparse set of cameras, and further animate them with the user's pose control. While existing methods can either generalize to new persons or synthesize animations with user control, none of them can achieve both at the same time. We attribute this accomplishment to the employment of a 3D proxy for a shared multi-person human model, and further the warping of the spaces of different poses to a shared canonical pose space, in which we learn a neural field and predict the person- and pose-dependent deformations, as well as appearance with the features extracted from input images. To cope with the complexity of the large variations in body shapes, poses, and clothing deformations, we design our neural human model with disentangled geometry and appearance. Furthermore, we utilize the image features both at the spatial point and on the surface points of the 3D proxy for predicting person- and pose-dependent properties. Experiments show that our method significantly outperforms the state-of-the-arts on both tasks. The video and code are available at this https URL.</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2208.11905</t>
+  </si>
+  <si>
+    <t>We develop an approach for text-to-image generation that embraces additional retrieval images, driven by a combination of implicit visual guidance loss and generative objectives. Unlike most existing text-to-image generation methods which merely take the text as input, our method dynamically feeds cross-modal search results into a unified training stage, hence improving the quality, controllability and diversity of generation results. We propose a novel hypernetwork modulated visual-text encoding scheme to predict the weight update of the encoding layer, enabling effective transfer from visual information (e.g. layout, content) into the corresponding latent domain. Experimental results show that our model guided with additional retrieval visual data outperforms existing GAN-based models. On COCO dataset, we achieve better FID of 9.13 with up to 3.5× fewer generator parameters, compared with the state-of-the-art method.</t>
+  </si>
+  <si>
+    <t>神经小说演员：学习人类演员的广义动画神经表示</t>
+  </si>
+  <si>
+    <t>DreamBooth：为主题驱动生成微调文本到图像的扩散模型</t>
+  </si>
+  <si>
+    <t>E-NeRF：来自移动事件相机的神经辐射场</t>
+  </si>
+  <si>
+    <t>FurryGAN：高质量的前景感知图像合成</t>
+  </si>
+  <si>
+    <t>SCONE：通过体积积分优化未知环境中的表面覆盖率</t>
+  </si>
+  <si>
+    <t>Vox-Surf：基于体素的隐式表面表示</t>
+  </si>
+  <si>
+    <t>通过多平面图像的 3D 对象运动估计动态场景的时间视图合成</t>
+  </si>
+  <si>
+    <t>LoRD：用于高保真动态人体建模的局部 4D 隐式表示</t>
+  </si>
+  <si>
+    <t>从单目视频中对动画 3D 人体进行神经捕获</t>
+  </si>
+  <si>
+    <t>8 点算法作为 ViTs 相对姿势预测的归纳偏差</t>
+  </si>
+  <si>
+    <t>PDRF：渐进式去模糊辐射场，用于从模糊图像中快速、稳健地重建场景</t>
+  </si>
+  <si>
+    <t>通过隐式视觉引导和超网络生成文本到图像</t>
+  </si>
+  <si>
+    <t>从全向图像中捕捉休闲室内 HDR 辐射</t>
+  </si>
+  <si>
+    <t>我们提出了一种新方法，用于从一组稀疏的多人多视图图像中学习广义的可动画神经人类表示。学习到的表示可用于从一组稀疏的相机中合成任意人的新颖视图图像，并使用用户的姿势控制进一步对它们进行动画处理。虽然现有方法可以推广到新人或使用用户控制合成动画，但它们都不能同时实现这两者。我们将这一成就归功于为共享的多人人体模型使用 3D 代理，并进一步将不同姿势的空间扭曲到共享的规范姿势空间，在该空间中，我们学习了一个神经领域并预测了人和与姿势相关的变形，以及从输入图像中提取的特征的外观。为了应对身体形状、姿势和服装变形的巨大变化的复杂性，我们设计了具有解开几何和外观的神经人体模型。此外，我们利用 3D 代理的空间点和表面点的图像特征来预测与人和姿势相关的属性。实验表明，我们的方法在这两项任务上都显着优于现有技术。视频和代码可在此 https 网址上找到。</t>
+  </si>
+  <si>
+    <t>大型文本到图像模型在人工智能的演进中实现了显着的飞跃，能够从给定的文本提示中对图像进行高质量和多样化的合成。然而，这些模型缺乏模仿给定参考集中对象的外观并在不同上下文中合成它们的新颖再现的能力。在这项工作中，我们提出了一种“个性化”文本到图像扩散模型的新方法（专门针对用户的需求）。给定主题的几张图像作为输入，我们微调预训练的文本到图像模型（Imagen，尽管我们的方法不限于特定模型），以便它学会将唯一标识符与该特定主题绑定.一旦对象被嵌入模型的输出域中，唯一标识符就可以用于合成在不同场景中情境化的对象的完全新颖的真实感图像。通过利用嵌入在模型中的语义先验和新的自生类特定先验保存损失，我们的技术能够在参考图像中没有出现的不同场景、姿势、视图和照明条件下合成主体。我们将我们的技术应用于几个以前无懈可击的任务，包括主题重新上下文化、文本引导视图合成、外观修改和艺术渲染（同时保留主题的关键特征）。项目页面：此 https 网址</t>
+  </si>
+  <si>
+    <t>从理想图像估计神经辐射场 (NeRFs) 已在计算机视觉领域得到广泛研究。大多数方法假设最佳照明和缓慢的相机运动。这些假设在机器人应用中经常被违反，其中图像包含运动模糊并且场景可能没有合适的照明。这可能会导致下游任务（例如场景的导航、检查或可视化）出现重大问题。为了缓解这些问题，我们提出了 E-NeRF，这是第一种从快速移动的事件摄像机中以 NeRF 形式估计体积场景表示的方法。我们的方法可以在非常快速的运动和高动态范围条件下恢复 NeRF，在这种情况下，基于帧的方法会失败。我们展示了仅通过提供事件流作为输入来渲染高质量帧是可能的。此外，通过结合事件和帧，我们可以估计在严重运动模糊下比最先进的方法质量更高的 NeRF。我们还表明，在只有很少的输入视图可用的情况下，结合事件和帧可以克服 NeRF 估计的失败情况，而无需额外的正则化。</t>
+  </si>
+  <si>
+    <t>前景感知图像合成旨在生成图像及其前景蒙版。一种常见的方法是将图像公式化为前景图像和背景图像的蒙版混合。这是一个具有挑战性的问题，因为它很容易达到一个简单的解决方案，即任一图像压倒另一个图像，即蒙版完全满或空，前景和背景没有有意义地分离。我们展示了 FurryGAN 的三个关键组件：1）将前景图像和合成图像都强加为逼真，2）将掩码设计为粗略和精细掩码的组合，以及 3）通过辅助掩码预测器引导生成器鉴别器。我们的方法使用非常详细的 alpha 蒙版生成逼真的图像，这些蒙版以完全无人监督的方式覆盖头发、毛皮和胡须。</t>
+  </si>
+  <si>
+    <t>下一个最佳视图计算 (NBV) 是机器人技术中长期存在的问题，包括识别下一个信息量最大的传感器位置，以有效且准确地重建 3D 对象或场景。像大多数当前方法一样，我们考虑来自深度传感器的 NBV 预测。依赖于场景体积表示的基于学习的方法适用于路径规划，但不能很好地适应场景的大小，并且精度低于使用基于表面的表示的方法。然而，后者将相机限制在少数姿势。为了获得这两种表示的优点，我们表明我们可以通过蒙特卡罗积分在体积表示上最大化表面度量。我们的方法可扩展到大型场景并处理自由相机运动：它将由深度传感器（如激光雷达系统）收集的任意大点云以及相机姿势作为输入来预测 NBV。我们在由大型复杂 3D 场景组成的新数据集上展示了我们的方法。</t>
+  </si>
+  <si>
+    <t>虚拟内容创建和交互在 AR 和 VR 等现代 3D 应用中发挥着重要作用。从真实场景中恢复详细的 3D 模型可以显着扩展其应用范围，并且已经在计算机视觉和计算机图形学界进行了数十年的研究。我们提出了 Vox-Surf，一种基于体素的隐式表面表示。我们的 Vox-Surf 将空间划分为有限的有界体素。每个体素在其角顶点中存储几何和外观信息。由于从体素表示继承而来的稀疏性，Vox-Surf 几乎适用于任何场景，并且可以从多个视图图像中轻松训练。我们利用渐进式训练过程逐步提取重要体素进行进一步优化，从而只保留有效体素，这大大减少了采样点的数量并提高了渲染速度。精细体素也可以视为碰撞检测的边界体积。实验表明，与其他方法相比，Vox-Surf 表示可以以更少的内存和更快的渲染速度学习精细的表面细节和准确的颜色。我们还表明，Vox-Surf 在场景编辑和 AR 应用中可以更实用。</t>
+  </si>
+  <si>
+    <t>在低计算设备上以图形方式渲染高帧率视频的挑战可以通过对未来帧的定期预测来解决，以增强虚拟现实应用程序中的用户体验。这是通过时间视图合成 (TVS) 的问题来研究的，其目标是在给定前一帧以及前一帧和下一帧的头部姿势的情况下预测视频的下一帧。在这项工作中，我们考虑了用户和对象都在移动的动态场景的 TVS。我们设计了一个框架，将运动解耦为用户和对象运动，以在预测下一帧的同时有效地使用可用的用户运动。我们通过隔离和估计过去帧中的 3D 对象运动然后外推来预测对象的运动。我们使用多平面图像 (MPI) 作为场景的 3D 表示，并将对象运动建模为 MPI 表示中对应点之间的 3D 位移。为了在估计运动时处理 MPI 中的稀疏性，我们结合了部分卷积和掩蔽相关层来估计对应点。然后将预测的对象运动与给定的用户或相机运动集成以生成下一帧。使用遮蔽填充模块，我们合成由于相机和物体运动而未覆盖的区域。我们为包含 800 个全高清分辨率视频的动态场景 TVS 开发了一个新的合成数据集。我们通过对我们的数据集和 MPI Sintel 数据集的实验表明，我们的模型优于文献中的所有竞争方法。</t>
+  </si>
+  <si>
+    <t>4D 隐式表示的最新进展集中在使用低维潜在向量全局控制形状和运动，这容易丢失表面细节和累积跟踪误差。尽管许多深度局部表示已显示出可用于 3D 形状建模的有希望的结果，但它们的 4D 对应物尚不存在。在本文中，我们提出了一种新颖的用于动态服装人体的局部 4D 隐式表示，名为 LoRD，以填补这一空白，它兼具 4D 人体建模和局部表示的优点，并能够通过详细的表面变形进行高保真重建，例如衣服褶皱。特别是，我们的关键见解是鼓励网络学习局部部分级表示的潜在代码，能够解释局部几何和时间变形。为了在测试时进行推断，我们首先在每个时间步估计体内骨骼运动以跟踪局部部位，然后根据不同类型的观察数据通过自动解码优化每个部位的潜在代码。大量实验表明，该方法具有很强的表示 4D 人体的能力，并且在实际应用中优于最先进的方法，包括从稀疏点进行 4D 重建、非刚性深度融合，无论是定性还是定量。</t>
+  </si>
+  <si>
+    <t>我们提出了一种从单目视频输入构建可动画 3D 人体表示的新颖范例，这样它就可以以任何看不见的姿势和视图进行渲染。我们的方法基于动态神经辐射场 (NeRF)，该动态神经辐射场 (NeRF) 由作为几何代理的基于网格的参数化 3D 人体模型装配。以前的方法通常依赖多视图视频或准确的 3D 几何信息作为附加输入；此外，大多数方法在推广到看不见的姿势时质量会下降。我们认为，泛化的关键是用于查询动态 NeRF 的良好输入嵌入：良好的输入嵌入应该定义全体积空间中的单射映射，由姿态变化下的表面网格变形引导。基于这一观察，我们建议嵌入输入查询及其与网格顶点上一组测地最近邻所跨越的局部表面区域的关系。通过包含位置和相对距离信息，我们的嵌入定义了距离保留的变形映射，并很好地推广到看不见的姿势。为了减少对额外输入的依赖，我们首先使用现成的工具初始化每帧 3D 网格，然后提出一个管道来联合优化 NeRF 并细化初始网格。大量实验表明，我们的方法可以在看不见的姿势和视图下合成合理的人类渲染结果。</t>
+  </si>
+  <si>
+    <t>我们提出了一个简单的基线，用于直接估计两个图像之间的相对姿势（旋转和平移，包括比例）。深度方法最近显示出强劲的进展，但通常需要复杂或多阶段的架构。我们展示了一些修改可以应用于视觉转换器 (ViT)，以使其计算接近八点算法。这种归纳偏差使一种简单的方法在多种环境中具有竞争力，通常在有限的数据机制中显着提高现有技术水平，并具有强大的性能提升。</t>
+  </si>
+  <si>
+    <t>我们提出了渐进式去模糊辐射场 (PDRF)，这是一种从模糊图像中有效重建高质量辐射场的新方法。虽然当前最先进的 (SoTA) 场景重建方法从干净的源视图实现照片般逼真的渲染结果，但当源视图受到模糊影响时，它们的性能会受到影响，这在野外图像中很常见。以前的去模糊方法要么不考虑 3D 几何，要么计算量很大。为了解决这些问题，PDRF 是辐射场建模中的一种渐进式去模糊方案，它通过结合 3D 场景上下文准确地模拟模糊。 PDRF 进一步使用有效的重要性采样方案，从而实现快速的场景优化。具体来说，PDRF 提出了一种 Coarse Ray Renderer 来快速估计体素密度和特征；然后使用 Fine Voxel Renderer 来实现高质量的光线追踪。我们进行了广泛的实验，结果表明 PDRF 比以前的 SoTA 快 15 倍，同时在合成场景和真实场景上都取得了更好的性能。</t>
+  </si>
+  <si>
+    <t>我们开发了一种文本到图像生成的方法，该方法包含额外的检索图像，由隐式视觉引导损失和生成目标的组合驱动。与大多数现有的仅以文本为输入的文本到图像生成方法不同，我们的方法将跨模态搜索结果动态地馈送到统一的训练阶段，从而提高了生成结果的质量、可控性和多样性。我们提出了一种新的超网络调制的视觉文本编码方案来预测编码层的权重更新，从而实现从视觉信息（例如布局、内容）到相应的潜在域的有效传输。实验结果表明，我们的模型以额外的检索视觉数据为指导，优于现有的基于 GAN 的模型。在 COCO 数据集上，与最先进的方法相比，我们实现了更好的 FID 为 9.13，生成器参数减少了 3.5 倍。</t>
+  </si>
+  <si>
+    <t>我们提出了 PanoHDR-NeRF，这是一种新颖的管道，可以随意捕获大型室内场景的合理全 HDR 辐射场，而无需精心设置或复杂的捕获协议。首先，用户通过在场景周围自由挥动现成的相机来捕捉场景的低动态范围 (LDR) 全向视频。 然后，LDR2HDR 网络将捕获的 LDR 帧提升为 HDR，随后用于训练定制的 NeRF++ 模型。 由此产生的 PanoHDR-NeRF 管道可以从场景的任何位置估计完整的 HDR 全景图。 通过对各种真实场景的新测试数据集进行实验，在训练期间未看到的位置捕获地面实况 HDR 辐射，我们表明 PanoHDR-NeRF 可以预测来自任何场景点的合理辐射。我们还表明，由 PanoHDR-NeRF 生成的 HDR 图像可以合成正确的照明效果，从而能够使用正确照明的合成对象来增强室内场景。</t>
   </si>
 </sst>
 </file>
@@ -2969,12 +3176,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T116"/>
+  <dimension ref="A1:T129"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
+      <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2983,7 +3190,7 @@
     <col min="2" max="2" width="61.5" customWidth="1"/>
     <col min="3" max="6" width="10.83203125" customWidth="1"/>
     <col min="7" max="7" width="57.83203125" customWidth="1"/>
-    <col min="8" max="8" width="12.5" customWidth="1"/>
+    <col min="8" max="8" width="88.6640625" customWidth="1"/>
     <col min="9" max="17" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3051,336 +3258,354 @@
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>668</v>
+        <v>698</v>
       </c>
       <c r="B2" t="s">
-        <v>664</v>
+        <v>736</v>
       </c>
       <c r="D2" t="s">
-        <v>665</v>
+        <v>737</v>
       </c>
       <c r="E2" t="s">
-        <v>666</v>
-      </c>
-      <c r="F2" t="s">
-        <v>667</v>
+        <v>738</v>
       </c>
       <c r="G2" t="s">
-        <v>683</v>
+        <v>740</v>
       </c>
       <c r="H2" t="s">
-        <v>670</v>
-      </c>
-      <c r="M2">
+        <v>753</v>
+      </c>
+      <c r="R2">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>668</v>
+        <v>698</v>
       </c>
       <c r="B3" t="s">
-        <v>660</v>
+        <v>733</v>
       </c>
       <c r="D3" t="s">
-        <v>661</v>
+        <v>734</v>
       </c>
       <c r="E3" t="s">
-        <v>662</v>
-      </c>
-      <c r="F3" t="s">
-        <v>663</v>
+        <v>735</v>
       </c>
       <c r="G3" t="s">
-        <v>684</v>
+        <v>741</v>
       </c>
       <c r="H3" t="s">
-        <v>671</v>
+        <v>754</v>
       </c>
       <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="S3">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>668</v>
+        <v>698</v>
       </c>
       <c r="B4" t="s">
-        <v>657</v>
-      </c>
-      <c r="C4" t="s">
-        <v>48</v>
+        <v>730</v>
       </c>
       <c r="D4" t="s">
-        <v>658</v>
+        <v>731</v>
       </c>
       <c r="E4" t="s">
-        <v>659</v>
+        <v>732</v>
       </c>
       <c r="G4" t="s">
-        <v>685</v>
+        <v>742</v>
       </c>
       <c r="H4" t="s">
-        <v>672</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
+        <v>755</v>
       </c>
       <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>625</v>
+        <v>698</v>
       </c>
       <c r="B5" t="s">
-        <v>654</v>
+        <v>727</v>
       </c>
       <c r="C5" t="s">
-        <v>633</v>
+        <v>48</v>
       </c>
       <c r="D5" t="s">
-        <v>655</v>
+        <v>728</v>
       </c>
       <c r="E5" t="s">
-        <v>656</v>
+        <v>729</v>
+      </c>
+      <c r="F5" t="s">
+        <v>729</v>
       </c>
       <c r="G5" t="s">
-        <v>686</v>
+        <v>743</v>
       </c>
       <c r="H5" t="s">
-        <v>673</v>
-      </c>
-      <c r="R5">
+        <v>756</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="M5">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>625</v>
+        <v>698</v>
       </c>
       <c r="B6" t="s">
-        <v>651</v>
-      </c>
-      <c r="C6" t="s">
-        <v>652</v>
+        <v>724</v>
       </c>
       <c r="D6" t="s">
-        <v>669</v>
+        <v>725</v>
       </c>
       <c r="E6" t="s">
-        <v>653</v>
+        <v>726</v>
       </c>
       <c r="G6" t="s">
-        <v>687</v>
+        <v>744</v>
       </c>
       <c r="H6" t="s">
-        <v>674</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="N6">
+        <v>757</v>
+      </c>
+      <c r="O6">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>625</v>
+        <v>668</v>
       </c>
       <c r="B7" t="s">
-        <v>648</v>
+        <v>721</v>
       </c>
       <c r="D7" t="s">
-        <v>649</v>
+        <v>722</v>
       </c>
       <c r="E7" t="s">
-        <v>650</v>
+        <v>723</v>
       </c>
       <c r="G7" t="s">
-        <v>688</v>
+        <v>745</v>
       </c>
       <c r="H7" t="s">
-        <v>675</v>
-      </c>
-      <c r="T7">
+        <v>758</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="N7">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>625</v>
+        <v>668</v>
       </c>
       <c r="B8" t="s">
-        <v>644</v>
+        <v>716</v>
       </c>
       <c r="C8" t="s">
-        <v>48</v>
+        <v>717</v>
       </c>
       <c r="D8" t="s">
-        <v>647</v>
+        <v>718</v>
       </c>
       <c r="E8" t="s">
-        <v>646</v>
+        <v>719</v>
       </c>
       <c r="F8" t="s">
-        <v>645</v>
+        <v>720</v>
       </c>
       <c r="G8" t="s">
-        <v>689</v>
+        <v>746</v>
       </c>
       <c r="H8" t="s">
-        <v>676</v>
-      </c>
-      <c r="O8">
+        <v>759</v>
+      </c>
+      <c r="Q8">
+        <v>1</v>
+      </c>
+      <c r="R8">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>625</v>
+        <v>668</v>
       </c>
       <c r="B9" t="s">
-        <v>641</v>
+        <v>713</v>
+      </c>
+      <c r="C9" t="s">
+        <v>48</v>
       </c>
       <c r="D9" t="s">
-        <v>642</v>
+        <v>714</v>
       </c>
       <c r="E9" t="s">
-        <v>643</v>
+        <v>715</v>
       </c>
       <c r="G9" t="s">
-        <v>690</v>
+        <v>747</v>
       </c>
       <c r="H9" t="s">
-        <v>677</v>
-      </c>
-      <c r="T9">
+        <v>760</v>
+      </c>
+      <c r="R9">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>625</v>
+        <v>668</v>
       </c>
       <c r="B10" t="s">
-        <v>639</v>
+        <v>710</v>
+      </c>
+      <c r="C10" t="s">
+        <v>48</v>
       </c>
       <c r="D10" t="s">
-        <v>640</v>
+        <v>711</v>
       </c>
       <c r="E10" t="s">
-        <v>696</v>
+        <v>712</v>
       </c>
       <c r="G10" t="s">
-        <v>691</v>
+        <v>748</v>
       </c>
       <c r="H10" t="s">
-        <v>678</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="M10">
+        <v>761</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="Q10">
+        <v>1</v>
+      </c>
+      <c r="R10">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>625</v>
+        <v>668</v>
       </c>
       <c r="B11" t="s">
-        <v>636</v>
+        <v>706</v>
+      </c>
+      <c r="C11" t="s">
+        <v>633</v>
       </c>
       <c r="D11" t="s">
-        <v>637</v>
+        <v>707</v>
       </c>
       <c r="E11" t="s">
-        <v>638</v>
+        <v>708</v>
+      </c>
+      <c r="F11" t="s">
+        <v>709</v>
       </c>
       <c r="G11" t="s">
-        <v>692</v>
+        <v>749</v>
       </c>
       <c r="H11" t="s">
-        <v>679</v>
-      </c>
-      <c r="T11">
+        <v>762</v>
+      </c>
+      <c r="O11">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>625</v>
+        <v>668</v>
       </c>
       <c r="B12" t="s">
-        <v>632</v>
-      </c>
-      <c r="C12" t="s">
-        <v>633</v>
+        <v>703</v>
       </c>
       <c r="D12" t="s">
-        <v>634</v>
+        <v>704</v>
       </c>
       <c r="E12" t="s">
-        <v>635</v>
+        <v>705</v>
       </c>
       <c r="G12" t="s">
-        <v>693</v>
+        <v>750</v>
       </c>
       <c r="H12" t="s">
-        <v>680</v>
-      </c>
-      <c r="N12">
+        <v>763</v>
+      </c>
+      <c r="K12">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>625</v>
+        <v>668</v>
       </c>
       <c r="B13" t="s">
-        <v>629</v>
-      </c>
-      <c r="C13" t="s">
-        <v>48</v>
+        <v>701</v>
       </c>
       <c r="D13" t="s">
-        <v>630</v>
+        <v>739</v>
       </c>
       <c r="E13" t="s">
-        <v>631</v>
+        <v>702</v>
       </c>
       <c r="G13" t="s">
-        <v>694</v>
+        <v>751</v>
       </c>
       <c r="H13" t="s">
-        <v>681</v>
-      </c>
-      <c r="N13">
+        <v>764</v>
+      </c>
+      <c r="M13">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>625</v>
+        <v>668</v>
       </c>
       <c r="B14" t="s">
-        <v>626</v>
+        <v>697</v>
       </c>
       <c r="D14" t="s">
-        <v>627</v>
+        <v>699</v>
       </c>
       <c r="E14" t="s">
-        <v>628</v>
+        <v>700</v>
       </c>
       <c r="G14" t="s">
-        <v>695</v>
+        <v>752</v>
       </c>
       <c r="H14" t="s">
-        <v>682</v>
-      </c>
-      <c r="N14">
+        <v>765</v>
+      </c>
+      <c r="I14">
         <v>1</v>
       </c>
       <c r="Q14">
@@ -3389,595 +3614,553 @@
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>668</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" t="s">
-        <v>19</v>
+        <v>664</v>
       </c>
       <c r="D15" t="s">
-        <v>20</v>
+        <v>665</v>
       </c>
       <c r="E15" t="s">
-        <v>21</v>
+        <v>666</v>
+      </c>
+      <c r="F15" t="s">
+        <v>667</v>
       </c>
       <c r="G15" t="s">
-        <v>22</v>
+        <v>683</v>
       </c>
       <c r="H15" t="s">
-        <v>23</v>
-      </c>
-      <c r="L15">
+        <v>670</v>
+      </c>
+      <c r="M15">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>668</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>660</v>
       </c>
       <c r="D16" t="s">
-        <v>56</v>
+        <v>661</v>
       </c>
       <c r="E16" t="s">
-        <v>78</v>
+        <v>662</v>
+      </c>
+      <c r="F16" t="s">
+        <v>663</v>
       </c>
       <c r="G16" t="s">
-        <v>108</v>
+        <v>684</v>
       </c>
       <c r="H16" t="s">
-        <v>129</v>
-      </c>
-      <c r="M16">
-        <v>1</v>
-      </c>
-      <c r="S16">
+        <v>671</v>
+      </c>
+      <c r="J16">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>668</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>657</v>
+      </c>
+      <c r="C17" t="s">
+        <v>48</v>
       </c>
       <c r="D17" t="s">
-        <v>57</v>
+        <v>658</v>
       </c>
       <c r="E17" t="s">
-        <v>79</v>
+        <v>659</v>
       </c>
       <c r="G17" t="s">
-        <v>26</v>
+        <v>685</v>
       </c>
       <c r="H17" t="s">
-        <v>130</v>
-      </c>
-      <c r="N17">
-        <v>1</v>
-      </c>
-      <c r="O17">
+        <v>672</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="K17">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>625</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>654</v>
       </c>
       <c r="C18" t="s">
-        <v>48</v>
+        <v>633</v>
       </c>
       <c r="D18" t="s">
-        <v>58</v>
+        <v>655</v>
       </c>
       <c r="E18" t="s">
-        <v>80</v>
-      </c>
-      <c r="F18" t="s">
-        <v>100</v>
+        <v>656</v>
       </c>
       <c r="G18" t="s">
-        <v>34</v>
+        <v>686</v>
       </c>
       <c r="H18" t="s">
-        <v>131</v>
-      </c>
-      <c r="M18">
+        <v>673</v>
+      </c>
+      <c r="R18">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>17</v>
+        <v>625</v>
       </c>
       <c r="B19" t="s">
-        <v>27</v>
+        <v>651</v>
+      </c>
+      <c r="C19" t="s">
+        <v>652</v>
       </c>
       <c r="D19" t="s">
-        <v>59</v>
+        <v>669</v>
       </c>
       <c r="E19" t="s">
-        <v>81</v>
+        <v>653</v>
       </c>
       <c r="G19" t="s">
-        <v>109</v>
+        <v>687</v>
       </c>
       <c r="H19" t="s">
-        <v>132</v>
+        <v>674</v>
       </c>
       <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="N19">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>17</v>
+        <v>625</v>
       </c>
       <c r="B20" t="s">
-        <v>28</v>
+        <v>648</v>
       </c>
       <c r="D20" t="s">
-        <v>60</v>
+        <v>649</v>
       </c>
       <c r="E20" t="s">
-        <v>82</v>
-      </c>
-      <c r="F20" t="s">
-        <v>82</v>
+        <v>650</v>
       </c>
       <c r="G20" t="s">
-        <v>110</v>
+        <v>688</v>
       </c>
       <c r="H20" t="s">
-        <v>133</v>
-      </c>
-      <c r="J20">
-        <v>1</v>
-      </c>
-      <c r="M20">
+        <v>675</v>
+      </c>
+      <c r="T20">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>17</v>
+        <v>625</v>
       </c>
       <c r="B21" t="s">
-        <v>35</v>
+        <v>644</v>
       </c>
       <c r="C21" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="D21" t="s">
-        <v>61</v>
+        <v>647</v>
       </c>
       <c r="E21" t="s">
-        <v>83</v>
+        <v>646</v>
+      </c>
+      <c r="F21" t="s">
+        <v>645</v>
       </c>
       <c r="G21" t="s">
-        <v>111</v>
+        <v>689</v>
       </c>
       <c r="H21" t="s">
-        <v>134</v>
-      </c>
-      <c r="J21">
-        <v>1</v>
-      </c>
-      <c r="L21">
+        <v>676</v>
+      </c>
+      <c r="O21">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>17</v>
+        <v>625</v>
       </c>
       <c r="B22" t="s">
-        <v>36</v>
-      </c>
-      <c r="C22" t="s">
-        <v>54</v>
+        <v>641</v>
       </c>
       <c r="D22" t="s">
-        <v>151</v>
+        <v>642</v>
       </c>
       <c r="E22" t="s">
-        <v>83</v>
+        <v>643</v>
       </c>
       <c r="G22" t="s">
-        <v>127</v>
+        <v>690</v>
       </c>
       <c r="H22" t="s">
-        <v>152</v>
-      </c>
-      <c r="J22">
-        <v>1</v>
-      </c>
-      <c r="L22">
+        <v>677</v>
+      </c>
+      <c r="T22">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>18</v>
+        <v>625</v>
       </c>
       <c r="B23" t="s">
-        <v>37</v>
-      </c>
-      <c r="C23" t="s">
-        <v>53</v>
+        <v>639</v>
       </c>
       <c r="D23" t="s">
-        <v>62</v>
+        <v>640</v>
       </c>
       <c r="E23" t="s">
-        <v>84</v>
-      </c>
-      <c r="F23" t="s">
-        <v>101</v>
+        <v>696</v>
       </c>
       <c r="G23" t="s">
-        <v>112</v>
+        <v>691</v>
       </c>
       <c r="H23" t="s">
-        <v>135</v>
-      </c>
-      <c r="T23">
+        <v>678</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="M23">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>18</v>
+        <v>625</v>
       </c>
       <c r="B24" t="s">
-        <v>38</v>
-      </c>
-      <c r="C24" t="s">
-        <v>52</v>
+        <v>636</v>
       </c>
       <c r="D24" t="s">
-        <v>63</v>
+        <v>637</v>
       </c>
       <c r="E24" t="s">
-        <v>85</v>
+        <v>638</v>
       </c>
       <c r="G24" t="s">
-        <v>113</v>
+        <v>692</v>
       </c>
       <c r="H24" t="s">
-        <v>136</v>
-      </c>
-      <c r="M24">
+        <v>679</v>
+      </c>
+      <c r="T24">
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>18</v>
+        <v>625</v>
       </c>
       <c r="B25" t="s">
-        <v>39</v>
+        <v>632</v>
       </c>
       <c r="C25" t="s">
-        <v>51</v>
+        <v>633</v>
       </c>
       <c r="D25" t="s">
-        <v>64</v>
+        <v>634</v>
       </c>
       <c r="E25" t="s">
-        <v>86</v>
+        <v>635</v>
       </c>
       <c r="G25" t="s">
-        <v>114</v>
+        <v>693</v>
       </c>
       <c r="H25" t="s">
-        <v>137</v>
-      </c>
-      <c r="M25">
-        <v>1</v>
-      </c>
-      <c r="O25">
+        <v>680</v>
+      </c>
+      <c r="N25">
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>18</v>
+        <v>625</v>
       </c>
       <c r="B26" t="s">
-        <v>29</v>
+        <v>629</v>
+      </c>
+      <c r="C26" t="s">
+        <v>48</v>
       </c>
       <c r="D26" t="s">
-        <v>65</v>
+        <v>630</v>
       </c>
       <c r="E26" t="s">
-        <v>87</v>
-      </c>
-      <c r="F26" t="s">
-        <v>102</v>
+        <v>631</v>
       </c>
       <c r="G26" t="s">
-        <v>115</v>
+        <v>694</v>
       </c>
       <c r="H26" t="s">
-        <v>138</v>
-      </c>
-      <c r="J26">
-        <v>1</v>
-      </c>
-      <c r="K26">
+        <v>681</v>
+      </c>
+      <c r="N26">
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>18</v>
+        <v>625</v>
       </c>
       <c r="B27" t="s">
-        <v>40</v>
-      </c>
-      <c r="C27" t="s">
-        <v>48</v>
+        <v>626</v>
       </c>
       <c r="D27" t="s">
-        <v>66</v>
+        <v>627</v>
       </c>
       <c r="E27" t="s">
-        <v>88</v>
-      </c>
-      <c r="F27" t="s">
-        <v>103</v>
+        <v>628</v>
       </c>
       <c r="G27" t="s">
-        <v>116</v>
+        <v>695</v>
       </c>
       <c r="H27" t="s">
-        <v>139</v>
-      </c>
-      <c r="O27">
-        <v>1</v>
-      </c>
-      <c r="T27">
+        <v>682</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="Q27">
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B28" t="s">
-        <v>30</v>
+        <v>24</v>
+      </c>
+      <c r="C28" t="s">
+        <v>19</v>
       </c>
       <c r="D28" t="s">
-        <v>67</v>
+        <v>20</v>
       </c>
       <c r="E28" t="s">
-        <v>89</v>
+        <v>21</v>
       </c>
       <c r="G28" t="s">
-        <v>117</v>
+        <v>22</v>
       </c>
       <c r="H28" t="s">
-        <v>140</v>
-      </c>
-      <c r="K28">
-        <v>1</v>
-      </c>
-      <c r="M28">
-        <v>1</v>
-      </c>
-      <c r="T28">
+        <v>23</v>
+      </c>
+      <c r="L28">
         <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B29" t="s">
-        <v>41</v>
-      </c>
-      <c r="C29" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="D29" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="E29" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="G29" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="H29" t="s">
-        <v>141</v>
-      </c>
-      <c r="K29">
-        <v>1</v>
-      </c>
-      <c r="N29">
+        <v>129</v>
+      </c>
+      <c r="M29">
+        <v>1</v>
+      </c>
+      <c r="S29">
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B30" t="s">
-        <v>42</v>
-      </c>
-      <c r="C30" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="D30" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="E30" t="s">
-        <v>91</v>
-      </c>
-      <c r="F30" t="s">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="G30" t="s">
-        <v>119</v>
+        <v>26</v>
       </c>
       <c r="H30" t="s">
-        <v>142</v>
-      </c>
-      <c r="R30">
-        <v>1</v>
-      </c>
-      <c r="T30">
+        <v>130</v>
+      </c>
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="O30">
         <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B31" t="s">
-        <v>31</v>
+        <v>34</v>
+      </c>
+      <c r="C31" t="s">
+        <v>48</v>
       </c>
       <c r="D31" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="E31" t="s">
-        <v>92</v>
+        <v>80</v>
+      </c>
+      <c r="F31" t="s">
+        <v>100</v>
       </c>
       <c r="G31" t="s">
-        <v>120</v>
+        <v>34</v>
       </c>
       <c r="H31" t="s">
-        <v>143</v>
-      </c>
-      <c r="I31">
+        <v>131</v>
+      </c>
+      <c r="M31">
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B32" t="s">
-        <v>43</v>
-      </c>
-      <c r="C32" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="D32" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="E32" t="s">
-        <v>93</v>
-      </c>
-      <c r="F32" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="G32" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="H32" t="s">
-        <v>144</v>
-      </c>
-      <c r="O32">
-        <v>1</v>
-      </c>
-      <c r="P32">
+        <v>132</v>
+      </c>
+      <c r="K32">
         <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B33" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D33" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="E33" t="s">
-        <v>94</v>
-      </c>
-      <c r="F33" t="s">
-        <v>106</v>
+        <v>82</v>
       </c>
       <c r="G33" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="H33" t="s">
-        <v>145</v>
-      </c>
-      <c r="N33">
-        <v>1</v>
-      </c>
-      <c r="O33">
+        <v>133</v>
+      </c>
+      <c r="J33">
+        <v>1</v>
+      </c>
+      <c r="M33">
         <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B34" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="C34" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="D34" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="E34" t="s">
-        <v>95</v>
-      </c>
-      <c r="F34" t="s">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="G34" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="H34" t="s">
-        <v>146</v>
-      </c>
-      <c r="N34">
-        <v>1</v>
-      </c>
-      <c r="O34">
+        <v>134</v>
+      </c>
+      <c r="J34">
+        <v>1</v>
+      </c>
+      <c r="L34">
         <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B35" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="C35" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D35" t="s">
-        <v>74</v>
+        <v>151</v>
       </c>
       <c r="E35" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="G35" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="H35" t="s">
-        <v>147</v>
-      </c>
-      <c r="T35">
+        <v>152</v>
+      </c>
+      <c r="J35">
+        <v>1</v>
+      </c>
+      <c r="L35">
         <v>1</v>
       </c>
     </row>
@@ -3986,27 +4169,27 @@
         <v>18</v>
       </c>
       <c r="B36" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="C36" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D36" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="E36" t="s">
-        <v>97</v>
+        <v>84</v>
+      </c>
+      <c r="F36" t="s">
+        <v>101</v>
       </c>
       <c r="G36" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="H36" t="s">
-        <v>148</v>
-      </c>
-      <c r="J36">
-        <v>1</v>
-      </c>
-      <c r="L36">
+        <v>135</v>
+      </c>
+      <c r="T36">
         <v>1</v>
       </c>
     </row>
@@ -4015,30 +4198,24 @@
         <v>18</v>
       </c>
       <c r="B37" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="C37" t="s">
-        <v>290</v>
+        <v>52</v>
       </c>
       <c r="D37" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="E37" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="G37" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="H37" t="s">
-        <v>149</v>
-      </c>
-      <c r="J37">
-        <v>1</v>
-      </c>
-      <c r="N37">
-        <v>1</v>
-      </c>
-      <c r="P37">
+        <v>136</v>
+      </c>
+      <c r="M37">
         <v>1</v>
       </c>
     </row>
@@ -4047,390 +4224,402 @@
         <v>18</v>
       </c>
       <c r="B38" t="s">
-        <v>33</v>
+        <v>39</v>
+      </c>
+      <c r="C38" t="s">
+        <v>51</v>
       </c>
       <c r="D38" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="E38" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="G38" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="H38" t="s">
-        <v>150</v>
-      </c>
-      <c r="T38">
+        <v>137</v>
+      </c>
+      <c r="M38">
+        <v>1</v>
+      </c>
+      <c r="O38">
         <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>154</v>
+        <v>18</v>
       </c>
       <c r="B39" t="s">
-        <v>155</v>
-      </c>
-      <c r="C39" t="s">
-        <v>157</v>
+        <v>29</v>
       </c>
       <c r="D39" t="s">
-        <v>259</v>
+        <v>65</v>
       </c>
       <c r="E39" t="s">
-        <v>158</v>
+        <v>87</v>
       </c>
       <c r="F39" t="s">
-        <v>159</v>
+        <v>102</v>
       </c>
       <c r="G39" t="s">
-        <v>160</v>
+        <v>115</v>
       </c>
       <c r="H39" t="s">
-        <v>161</v>
-      </c>
-      <c r="T39">
+        <v>138</v>
+      </c>
+      <c r="J39">
+        <v>1</v>
+      </c>
+      <c r="K39">
         <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>154</v>
+        <v>18</v>
       </c>
       <c r="B40" t="s">
-        <v>156</v>
+        <v>40</v>
       </c>
       <c r="C40" t="s">
-        <v>357</v>
+        <v>48</v>
       </c>
       <c r="D40" t="s">
-        <v>162</v>
+        <v>66</v>
       </c>
       <c r="E40" t="s">
-        <v>163</v>
+        <v>88</v>
       </c>
       <c r="F40" t="s">
-        <v>164</v>
+        <v>103</v>
       </c>
       <c r="G40" t="s">
-        <v>166</v>
+        <v>116</v>
       </c>
       <c r="H40" t="s">
-        <v>165</v>
-      </c>
-      <c r="J40">
-        <v>1</v>
-      </c>
-      <c r="K40">
+        <v>139</v>
+      </c>
+      <c r="O40">
+        <v>1</v>
+      </c>
+      <c r="T40">
         <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>154</v>
+        <v>18</v>
       </c>
       <c r="B41" t="s">
-        <v>167</v>
-      </c>
-      <c r="C41" t="s">
-        <v>168</v>
+        <v>30</v>
       </c>
       <c r="D41" t="s">
-        <v>169</v>
+        <v>67</v>
       </c>
       <c r="E41" t="s">
-        <v>172</v>
-      </c>
-      <c r="F41" t="s">
-        <v>173</v>
+        <v>89</v>
       </c>
       <c r="G41" t="s">
-        <v>171</v>
+        <v>117</v>
       </c>
       <c r="H41" t="s">
-        <v>170</v>
+        <v>140</v>
       </c>
       <c r="K41">
+        <v>1</v>
+      </c>
+      <c r="M41">
+        <v>1</v>
+      </c>
+      <c r="T41">
         <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>154</v>
+        <v>18</v>
       </c>
       <c r="B42" t="s">
-        <v>174</v>
+        <v>41</v>
+      </c>
+      <c r="C42" t="s">
+        <v>50</v>
       </c>
       <c r="D42" t="s">
-        <v>175</v>
+        <v>68</v>
       </c>
       <c r="E42" t="s">
-        <v>176</v>
+        <v>90</v>
       </c>
       <c r="G42" t="s">
-        <v>474</v>
+        <v>118</v>
       </c>
       <c r="H42" t="s">
-        <v>549</v>
+        <v>141</v>
       </c>
       <c r="K42">
+        <v>1</v>
+      </c>
+      <c r="N42">
         <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>154</v>
+        <v>18</v>
       </c>
       <c r="B43" t="s">
-        <v>177</v>
+        <v>42</v>
       </c>
       <c r="C43" t="s">
-        <v>178</v>
+        <v>48</v>
       </c>
       <c r="D43" t="s">
-        <v>179</v>
+        <v>69</v>
       </c>
       <c r="E43" t="s">
-        <v>180</v>
+        <v>91</v>
       </c>
       <c r="F43" t="s">
-        <v>181</v>
+        <v>104</v>
       </c>
       <c r="G43" t="s">
-        <v>475</v>
+        <v>119</v>
       </c>
       <c r="H43" t="s">
-        <v>550</v>
-      </c>
-      <c r="K43">
+        <v>142</v>
+      </c>
+      <c r="R43">
+        <v>1</v>
+      </c>
+      <c r="T43">
         <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>154</v>
+        <v>18</v>
       </c>
       <c r="B44" t="s">
-        <v>182</v>
-      </c>
-      <c r="C44" t="s">
-        <v>185</v>
+        <v>31</v>
       </c>
       <c r="D44" t="s">
-        <v>183</v>
+        <v>70</v>
       </c>
       <c r="E44" t="s">
-        <v>184</v>
+        <v>92</v>
       </c>
       <c r="G44" t="s">
-        <v>476</v>
+        <v>120</v>
       </c>
       <c r="H44" t="s">
-        <v>551</v>
-      </c>
-      <c r="K44">
+        <v>143</v>
+      </c>
+      <c r="I44">
         <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>154</v>
+        <v>18</v>
       </c>
       <c r="B45" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="C45" t="s">
-        <v>185</v>
+        <v>48</v>
       </c>
       <c r="D45" t="s">
-        <v>187</v>
+        <v>71</v>
       </c>
       <c r="E45" t="s">
-        <v>188</v>
+        <v>93</v>
       </c>
       <c r="F45" t="s">
-        <v>189</v>
+        <v>105</v>
       </c>
       <c r="G45" t="s">
-        <v>477</v>
+        <v>121</v>
       </c>
       <c r="H45" t="s">
-        <v>552</v>
-      </c>
-      <c r="K45">
+        <v>144</v>
+      </c>
+      <c r="O45">
+        <v>1</v>
+      </c>
+      <c r="P45">
         <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>154</v>
+        <v>18</v>
       </c>
       <c r="B46" t="s">
-        <v>190</v>
-      </c>
-      <c r="C46" t="s">
-        <v>191</v>
+        <v>32</v>
       </c>
       <c r="D46" t="s">
-        <v>192</v>
+        <v>72</v>
       </c>
       <c r="E46" t="s">
-        <v>193</v>
+        <v>94</v>
       </c>
       <c r="F46" t="s">
-        <v>194</v>
+        <v>106</v>
       </c>
       <c r="G46" t="s">
-        <v>478</v>
+        <v>122</v>
       </c>
       <c r="H46" t="s">
-        <v>553</v>
-      </c>
-      <c r="K46">
+        <v>145</v>
+      </c>
+      <c r="N46">
+        <v>1</v>
+      </c>
+      <c r="O46">
         <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>154</v>
+        <v>18</v>
       </c>
       <c r="B47" t="s">
-        <v>195</v>
+        <v>44</v>
       </c>
       <c r="C47" t="s">
-        <v>196</v>
+        <v>48</v>
       </c>
       <c r="D47" t="s">
-        <v>197</v>
+        <v>73</v>
       </c>
       <c r="E47" t="s">
-        <v>198</v>
+        <v>95</v>
+      </c>
+      <c r="F47" t="s">
+        <v>107</v>
       </c>
       <c r="G47" t="s">
-        <v>479</v>
+        <v>123</v>
       </c>
       <c r="H47" t="s">
-        <v>554</v>
-      </c>
-      <c r="K47">
+        <v>146</v>
+      </c>
+      <c r="N47">
+        <v>1</v>
+      </c>
+      <c r="O47">
         <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>154</v>
+        <v>18</v>
       </c>
       <c r="B48" t="s">
-        <v>199</v>
+        <v>45</v>
       </c>
       <c r="C48" t="s">
-        <v>358</v>
+        <v>49</v>
       </c>
       <c r="D48" t="s">
-        <v>200</v>
+        <v>74</v>
       </c>
       <c r="E48" t="s">
-        <v>201</v>
-      </c>
-      <c r="F48" t="s">
-        <v>202</v>
+        <v>96</v>
       </c>
       <c r="G48" t="s">
-        <v>480</v>
+        <v>124</v>
       </c>
       <c r="H48" t="s">
-        <v>555</v>
-      </c>
-      <c r="K48">
+        <v>147</v>
+      </c>
+      <c r="T48">
         <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>154</v>
+        <v>18</v>
       </c>
       <c r="B49" t="s">
-        <v>203</v>
+        <v>46</v>
       </c>
       <c r="C49" t="s">
-        <v>205</v>
+        <v>48</v>
       </c>
       <c r="D49" t="s">
-        <v>206</v>
+        <v>75</v>
       </c>
       <c r="E49" t="s">
-        <v>207</v>
-      </c>
-      <c r="F49" t="s">
-        <v>204</v>
+        <v>97</v>
       </c>
       <c r="G49" t="s">
-        <v>481</v>
+        <v>125</v>
       </c>
       <c r="H49" t="s">
-        <v>556</v>
-      </c>
-      <c r="K49">
+        <v>148</v>
+      </c>
+      <c r="J49">
+        <v>1</v>
+      </c>
+      <c r="L49">
         <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>154</v>
+        <v>18</v>
       </c>
       <c r="B50" t="s">
-        <v>208</v>
+        <v>47</v>
       </c>
       <c r="C50" t="s">
-        <v>209</v>
+        <v>290</v>
       </c>
       <c r="D50" t="s">
-        <v>210</v>
+        <v>76</v>
       </c>
       <c r="E50" t="s">
-        <v>211</v>
-      </c>
-      <c r="F50" t="s">
-        <v>212</v>
+        <v>98</v>
       </c>
       <c r="G50" t="s">
-        <v>482</v>
+        <v>126</v>
       </c>
       <c r="H50" t="s">
-        <v>557</v>
-      </c>
-      <c r="K50">
+        <v>149</v>
+      </c>
+      <c r="J50">
+        <v>1</v>
+      </c>
+      <c r="N50">
+        <v>1</v>
+      </c>
+      <c r="P50">
         <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>154</v>
+        <v>18</v>
       </c>
       <c r="B51" t="s">
-        <v>213</v>
-      </c>
-      <c r="C51" t="s">
-        <v>168</v>
+        <v>33</v>
       </c>
       <c r="D51" t="s">
-        <v>214</v>
+        <v>77</v>
       </c>
       <c r="E51" t="s">
-        <v>215</v>
+        <v>99</v>
       </c>
       <c r="G51" t="s">
-        <v>483</v>
+        <v>128</v>
       </c>
       <c r="H51" t="s">
-        <v>558</v>
-      </c>
-      <c r="I51">
-        <v>1</v>
-      </c>
-      <c r="O51">
-        <v>1</v>
+        <v>150</v>
       </c>
       <c r="T51">
         <v>1</v>
@@ -4441,31 +4630,25 @@
         <v>154</v>
       </c>
       <c r="B52" t="s">
-        <v>216</v>
+        <v>155</v>
       </c>
       <c r="C52" t="s">
-        <v>205</v>
+        <v>157</v>
       </c>
       <c r="D52" t="s">
-        <v>217</v>
+        <v>259</v>
       </c>
       <c r="E52" t="s">
-        <v>218</v>
+        <v>158</v>
       </c>
       <c r="F52" t="s">
-        <v>219</v>
+        <v>159</v>
       </c>
       <c r="G52" t="s">
-        <v>484</v>
+        <v>160</v>
       </c>
       <c r="H52" t="s">
-        <v>559</v>
-      </c>
-      <c r="I52">
-        <v>1</v>
-      </c>
-      <c r="O52">
-        <v>1</v>
+        <v>161</v>
       </c>
       <c r="T52">
         <v>1</v>
@@ -4476,27 +4659,30 @@
         <v>154</v>
       </c>
       <c r="B53" t="s">
-        <v>220</v>
+        <v>156</v>
       </c>
       <c r="C53" t="s">
-        <v>185</v>
+        <v>357</v>
       </c>
       <c r="D53" t="s">
-        <v>221</v>
+        <v>162</v>
       </c>
       <c r="E53" t="s">
-        <v>222</v>
+        <v>163</v>
+      </c>
+      <c r="F53" t="s">
+        <v>164</v>
       </c>
       <c r="G53" t="s">
-        <v>485</v>
+        <v>166</v>
       </c>
       <c r="H53" t="s">
-        <v>560</v>
-      </c>
-      <c r="O53">
-        <v>1</v>
-      </c>
-      <c r="T53">
+        <v>165</v>
+      </c>
+      <c r="J53">
+        <v>1</v>
+      </c>
+      <c r="K53">
         <v>1</v>
       </c>
     </row>
@@ -4505,30 +4691,27 @@
         <v>154</v>
       </c>
       <c r="B54" t="s">
-        <v>223</v>
+        <v>167</v>
       </c>
       <c r="C54" t="s">
         <v>168</v>
       </c>
       <c r="D54" t="s">
-        <v>224</v>
+        <v>169</v>
       </c>
       <c r="E54" t="s">
-        <v>225</v>
+        <v>172</v>
       </c>
       <c r="F54" t="s">
-        <v>226</v>
+        <v>173</v>
       </c>
       <c r="G54" t="s">
-        <v>486</v>
+        <v>171</v>
       </c>
       <c r="H54" t="s">
-        <v>561</v>
-      </c>
-      <c r="L54">
-        <v>1</v>
-      </c>
-      <c r="T54">
+        <v>170</v>
+      </c>
+      <c r="K54">
         <v>1</v>
       </c>
     </row>
@@ -4537,36 +4720,21 @@
         <v>154</v>
       </c>
       <c r="B55" t="s">
-        <v>227</v>
-      </c>
-      <c r="C55" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="D55" t="s">
-        <v>228</v>
+        <v>175</v>
       </c>
       <c r="E55" t="s">
-        <v>229</v>
-      </c>
-      <c r="F55" t="s">
-        <v>230</v>
+        <v>176</v>
       </c>
       <c r="G55" t="s">
-        <v>487</v>
+        <v>474</v>
       </c>
       <c r="H55" t="s">
-        <v>562</v>
-      </c>
-      <c r="L55">
-        <v>1</v>
-      </c>
-      <c r="O55">
-        <v>1</v>
-      </c>
-      <c r="R55">
-        <v>1</v>
-      </c>
-      <c r="T55">
+        <v>549</v>
+      </c>
+      <c r="K55">
         <v>1</v>
       </c>
     </row>
@@ -4575,30 +4743,27 @@
         <v>154</v>
       </c>
       <c r="B56" t="s">
-        <v>231</v>
+        <v>177</v>
       </c>
       <c r="C56" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="D56" t="s">
-        <v>232</v>
+        <v>179</v>
       </c>
       <c r="E56" t="s">
-        <v>233</v>
+        <v>180</v>
       </c>
       <c r="F56" t="s">
-        <v>234</v>
+        <v>181</v>
       </c>
       <c r="G56" t="s">
-        <v>488</v>
+        <v>475</v>
       </c>
       <c r="H56" t="s">
-        <v>563</v>
-      </c>
-      <c r="L56">
-        <v>1</v>
-      </c>
-      <c r="N56">
+        <v>550</v>
+      </c>
+      <c r="K56">
         <v>1</v>
       </c>
     </row>
@@ -4607,27 +4772,24 @@
         <v>154</v>
       </c>
       <c r="B57" t="s">
-        <v>235</v>
+        <v>182</v>
       </c>
       <c r="C57" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="D57" t="s">
-        <v>236</v>
+        <v>183</v>
       </c>
       <c r="E57" t="s">
-        <v>237</v>
+        <v>184</v>
       </c>
       <c r="G57" t="s">
-        <v>489</v>
+        <v>476</v>
       </c>
       <c r="H57" t="s">
-        <v>564</v>
-      </c>
-      <c r="R57">
-        <v>1</v>
-      </c>
-      <c r="T57">
+        <v>551</v>
+      </c>
+      <c r="K57">
         <v>1</v>
       </c>
     </row>
@@ -4636,30 +4798,27 @@
         <v>154</v>
       </c>
       <c r="B58" t="s">
-        <v>238</v>
+        <v>186</v>
       </c>
       <c r="C58" t="s">
         <v>185</v>
       </c>
       <c r="D58" t="s">
-        <v>239</v>
+        <v>187</v>
       </c>
       <c r="E58" t="s">
-        <v>240</v>
+        <v>188</v>
       </c>
       <c r="F58" t="s">
-        <v>241</v>
+        <v>189</v>
       </c>
       <c r="G58" t="s">
-        <v>490</v>
+        <v>477</v>
       </c>
       <c r="H58" t="s">
-        <v>565</v>
-      </c>
-      <c r="N58">
-        <v>1</v>
-      </c>
-      <c r="O58">
+        <v>552</v>
+      </c>
+      <c r="K58">
         <v>1</v>
       </c>
     </row>
@@ -4668,24 +4827,27 @@
         <v>154</v>
       </c>
       <c r="B59" t="s">
-        <v>242</v>
+        <v>190</v>
       </c>
       <c r="C59" t="s">
-        <v>243</v>
+        <v>191</v>
       </c>
       <c r="D59" t="s">
-        <v>244</v>
+        <v>192</v>
       </c>
       <c r="E59" t="s">
-        <v>245</v>
+        <v>193</v>
+      </c>
+      <c r="F59" t="s">
+        <v>194</v>
       </c>
       <c r="G59" t="s">
-        <v>491</v>
+        <v>478</v>
       </c>
       <c r="H59" t="s">
-        <v>566</v>
-      </c>
-      <c r="M59">
+        <v>553</v>
+      </c>
+      <c r="K59">
         <v>1</v>
       </c>
     </row>
@@ -4694,30 +4856,24 @@
         <v>154</v>
       </c>
       <c r="B60" t="s">
-        <v>246</v>
+        <v>195</v>
       </c>
       <c r="C60" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="D60" t="s">
-        <v>247</v>
+        <v>197</v>
       </c>
       <c r="E60" t="s">
-        <v>248</v>
-      </c>
-      <c r="F60" t="s">
-        <v>249</v>
+        <v>198</v>
       </c>
       <c r="G60" t="s">
-        <v>492</v>
+        <v>479</v>
       </c>
       <c r="H60" t="s">
-        <v>567</v>
-      </c>
-      <c r="R60">
-        <v>1</v>
-      </c>
-      <c r="T60">
+        <v>554</v>
+      </c>
+      <c r="K60">
         <v>1</v>
       </c>
     </row>
@@ -4726,30 +4882,27 @@
         <v>154</v>
       </c>
       <c r="B61" t="s">
-        <v>250</v>
+        <v>199</v>
       </c>
       <c r="C61" t="s">
-        <v>251</v>
+        <v>358</v>
       </c>
       <c r="D61" t="s">
-        <v>252</v>
+        <v>200</v>
       </c>
       <c r="E61" t="s">
-        <v>253</v>
+        <v>201</v>
       </c>
       <c r="F61" t="s">
-        <v>254</v>
+        <v>202</v>
       </c>
       <c r="G61" t="s">
-        <v>493</v>
+        <v>480</v>
       </c>
       <c r="H61" t="s">
-        <v>568</v>
-      </c>
-      <c r="O61">
-        <v>1</v>
-      </c>
-      <c r="R61">
+        <v>555</v>
+      </c>
+      <c r="K61">
         <v>1</v>
       </c>
     </row>
@@ -4758,27 +4911,27 @@
         <v>154</v>
       </c>
       <c r="B62" t="s">
-        <v>255</v>
+        <v>203</v>
       </c>
       <c r="C62" t="s">
-        <v>168</v>
+        <v>205</v>
       </c>
       <c r="D62" t="s">
-        <v>260</v>
+        <v>206</v>
       </c>
       <c r="E62" t="s">
-        <v>256</v>
+        <v>207</v>
       </c>
       <c r="F62" t="s">
-        <v>257</v>
+        <v>204</v>
       </c>
       <c r="G62" t="s">
-        <v>494</v>
+        <v>481</v>
       </c>
       <c r="H62" t="s">
-        <v>569</v>
-      </c>
-      <c r="Q62">
+        <v>556</v>
+      </c>
+      <c r="K62">
         <v>1</v>
       </c>
     </row>
@@ -4787,30 +4940,27 @@
         <v>154</v>
       </c>
       <c r="B63" t="s">
-        <v>262</v>
+        <v>208</v>
       </c>
       <c r="C63" t="s">
-        <v>168</v>
+        <v>209</v>
       </c>
       <c r="D63" t="s">
-        <v>263</v>
+        <v>210</v>
       </c>
       <c r="E63" t="s">
-        <v>264</v>
+        <v>211</v>
       </c>
       <c r="F63" t="s">
-        <v>265</v>
+        <v>212</v>
       </c>
       <c r="G63" t="s">
-        <v>495</v>
+        <v>482</v>
       </c>
       <c r="H63" t="s">
-        <v>570</v>
-      </c>
-      <c r="L63">
-        <v>1</v>
-      </c>
-      <c r="R63">
+        <v>557</v>
+      </c>
+      <c r="K63">
         <v>1</v>
       </c>
     </row>
@@ -4819,946 +4969,982 @@
         <v>154</v>
       </c>
       <c r="B64" t="s">
-        <v>266</v>
+        <v>213</v>
       </c>
       <c r="C64" t="s">
-        <v>209</v>
+        <v>168</v>
       </c>
       <c r="D64" t="s">
-        <v>267</v>
+        <v>214</v>
       </c>
       <c r="E64" t="s">
-        <v>268</v>
+        <v>215</v>
       </c>
       <c r="G64" t="s">
-        <v>496</v>
+        <v>483</v>
       </c>
       <c r="H64" t="s">
-        <v>571</v>
-      </c>
-      <c r="Q64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.2">
+        <v>558</v>
+      </c>
+      <c r="I64">
+        <v>1</v>
+      </c>
+      <c r="O64">
+        <v>1</v>
+      </c>
+      <c r="T64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>154</v>
       </c>
       <c r="B65" t="s">
-        <v>269</v>
+        <v>216</v>
       </c>
       <c r="C65" t="s">
+        <v>205</v>
+      </c>
+      <c r="D65" t="s">
+        <v>217</v>
+      </c>
+      <c r="E65" t="s">
+        <v>218</v>
+      </c>
+      <c r="F65" t="s">
+        <v>219</v>
+      </c>
+      <c r="G65" t="s">
+        <v>484</v>
+      </c>
+      <c r="H65" t="s">
+        <v>559</v>
+      </c>
+      <c r="I65">
+        <v>1</v>
+      </c>
+      <c r="O65">
+        <v>1</v>
+      </c>
+      <c r="T65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>154</v>
+      </c>
+      <c r="B66" t="s">
+        <v>220</v>
+      </c>
+      <c r="C66" t="s">
         <v>185</v>
       </c>
-      <c r="D65" t="s">
-        <v>270</v>
-      </c>
-      <c r="E65" t="s">
-        <v>271</v>
-      </c>
-      <c r="F65" t="s">
-        <v>272</v>
-      </c>
-      <c r="G65" t="s">
-        <v>497</v>
-      </c>
-      <c r="H65" t="s">
-        <v>572</v>
-      </c>
-      <c r="L65">
-        <v>1</v>
-      </c>
-      <c r="Q65">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
-        <v>154</v>
-      </c>
-      <c r="B66" t="s">
-        <v>273</v>
-      </c>
-      <c r="C66" t="s">
-        <v>357</v>
-      </c>
       <c r="D66" t="s">
-        <v>275</v>
+        <v>221</v>
       </c>
       <c r="E66" t="s">
-        <v>359</v>
-      </c>
-      <c r="F66" t="s">
-        <v>274</v>
+        <v>222</v>
       </c>
       <c r="G66" t="s">
-        <v>498</v>
+        <v>485</v>
       </c>
       <c r="H66" t="s">
-        <v>573</v>
-      </c>
-      <c r="M66">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.2">
+        <v>560</v>
+      </c>
+      <c r="O66">
+        <v>1</v>
+      </c>
+      <c r="T66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>154</v>
       </c>
       <c r="B67" t="s">
-        <v>276</v>
+        <v>223</v>
       </c>
       <c r="C67" t="s">
-        <v>191</v>
+        <v>168</v>
       </c>
       <c r="D67" t="s">
-        <v>277</v>
+        <v>224</v>
       </c>
       <c r="E67" t="s">
-        <v>278</v>
+        <v>225</v>
       </c>
       <c r="F67" t="s">
-        <v>279</v>
+        <v>226</v>
       </c>
       <c r="G67" t="s">
-        <v>499</v>
+        <v>486</v>
       </c>
       <c r="H67" t="s">
-        <v>574</v>
-      </c>
-      <c r="M67">
-        <v>1</v>
-      </c>
-      <c r="N67">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.2">
+        <v>561</v>
+      </c>
+      <c r="L67">
+        <v>1</v>
+      </c>
+      <c r="T67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>154</v>
       </c>
       <c r="B68" t="s">
-        <v>280</v>
+        <v>227</v>
       </c>
       <c r="C68" t="s">
         <v>168</v>
       </c>
       <c r="D68" t="s">
+        <v>228</v>
+      </c>
+      <c r="E68" t="s">
+        <v>229</v>
+      </c>
+      <c r="F68" t="s">
+        <v>230</v>
+      </c>
+      <c r="G68" t="s">
+        <v>487</v>
+      </c>
+      <c r="H68" t="s">
+        <v>562</v>
+      </c>
+      <c r="L68">
+        <v>1</v>
+      </c>
+      <c r="O68">
+        <v>1</v>
+      </c>
+      <c r="R68">
+        <v>1</v>
+      </c>
+      <c r="T68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>154</v>
+      </c>
+      <c r="B69" t="s">
+        <v>231</v>
+      </c>
+      <c r="C69" t="s">
+        <v>185</v>
+      </c>
+      <c r="D69" t="s">
+        <v>232</v>
+      </c>
+      <c r="E69" t="s">
+        <v>233</v>
+      </c>
+      <c r="F69" t="s">
+        <v>234</v>
+      </c>
+      <c r="G69" t="s">
+        <v>488</v>
+      </c>
+      <c r="H69" t="s">
+        <v>563</v>
+      </c>
+      <c r="L69">
+        <v>1</v>
+      </c>
+      <c r="N69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>154</v>
+      </c>
+      <c r="B70" t="s">
+        <v>235</v>
+      </c>
+      <c r="C70" t="s">
+        <v>168</v>
+      </c>
+      <c r="D70" t="s">
+        <v>236</v>
+      </c>
+      <c r="E70" t="s">
+        <v>237</v>
+      </c>
+      <c r="G70" t="s">
+        <v>489</v>
+      </c>
+      <c r="H70" t="s">
+        <v>564</v>
+      </c>
+      <c r="R70">
+        <v>1</v>
+      </c>
+      <c r="T70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>154</v>
+      </c>
+      <c r="B71" t="s">
+        <v>238</v>
+      </c>
+      <c r="C71" t="s">
+        <v>185</v>
+      </c>
+      <c r="D71" t="s">
+        <v>239</v>
+      </c>
+      <c r="E71" t="s">
+        <v>240</v>
+      </c>
+      <c r="F71" t="s">
+        <v>241</v>
+      </c>
+      <c r="G71" t="s">
+        <v>490</v>
+      </c>
+      <c r="H71" t="s">
+        <v>565</v>
+      </c>
+      <c r="N71">
+        <v>1</v>
+      </c>
+      <c r="O71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>154</v>
+      </c>
+      <c r="B72" t="s">
+        <v>242</v>
+      </c>
+      <c r="C72" t="s">
+        <v>243</v>
+      </c>
+      <c r="D72" t="s">
+        <v>244</v>
+      </c>
+      <c r="E72" t="s">
+        <v>245</v>
+      </c>
+      <c r="G72" t="s">
+        <v>491</v>
+      </c>
+      <c r="H72" t="s">
+        <v>566</v>
+      </c>
+      <c r="M72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>154</v>
+      </c>
+      <c r="B73" t="s">
+        <v>246</v>
+      </c>
+      <c r="C73" t="s">
+        <v>185</v>
+      </c>
+      <c r="D73" t="s">
+        <v>247</v>
+      </c>
+      <c r="E73" t="s">
+        <v>248</v>
+      </c>
+      <c r="F73" t="s">
+        <v>249</v>
+      </c>
+      <c r="G73" t="s">
+        <v>492</v>
+      </c>
+      <c r="H73" t="s">
+        <v>567</v>
+      </c>
+      <c r="R73">
+        <v>1</v>
+      </c>
+      <c r="T73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>154</v>
+      </c>
+      <c r="B74" t="s">
+        <v>250</v>
+      </c>
+      <c r="C74" t="s">
+        <v>251</v>
+      </c>
+      <c r="D74" t="s">
+        <v>252</v>
+      </c>
+      <c r="E74" t="s">
+        <v>253</v>
+      </c>
+      <c r="F74" t="s">
+        <v>254</v>
+      </c>
+      <c r="G74" t="s">
+        <v>493</v>
+      </c>
+      <c r="H74" t="s">
+        <v>568</v>
+      </c>
+      <c r="O74">
+        <v>1</v>
+      </c>
+      <c r="R74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>154</v>
+      </c>
+      <c r="B75" t="s">
+        <v>255</v>
+      </c>
+      <c r="C75" t="s">
+        <v>168</v>
+      </c>
+      <c r="D75" t="s">
+        <v>260</v>
+      </c>
+      <c r="E75" t="s">
+        <v>256</v>
+      </c>
+      <c r="F75" t="s">
+        <v>257</v>
+      </c>
+      <c r="G75" t="s">
+        <v>494</v>
+      </c>
+      <c r="H75" t="s">
+        <v>569</v>
+      </c>
+      <c r="Q75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>154</v>
+      </c>
+      <c r="B76" t="s">
+        <v>262</v>
+      </c>
+      <c r="C76" t="s">
+        <v>168</v>
+      </c>
+      <c r="D76" t="s">
+        <v>263</v>
+      </c>
+      <c r="E76" t="s">
+        <v>264</v>
+      </c>
+      <c r="F76" t="s">
+        <v>265</v>
+      </c>
+      <c r="G76" t="s">
+        <v>495</v>
+      </c>
+      <c r="H76" t="s">
+        <v>570</v>
+      </c>
+      <c r="L76">
+        <v>1</v>
+      </c>
+      <c r="R76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>154</v>
+      </c>
+      <c r="B77" t="s">
+        <v>266</v>
+      </c>
+      <c r="C77" t="s">
+        <v>209</v>
+      </c>
+      <c r="D77" t="s">
+        <v>267</v>
+      </c>
+      <c r="E77" t="s">
+        <v>268</v>
+      </c>
+      <c r="G77" t="s">
+        <v>496</v>
+      </c>
+      <c r="H77" t="s">
+        <v>571</v>
+      </c>
+      <c r="Q77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>154</v>
+      </c>
+      <c r="B78" t="s">
+        <v>269</v>
+      </c>
+      <c r="C78" t="s">
+        <v>185</v>
+      </c>
+      <c r="D78" t="s">
+        <v>270</v>
+      </c>
+      <c r="E78" t="s">
+        <v>271</v>
+      </c>
+      <c r="F78" t="s">
+        <v>272</v>
+      </c>
+      <c r="G78" t="s">
+        <v>497</v>
+      </c>
+      <c r="H78" t="s">
+        <v>572</v>
+      </c>
+      <c r="L78">
+        <v>1</v>
+      </c>
+      <c r="Q78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>154</v>
+      </c>
+      <c r="B79" t="s">
+        <v>273</v>
+      </c>
+      <c r="C79" t="s">
+        <v>357</v>
+      </c>
+      <c r="D79" t="s">
+        <v>275</v>
+      </c>
+      <c r="E79" t="s">
+        <v>359</v>
+      </c>
+      <c r="F79" t="s">
+        <v>274</v>
+      </c>
+      <c r="G79" t="s">
+        <v>498</v>
+      </c>
+      <c r="H79" t="s">
+        <v>573</v>
+      </c>
+      <c r="M79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>154</v>
+      </c>
+      <c r="B80" t="s">
+        <v>276</v>
+      </c>
+      <c r="C80" t="s">
+        <v>191</v>
+      </c>
+      <c r="D80" t="s">
+        <v>277</v>
+      </c>
+      <c r="E80" t="s">
+        <v>278</v>
+      </c>
+      <c r="F80" t="s">
+        <v>279</v>
+      </c>
+      <c r="G80" t="s">
+        <v>499</v>
+      </c>
+      <c r="H80" t="s">
+        <v>574</v>
+      </c>
+      <c r="M80">
+        <v>1</v>
+      </c>
+      <c r="N80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>154</v>
+      </c>
+      <c r="B81" t="s">
+        <v>280</v>
+      </c>
+      <c r="C81" t="s">
+        <v>168</v>
+      </c>
+      <c r="D81" t="s">
         <v>281</v>
       </c>
-      <c r="E68" t="s">
+      <c r="E81" t="s">
         <v>282</v>
       </c>
-      <c r="F68" t="s">
+      <c r="F81" t="s">
         <v>283</v>
       </c>
-      <c r="G68" t="s">
+      <c r="G81" t="s">
         <v>500</v>
       </c>
-      <c r="H68" t="s">
+      <c r="H81" t="s">
         <v>575</v>
       </c>
-      <c r="M68">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
-        <v>154</v>
-      </c>
-      <c r="B69" t="s">
+      <c r="M81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>154</v>
+      </c>
+      <c r="B82" t="s">
         <v>284</v>
       </c>
-      <c r="C69" t="s">
+      <c r="C82" t="s">
         <v>168</v>
       </c>
-      <c r="D69" t="s">
+      <c r="D82" t="s">
         <v>285</v>
       </c>
-      <c r="E69" t="s">
+      <c r="E82" t="s">
         <v>287</v>
       </c>
-      <c r="F69" t="s">
+      <c r="F82" t="s">
         <v>286</v>
       </c>
-      <c r="G69" t="s">
+      <c r="G82" t="s">
         <v>501</v>
       </c>
-      <c r="H69" t="s">
+      <c r="H82" t="s">
         <v>576</v>
       </c>
-      <c r="M69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
-        <v>154</v>
-      </c>
-      <c r="B70" t="s">
+      <c r="M82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>154</v>
+      </c>
+      <c r="B83" t="s">
         <v>288</v>
       </c>
-      <c r="C70" t="s">
+      <c r="C83" t="s">
         <v>289</v>
       </c>
-      <c r="D70" t="s">
+      <c r="D83" t="s">
         <v>291</v>
       </c>
-      <c r="E70" t="s">
+      <c r="E83" t="s">
         <v>292</v>
       </c>
-      <c r="F70" t="s">
+      <c r="F83" t="s">
         <v>293</v>
       </c>
-      <c r="G70" t="s">
+      <c r="G83" t="s">
         <v>502</v>
       </c>
-      <c r="H70" t="s">
+      <c r="H83" t="s">
         <v>577</v>
       </c>
-      <c r="M70">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
-        <v>154</v>
-      </c>
-      <c r="B71" t="s">
+      <c r="M83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>154</v>
+      </c>
+      <c r="B84" t="s">
         <v>294</v>
       </c>
-      <c r="D71" t="s">
+      <c r="D84" t="s">
         <v>295</v>
       </c>
-      <c r="E71" t="s">
+      <c r="E84" t="s">
         <v>296</v>
       </c>
-      <c r="G71" t="s">
+      <c r="G84" t="s">
         <v>503</v>
       </c>
-      <c r="H71" t="s">
+      <c r="H84" t="s">
         <v>578</v>
       </c>
-      <c r="M71">
-        <v>1</v>
-      </c>
-      <c r="R71">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
-        <v>154</v>
-      </c>
-      <c r="B72" t="s">
+      <c r="M84">
+        <v>1</v>
+      </c>
+      <c r="R84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>154</v>
+      </c>
+      <c r="B85" t="s">
         <v>297</v>
       </c>
-      <c r="C72" t="s">
+      <c r="C85" t="s">
         <v>298</v>
       </c>
-      <c r="D72" t="s">
+      <c r="D85" t="s">
         <v>299</v>
       </c>
-      <c r="E72" t="s">
+      <c r="E85" t="s">
         <v>300</v>
       </c>
-      <c r="F72" t="s">
+      <c r="F85" t="s">
         <v>301</v>
       </c>
-      <c r="G72" t="s">
+      <c r="G85" t="s">
         <v>504</v>
       </c>
-      <c r="H72" t="s">
+      <c r="H85" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
-        <v>154</v>
-      </c>
-      <c r="B73" t="s">
+    <row r="86" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>154</v>
+      </c>
+      <c r="B86" t="s">
         <v>302</v>
       </c>
-      <c r="C73" t="s">
+      <c r="C86" t="s">
         <v>168</v>
       </c>
-      <c r="D73" t="s">
+      <c r="D86" t="s">
         <v>303</v>
       </c>
-      <c r="E73" t="s">
+      <c r="E86" t="s">
         <v>304</v>
       </c>
-      <c r="F73" t="s">
+      <c r="F86" t="s">
         <v>305</v>
       </c>
-      <c r="G73" t="s">
+      <c r="G86" t="s">
         <v>505</v>
       </c>
-      <c r="H73" t="s">
+      <c r="H86" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
-        <v>154</v>
-      </c>
-      <c r="B74" t="s">
+    <row r="87" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>154</v>
+      </c>
+      <c r="B87" t="s">
         <v>306</v>
       </c>
-      <c r="D74" t="s">
+      <c r="D87" t="s">
         <v>307</v>
       </c>
-      <c r="E74" t="s">
+      <c r="E87" t="s">
         <v>308</v>
       </c>
-      <c r="G74" t="s">
+      <c r="G87" t="s">
         <v>506</v>
       </c>
-      <c r="H74" t="s">
+      <c r="H87" t="s">
         <v>581</v>
       </c>
-      <c r="J74">
-        <v>1</v>
-      </c>
-      <c r="M74">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A75" t="s">
-        <v>154</v>
-      </c>
-      <c r="B75" t="s">
+      <c r="J87">
+        <v>1</v>
+      </c>
+      <c r="M87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>154</v>
+      </c>
+      <c r="B88" t="s">
         <v>309</v>
       </c>
-      <c r="D75" t="s">
+      <c r="D88" t="s">
         <v>310</v>
       </c>
-      <c r="E75" t="s">
+      <c r="E88" t="s">
         <v>311</v>
       </c>
-      <c r="G75" t="s">
+      <c r="G88" t="s">
         <v>507</v>
       </c>
-      <c r="H75" t="s">
+      <c r="H88" t="s">
         <v>582</v>
       </c>
-      <c r="M75">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
-        <v>154</v>
-      </c>
-      <c r="B76" t="s">
+      <c r="M88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>154</v>
+      </c>
+      <c r="B89" t="s">
         <v>312</v>
-      </c>
-      <c r="C76" t="s">
-        <v>185</v>
-      </c>
-      <c r="D76" t="s">
-        <v>471</v>
-      </c>
-      <c r="E76" t="s">
-        <v>313</v>
-      </c>
-      <c r="F76" t="s">
-        <v>314</v>
-      </c>
-      <c r="G76" t="s">
-        <v>508</v>
-      </c>
-      <c r="H76" t="s">
-        <v>583</v>
-      </c>
-      <c r="M76">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A77" t="s">
-        <v>154</v>
-      </c>
-      <c r="B77" t="s">
-        <v>315</v>
-      </c>
-      <c r="C77" t="s">
-        <v>185</v>
-      </c>
-      <c r="D77" t="s">
-        <v>316</v>
-      </c>
-      <c r="E77" t="s">
-        <v>317</v>
-      </c>
-      <c r="F77" t="s">
-        <v>318</v>
-      </c>
-      <c r="G77" t="s">
-        <v>509</v>
-      </c>
-      <c r="H77" t="s">
-        <v>584</v>
-      </c>
-      <c r="M77">
-        <v>1</v>
-      </c>
-      <c r="N77">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A78" t="s">
-        <v>154</v>
-      </c>
-      <c r="B78" t="s">
-        <v>319</v>
-      </c>
-      <c r="C78" t="s">
-        <v>168</v>
-      </c>
-      <c r="D78" t="s">
-        <v>320</v>
-      </c>
-      <c r="E78" t="s">
-        <v>321</v>
-      </c>
-      <c r="F78" t="s">
-        <v>322</v>
-      </c>
-      <c r="G78" t="s">
-        <v>510</v>
-      </c>
-      <c r="H78" t="s">
-        <v>585</v>
-      </c>
-      <c r="M78">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A79" t="s">
-        <v>154</v>
-      </c>
-      <c r="B79" t="s">
-        <v>323</v>
-      </c>
-      <c r="C79" t="s">
-        <v>205</v>
-      </c>
-      <c r="D79" t="s">
-        <v>324</v>
-      </c>
-      <c r="E79" t="s">
-        <v>325</v>
-      </c>
-      <c r="F79" t="s">
-        <v>326</v>
-      </c>
-      <c r="G79" t="s">
-        <v>511</v>
-      </c>
-      <c r="H79" t="s">
-        <v>586</v>
-      </c>
-      <c r="M79">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A80" t="s">
-        <v>154</v>
-      </c>
-      <c r="B80" t="s">
-        <v>327</v>
-      </c>
-      <c r="C80" t="s">
-        <v>185</v>
-      </c>
-      <c r="D80" t="s">
-        <v>472</v>
-      </c>
-      <c r="E80" t="s">
-        <v>328</v>
-      </c>
-      <c r="F80" t="s">
-        <v>329</v>
-      </c>
-      <c r="G80" t="s">
-        <v>512</v>
-      </c>
-      <c r="H80" t="s">
-        <v>587</v>
-      </c>
-      <c r="M80">
-        <v>1</v>
-      </c>
-      <c r="S80">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A81" t="s">
-        <v>154</v>
-      </c>
-      <c r="B81" t="s">
-        <v>330</v>
-      </c>
-      <c r="C81" t="s">
-        <v>185</v>
-      </c>
-      <c r="D81" t="s">
-        <v>331</v>
-      </c>
-      <c r="E81" t="s">
-        <v>332</v>
-      </c>
-      <c r="F81" t="s">
-        <v>333</v>
-      </c>
-      <c r="G81" t="s">
-        <v>513</v>
-      </c>
-      <c r="H81" t="s">
-        <v>588</v>
-      </c>
-      <c r="N81">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A82" t="s">
-        <v>154</v>
-      </c>
-      <c r="B82" t="s">
-        <v>334</v>
-      </c>
-      <c r="C82" t="s">
-        <v>360</v>
-      </c>
-      <c r="D82" t="s">
-        <v>335</v>
-      </c>
-      <c r="E82" t="s">
-        <v>336</v>
-      </c>
-      <c r="F82" t="s">
-        <v>337</v>
-      </c>
-      <c r="G82" t="s">
-        <v>514</v>
-      </c>
-      <c r="H82" t="s">
-        <v>589</v>
-      </c>
-      <c r="L82">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A83" t="s">
-        <v>154</v>
-      </c>
-      <c r="B83" t="s">
-        <v>338</v>
-      </c>
-      <c r="C83" t="s">
-        <v>191</v>
-      </c>
-      <c r="D83" t="s">
-        <v>339</v>
-      </c>
-      <c r="E83" t="s">
-        <v>341</v>
-      </c>
-      <c r="F83" t="s">
-        <v>340</v>
-      </c>
-      <c r="G83" t="s">
-        <v>515</v>
-      </c>
-      <c r="H83" t="s">
-        <v>590</v>
-      </c>
-      <c r="M83">
-        <v>1</v>
-      </c>
-      <c r="P83">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A84" t="s">
-        <v>154</v>
-      </c>
-      <c r="B84" t="s">
-        <v>342</v>
-      </c>
-      <c r="C84" t="s">
-        <v>343</v>
-      </c>
-      <c r="D84" t="s">
-        <v>344</v>
-      </c>
-      <c r="E84" t="s">
-        <v>345</v>
-      </c>
-      <c r="F84" t="s">
-        <v>346</v>
-      </c>
-      <c r="G84" t="s">
-        <v>516</v>
-      </c>
-      <c r="H84" t="s">
-        <v>591</v>
-      </c>
-      <c r="M84">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A85" t="s">
-        <v>154</v>
-      </c>
-      <c r="B85" t="s">
-        <v>347</v>
-      </c>
-      <c r="C85" t="s">
-        <v>209</v>
-      </c>
-      <c r="D85" t="s">
-        <v>348</v>
-      </c>
-      <c r="E85" t="s">
-        <v>349</v>
-      </c>
-      <c r="F85" t="s">
-        <v>350</v>
-      </c>
-      <c r="G85" t="s">
-        <v>517</v>
-      </c>
-      <c r="H85" t="s">
-        <v>592</v>
-      </c>
-      <c r="I85">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A86" t="s">
-        <v>154</v>
-      </c>
-      <c r="B86" t="s">
-        <v>351</v>
-      </c>
-      <c r="C86" t="s">
-        <v>352</v>
-      </c>
-      <c r="D86" t="s">
-        <v>353</v>
-      </c>
-      <c r="E86" t="s">
-        <v>354</v>
-      </c>
-      <c r="F86" t="s">
-        <v>355</v>
-      </c>
-      <c r="G86" t="s">
-        <v>518</v>
-      </c>
-      <c r="H86" t="s">
-        <v>593</v>
-      </c>
-      <c r="O86">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A87" t="s">
-        <v>154</v>
-      </c>
-      <c r="B87" t="s">
-        <v>356</v>
-      </c>
-      <c r="C87" t="s">
-        <v>360</v>
-      </c>
-      <c r="D87" t="s">
-        <v>361</v>
-      </c>
-      <c r="E87" t="s">
-        <v>362</v>
-      </c>
-      <c r="F87" t="s">
-        <v>363</v>
-      </c>
-      <c r="G87" t="s">
-        <v>519</v>
-      </c>
-      <c r="H87" t="s">
-        <v>594</v>
-      </c>
-      <c r="O87">
-        <v>1</v>
-      </c>
-      <c r="R87">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A88" t="s">
-        <v>154</v>
-      </c>
-      <c r="B88" t="s">
-        <v>365</v>
-      </c>
-      <c r="D88" t="s">
-        <v>473</v>
-      </c>
-      <c r="E88" t="s">
-        <v>364</v>
-      </c>
-      <c r="F88" t="s">
-        <v>366</v>
-      </c>
-      <c r="G88" t="s">
-        <v>520</v>
-      </c>
-      <c r="H88" t="s">
-        <v>595</v>
-      </c>
-      <c r="O88">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A89" t="s">
-        <v>154</v>
-      </c>
-      <c r="B89" t="s">
-        <v>367</v>
       </c>
       <c r="C89" t="s">
         <v>185</v>
       </c>
       <c r="D89" t="s">
-        <v>368</v>
+        <v>471</v>
       </c>
       <c r="E89" t="s">
-        <v>369</v>
+        <v>313</v>
+      </c>
+      <c r="F89" t="s">
+        <v>314</v>
       </c>
       <c r="G89" t="s">
-        <v>521</v>
+        <v>508</v>
       </c>
       <c r="H89" t="s">
-        <v>596</v>
-      </c>
-      <c r="K89">
-        <v>1</v>
-      </c>
-      <c r="O89">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="1:18" x14ac:dyDescent="0.2">
+        <v>583</v>
+      </c>
+      <c r="M89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>154</v>
       </c>
       <c r="B90" t="s">
-        <v>370</v>
+        <v>315</v>
       </c>
       <c r="C90" t="s">
+        <v>185</v>
+      </c>
+      <c r="D90" t="s">
+        <v>316</v>
+      </c>
+      <c r="E90" t="s">
+        <v>317</v>
+      </c>
+      <c r="F90" t="s">
+        <v>318</v>
+      </c>
+      <c r="G90" t="s">
+        <v>509</v>
+      </c>
+      <c r="H90" t="s">
+        <v>584</v>
+      </c>
+      <c r="M90">
+        <v>1</v>
+      </c>
+      <c r="N90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>154</v>
+      </c>
+      <c r="B91" t="s">
+        <v>319</v>
+      </c>
+      <c r="C91" t="s">
+        <v>168</v>
+      </c>
+      <c r="D91" t="s">
+        <v>320</v>
+      </c>
+      <c r="E91" t="s">
+        <v>321</v>
+      </c>
+      <c r="F91" t="s">
+        <v>322</v>
+      </c>
+      <c r="G91" t="s">
+        <v>510</v>
+      </c>
+      <c r="H91" t="s">
+        <v>585</v>
+      </c>
+      <c r="M91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>154</v>
+      </c>
+      <c r="B92" t="s">
+        <v>323</v>
+      </c>
+      <c r="C92" t="s">
         <v>205</v>
       </c>
-      <c r="D90" t="s">
-        <v>371</v>
-      </c>
-      <c r="E90" t="s">
-        <v>372</v>
-      </c>
-      <c r="F90" t="s">
-        <v>373</v>
-      </c>
-      <c r="G90" t="s">
-        <v>522</v>
-      </c>
-      <c r="H90" t="s">
-        <v>597</v>
-      </c>
-      <c r="O90">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A91" t="s">
-        <v>154</v>
-      </c>
-      <c r="B91" t="s">
-        <v>374</v>
-      </c>
-      <c r="C91" t="s">
-        <v>191</v>
-      </c>
-      <c r="D91" t="s">
-        <v>375</v>
-      </c>
-      <c r="E91" t="s">
-        <v>376</v>
-      </c>
-      <c r="G91" t="s">
-        <v>523</v>
-      </c>
-      <c r="H91" t="s">
-        <v>598</v>
-      </c>
-      <c r="M91">
-        <v>1</v>
-      </c>
-      <c r="O91">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A92" t="s">
-        <v>154</v>
-      </c>
-      <c r="B92" t="s">
-        <v>377</v>
-      </c>
-      <c r="C92" t="s">
-        <v>191</v>
-      </c>
       <c r="D92" t="s">
-        <v>378</v>
+        <v>324</v>
       </c>
       <c r="E92" t="s">
-        <v>379</v>
+        <v>325</v>
       </c>
       <c r="F92" t="s">
-        <v>380</v>
+        <v>326</v>
       </c>
       <c r="G92" t="s">
-        <v>524</v>
+        <v>511</v>
       </c>
       <c r="H92" t="s">
-        <v>599</v>
-      </c>
-      <c r="O92">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:18" x14ac:dyDescent="0.2">
+        <v>586</v>
+      </c>
+      <c r="M92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>154</v>
       </c>
       <c r="B93" t="s">
-        <v>381</v>
+        <v>327</v>
       </c>
       <c r="C93" t="s">
         <v>185</v>
       </c>
       <c r="D93" t="s">
-        <v>382</v>
+        <v>472</v>
       </c>
       <c r="E93" t="s">
-        <v>383</v>
+        <v>328</v>
       </c>
       <c r="F93" t="s">
-        <v>384</v>
+        <v>329</v>
       </c>
       <c r="G93" t="s">
-        <v>525</v>
+        <v>512</v>
       </c>
       <c r="H93" t="s">
-        <v>600</v>
-      </c>
-      <c r="O93">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:18" x14ac:dyDescent="0.2">
+        <v>587</v>
+      </c>
+      <c r="M93">
+        <v>1</v>
+      </c>
+      <c r="S93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>154</v>
       </c>
       <c r="B94" t="s">
-        <v>385</v>
+        <v>330</v>
       </c>
       <c r="C94" t="s">
         <v>185</v>
       </c>
       <c r="D94" t="s">
-        <v>386</v>
+        <v>331</v>
       </c>
       <c r="E94" t="s">
-        <v>387</v>
+        <v>332</v>
       </c>
       <c r="F94" t="s">
-        <v>388</v>
+        <v>333</v>
       </c>
       <c r="G94" t="s">
-        <v>526</v>
+        <v>513</v>
       </c>
       <c r="H94" t="s">
-        <v>601</v>
-      </c>
-      <c r="M94">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="1:18" x14ac:dyDescent="0.2">
+        <v>588</v>
+      </c>
+      <c r="N94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>154</v>
       </c>
       <c r="B95" t="s">
-        <v>389</v>
+        <v>334</v>
       </c>
       <c r="C95" t="s">
-        <v>168</v>
+        <v>360</v>
       </c>
       <c r="D95" t="s">
-        <v>390</v>
+        <v>335</v>
       </c>
       <c r="E95" t="s">
-        <v>391</v>
+        <v>336</v>
+      </c>
+      <c r="F95" t="s">
+        <v>337</v>
       </c>
       <c r="G95" t="s">
-        <v>527</v>
+        <v>514</v>
       </c>
       <c r="H95" t="s">
-        <v>602</v>
-      </c>
-      <c r="I95">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" spans="1:18" x14ac:dyDescent="0.2">
+        <v>589</v>
+      </c>
+      <c r="L95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>154</v>
       </c>
       <c r="B96" t="s">
-        <v>392</v>
+        <v>338</v>
       </c>
       <c r="C96" t="s">
-        <v>289</v>
+        <v>191</v>
       </c>
       <c r="D96" t="s">
-        <v>393</v>
+        <v>339</v>
       </c>
       <c r="E96" t="s">
-        <v>394</v>
+        <v>341</v>
       </c>
       <c r="F96" t="s">
-        <v>395</v>
+        <v>340</v>
       </c>
       <c r="G96" t="s">
-        <v>528</v>
+        <v>515</v>
       </c>
       <c r="H96" t="s">
-        <v>603</v>
-      </c>
-      <c r="I96">
+        <v>590</v>
+      </c>
+      <c r="M96">
+        <v>1</v>
+      </c>
+      <c r="P96">
         <v>1</v>
       </c>
     </row>
@@ -5767,27 +5953,27 @@
         <v>154</v>
       </c>
       <c r="B97" t="s">
-        <v>397</v>
+        <v>342</v>
       </c>
       <c r="C97" t="s">
-        <v>398</v>
+        <v>343</v>
       </c>
       <c r="D97" t="s">
-        <v>399</v>
+        <v>344</v>
       </c>
       <c r="E97" t="s">
-        <v>396</v>
+        <v>345</v>
+      </c>
+      <c r="F97" t="s">
+        <v>346</v>
       </c>
       <c r="G97" t="s">
-        <v>529</v>
+        <v>516</v>
       </c>
       <c r="H97" t="s">
-        <v>604</v>
-      </c>
-      <c r="I97">
-        <v>1</v>
-      </c>
-      <c r="J97">
+        <v>591</v>
+      </c>
+      <c r="M97">
         <v>1</v>
       </c>
     </row>
@@ -5796,27 +5982,27 @@
         <v>154</v>
       </c>
       <c r="B98" t="s">
-        <v>400</v>
+        <v>347</v>
+      </c>
+      <c r="C98" t="s">
+        <v>209</v>
       </c>
       <c r="D98" t="s">
-        <v>401</v>
+        <v>348</v>
       </c>
       <c r="E98" t="s">
-        <v>403</v>
+        <v>349</v>
       </c>
       <c r="F98" t="s">
-        <v>402</v>
+        <v>350</v>
       </c>
       <c r="G98" t="s">
-        <v>530</v>
+        <v>517</v>
       </c>
       <c r="H98" t="s">
-        <v>605</v>
-      </c>
-      <c r="M98">
-        <v>1</v>
-      </c>
-      <c r="T98">
+        <v>592</v>
+      </c>
+      <c r="I98">
         <v>1</v>
       </c>
     </row>
@@ -5825,27 +6011,27 @@
         <v>154</v>
       </c>
       <c r="B99" t="s">
-        <v>404</v>
+        <v>351</v>
       </c>
       <c r="C99" t="s">
-        <v>289</v>
+        <v>352</v>
       </c>
       <c r="D99" t="s">
-        <v>405</v>
+        <v>353</v>
       </c>
       <c r="E99" t="s">
-        <v>406</v>
+        <v>354</v>
       </c>
       <c r="F99" t="s">
-        <v>407</v>
+        <v>355</v>
       </c>
       <c r="G99" t="s">
-        <v>531</v>
+        <v>518</v>
       </c>
       <c r="H99" t="s">
-        <v>606</v>
-      </c>
-      <c r="M99">
+        <v>593</v>
+      </c>
+      <c r="O99">
         <v>1</v>
       </c>
     </row>
@@ -5854,27 +6040,30 @@
         <v>154</v>
       </c>
       <c r="B100" t="s">
-        <v>408</v>
+        <v>356</v>
+      </c>
+      <c r="C100" t="s">
+        <v>360</v>
       </c>
       <c r="D100" t="s">
-        <v>409</v>
+        <v>361</v>
       </c>
       <c r="E100" t="s">
-        <v>410</v>
+        <v>362</v>
       </c>
       <c r="F100" t="s">
-        <v>410</v>
+        <v>363</v>
       </c>
       <c r="G100" t="s">
-        <v>532</v>
+        <v>519</v>
       </c>
       <c r="H100" t="s">
-        <v>607</v>
-      </c>
-      <c r="J100">
-        <v>1</v>
-      </c>
-      <c r="L100">
+        <v>594</v>
+      </c>
+      <c r="O100">
+        <v>1</v>
+      </c>
+      <c r="R100">
         <v>1</v>
       </c>
     </row>
@@ -5883,27 +6072,24 @@
         <v>154</v>
       </c>
       <c r="B101" t="s">
-        <v>411</v>
-      </c>
-      <c r="C101" t="s">
-        <v>289</v>
+        <v>365</v>
       </c>
       <c r="D101" t="s">
-        <v>412</v>
+        <v>473</v>
       </c>
       <c r="E101" t="s">
-        <v>413</v>
+        <v>364</v>
+      </c>
+      <c r="F101" t="s">
+        <v>366</v>
       </c>
       <c r="G101" t="s">
-        <v>533</v>
+        <v>520</v>
       </c>
       <c r="H101" t="s">
-        <v>608</v>
-      </c>
-      <c r="L101">
-        <v>1</v>
-      </c>
-      <c r="R101">
+        <v>595</v>
+      </c>
+      <c r="O101">
         <v>1</v>
       </c>
     </row>
@@ -5912,33 +6098,27 @@
         <v>154</v>
       </c>
       <c r="B102" t="s">
-        <v>414</v>
+        <v>367</v>
       </c>
       <c r="C102" t="s">
-        <v>289</v>
+        <v>185</v>
       </c>
       <c r="D102" t="s">
-        <v>415</v>
+        <v>368</v>
       </c>
       <c r="E102" t="s">
-        <v>416</v>
-      </c>
-      <c r="F102" t="s">
-        <v>417</v>
+        <v>369</v>
       </c>
       <c r="G102" t="s">
-        <v>534</v>
+        <v>521</v>
       </c>
       <c r="H102" t="s">
-        <v>609</v>
-      </c>
-      <c r="L102">
+        <v>596</v>
+      </c>
+      <c r="K102">
         <v>1</v>
       </c>
       <c r="O102">
-        <v>1</v>
-      </c>
-      <c r="T102">
         <v>1</v>
       </c>
     </row>
@@ -5947,30 +6127,27 @@
         <v>154</v>
       </c>
       <c r="B103" t="s">
-        <v>418</v>
+        <v>370</v>
       </c>
       <c r="C103" t="s">
-        <v>343</v>
+        <v>205</v>
       </c>
       <c r="D103" t="s">
-        <v>419</v>
+        <v>371</v>
       </c>
       <c r="E103" t="s">
-        <v>624</v>
+        <v>372</v>
+      </c>
+      <c r="F103" t="s">
+        <v>373</v>
       </c>
       <c r="G103" t="s">
-        <v>535</v>
+        <v>522</v>
       </c>
       <c r="H103" t="s">
-        <v>610</v>
-      </c>
-      <c r="J103">
-        <v>1</v>
-      </c>
-      <c r="P103">
-        <v>1</v>
-      </c>
-      <c r="S103">
+        <v>597</v>
+      </c>
+      <c r="O103">
         <v>1</v>
       </c>
     </row>
@@ -5979,27 +6156,27 @@
         <v>154</v>
       </c>
       <c r="B104" t="s">
-        <v>420</v>
+        <v>374</v>
       </c>
       <c r="C104" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="D104" t="s">
-        <v>421</v>
+        <v>375</v>
       </c>
       <c r="E104" t="s">
-        <v>422</v>
-      </c>
-      <c r="F104" t="s">
-        <v>423</v>
+        <v>376</v>
       </c>
       <c r="G104" t="s">
-        <v>536</v>
+        <v>523</v>
       </c>
       <c r="H104" t="s">
-        <v>611</v>
-      </c>
-      <c r="J104">
+        <v>598</v>
+      </c>
+      <c r="M104">
+        <v>1</v>
+      </c>
+      <c r="O104">
         <v>1</v>
       </c>
     </row>
@@ -6008,30 +6185,27 @@
         <v>154</v>
       </c>
       <c r="B105" t="s">
-        <v>427</v>
+        <v>377</v>
       </c>
       <c r="C105" t="s">
         <v>191</v>
       </c>
       <c r="D105" t="s">
-        <v>426</v>
+        <v>378</v>
       </c>
       <c r="E105" t="s">
-        <v>424</v>
+        <v>379</v>
       </c>
       <c r="F105" t="s">
-        <v>425</v>
+        <v>380</v>
       </c>
       <c r="G105" t="s">
-        <v>537</v>
+        <v>524</v>
       </c>
       <c r="H105" t="s">
-        <v>612</v>
-      </c>
-      <c r="S105">
-        <v>1</v>
-      </c>
-      <c r="T105">
+        <v>599</v>
+      </c>
+      <c r="O105">
         <v>1</v>
       </c>
     </row>
@@ -6040,27 +6214,27 @@
         <v>154</v>
       </c>
       <c r="B106" t="s">
-        <v>428</v>
+        <v>381</v>
       </c>
       <c r="C106" t="s">
         <v>185</v>
       </c>
       <c r="D106" t="s">
-        <v>429</v>
+        <v>382</v>
       </c>
       <c r="E106" t="s">
-        <v>430</v>
+        <v>383</v>
       </c>
       <c r="F106" t="s">
-        <v>431</v>
+        <v>384</v>
       </c>
       <c r="G106" t="s">
-        <v>538</v>
+        <v>525</v>
       </c>
       <c r="H106" t="s">
-        <v>613</v>
-      </c>
-      <c r="J106">
+        <v>600</v>
+      </c>
+      <c r="O106">
         <v>1</v>
       </c>
     </row>
@@ -6069,33 +6243,27 @@
         <v>154</v>
       </c>
       <c r="B107" t="s">
-        <v>432</v>
+        <v>385</v>
       </c>
       <c r="C107" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="D107" t="s">
-        <v>433</v>
+        <v>386</v>
       </c>
       <c r="E107" t="s">
-        <v>434</v>
+        <v>387</v>
       </c>
       <c r="F107" t="s">
-        <v>435</v>
+        <v>388</v>
       </c>
       <c r="G107" t="s">
-        <v>539</v>
+        <v>526</v>
       </c>
       <c r="H107" t="s">
-        <v>614</v>
-      </c>
-      <c r="J107">
-        <v>1</v>
-      </c>
-      <c r="Q107">
-        <v>1</v>
-      </c>
-      <c r="R107">
+        <v>601</v>
+      </c>
+      <c r="M107">
         <v>1</v>
       </c>
     </row>
@@ -6104,27 +6272,24 @@
         <v>154</v>
       </c>
       <c r="B108" t="s">
-        <v>436</v>
+        <v>389</v>
       </c>
       <c r="C108" t="s">
-        <v>437</v>
+        <v>168</v>
       </c>
       <c r="D108" t="s">
-        <v>438</v>
+        <v>390</v>
       </c>
       <c r="E108" t="s">
-        <v>439</v>
+        <v>391</v>
       </c>
       <c r="G108" t="s">
-        <v>540</v>
+        <v>527</v>
       </c>
       <c r="H108" t="s">
-        <v>615</v>
+        <v>602</v>
       </c>
       <c r="I108">
-        <v>1</v>
-      </c>
-      <c r="M108">
         <v>1</v>
       </c>
     </row>
@@ -6133,27 +6298,27 @@
         <v>154</v>
       </c>
       <c r="B109" t="s">
-        <v>440</v>
+        <v>392</v>
       </c>
       <c r="C109" t="s">
-        <v>441</v>
+        <v>289</v>
       </c>
       <c r="D109" t="s">
-        <v>442</v>
+        <v>393</v>
       </c>
       <c r="E109" t="s">
-        <v>443</v>
+        <v>394</v>
       </c>
       <c r="F109" t="s">
-        <v>444</v>
+        <v>395</v>
       </c>
       <c r="G109" t="s">
-        <v>541</v>
+        <v>528</v>
       </c>
       <c r="H109" t="s">
-        <v>616</v>
-      </c>
-      <c r="P109">
+        <v>603</v>
+      </c>
+      <c r="I109">
         <v>1</v>
       </c>
     </row>
@@ -6162,27 +6327,27 @@
         <v>154</v>
       </c>
       <c r="B110" t="s">
-        <v>445</v>
+        <v>397</v>
       </c>
       <c r="C110" t="s">
-        <v>191</v>
+        <v>398</v>
       </c>
       <c r="D110" t="s">
-        <v>446</v>
+        <v>399</v>
       </c>
       <c r="E110" t="s">
-        <v>447</v>
-      </c>
-      <c r="F110" t="s">
-        <v>448</v>
+        <v>396</v>
       </c>
       <c r="G110" t="s">
-        <v>542</v>
+        <v>529</v>
       </c>
       <c r="H110" t="s">
-        <v>617</v>
-      </c>
-      <c r="K110">
+        <v>604</v>
+      </c>
+      <c r="I110">
+        <v>1</v>
+      </c>
+      <c r="J110">
         <v>1</v>
       </c>
     </row>
@@ -6191,27 +6356,27 @@
         <v>154</v>
       </c>
       <c r="B111" t="s">
-        <v>450</v>
-      </c>
-      <c r="C111" t="s">
-        <v>191</v>
+        <v>400</v>
       </c>
       <c r="D111" t="s">
-        <v>451</v>
+        <v>401</v>
       </c>
       <c r="E111" t="s">
-        <v>449</v>
+        <v>403</v>
       </c>
       <c r="F111" t="s">
-        <v>452</v>
+        <v>402</v>
       </c>
       <c r="G111" t="s">
-        <v>543</v>
+        <v>530</v>
       </c>
       <c r="H111" t="s">
-        <v>618</v>
-      </c>
-      <c r="N111">
+        <v>605</v>
+      </c>
+      <c r="M111">
+        <v>1</v>
+      </c>
+      <c r="T111">
         <v>1</v>
       </c>
     </row>
@@ -6220,193 +6385,588 @@
         <v>154</v>
       </c>
       <c r="B112" t="s">
+        <v>404</v>
+      </c>
+      <c r="C112" t="s">
+        <v>289</v>
+      </c>
+      <c r="D112" t="s">
+        <v>405</v>
+      </c>
+      <c r="E112" t="s">
+        <v>406</v>
+      </c>
+      <c r="F112" t="s">
+        <v>407</v>
+      </c>
+      <c r="G112" t="s">
+        <v>531</v>
+      </c>
+      <c r="H112" t="s">
+        <v>606</v>
+      </c>
+      <c r="M112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>154</v>
+      </c>
+      <c r="B113" t="s">
+        <v>408</v>
+      </c>
+      <c r="D113" t="s">
+        <v>409</v>
+      </c>
+      <c r="E113" t="s">
+        <v>410</v>
+      </c>
+      <c r="F113" t="s">
+        <v>410</v>
+      </c>
+      <c r="G113" t="s">
+        <v>532</v>
+      </c>
+      <c r="H113" t="s">
+        <v>607</v>
+      </c>
+      <c r="J113">
+        <v>1</v>
+      </c>
+      <c r="L113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>154</v>
+      </c>
+      <c r="B114" t="s">
+        <v>411</v>
+      </c>
+      <c r="C114" t="s">
+        <v>289</v>
+      </c>
+      <c r="D114" t="s">
+        <v>412</v>
+      </c>
+      <c r="E114" t="s">
+        <v>413</v>
+      </c>
+      <c r="G114" t="s">
+        <v>533</v>
+      </c>
+      <c r="H114" t="s">
+        <v>608</v>
+      </c>
+      <c r="L114">
+        <v>1</v>
+      </c>
+      <c r="R114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>154</v>
+      </c>
+      <c r="B115" t="s">
+        <v>414</v>
+      </c>
+      <c r="C115" t="s">
+        <v>289</v>
+      </c>
+      <c r="D115" t="s">
+        <v>415</v>
+      </c>
+      <c r="E115" t="s">
+        <v>416</v>
+      </c>
+      <c r="F115" t="s">
+        <v>417</v>
+      </c>
+      <c r="G115" t="s">
+        <v>534</v>
+      </c>
+      <c r="H115" t="s">
+        <v>609</v>
+      </c>
+      <c r="L115">
+        <v>1</v>
+      </c>
+      <c r="O115">
+        <v>1</v>
+      </c>
+      <c r="T115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>154</v>
+      </c>
+      <c r="B116" t="s">
+        <v>418</v>
+      </c>
+      <c r="C116" t="s">
+        <v>343</v>
+      </c>
+      <c r="D116" t="s">
+        <v>419</v>
+      </c>
+      <c r="E116" t="s">
+        <v>624</v>
+      </c>
+      <c r="G116" t="s">
+        <v>535</v>
+      </c>
+      <c r="H116" t="s">
+        <v>610</v>
+      </c>
+      <c r="J116">
+        <v>1</v>
+      </c>
+      <c r="P116">
+        <v>1</v>
+      </c>
+      <c r="S116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>154</v>
+      </c>
+      <c r="B117" t="s">
+        <v>420</v>
+      </c>
+      <c r="C117" t="s">
+        <v>185</v>
+      </c>
+      <c r="D117" t="s">
+        <v>421</v>
+      </c>
+      <c r="E117" t="s">
+        <v>422</v>
+      </c>
+      <c r="F117" t="s">
+        <v>423</v>
+      </c>
+      <c r="G117" t="s">
+        <v>536</v>
+      </c>
+      <c r="H117" t="s">
+        <v>611</v>
+      </c>
+      <c r="J117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>154</v>
+      </c>
+      <c r="B118" t="s">
+        <v>427</v>
+      </c>
+      <c r="C118" t="s">
+        <v>191</v>
+      </c>
+      <c r="D118" t="s">
+        <v>426</v>
+      </c>
+      <c r="E118" t="s">
+        <v>424</v>
+      </c>
+      <c r="F118" t="s">
+        <v>425</v>
+      </c>
+      <c r="G118" t="s">
+        <v>537</v>
+      </c>
+      <c r="H118" t="s">
+        <v>612</v>
+      </c>
+      <c r="S118">
+        <v>1</v>
+      </c>
+      <c r="T118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>154</v>
+      </c>
+      <c r="B119" t="s">
+        <v>428</v>
+      </c>
+      <c r="C119" t="s">
+        <v>185</v>
+      </c>
+      <c r="D119" t="s">
+        <v>429</v>
+      </c>
+      <c r="E119" t="s">
+        <v>430</v>
+      </c>
+      <c r="F119" t="s">
+        <v>431</v>
+      </c>
+      <c r="G119" t="s">
+        <v>538</v>
+      </c>
+      <c r="H119" t="s">
+        <v>613</v>
+      </c>
+      <c r="J119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>154</v>
+      </c>
+      <c r="B120" t="s">
+        <v>432</v>
+      </c>
+      <c r="C120" t="s">
+        <v>196</v>
+      </c>
+      <c r="D120" t="s">
+        <v>433</v>
+      </c>
+      <c r="E120" t="s">
+        <v>434</v>
+      </c>
+      <c r="F120" t="s">
+        <v>435</v>
+      </c>
+      <c r="G120" t="s">
+        <v>539</v>
+      </c>
+      <c r="H120" t="s">
+        <v>614</v>
+      </c>
+      <c r="J120">
+        <v>1</v>
+      </c>
+      <c r="Q120">
+        <v>1</v>
+      </c>
+      <c r="R120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>154</v>
+      </c>
+      <c r="B121" t="s">
+        <v>436</v>
+      </c>
+      <c r="C121" t="s">
+        <v>437</v>
+      </c>
+      <c r="D121" t="s">
+        <v>438</v>
+      </c>
+      <c r="E121" t="s">
+        <v>439</v>
+      </c>
+      <c r="G121" t="s">
+        <v>540</v>
+      </c>
+      <c r="H121" t="s">
+        <v>615</v>
+      </c>
+      <c r="I121">
+        <v>1</v>
+      </c>
+      <c r="M121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>154</v>
+      </c>
+      <c r="B122" t="s">
+        <v>440</v>
+      </c>
+      <c r="C122" t="s">
+        <v>441</v>
+      </c>
+      <c r="D122" t="s">
+        <v>442</v>
+      </c>
+      <c r="E122" t="s">
+        <v>443</v>
+      </c>
+      <c r="F122" t="s">
+        <v>444</v>
+      </c>
+      <c r="G122" t="s">
+        <v>541</v>
+      </c>
+      <c r="H122" t="s">
+        <v>616</v>
+      </c>
+      <c r="P122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>154</v>
+      </c>
+      <c r="B123" t="s">
+        <v>445</v>
+      </c>
+      <c r="C123" t="s">
+        <v>191</v>
+      </c>
+      <c r="D123" t="s">
+        <v>446</v>
+      </c>
+      <c r="E123" t="s">
+        <v>447</v>
+      </c>
+      <c r="F123" t="s">
+        <v>448</v>
+      </c>
+      <c r="G123" t="s">
+        <v>542</v>
+      </c>
+      <c r="H123" t="s">
+        <v>617</v>
+      </c>
+      <c r="K123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>154</v>
+      </c>
+      <c r="B124" t="s">
+        <v>450</v>
+      </c>
+      <c r="C124" t="s">
+        <v>191</v>
+      </c>
+      <c r="D124" t="s">
+        <v>451</v>
+      </c>
+      <c r="E124" t="s">
+        <v>449</v>
+      </c>
+      <c r="F124" t="s">
+        <v>452</v>
+      </c>
+      <c r="G124" t="s">
+        <v>543</v>
+      </c>
+      <c r="H124" t="s">
+        <v>618</v>
+      </c>
+      <c r="N124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>154</v>
+      </c>
+      <c r="B125" t="s">
         <v>453</v>
       </c>
-      <c r="C112" t="s">
+      <c r="C125" t="s">
         <v>360</v>
       </c>
-      <c r="D112" t="s">
+      <c r="D125" t="s">
         <v>454</v>
       </c>
-      <c r="E112" t="s">
+      <c r="E125" t="s">
         <v>455</v>
       </c>
-      <c r="F112" t="s">
+      <c r="F125" t="s">
         <v>456</v>
       </c>
-      <c r="G112" t="s">
+      <c r="G125" t="s">
         <v>544</v>
       </c>
-      <c r="H112" t="s">
+      <c r="H125" t="s">
         <v>619</v>
       </c>
-      <c r="N112">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A113" t="s">
-        <v>154</v>
-      </c>
-      <c r="B113" t="s">
+      <c r="N125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>154</v>
+      </c>
+      <c r="B126" t="s">
         <v>457</v>
       </c>
-      <c r="C113" t="s">
+      <c r="C126" t="s">
         <v>360</v>
       </c>
-      <c r="D113" t="s">
+      <c r="D126" t="s">
         <v>458</v>
       </c>
-      <c r="E113" t="s">
+      <c r="E126" t="s">
         <v>459</v>
       </c>
-      <c r="G113" t="s">
+      <c r="G126" t="s">
         <v>545</v>
       </c>
-      <c r="H113" t="s">
+      <c r="H126" t="s">
         <v>620</v>
       </c>
-      <c r="N113">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A114" t="s">
-        <v>154</v>
-      </c>
-      <c r="B114" t="s">
+      <c r="N126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>154</v>
+      </c>
+      <c r="B127" t="s">
         <v>460</v>
       </c>
-      <c r="C114" t="s">
+      <c r="C127" t="s">
         <v>191</v>
       </c>
-      <c r="D114" t="s">
+      <c r="D127" t="s">
         <v>461</v>
       </c>
-      <c r="E114" t="s">
+      <c r="E127" t="s">
         <v>462</v>
       </c>
-      <c r="F114" t="s">
+      <c r="F127" t="s">
         <v>463</v>
       </c>
-      <c r="G114" t="s">
+      <c r="G127" t="s">
         <v>546</v>
       </c>
-      <c r="H114" t="s">
+      <c r="H127" t="s">
         <v>621</v>
       </c>
-      <c r="I114">
-        <v>1</v>
-      </c>
-      <c r="M114">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A115" t="s">
-        <v>154</v>
-      </c>
-      <c r="B115" t="s">
+      <c r="I127">
+        <v>1</v>
+      </c>
+      <c r="M127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>154</v>
+      </c>
+      <c r="B128" t="s">
         <v>464</v>
       </c>
-      <c r="C115" t="s">
+      <c r="C128" t="s">
         <v>465</v>
       </c>
-      <c r="D115" t="s">
+      <c r="D128" t="s">
         <v>466</v>
       </c>
-      <c r="E115" t="s">
+      <c r="E128" t="s">
         <v>467</v>
       </c>
-      <c r="G115" t="s">
+      <c r="G128" t="s">
         <v>547</v>
       </c>
-      <c r="H115" t="s">
+      <c r="H128" t="s">
         <v>622</v>
       </c>
-      <c r="L115">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A116" t="s">
-        <v>154</v>
-      </c>
-      <c r="B116" t="s">
+      <c r="L128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>154</v>
+      </c>
+      <c r="B129" t="s">
         <v>468</v>
       </c>
-      <c r="D116" t="s">
+      <c r="D129" t="s">
         <v>469</v>
       </c>
-      <c r="E116" t="s">
+      <c r="E129" t="s">
         <v>470</v>
       </c>
-      <c r="G116" t="s">
+      <c r="G129" t="s">
         <v>548</v>
       </c>
-      <c r="H116" t="s">
+      <c r="H129" t="s">
         <v>623</v>
       </c>
-      <c r="L116">
+      <c r="L129">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B39" r:id="rId1" display="https://www.matthewtancik.com/nerf" xr:uid="{35967FB2-814A-154F-8541-7714319F096C}"/>
-    <hyperlink ref="B40" r:id="rId2" display="https://lingjie0206.github.io/papers/NSVF/" xr:uid="{F2DD4E80-7653-6B46-BE0A-8E826172F88C}"/>
-    <hyperlink ref="B41" r:id="rId3" display="http://www.computationalimaging.org/publications/automatic-integration/" xr:uid="{A28EC183-687F-8A46-9CA4-4A7708A6C750}"/>
-    <hyperlink ref="B42" r:id="rId4" display="https://arxiv.org/abs/2011.12490" xr:uid="{C5B06987-5C0D-E443-82C4-02F6431045D1}"/>
-    <hyperlink ref="B43" r:id="rId5" display="https://depthoraclenerf.github.io/" xr:uid="{3CEB0E14-63E6-574A-9FC6-2051AD0460B0}"/>
-    <hyperlink ref="B44" r:id="rId6" display="https://arxiv.org/abs/2103.10380" xr:uid="{EA18432D-CDAD-5D46-AB83-9539228413CB}"/>
-    <hyperlink ref="B45" r:id="rId7" display="https://arxiv.org/abs/2103.13744" xr:uid="{429A6E53-E8CB-BC4C-9538-A2470024449F}"/>
-    <hyperlink ref="B46" r:id="rId8" display="https://alexyu.net/plenoctrees/" xr:uid="{7DC25326-9D8E-8D47-A044-DD17F9ED0CD0}"/>
-    <hyperlink ref="B47" r:id="rId9" display="https://arxiv.org/abs/2103.01954" xr:uid="{A2FF4FE9-43D0-5F44-93A7-55BE57938D31}"/>
-    <hyperlink ref="B48" r:id="rId10" display="https://vsitzmann.github.io/lfns/" xr:uid="{F6597C48-9252-3349-B84C-D97A31F62416}"/>
-    <hyperlink ref="B49" r:id="rId11" display="https://arxiv.org/pdf/2107.02791.pdf" xr:uid="{4E32310C-E8E8-1445-9B6E-B1A0C6585A89}"/>
-    <hyperlink ref="B51" r:id="rId12" display="https://nerf-w.github.io/" xr:uid="{1C3AF7E4-0ED6-6341-ACDB-04910971A9DA}"/>
-    <hyperlink ref="B56" r:id="rId13" display="https://gvv.mpi-inf.mpg.de/projects/nonrigid_nerf/" xr:uid="{2DDCA2B8-C06B-604A-A893-ED7E083125F7}"/>
-    <hyperlink ref="B57" r:id="rId14" display="https://volumetric-avatars.github.io/" xr:uid="{B38221A4-28D3-EC48-BD13-F22F93351407}"/>
-    <hyperlink ref="B59" r:id="rId15" display="https://arxiv.org/abs/2202.00181" xr:uid="{A924BD42-5B3F-3740-81C0-0C81F8B5122D}"/>
-    <hyperlink ref="B60" r:id="rId16" display="https://zju3dv.github.io/animatable_nerf/" xr:uid="{79B54E94-A634-C04E-BBD6-E0740CB05D22}"/>
-    <hyperlink ref="B61" r:id="rId17" display="https://vcai.mpi-inf.mpg.de/projects/NeuralActor/" xr:uid="{8B2119CC-BEBB-1141-9295-5A03BB8F0926}"/>
-    <hyperlink ref="B63" r:id="rId18" display="https://zju3dv.github.io/neuralbody/" xr:uid="{B4F98C3C-2C12-3647-8B14-C77A228D92A6}"/>
-    <hyperlink ref="D64" r:id="rId19" display="https://neural-3d-video.github.io/" xr:uid="{F5C4215C-421A-2E4F-9166-06F8B5156E7B}"/>
-    <hyperlink ref="B68" r:id="rId20" display="https://arxiv.org/abs/2012.02190" xr:uid="{53D1B557-9DD9-0941-A181-C2437740945C}"/>
-    <hyperlink ref="D68" r:id="rId21" display="https://alexyu.net/pixelnerf" xr:uid="{FE08CB9D-CA82-2641-899B-1CED2638D0C9}"/>
-    <hyperlink ref="B69" r:id="rId22" display="https://arxiv.org/abs/2012.02189" xr:uid="{A3166556-FD50-524F-9D7B-7DFABC9BA22F}"/>
-    <hyperlink ref="B72" r:id="rId23" display="https://arxiv.org/pdf/2102.08860.pdf" xr:uid="{C98AD7DA-8A21-4B40-A0E6-ABB79200584D}"/>
-    <hyperlink ref="B73" r:id="rId24" display="https://ibrnet.github.io/static/paper.pdf" xr:uid="{B64854DE-6A9F-EE41-8605-5F214EE9ADE2}"/>
-    <hyperlink ref="D73" r:id="rId25" display="https://ibrnet.github.io/" xr:uid="{5B6CC4DE-F7F9-2647-9B5C-A1E194127C73}"/>
-    <hyperlink ref="B74" r:id="rId26" display="https://arxiv.org/pdf/2103.17269.pdf" xr:uid="{62D8EC5C-C4AC-DA46-9FDF-0E23E2D5C874}"/>
-    <hyperlink ref="B75" r:id="rId27" display="https://arxiv.org/pdf/2104.00587.pdf" xr:uid="{B37AC469-58DD-BF4C-8A04-F712B1A8EB94}"/>
-    <hyperlink ref="B76" r:id="rId28" display="https://apple.github.io/ml-gsn/" xr:uid="{7717E2BE-FF3E-EF48-92FF-8653D9AB6AAE}"/>
-    <hyperlink ref="B77" r:id="rId29" display="https://apchenstu.github.io/mvsnerf/" xr:uid="{D01EC804-00BD-B442-AED3-391DEE153AF0}"/>
-    <hyperlink ref="B78" r:id="rId30" display="https://virtualhumans.mpi-inf.mpg.de/srf/" xr:uid="{BBFCEAB6-1067-4A46-B94B-1149F1DB3378}"/>
-    <hyperlink ref="D78" r:id="rId31" display="https://virtualhumans.mpi-inf.mpg.de/srf/" xr:uid="{99CFE0A6-49E8-6C47-AD0F-4876EDDD5257}"/>
-    <hyperlink ref="B79" r:id="rId32" display="https://liuyuan-pal.github.io/NeuRay/" xr:uid="{B8E198D5-170F-6445-ABD6-FC745FE3BB4F}"/>
-    <hyperlink ref="D81" r:id="rId33" display="https://github.com/vincentfung13/MINE" xr:uid="{BC5BAD36-364E-6749-BCB4-A976C125DDC5}"/>
-    <hyperlink ref="B83" r:id="rId34" display="https://sites.google.com/view/wbjang/home/codenerf" xr:uid="{187E0164-3464-5F42-AACD-3D5C2BF3C820}"/>
-    <hyperlink ref="B85" r:id="rId35" display="https://bmild.github.io/rawnerf/" xr:uid="{A6B8E96F-1F53-7041-B6A4-60B9508480D4}"/>
-    <hyperlink ref="B86" r:id="rId36" display="http://yenchenlin.me/inerf/" xr:uid="{EE610F53-3CF1-1E40-8ACB-F1984A3C3C5D}"/>
-    <hyperlink ref="B87" r:id="rId37" display="https://lemonatsu.github.io/ANeRF-Surface-free-Pose-Refinement/" xr:uid="{8812967F-CC98-5B4A-995D-AC01039F534F}"/>
-    <hyperlink ref="D87" r:id="rId38" display="https://lemonatsu.github.io/anerf/" xr:uid="{9D7EFC10-490A-E447-9D5C-8E801A904206}"/>
-    <hyperlink ref="B92" r:id="rId39" display="https://chenhsuanlin.bitbucket.io/bundle-adjusting-NeRF/" xr:uid="{20F5B6EF-8807-F341-AF88-60ED41CC6280}"/>
-    <hyperlink ref="B93" r:id="rId40" display="https://postech-cvlab.github.io/SCNeRF/" xr:uid="{2F6B0D04-F664-0240-95C8-8B039E05A6FE}"/>
-    <hyperlink ref="B94" r:id="rId41" display="https://markboss.me/publication/2021-nerd/" xr:uid="{D07E6E46-FE31-B345-8F53-0E980351DB40}"/>
-    <hyperlink ref="B95" r:id="rId42" display="https://people.eecs.berkeley.edu/~pratul/nerv/" xr:uid="{8DA1DFFB-66B7-D945-A567-262763835FE0}"/>
-    <hyperlink ref="B98" r:id="rId43" display="https://arxiv.org/abs/2010.07492" xr:uid="{24173C9F-D45A-1744-981B-21CA290E8730}"/>
-    <hyperlink ref="D98" r:id="rId44" display="https://github.com/Kai-46/nerfplusplus" xr:uid="{AC3D8F12-8792-6341-9EDD-3119722F4FB3}"/>
-    <hyperlink ref="B99" r:id="rId45" display="https://arxiv.org/abs/2011.12100" xr:uid="{A6421490-778F-404C-9B50-F4DF3C3222E3}"/>
-    <hyperlink ref="B101" r:id="rId46" display="https://ziyanw1.github.io/hybrid_nerf/" xr:uid="{21255C5F-2079-BD42-A4E8-1473A711251E}"/>
-    <hyperlink ref="B108" r:id="rId47" display="https://fig-nerf.github.io/" xr:uid="{BCB08482-216E-F445-961F-79B17BAB2894}"/>
-    <hyperlink ref="B109" r:id="rId48" display="https://developer.nvidia.com/blog/nvidia-research-nerf-tex-neural-reflectance-field-textures/" xr:uid="{46F7C388-1CC4-9149-B59B-559EE7BCD36A}"/>
-    <hyperlink ref="B110" r:id="rId49" display="https://jonbarron.info/mipnerf/" xr:uid="{3CF7024E-5382-C942-836E-26A20DA4524C}"/>
-    <hyperlink ref="B112" r:id="rId50" display="https://arxiv.org/abs/2106.10689" xr:uid="{E7185A93-C91C-F24C-9829-6325E236C3EB}"/>
-    <hyperlink ref="B114" r:id="rId51" display="https://weiyithu.github.io/NerfingMVS/" xr:uid="{22220255-E2B3-4341-A8DE-DF8098C5B6B6}"/>
-    <hyperlink ref="B115" r:id="rId52" display="https://3d-representation-learning.github.io/nerf-dy/" xr:uid="{433A7789-7958-4642-A629-FBF537BFB55E}"/>
-    <hyperlink ref="D116" r:id="rId53" display="https://mikh3x4.github.io/nerf-navigation/" xr:uid="{8A666769-9523-DC43-A0CD-D271CCCC1BDC}"/>
+    <hyperlink ref="B52" r:id="rId1" display="https://www.matthewtancik.com/nerf" xr:uid="{35967FB2-814A-154F-8541-7714319F096C}"/>
+    <hyperlink ref="B53" r:id="rId2" display="https://lingjie0206.github.io/papers/NSVF/" xr:uid="{F2DD4E80-7653-6B46-BE0A-8E826172F88C}"/>
+    <hyperlink ref="B54" r:id="rId3" display="http://www.computationalimaging.org/publications/automatic-integration/" xr:uid="{A28EC183-687F-8A46-9CA4-4A7708A6C750}"/>
+    <hyperlink ref="B55" r:id="rId4" display="https://arxiv.org/abs/2011.12490" xr:uid="{C5B06987-5C0D-E443-82C4-02F6431045D1}"/>
+    <hyperlink ref="B56" r:id="rId5" display="https://depthoraclenerf.github.io/" xr:uid="{3CEB0E14-63E6-574A-9FC6-2051AD0460B0}"/>
+    <hyperlink ref="B57" r:id="rId6" display="https://arxiv.org/abs/2103.10380" xr:uid="{EA18432D-CDAD-5D46-AB83-9539228413CB}"/>
+    <hyperlink ref="B58" r:id="rId7" display="https://arxiv.org/abs/2103.13744" xr:uid="{429A6E53-E8CB-BC4C-9538-A2470024449F}"/>
+    <hyperlink ref="B59" r:id="rId8" display="https://alexyu.net/plenoctrees/" xr:uid="{7DC25326-9D8E-8D47-A044-DD17F9ED0CD0}"/>
+    <hyperlink ref="B60" r:id="rId9" display="https://arxiv.org/abs/2103.01954" xr:uid="{A2FF4FE9-43D0-5F44-93A7-55BE57938D31}"/>
+    <hyperlink ref="B61" r:id="rId10" display="https://vsitzmann.github.io/lfns/" xr:uid="{F6597C48-9252-3349-B84C-D97A31F62416}"/>
+    <hyperlink ref="B62" r:id="rId11" display="https://arxiv.org/pdf/2107.02791.pdf" xr:uid="{4E32310C-E8E8-1445-9B6E-B1A0C6585A89}"/>
+    <hyperlink ref="B64" r:id="rId12" display="https://nerf-w.github.io/" xr:uid="{1C3AF7E4-0ED6-6341-ACDB-04910971A9DA}"/>
+    <hyperlink ref="B69" r:id="rId13" display="https://gvv.mpi-inf.mpg.de/projects/nonrigid_nerf/" xr:uid="{2DDCA2B8-C06B-604A-A893-ED7E083125F7}"/>
+    <hyperlink ref="B70" r:id="rId14" display="https://volumetric-avatars.github.io/" xr:uid="{B38221A4-28D3-EC48-BD13-F22F93351407}"/>
+    <hyperlink ref="B72" r:id="rId15" display="https://arxiv.org/abs/2202.00181" xr:uid="{A924BD42-5B3F-3740-81C0-0C81F8B5122D}"/>
+    <hyperlink ref="B73" r:id="rId16" display="https://zju3dv.github.io/animatable_nerf/" xr:uid="{79B54E94-A634-C04E-BBD6-E0740CB05D22}"/>
+    <hyperlink ref="B74" r:id="rId17" display="https://vcai.mpi-inf.mpg.de/projects/NeuralActor/" xr:uid="{8B2119CC-BEBB-1141-9295-5A03BB8F0926}"/>
+    <hyperlink ref="B76" r:id="rId18" display="https://zju3dv.github.io/neuralbody/" xr:uid="{B4F98C3C-2C12-3647-8B14-C77A228D92A6}"/>
+    <hyperlink ref="D77" r:id="rId19" display="https://neural-3d-video.github.io/" xr:uid="{F5C4215C-421A-2E4F-9166-06F8B5156E7B}"/>
+    <hyperlink ref="B81" r:id="rId20" display="https://arxiv.org/abs/2012.02190" xr:uid="{53D1B557-9DD9-0941-A181-C2437740945C}"/>
+    <hyperlink ref="D81" r:id="rId21" display="https://alexyu.net/pixelnerf" xr:uid="{FE08CB9D-CA82-2641-899B-1CED2638D0C9}"/>
+    <hyperlink ref="B82" r:id="rId22" display="https://arxiv.org/abs/2012.02189" xr:uid="{A3166556-FD50-524F-9D7B-7DFABC9BA22F}"/>
+    <hyperlink ref="B85" r:id="rId23" display="https://arxiv.org/pdf/2102.08860.pdf" xr:uid="{C98AD7DA-8A21-4B40-A0E6-ABB79200584D}"/>
+    <hyperlink ref="B86" r:id="rId24" display="https://ibrnet.github.io/static/paper.pdf" xr:uid="{B64854DE-6A9F-EE41-8605-5F214EE9ADE2}"/>
+    <hyperlink ref="D86" r:id="rId25" display="https://ibrnet.github.io/" xr:uid="{5B6CC4DE-F7F9-2647-9B5C-A1E194127C73}"/>
+    <hyperlink ref="B87" r:id="rId26" display="https://arxiv.org/pdf/2103.17269.pdf" xr:uid="{62D8EC5C-C4AC-DA46-9FDF-0E23E2D5C874}"/>
+    <hyperlink ref="B88" r:id="rId27" display="https://arxiv.org/pdf/2104.00587.pdf" xr:uid="{B37AC469-58DD-BF4C-8A04-F712B1A8EB94}"/>
+    <hyperlink ref="B89" r:id="rId28" display="https://apple.github.io/ml-gsn/" xr:uid="{7717E2BE-FF3E-EF48-92FF-8653D9AB6AAE}"/>
+    <hyperlink ref="B90" r:id="rId29" display="https://apchenstu.github.io/mvsnerf/" xr:uid="{D01EC804-00BD-B442-AED3-391DEE153AF0}"/>
+    <hyperlink ref="B91" r:id="rId30" display="https://virtualhumans.mpi-inf.mpg.de/srf/" xr:uid="{BBFCEAB6-1067-4A46-B94B-1149F1DB3378}"/>
+    <hyperlink ref="D91" r:id="rId31" display="https://virtualhumans.mpi-inf.mpg.de/srf/" xr:uid="{99CFE0A6-49E8-6C47-AD0F-4876EDDD5257}"/>
+    <hyperlink ref="B92" r:id="rId32" display="https://liuyuan-pal.github.io/NeuRay/" xr:uid="{B8E198D5-170F-6445-ABD6-FC745FE3BB4F}"/>
+    <hyperlink ref="D94" r:id="rId33" display="https://github.com/vincentfung13/MINE" xr:uid="{BC5BAD36-364E-6749-BCB4-A976C125DDC5}"/>
+    <hyperlink ref="B96" r:id="rId34" display="https://sites.google.com/view/wbjang/home/codenerf" xr:uid="{187E0164-3464-5F42-AACD-3D5C2BF3C820}"/>
+    <hyperlink ref="B98" r:id="rId35" display="https://bmild.github.io/rawnerf/" xr:uid="{A6B8E96F-1F53-7041-B6A4-60B9508480D4}"/>
+    <hyperlink ref="B99" r:id="rId36" display="http://yenchenlin.me/inerf/" xr:uid="{EE610F53-3CF1-1E40-8ACB-F1984A3C3C5D}"/>
+    <hyperlink ref="B100" r:id="rId37" display="https://lemonatsu.github.io/ANeRF-Surface-free-Pose-Refinement/" xr:uid="{8812967F-CC98-5B4A-995D-AC01039F534F}"/>
+    <hyperlink ref="D100" r:id="rId38" display="https://lemonatsu.github.io/anerf/" xr:uid="{9D7EFC10-490A-E447-9D5C-8E801A904206}"/>
+    <hyperlink ref="B105" r:id="rId39" display="https://chenhsuanlin.bitbucket.io/bundle-adjusting-NeRF/" xr:uid="{20F5B6EF-8807-F341-AF88-60ED41CC6280}"/>
+    <hyperlink ref="B106" r:id="rId40" display="https://postech-cvlab.github.io/SCNeRF/" xr:uid="{2F6B0D04-F664-0240-95C8-8B039E05A6FE}"/>
+    <hyperlink ref="B107" r:id="rId41" display="https://markboss.me/publication/2021-nerd/" xr:uid="{D07E6E46-FE31-B345-8F53-0E980351DB40}"/>
+    <hyperlink ref="B108" r:id="rId42" display="https://people.eecs.berkeley.edu/~pratul/nerv/" xr:uid="{8DA1DFFB-66B7-D945-A567-262763835FE0}"/>
+    <hyperlink ref="B111" r:id="rId43" display="https://arxiv.org/abs/2010.07492" xr:uid="{24173C9F-D45A-1744-981B-21CA290E8730}"/>
+    <hyperlink ref="D111" r:id="rId44" display="https://github.com/Kai-46/nerfplusplus" xr:uid="{AC3D8F12-8792-6341-9EDD-3119722F4FB3}"/>
+    <hyperlink ref="B112" r:id="rId45" display="https://arxiv.org/abs/2011.12100" xr:uid="{A6421490-778F-404C-9B50-F4DF3C3222E3}"/>
+    <hyperlink ref="B114" r:id="rId46" display="https://ziyanw1.github.io/hybrid_nerf/" xr:uid="{21255C5F-2079-BD42-A4E8-1473A711251E}"/>
+    <hyperlink ref="B121" r:id="rId47" display="https://fig-nerf.github.io/" xr:uid="{BCB08482-216E-F445-961F-79B17BAB2894}"/>
+    <hyperlink ref="B122" r:id="rId48" display="https://developer.nvidia.com/blog/nvidia-research-nerf-tex-neural-reflectance-field-textures/" xr:uid="{46F7C388-1CC4-9149-B59B-559EE7BCD36A}"/>
+    <hyperlink ref="B123" r:id="rId49" display="https://jonbarron.info/mipnerf/" xr:uid="{3CF7024E-5382-C942-836E-26A20DA4524C}"/>
+    <hyperlink ref="B125" r:id="rId50" display="https://arxiv.org/abs/2106.10689" xr:uid="{E7185A93-C91C-F24C-9829-6325E236C3EB}"/>
+    <hyperlink ref="B127" r:id="rId51" display="https://weiyithu.github.io/NerfingMVS/" xr:uid="{22220255-E2B3-4341-A8DE-DF8098C5B6B6}"/>
+    <hyperlink ref="B128" r:id="rId52" display="https://3d-representation-learning.github.io/nerf-dy/" xr:uid="{433A7789-7958-4642-A629-FBF537BFB55E}"/>
+    <hyperlink ref="D129" r:id="rId53" display="https://mikh3x4.github.io/nerf-navigation/" xr:uid="{8A666769-9523-DC43-A0CD-D271CCCC1BDC}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/docs/weekly_nerf_meta_data.xlsx
+++ b/docs/weekly_nerf_meta_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zelinzhao/cache/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CD86066-0E08-3A4D-BF7B-945637033FAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7722558-E0E6-A845-AB8D-15968078D20F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="1240" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="weekly_nerf_meta_data" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="955" uniqueCount="766">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1055" uniqueCount="849">
   <si>
     <t>week</t>
   </si>
@@ -2330,6 +2330,255 @@
   </si>
   <si>
     <t>我们提出了 PanoHDR-NeRF，这是一种新颖的管道，可以随意捕获大型室内场景的合理全 HDR 辐射场，而无需精心设置或复杂的捕获协议。首先，用户通过在场景周围自由挥动现成的相机来捕捉场景的低动态范围 (LDR) 全向视频。 然后，LDR2HDR 网络将捕获的 LDR 帧提升为 HDR，随后用于训练定制的 NeRF++ 模型。 由此产生的 PanoHDR-NeRF 管道可以从场景的任何位置估计完整的 HDR 全景图。 通过对各种真实场景的新测试数据集进行实验，在训练期间未看到的位置捕获地面实况 HDR 辐射，我们表明 PanoHDR-NeRF 可以预测来自任何场景点的合理辐射。我们还表明，由 PanoHDR-NeRF 生成的 HDR 图像可以合成正确的照明效果，从而能够使用正确照明的合成对象来增强室内场景。</t>
+  </si>
+  <si>
+    <t>﻿Plenoxels: Radiance Fields without Neural Networks</t>
+  </si>
+  <si>
+    <t>We introduce Plenoxels (plenoptic voxels), a system for photorealistic view synthesis. Plenoxels represent a scene as a sparse 3D grid with spherical harmonics. This representation can be optimized from calibrated images via gradient methods and regularization without any neural components. On standard, benchmark tasks, Plenoxels are optimized two orders of magnitude faster than Neural Radiance Fields with no loss in visual quality.</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2112.05131</t>
+  </si>
+  <si>
+    <t>https://alexyu.net/plenoxels</t>
+  </si>
+  <si>
+    <t>Aug28 - Sep3, 2022</t>
+  </si>
+  <si>
+    <t>Voxurf: Voxel-based Efficient and Accurate Neural Surface Reconstruction</t>
+  </si>
+  <si>
+    <t>Neural surface reconstruction aims to reconstruct accurate 3D surfaces based on multi-view images. Previous methods based on neural volume rendering mostly train a fully implicit model, and they require hours of training for a single scene. Recent efforts explore the explicit volumetric representation, which substantially accelerates the optimization process by memorizing significant information in learnable voxel grids. However, these voxel-based methods often struggle in reconstructing fine-grained geometry. Through empirical studies, we found that high-quality surface reconstruction hinges on two key factors: the capability of constructing a coherent shape and the precise modeling of color-geometry dependency. In particular, the latter is the key to the accurate reconstruction of fine details. Inspired by these findings, we develop Voxurf, a voxel-based approach for efficient and accurate neural surface reconstruction, which consists of two stages: 1) leverage a learnable feature grid to construct the color field and obtain a coherent coarse shape, and 2) refine detailed geometry with a dual color network that captures precise color-geometry dependency. We further introduce a hierarchical geometry feature to enable information sharing across voxels. Our experiments show that Voxurf achieves high efficiency and high quality at the same time. On the DTU benchmark, Voxurf achieves higher reconstruction quality compared to state-of-the-art methods, with 20x speedup in training.</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2208.12697</t>
+  </si>
+  <si>
+    <t>Training and Tuning Generative Neural Radiance Fields for Attribute-Conditional 3D-Aware Face Generation</t>
+  </si>
+  <si>
+    <t>3D-aware GANs based on generative neural radiance fields (GNeRF) have achieved impressive high-quality image generation, while preserving strong 3D consistency. The most notable achievements are made in the face generation domain. However, most of these models focus on improving view consistency but neglect a disentanglement aspect, thus these models cannot provide high-quality semantic/attribute control over generation. To this end, we introduce a conditional GNeRF model that uses specific attribute labels as input in order to improve the controllabilities and disentangling abilities of 3D-aware generative models. We utilize the pre-trained 3D-aware model as the basis and integrate a dual-branches attribute-editing module (DAEM), that utilize attribute labels to provide control over generation. Moreover, we propose a TRIOT (TRaining as Init, and Optimizing for Tuning) method to optimize the latent vector to improve the precision of the attribute-editing further. Extensive experiments on the widely used FFHQ show that our model yields high-quality editing with better view consistency while preserving the non-target regions. The code is available at this https URL.</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2208.12550</t>
+  </si>
+  <si>
+    <t>https://github.com/zhangqianhui/TT-GNeRF</t>
+  </si>
+  <si>
+    <t>NerfCap: Human Performance Capture With Dynamic Neural Radiance Fields</t>
+  </si>
+  <si>
+    <t>TVCG2022</t>
+  </si>
+  <si>
+    <t>This paper addresses the challenge of human performance capture from sparse multi-view or monocular videos. Given a template mesh of the performer, previous methods capture the human motion by non-rigidly registering the template mesh to images with 2D silhouettes or dense photometric alignment. However, the detailed surface deformation cannot be recovered from the silhouettes, while the photometric alignment suffers from instability caused by appearance variation in the videos. To solve these problems, we propose NerfCap, a novel performance capture method based on the dynamic neural radiance field (NeRF) representation of the performer. Specifically, a canonical NeRF is initialized from the template geometry and registered to the video frames by optimizing the deformation field and the appearance model of the canonical NeRF. To capture both large body motion and detailed surface deformation, NerfCap combines linear blend skinning with embedded graph deformation. In contrast to the mesh-based methods that suffer from fixed topology and texture, NerfCap is able to flexibly capture complex geometry and appearance variation across the videos, and synthesize more photo-realistic images. In addition, NerfCap can be pre-trained end to end in a self-supervised manner by matching the synthesized videos with the input videos. Experimental results on various datasets show that NerfCap outperforms prior works in terms of both surface reconstruction accuracy and novel-view synthesis quality.</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/abstract/document/9870173</t>
+  </si>
+  <si>
+    <t>Neural Feature Fusion Fields: 3D Distillation of Self-Supervised 2D Image Representations</t>
+  </si>
+  <si>
+    <t>Sep4 - Sep10, 2022</t>
+  </si>
+  <si>
+    <t>3DV2022(oral)</t>
+  </si>
+  <si>
+    <t>We present Neural Feature Fusion Fields (N3F), a method that improves dense 2D image feature extractors when the latter are applied to the analysis of multiple images reconstructible as a 3D scene. Given an image feature extractor, for example pre-trained using self-supervision, N3F uses it as a teacher to learn a student network defined in 3D space. The 3D student network is similar to a neural radiance field that distills said features and can be trained with the usual differentiable rendering machinery. As a consequence, N3F is readily applicable to most neural rendering formulations, including vanilla NeRF and its extensions to complex dynamic scenes. We show that our method not only enables semantic understanding in the context of scene-specific neural fields without the use of manual labels, but also consistently improves over the self-supervised 2D baselines. This is demonstrated by considering various tasks, such as 2D object retrieval, 3D segmentation, and scene editing, in diverse sequences, including long egocentric videos in the EPIC-KITCHENS benchmark.</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2209.03494</t>
+  </si>
+  <si>
+    <t>https://github.com/dichotomies/N3F</t>
+  </si>
+  <si>
+    <t>Multi-View Reconstruction using Signed Ray Distance Functions (SRDF)</t>
+  </si>
+  <si>
+    <t>In this paper, we address the problem of multi-view 3D shape reconstruction. While recent differentiable rendering approaches associated to implicit shape representations have provided breakthrough performance, they are still computationally heavy and often lack precision on the estimated geometries. To overcome these limitations we investigate a new computational approach that builds on a novel shape representation that is volumetric, as in recent differentiable rendering approaches, but parameterized with depth maps to better materialize the shape surface. The shape energy associated to this representation evaluates 3D geometry given color images and does not need appearance prediction but still benefits from volumetric integration when optimized. In practice we propose an implicit shape representation, the SRDF, based on signed distances which we parameterize by depths along camera rays. The associated shape energy considers the agreement between depth prediction consistency and photometric consistency, this at 3D locations within the volumetric representation. Various photo-consistency priors can be accounted for such as a median based baseline, or a more elaborated criterion as with a learned function. The approach retains pixel-accuracy with depth maps and is parallelizable. Our experiments over standard datasets shows that it provides state-of-the-art results with respect to recent approaches with implicit shape representations as well as with respect to traditional multi-view stereo methods.</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2209.00082</t>
+  </si>
+  <si>
+    <t>MotionDiffuse: Text-Driven Human Motion Generation with Diffusion Model</t>
+  </si>
+  <si>
+    <t>Human motion modeling is important for many modern graphics applications, which typically require professional skills. In order to remove the skill barriers for laymen, recent motion generation methods can directly generate human motions conditioned on natural languages. However, it remains challenging to achieve diverse and fine-grained motion generation with various text inputs. To address this problem, we propose MotionDiffuse, the first diffusion model-based text-driven motion generation framework, which demonstrates several desired properties over existing methods. 1) Probabilistic Mapping. Instead of a deterministic language-motion mapping, MotionDiffuse generates motions through a series of denoising steps in which variations are injected. 2) Realistic Synthesis. MotionDiffuse excels at modeling complicated data distribution and generating vivid motion sequences. 3) Multi-Level Manipulation. MotionDiffuse responds to fine-grained instructions on body parts, and arbitrary-length motion synthesis with time-varied text prompts. Our experiments show MotionDiffuse outperforms existing SoTA methods by convincing margins on text-driven motion generation and action-conditioned motion generation. A qualitative analysis further demonstrates MotionDiffuse's controllability for comprehensive motion generation. Homepage: this https URL</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2208.15001</t>
+  </si>
+  <si>
+    <t>https://github.com/mingyuan-zhang/MotionDiffuse</t>
+  </si>
+  <si>
+    <t>Dual-Space NeRF: Learning Animatable Avatars and Scene Lighting in Separate Spaces</t>
+  </si>
+  <si>
+    <t>Modeling the human body in a canonical space is a common practice for capturing and animation. But when involving the neural radiance field (NeRF), learning a static NeRF in the canonical space is not enough because the lighting of the body changes when the person moves even though the scene lighting is constant. Previous methods alleviate the inconsistency of lighting by learning a per-frame embedding, but this operation does not generalize to unseen poses. Given that the lighting condition is static in the world space while the human body is consistent in the canonical space, we propose a dual-space NeRF that models the scene lighting and the human body with two MLPs in two separate spaces. To bridge these two spaces, previous methods mostly rely on the linear blend skinning (LBS) algorithm. However, the blending weights for LBS of a dynamic neural field are intractable and thus are usually memorized with another MLP, which does not generalize to novel poses. Although it is possible to borrow the blending weights of a parametric mesh such as SMPL, the interpolation operation introduces more artifacts. In this paper, we propose to use the barycentric mapping, which can directly generalize to unseen poses and surprisingly achieves superior results than LBS with neural blending weights. Quantitative and qualitative results on the Human3.6M and the ZJU-MoCap datasets show the effectiveness of our method.</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2208.14851</t>
+  </si>
+  <si>
+    <t>FoV-NeRF: Foveated Neural Radiance Fields for Virtual Reality</t>
+  </si>
+  <si>
+    <t>Virtual Reality (VR) is becoming ubiquitous with the rise of consumer displays and commercial VR platforms. Such displays require low latency and high quality rendering of synthetic imagery with reduced compute overheads. Recent advances in neural rendering showed promise of unlocking new possibilities in 3D computer graphics via image-based representations of virtual or physical environments. Specifically, the neural radiance fields (NeRF) demonstrated that photo-realistic quality and continuous view changes of 3D scenes can be achieved without loss of view-dependent effects. While NeRF can significantly benefit rendering for VR applications, it faces unique challenges posed by high field-of-view, high resolution, and stereoscopic/egocentric viewing, typically causing low quality and high latency of the rendered images. In VR, this not only harms the interaction experience but may also cause sickness. To tackle these problems toward six-degrees-of-freedom, egocentric, and stereo NeRF in VR, we present the first gaze-contingent 3D neural representation and view synthesis method . We incorporate the human psychophysics of visual- and stereo-acuity into an egocentric neural representation of 3D scenery. We then jointly optimize the latency/performance and visual quality while mutually bridging human perception and neural scene synthesis to achieve perceptually high-quality immersive interaction. We conducted both objective analysis and subjective studies to evaluate the effectiveness of our approach. We find that our method significantly reduces latency (up to 99% time reduction compared with NeRF) without loss of high-fidelity rendering (perceptually identical to full-resolution ground truth). The presented approach may serve as the first step toward future VR/AR systems that capture, teleport, and visualize remote environments in real-time.</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/abstract/document/9872532</t>
+  </si>
+  <si>
+    <t>Cross-Spectral Neural Radiance Fields</t>
+  </si>
+  <si>
+    <t>We propose X-NeRF, a novel method to learn a Cross-Spectral scene representation given images captured from cameras with different light spectrum sensitivity, based on the Neural Radiance Fields formulation. X-NeRF optimizes camera poses across spectra during training and exploits Normalized Cross-Device Coordinates (NXDC) to render images of different modalities from arbitrary viewpoints, which are aligned and at the same resolution. Experiments on 16 forward-facing scenes, featuring color, multi-spectral and infrared images, confirm the effectiveness of X-NeRF at modeling Cross-Spectral scene representations.</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2209.00648</t>
+  </si>
+  <si>
+    <t>CLONeR: Camera-Lidar Fusion for Occupancy Grid-aided Neural Representations</t>
+  </si>
+  <si>
+    <t>This paper proposes CLONeR, which significantly improves upon NeRF by allowing it to model large outdoor driving scenes that are observed from sparse input sensor views. This is achieved by decoupling occupancy and color learning within the NeRF framework into separate Multi-Layer Perceptrons (MLPs) trained using LiDAR and camera data, respectively. In addition, this paper proposes a novel method to build differentiable 3D Occupancy Grid Maps (OGM) alongside the NeRF model, and leverage this occupancy grid for improved sampling of points along a ray for volumetric rendering in metric space.</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2209.01194</t>
+  </si>
+  <si>
+    <t>SIRA: Relightable Avatars from a Single Image</t>
+  </si>
+  <si>
+    <t>Recovering the geometry of a human head from a single image, while factorizing the materials and illumination is a severely ill-posed problem that requires prior information to be solved. Methods based on 3D Morphable Models (3DMM), and their combination with differentiable renderers, have shown promising results. However, the expressiveness of 3DMMs is limited, and they typically yield over-smoothed and identity-agnostic 3D shapes limited to the face region. Highly accurate full head reconstructions have recently been obtained with neural fields that parameterize the geometry using multilayer perceptrons. The versatility of these representations has also proved effective for disentangling geometry, materials and lighting. However, these methods require several tens of input images. In this paper, we introduce SIRA, a method which, from a single image, reconstructs human head avatars with high fidelity geometry and factorized lights and surface materials. Our key ingredients are two data-driven statistical models based on neural fields that resolve the ambiguities of single-view 3D surface reconstruction and appearance factorization. Experiments show that SIRA obtains state of the art results in 3D head reconstruction while at the same time it successfully disentangles the global illumination, and the diffuse and specular albedos. Furthermore, our reconstructions are amenable to physically-based appearance editing and head model relighting.</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2209.03027</t>
+  </si>
+  <si>
+    <t>3D Textured Shape Recovery with Learned Geometric Priors</t>
+  </si>
+  <si>
+    <t>3D textured shape recovery from partial scans is crucial for many real-world applications. Existing approaches have demonstrated the efficacy of implicit function representation, but they suffer from partial inputs with severe occlusions and varying object types, which greatly hinders their application value in the real world. This technical report presents our approach to address these limitations by incorporating learned geometric priors. To this end, we generate a SMPL model from learned pose prediction and fuse it into the partial input to add prior knowledge of human bodies. We also propose a novel completeness-aware bounding box adaptation for handling different levels of scales and partialness of partial scans.</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2209.03254</t>
+  </si>
+  <si>
+    <t>Implicit Full Waveform Inversion with Deep Neural Representation</t>
+  </si>
+  <si>
+    <t>Full waveform inversion (FWI) commonly stands for the state-of-the-art approach for imaging subsurface structures and physical parameters, however, its implementation usually faces great challenges, such as building a good initial model to escape from local minima, and evaluating the uncertainty of inversion results. In this paper, we propose the implicit full waveform inversion (IFWI) algorithm using continuously and implicitly defined deep neural representations. Compared to FWI, which is sensitive to the initial model, IFWI benefits from the increased degrees of freedom with deep learning optimization, thus allowing to start from a random initialization, which greatly reduces the risk of non-uniqueness and being trapped in local minima. Both theoretical and experimental analyses indicates that, given a random initial model, IFWI is able to converge to the global minimum and produce a high-resolution image of subsurface with fine structures. In addition, uncertainty analysis of IFWI can be easily performed by approximating Bayesian inference with various deep learning approaches, which is analyzed in this paper by adding dropout neurons. Furthermore, IFWI has a certain degree of robustness and strong generalization ability that are exemplified in the experiments of various 2D geological models. With proper setup, IFWI can also be well suited for multi-scale joint geophysical inversion.</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2209.03525</t>
+  </si>
+  <si>
+    <t>PixTrack: Precise 6DoF Object Pose Tracking using NeRF Templates and Feature-metric Alignment</t>
+  </si>
+  <si>
+    <t>We present PixTrack, a vision based object pose tracking framework using novel view synthesis and deep feature-metric alignment. Our evaluations demonstrate that our method produces highly accurate, robust, and jitter-free 6DoF pose estimates of objects in RGB images without the need of any data annotation or trajectory smoothing. Our method is also computationally efficient making it easy to have multi-object tracking with no alteration to our method and just using CPU multiprocessing.</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2209.03910</t>
+  </si>
+  <si>
+    <t>PixTrack：使用 NeRF 模板和特征度量对齐的精确 6DoF 对象姿势跟踪</t>
+  </si>
+  <si>
+    <t>具有深度神经表示的隐式全波形反演</t>
+  </si>
+  <si>
+    <t>具有学习几何先验的 3D 纹理形状恢复</t>
+  </si>
+  <si>
+    <t>SIRA：来自单个图像的可重新点亮的头像</t>
+  </si>
+  <si>
+    <t>神经特征融合领域：自监督 2D 图像表示的 3D 蒸馏</t>
+  </si>
+  <si>
+    <t>MotionDiffuse：使用扩散模型的文本驱动人体运动生成</t>
+  </si>
+  <si>
+    <t>使用有符号射线距离函数 (SRDF) 的多视图重建</t>
+  </si>
+  <si>
+    <t>Dual-Space NeRF：在不同空间中学习动画化身和场景照明</t>
+  </si>
+  <si>
+    <t>FoV-NeRF：虚拟现实的中心凹神经辐射场</t>
+  </si>
+  <si>
+    <t>跨光谱神经辐射场</t>
+  </si>
+  <si>
+    <t>克隆：用于占用网格辅助神经表示的相机-激光雷达融合</t>
+  </si>
+  <si>
+    <t>NerfCap：使用动态神经辐射场捕获人类表现</t>
+  </si>
+  <si>
+    <t>训练和调整生成神经辐射场以进行属性条件 3D 感知人脸生成</t>
+  </si>
+  <si>
+    <t>Voxurf：基于体素的高效准确的神经表面重建</t>
+  </si>
+  <si>
+    <t>﻿Plenoxels：没有神经网络的辐射场</t>
+  </si>
+  <si>
+    <t>我们提出了 PixTrack，这是一个基于视觉的对象姿态跟踪框架，使用新颖的视图合成和深度特征度量对齐。我们的评估表明，我们的方法可以对 RGB 图像中的对象进行高度准确、稳健且无抖动的 6DoF 姿态估计，而无需任何数据注释或轨迹平滑。我们的方法在计算上也很高效，可以轻松进行多对象跟踪，而无需更改我们的方法，并且只使用 CPU 多处理。</t>
+  </si>
+  <si>
+    <t>全波形反演（FWI）通常代表最先进的地下结构和物理参数成像方法，然而，其实施通常面临巨大挑战，例如建立一个良好的初始模型以摆脱局部最小值，以及评估反演结果的不确定性。在本文中，我们提出了使用连续和隐式定义的深度神经表示的隐式全波形反演（IFWI）算法。与对初始模型敏感的 FWI 相比，IFWI 受益于深度学习优化增加的自由度，从而允许从随机初始化开始，这大大降低了非唯一性和陷入局部最小值的风险。理论和实验分析均表明，在给定随机初始模型的情况下，IFWI 能够收敛到全局最小值，并生成具有精细结构的地下高分辨率图像。此外，IFWI 的不确定性分析可以很容易地通过使用各种深度学习方法近似贝叶斯推理来执行，本文通过添加 dropout 神经元对其进行分析。此外，IFWI具有一定的鲁棒性和较强的泛化能力，在各种二维地质模型的实验中得到了体现。通过适当的设置，IFWI也可以很好地适用于多尺度联合地球物理反演。</t>
+  </si>
+  <si>
+    <t>从部分扫描中恢复 3D 纹理形状对于许多实际应用至关重要。现有方法已经证明了隐式函数表示的有效性，但它们存在严重遮挡和不同对象类型的部分输入，这极大地阻碍了它们在现实世界中的应用价值。本技术报告介绍了我们通过结合学习几何先验来解决这些限制的方法。为此，我们从学习的姿势预测中生成一个 SMPL 模型，并将其融合到部分输入中，以添加人体的先验知识。我们还提出了一种新颖的完整性感知边界框自适应，用于处理不同级别的尺度和部分扫描的局部性。</t>
+  </si>
+  <si>
+    <t>从单个图像中恢复人头的几何形状，同时分解材料和照明是一个严重不适定的问题，需要解决先验信息。基于 3D 可变形模型 (3DMM) 的方法，以及它们与可微渲染器的组合，已显示出可喜的结果。然而，3DMM 的表现力是有限的，它们通常会产生过度平滑且与身份无关的 3D 形状，仅限于面部区域。最近已经通过使用多层感知器参数化几何形状的神经场获得了高度准确的全头重建。这些表示的多功能性也被证明对于解开几何、材料和照明是有效的。然而，这些方法需要几十个输入图像。在本文中，我们介绍了 SIRA，这是一种从单个图像重建具有高保真几何形状和分解光和表面材料的人头头像的方法。我们的关键成分是两个基于神经场的数据驱动统计模型，可解决单视图 3D 表面重建和外观分解的模糊性。实验表明，SIRA 在 3D 头部重建中获得了最先进的结果，同时它成功地解开了全局照明、漫反射和镜面反射率。此外，我们的重建适用于基于物理的外观编辑和头部模型重新照明。</t>
+  </si>
+  <si>
+    <t>我们提出了神经特征融合场 (N3F)，这是一种在将密集 2D 图像特征提取器应用于可重构为 3D 场景的多张图像分析时改进密集 2D 图像特征提取器的方法。给定一个图像特征提取器，例如使用自我监督进行预训练，N3F 使用它作为教师来学习在 3D 空间中定义的学生网络。 3D 学生网络类似于提取所述特征的神经辐射场，并且可以使用通常的可微渲染机器进行训练。因此，N3F 很容易适用于大多数神经渲染公式，包括 vanilla NeRF 及其对复杂动态场景的扩展。我们表明，我们的方法不仅能够在不使用手动标签的情况下在特定场景的神经领域的上下文中实现语义理解，而且在自我监督的 2D 基线上持续改进。这通过考虑不同序列中的各种任务（例如 2D 对象检索、3D 分割和场景编辑）来证明，包括 EPIC-KITCHENS 基准测试中的以自我为中心的长视频。</t>
+  </si>
+  <si>
+    <t>人体运动建模对于许多现代图形应用程序很重要，这些应用程序通常需要专业技能。为了消除外行的技能障碍，最近的动作生成方法可以直接生成以自然语言为条件的人体动作。然而，通过各种文本输入实现多样化和细粒度的运动生成仍然具有挑战性。为了解决这个问题，我们提出了 MotionDiffuse，这是第一个基于扩散模型的文本驱动的运动生成框架，它展示了现有方法的几个所需属性。 1）概率映射。 MotionDiffuse 不是确定性的语言-运动映射，而是通过一系列注入变化的去噪步骤生成运动。 2）现实综合。 MotionDiffuse 擅长对复杂的数据分布进行建模并生成生动的运动序列。 3) 多级操作。 MotionDiffuse 响应身体部位的细粒度指令，以及带有时变文本提示的任意长度运动合成。我们的实验表明，MotionDiffuse 在文本驱动的运动生成和动作条件的运动生成方面具有令人信服的优势，从而优于现有的 SoTA 方法。定性分析进一步证明了 MotionDiffuse 对综合运动生成的可控性。主页：此 https 网址</t>
+  </si>
+  <si>
+    <t>在本文中，我们解决了多视图 3D 形状重建的问题。尽管最近与隐式形状表示相关的可微渲染方法提供了突破性的性能，但它们的计算量仍然很大，并且通常在估计的几何形状上缺乏精度。为了克服这些限制，我们研究了一种新的计算方法，它建立在一种新的体积形状表示上，就像最近的可微渲染方法一样，但用深度图参数化以更好地实现形状表面。与此表示相关的形状能量评估给定彩色图像的 3D 几何形状，不需要外观预测，但在优化时仍然受益于体积积分。在实践中，我们提出了一种隐式形状表示，SRDF，它基于我们通过沿相机光线的深度参数化的有符号距离。相关的形状能量考虑了深度预测一致性和光度一致性之间的一致性，这在体积表示中的 3D 位置。可以考虑各种照片一致性先验，例如基于中值的基线，或更详细的标准，如学习函数。该方法保留了深度图的像素精度，并且是可并行化的。我们在标准数据集上的实验表明，它提供了关于最近使用隐式形状表示的方法以及传统的多视图立体方法的最先进的结果。</t>
+  </si>
+  <si>
+    <t>在规范空间中对人体进行建模是捕捉和动画的常见做法。但是当涉及到神经辐射场 (NeRF) 时，仅仅在标准空间中学习一个静态的 NeRF 是不够的，因为即使场景照明是恒定的，当人移动时身体的照明也会发生变化。以前的方法通过学习每帧嵌入来缓解光照的不一致性，但这种操作并不能推广到看不见的姿势。鉴于光照条件在世界空间中是静态的，而人体在规范空间中是一致的，我们提出了一种双空间 NeRF，它在两个独立的空间中使用两个 MLP 对场景光照和人体进行建模。为了弥合这两个空间，以前的方法主要依赖于线性混合蒙皮 (LBS) 算法。然而，动态神经领域的 LBS 的混合权重是难以处理的，因此通常用另一个 MLP 来记忆，这不能推广到新的姿势。尽管可以借用 SMPL 等参数网格的混合权重，但插值操作会引入更多伪影。在本文中，我们建议使用重心映射，它可以直接泛化到看不见的姿势，并且出人意料地取得了比具有神经混合权重的 LBS 更好的结果。 Human3.6M 和 ZJU-MoCap 数据集的定量和定性结果显示了我们方法的有效性。</t>
+  </si>
+  <si>
+    <t>随着消费者显示器和商业 VR 平台的兴起，虚拟现实 (VR) 正变得无处不在。这种显示需要低延迟和高质量的合成图像渲染，同时减少计算开销。神经渲染的最新进展表明，有望通过基于图像的虚拟或物理环境表示来解锁 3D 计算机图形的新可能性。具体来说，神经辐射场 (NeRF) 表明，可以在不损失与视图相关的效果的情况下实现 3D 场景的照片般逼真的质量和连续视图变化。虽然 NeRF 可以显着受益于 VR 应用的渲染，但它面临着由高视场、高分辨率和立体/以自我为中心的观看带来的独特挑战，通常会导致渲染图像的低质量和高延迟。在 VR 中，这不仅会损害交互体验，还可能导致疾病。为了解决 VR 中的六自由度、以自我为中心和立体 NeRF 的这些问题，我们提出了第一个注视条件 3D 神经表示和视图合成方法。我们将视觉和立体敏锐度的人类心理物理学纳入 3D 风景的以自我为中心的神经表示中。然后，我们共同优化延迟/性能和视觉质量，同时相互桥接人类感知和神经场景合成，以实现感知上高质量的沉浸式交互。我们进行了客观分析和主观研究，以评估我们方法的有效性。我们发现我们的方法显着减少了延迟（与 NeRF 相比减少了高达 99% 的时间），而不会损失高保真渲染（在感知上与全分辨率地面实况相同）。所提出的方法可能是迈向未来实时捕捉、传送和可视化远程环境的 VR/AR 系统的第一步。</t>
+  </si>
+  <si>
+    <t>我们提出了 X-NeRF，这是一种基于神经辐射场公式的学习交叉光谱场景表示的新方法，该方法给定从具有不同光谱灵敏度的相机捕获的图像。 X-NeRF 在训练期间优化跨光谱的相机姿势，并利用归一化跨设备坐标 (NXDC) 从任意视点呈现不同模态的图像，这些图像对齐并具有相同的分辨率。对 16 个具有彩色、多光谱和红外图像的前向场景进行的实验证实了 X-NeRF 在建模交叉光谱场景表示方面的有效性。</t>
+  </si>
+  <si>
+    <t>本文提出了 CLONeR，它通过允许对从稀疏输入传感器视图观察到的大型户外驾驶场景进行建模，显着改进了 NeRF。这是通过将 NeRF 框架内的占用和颜色学习解耦为分别使用 LiDAR 和相机数据训练的单独的多层感知器 (MLP) 来实现的。此外，本文提出了一种在 NeRF 模型旁边构建可微分 3D 占用网格图 (OGM) 的新方法，并利用此占用网格改进沿射线的点采样，以在度量空间中进行体积渲染。</t>
+  </si>
+  <si>
+    <t>本文解决了从稀疏的多视图或单目视频中捕捉人类表演的挑战。给定表演者的模板网格，以前的方法通过将模板网格非刚性地注册到具有 2D 轮廓或密集光度对齐的图像来捕获人体运动。然而，详细的表面变形无法从轮廓中恢复，而光度对齐则受到视频外观变化引起的不稳定性的影响。为了解决这些问题，我们提出了 NerfCap，这是一种基于表演者动态神经辐射场 (NeRF) 表示的新型表演捕捉方法。具体来说，通过优化变形场和规范 NeRF 的外观模型，从模板几何初始化规范 NeRF 并注册到视频帧。为了捕捉大型身体运动和详细的表面变形，NerfCap 将线性混合蒙皮与嵌入式图形变形相结合。与受限于固定拓扑和纹理的基于网格的方法相比，NerfCap 能够灵活地捕捉视频中复杂的几何形状和外观变化，并合成更逼真的图像。此外，NerfCap 可以通过将合成视频与输入视频进行匹配，以自我监督的方式进行端到端的预训练。各种数据集的实验结果表明，NerfCap 在表面重建精度和新视图合成质量方面都优于先前的工作。</t>
+  </si>
+  <si>
+    <t>基于生成神经辐射场 (GNeRF) 的 3D 感知 GAN 已经实现了令人印象深刻的高质量图像生成，同时保持了强大的 3D 一致性。最显着的成就是在人脸生成领域。然而，这些模型中的大多数都专注于提高视图一致性而忽略了解耦方面，因此这些模型无法提供对生成的高质量语义/属性控制。为此，我们引入了一个使用特定属性标签作为输入的条件 GNeRF 模型，以提高 3D 感知生成模型的可控性和解开能力。我们利用预训练的 3D 感知模型作为基础，并集成了一个双分支属性编辑模块 (DAEM)，该模块利用属性标签来提供对生成的控制。此外，我们提出了一种 TRIOT (TRAining as Init, and Optimizing for Tuning) 方法来优化潜在向量，以进一步提高属性编辑的精度。在广泛使用的 FFHQ 上进行的大量实验表明，我们的模型在保留非目标区域的同时，可以产生具有更好视图一致性的高质量编辑。该代码可在此 https 网址上找到。</t>
+  </si>
+  <si>
+    <t>神经表面重建旨在基于多视图图像重建准确的 3D 表面。以前基于神经体绘制的方法大多训练完全隐式模型，并且它们需要对单个场景进行数小时的训练。最近的努力探索了显式体积表示，它通过在可学习的体素网格中记忆重要信息来大大加速优化过程。然而，这些基于体素的方法通常难以重建细粒度几何。通过实证研究，我们发现高质量的表面重建取决于两个关键因素：构建连贯形状的能力和颜色几何依赖性的精确建模。特别是后者是精细细节准确重建的关键。受这些发现的启发，我们开发了 Voxurf，这是一种基于体素的高效和准确的神经表面重建方法，它包括两个阶段：1）利用可学习的特征网格来构建色场并获得连贯的粗略形状，以及 2）使用捕获精确的颜色几何依赖性的双色网络优化详细的几何图形。我们进一步引入了分层几何特征，以实现跨体素的信息共享。我们的实验表明，Voxurf 同时实现了高效率和高质量。在 DTU 基准上，与最先进的方法相比，Voxurf 实现了更高的重建质量，训练速度提高了 20 倍。</t>
+  </si>
+  <si>
+    <t>我们介绍了 Plenoxels（全光体素），一种用于照片级真实视图合成的系统。 Plenoxels 将场景表示为具有球谐函数的稀疏 3D 网格。这种表示可以通过梯度方法和正则化从校准图像中优化，而无需任何神经组件。在标准的基准任务中，Plenoxels 的优化速度比神经辐射场快两个数量级，而视觉质量没有损失。</t>
   </si>
 </sst>
 </file>
@@ -3176,12 +3425,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T129"/>
+  <dimension ref="A1:T144"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
+      <selection pane="bottomLeft" activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3258,219 +3507,216 @@
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>698</v>
+        <v>783</v>
       </c>
       <c r="B2" t="s">
-        <v>736</v>
+        <v>816</v>
       </c>
       <c r="D2" t="s">
-        <v>737</v>
+        <v>817</v>
       </c>
       <c r="E2" t="s">
-        <v>738</v>
+        <v>818</v>
       </c>
       <c r="G2" t="s">
-        <v>740</v>
+        <v>819</v>
       </c>
       <c r="H2" t="s">
-        <v>753</v>
-      </c>
-      <c r="R2">
+        <v>834</v>
+      </c>
+      <c r="O2">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>698</v>
+        <v>783</v>
       </c>
       <c r="B3" t="s">
-        <v>733</v>
+        <v>813</v>
       </c>
       <c r="D3" t="s">
-        <v>734</v>
+        <v>814</v>
       </c>
       <c r="E3" t="s">
-        <v>735</v>
+        <v>815</v>
       </c>
       <c r="G3" t="s">
-        <v>741</v>
+        <v>820</v>
       </c>
       <c r="H3" t="s">
-        <v>754</v>
-      </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
-      <c r="M3">
-        <v>1</v>
-      </c>
-      <c r="S3">
+        <v>835</v>
+      </c>
+      <c r="T3">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>698</v>
+        <v>783</v>
       </c>
       <c r="B4" t="s">
-        <v>730</v>
+        <v>810</v>
       </c>
       <c r="D4" t="s">
-        <v>731</v>
+        <v>811</v>
       </c>
       <c r="E4" t="s">
-        <v>732</v>
+        <v>812</v>
       </c>
       <c r="G4" t="s">
-        <v>742</v>
+        <v>821</v>
       </c>
       <c r="H4" t="s">
-        <v>755</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4">
+        <v>836</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="P4">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>698</v>
+        <v>783</v>
       </c>
       <c r="B5" t="s">
-        <v>727</v>
-      </c>
-      <c r="C5" t="s">
-        <v>48</v>
+        <v>807</v>
       </c>
       <c r="D5" t="s">
-        <v>728</v>
+        <v>808</v>
       </c>
       <c r="E5" t="s">
-        <v>729</v>
-      </c>
-      <c r="F5" t="s">
-        <v>729</v>
+        <v>809</v>
       </c>
       <c r="G5" t="s">
-        <v>743</v>
+        <v>822</v>
       </c>
       <c r="H5" t="s">
-        <v>756</v>
+        <v>837</v>
       </c>
       <c r="J5">
         <v>1</v>
       </c>
-      <c r="M5">
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="R5">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>698</v>
+        <v>783</v>
       </c>
       <c r="B6" t="s">
-        <v>724</v>
+        <v>782</v>
+      </c>
+      <c r="C6" t="s">
+        <v>784</v>
       </c>
       <c r="D6" t="s">
-        <v>725</v>
+        <v>785</v>
       </c>
       <c r="E6" t="s">
-        <v>726</v>
+        <v>786</v>
+      </c>
+      <c r="F6" t="s">
+        <v>787</v>
       </c>
       <c r="G6" t="s">
-        <v>744</v>
+        <v>823</v>
       </c>
       <c r="H6" t="s">
-        <v>757</v>
-      </c>
-      <c r="O6">
+        <v>838</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="S6">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>668</v>
+        <v>783</v>
       </c>
       <c r="B7" t="s">
-        <v>721</v>
+        <v>791</v>
       </c>
       <c r="D7" t="s">
-        <v>722</v>
+        <v>792</v>
       </c>
       <c r="E7" t="s">
-        <v>723</v>
+        <v>793</v>
+      </c>
+      <c r="F7" t="s">
+        <v>794</v>
       </c>
       <c r="G7" t="s">
-        <v>745</v>
+        <v>824</v>
       </c>
       <c r="H7" t="s">
-        <v>758</v>
-      </c>
-      <c r="J7">
-        <v>1</v>
-      </c>
-      <c r="N7">
+        <v>839</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="R7">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>668</v>
+        <v>770</v>
       </c>
       <c r="B8" t="s">
-        <v>716</v>
-      </c>
-      <c r="C8" t="s">
-        <v>717</v>
+        <v>788</v>
       </c>
       <c r="D8" t="s">
-        <v>718</v>
+        <v>789</v>
       </c>
       <c r="E8" t="s">
-        <v>719</v>
-      </c>
-      <c r="F8" t="s">
-        <v>720</v>
+        <v>790</v>
       </c>
       <c r="G8" t="s">
-        <v>746</v>
+        <v>825</v>
       </c>
       <c r="H8" t="s">
-        <v>759</v>
-      </c>
-      <c r="Q8">
-        <v>1</v>
-      </c>
-      <c r="R8">
+        <v>840</v>
+      </c>
+      <c r="N8">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>668</v>
+        <v>770</v>
       </c>
       <c r="B9" t="s">
-        <v>713</v>
+        <v>795</v>
       </c>
       <c r="C9" t="s">
-        <v>48</v>
+        <v>633</v>
       </c>
       <c r="D9" t="s">
-        <v>714</v>
+        <v>796</v>
       </c>
       <c r="E9" t="s">
-        <v>715</v>
+        <v>797</v>
       </c>
       <c r="G9" t="s">
-        <v>747</v>
+        <v>826</v>
       </c>
       <c r="H9" t="s">
-        <v>760</v>
+        <v>841</v>
+      </c>
+      <c r="M9">
+        <v>1</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
       </c>
       <c r="R9">
         <v>1</v>
@@ -3478,603 +3724,634 @@
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>668</v>
+        <v>770</v>
       </c>
       <c r="B10" t="s">
-        <v>710</v>
+        <v>798</v>
       </c>
       <c r="C10" t="s">
-        <v>48</v>
+        <v>779</v>
       </c>
       <c r="D10" t="s">
-        <v>711</v>
+        <v>799</v>
       </c>
       <c r="E10" t="s">
-        <v>712</v>
+        <v>800</v>
       </c>
       <c r="G10" t="s">
-        <v>748</v>
+        <v>827</v>
       </c>
       <c r="H10" t="s">
-        <v>761</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="N10">
-        <v>1</v>
-      </c>
-      <c r="Q10">
-        <v>1</v>
-      </c>
-      <c r="R10">
+        <v>842</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="T10">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>668</v>
+        <v>770</v>
       </c>
       <c r="B11" t="s">
-        <v>706</v>
+        <v>801</v>
       </c>
       <c r="C11" t="s">
         <v>633</v>
       </c>
       <c r="D11" t="s">
-        <v>707</v>
+        <v>802</v>
       </c>
       <c r="E11" t="s">
-        <v>708</v>
-      </c>
-      <c r="F11" t="s">
-        <v>709</v>
+        <v>803</v>
       </c>
       <c r="G11" t="s">
-        <v>749</v>
+        <v>828</v>
       </c>
       <c r="H11" t="s">
-        <v>762</v>
-      </c>
-      <c r="O11">
+        <v>843</v>
+      </c>
+      <c r="I11">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>668</v>
+        <v>770</v>
       </c>
       <c r="B12" t="s">
-        <v>703</v>
+        <v>804</v>
       </c>
       <c r="D12" t="s">
-        <v>704</v>
+        <v>805</v>
       </c>
       <c r="E12" t="s">
-        <v>705</v>
+        <v>806</v>
       </c>
       <c r="G12" t="s">
-        <v>750</v>
+        <v>829</v>
       </c>
       <c r="H12" t="s">
-        <v>763</v>
+        <v>844</v>
       </c>
       <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="T12">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>668</v>
+        <v>770</v>
       </c>
       <c r="B13" t="s">
-        <v>701</v>
+        <v>778</v>
+      </c>
+      <c r="C13" t="s">
+        <v>779</v>
       </c>
       <c r="D13" t="s">
-        <v>739</v>
+        <v>780</v>
       </c>
       <c r="E13" t="s">
-        <v>702</v>
+        <v>781</v>
       </c>
       <c r="G13" t="s">
-        <v>751</v>
+        <v>830</v>
       </c>
       <c r="H13" t="s">
-        <v>764</v>
-      </c>
-      <c r="M13">
+        <v>845</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="R13">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>668</v>
+        <v>698</v>
       </c>
       <c r="B14" t="s">
-        <v>697</v>
+        <v>774</v>
       </c>
       <c r="D14" t="s">
-        <v>699</v>
+        <v>775</v>
       </c>
       <c r="E14" t="s">
-        <v>700</v>
+        <v>776</v>
+      </c>
+      <c r="F14" t="s">
+        <v>777</v>
       </c>
       <c r="G14" t="s">
-        <v>752</v>
+        <v>831</v>
       </c>
       <c r="H14" t="s">
-        <v>765</v>
-      </c>
-      <c r="I14">
-        <v>1</v>
-      </c>
-      <c r="Q14">
+        <v>846</v>
+      </c>
+      <c r="J14">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>668</v>
+        <v>698</v>
       </c>
       <c r="B15" t="s">
-        <v>664</v>
+        <v>771</v>
       </c>
       <c r="D15" t="s">
-        <v>665</v>
+        <v>772</v>
       </c>
       <c r="E15" t="s">
-        <v>666</v>
-      </c>
-      <c r="F15" t="s">
-        <v>667</v>
+        <v>773</v>
       </c>
       <c r="G15" t="s">
-        <v>683</v>
+        <v>832</v>
       </c>
       <c r="H15" t="s">
-        <v>670</v>
-      </c>
-      <c r="M15">
+        <v>847</v>
+      </c>
+      <c r="K15">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>154</v>
+      </c>
+      <c r="B16" t="s">
+        <v>766</v>
+      </c>
+      <c r="C16" t="s">
+        <v>209</v>
+      </c>
+      <c r="D16" t="s">
+        <v>767</v>
+      </c>
+      <c r="E16" t="s">
+        <v>768</v>
+      </c>
+      <c r="F16" t="s">
+        <v>769</v>
+      </c>
+      <c r="G16" t="s">
+        <v>833</v>
+      </c>
+      <c r="H16" t="s">
+        <v>848</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="Q16">
+        <f>+L13</f>
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>698</v>
+      </c>
+      <c r="B17" t="s">
+        <v>736</v>
+      </c>
+      <c r="D17" t="s">
+        <v>737</v>
+      </c>
+      <c r="E17" t="s">
+        <v>738</v>
+      </c>
+      <c r="G17" t="s">
+        <v>740</v>
+      </c>
+      <c r="H17" t="s">
+        <v>753</v>
+      </c>
+      <c r="R17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>698</v>
+      </c>
+      <c r="B18" t="s">
+        <v>733</v>
+      </c>
+      <c r="D18" t="s">
+        <v>734</v>
+      </c>
+      <c r="E18" t="s">
+        <v>735</v>
+      </c>
+      <c r="G18" t="s">
+        <v>741</v>
+      </c>
+      <c r="H18" t="s">
+        <v>754</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>1</v>
+      </c>
+      <c r="S18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>698</v>
+      </c>
+      <c r="B19" t="s">
+        <v>730</v>
+      </c>
+      <c r="D19" t="s">
+        <v>731</v>
+      </c>
+      <c r="E19" t="s">
+        <v>732</v>
+      </c>
+      <c r="G19" t="s">
+        <v>742</v>
+      </c>
+      <c r="H19" t="s">
+        <v>755</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>698</v>
+      </c>
+      <c r="B20" t="s">
+        <v>727</v>
+      </c>
+      <c r="C20" t="s">
+        <v>48</v>
+      </c>
+      <c r="D20" t="s">
+        <v>728</v>
+      </c>
+      <c r="E20" t="s">
+        <v>729</v>
+      </c>
+      <c r="F20" t="s">
+        <v>729</v>
+      </c>
+      <c r="G20" t="s">
+        <v>743</v>
+      </c>
+      <c r="H20" t="s">
+        <v>756</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>698</v>
+      </c>
+      <c r="B21" t="s">
+        <v>724</v>
+      </c>
+      <c r="D21" t="s">
+        <v>725</v>
+      </c>
+      <c r="E21" t="s">
+        <v>726</v>
+      </c>
+      <c r="G21" t="s">
+        <v>744</v>
+      </c>
+      <c r="H21" t="s">
+        <v>757</v>
+      </c>
+      <c r="O21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
         <v>668</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B22" t="s">
+        <v>721</v>
+      </c>
+      <c r="D22" t="s">
+        <v>722</v>
+      </c>
+      <c r="E22" t="s">
+        <v>723</v>
+      </c>
+      <c r="G22" t="s">
+        <v>745</v>
+      </c>
+      <c r="H22" t="s">
+        <v>758</v>
+      </c>
+      <c r="J22">
+        <v>1</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>668</v>
+      </c>
+      <c r="B23" t="s">
+        <v>716</v>
+      </c>
+      <c r="C23" t="s">
+        <v>717</v>
+      </c>
+      <c r="D23" t="s">
+        <v>718</v>
+      </c>
+      <c r="E23" t="s">
+        <v>719</v>
+      </c>
+      <c r="F23" t="s">
+        <v>720</v>
+      </c>
+      <c r="G23" t="s">
+        <v>746</v>
+      </c>
+      <c r="H23" t="s">
+        <v>759</v>
+      </c>
+      <c r="Q23">
+        <v>1</v>
+      </c>
+      <c r="R23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>668</v>
+      </c>
+      <c r="B24" t="s">
+        <v>713</v>
+      </c>
+      <c r="C24" t="s">
+        <v>48</v>
+      </c>
+      <c r="D24" t="s">
+        <v>714</v>
+      </c>
+      <c r="E24" t="s">
+        <v>715</v>
+      </c>
+      <c r="G24" t="s">
+        <v>747</v>
+      </c>
+      <c r="H24" t="s">
+        <v>760</v>
+      </c>
+      <c r="R24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>668</v>
+      </c>
+      <c r="B25" t="s">
+        <v>710</v>
+      </c>
+      <c r="C25" t="s">
+        <v>48</v>
+      </c>
+      <c r="D25" t="s">
+        <v>711</v>
+      </c>
+      <c r="E25" t="s">
+        <v>712</v>
+      </c>
+      <c r="G25" t="s">
+        <v>748</v>
+      </c>
+      <c r="H25" t="s">
+        <v>761</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="Q25">
+        <v>1</v>
+      </c>
+      <c r="R25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>668</v>
+      </c>
+      <c r="B26" t="s">
+        <v>706</v>
+      </c>
+      <c r="C26" t="s">
+        <v>633</v>
+      </c>
+      <c r="D26" t="s">
+        <v>707</v>
+      </c>
+      <c r="E26" t="s">
+        <v>708</v>
+      </c>
+      <c r="F26" t="s">
+        <v>709</v>
+      </c>
+      <c r="G26" t="s">
+        <v>749</v>
+      </c>
+      <c r="H26" t="s">
+        <v>762</v>
+      </c>
+      <c r="O26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>668</v>
+      </c>
+      <c r="B27" t="s">
+        <v>703</v>
+      </c>
+      <c r="D27" t="s">
+        <v>704</v>
+      </c>
+      <c r="E27" t="s">
+        <v>705</v>
+      </c>
+      <c r="G27" t="s">
+        <v>750</v>
+      </c>
+      <c r="H27" t="s">
+        <v>763</v>
+      </c>
+      <c r="K27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>668</v>
+      </c>
+      <c r="B28" t="s">
+        <v>701</v>
+      </c>
+      <c r="D28" t="s">
+        <v>739</v>
+      </c>
+      <c r="E28" t="s">
+        <v>702</v>
+      </c>
+      <c r="G28" t="s">
+        <v>751</v>
+      </c>
+      <c r="H28" t="s">
+        <v>764</v>
+      </c>
+      <c r="M28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>668</v>
+      </c>
+      <c r="B29" t="s">
+        <v>697</v>
+      </c>
+      <c r="D29" t="s">
+        <v>699</v>
+      </c>
+      <c r="E29" t="s">
+        <v>700</v>
+      </c>
+      <c r="G29" t="s">
+        <v>752</v>
+      </c>
+      <c r="H29" t="s">
+        <v>765</v>
+      </c>
+      <c r="I29">
+        <v>1</v>
+      </c>
+      <c r="Q29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>668</v>
+      </c>
+      <c r="B30" t="s">
+        <v>664</v>
+      </c>
+      <c r="D30" t="s">
+        <v>665</v>
+      </c>
+      <c r="E30" t="s">
+        <v>666</v>
+      </c>
+      <c r="F30" t="s">
+        <v>667</v>
+      </c>
+      <c r="G30" t="s">
+        <v>683</v>
+      </c>
+      <c r="H30" t="s">
+        <v>670</v>
+      </c>
+      <c r="M30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>668</v>
+      </c>
+      <c r="B31" t="s">
         <v>660</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D31" t="s">
         <v>661</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E31" t="s">
         <v>662</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F31" t="s">
         <v>663</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G31" t="s">
         <v>684</v>
       </c>
-      <c r="H16" t="s">
+      <c r="H31" t="s">
         <v>671</v>
       </c>
-      <c r="J16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+      <c r="J31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
         <v>668</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B32" t="s">
         <v>657</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C32" t="s">
         <v>48</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D32" t="s">
         <v>658</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E32" t="s">
         <v>659</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G32" t="s">
         <v>685</v>
       </c>
-      <c r="H17" t="s">
+      <c r="H32" t="s">
         <v>672</v>
       </c>
-      <c r="I17">
-        <v>1</v>
-      </c>
-      <c r="K17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>625</v>
-      </c>
-      <c r="B18" t="s">
-        <v>654</v>
-      </c>
-      <c r="C18" t="s">
-        <v>633</v>
-      </c>
-      <c r="D18" t="s">
-        <v>655</v>
-      </c>
-      <c r="E18" t="s">
-        <v>656</v>
-      </c>
-      <c r="G18" t="s">
-        <v>686</v>
-      </c>
-      <c r="H18" t="s">
-        <v>673</v>
-      </c>
-      <c r="R18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>625</v>
-      </c>
-      <c r="B19" t="s">
-        <v>651</v>
-      </c>
-      <c r="C19" t="s">
-        <v>652</v>
-      </c>
-      <c r="D19" t="s">
-        <v>669</v>
-      </c>
-      <c r="E19" t="s">
-        <v>653</v>
-      </c>
-      <c r="G19" t="s">
-        <v>687</v>
-      </c>
-      <c r="H19" t="s">
-        <v>674</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="N19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>625</v>
-      </c>
-      <c r="B20" t="s">
-        <v>648</v>
-      </c>
-      <c r="D20" t="s">
-        <v>649</v>
-      </c>
-      <c r="E20" t="s">
-        <v>650</v>
-      </c>
-      <c r="G20" t="s">
-        <v>688</v>
-      </c>
-      <c r="H20" t="s">
-        <v>675</v>
-      </c>
-      <c r="T20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>625</v>
-      </c>
-      <c r="B21" t="s">
-        <v>644</v>
-      </c>
-      <c r="C21" t="s">
-        <v>48</v>
-      </c>
-      <c r="D21" t="s">
-        <v>647</v>
-      </c>
-      <c r="E21" t="s">
-        <v>646</v>
-      </c>
-      <c r="F21" t="s">
-        <v>645</v>
-      </c>
-      <c r="G21" t="s">
-        <v>689</v>
-      </c>
-      <c r="H21" t="s">
-        <v>676</v>
-      </c>
-      <c r="O21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>625</v>
-      </c>
-      <c r="B22" t="s">
-        <v>641</v>
-      </c>
-      <c r="D22" t="s">
-        <v>642</v>
-      </c>
-      <c r="E22" t="s">
-        <v>643</v>
-      </c>
-      <c r="G22" t="s">
-        <v>690</v>
-      </c>
-      <c r="H22" t="s">
-        <v>677</v>
-      </c>
-      <c r="T22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>625</v>
-      </c>
-      <c r="B23" t="s">
-        <v>639</v>
-      </c>
-      <c r="D23" t="s">
-        <v>640</v>
-      </c>
-      <c r="E23" t="s">
-        <v>696</v>
-      </c>
-      <c r="G23" t="s">
-        <v>691</v>
-      </c>
-      <c r="H23" t="s">
-        <v>678</v>
-      </c>
-      <c r="K23">
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>625</v>
-      </c>
-      <c r="B24" t="s">
-        <v>636</v>
-      </c>
-      <c r="D24" t="s">
-        <v>637</v>
-      </c>
-      <c r="E24" t="s">
-        <v>638</v>
-      </c>
-      <c r="G24" t="s">
-        <v>692</v>
-      </c>
-      <c r="H24" t="s">
-        <v>679</v>
-      </c>
-      <c r="T24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>625</v>
-      </c>
-      <c r="B25" t="s">
-        <v>632</v>
-      </c>
-      <c r="C25" t="s">
-        <v>633</v>
-      </c>
-      <c r="D25" t="s">
-        <v>634</v>
-      </c>
-      <c r="E25" t="s">
-        <v>635</v>
-      </c>
-      <c r="G25" t="s">
-        <v>693</v>
-      </c>
-      <c r="H25" t="s">
-        <v>680</v>
-      </c>
-      <c r="N25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>625</v>
-      </c>
-      <c r="B26" t="s">
-        <v>629</v>
-      </c>
-      <c r="C26" t="s">
-        <v>48</v>
-      </c>
-      <c r="D26" t="s">
-        <v>630</v>
-      </c>
-      <c r="E26" t="s">
-        <v>631</v>
-      </c>
-      <c r="G26" t="s">
-        <v>694</v>
-      </c>
-      <c r="H26" t="s">
-        <v>681</v>
-      </c>
-      <c r="N26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>625</v>
-      </c>
-      <c r="B27" t="s">
-        <v>626</v>
-      </c>
-      <c r="D27" t="s">
-        <v>627</v>
-      </c>
-      <c r="E27" t="s">
-        <v>628</v>
-      </c>
-      <c r="G27" t="s">
-        <v>695</v>
-      </c>
-      <c r="H27" t="s">
-        <v>682</v>
-      </c>
-      <c r="N27">
-        <v>1</v>
-      </c>
-      <c r="Q27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>17</v>
-      </c>
-      <c r="B28" t="s">
-        <v>24</v>
-      </c>
-      <c r="C28" t="s">
-        <v>19</v>
-      </c>
-      <c r="D28" t="s">
-        <v>20</v>
-      </c>
-      <c r="E28" t="s">
-        <v>21</v>
-      </c>
-      <c r="G28" t="s">
-        <v>22</v>
-      </c>
-      <c r="H28" t="s">
-        <v>23</v>
-      </c>
-      <c r="L28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>17</v>
-      </c>
-      <c r="B29" t="s">
-        <v>25</v>
-      </c>
-      <c r="D29" t="s">
-        <v>56</v>
-      </c>
-      <c r="E29" t="s">
-        <v>78</v>
-      </c>
-      <c r="G29" t="s">
-        <v>108</v>
-      </c>
-      <c r="H29" t="s">
-        <v>129</v>
-      </c>
-      <c r="M29">
-        <v>1</v>
-      </c>
-      <c r="S29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>17</v>
-      </c>
-      <c r="B30" t="s">
-        <v>26</v>
-      </c>
-      <c r="D30" t="s">
-        <v>57</v>
-      </c>
-      <c r="E30" t="s">
-        <v>79</v>
-      </c>
-      <c r="G30" t="s">
-        <v>26</v>
-      </c>
-      <c r="H30" t="s">
-        <v>130</v>
-      </c>
-      <c r="N30">
-        <v>1</v>
-      </c>
-      <c r="O30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>17</v>
-      </c>
-      <c r="B31" t="s">
-        <v>34</v>
-      </c>
-      <c r="C31" t="s">
-        <v>48</v>
-      </c>
-      <c r="D31" t="s">
-        <v>58</v>
-      </c>
-      <c r="E31" t="s">
-        <v>80</v>
-      </c>
-      <c r="F31" t="s">
-        <v>100</v>
-      </c>
-      <c r="G31" t="s">
-        <v>34</v>
-      </c>
-      <c r="H31" t="s">
-        <v>131</v>
-      </c>
-      <c r="M31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>17</v>
-      </c>
-      <c r="B32" t="s">
-        <v>27</v>
-      </c>
-      <c r="D32" t="s">
-        <v>59</v>
-      </c>
-      <c r="E32" t="s">
-        <v>81</v>
-      </c>
-      <c r="G32" t="s">
-        <v>109</v>
-      </c>
-      <c r="H32" t="s">
-        <v>132</v>
+      <c r="I32">
+        <v>1</v>
       </c>
       <c r="K32">
         <v>1</v>
@@ -4082,486 +4359,438 @@
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>17</v>
+        <v>625</v>
       </c>
       <c r="B33" t="s">
-        <v>28</v>
+        <v>654</v>
+      </c>
+      <c r="C33" t="s">
+        <v>633</v>
       </c>
       <c r="D33" t="s">
-        <v>60</v>
+        <v>655</v>
       </c>
       <c r="E33" t="s">
-        <v>82</v>
+        <v>656</v>
       </c>
       <c r="G33" t="s">
-        <v>110</v>
+        <v>686</v>
       </c>
       <c r="H33" t="s">
-        <v>133</v>
-      </c>
-      <c r="J33">
-        <v>1</v>
-      </c>
-      <c r="M33">
+        <v>673</v>
+      </c>
+      <c r="R33">
         <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>17</v>
+        <v>625</v>
       </c>
       <c r="B34" t="s">
-        <v>35</v>
+        <v>651</v>
       </c>
       <c r="C34" t="s">
-        <v>55</v>
+        <v>652</v>
       </c>
       <c r="D34" t="s">
-        <v>61</v>
+        <v>669</v>
       </c>
       <c r="E34" t="s">
-        <v>83</v>
+        <v>653</v>
       </c>
       <c r="G34" t="s">
-        <v>111</v>
+        <v>687</v>
       </c>
       <c r="H34" t="s">
-        <v>134</v>
-      </c>
-      <c r="J34">
-        <v>1</v>
-      </c>
-      <c r="L34">
+        <v>674</v>
+      </c>
+      <c r="K34">
+        <v>1</v>
+      </c>
+      <c r="N34">
         <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>17</v>
+        <v>625</v>
       </c>
       <c r="B35" t="s">
-        <v>36</v>
-      </c>
-      <c r="C35" t="s">
-        <v>54</v>
+        <v>648</v>
       </c>
       <c r="D35" t="s">
-        <v>151</v>
+        <v>649</v>
       </c>
       <c r="E35" t="s">
-        <v>83</v>
+        <v>650</v>
       </c>
       <c r="G35" t="s">
-        <v>127</v>
+        <v>688</v>
       </c>
       <c r="H35" t="s">
-        <v>152</v>
-      </c>
-      <c r="J35">
-        <v>1</v>
-      </c>
-      <c r="L35">
+        <v>675</v>
+      </c>
+      <c r="T35">
         <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>18</v>
+        <v>625</v>
       </c>
       <c r="B36" t="s">
-        <v>37</v>
+        <v>644</v>
       </c>
       <c r="C36" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D36" t="s">
-        <v>62</v>
+        <v>647</v>
       </c>
       <c r="E36" t="s">
-        <v>84</v>
+        <v>646</v>
       </c>
       <c r="F36" t="s">
-        <v>101</v>
+        <v>645</v>
       </c>
       <c r="G36" t="s">
-        <v>112</v>
+        <v>689</v>
       </c>
       <c r="H36" t="s">
-        <v>135</v>
-      </c>
-      <c r="T36">
+        <v>676</v>
+      </c>
+      <c r="O36">
         <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>18</v>
+        <v>625</v>
       </c>
       <c r="B37" t="s">
-        <v>38</v>
-      </c>
-      <c r="C37" t="s">
-        <v>52</v>
+        <v>641</v>
       </c>
       <c r="D37" t="s">
-        <v>63</v>
+        <v>642</v>
       </c>
       <c r="E37" t="s">
-        <v>85</v>
+        <v>643</v>
       </c>
       <c r="G37" t="s">
-        <v>113</v>
+        <v>690</v>
       </c>
       <c r="H37" t="s">
-        <v>136</v>
-      </c>
-      <c r="M37">
+        <v>677</v>
+      </c>
+      <c r="T37">
         <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>18</v>
+        <v>625</v>
       </c>
       <c r="B38" t="s">
-        <v>39</v>
-      </c>
-      <c r="C38" t="s">
-        <v>51</v>
+        <v>639</v>
       </c>
       <c r="D38" t="s">
-        <v>64</v>
+        <v>640</v>
       </c>
       <c r="E38" t="s">
-        <v>86</v>
+        <v>696</v>
       </c>
       <c r="G38" t="s">
-        <v>114</v>
+        <v>691</v>
       </c>
       <c r="H38" t="s">
-        <v>137</v>
+        <v>678</v>
+      </c>
+      <c r="K38">
+        <v>1</v>
       </c>
       <c r="M38">
-        <v>1</v>
-      </c>
-      <c r="O38">
         <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>18</v>
+        <v>625</v>
       </c>
       <c r="B39" t="s">
-        <v>29</v>
+        <v>636</v>
       </c>
       <c r="D39" t="s">
-        <v>65</v>
+        <v>637</v>
       </c>
       <c r="E39" t="s">
-        <v>87</v>
-      </c>
-      <c r="F39" t="s">
-        <v>102</v>
+        <v>638</v>
       </c>
       <c r="G39" t="s">
-        <v>115</v>
+        <v>692</v>
       </c>
       <c r="H39" t="s">
-        <v>138</v>
-      </c>
-      <c r="J39">
-        <v>1</v>
-      </c>
-      <c r="K39">
+        <v>679</v>
+      </c>
+      <c r="T39">
         <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>18</v>
+        <v>625</v>
       </c>
       <c r="B40" t="s">
-        <v>40</v>
+        <v>632</v>
       </c>
       <c r="C40" t="s">
-        <v>48</v>
+        <v>633</v>
       </c>
       <c r="D40" t="s">
-        <v>66</v>
+        <v>634</v>
       </c>
       <c r="E40" t="s">
-        <v>88</v>
-      </c>
-      <c r="F40" t="s">
-        <v>103</v>
+        <v>635</v>
       </c>
       <c r="G40" t="s">
-        <v>116</v>
+        <v>693</v>
       </c>
       <c r="H40" t="s">
-        <v>139</v>
-      </c>
-      <c r="O40">
-        <v>1</v>
-      </c>
-      <c r="T40">
+        <v>680</v>
+      </c>
+      <c r="N40">
         <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>18</v>
+        <v>625</v>
       </c>
       <c r="B41" t="s">
-        <v>30</v>
+        <v>629</v>
+      </c>
+      <c r="C41" t="s">
+        <v>48</v>
       </c>
       <c r="D41" t="s">
-        <v>67</v>
+        <v>630</v>
       </c>
       <c r="E41" t="s">
-        <v>89</v>
+        <v>631</v>
       </c>
       <c r="G41" t="s">
-        <v>117</v>
+        <v>694</v>
       </c>
       <c r="H41" t="s">
-        <v>140</v>
-      </c>
-      <c r="K41">
-        <v>1</v>
-      </c>
-      <c r="M41">
-        <v>1</v>
-      </c>
-      <c r="T41">
+        <v>681</v>
+      </c>
+      <c r="N41">
         <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>18</v>
+        <v>625</v>
       </c>
       <c r="B42" t="s">
-        <v>41</v>
-      </c>
-      <c r="C42" t="s">
-        <v>50</v>
+        <v>626</v>
       </c>
       <c r="D42" t="s">
-        <v>68</v>
+        <v>627</v>
       </c>
       <c r="E42" t="s">
-        <v>90</v>
+        <v>628</v>
       </c>
       <c r="G42" t="s">
-        <v>118</v>
+        <v>695</v>
       </c>
       <c r="H42" t="s">
-        <v>141</v>
-      </c>
-      <c r="K42">
-        <v>1</v>
+        <v>682</v>
       </c>
       <c r="N42">
+        <v>1</v>
+      </c>
+      <c r="Q42">
         <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B43" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="C43" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="D43" t="s">
-        <v>69</v>
+        <v>20</v>
       </c>
       <c r="E43" t="s">
-        <v>91</v>
-      </c>
-      <c r="F43" t="s">
-        <v>104</v>
+        <v>21</v>
       </c>
       <c r="G43" t="s">
-        <v>119</v>
+        <v>22</v>
       </c>
       <c r="H43" t="s">
-        <v>142</v>
-      </c>
-      <c r="R43">
-        <v>1</v>
-      </c>
-      <c r="T43">
+        <v>23</v>
+      </c>
+      <c r="L43">
         <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B44" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D44" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="E44" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="G44" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="H44" t="s">
-        <v>143</v>
-      </c>
-      <c r="I44">
+        <v>129</v>
+      </c>
+      <c r="M44">
+        <v>1</v>
+      </c>
+      <c r="S44">
         <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B45" t="s">
-        <v>43</v>
-      </c>
-      <c r="C45" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="D45" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="E45" t="s">
-        <v>93</v>
-      </c>
-      <c r="F45" t="s">
-        <v>105</v>
+        <v>79</v>
       </c>
       <c r="G45" t="s">
-        <v>121</v>
+        <v>26</v>
       </c>
       <c r="H45" t="s">
-        <v>144</v>
+        <v>130</v>
+      </c>
+      <c r="N45">
+        <v>1</v>
       </c>
       <c r="O45">
-        <v>1</v>
-      </c>
-      <c r="P45">
         <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B46" t="s">
-        <v>32</v>
+        <v>34</v>
+      </c>
+      <c r="C46" t="s">
+        <v>48</v>
       </c>
       <c r="D46" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="E46" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="F46" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="G46" t="s">
-        <v>122</v>
+        <v>34</v>
       </c>
       <c r="H46" t="s">
-        <v>145</v>
-      </c>
-      <c r="N46">
-        <v>1</v>
-      </c>
-      <c r="O46">
+        <v>131</v>
+      </c>
+      <c r="M46">
         <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B47" t="s">
-        <v>44</v>
-      </c>
-      <c r="C47" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="D47" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="E47" t="s">
-        <v>95</v>
-      </c>
-      <c r="F47" t="s">
-        <v>107</v>
+        <v>81</v>
       </c>
       <c r="G47" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="H47" t="s">
-        <v>146</v>
-      </c>
-      <c r="N47">
-        <v>1</v>
-      </c>
-      <c r="O47">
+        <v>132</v>
+      </c>
+      <c r="K47">
         <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B48" t="s">
-        <v>45</v>
-      </c>
-      <c r="C48" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="D48" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="E48" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="G48" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="H48" t="s">
-        <v>147</v>
-      </c>
-      <c r="T48">
+        <v>133</v>
+      </c>
+      <c r="J48">
+        <v>1</v>
+      </c>
+      <c r="M48">
         <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B49" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="C49" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="D49" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="E49" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="G49" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="H49" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="J49">
         <v>1</v>
@@ -4572,33 +4801,30 @@
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B50" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="C50" t="s">
-        <v>290</v>
+        <v>54</v>
       </c>
       <c r="D50" t="s">
-        <v>76</v>
+        <v>151</v>
       </c>
       <c r="E50" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="G50" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H50" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="J50">
         <v>1</v>
       </c>
-      <c r="N50">
-        <v>1</v>
-      </c>
-      <c r="P50">
+      <c r="L50">
         <v>1</v>
       </c>
     </row>
@@ -4607,19 +4833,25 @@
         <v>18</v>
       </c>
       <c r="B51" t="s">
-        <v>33</v>
+        <v>37</v>
+      </c>
+      <c r="C51" t="s">
+        <v>53</v>
       </c>
       <c r="D51" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="E51" t="s">
-        <v>99</v>
+        <v>84</v>
+      </c>
+      <c r="F51" t="s">
+        <v>101</v>
       </c>
       <c r="G51" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="H51" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="T51">
         <v>1</v>
@@ -4627,89 +4859,83 @@
     </row>
     <row r="52" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>154</v>
+        <v>18</v>
       </c>
       <c r="B52" t="s">
-        <v>155</v>
+        <v>38</v>
       </c>
       <c r="C52" t="s">
-        <v>157</v>
+        <v>52</v>
       </c>
       <c r="D52" t="s">
-        <v>259</v>
+        <v>63</v>
       </c>
       <c r="E52" t="s">
-        <v>158</v>
-      </c>
-      <c r="F52" t="s">
-        <v>159</v>
+        <v>85</v>
       </c>
       <c r="G52" t="s">
-        <v>160</v>
+        <v>113</v>
       </c>
       <c r="H52" t="s">
-        <v>161</v>
-      </c>
-      <c r="T52">
+        <v>136</v>
+      </c>
+      <c r="M52">
         <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>154</v>
+        <v>18</v>
       </c>
       <c r="B53" t="s">
-        <v>156</v>
+        <v>39</v>
       </c>
       <c r="C53" t="s">
-        <v>357</v>
+        <v>51</v>
       </c>
       <c r="D53" t="s">
-        <v>162</v>
+        <v>64</v>
       </c>
       <c r="E53" t="s">
-        <v>163</v>
-      </c>
-      <c r="F53" t="s">
-        <v>164</v>
+        <v>86</v>
       </c>
       <c r="G53" t="s">
-        <v>166</v>
+        <v>114</v>
       </c>
       <c r="H53" t="s">
-        <v>165</v>
-      </c>
-      <c r="J53">
-        <v>1</v>
-      </c>
-      <c r="K53">
+        <v>137</v>
+      </c>
+      <c r="M53">
+        <v>1</v>
+      </c>
+      <c r="O53">
         <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>154</v>
+        <v>18</v>
       </c>
       <c r="B54" t="s">
-        <v>167</v>
-      </c>
-      <c r="C54" t="s">
-        <v>168</v>
+        <v>29</v>
       </c>
       <c r="D54" t="s">
-        <v>169</v>
+        <v>65</v>
       </c>
       <c r="E54" t="s">
-        <v>172</v>
+        <v>87</v>
       </c>
       <c r="F54" t="s">
-        <v>173</v>
+        <v>102</v>
       </c>
       <c r="G54" t="s">
-        <v>171</v>
+        <v>115</v>
       </c>
       <c r="H54" t="s">
-        <v>170</v>
+        <v>138</v>
+      </c>
+      <c r="J54">
+        <v>1</v>
       </c>
       <c r="K54">
         <v>1</v>
@@ -4717,344 +4943,347 @@
     </row>
     <row r="55" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>154</v>
+        <v>18</v>
       </c>
       <c r="B55" t="s">
-        <v>174</v>
+        <v>40</v>
+      </c>
+      <c r="C55" t="s">
+        <v>48</v>
       </c>
       <c r="D55" t="s">
-        <v>175</v>
+        <v>66</v>
       </c>
       <c r="E55" t="s">
-        <v>176</v>
+        <v>88</v>
+      </c>
+      <c r="F55" t="s">
+        <v>103</v>
       </c>
       <c r="G55" t="s">
-        <v>474</v>
+        <v>116</v>
       </c>
       <c r="H55" t="s">
-        <v>549</v>
-      </c>
-      <c r="K55">
+        <v>139</v>
+      </c>
+      <c r="O55">
+        <v>1</v>
+      </c>
+      <c r="T55">
         <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>154</v>
+        <v>18</v>
       </c>
       <c r="B56" t="s">
-        <v>177</v>
-      </c>
-      <c r="C56" t="s">
-        <v>178</v>
+        <v>30</v>
       </c>
       <c r="D56" t="s">
-        <v>179</v>
+        <v>67</v>
       </c>
       <c r="E56" t="s">
-        <v>180</v>
-      </c>
-      <c r="F56" t="s">
-        <v>181</v>
+        <v>89</v>
       </c>
       <c r="G56" t="s">
-        <v>475</v>
+        <v>117</v>
       </c>
       <c r="H56" t="s">
-        <v>550</v>
+        <v>140</v>
       </c>
       <c r="K56">
+        <v>1</v>
+      </c>
+      <c r="M56">
+        <v>1</v>
+      </c>
+      <c r="T56">
         <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>154</v>
+        <v>18</v>
       </c>
       <c r="B57" t="s">
-        <v>182</v>
+        <v>41</v>
       </c>
       <c r="C57" t="s">
-        <v>185</v>
+        <v>50</v>
       </c>
       <c r="D57" t="s">
-        <v>183</v>
+        <v>68</v>
       </c>
       <c r="E57" t="s">
-        <v>184</v>
+        <v>90</v>
       </c>
       <c r="G57" t="s">
-        <v>476</v>
+        <v>118</v>
       </c>
       <c r="H57" t="s">
-        <v>551</v>
+        <v>141</v>
       </c>
       <c r="K57">
+        <v>1</v>
+      </c>
+      <c r="N57">
         <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>154</v>
+        <v>18</v>
       </c>
       <c r="B58" t="s">
-        <v>186</v>
+        <v>42</v>
       </c>
       <c r="C58" t="s">
-        <v>185</v>
+        <v>48</v>
       </c>
       <c r="D58" t="s">
-        <v>187</v>
+        <v>69</v>
       </c>
       <c r="E58" t="s">
-        <v>188</v>
+        <v>91</v>
       </c>
       <c r="F58" t="s">
-        <v>189</v>
+        <v>104</v>
       </c>
       <c r="G58" t="s">
-        <v>477</v>
+        <v>119</v>
       </c>
       <c r="H58" t="s">
-        <v>552</v>
-      </c>
-      <c r="K58">
+        <v>142</v>
+      </c>
+      <c r="R58">
+        <v>1</v>
+      </c>
+      <c r="T58">
         <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>154</v>
+        <v>18</v>
       </c>
       <c r="B59" t="s">
-        <v>190</v>
-      </c>
-      <c r="C59" t="s">
-        <v>191</v>
+        <v>31</v>
       </c>
       <c r="D59" t="s">
-        <v>192</v>
+        <v>70</v>
       </c>
       <c r="E59" t="s">
-        <v>193</v>
-      </c>
-      <c r="F59" t="s">
-        <v>194</v>
+        <v>92</v>
       </c>
       <c r="G59" t="s">
-        <v>478</v>
+        <v>120</v>
       </c>
       <c r="H59" t="s">
-        <v>553</v>
-      </c>
-      <c r="K59">
+        <v>143</v>
+      </c>
+      <c r="I59">
         <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>154</v>
+        <v>18</v>
       </c>
       <c r="B60" t="s">
-        <v>195</v>
+        <v>43</v>
       </c>
       <c r="C60" t="s">
-        <v>196</v>
+        <v>48</v>
       </c>
       <c r="D60" t="s">
-        <v>197</v>
+        <v>71</v>
       </c>
       <c r="E60" t="s">
-        <v>198</v>
+        <v>93</v>
+      </c>
+      <c r="F60" t="s">
+        <v>105</v>
       </c>
       <c r="G60" t="s">
-        <v>479</v>
+        <v>121</v>
       </c>
       <c r="H60" t="s">
-        <v>554</v>
-      </c>
-      <c r="K60">
+        <v>144</v>
+      </c>
+      <c r="O60">
+        <v>1</v>
+      </c>
+      <c r="P60">
         <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>154</v>
+        <v>18</v>
       </c>
       <c r="B61" t="s">
-        <v>199</v>
-      </c>
-      <c r="C61" t="s">
-        <v>358</v>
+        <v>32</v>
       </c>
       <c r="D61" t="s">
-        <v>200</v>
+        <v>72</v>
       </c>
       <c r="E61" t="s">
-        <v>201</v>
+        <v>94</v>
       </c>
       <c r="F61" t="s">
-        <v>202</v>
+        <v>106</v>
       </c>
       <c r="G61" t="s">
-        <v>480</v>
+        <v>122</v>
       </c>
       <c r="H61" t="s">
-        <v>555</v>
-      </c>
-      <c r="K61">
+        <v>145</v>
+      </c>
+      <c r="N61">
+        <v>1</v>
+      </c>
+      <c r="O61">
         <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>154</v>
+        <v>18</v>
       </c>
       <c r="B62" t="s">
-        <v>203</v>
+        <v>44</v>
       </c>
       <c r="C62" t="s">
-        <v>205</v>
+        <v>48</v>
       </c>
       <c r="D62" t="s">
-        <v>206</v>
+        <v>73</v>
       </c>
       <c r="E62" t="s">
-        <v>207</v>
+        <v>95</v>
       </c>
       <c r="F62" t="s">
-        <v>204</v>
+        <v>107</v>
       </c>
       <c r="G62" t="s">
-        <v>481</v>
+        <v>123</v>
       </c>
       <c r="H62" t="s">
-        <v>556</v>
-      </c>
-      <c r="K62">
+        <v>146</v>
+      </c>
+      <c r="N62">
+        <v>1</v>
+      </c>
+      <c r="O62">
         <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>154</v>
+        <v>18</v>
       </c>
       <c r="B63" t="s">
-        <v>208</v>
+        <v>45</v>
       </c>
       <c r="C63" t="s">
-        <v>209</v>
+        <v>49</v>
       </c>
       <c r="D63" t="s">
-        <v>210</v>
+        <v>74</v>
       </c>
       <c r="E63" t="s">
-        <v>211</v>
-      </c>
-      <c r="F63" t="s">
-        <v>212</v>
+        <v>96</v>
       </c>
       <c r="G63" t="s">
-        <v>482</v>
+        <v>124</v>
       </c>
       <c r="H63" t="s">
-        <v>557</v>
-      </c>
-      <c r="K63">
+        <v>147</v>
+      </c>
+      <c r="T63">
         <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>154</v>
+        <v>18</v>
       </c>
       <c r="B64" t="s">
-        <v>213</v>
+        <v>46</v>
       </c>
       <c r="C64" t="s">
-        <v>168</v>
+        <v>48</v>
       </c>
       <c r="D64" t="s">
-        <v>214</v>
+        <v>75</v>
       </c>
       <c r="E64" t="s">
-        <v>215</v>
+        <v>97</v>
       </c>
       <c r="G64" t="s">
-        <v>483</v>
+        <v>125</v>
       </c>
       <c r="H64" t="s">
-        <v>558</v>
-      </c>
-      <c r="I64">
-        <v>1</v>
-      </c>
-      <c r="O64">
-        <v>1</v>
-      </c>
-      <c r="T64">
+        <v>148</v>
+      </c>
+      <c r="J64">
+        <v>1</v>
+      </c>
+      <c r="L64">
         <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>154</v>
+        <v>18</v>
       </c>
       <c r="B65" t="s">
-        <v>216</v>
+        <v>47</v>
       </c>
       <c r="C65" t="s">
-        <v>205</v>
+        <v>290</v>
       </c>
       <c r="D65" t="s">
-        <v>217</v>
+        <v>76</v>
       </c>
       <c r="E65" t="s">
-        <v>218</v>
-      </c>
-      <c r="F65" t="s">
-        <v>219</v>
+        <v>98</v>
       </c>
       <c r="G65" t="s">
-        <v>484</v>
+        <v>126</v>
       </c>
       <c r="H65" t="s">
-        <v>559</v>
-      </c>
-      <c r="I65">
-        <v>1</v>
-      </c>
-      <c r="O65">
-        <v>1</v>
-      </c>
-      <c r="T65">
+        <v>149</v>
+      </c>
+      <c r="J65">
+        <v>1</v>
+      </c>
+      <c r="N65">
+        <v>1</v>
+      </c>
+      <c r="P65">
         <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>154</v>
+        <v>18</v>
       </c>
       <c r="B66" t="s">
-        <v>220</v>
-      </c>
-      <c r="C66" t="s">
-        <v>185</v>
+        <v>33</v>
       </c>
       <c r="D66" t="s">
-        <v>221</v>
+        <v>77</v>
       </c>
       <c r="E66" t="s">
-        <v>222</v>
+        <v>99</v>
       </c>
       <c r="G66" t="s">
-        <v>485</v>
+        <v>128</v>
       </c>
       <c r="H66" t="s">
-        <v>560</v>
-      </c>
-      <c r="O66">
-        <v>1</v>
+        <v>150</v>
       </c>
       <c r="T66">
         <v>1</v>
@@ -5065,28 +5294,25 @@
         <v>154</v>
       </c>
       <c r="B67" t="s">
-        <v>223</v>
+        <v>155</v>
       </c>
       <c r="C67" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="D67" t="s">
-        <v>224</v>
+        <v>259</v>
       </c>
       <c r="E67" t="s">
-        <v>225</v>
+        <v>158</v>
       </c>
       <c r="F67" t="s">
-        <v>226</v>
+        <v>159</v>
       </c>
       <c r="G67" t="s">
-        <v>486</v>
+        <v>160</v>
       </c>
       <c r="H67" t="s">
-        <v>561</v>
-      </c>
-      <c r="L67">
-        <v>1</v>
+        <v>161</v>
       </c>
       <c r="T67">
         <v>1</v>
@@ -5097,36 +5323,30 @@
         <v>154</v>
       </c>
       <c r="B68" t="s">
-        <v>227</v>
+        <v>156</v>
       </c>
       <c r="C68" t="s">
-        <v>168</v>
+        <v>357</v>
       </c>
       <c r="D68" t="s">
-        <v>228</v>
+        <v>162</v>
       </c>
       <c r="E68" t="s">
-        <v>229</v>
+        <v>163</v>
       </c>
       <c r="F68" t="s">
-        <v>230</v>
+        <v>164</v>
       </c>
       <c r="G68" t="s">
-        <v>487</v>
+        <v>166</v>
       </c>
       <c r="H68" t="s">
-        <v>562</v>
-      </c>
-      <c r="L68">
-        <v>1</v>
-      </c>
-      <c r="O68">
-        <v>1</v>
-      </c>
-      <c r="R68">
-        <v>1</v>
-      </c>
-      <c r="T68">
+        <v>165</v>
+      </c>
+      <c r="J68">
+        <v>1</v>
+      </c>
+      <c r="K68">
         <v>1</v>
       </c>
     </row>
@@ -5135,30 +5355,27 @@
         <v>154</v>
       </c>
       <c r="B69" t="s">
-        <v>231</v>
+        <v>167</v>
       </c>
       <c r="C69" t="s">
-        <v>185</v>
+        <v>168</v>
       </c>
       <c r="D69" t="s">
-        <v>232</v>
+        <v>169</v>
       </c>
       <c r="E69" t="s">
-        <v>233</v>
+        <v>172</v>
       </c>
       <c r="F69" t="s">
-        <v>234</v>
+        <v>173</v>
       </c>
       <c r="G69" t="s">
-        <v>488</v>
+        <v>171</v>
       </c>
       <c r="H69" t="s">
-        <v>563</v>
-      </c>
-      <c r="L69">
-        <v>1</v>
-      </c>
-      <c r="N69">
+        <v>170</v>
+      </c>
+      <c r="K69">
         <v>1</v>
       </c>
     </row>
@@ -5167,27 +5384,21 @@
         <v>154</v>
       </c>
       <c r="B70" t="s">
-        <v>235</v>
-      </c>
-      <c r="C70" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="D70" t="s">
-        <v>236</v>
+        <v>175</v>
       </c>
       <c r="E70" t="s">
-        <v>237</v>
+        <v>176</v>
       </c>
       <c r="G70" t="s">
-        <v>489</v>
+        <v>474</v>
       </c>
       <c r="H70" t="s">
-        <v>564</v>
-      </c>
-      <c r="R70">
-        <v>1</v>
-      </c>
-      <c r="T70">
+        <v>549</v>
+      </c>
+      <c r="K70">
         <v>1</v>
       </c>
     </row>
@@ -5196,30 +5407,27 @@
         <v>154</v>
       </c>
       <c r="B71" t="s">
-        <v>238</v>
+        <v>177</v>
       </c>
       <c r="C71" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="D71" t="s">
-        <v>239</v>
+        <v>179</v>
       </c>
       <c r="E71" t="s">
-        <v>240</v>
+        <v>180</v>
       </c>
       <c r="F71" t="s">
-        <v>241</v>
+        <v>181</v>
       </c>
       <c r="G71" t="s">
-        <v>490</v>
+        <v>475</v>
       </c>
       <c r="H71" t="s">
-        <v>565</v>
-      </c>
-      <c r="N71">
-        <v>1</v>
-      </c>
-      <c r="O71">
+        <v>550</v>
+      </c>
+      <c r="K71">
         <v>1</v>
       </c>
     </row>
@@ -5228,24 +5436,24 @@
         <v>154</v>
       </c>
       <c r="B72" t="s">
-        <v>242</v>
+        <v>182</v>
       </c>
       <c r="C72" t="s">
-        <v>243</v>
+        <v>185</v>
       </c>
       <c r="D72" t="s">
-        <v>244</v>
+        <v>183</v>
       </c>
       <c r="E72" t="s">
-        <v>245</v>
+        <v>184</v>
       </c>
       <c r="G72" t="s">
-        <v>491</v>
+        <v>476</v>
       </c>
       <c r="H72" t="s">
-        <v>566</v>
-      </c>
-      <c r="M72">
+        <v>551</v>
+      </c>
+      <c r="K72">
         <v>1</v>
       </c>
     </row>
@@ -5254,30 +5462,27 @@
         <v>154</v>
       </c>
       <c r="B73" t="s">
-        <v>246</v>
+        <v>186</v>
       </c>
       <c r="C73" t="s">
         <v>185</v>
       </c>
       <c r="D73" t="s">
-        <v>247</v>
+        <v>187</v>
       </c>
       <c r="E73" t="s">
-        <v>248</v>
+        <v>188</v>
       </c>
       <c r="F73" t="s">
-        <v>249</v>
+        <v>189</v>
       </c>
       <c r="G73" t="s">
-        <v>492</v>
+        <v>477</v>
       </c>
       <c r="H73" t="s">
-        <v>567</v>
-      </c>
-      <c r="R73">
-        <v>1</v>
-      </c>
-      <c r="T73">
+        <v>552</v>
+      </c>
+      <c r="K73">
         <v>1</v>
       </c>
     </row>
@@ -5286,30 +5491,27 @@
         <v>154</v>
       </c>
       <c r="B74" t="s">
-        <v>250</v>
+        <v>190</v>
       </c>
       <c r="C74" t="s">
-        <v>251</v>
+        <v>191</v>
       </c>
       <c r="D74" t="s">
-        <v>252</v>
+        <v>192</v>
       </c>
       <c r="E74" t="s">
-        <v>253</v>
+        <v>193</v>
       </c>
       <c r="F74" t="s">
-        <v>254</v>
+        <v>194</v>
       </c>
       <c r="G74" t="s">
-        <v>493</v>
+        <v>478</v>
       </c>
       <c r="H74" t="s">
-        <v>568</v>
-      </c>
-      <c r="O74">
-        <v>1</v>
-      </c>
-      <c r="R74">
+        <v>553</v>
+      </c>
+      <c r="K74">
         <v>1</v>
       </c>
     </row>
@@ -5318,27 +5520,24 @@
         <v>154</v>
       </c>
       <c r="B75" t="s">
-        <v>255</v>
+        <v>195</v>
       </c>
       <c r="C75" t="s">
-        <v>168</v>
+        <v>196</v>
       </c>
       <c r="D75" t="s">
-        <v>260</v>
+        <v>197</v>
       </c>
       <c r="E75" t="s">
-        <v>256</v>
-      </c>
-      <c r="F75" t="s">
-        <v>257</v>
+        <v>198</v>
       </c>
       <c r="G75" t="s">
-        <v>494</v>
+        <v>479</v>
       </c>
       <c r="H75" t="s">
-        <v>569</v>
-      </c>
-      <c r="Q75">
+        <v>554</v>
+      </c>
+      <c r="K75">
         <v>1</v>
       </c>
     </row>
@@ -5347,30 +5546,27 @@
         <v>154</v>
       </c>
       <c r="B76" t="s">
-        <v>262</v>
+        <v>199</v>
       </c>
       <c r="C76" t="s">
-        <v>168</v>
+        <v>358</v>
       </c>
       <c r="D76" t="s">
-        <v>263</v>
+        <v>200</v>
       </c>
       <c r="E76" t="s">
-        <v>264</v>
+        <v>201</v>
       </c>
       <c r="F76" t="s">
-        <v>265</v>
+        <v>202</v>
       </c>
       <c r="G76" t="s">
-        <v>495</v>
+        <v>480</v>
       </c>
       <c r="H76" t="s">
-        <v>570</v>
-      </c>
-      <c r="L76">
-        <v>1</v>
-      </c>
-      <c r="R76">
+        <v>555</v>
+      </c>
+      <c r="K76">
         <v>1</v>
       </c>
     </row>
@@ -5379,24 +5575,27 @@
         <v>154</v>
       </c>
       <c r="B77" t="s">
-        <v>266</v>
+        <v>203</v>
       </c>
       <c r="C77" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="D77" t="s">
-        <v>267</v>
+        <v>206</v>
       </c>
       <c r="E77" t="s">
-        <v>268</v>
+        <v>207</v>
+      </c>
+      <c r="F77" t="s">
+        <v>204</v>
       </c>
       <c r="G77" t="s">
-        <v>496</v>
+        <v>481</v>
       </c>
       <c r="H77" t="s">
-        <v>571</v>
-      </c>
-      <c r="Q77">
+        <v>556</v>
+      </c>
+      <c r="K77">
         <v>1</v>
       </c>
     </row>
@@ -5405,30 +5604,27 @@
         <v>154</v>
       </c>
       <c r="B78" t="s">
-        <v>269</v>
+        <v>208</v>
       </c>
       <c r="C78" t="s">
-        <v>185</v>
+        <v>209</v>
       </c>
       <c r="D78" t="s">
-        <v>270</v>
+        <v>210</v>
       </c>
       <c r="E78" t="s">
-        <v>271</v>
+        <v>211</v>
       </c>
       <c r="F78" t="s">
-        <v>272</v>
+        <v>212</v>
       </c>
       <c r="G78" t="s">
-        <v>497</v>
+        <v>482</v>
       </c>
       <c r="H78" t="s">
-        <v>572</v>
-      </c>
-      <c r="L78">
-        <v>1</v>
-      </c>
-      <c r="Q78">
+        <v>557</v>
+      </c>
+      <c r="K78">
         <v>1</v>
       </c>
     </row>
@@ -5437,27 +5633,30 @@
         <v>154</v>
       </c>
       <c r="B79" t="s">
-        <v>273</v>
+        <v>213</v>
       </c>
       <c r="C79" t="s">
-        <v>357</v>
+        <v>168</v>
       </c>
       <c r="D79" t="s">
-        <v>275</v>
+        <v>214</v>
       </c>
       <c r="E79" t="s">
-        <v>359</v>
-      </c>
-      <c r="F79" t="s">
-        <v>274</v>
+        <v>215</v>
       </c>
       <c r="G79" t="s">
-        <v>498</v>
+        <v>483</v>
       </c>
       <c r="H79" t="s">
-        <v>573</v>
-      </c>
-      <c r="M79">
+        <v>558</v>
+      </c>
+      <c r="I79">
+        <v>1</v>
+      </c>
+      <c r="O79">
+        <v>1</v>
+      </c>
+      <c r="T79">
         <v>1</v>
       </c>
     </row>
@@ -5466,944 +5665,977 @@
         <v>154</v>
       </c>
       <c r="B80" t="s">
-        <v>276</v>
+        <v>216</v>
       </c>
       <c r="C80" t="s">
-        <v>191</v>
+        <v>205</v>
       </c>
       <c r="D80" t="s">
-        <v>277</v>
+        <v>217</v>
       </c>
       <c r="E80" t="s">
-        <v>278</v>
+        <v>218</v>
       </c>
       <c r="F80" t="s">
-        <v>279</v>
+        <v>219</v>
       </c>
       <c r="G80" t="s">
-        <v>499</v>
+        <v>484</v>
       </c>
       <c r="H80" t="s">
-        <v>574</v>
-      </c>
-      <c r="M80">
-        <v>1</v>
-      </c>
-      <c r="N80">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.2">
+        <v>559</v>
+      </c>
+      <c r="I80">
+        <v>1</v>
+      </c>
+      <c r="O80">
+        <v>1</v>
+      </c>
+      <c r="T80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>154</v>
       </c>
       <c r="B81" t="s">
-        <v>280</v>
+        <v>220</v>
       </c>
       <c r="C81" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="D81" t="s">
-        <v>281</v>
+        <v>221</v>
       </c>
       <c r="E81" t="s">
-        <v>282</v>
-      </c>
-      <c r="F81" t="s">
-        <v>283</v>
+        <v>222</v>
       </c>
       <c r="G81" t="s">
-        <v>500</v>
+        <v>485</v>
       </c>
       <c r="H81" t="s">
-        <v>575</v>
-      </c>
-      <c r="M81">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.2">
+        <v>560</v>
+      </c>
+      <c r="O81">
+        <v>1</v>
+      </c>
+      <c r="T81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>154</v>
       </c>
       <c r="B82" t="s">
-        <v>284</v>
+        <v>223</v>
       </c>
       <c r="C82" t="s">
         <v>168</v>
       </c>
       <c r="D82" t="s">
-        <v>285</v>
+        <v>224</v>
       </c>
       <c r="E82" t="s">
-        <v>287</v>
+        <v>225</v>
       </c>
       <c r="F82" t="s">
-        <v>286</v>
+        <v>226</v>
       </c>
       <c r="G82" t="s">
-        <v>501</v>
+        <v>486</v>
       </c>
       <c r="H82" t="s">
-        <v>576</v>
-      </c>
-      <c r="M82">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.2">
+        <v>561</v>
+      </c>
+      <c r="L82">
+        <v>1</v>
+      </c>
+      <c r="T82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>154</v>
       </c>
       <c r="B83" t="s">
-        <v>288</v>
+        <v>227</v>
       </c>
       <c r="C83" t="s">
-        <v>289</v>
+        <v>168</v>
       </c>
       <c r="D83" t="s">
-        <v>291</v>
+        <v>228</v>
       </c>
       <c r="E83" t="s">
-        <v>292</v>
+        <v>229</v>
       </c>
       <c r="F83" t="s">
-        <v>293</v>
+        <v>230</v>
       </c>
       <c r="G83" t="s">
-        <v>502</v>
+        <v>487</v>
       </c>
       <c r="H83" t="s">
-        <v>577</v>
-      </c>
-      <c r="M83">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.2">
+        <v>562</v>
+      </c>
+      <c r="L83">
+        <v>1</v>
+      </c>
+      <c r="O83">
+        <v>1</v>
+      </c>
+      <c r="R83">
+        <v>1</v>
+      </c>
+      <c r="T83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>154</v>
       </c>
       <c r="B84" t="s">
-        <v>294</v>
+        <v>231</v>
+      </c>
+      <c r="C84" t="s">
+        <v>185</v>
       </c>
       <c r="D84" t="s">
-        <v>295</v>
+        <v>232</v>
       </c>
       <c r="E84" t="s">
-        <v>296</v>
+        <v>233</v>
+      </c>
+      <c r="F84" t="s">
+        <v>234</v>
       </c>
       <c r="G84" t="s">
-        <v>503</v>
+        <v>488</v>
       </c>
       <c r="H84" t="s">
-        <v>578</v>
-      </c>
-      <c r="M84">
-        <v>1</v>
-      </c>
-      <c r="R84">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.2">
+        <v>563</v>
+      </c>
+      <c r="L84">
+        <v>1</v>
+      </c>
+      <c r="N84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>154</v>
       </c>
       <c r="B85" t="s">
-        <v>297</v>
+        <v>235</v>
       </c>
       <c r="C85" t="s">
-        <v>298</v>
+        <v>168</v>
       </c>
       <c r="D85" t="s">
-        <v>299</v>
+        <v>236</v>
       </c>
       <c r="E85" t="s">
-        <v>300</v>
-      </c>
-      <c r="F85" t="s">
-        <v>301</v>
+        <v>237</v>
       </c>
       <c r="G85" t="s">
-        <v>504</v>
+        <v>489</v>
       </c>
       <c r="H85" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.2">
+        <v>564</v>
+      </c>
+      <c r="R85">
+        <v>1</v>
+      </c>
+      <c r="T85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>154</v>
       </c>
       <c r="B86" t="s">
-        <v>302</v>
+        <v>238</v>
       </c>
       <c r="C86" t="s">
+        <v>185</v>
+      </c>
+      <c r="D86" t="s">
+        <v>239</v>
+      </c>
+      <c r="E86" t="s">
+        <v>240</v>
+      </c>
+      <c r="F86" t="s">
+        <v>241</v>
+      </c>
+      <c r="G86" t="s">
+        <v>490</v>
+      </c>
+      <c r="H86" t="s">
+        <v>565</v>
+      </c>
+      <c r="N86">
+        <v>1</v>
+      </c>
+      <c r="O86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>154</v>
+      </c>
+      <c r="B87" t="s">
+        <v>242</v>
+      </c>
+      <c r="C87" t="s">
+        <v>243</v>
+      </c>
+      <c r="D87" t="s">
+        <v>244</v>
+      </c>
+      <c r="E87" t="s">
+        <v>245</v>
+      </c>
+      <c r="G87" t="s">
+        <v>491</v>
+      </c>
+      <c r="H87" t="s">
+        <v>566</v>
+      </c>
+      <c r="M87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>154</v>
+      </c>
+      <c r="B88" t="s">
+        <v>246</v>
+      </c>
+      <c r="C88" t="s">
+        <v>185</v>
+      </c>
+      <c r="D88" t="s">
+        <v>247</v>
+      </c>
+      <c r="E88" t="s">
+        <v>248</v>
+      </c>
+      <c r="F88" t="s">
+        <v>249</v>
+      </c>
+      <c r="G88" t="s">
+        <v>492</v>
+      </c>
+      <c r="H88" t="s">
+        <v>567</v>
+      </c>
+      <c r="R88">
+        <v>1</v>
+      </c>
+      <c r="T88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>154</v>
+      </c>
+      <c r="B89" t="s">
+        <v>250</v>
+      </c>
+      <c r="C89" t="s">
+        <v>251</v>
+      </c>
+      <c r="D89" t="s">
+        <v>252</v>
+      </c>
+      <c r="E89" t="s">
+        <v>253</v>
+      </c>
+      <c r="F89" t="s">
+        <v>254</v>
+      </c>
+      <c r="G89" t="s">
+        <v>493</v>
+      </c>
+      <c r="H89" t="s">
+        <v>568</v>
+      </c>
+      <c r="O89">
+        <v>1</v>
+      </c>
+      <c r="R89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>154</v>
+      </c>
+      <c r="B90" t="s">
+        <v>255</v>
+      </c>
+      <c r="C90" t="s">
         <v>168</v>
       </c>
-      <c r="D86" t="s">
-        <v>303</v>
-      </c>
-      <c r="E86" t="s">
-        <v>304</v>
-      </c>
-      <c r="F86" t="s">
-        <v>305</v>
-      </c>
-      <c r="G86" t="s">
-        <v>505</v>
-      </c>
-      <c r="H86" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A87" t="s">
-        <v>154</v>
-      </c>
-      <c r="B87" t="s">
-        <v>306</v>
-      </c>
-      <c r="D87" t="s">
-        <v>307</v>
-      </c>
-      <c r="E87" t="s">
-        <v>308</v>
-      </c>
-      <c r="G87" t="s">
-        <v>506</v>
-      </c>
-      <c r="H87" t="s">
-        <v>581</v>
-      </c>
-      <c r="J87">
-        <v>1</v>
-      </c>
-      <c r="M87">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A88" t="s">
-        <v>154</v>
-      </c>
-      <c r="B88" t="s">
-        <v>309</v>
-      </c>
-      <c r="D88" t="s">
-        <v>310</v>
-      </c>
-      <c r="E88" t="s">
-        <v>311</v>
-      </c>
-      <c r="G88" t="s">
-        <v>507</v>
-      </c>
-      <c r="H88" t="s">
-        <v>582</v>
-      </c>
-      <c r="M88">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A89" t="s">
-        <v>154</v>
-      </c>
-      <c r="B89" t="s">
-        <v>312</v>
-      </c>
-      <c r="C89" t="s">
-        <v>185</v>
-      </c>
-      <c r="D89" t="s">
-        <v>471</v>
-      </c>
-      <c r="E89" t="s">
-        <v>313</v>
-      </c>
-      <c r="F89" t="s">
-        <v>314</v>
-      </c>
-      <c r="G89" t="s">
-        <v>508</v>
-      </c>
-      <c r="H89" t="s">
-        <v>583</v>
-      </c>
-      <c r="M89">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A90" t="s">
-        <v>154</v>
-      </c>
-      <c r="B90" t="s">
-        <v>315</v>
-      </c>
-      <c r="C90" t="s">
-        <v>185</v>
-      </c>
       <c r="D90" t="s">
-        <v>316</v>
+        <v>260</v>
       </c>
       <c r="E90" t="s">
-        <v>317</v>
+        <v>256</v>
       </c>
       <c r="F90" t="s">
-        <v>318</v>
+        <v>257</v>
       </c>
       <c r="G90" t="s">
-        <v>509</v>
+        <v>494</v>
       </c>
       <c r="H90" t="s">
-        <v>584</v>
-      </c>
-      <c r="M90">
-        <v>1</v>
-      </c>
-      <c r="N90">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.2">
+        <v>569</v>
+      </c>
+      <c r="Q90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>154</v>
       </c>
       <c r="B91" t="s">
-        <v>319</v>
+        <v>262</v>
       </c>
       <c r="C91" t="s">
         <v>168</v>
       </c>
       <c r="D91" t="s">
-        <v>320</v>
+        <v>263</v>
       </c>
       <c r="E91" t="s">
-        <v>321</v>
+        <v>264</v>
       </c>
       <c r="F91" t="s">
-        <v>322</v>
+        <v>265</v>
       </c>
       <c r="G91" t="s">
-        <v>510</v>
+        <v>495</v>
       </c>
       <c r="H91" t="s">
-        <v>585</v>
-      </c>
-      <c r="M91">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.2">
+        <v>570</v>
+      </c>
+      <c r="L91">
+        <v>1</v>
+      </c>
+      <c r="R91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>154</v>
       </c>
       <c r="B92" t="s">
-        <v>323</v>
+        <v>266</v>
       </c>
       <c r="C92" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="D92" t="s">
-        <v>324</v>
+        <v>267</v>
       </c>
       <c r="E92" t="s">
-        <v>325</v>
-      </c>
-      <c r="F92" t="s">
-        <v>326</v>
+        <v>268</v>
       </c>
       <c r="G92" t="s">
-        <v>511</v>
+        <v>496</v>
       </c>
       <c r="H92" t="s">
-        <v>586</v>
-      </c>
-      <c r="M92">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.2">
+        <v>571</v>
+      </c>
+      <c r="Q92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>154</v>
       </c>
       <c r="B93" t="s">
-        <v>327</v>
+        <v>269</v>
       </c>
       <c r="C93" t="s">
         <v>185</v>
       </c>
       <c r="D93" t="s">
+        <v>270</v>
+      </c>
+      <c r="E93" t="s">
+        <v>271</v>
+      </c>
+      <c r="F93" t="s">
+        <v>272</v>
+      </c>
+      <c r="G93" t="s">
+        <v>497</v>
+      </c>
+      <c r="H93" t="s">
+        <v>572</v>
+      </c>
+      <c r="L93">
+        <v>1</v>
+      </c>
+      <c r="Q93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>154</v>
+      </c>
+      <c r="B94" t="s">
+        <v>273</v>
+      </c>
+      <c r="C94" t="s">
+        <v>357</v>
+      </c>
+      <c r="D94" t="s">
+        <v>275</v>
+      </c>
+      <c r="E94" t="s">
+        <v>359</v>
+      </c>
+      <c r="F94" t="s">
+        <v>274</v>
+      </c>
+      <c r="G94" t="s">
+        <v>498</v>
+      </c>
+      <c r="H94" t="s">
+        <v>573</v>
+      </c>
+      <c r="M94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>154</v>
+      </c>
+      <c r="B95" t="s">
+        <v>276</v>
+      </c>
+      <c r="C95" t="s">
+        <v>191</v>
+      </c>
+      <c r="D95" t="s">
+        <v>277</v>
+      </c>
+      <c r="E95" t="s">
+        <v>278</v>
+      </c>
+      <c r="F95" t="s">
+        <v>279</v>
+      </c>
+      <c r="G95" t="s">
+        <v>499</v>
+      </c>
+      <c r="H95" t="s">
+        <v>574</v>
+      </c>
+      <c r="M95">
+        <v>1</v>
+      </c>
+      <c r="N95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>154</v>
+      </c>
+      <c r="B96" t="s">
+        <v>280</v>
+      </c>
+      <c r="C96" t="s">
+        <v>168</v>
+      </c>
+      <c r="D96" t="s">
+        <v>281</v>
+      </c>
+      <c r="E96" t="s">
+        <v>282</v>
+      </c>
+      <c r="F96" t="s">
+        <v>283</v>
+      </c>
+      <c r="G96" t="s">
+        <v>500</v>
+      </c>
+      <c r="H96" t="s">
+        <v>575</v>
+      </c>
+      <c r="M96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>154</v>
+      </c>
+      <c r="B97" t="s">
+        <v>284</v>
+      </c>
+      <c r="C97" t="s">
+        <v>168</v>
+      </c>
+      <c r="D97" t="s">
+        <v>285</v>
+      </c>
+      <c r="E97" t="s">
+        <v>287</v>
+      </c>
+      <c r="F97" t="s">
+        <v>286</v>
+      </c>
+      <c r="G97" t="s">
+        <v>501</v>
+      </c>
+      <c r="H97" t="s">
+        <v>576</v>
+      </c>
+      <c r="M97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>154</v>
+      </c>
+      <c r="B98" t="s">
+        <v>288</v>
+      </c>
+      <c r="C98" t="s">
+        <v>289</v>
+      </c>
+      <c r="D98" t="s">
+        <v>291</v>
+      </c>
+      <c r="E98" t="s">
+        <v>292</v>
+      </c>
+      <c r="F98" t="s">
+        <v>293</v>
+      </c>
+      <c r="G98" t="s">
+        <v>502</v>
+      </c>
+      <c r="H98" t="s">
+        <v>577</v>
+      </c>
+      <c r="M98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>154</v>
+      </c>
+      <c r="B99" t="s">
+        <v>294</v>
+      </c>
+      <c r="D99" t="s">
+        <v>295</v>
+      </c>
+      <c r="E99" t="s">
+        <v>296</v>
+      </c>
+      <c r="G99" t="s">
+        <v>503</v>
+      </c>
+      <c r="H99" t="s">
+        <v>578</v>
+      </c>
+      <c r="M99">
+        <v>1</v>
+      </c>
+      <c r="R99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>154</v>
+      </c>
+      <c r="B100" t="s">
+        <v>297</v>
+      </c>
+      <c r="C100" t="s">
+        <v>298</v>
+      </c>
+      <c r="D100" t="s">
+        <v>299</v>
+      </c>
+      <c r="E100" t="s">
+        <v>300</v>
+      </c>
+      <c r="F100" t="s">
+        <v>301</v>
+      </c>
+      <c r="G100" t="s">
+        <v>504</v>
+      </c>
+      <c r="H100" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="101" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>154</v>
+      </c>
+      <c r="B101" t="s">
+        <v>302</v>
+      </c>
+      <c r="C101" t="s">
+        <v>168</v>
+      </c>
+      <c r="D101" t="s">
+        <v>303</v>
+      </c>
+      <c r="E101" t="s">
+        <v>304</v>
+      </c>
+      <c r="F101" t="s">
+        <v>305</v>
+      </c>
+      <c r="G101" t="s">
+        <v>505</v>
+      </c>
+      <c r="H101" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="102" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>154</v>
+      </c>
+      <c r="B102" t="s">
+        <v>306</v>
+      </c>
+      <c r="D102" t="s">
+        <v>307</v>
+      </c>
+      <c r="E102" t="s">
+        <v>308</v>
+      </c>
+      <c r="G102" t="s">
+        <v>506</v>
+      </c>
+      <c r="H102" t="s">
+        <v>581</v>
+      </c>
+      <c r="J102">
+        <v>1</v>
+      </c>
+      <c r="M102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>154</v>
+      </c>
+      <c r="B103" t="s">
+        <v>309</v>
+      </c>
+      <c r="D103" t="s">
+        <v>310</v>
+      </c>
+      <c r="E103" t="s">
+        <v>311</v>
+      </c>
+      <c r="G103" t="s">
+        <v>507</v>
+      </c>
+      <c r="H103" t="s">
+        <v>582</v>
+      </c>
+      <c r="M103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>154</v>
+      </c>
+      <c r="B104" t="s">
+        <v>312</v>
+      </c>
+      <c r="C104" t="s">
+        <v>185</v>
+      </c>
+      <c r="D104" t="s">
+        <v>471</v>
+      </c>
+      <c r="E104" t="s">
+        <v>313</v>
+      </c>
+      <c r="F104" t="s">
+        <v>314</v>
+      </c>
+      <c r="G104" t="s">
+        <v>508</v>
+      </c>
+      <c r="H104" t="s">
+        <v>583</v>
+      </c>
+      <c r="M104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>154</v>
+      </c>
+      <c r="B105" t="s">
+        <v>315</v>
+      </c>
+      <c r="C105" t="s">
+        <v>185</v>
+      </c>
+      <c r="D105" t="s">
+        <v>316</v>
+      </c>
+      <c r="E105" t="s">
+        <v>317</v>
+      </c>
+      <c r="F105" t="s">
+        <v>318</v>
+      </c>
+      <c r="G105" t="s">
+        <v>509</v>
+      </c>
+      <c r="H105" t="s">
+        <v>584</v>
+      </c>
+      <c r="M105">
+        <v>1</v>
+      </c>
+      <c r="N105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>154</v>
+      </c>
+      <c r="B106" t="s">
+        <v>319</v>
+      </c>
+      <c r="C106" t="s">
+        <v>168</v>
+      </c>
+      <c r="D106" t="s">
+        <v>320</v>
+      </c>
+      <c r="E106" t="s">
+        <v>321</v>
+      </c>
+      <c r="F106" t="s">
+        <v>322</v>
+      </c>
+      <c r="G106" t="s">
+        <v>510</v>
+      </c>
+      <c r="H106" t="s">
+        <v>585</v>
+      </c>
+      <c r="M106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>154</v>
+      </c>
+      <c r="B107" t="s">
+        <v>323</v>
+      </c>
+      <c r="C107" t="s">
+        <v>205</v>
+      </c>
+      <c r="D107" t="s">
+        <v>324</v>
+      </c>
+      <c r="E107" t="s">
+        <v>325</v>
+      </c>
+      <c r="F107" t="s">
+        <v>326</v>
+      </c>
+      <c r="G107" t="s">
+        <v>511</v>
+      </c>
+      <c r="H107" t="s">
+        <v>586</v>
+      </c>
+      <c r="M107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>154</v>
+      </c>
+      <c r="B108" t="s">
+        <v>327</v>
+      </c>
+      <c r="C108" t="s">
+        <v>185</v>
+      </c>
+      <c r="D108" t="s">
         <v>472</v>
       </c>
-      <c r="E93" t="s">
+      <c r="E108" t="s">
         <v>328</v>
       </c>
-      <c r="F93" t="s">
+      <c r="F108" t="s">
         <v>329</v>
       </c>
-      <c r="G93" t="s">
+      <c r="G108" t="s">
         <v>512</v>
       </c>
-      <c r="H93" t="s">
+      <c r="H108" t="s">
         <v>587</v>
       </c>
-      <c r="M93">
-        <v>1</v>
-      </c>
-      <c r="S93">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A94" t="s">
-        <v>154</v>
-      </c>
-      <c r="B94" t="s">
+      <c r="M108">
+        <v>1</v>
+      </c>
+      <c r="S108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>154</v>
+      </c>
+      <c r="B109" t="s">
         <v>330</v>
       </c>
-      <c r="C94" t="s">
+      <c r="C109" t="s">
         <v>185</v>
       </c>
-      <c r="D94" t="s">
+      <c r="D109" t="s">
         <v>331</v>
       </c>
-      <c r="E94" t="s">
+      <c r="E109" t="s">
         <v>332</v>
       </c>
-      <c r="F94" t="s">
+      <c r="F109" t="s">
         <v>333</v>
       </c>
-      <c r="G94" t="s">
+      <c r="G109" t="s">
         <v>513</v>
       </c>
-      <c r="H94" t="s">
+      <c r="H109" t="s">
         <v>588</v>
       </c>
-      <c r="N94">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A95" t="s">
-        <v>154</v>
-      </c>
-      <c r="B95" t="s">
+      <c r="N109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>154</v>
+      </c>
+      <c r="B110" t="s">
         <v>334</v>
       </c>
-      <c r="C95" t="s">
+      <c r="C110" t="s">
         <v>360</v>
       </c>
-      <c r="D95" t="s">
+      <c r="D110" t="s">
         <v>335</v>
       </c>
-      <c r="E95" t="s">
+      <c r="E110" t="s">
         <v>336</v>
       </c>
-      <c r="F95" t="s">
+      <c r="F110" t="s">
         <v>337</v>
       </c>
-      <c r="G95" t="s">
+      <c r="G110" t="s">
         <v>514</v>
       </c>
-      <c r="H95" t="s">
+      <c r="H110" t="s">
         <v>589</v>
       </c>
-      <c r="L95">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A96" t="s">
-        <v>154</v>
-      </c>
-      <c r="B96" t="s">
+      <c r="L110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>154</v>
+      </c>
+      <c r="B111" t="s">
         <v>338</v>
       </c>
-      <c r="C96" t="s">
+      <c r="C111" t="s">
         <v>191</v>
       </c>
-      <c r="D96" t="s">
+      <c r="D111" t="s">
         <v>339</v>
       </c>
-      <c r="E96" t="s">
+      <c r="E111" t="s">
         <v>341</v>
       </c>
-      <c r="F96" t="s">
+      <c r="F111" t="s">
         <v>340</v>
       </c>
-      <c r="G96" t="s">
+      <c r="G111" t="s">
         <v>515</v>
       </c>
-      <c r="H96" t="s">
+      <c r="H111" t="s">
         <v>590</v>
       </c>
-      <c r="M96">
-        <v>1</v>
-      </c>
-      <c r="P96">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A97" t="s">
-        <v>154</v>
-      </c>
-      <c r="B97" t="s">
+      <c r="M111">
+        <v>1</v>
+      </c>
+      <c r="P111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>154</v>
+      </c>
+      <c r="B112" t="s">
         <v>342</v>
       </c>
-      <c r="C97" t="s">
+      <c r="C112" t="s">
         <v>343</v>
       </c>
-      <c r="D97" t="s">
+      <c r="D112" t="s">
         <v>344</v>
       </c>
-      <c r="E97" t="s">
+      <c r="E112" t="s">
         <v>345</v>
       </c>
-      <c r="F97" t="s">
+      <c r="F112" t="s">
         <v>346</v>
       </c>
-      <c r="G97" t="s">
+      <c r="G112" t="s">
         <v>516</v>
       </c>
-      <c r="H97" t="s">
+      <c r="H112" t="s">
         <v>591</v>
-      </c>
-      <c r="M97">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A98" t="s">
-        <v>154</v>
-      </c>
-      <c r="B98" t="s">
-        <v>347</v>
-      </c>
-      <c r="C98" t="s">
-        <v>209</v>
-      </c>
-      <c r="D98" t="s">
-        <v>348</v>
-      </c>
-      <c r="E98" t="s">
-        <v>349</v>
-      </c>
-      <c r="F98" t="s">
-        <v>350</v>
-      </c>
-      <c r="G98" t="s">
-        <v>517</v>
-      </c>
-      <c r="H98" t="s">
-        <v>592</v>
-      </c>
-      <c r="I98">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A99" t="s">
-        <v>154</v>
-      </c>
-      <c r="B99" t="s">
-        <v>351</v>
-      </c>
-      <c r="C99" t="s">
-        <v>352</v>
-      </c>
-      <c r="D99" t="s">
-        <v>353</v>
-      </c>
-      <c r="E99" t="s">
-        <v>354</v>
-      </c>
-      <c r="F99" t="s">
-        <v>355</v>
-      </c>
-      <c r="G99" t="s">
-        <v>518</v>
-      </c>
-      <c r="H99" t="s">
-        <v>593</v>
-      </c>
-      <c r="O99">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A100" t="s">
-        <v>154</v>
-      </c>
-      <c r="B100" t="s">
-        <v>356</v>
-      </c>
-      <c r="C100" t="s">
-        <v>360</v>
-      </c>
-      <c r="D100" t="s">
-        <v>361</v>
-      </c>
-      <c r="E100" t="s">
-        <v>362</v>
-      </c>
-      <c r="F100" t="s">
-        <v>363</v>
-      </c>
-      <c r="G100" t="s">
-        <v>519</v>
-      </c>
-      <c r="H100" t="s">
-        <v>594</v>
-      </c>
-      <c r="O100">
-        <v>1</v>
-      </c>
-      <c r="R100">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A101" t="s">
-        <v>154</v>
-      </c>
-      <c r="B101" t="s">
-        <v>365</v>
-      </c>
-      <c r="D101" t="s">
-        <v>473</v>
-      </c>
-      <c r="E101" t="s">
-        <v>364</v>
-      </c>
-      <c r="F101" t="s">
-        <v>366</v>
-      </c>
-      <c r="G101" t="s">
-        <v>520</v>
-      </c>
-      <c r="H101" t="s">
-        <v>595</v>
-      </c>
-      <c r="O101">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A102" t="s">
-        <v>154</v>
-      </c>
-      <c r="B102" t="s">
-        <v>367</v>
-      </c>
-      <c r="C102" t="s">
-        <v>185</v>
-      </c>
-      <c r="D102" t="s">
-        <v>368</v>
-      </c>
-      <c r="E102" t="s">
-        <v>369</v>
-      </c>
-      <c r="G102" t="s">
-        <v>521</v>
-      </c>
-      <c r="H102" t="s">
-        <v>596</v>
-      </c>
-      <c r="K102">
-        <v>1</v>
-      </c>
-      <c r="O102">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="103" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A103" t="s">
-        <v>154</v>
-      </c>
-      <c r="B103" t="s">
-        <v>370</v>
-      </c>
-      <c r="C103" t="s">
-        <v>205</v>
-      </c>
-      <c r="D103" t="s">
-        <v>371</v>
-      </c>
-      <c r="E103" t="s">
-        <v>372</v>
-      </c>
-      <c r="F103" t="s">
-        <v>373</v>
-      </c>
-      <c r="G103" t="s">
-        <v>522</v>
-      </c>
-      <c r="H103" t="s">
-        <v>597</v>
-      </c>
-      <c r="O103">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="104" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A104" t="s">
-        <v>154</v>
-      </c>
-      <c r="B104" t="s">
-        <v>374</v>
-      </c>
-      <c r="C104" t="s">
-        <v>191</v>
-      </c>
-      <c r="D104" t="s">
-        <v>375</v>
-      </c>
-      <c r="E104" t="s">
-        <v>376</v>
-      </c>
-      <c r="G104" t="s">
-        <v>523</v>
-      </c>
-      <c r="H104" t="s">
-        <v>598</v>
-      </c>
-      <c r="M104">
-        <v>1</v>
-      </c>
-      <c r="O104">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="105" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A105" t="s">
-        <v>154</v>
-      </c>
-      <c r="B105" t="s">
-        <v>377</v>
-      </c>
-      <c r="C105" t="s">
-        <v>191</v>
-      </c>
-      <c r="D105" t="s">
-        <v>378</v>
-      </c>
-      <c r="E105" t="s">
-        <v>379</v>
-      </c>
-      <c r="F105" t="s">
-        <v>380</v>
-      </c>
-      <c r="G105" t="s">
-        <v>524</v>
-      </c>
-      <c r="H105" t="s">
-        <v>599</v>
-      </c>
-      <c r="O105">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A106" t="s">
-        <v>154</v>
-      </c>
-      <c r="B106" t="s">
-        <v>381</v>
-      </c>
-      <c r="C106" t="s">
-        <v>185</v>
-      </c>
-      <c r="D106" t="s">
-        <v>382</v>
-      </c>
-      <c r="E106" t="s">
-        <v>383</v>
-      </c>
-      <c r="F106" t="s">
-        <v>384</v>
-      </c>
-      <c r="G106" t="s">
-        <v>525</v>
-      </c>
-      <c r="H106" t="s">
-        <v>600</v>
-      </c>
-      <c r="O106">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="107" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A107" t="s">
-        <v>154</v>
-      </c>
-      <c r="B107" t="s">
-        <v>385</v>
-      </c>
-      <c r="C107" t="s">
-        <v>185</v>
-      </c>
-      <c r="D107" t="s">
-        <v>386</v>
-      </c>
-      <c r="E107" t="s">
-        <v>387</v>
-      </c>
-      <c r="F107" t="s">
-        <v>388</v>
-      </c>
-      <c r="G107" t="s">
-        <v>526</v>
-      </c>
-      <c r="H107" t="s">
-        <v>601</v>
-      </c>
-      <c r="M107">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A108" t="s">
-        <v>154</v>
-      </c>
-      <c r="B108" t="s">
-        <v>389</v>
-      </c>
-      <c r="C108" t="s">
-        <v>168</v>
-      </c>
-      <c r="D108" t="s">
-        <v>390</v>
-      </c>
-      <c r="E108" t="s">
-        <v>391</v>
-      </c>
-      <c r="G108" t="s">
-        <v>527</v>
-      </c>
-      <c r="H108" t="s">
-        <v>602</v>
-      </c>
-      <c r="I108">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A109" t="s">
-        <v>154</v>
-      </c>
-      <c r="B109" t="s">
-        <v>392</v>
-      </c>
-      <c r="C109" t="s">
-        <v>289</v>
-      </c>
-      <c r="D109" t="s">
-        <v>393</v>
-      </c>
-      <c r="E109" t="s">
-        <v>394</v>
-      </c>
-      <c r="F109" t="s">
-        <v>395</v>
-      </c>
-      <c r="G109" t="s">
-        <v>528</v>
-      </c>
-      <c r="H109" t="s">
-        <v>603</v>
-      </c>
-      <c r="I109">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="110" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A110" t="s">
-        <v>154</v>
-      </c>
-      <c r="B110" t="s">
-        <v>397</v>
-      </c>
-      <c r="C110" t="s">
-        <v>398</v>
-      </c>
-      <c r="D110" t="s">
-        <v>399</v>
-      </c>
-      <c r="E110" t="s">
-        <v>396</v>
-      </c>
-      <c r="G110" t="s">
-        <v>529</v>
-      </c>
-      <c r="H110" t="s">
-        <v>604</v>
-      </c>
-      <c r="I110">
-        <v>1</v>
-      </c>
-      <c r="J110">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A111" t="s">
-        <v>154</v>
-      </c>
-      <c r="B111" t="s">
-        <v>400</v>
-      </c>
-      <c r="D111" t="s">
-        <v>401</v>
-      </c>
-      <c r="E111" t="s">
-        <v>403</v>
-      </c>
-      <c r="F111" t="s">
-        <v>402</v>
-      </c>
-      <c r="G111" t="s">
-        <v>530</v>
-      </c>
-      <c r="H111" t="s">
-        <v>605</v>
-      </c>
-      <c r="M111">
-        <v>1</v>
-      </c>
-      <c r="T111">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="112" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A112" t="s">
-        <v>154</v>
-      </c>
-      <c r="B112" t="s">
-        <v>404</v>
-      </c>
-      <c r="C112" t="s">
-        <v>289</v>
-      </c>
-      <c r="D112" t="s">
-        <v>405</v>
-      </c>
-      <c r="E112" t="s">
-        <v>406</v>
-      </c>
-      <c r="F112" t="s">
-        <v>407</v>
-      </c>
-      <c r="G112" t="s">
-        <v>531</v>
-      </c>
-      <c r="H112" t="s">
-        <v>606</v>
       </c>
       <c r="M112">
         <v>1</v>
@@ -6414,27 +6646,27 @@
         <v>154</v>
       </c>
       <c r="B113" t="s">
-        <v>408</v>
+        <v>347</v>
+      </c>
+      <c r="C113" t="s">
+        <v>209</v>
       </c>
       <c r="D113" t="s">
-        <v>409</v>
+        <v>348</v>
       </c>
       <c r="E113" t="s">
-        <v>410</v>
+        <v>349</v>
       </c>
       <c r="F113" t="s">
-        <v>410</v>
+        <v>350</v>
       </c>
       <c r="G113" t="s">
-        <v>532</v>
+        <v>517</v>
       </c>
       <c r="H113" t="s">
-        <v>607</v>
-      </c>
-      <c r="J113">
-        <v>1</v>
-      </c>
-      <c r="L113">
+        <v>592</v>
+      </c>
+      <c r="I113">
         <v>1</v>
       </c>
     </row>
@@ -6443,27 +6675,27 @@
         <v>154</v>
       </c>
       <c r="B114" t="s">
-        <v>411</v>
+        <v>351</v>
       </c>
       <c r="C114" t="s">
-        <v>289</v>
+        <v>352</v>
       </c>
       <c r="D114" t="s">
-        <v>412</v>
+        <v>353</v>
       </c>
       <c r="E114" t="s">
-        <v>413</v>
+        <v>354</v>
+      </c>
+      <c r="F114" t="s">
+        <v>355</v>
       </c>
       <c r="G114" t="s">
-        <v>533</v>
+        <v>518</v>
       </c>
       <c r="H114" t="s">
-        <v>608</v>
-      </c>
-      <c r="L114">
-        <v>1</v>
-      </c>
-      <c r="R114">
+        <v>593</v>
+      </c>
+      <c r="O114">
         <v>1</v>
       </c>
     </row>
@@ -6472,33 +6704,30 @@
         <v>154</v>
       </c>
       <c r="B115" t="s">
-        <v>414</v>
+        <v>356</v>
       </c>
       <c r="C115" t="s">
-        <v>289</v>
+        <v>360</v>
       </c>
       <c r="D115" t="s">
-        <v>415</v>
+        <v>361</v>
       </c>
       <c r="E115" t="s">
-        <v>416</v>
+        <v>362</v>
       </c>
       <c r="F115" t="s">
-        <v>417</v>
+        <v>363</v>
       </c>
       <c r="G115" t="s">
-        <v>534</v>
+        <v>519</v>
       </c>
       <c r="H115" t="s">
-        <v>609</v>
-      </c>
-      <c r="L115">
-        <v>1</v>
+        <v>594</v>
       </c>
       <c r="O115">
         <v>1</v>
       </c>
-      <c r="T115">
+      <c r="R115">
         <v>1</v>
       </c>
     </row>
@@ -6507,30 +6736,24 @@
         <v>154</v>
       </c>
       <c r="B116" t="s">
-        <v>418</v>
-      </c>
-      <c r="C116" t="s">
-        <v>343</v>
+        <v>365</v>
       </c>
       <c r="D116" t="s">
-        <v>419</v>
+        <v>473</v>
       </c>
       <c r="E116" t="s">
-        <v>624</v>
+        <v>364</v>
+      </c>
+      <c r="F116" t="s">
+        <v>366</v>
       </c>
       <c r="G116" t="s">
-        <v>535</v>
+        <v>520</v>
       </c>
       <c r="H116" t="s">
-        <v>610</v>
-      </c>
-      <c r="J116">
-        <v>1</v>
-      </c>
-      <c r="P116">
-        <v>1</v>
-      </c>
-      <c r="S116">
+        <v>595</v>
+      </c>
+      <c r="O116">
         <v>1</v>
       </c>
     </row>
@@ -6539,27 +6762,27 @@
         <v>154</v>
       </c>
       <c r="B117" t="s">
-        <v>420</v>
+        <v>367</v>
       </c>
       <c r="C117" t="s">
         <v>185</v>
       </c>
       <c r="D117" t="s">
-        <v>421</v>
+        <v>368</v>
       </c>
       <c r="E117" t="s">
-        <v>422</v>
-      </c>
-      <c r="F117" t="s">
-        <v>423</v>
+        <v>369</v>
       </c>
       <c r="G117" t="s">
-        <v>536</v>
+        <v>521</v>
       </c>
       <c r="H117" t="s">
-        <v>611</v>
-      </c>
-      <c r="J117">
+        <v>596</v>
+      </c>
+      <c r="K117">
+        <v>1</v>
+      </c>
+      <c r="O117">
         <v>1</v>
       </c>
     </row>
@@ -6568,30 +6791,27 @@
         <v>154</v>
       </c>
       <c r="B118" t="s">
-        <v>427</v>
+        <v>370</v>
       </c>
       <c r="C118" t="s">
-        <v>191</v>
+        <v>205</v>
       </c>
       <c r="D118" t="s">
-        <v>426</v>
+        <v>371</v>
       </c>
       <c r="E118" t="s">
-        <v>424</v>
+        <v>372</v>
       </c>
       <c r="F118" t="s">
-        <v>425</v>
+        <v>373</v>
       </c>
       <c r="G118" t="s">
-        <v>537</v>
+        <v>522</v>
       </c>
       <c r="H118" t="s">
-        <v>612</v>
-      </c>
-      <c r="S118">
-        <v>1</v>
-      </c>
-      <c r="T118">
+        <v>597</v>
+      </c>
+      <c r="O118">
         <v>1</v>
       </c>
     </row>
@@ -6600,27 +6820,27 @@
         <v>154</v>
       </c>
       <c r="B119" t="s">
-        <v>428</v>
+        <v>374</v>
       </c>
       <c r="C119" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="D119" t="s">
-        <v>429</v>
+        <v>375</v>
       </c>
       <c r="E119" t="s">
-        <v>430</v>
-      </c>
-      <c r="F119" t="s">
-        <v>431</v>
+        <v>376</v>
       </c>
       <c r="G119" t="s">
-        <v>538</v>
+        <v>523</v>
       </c>
       <c r="H119" t="s">
-        <v>613</v>
-      </c>
-      <c r="J119">
+        <v>598</v>
+      </c>
+      <c r="M119">
+        <v>1</v>
+      </c>
+      <c r="O119">
         <v>1</v>
       </c>
     </row>
@@ -6629,33 +6849,27 @@
         <v>154</v>
       </c>
       <c r="B120" t="s">
-        <v>432</v>
+        <v>377</v>
       </c>
       <c r="C120" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="D120" t="s">
-        <v>433</v>
+        <v>378</v>
       </c>
       <c r="E120" t="s">
-        <v>434</v>
+        <v>379</v>
       </c>
       <c r="F120" t="s">
-        <v>435</v>
+        <v>380</v>
       </c>
       <c r="G120" t="s">
-        <v>539</v>
+        <v>524</v>
       </c>
       <c r="H120" t="s">
-        <v>614</v>
-      </c>
-      <c r="J120">
-        <v>1</v>
-      </c>
-      <c r="Q120">
-        <v>1</v>
-      </c>
-      <c r="R120">
+        <v>599</v>
+      </c>
+      <c r="O120">
         <v>1</v>
       </c>
     </row>
@@ -6664,27 +6878,27 @@
         <v>154</v>
       </c>
       <c r="B121" t="s">
-        <v>436</v>
+        <v>381</v>
       </c>
       <c r="C121" t="s">
-        <v>437</v>
+        <v>185</v>
       </c>
       <c r="D121" t="s">
-        <v>438</v>
+        <v>382</v>
       </c>
       <c r="E121" t="s">
-        <v>439</v>
+        <v>383</v>
+      </c>
+      <c r="F121" t="s">
+        <v>384</v>
       </c>
       <c r="G121" t="s">
-        <v>540</v>
+        <v>525</v>
       </c>
       <c r="H121" t="s">
-        <v>615</v>
-      </c>
-      <c r="I121">
-        <v>1</v>
-      </c>
-      <c r="M121">
+        <v>600</v>
+      </c>
+      <c r="O121">
         <v>1</v>
       </c>
     </row>
@@ -6693,27 +6907,27 @@
         <v>154</v>
       </c>
       <c r="B122" t="s">
-        <v>440</v>
+        <v>385</v>
       </c>
       <c r="C122" t="s">
-        <v>441</v>
+        <v>185</v>
       </c>
       <c r="D122" t="s">
-        <v>442</v>
+        <v>386</v>
       </c>
       <c r="E122" t="s">
-        <v>443</v>
+        <v>387</v>
       </c>
       <c r="F122" t="s">
-        <v>444</v>
+        <v>388</v>
       </c>
       <c r="G122" t="s">
-        <v>541</v>
+        <v>526</v>
       </c>
       <c r="H122" t="s">
-        <v>616</v>
-      </c>
-      <c r="P122">
+        <v>601</v>
+      </c>
+      <c r="M122">
         <v>1</v>
       </c>
     </row>
@@ -6722,27 +6936,24 @@
         <v>154</v>
       </c>
       <c r="B123" t="s">
-        <v>445</v>
+        <v>389</v>
       </c>
       <c r="C123" t="s">
-        <v>191</v>
+        <v>168</v>
       </c>
       <c r="D123" t="s">
-        <v>446</v>
+        <v>390</v>
       </c>
       <c r="E123" t="s">
-        <v>447</v>
-      </c>
-      <c r="F123" t="s">
-        <v>448</v>
+        <v>391</v>
       </c>
       <c r="G123" t="s">
-        <v>542</v>
+        <v>527</v>
       </c>
       <c r="H123" t="s">
-        <v>617</v>
-      </c>
-      <c r="K123">
+        <v>602</v>
+      </c>
+      <c r="I123">
         <v>1</v>
       </c>
     </row>
@@ -6751,27 +6962,27 @@
         <v>154</v>
       </c>
       <c r="B124" t="s">
-        <v>450</v>
+        <v>392</v>
       </c>
       <c r="C124" t="s">
-        <v>191</v>
+        <v>289</v>
       </c>
       <c r="D124" t="s">
-        <v>451</v>
+        <v>393</v>
       </c>
       <c r="E124" t="s">
-        <v>449</v>
+        <v>394</v>
       </c>
       <c r="F124" t="s">
-        <v>452</v>
+        <v>395</v>
       </c>
       <c r="G124" t="s">
-        <v>543</v>
+        <v>528</v>
       </c>
       <c r="H124" t="s">
-        <v>618</v>
-      </c>
-      <c r="N124">
+        <v>603</v>
+      </c>
+      <c r="I124">
         <v>1</v>
       </c>
     </row>
@@ -6780,27 +6991,27 @@
         <v>154</v>
       </c>
       <c r="B125" t="s">
-        <v>453</v>
+        <v>397</v>
       </c>
       <c r="C125" t="s">
-        <v>360</v>
+        <v>398</v>
       </c>
       <c r="D125" t="s">
-        <v>454</v>
+        <v>399</v>
       </c>
       <c r="E125" t="s">
-        <v>455</v>
-      </c>
-      <c r="F125" t="s">
-        <v>456</v>
+        <v>396</v>
       </c>
       <c r="G125" t="s">
-        <v>544</v>
+        <v>529</v>
       </c>
       <c r="H125" t="s">
-        <v>619</v>
-      </c>
-      <c r="N125">
+        <v>604</v>
+      </c>
+      <c r="I125">
+        <v>1</v>
+      </c>
+      <c r="J125">
         <v>1</v>
       </c>
     </row>
@@ -6809,24 +7020,27 @@
         <v>154</v>
       </c>
       <c r="B126" t="s">
-        <v>457</v>
-      </c>
-      <c r="C126" t="s">
-        <v>360</v>
+        <v>400</v>
       </c>
       <c r="D126" t="s">
-        <v>458</v>
+        <v>401</v>
       </c>
       <c r="E126" t="s">
-        <v>459</v>
+        <v>403</v>
+      </c>
+      <c r="F126" t="s">
+        <v>402</v>
       </c>
       <c r="G126" t="s">
-        <v>545</v>
+        <v>530</v>
       </c>
       <c r="H126" t="s">
-        <v>620</v>
-      </c>
-      <c r="N126">
+        <v>605</v>
+      </c>
+      <c r="M126">
+        <v>1</v>
+      </c>
+      <c r="T126">
         <v>1</v>
       </c>
     </row>
@@ -6835,28 +7049,25 @@
         <v>154</v>
       </c>
       <c r="B127" t="s">
-        <v>460</v>
+        <v>404</v>
       </c>
       <c r="C127" t="s">
-        <v>191</v>
+        <v>289</v>
       </c>
       <c r="D127" t="s">
-        <v>461</v>
+        <v>405</v>
       </c>
       <c r="E127" t="s">
-        <v>462</v>
+        <v>406</v>
       </c>
       <c r="F127" t="s">
-        <v>463</v>
+        <v>407</v>
       </c>
       <c r="G127" t="s">
-        <v>546</v>
+        <v>531</v>
       </c>
       <c r="H127" t="s">
-        <v>621</v>
-      </c>
-      <c r="I127">
-        <v>1</v>
+        <v>606</v>
       </c>
       <c r="M127">
         <v>1</v>
@@ -6867,106 +7078,559 @@
         <v>154</v>
       </c>
       <c r="B128" t="s">
+        <v>408</v>
+      </c>
+      <c r="D128" t="s">
+        <v>409</v>
+      </c>
+      <c r="E128" t="s">
+        <v>410</v>
+      </c>
+      <c r="F128" t="s">
+        <v>410</v>
+      </c>
+      <c r="G128" t="s">
+        <v>532</v>
+      </c>
+      <c r="H128" t="s">
+        <v>607</v>
+      </c>
+      <c r="J128">
+        <v>1</v>
+      </c>
+      <c r="L128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>154</v>
+      </c>
+      <c r="B129" t="s">
+        <v>411</v>
+      </c>
+      <c r="C129" t="s">
+        <v>289</v>
+      </c>
+      <c r="D129" t="s">
+        <v>412</v>
+      </c>
+      <c r="E129" t="s">
+        <v>413</v>
+      </c>
+      <c r="G129" t="s">
+        <v>533</v>
+      </c>
+      <c r="H129" t="s">
+        <v>608</v>
+      </c>
+      <c r="L129">
+        <v>1</v>
+      </c>
+      <c r="R129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>154</v>
+      </c>
+      <c r="B130" t="s">
+        <v>414</v>
+      </c>
+      <c r="C130" t="s">
+        <v>289</v>
+      </c>
+      <c r="D130" t="s">
+        <v>415</v>
+      </c>
+      <c r="E130" t="s">
+        <v>416</v>
+      </c>
+      <c r="F130" t="s">
+        <v>417</v>
+      </c>
+      <c r="G130" t="s">
+        <v>534</v>
+      </c>
+      <c r="H130" t="s">
+        <v>609</v>
+      </c>
+      <c r="L130">
+        <v>1</v>
+      </c>
+      <c r="O130">
+        <v>1</v>
+      </c>
+      <c r="T130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>154</v>
+      </c>
+      <c r="B131" t="s">
+        <v>418</v>
+      </c>
+      <c r="C131" t="s">
+        <v>343</v>
+      </c>
+      <c r="D131" t="s">
+        <v>419</v>
+      </c>
+      <c r="E131" t="s">
+        <v>624</v>
+      </c>
+      <c r="G131" t="s">
+        <v>535</v>
+      </c>
+      <c r="H131" t="s">
+        <v>610</v>
+      </c>
+      <c r="J131">
+        <v>1</v>
+      </c>
+      <c r="P131">
+        <v>1</v>
+      </c>
+      <c r="S131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>154</v>
+      </c>
+      <c r="B132" t="s">
+        <v>420</v>
+      </c>
+      <c r="C132" t="s">
+        <v>185</v>
+      </c>
+      <c r="D132" t="s">
+        <v>421</v>
+      </c>
+      <c r="E132" t="s">
+        <v>422</v>
+      </c>
+      <c r="F132" t="s">
+        <v>423</v>
+      </c>
+      <c r="G132" t="s">
+        <v>536</v>
+      </c>
+      <c r="H132" t="s">
+        <v>611</v>
+      </c>
+      <c r="J132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>154</v>
+      </c>
+      <c r="B133" t="s">
+        <v>427</v>
+      </c>
+      <c r="C133" t="s">
+        <v>191</v>
+      </c>
+      <c r="D133" t="s">
+        <v>426</v>
+      </c>
+      <c r="E133" t="s">
+        <v>424</v>
+      </c>
+      <c r="F133" t="s">
+        <v>425</v>
+      </c>
+      <c r="G133" t="s">
+        <v>537</v>
+      </c>
+      <c r="H133" t="s">
+        <v>612</v>
+      </c>
+      <c r="S133">
+        <v>1</v>
+      </c>
+      <c r="T133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>154</v>
+      </c>
+      <c r="B134" t="s">
+        <v>428</v>
+      </c>
+      <c r="C134" t="s">
+        <v>185</v>
+      </c>
+      <c r="D134" t="s">
+        <v>429</v>
+      </c>
+      <c r="E134" t="s">
+        <v>430</v>
+      </c>
+      <c r="F134" t="s">
+        <v>431</v>
+      </c>
+      <c r="G134" t="s">
+        <v>538</v>
+      </c>
+      <c r="H134" t="s">
+        <v>613</v>
+      </c>
+      <c r="J134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>154</v>
+      </c>
+      <c r="B135" t="s">
+        <v>432</v>
+      </c>
+      <c r="C135" t="s">
+        <v>196</v>
+      </c>
+      <c r="D135" t="s">
+        <v>433</v>
+      </c>
+      <c r="E135" t="s">
+        <v>434</v>
+      </c>
+      <c r="F135" t="s">
+        <v>435</v>
+      </c>
+      <c r="G135" t="s">
+        <v>539</v>
+      </c>
+      <c r="H135" t="s">
+        <v>614</v>
+      </c>
+      <c r="J135">
+        <v>1</v>
+      </c>
+      <c r="Q135">
+        <v>1</v>
+      </c>
+      <c r="R135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>154</v>
+      </c>
+      <c r="B136" t="s">
+        <v>436</v>
+      </c>
+      <c r="C136" t="s">
+        <v>437</v>
+      </c>
+      <c r="D136" t="s">
+        <v>438</v>
+      </c>
+      <c r="E136" t="s">
+        <v>439</v>
+      </c>
+      <c r="G136" t="s">
+        <v>540</v>
+      </c>
+      <c r="H136" t="s">
+        <v>615</v>
+      </c>
+      <c r="I136">
+        <v>1</v>
+      </c>
+      <c r="M136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>154</v>
+      </c>
+      <c r="B137" t="s">
+        <v>440</v>
+      </c>
+      <c r="C137" t="s">
+        <v>441</v>
+      </c>
+      <c r="D137" t="s">
+        <v>442</v>
+      </c>
+      <c r="E137" t="s">
+        <v>443</v>
+      </c>
+      <c r="F137" t="s">
+        <v>444</v>
+      </c>
+      <c r="G137" t="s">
+        <v>541</v>
+      </c>
+      <c r="H137" t="s">
+        <v>616</v>
+      </c>
+      <c r="P137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>154</v>
+      </c>
+      <c r="B138" t="s">
+        <v>445</v>
+      </c>
+      <c r="C138" t="s">
+        <v>191</v>
+      </c>
+      <c r="D138" t="s">
+        <v>446</v>
+      </c>
+      <c r="E138" t="s">
+        <v>447</v>
+      </c>
+      <c r="F138" t="s">
+        <v>448</v>
+      </c>
+      <c r="G138" t="s">
+        <v>542</v>
+      </c>
+      <c r="H138" t="s">
+        <v>617</v>
+      </c>
+      <c r="K138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>154</v>
+      </c>
+      <c r="B139" t="s">
+        <v>450</v>
+      </c>
+      <c r="C139" t="s">
+        <v>191</v>
+      </c>
+      <c r="D139" t="s">
+        <v>451</v>
+      </c>
+      <c r="E139" t="s">
+        <v>449</v>
+      </c>
+      <c r="F139" t="s">
+        <v>452</v>
+      </c>
+      <c r="G139" t="s">
+        <v>543</v>
+      </c>
+      <c r="H139" t="s">
+        <v>618</v>
+      </c>
+      <c r="N139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>154</v>
+      </c>
+      <c r="B140" t="s">
+        <v>453</v>
+      </c>
+      <c r="C140" t="s">
+        <v>360</v>
+      </c>
+      <c r="D140" t="s">
+        <v>454</v>
+      </c>
+      <c r="E140" t="s">
+        <v>455</v>
+      </c>
+      <c r="F140" t="s">
+        <v>456</v>
+      </c>
+      <c r="G140" t="s">
+        <v>544</v>
+      </c>
+      <c r="H140" t="s">
+        <v>619</v>
+      </c>
+      <c r="N140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>154</v>
+      </c>
+      <c r="B141" t="s">
+        <v>457</v>
+      </c>
+      <c r="C141" t="s">
+        <v>360</v>
+      </c>
+      <c r="D141" t="s">
+        <v>458</v>
+      </c>
+      <c r="E141" t="s">
+        <v>459</v>
+      </c>
+      <c r="G141" t="s">
+        <v>545</v>
+      </c>
+      <c r="H141" t="s">
+        <v>620</v>
+      </c>
+      <c r="N141">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>154</v>
+      </c>
+      <c r="B142" t="s">
+        <v>460</v>
+      </c>
+      <c r="C142" t="s">
+        <v>191</v>
+      </c>
+      <c r="D142" t="s">
+        <v>461</v>
+      </c>
+      <c r="E142" t="s">
+        <v>462</v>
+      </c>
+      <c r="F142" t="s">
+        <v>463</v>
+      </c>
+      <c r="G142" t="s">
+        <v>546</v>
+      </c>
+      <c r="H142" t="s">
+        <v>621</v>
+      </c>
+      <c r="I142">
+        <v>1</v>
+      </c>
+      <c r="M142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>154</v>
+      </c>
+      <c r="B143" t="s">
         <v>464</v>
       </c>
-      <c r="C128" t="s">
+      <c r="C143" t="s">
         <v>465</v>
       </c>
-      <c r="D128" t="s">
+      <c r="D143" t="s">
         <v>466</v>
       </c>
-      <c r="E128" t="s">
+      <c r="E143" t="s">
         <v>467</v>
       </c>
-      <c r="G128" t="s">
+      <c r="G143" t="s">
         <v>547</v>
       </c>
-      <c r="H128" t="s">
+      <c r="H143" t="s">
         <v>622</v>
       </c>
-      <c r="L128">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A129" t="s">
-        <v>154</v>
-      </c>
-      <c r="B129" t="s">
+      <c r="L143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>154</v>
+      </c>
+      <c r="B144" t="s">
         <v>468</v>
       </c>
-      <c r="D129" t="s">
+      <c r="D144" t="s">
         <v>469</v>
       </c>
-      <c r="E129" t="s">
+      <c r="E144" t="s">
         <v>470</v>
       </c>
-      <c r="G129" t="s">
+      <c r="G144" t="s">
         <v>548</v>
       </c>
-      <c r="H129" t="s">
+      <c r="H144" t="s">
         <v>623</v>
       </c>
-      <c r="L129">
+      <c r="L144">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B52" r:id="rId1" display="https://www.matthewtancik.com/nerf" xr:uid="{35967FB2-814A-154F-8541-7714319F096C}"/>
-    <hyperlink ref="B53" r:id="rId2" display="https://lingjie0206.github.io/papers/NSVF/" xr:uid="{F2DD4E80-7653-6B46-BE0A-8E826172F88C}"/>
-    <hyperlink ref="B54" r:id="rId3" display="http://www.computationalimaging.org/publications/automatic-integration/" xr:uid="{A28EC183-687F-8A46-9CA4-4A7708A6C750}"/>
-    <hyperlink ref="B55" r:id="rId4" display="https://arxiv.org/abs/2011.12490" xr:uid="{C5B06987-5C0D-E443-82C4-02F6431045D1}"/>
-    <hyperlink ref="B56" r:id="rId5" display="https://depthoraclenerf.github.io/" xr:uid="{3CEB0E14-63E6-574A-9FC6-2051AD0460B0}"/>
-    <hyperlink ref="B57" r:id="rId6" display="https://arxiv.org/abs/2103.10380" xr:uid="{EA18432D-CDAD-5D46-AB83-9539228413CB}"/>
-    <hyperlink ref="B58" r:id="rId7" display="https://arxiv.org/abs/2103.13744" xr:uid="{429A6E53-E8CB-BC4C-9538-A2470024449F}"/>
-    <hyperlink ref="B59" r:id="rId8" display="https://alexyu.net/plenoctrees/" xr:uid="{7DC25326-9D8E-8D47-A044-DD17F9ED0CD0}"/>
-    <hyperlink ref="B60" r:id="rId9" display="https://arxiv.org/abs/2103.01954" xr:uid="{A2FF4FE9-43D0-5F44-93A7-55BE57938D31}"/>
-    <hyperlink ref="B61" r:id="rId10" display="https://vsitzmann.github.io/lfns/" xr:uid="{F6597C48-9252-3349-B84C-D97A31F62416}"/>
-    <hyperlink ref="B62" r:id="rId11" display="https://arxiv.org/pdf/2107.02791.pdf" xr:uid="{4E32310C-E8E8-1445-9B6E-B1A0C6585A89}"/>
-    <hyperlink ref="B64" r:id="rId12" display="https://nerf-w.github.io/" xr:uid="{1C3AF7E4-0ED6-6341-ACDB-04910971A9DA}"/>
-    <hyperlink ref="B69" r:id="rId13" display="https://gvv.mpi-inf.mpg.de/projects/nonrigid_nerf/" xr:uid="{2DDCA2B8-C06B-604A-A893-ED7E083125F7}"/>
-    <hyperlink ref="B70" r:id="rId14" display="https://volumetric-avatars.github.io/" xr:uid="{B38221A4-28D3-EC48-BD13-F22F93351407}"/>
-    <hyperlink ref="B72" r:id="rId15" display="https://arxiv.org/abs/2202.00181" xr:uid="{A924BD42-5B3F-3740-81C0-0C81F8B5122D}"/>
-    <hyperlink ref="B73" r:id="rId16" display="https://zju3dv.github.io/animatable_nerf/" xr:uid="{79B54E94-A634-C04E-BBD6-E0740CB05D22}"/>
-    <hyperlink ref="B74" r:id="rId17" display="https://vcai.mpi-inf.mpg.de/projects/NeuralActor/" xr:uid="{8B2119CC-BEBB-1141-9295-5A03BB8F0926}"/>
-    <hyperlink ref="B76" r:id="rId18" display="https://zju3dv.github.io/neuralbody/" xr:uid="{B4F98C3C-2C12-3647-8B14-C77A228D92A6}"/>
-    <hyperlink ref="D77" r:id="rId19" display="https://neural-3d-video.github.io/" xr:uid="{F5C4215C-421A-2E4F-9166-06F8B5156E7B}"/>
-    <hyperlink ref="B81" r:id="rId20" display="https://arxiv.org/abs/2012.02190" xr:uid="{53D1B557-9DD9-0941-A181-C2437740945C}"/>
-    <hyperlink ref="D81" r:id="rId21" display="https://alexyu.net/pixelnerf" xr:uid="{FE08CB9D-CA82-2641-899B-1CED2638D0C9}"/>
-    <hyperlink ref="B82" r:id="rId22" display="https://arxiv.org/abs/2012.02189" xr:uid="{A3166556-FD50-524F-9D7B-7DFABC9BA22F}"/>
-    <hyperlink ref="B85" r:id="rId23" display="https://arxiv.org/pdf/2102.08860.pdf" xr:uid="{C98AD7DA-8A21-4B40-A0E6-ABB79200584D}"/>
-    <hyperlink ref="B86" r:id="rId24" display="https://ibrnet.github.io/static/paper.pdf" xr:uid="{B64854DE-6A9F-EE41-8605-5F214EE9ADE2}"/>
-    <hyperlink ref="D86" r:id="rId25" display="https://ibrnet.github.io/" xr:uid="{5B6CC4DE-F7F9-2647-9B5C-A1E194127C73}"/>
-    <hyperlink ref="B87" r:id="rId26" display="https://arxiv.org/pdf/2103.17269.pdf" xr:uid="{62D8EC5C-C4AC-DA46-9FDF-0E23E2D5C874}"/>
-    <hyperlink ref="B88" r:id="rId27" display="https://arxiv.org/pdf/2104.00587.pdf" xr:uid="{B37AC469-58DD-BF4C-8A04-F712B1A8EB94}"/>
-    <hyperlink ref="B89" r:id="rId28" display="https://apple.github.io/ml-gsn/" xr:uid="{7717E2BE-FF3E-EF48-92FF-8653D9AB6AAE}"/>
-    <hyperlink ref="B90" r:id="rId29" display="https://apchenstu.github.io/mvsnerf/" xr:uid="{D01EC804-00BD-B442-AED3-391DEE153AF0}"/>
-    <hyperlink ref="B91" r:id="rId30" display="https://virtualhumans.mpi-inf.mpg.de/srf/" xr:uid="{BBFCEAB6-1067-4A46-B94B-1149F1DB3378}"/>
-    <hyperlink ref="D91" r:id="rId31" display="https://virtualhumans.mpi-inf.mpg.de/srf/" xr:uid="{99CFE0A6-49E8-6C47-AD0F-4876EDDD5257}"/>
-    <hyperlink ref="B92" r:id="rId32" display="https://liuyuan-pal.github.io/NeuRay/" xr:uid="{B8E198D5-170F-6445-ABD6-FC745FE3BB4F}"/>
-    <hyperlink ref="D94" r:id="rId33" display="https://github.com/vincentfung13/MINE" xr:uid="{BC5BAD36-364E-6749-BCB4-A976C125DDC5}"/>
-    <hyperlink ref="B96" r:id="rId34" display="https://sites.google.com/view/wbjang/home/codenerf" xr:uid="{187E0164-3464-5F42-AACD-3D5C2BF3C820}"/>
-    <hyperlink ref="B98" r:id="rId35" display="https://bmild.github.io/rawnerf/" xr:uid="{A6B8E96F-1F53-7041-B6A4-60B9508480D4}"/>
-    <hyperlink ref="B99" r:id="rId36" display="http://yenchenlin.me/inerf/" xr:uid="{EE610F53-3CF1-1E40-8ACB-F1984A3C3C5D}"/>
-    <hyperlink ref="B100" r:id="rId37" display="https://lemonatsu.github.io/ANeRF-Surface-free-Pose-Refinement/" xr:uid="{8812967F-CC98-5B4A-995D-AC01039F534F}"/>
-    <hyperlink ref="D100" r:id="rId38" display="https://lemonatsu.github.io/anerf/" xr:uid="{9D7EFC10-490A-E447-9D5C-8E801A904206}"/>
-    <hyperlink ref="B105" r:id="rId39" display="https://chenhsuanlin.bitbucket.io/bundle-adjusting-NeRF/" xr:uid="{20F5B6EF-8807-F341-AF88-60ED41CC6280}"/>
-    <hyperlink ref="B106" r:id="rId40" display="https://postech-cvlab.github.io/SCNeRF/" xr:uid="{2F6B0D04-F664-0240-95C8-8B039E05A6FE}"/>
-    <hyperlink ref="B107" r:id="rId41" display="https://markboss.me/publication/2021-nerd/" xr:uid="{D07E6E46-FE31-B345-8F53-0E980351DB40}"/>
-    <hyperlink ref="B108" r:id="rId42" display="https://people.eecs.berkeley.edu/~pratul/nerv/" xr:uid="{8DA1DFFB-66B7-D945-A567-262763835FE0}"/>
-    <hyperlink ref="B111" r:id="rId43" display="https://arxiv.org/abs/2010.07492" xr:uid="{24173C9F-D45A-1744-981B-21CA290E8730}"/>
-    <hyperlink ref="D111" r:id="rId44" display="https://github.com/Kai-46/nerfplusplus" xr:uid="{AC3D8F12-8792-6341-9EDD-3119722F4FB3}"/>
-    <hyperlink ref="B112" r:id="rId45" display="https://arxiv.org/abs/2011.12100" xr:uid="{A6421490-778F-404C-9B50-F4DF3C3222E3}"/>
-    <hyperlink ref="B114" r:id="rId46" display="https://ziyanw1.github.io/hybrid_nerf/" xr:uid="{21255C5F-2079-BD42-A4E8-1473A711251E}"/>
-    <hyperlink ref="B121" r:id="rId47" display="https://fig-nerf.github.io/" xr:uid="{BCB08482-216E-F445-961F-79B17BAB2894}"/>
-    <hyperlink ref="B122" r:id="rId48" display="https://developer.nvidia.com/blog/nvidia-research-nerf-tex-neural-reflectance-field-textures/" xr:uid="{46F7C388-1CC4-9149-B59B-559EE7BCD36A}"/>
-    <hyperlink ref="B123" r:id="rId49" display="https://jonbarron.info/mipnerf/" xr:uid="{3CF7024E-5382-C942-836E-26A20DA4524C}"/>
-    <hyperlink ref="B125" r:id="rId50" display="https://arxiv.org/abs/2106.10689" xr:uid="{E7185A93-C91C-F24C-9829-6325E236C3EB}"/>
-    <hyperlink ref="B127" r:id="rId51" display="https://weiyithu.github.io/NerfingMVS/" xr:uid="{22220255-E2B3-4341-A8DE-DF8098C5B6B6}"/>
-    <hyperlink ref="B128" r:id="rId52" display="https://3d-representation-learning.github.io/nerf-dy/" xr:uid="{433A7789-7958-4642-A629-FBF537BFB55E}"/>
-    <hyperlink ref="D129" r:id="rId53" display="https://mikh3x4.github.io/nerf-navigation/" xr:uid="{8A666769-9523-DC43-A0CD-D271CCCC1BDC}"/>
+    <hyperlink ref="B67" r:id="rId1" display="https://www.matthewtancik.com/nerf" xr:uid="{35967FB2-814A-154F-8541-7714319F096C}"/>
+    <hyperlink ref="B68" r:id="rId2" display="https://lingjie0206.github.io/papers/NSVF/" xr:uid="{F2DD4E80-7653-6B46-BE0A-8E826172F88C}"/>
+    <hyperlink ref="B69" r:id="rId3" display="http://www.computationalimaging.org/publications/automatic-integration/" xr:uid="{A28EC183-687F-8A46-9CA4-4A7708A6C750}"/>
+    <hyperlink ref="B70" r:id="rId4" display="https://arxiv.org/abs/2011.12490" xr:uid="{C5B06987-5C0D-E443-82C4-02F6431045D1}"/>
+    <hyperlink ref="B71" r:id="rId5" display="https://depthoraclenerf.github.io/" xr:uid="{3CEB0E14-63E6-574A-9FC6-2051AD0460B0}"/>
+    <hyperlink ref="B72" r:id="rId6" display="https://arxiv.org/abs/2103.10380" xr:uid="{EA18432D-CDAD-5D46-AB83-9539228413CB}"/>
+    <hyperlink ref="B73" r:id="rId7" display="https://arxiv.org/abs/2103.13744" xr:uid="{429A6E53-E8CB-BC4C-9538-A2470024449F}"/>
+    <hyperlink ref="B74" r:id="rId8" display="https://alexyu.net/plenoctrees/" xr:uid="{7DC25326-9D8E-8D47-A044-DD17F9ED0CD0}"/>
+    <hyperlink ref="B75" r:id="rId9" display="https://arxiv.org/abs/2103.01954" xr:uid="{A2FF4FE9-43D0-5F44-93A7-55BE57938D31}"/>
+    <hyperlink ref="B76" r:id="rId10" display="https://vsitzmann.github.io/lfns/" xr:uid="{F6597C48-9252-3349-B84C-D97A31F62416}"/>
+    <hyperlink ref="B77" r:id="rId11" display="https://arxiv.org/pdf/2107.02791.pdf" xr:uid="{4E32310C-E8E8-1445-9B6E-B1A0C6585A89}"/>
+    <hyperlink ref="B79" r:id="rId12" display="https://nerf-w.github.io/" xr:uid="{1C3AF7E4-0ED6-6341-ACDB-04910971A9DA}"/>
+    <hyperlink ref="B84" r:id="rId13" display="https://gvv.mpi-inf.mpg.de/projects/nonrigid_nerf/" xr:uid="{2DDCA2B8-C06B-604A-A893-ED7E083125F7}"/>
+    <hyperlink ref="B85" r:id="rId14" display="https://volumetric-avatars.github.io/" xr:uid="{B38221A4-28D3-EC48-BD13-F22F93351407}"/>
+    <hyperlink ref="B87" r:id="rId15" display="https://arxiv.org/abs/2202.00181" xr:uid="{A924BD42-5B3F-3740-81C0-0C81F8B5122D}"/>
+    <hyperlink ref="B88" r:id="rId16" display="https://zju3dv.github.io/animatable_nerf/" xr:uid="{79B54E94-A634-C04E-BBD6-E0740CB05D22}"/>
+    <hyperlink ref="B89" r:id="rId17" display="https://vcai.mpi-inf.mpg.de/projects/NeuralActor/" xr:uid="{8B2119CC-BEBB-1141-9295-5A03BB8F0926}"/>
+    <hyperlink ref="B91" r:id="rId18" display="https://zju3dv.github.io/neuralbody/" xr:uid="{B4F98C3C-2C12-3647-8B14-C77A228D92A6}"/>
+    <hyperlink ref="D92" r:id="rId19" display="https://neural-3d-video.github.io/" xr:uid="{F5C4215C-421A-2E4F-9166-06F8B5156E7B}"/>
+    <hyperlink ref="B96" r:id="rId20" display="https://arxiv.org/abs/2012.02190" xr:uid="{53D1B557-9DD9-0941-A181-C2437740945C}"/>
+    <hyperlink ref="D96" r:id="rId21" display="https://alexyu.net/pixelnerf" xr:uid="{FE08CB9D-CA82-2641-899B-1CED2638D0C9}"/>
+    <hyperlink ref="B97" r:id="rId22" display="https://arxiv.org/abs/2012.02189" xr:uid="{A3166556-FD50-524F-9D7B-7DFABC9BA22F}"/>
+    <hyperlink ref="B100" r:id="rId23" display="https://arxiv.org/pdf/2102.08860.pdf" xr:uid="{C98AD7DA-8A21-4B40-A0E6-ABB79200584D}"/>
+    <hyperlink ref="B101" r:id="rId24" display="https://ibrnet.github.io/static/paper.pdf" xr:uid="{B64854DE-6A9F-EE41-8605-5F214EE9ADE2}"/>
+    <hyperlink ref="D101" r:id="rId25" display="https://ibrnet.github.io/" xr:uid="{5B6CC4DE-F7F9-2647-9B5C-A1E194127C73}"/>
+    <hyperlink ref="B102" r:id="rId26" display="https://arxiv.org/pdf/2103.17269.pdf" xr:uid="{62D8EC5C-C4AC-DA46-9FDF-0E23E2D5C874}"/>
+    <hyperlink ref="B103" r:id="rId27" display="https://arxiv.org/pdf/2104.00587.pdf" xr:uid="{B37AC469-58DD-BF4C-8A04-F712B1A8EB94}"/>
+    <hyperlink ref="B104" r:id="rId28" display="https://apple.github.io/ml-gsn/" xr:uid="{7717E2BE-FF3E-EF48-92FF-8653D9AB6AAE}"/>
+    <hyperlink ref="B105" r:id="rId29" display="https://apchenstu.github.io/mvsnerf/" xr:uid="{D01EC804-00BD-B442-AED3-391DEE153AF0}"/>
+    <hyperlink ref="B106" r:id="rId30" display="https://virtualhumans.mpi-inf.mpg.de/srf/" xr:uid="{BBFCEAB6-1067-4A46-B94B-1149F1DB3378}"/>
+    <hyperlink ref="D106" r:id="rId31" display="https://virtualhumans.mpi-inf.mpg.de/srf/" xr:uid="{99CFE0A6-49E8-6C47-AD0F-4876EDDD5257}"/>
+    <hyperlink ref="B107" r:id="rId32" display="https://liuyuan-pal.github.io/NeuRay/" xr:uid="{B8E198D5-170F-6445-ABD6-FC745FE3BB4F}"/>
+    <hyperlink ref="D109" r:id="rId33" display="https://github.com/vincentfung13/MINE" xr:uid="{BC5BAD36-364E-6749-BCB4-A976C125DDC5}"/>
+    <hyperlink ref="B111" r:id="rId34" display="https://sites.google.com/view/wbjang/home/codenerf" xr:uid="{187E0164-3464-5F42-AACD-3D5C2BF3C820}"/>
+    <hyperlink ref="B113" r:id="rId35" display="https://bmild.github.io/rawnerf/" xr:uid="{A6B8E96F-1F53-7041-B6A4-60B9508480D4}"/>
+    <hyperlink ref="B114" r:id="rId36" display="http://yenchenlin.me/inerf/" xr:uid="{EE610F53-3CF1-1E40-8ACB-F1984A3C3C5D}"/>
+    <hyperlink ref="B115" r:id="rId37" display="https://lemonatsu.github.io/ANeRF-Surface-free-Pose-Refinement/" xr:uid="{8812967F-CC98-5B4A-995D-AC01039F534F}"/>
+    <hyperlink ref="D115" r:id="rId38" display="https://lemonatsu.github.io/anerf/" xr:uid="{9D7EFC10-490A-E447-9D5C-8E801A904206}"/>
+    <hyperlink ref="B120" r:id="rId39" display="https://chenhsuanlin.bitbucket.io/bundle-adjusting-NeRF/" xr:uid="{20F5B6EF-8807-F341-AF88-60ED41CC6280}"/>
+    <hyperlink ref="B121" r:id="rId40" display="https://postech-cvlab.github.io/SCNeRF/" xr:uid="{2F6B0D04-F664-0240-95C8-8B039E05A6FE}"/>
+    <hyperlink ref="B122" r:id="rId41" display="https://markboss.me/publication/2021-nerd/" xr:uid="{D07E6E46-FE31-B345-8F53-0E980351DB40}"/>
+    <hyperlink ref="B123" r:id="rId42" display="https://people.eecs.berkeley.edu/~pratul/nerv/" xr:uid="{8DA1DFFB-66B7-D945-A567-262763835FE0}"/>
+    <hyperlink ref="B126" r:id="rId43" display="https://arxiv.org/abs/2010.07492" xr:uid="{24173C9F-D45A-1744-981B-21CA290E8730}"/>
+    <hyperlink ref="D126" r:id="rId44" display="https://github.com/Kai-46/nerfplusplus" xr:uid="{AC3D8F12-8792-6341-9EDD-3119722F4FB3}"/>
+    <hyperlink ref="B127" r:id="rId45" display="https://arxiv.org/abs/2011.12100" xr:uid="{A6421490-778F-404C-9B50-F4DF3C3222E3}"/>
+    <hyperlink ref="B129" r:id="rId46" display="https://ziyanw1.github.io/hybrid_nerf/" xr:uid="{21255C5F-2079-BD42-A4E8-1473A711251E}"/>
+    <hyperlink ref="B136" r:id="rId47" display="https://fig-nerf.github.io/" xr:uid="{BCB08482-216E-F445-961F-79B17BAB2894}"/>
+    <hyperlink ref="B137" r:id="rId48" display="https://developer.nvidia.com/blog/nvidia-research-nerf-tex-neural-reflectance-field-textures/" xr:uid="{46F7C388-1CC4-9149-B59B-559EE7BCD36A}"/>
+    <hyperlink ref="B138" r:id="rId49" display="https://jonbarron.info/mipnerf/" xr:uid="{3CF7024E-5382-C942-836E-26A20DA4524C}"/>
+    <hyperlink ref="B140" r:id="rId50" display="https://arxiv.org/abs/2106.10689" xr:uid="{E7185A93-C91C-F24C-9829-6325E236C3EB}"/>
+    <hyperlink ref="B142" r:id="rId51" display="https://weiyithu.github.io/NerfingMVS/" xr:uid="{22220255-E2B3-4341-A8DE-DF8098C5B6B6}"/>
+    <hyperlink ref="B143" r:id="rId52" display="https://3d-representation-learning.github.io/nerf-dy/" xr:uid="{433A7789-7958-4642-A629-FBF537BFB55E}"/>
+    <hyperlink ref="D144" r:id="rId53" display="https://mikh3x4.github.io/nerf-navigation/" xr:uid="{8A666769-9523-DC43-A0CD-D271CCCC1BDC}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/docs/weekly_nerf_meta_data.xlsx
+++ b/docs/weekly_nerf_meta_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zelinzhao/cache/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7722558-E0E6-A845-AB8D-15968078D20F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58330613-8045-1443-B643-95764F93A6E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1055" uniqueCount="849">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1198" uniqueCount="969">
   <si>
     <t>week</t>
   </si>
@@ -2579,6 +2579,366 @@
   </si>
   <si>
     <t>我们介绍了 Plenoxels（全光体素），一种用于照片级真实视图合成的系统。 Plenoxels 将场景表示为具有球谐函数的稀疏 3D 网格。这种表示可以通过梯度方法和正则化从校准图像中优化，而无需任何神经组件。在标准的基准任务中，Plenoxels 的优化速度比神经辐射场快两个数量级，而视觉质量没有损失。</t>
+  </si>
+  <si>
+    <t>Urban Radiance Fields</t>
+  </si>
+  <si>
+    <t>The goal of this work is to perform 3D reconstruction and novel view synthesis from data captured by scanning platforms commonly deployed for world mapping in urban outdoor environments (e.g., Street View). Given a sequence of posed RGB images and lidar sweeps acquired by cameras and scanners moving through an outdoor scene, we produce a model from which 3D surfaces can be extracted and novel RGB images can be synthesized. Our approach extends Neural Radiance Fields, which has been demonstrated to synthesize realistic novel images for small scenes in controlled settings, with new methods for leveraging asynchronously captured lidar data, for addressing exposure variation between captured images, and for leveraging predicted image segmentations to supervise densities on rays pointing at the sky. Each of these three extensions provides significant performance improvements in experiments on Street View data. Our system produces state-of-the-art 3D surface reconstructions and synthesizes higher quality novel views in comparison to both traditional methods (e.g.~COLMAP) and recent neural representations (e.g.~Mip-NeRF).</t>
+  </si>
+  <si>
+    <t>https://urban-radiance-fields.github.io/</t>
+  </si>
+  <si>
+    <t>Sep11 - Sep17, 2022</t>
+  </si>
+  <si>
+    <t>CU-Net: Efficient Point Cloud Color Upsampling Network</t>
+  </si>
+  <si>
+    <t>Point cloud upsampling is necessary for Augmented Reality, Virtual Reality, and telepresence scenarios. Although the geometry upsampling is well studied to densify point cloud coordinates, the upsampling of colors has been largely overlooked. In this paper, we propose CU-Net, the first deep-learning point cloud color upsampling model. Leveraging a feature extractor based on sparse convolution and a color prediction module based on neural implicit function, CU-Net achieves linear time and space complexity. Therefore, CU-Net is theoretically guaranteed to be more efficient than most existing methods with quadratic complexity. Experimental results demonstrate that CU-Net can colorize a photo-realistic point cloud with nearly a million points in real time, while having better visual quality than baselines. Besides, CU-Net can adapt to an arbitrary upsampling ratio and unseen objects. Our source code will be released to the public soon.</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2209.06112</t>
+  </si>
+  <si>
+    <t>Self-Supervised Coordinate Projection Network for Sparse-View Computed Tomography</t>
+  </si>
+  <si>
+    <t>In the present work, we propose a Self-supervised COordinate Projection nEtwork (SCOPE) to reconstruct the artifacts-free CT image from a single SV sinogram by solving the inverse tomography imaging problem. Compared with recent related works that solve similar problems using implicit neural representation network (INR), our essential contribution is an effective and simple re-projection strategy that pushes the tomography image reconstruction quality over supervised deep learning CT reconstruction works. The proposed strategy is inspired by the simple relationship between linear algebra and inverse problems. To solve the under-determined linear equation system, we first introduce INR to constrain the solution space via image continuity prior and achieve a rough solution. And secondly, we propose to generate a dense view sinogram that improves the rank of the linear equation system and produces a more stable CT image solution space. Our experiment results demonstrate that the re-projection strategy significantly improves the image reconstruction quality (+3 dB for PSNR at least). Besides, we integrate the recent hash encoding into our SCOPE model, which greatly accelerates the model training. Finally, we evaluate SCOPE in parallel and fan X-ray beam SVCT reconstruction tasks. Experimental results indicate that the proposed SCOPE model outperforms two latest INR-based methods and two well-popular supervised DL methods quantitatively and qualitatively.</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2209.05483</t>
+  </si>
+  <si>
+    <t>Learning A Unified 3D Point Cloud for View Synthesis</t>
+  </si>
+  <si>
+    <t>3D point cloud representation-based view synthesis methods have demonstrated effectiveness. However, existing methods usually synthesize novel views only from a single source view, and it is non-trivial to generalize them to handle multiple source views for pursuing higher reconstruction quality. In this paper, we propose a new deep learning-based view synthesis paradigm, which learns a unified 3D point cloud from different source views. Specifically, we first construct sub-point clouds by projecting source views to 3D space based on their depth maps. Then, we learn the unified 3D point cloud by adaptively fusing points at a local neighborhood defined on the union of the sub-point clouds. Besides, we also propose a 3D geometry-guided image restoration module to fill the holes and recover high-frequency details of the rendered novel views. Experimental results on three benchmark datasets demonstrate that our method outperforms state-of-the-art view synthesis methods to a large extent both quantitatively and visually.</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2209.05013</t>
+  </si>
+  <si>
+    <t>StructNeRF: Neural Radiance Fields for Indoor Scenes with Structural Hints</t>
+  </si>
+  <si>
+    <t>Neural Radiance Fields (NeRF) achieve photo-realistic view synthesis with densely captured input images. However, the geometry of NeRF is extremely under-constrained given sparse views, resulting in significant degradation of novel view synthesis quality. Inspired by self-supervised depth estimation methods, we propose StructNeRF, a solution to novel view synthesis for indoor scenes with sparse inputs. StructNeRF leverages the structural hints naturally embedded in multi-view inputs to handle the unconstrained geometry issue in NeRF. Specifically, it tackles the texture and non-texture regions respectively: a patch-based multi-view consistent photometric loss is proposed to constrain the geometry of textured regions; for non-textured ones, we explicitly restrict them to be 3D consistent planes. Through the dense self-supervised depth constraints, our method improves both the geometry and the view synthesis performance of NeRF without any additional training on external data. Extensive experiments on several real-world datasets demonstrate that StructNeRF surpasses state-of-the-art methods for indoor scenes with sparse inputs both quantitatively and qualitatively.</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2209.05277</t>
+  </si>
+  <si>
+    <t>Explicitly Controllable 3D-Aware Portrait Generation</t>
+  </si>
+  <si>
+    <t>In contrast to the traditional avatar creation pipeline which is a costly process, contemporary generative approaches directly learn the data distribution from photographs. While plenty of works extend unconditional generative models and achieve some levels of controllability, it is still challenging to ensure multi-view consistency, especially in large poses. In this work, we propose a network that generates 3D-aware portraits while being controllable according to semantic parameters regarding pose, identity, expression and illumination. Our network uses neural scene representation to model 3D-aware portraits, whose generation is guided by a parametric face model that supports explicit control. While the latent disentanglement can be further enhanced by contrasting images with partially different attributes, there still exists noticeable inconsistency in non-face areas, e.g., hair and background, when animating expressions. Wesolve this by proposing a volume blending strategy in which we form a composite output by blending dynamic and static areas, with two parts segmented from the jointly learned semantic field. Our method outperforms prior arts in extensive experiments, producing realistic portraits with vivid expression in natural lighting when viewed from free viewpoints. It also demonstrates generalization ability to real images as well as out-of-domain data, showing great promise in real applications.</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2209.05434</t>
+  </si>
+  <si>
+    <t>DevNet: Self-supervised Monocular Depth Learning via Density Volume Construction</t>
+  </si>
+  <si>
+    <t>Self-supervised depth learning from monocular images normally relies on the 2D pixel-wise photometric relation between temporally adjacent image frames. However, they neither fully exploit the 3D point-wise geometric correspondences, nor effectively tackle the ambiguities in the photometric warping caused by occlusions or illumination inconsistency. To address these problems, this work proposes Density Volume Construction Network (DevNet), a novel self-supervised monocular depth learning framework, that can consider 3D spatial information, and exploit stronger geometric constraints among adjacent camera frustums. Instead of directly regressing the pixel value from a single image, our DevNet divides the camera frustum into multiple parallel planes and predicts the pointwise occlusion probability density on each plane. The final depth map is generated by integrating the density along corresponding rays. During the training process, novel regularization strategies and loss functions are introduced to mitigate photometric ambiguities and overfitting. Without obviously enlarging model parameters size or running time, DevNet outperforms several representative baselines on both the KITTI-2015 outdoor dataset and NYU-V2 indoor dataset. In particular, the root-mean-square-deviation is reduced by around 4% with DevNet on both KITTI-2015 and NYU-V2 in the task of depth estimation. Code is available at this https URL.</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2209.06351</t>
+  </si>
+  <si>
+    <t>3DMM-RF: Convolutional Radiance Fields for 3D Face Modeling</t>
+  </si>
+  <si>
+    <t>Facial 3D Morphable Models are a main computer vision subject with countless applications and have been highly optimized in the last two decades. The tremendous improvements of deep generative networks have created various possibilities for improving such models and have attracted wide interest. Moreover, the recent advances in neural radiance fields, are revolutionising novel-view synthesis of known scenes. In this work, we present a facial 3D Morphable Model, which exploits both of the above, and can accurately model a subject's identity, pose and expression and render it in arbitrary illumination. This is achieved by utilizing a powerful deep style-based generator to overcome two main weaknesses of neural radiance fields, their rigidity and rendering speed. We introduce a style-based generative network that synthesizes in one pass all and only the required rendering samples of a neural radiance field. We create a vast labelled synthetic dataset of facial renders, and train the network on these data, so that it can accurately model and generalize on facial identity, pose and appearance. Finally, we show that this model can accurately be fit to "in-the-wild" facial images of arbitrary pose and illumination, extract the facial characteristics, and be used to re-render the face in controllable conditions.</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2209.07366</t>
+  </si>
+  <si>
+    <t>iDF-SLAM: End-to-End RGB-D SLAM with Neural Implicit Mapping and Deep Feature Tracking</t>
+  </si>
+  <si>
+    <t>We propose a novel end-to-end RGB-D SLAM, iDF-SLAM, which adopts a feature-based deep neural tracker as the front-end and a NeRF-style neural implicit mapper as the back-end. The neural implicit mapper is trained on-the-fly, while though the neural tracker is pretrained on the ScanNet dataset, it is also finetuned along with the training of the neural implicit mapper. Under such a design, our iDF-SLAM is capable of learning to use scene-specific features for camera tracking, thus enabling lifelong learning of the SLAM system. Both the training for the tracker and the mapper are self-supervised without introducing ground truth poses. We test the performance of our iDF-SLAM on the Replica and ScanNet datasets and compare the results to the two recent NeRF-based neural SLAM systems. The proposed iDF-SLAM demonstrates state-of-the-art results in terms of scene reconstruction and competitive performance in camera tracking.</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2209.07919</t>
+  </si>
+  <si>
+    <t>ActiveNeRF: Learning where to See with Uncertainty Estimation</t>
+  </si>
+  <si>
+    <t>Sep18 - Sep24, 2022</t>
+  </si>
+  <si>
+    <t>Recently, Neural Radiance Fields (NeRF) has shown promising performances on reconstructing 3D scenes and synthesizing novel views from a sparse set of 2D images. Albeit effective, the performance of NeRF is highly influenced by the quality of training samples. With limited posed images from the scene, NeRF fails to generalize well to novel views and may collapse to trivial solutions in unobserved regions. This makes NeRF impractical under resource-constrained scenarios. In this paper, we present a novel learning framework, ActiveNeRF, aiming to model a 3D scene with a constrained input budget. Specifically, we first incorporate uncertainty estimation into a NeRF model, which ensures robustness under few observations and provides an interpretation of how NeRF understands the scene. On this basis, we propose to supplement the existing training set with newly captured samples based on an active learning scheme. By evaluating the reduction of uncertainty given new inputs, we select the samples that bring the most information gain. In this way, the quality of novel view synthesis can be improved with minimal additional resources. Extensive experiments validate the performance of our model on both realistic and synthetic scenes, especially with scarcer training data. Code will be released at \url{this https URL}.</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2209.08546</t>
+  </si>
+  <si>
+    <t>https://github.com/LeapLabTHU/ActiveNeRF</t>
+  </si>
+  <si>
+    <t>Implicit Neural Representations for Medical Imaging Segmentation</t>
+  </si>
+  <si>
+    <t>MICCAI2022</t>
+  </si>
+  <si>
+    <t>https://link.springer.com/chapter/10.1007/978-3-031-16443-9_42</t>
+  </si>
+  <si>
+    <t>Uncertainty Guided Policy for Active Robotic 3D Reconstruction using Neural Radiance Fields</t>
+  </si>
+  <si>
+    <t>RA-L2022</t>
+  </si>
+  <si>
+    <t>In this paper, we tackle the problem of active robotic 3D reconstruction of an object. In particular, we study how a mobile robot with an arm-held camera can select a favorable number of views to recover an object's 3D shape efficiently. Contrary to the existing solution to this problem, we leverage the popular neural radiance fields-based object representation, which has recently shown impressive results for various computer vision tasks. However, it is not straightforward to directly reason about an object's explicit 3D geometric details using such a representation, making the next-best-view selection problem for dense 3D reconstruction challenging. This paper introduces a ray-based volumetric uncertainty estimator, which computes the entropy of the weight distribution of the color samples along each ray of the object's implicit neural representation. We show that it is possible to infer the uncertainty of the underlying 3D geometry given a novel view with the proposed estimator. We then present a next-best-view selection policy guided by the ray-based volumetric uncertainty in neural radiance fields-based representations. Encouraging experimental results on synthetic and real-world data suggest that the approach presented in this paper can enable a new research direction of using an implicit 3D object representation for the next-best-view problem in robot vision applications, distinguishing our approach from the existing approaches that rely on explicit 3D geometric modeling.</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2209.08409</t>
+  </si>
+  <si>
+    <t>Neural Implicit Surface Reconstruction using Imaging Sonar</t>
+  </si>
+  <si>
+    <t>We present a technique for dense 3D reconstruction of objects using an imaging sonar, also known as forward-looking sonar (FLS). Compared to previous methods that model the scene geometry as point clouds or volumetric grids, we represent the geometry as a neural implicit function. Additionally, given such a representation, we use a differentiable volumetric renderer that models the propagation of acoustic waves to synthesize imaging sonar measurements. We perform experiments on real and synthetic datasets and show that our algorithm reconstructs high-fidelity surface geometry from multi-view FLS images at much higher quality than was possible with previous techniques and without suffering from their associated memory overhead.</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2209.08221</t>
+  </si>
+  <si>
+    <t>LATITUDE: Robotic Global Localization with Truncated Dynamic Low-pass Filter in City-scale NeRF</t>
+  </si>
+  <si>
+    <t>ICRA2023</t>
+  </si>
+  <si>
+    <t>Neural Radiance Fields (NeRFs) have made great success in representing complex 3D scenes with high-resolution details and efficient memory. Nevertheless, current NeRF-based pose estimators have no initial pose prediction and are prone to local optima during optimization. In this paper, we present LATITUDE: Global Localization with Truncated Dynamic Low-pass Filter, which introduces a two-stage localization mechanism in city-scale NeRF. In place recognition stage, we train a regressor through images generated from trained NeRFs, which provides an initial value for global localization. In pose optimization stage, we minimize the residual between the observed image and rendered image by directly optimizing the pose on tangent plane. To avoid convergence to local optimum, we introduce a Truncated Dynamic Low-pass Filter (TDLF) for coarse-to-fine pose registration. We evaluate our method on both synthetic and real-world data and show its potential applications for high-precision navigation in large-scale city scenes. Codes and data will be publicly available at this https URL.</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2209.08498</t>
+  </si>
+  <si>
+    <t>https://github.com/jike5/LATITUDE</t>
+  </si>
+  <si>
+    <t>Human Performance Modeling and Rendering via Neural Animated Mesh</t>
+  </si>
+  <si>
+    <t>We have recently seen tremendous progress in the neural advances for photo-real human modeling and rendering. However, it's still challenging to integrate them into an existing mesh-based pipeline for downstream applications. In this paper, we present a comprehensive neural approach for high-quality reconstruction, compression, and rendering of human performances from dense multi-view videos. Our core intuition is to bridge the traditional animated mesh workflow with a new class of highly efficient neural techniques. We first introduce a neural surface reconstructor for high-quality surface generation in minutes. It marries the implicit volumetric rendering of the truncated signed distance field (TSDF) with multi-resolution hash encoding. We further propose a hybrid neural tracker to generate animated meshes, which combines explicit non-rigid tracking with implicit dynamic deformation in a self-supervised framework. The former provides the coarse warping back into the canonical space, while the latter implicit one further predicts the displacements using the 4D hash encoding as in our reconstructor. Then, we discuss the rendering schemes using the obtained animated meshes, ranging from dynamic texturing to lumigraph rendering under various bandwidth settings. To strike an intricate balance between quality and bandwidth, we propose a hierarchical solution by first rendering 6 virtual views covering the performer and then conducting occlusion-aware neural texture blending. We demonstrate the efficacy of our approach in a variety of mesh-based applications and photo-realistic free-view experiences on various platforms, i.e., inserting virtual human performances into real environments through mobile AR or immersively watching talent shows with VR headsets.</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2209.08468</t>
+  </si>
+  <si>
+    <t>MeSLAM: Memory Efficient SLAM based on Neural Fields</t>
+  </si>
+  <si>
+    <t>SMC2022</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2209.09357</t>
+  </si>
+  <si>
+    <t>NeRF-SOS: Any-View Self-supervised Object Segmentation on Complex Scenes</t>
+  </si>
+  <si>
+    <t>Neural volumetric representations have shown the potential that Multi-layer Perceptrons (MLPs) can be optimized with multi-view calibrated images to represent scene geometry and appearance, without explicit 3D supervision. Object segmentation can enrich many downstream applications based on the learned radiance field. However, introducing hand-crafted segmentation to define regions of interest in a complex real-world scene is non-trivial and expensive as it acquires per view annotation. This paper carries out the exploration of self-supervised learning for object segmentation using NeRF for complex real-world scenes. Our framework, called NeRF with Self-supervised Object Segmentation NeRF-SOS, couples object segmentation and neural radiance field to segment objects in any view within a scene. By proposing a novel collaborative contrastive loss in both appearance and geometry levels, NeRF-SOS encourages NeRF models to distill compact geometry-aware segmentation clusters from their density fields and the self-supervised pre-trained 2D visual features. The self-supervised object segmentation framework can be applied to various NeRF models that both lead to photo-realistic rendering results and convincing segmentation maps for both indoor and outdoor scenarios. Extensive results on the LLFF, Tank &amp; Temple, and BlendedMVS datasets validate the effectiveness of NeRF-SOS. It consistently surpasses other 2D-based self-supervised baselines and predicts finer semantics masks than existing supervised counterparts. Please refer to the video on our project page for more details:this https URL.</t>
+  </si>
+  <si>
+    <t>https://github.com/VITA-Group/NeRF-SOS</t>
+  </si>
+  <si>
+    <t>https://zhiwenfan.github.io/NeRF-SOS/</t>
+  </si>
+  <si>
+    <t>Density-aware NeRF Ensembles: Quantifying Predictive Uncertainty in Neural Radiance Fields</t>
+  </si>
+  <si>
+    <t>We show that ensembling effectively quantifies model uncertainty in Neural Radiance Fields (NeRFs) if a density-aware epistemic uncertainty term is considered. The naive ensembles investigated in prior work simply average rendered RGB images to quantify the model uncertainty caused by conflicting explanations of the observed scene. In contrast, we additionally consider the termination probabilities along individual rays to identify epistemic model uncertainty due to a lack of knowledge about the parts of a scene unobserved during training. We achieve new state-of-the-art performance across established uncertainty quantification benchmarks for NeRFs, outperforming methods that require complex changes to the NeRF architecture and training regime. We furthermore demonstrate that NeRF uncertainty can be utilised for next-best view selection and model refinement.</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2209.08718</t>
+  </si>
+  <si>
+    <t>Loc-NeRF: Monte Carlo Localization using Neural Radiance Fields</t>
+  </si>
+  <si>
+    <t>We present Loc-NeRF, a real-time vision-based robot localization approach that combines Monte Carlo localization and Neural Radiance Fields (NeRF). Our system uses a pre-trained NeRF model as the map of an environment and can localize itself in real-time using an RGB camera as the only exteroceptive sensor onboard the robot. While neural radiance fields have seen significant applications for visual rendering in computer vision and graphics, they have found limited use in robotics. Existing approaches for NeRF-based localization require both a good initial pose guess and significant computation, making them impractical for real-time robotics applications. By using Monte Carlo localization as a workhorse to estimate poses using a NeRF map model, Loc-NeRF is able to perform localization faster than the state of the art and without relying on an initial pose estimate. In addition to testing on synthetic data, we also run our system using real data collected by a Clearpath Jackal UGV and demonstrate for the first time the ability to perform real-time global localization with neural radiance fields. We make our code publicly available at this https URL.</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2209.09050</t>
+  </si>
+  <si>
+    <t>https://github.com/MIT-SPARK/Loc-NeRF</t>
+  </si>
+  <si>
+    <t>wildNeRF: Complete view synthesis of in-the-wild dynamic scenes captured using sparse monocular data</t>
+  </si>
+  <si>
+    <t>We present a novel neural radiance model that is trainable in a self-supervised manner for novel-view synthesis of dynamic unstructured scenes. Our end-to-end trainable algorithm learns highly complex, real-world static scenes within seconds and dynamic scenes with both rigid and non-rigid motion within minutes. By differentiating between static and motion-centric pixels, we create high-quality representations from a sparse set of images. We perform extensive qualitative and quantitative evaluation on existing benchmarks and set the state-of-the-art on performance measures on the challenging NVIDIA Dynamic Scenes Dataset. Additionally, we evaluate our model performance on challenging real-world datasets such as Cholec80 and SurgicalActions160.</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2209.10399</t>
+  </si>
+  <si>
+    <t>PREF: Predictability Regularized Neural Motion Fields</t>
+  </si>
+  <si>
+    <t>Knowing the 3D motions in a dynamic scene is essential to many vision applications. Recent progress is mainly focused on estimating the activity of some specific elements like humans. In this paper, we leverage a neural motion field for estimating the motion of all points in a multiview setting. Modeling the motion from a dynamic scene with multiview data is challenging due to the ambiguities in points of similar color and points with time-varying color. We propose to regularize the estimated motion to be predictable. If the motion from previous frames is known, then the motion in the near future should be predictable. Therefore, we introduce a predictability regularization by first conditioning the estimated motion on latent embeddings, then by adopting a predictor network to enforce predictability on the embeddings. The proposed framework PREF (Predictability REgularized Fields) achieves on par or better results than state-of-the-art neural motion field-based dynamic scene representation methods, while requiring no prior knowledge of the scene.</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2209.10691</t>
+  </si>
+  <si>
+    <t>FNeVR: Neural Volume Rendering for Face Animation</t>
+  </si>
+  <si>
+    <t>Face animation, one of the hottest topics in computer vision, has achieved a promising performance with the help of generative models. However, it remains a critical challenge to generate identity preserving and photo-realistic images due to the sophisticated motion deformation and complex facial detail modeling. To address these problems, we propose a Face Neural Volume Rendering (FNeVR) network to fully explore the potential of 2D motion warping and 3D volume rendering in a unified framework. In FNeVR, we design a 3D Face Volume Rendering (FVR) module to enhance the facial details for image rendering. Specifically, we first extract 3D information with a well-designed architecture, and then introduce an orthogonal adaptive ray-sampling module for efficient rendering. We also design a lightweight pose editor, enabling FNeVR to edit the facial pose in a simple yet effective way. Extensive experiments show that our FNeVR obtains the best overall quality and performance on widely used talking-head benchmarks.</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2209.10340</t>
+  </si>
+  <si>
+    <t>Existing Simultaneous Localization and Mapping (SLAM) approaches are limited in their scalability due to growing map size in long-term robot operation. Moreover, processing such maps for localization and planning tasks leads to the increased computational resources required onboard. To address the problem of memory consumption in long-term operation, we develop a novel real-time SLAM algorithm, MeSLAM, that is based on neural field implicit map representation. It combines the proposed global mapping strategy, including neural networks distribution and region tracking, with an external odometry system. As a result, the algorithm is able to efficiently train multiple networks representing different map regions and track poses accurately in large-scale environments. Experimental results show that the accuracy of the proposed approach is comparable to the state-of-the-art methods (on average, 6.6 cm on TUM RGB-D sequences) and outperforms the baseline, iMAP∗. Moreover, the proposed SLAM approach provides the most compact-sized maps without details distortion (1.9 MB to store 57 m3) among the state-of-the-art SLAM approaches.</t>
+  </si>
+  <si>
+    <t>3D signals in medical imaging, such as CT scans, are usually parameterized as a discrete grid of voxels. For instance, existing state-of-the-art organ segmentation methods learn discrete segmentation maps. Unfortunately, the memory requirements of such methods grow cubically with increasing spatial resolution, which makes them unsuitable for processing high resolution scans. To overcome this, we design an Implicit Organ Segmentation Network (IOSNet) that utilizes continuous Implicit Neural Representations and has several useful properties. Firstly, the IOSNet decoder memory is roughly constant and independent of the spatial resolution since it parameterizes the segmentation map as a continuous function. Secondly, IOSNet converges much faster than discrete voxel based methods due to its ability to accurately segment organs irrespective of organ sizes, thereby alleviating size imbalance issues without requiring any auxiliary tricks. Thirdly, IOSNet naturally supports super-resolution (i.e. sampling at arbitrary resolutions during inference) due to its continuous learnt representations. Moreover, despite using a simple lightweight decoder, IOSNet consistently outperforms the discrete specialized segmentation architecture UNet. Hence, our approach demonstrates that Implicit Neural Representations are well-suited for medical imaging applications, especially for processing high-resolution 3D medical scans.</t>
+  </si>
+  <si>
+    <t>FNeVR：面部动画的神经体积渲染</t>
+  </si>
+  <si>
+    <t>PREF：可预测性正则化神经运动场</t>
+  </si>
+  <si>
+    <t>wildNeRF：使用稀疏单目数据捕获的野外动态场景的完整视图合成</t>
+  </si>
+  <si>
+    <t>Loc-NeRF：使用神经辐射场进行蒙特卡罗定位</t>
+  </si>
+  <si>
+    <t>密度感知 NeRF 集成：量化神经辐射场中的预测不确定性</t>
+  </si>
+  <si>
+    <t>NeRF-SOS：复杂场景上的任意视图自监督对象分割</t>
+  </si>
+  <si>
+    <t>MeSLAM：基于神经域的内存高效 SLAM</t>
+  </si>
+  <si>
+    <t>通过神经动画网格进行人体性能建模和渲染</t>
+  </si>
+  <si>
+    <t>LATITUDE：在城市规模的 NeRF 中使用截断动态低通滤波器进行机器人全局定位</t>
+  </si>
+  <si>
+    <t>使用成像声纳的神经隐式表面重建</t>
+  </si>
+  <si>
+    <t>使用神经辐射场进行主动机器人 3D 重建的不确定性引导策略</t>
+  </si>
+  <si>
+    <t>医学影像分割的隐式神经表示</t>
+  </si>
+  <si>
+    <t>ActiveNeRF：通过不确定性估计学习在哪里看</t>
+  </si>
+  <si>
+    <t>iDF-SLAM：具有神经隐式映射和深度特征跟踪的端到端 RGB-D SLAM</t>
+  </si>
+  <si>
+    <t>3DMM-RF：用于 3D 人脸建模的卷积辐射场</t>
+  </si>
+  <si>
+    <t>DevNet：通过密度体积构建的自监督单目深度学习</t>
+  </si>
+  <si>
+    <t>明确可控的 3D 感知肖像生成</t>
+  </si>
+  <si>
+    <t>StructNeRF：具有结构提示的室内场景的神经辐射场</t>
+  </si>
+  <si>
+    <t>学习用于视图合成的统一 3D 点云</t>
+  </si>
+  <si>
+    <t>用于稀疏视图计算机断层扫描的自监督坐标投影网络</t>
+  </si>
+  <si>
+    <t>CU-Net：高效的点云颜色上采样网络</t>
+  </si>
+  <si>
+    <t>城市辐射场</t>
+  </si>
+  <si>
+    <t>人脸动画是计算机视觉中最热门的话题之一，在生成模型的帮助下取得了可喜的成绩。然而，由于复杂的运动变形和复杂的面部细节建模，生成身份保持和照片般逼真的图像仍然是一个关键挑战。为了解决这些问题，我们提出了一个人脸神经体绘制 (FNeVR) 网络，以在一个统一的框架中充分挖掘 2D 运动扭曲和 3D 体绘制的潜力。在 FNeVR 中，我们设计了一个 3D 面部体积渲染 (FVR) 模块来增强图像渲染的面部细节。具体来说，我们首先使用精心设计的架构提取 3D 信息，然后引入正交自适应光线采样模块以实现高效渲染。我们还设计了一个轻量级的姿势编辑器，使 FNeVR 能够以简单而有效的方式编辑面部姿势。大量实验表明，我们的 FNeVR 在广泛使用的 Talking Head 基准测试中获得了最佳的整体质量和性能。</t>
+  </si>
+  <si>
+    <t>了解动态场景中的 3D 运动对于许多视觉应用至关重要。最近的进展主要集中在估计一些特定元素的活动，如人类。在本文中，我们利用神经运动场来估计多视图设置中所有点的运动。由于颜色相似的点和颜色随时间变化的点的模糊性，使用多视图数据对动态场景的运动进行建模具有挑战性。我们建议将估计的运动规范化为可预测的。如果先前帧的运动是已知的，那么不久的将来的运动应该是可预测的。因此，我们通过首先调节潜在嵌入的估计运动，然后通过采用预测器网络来强制嵌入的可预测性来引入可预测性正则化。与最先进的基于神经运动场的动态场景表示方法相比，所提出的框架 PREF（Predictability REgularized Fields）实现了同等或更好的结果，同时不需要场景的先验知识。</t>
+  </si>
+  <si>
+    <t>我们提出了一种新的神经辐射模型，该模型可以以自我监督的方式进行训练，用于动态非结构化场景的新视图合成。我们的端到端可训练算法可在几秒钟内学习高度复杂的真实静态场景，并在几分钟内学习具有刚性和非刚性运动的动态场景。通过区分静态像素和以运动为中心的像素，我们从一组稀疏的图像中创建高质量的表示。我们对现有基准进行了广泛的定性和定量评估，并在具有挑战性的 NVIDIA 动态场景数据集上设置了最先进的性能指标。此外，我们在具有挑战性的现实世界数据集（例如 Cholec80 和 SurgicalActions160）上评估我们的模型性能。</t>
+  </si>
+  <si>
+    <t>我们提出了 Loc-NeRF，这是一种基于实时视觉的机器人定位方法，它结合了蒙特卡洛定位和神经辐射场 (NeRF)。我们的系统使用预训练的 NeRF 模型作为环境地图，并且可以使用 RGB 相机作为机器人上唯一的外部感受器实时定位自身。虽然神经辐射场已经在计算机视觉和图形中看到了视觉渲染的重要应用，但它们在机器人技术中的用途有限。现有的基于 NeRF 的定位方法需要良好的初始姿势猜测和大量计算，这使得它们对于实时机器人应用不切实际。通过使用 Monte Carlo 定位作为使用 NeRF 地图模型估计姿态的主力，Loc-NeRF 能够比现有技术更快地执行定位，并且不依赖于初始姿态估计。除了对合成数据进行测试外，我们还使用 Clearpath Jackal UGV 收集的真实数据运行我们的系统，并首次展示了使用神经辐射场执行实时全局定位的能力。我们通过此 https 网址公开我们的代码。</t>
+  </si>
+  <si>
+    <t>我们表明，如果考虑到密度感知认知不确定性项，则集成有效地量化了神经辐射场 (NeRFs) 中的模型不确定性。在先前的工作中研究的朴素集成只是简单地平均渲染的 RGB 图像，以量化由观察到的场景的相互矛盾的解释引起的模型不确定性。相比之下，由于缺乏关于训练期间未观察到的场景部分的知识，我们还考虑了沿单个射线的终止概率来识别认知模型的不确定性。我们在已建立的 NeRF 不确定性量化基准中实现了新的最先进的性能，优于需要对 NeRF 架构和训练机制进行复杂更改的方法。我们进一步证明了 NeRF 不确定性可用于次佳视图选择和模型细化。</t>
+  </si>
+  <si>
+    <t>神经体积表示已经显示了多层感知器 (MLP) 可以使用多视图校准图像进行优化以表示场景几何和外观的潜力，而无需明确的 3D 监督。对象分割可以基于学习到的辐射场丰富许多下游应用。然而，引入手工分割来定义复杂现实世界场景中的感兴趣区域并非易事且成本高昂，因为它需要每个视图注释。本文针对复杂的现实世界场景使用 NeRF 进行对象分割的自监督学习探索。我们的框架称为带有自监督对象分割 NeRF-SOS 的 NeRF，它结合了对象分割和神经辐射场来分割场景中任何视图中的对象。通过在外观和几何级别上提出一种新颖的协作对比损失，NeRF-SOS 鼓励 NeRF 模型从其密度场和自我监督的预训练 2D 视觉特征中提取紧凑的几何感知分割簇。自监督对象分割框架可以应用于各种 NeRF 模型，这些模型既可以产生逼真的渲染结果，又可以在室内和室外场景中提供令人信服的分割图。 LLFF、Tank &amp; Temple 和 BlendedMVS 数据集的广泛结果验证了 NeRF-SOS 的有效性。它始终超越其他基于 2D 的自我监督基线，并预测比现有监督对应物更精细的语义掩码。请参阅我们项目页面上的视频以获取更多详细信息：此 https URL。</t>
+  </si>
+  <si>
+    <t>由于长期机器人操作中地图大小的增加，现有的同时定位和映射 (SLAM) 方法的可扩展性有限。此外，为定位和规划任务处理此类地图会导致车载所需的计算资源增加。为了解决长期操作中的内存消耗问题，我们开发了一种新颖的实时 SLAM 算法 MeSLAM，它基于神经场隐式地图表示。它将提议的全局映射策略（包括神经网络分布和区域跟踪）与外部里程计系统相结合。因此，该算法能够有效地训练代表不同地图区域的多个网络，并在大规模环境中准确地跟踪姿势。实验结果表明，所提出的方法的准确性与最先进的方法相当（在 TUM RGB-D 序列上平均为 6.6 cm），并且优于基线 iMAP*。此外，所提出的 SLAM 方法在最先进的 SLAM 方法中提供了最紧凑的地图，没有细节失真（1.9 MB 可存储 57 m3）。</t>
+  </si>
+  <si>
+    <t>我们最近看到了照片真实人体建模和渲染的神经进步的巨大进步。但是，将它们集成到现有的基于网格的管道中以用于下游应用程序仍然具有挑战性。在本文中，我们提出了一种综合神经方法，用于从密集的多视图视频中对人类表演进行高质量的重建、压缩和渲染。我们的核心直觉是将传统的动画网格工作流程与新型高效神经技术联系起来。我们首先介绍了一种用于在几分钟内生成高质量表面的神经表面重建器。它将截断有符号距离场 (TSDF) 的隐式体积渲染与多分辨率哈希编码结合在一起。我们进一步提出了一种混合神经跟踪器来生成动画网格，它将显式非刚性跟踪与自监督框架中的隐式动态变形相结合。前者将粗略的变形提供回规范空间，而后者隐含的进一步使用我们的重构器中的 4D 哈希编码来预测位移。然后，我们讨论使用获得的动画网格的渲染方案，范围从动态纹理到各种带宽设置下的流明图渲染。为了在质量和带宽之间取得复杂的平衡，我们提出了一种分层解决方案，首先渲染覆盖表演者的 6 个虚拟视图，然后进行遮挡感知神经纹理混合。我们展示了我们的方法在各种基于网格的应用程序和各种平台上逼真的自由视图体验中的有效性，即通过移动 AR 将虚拟人类表演插入真实环境或使用 VR 耳机沉浸式观看才艺表演。</t>
+  </si>
+  <si>
+    <t>神经辐射场 (NeRFs) 在表示具有高分辨率细节和高效内存的复杂 3D 场景方面取得了巨大成功。然而，当前基于 NeRF 的姿态估计器没有初始姿态预测，并且在优化过程中容易出现局部最优。在本文中，我们提出了 LATITUDE：使用截断动态低通滤波器进行全局定位，它在城市规模的 NeRF 中引入了两阶段定位机制。在位置识别阶段，我们通过训练后的 NeRF 生成的图像训练回归器，为全局定位提供初始值。在姿态优化阶段，我们通过直接优化切平面上的姿态来最小化观察图像和渲染图像之间的残差。为了避免收敛到局部最优，我们引入了截断动态低通滤波器 (TDLF) 用于从粗到细的姿态配准。我们在合成数据和真实世界数据上评估我们的方法，并展示其在大规模城市场景中高精度导航的潜在应用。代码和数据将在此 https 网址上公开提供。</t>
+  </si>
+  <si>
+    <t>我们提出了一种使用成像声纳（也称为前视声纳（FLS））对物体进行密集 3D 重建的技术。与以前将场景几何建模为点云或体积网格的方法相比，我们将几何表示为神经隐函数。此外，给定这样的表示，我们使用可微分体积渲染器来模拟声波的传播以合成成像声纳测量。我们在真实和合成数据集上进行实验，并表明我们的算法从多视图 FLS 图像中重建高保真表面几何图形的质量比以前的技术高得多，并且不会受到相关的内存开销的影响。</t>
+  </si>
+  <si>
+    <t>在本文中，我们解决了物体的主动机器人 3D 重建问题。特别是，我们研究了带有手持摄像头的移动机器人如何选择有利数量的视图来有效地恢复对象的 3D 形状。与该问题的现有解决方案相反，我们利用流行的基于神经辐射场的对象表示，最近在各种计算机视觉任务中显示出令人印象深刻的结果。然而，使用这种表示直接推断对象的显式 3D 几何细节并不简单，这使得密集 3D 重建的次佳视图选择问题具有挑战性。本文介绍了一种基于光线的体积不确定性估计器，它计算颜色样本沿物体隐式神经表示的每条光线的权重分布的熵。我们表明，使用所提出的估计器给出一个新颖的视图，可以推断出底层 3D 几何的不确定性。然后，我们提出了一个下一个最佳视图选择策略，该策略由基于神经辐射场的表示中基于射线的体积不确定性指导。令人鼓舞的合成数据和真实世界数据的实验结果表明，本文提出的方法可以启用一个新的研究方向，即使用隐式 3D 对象表示来解决机器人视觉应用中的下一个最佳视图问题，将我们的方法与现有的方法区分开来依赖于显式 3D 几何建模的方法。</t>
+  </si>
+  <si>
+    <t>医学成像中的 3D 信号（例如 CT 扫描）通常被参数化为体素的离散网格。例如，现有的最先进的器官分割方法学习离散的分割图。不幸的是，这些方法的内存需求随着空间分辨率的增加而呈立方增长，这使得它们不适合处理高分辨率扫描。为了克服这个问题，我们设计了一个隐式器官分割网络 (IOSNet)，它利用连续的隐式神经表示并具有几个有用的属性。首先，IOSNet 解码器内存大致恒定且独立于空间分辨率，因为它将分割图参数化为连续函数。其次，IOSNet 的收敛速度比基于离散体素的方法快得多，因为它能够准确地分割器官而不受器官大小的影响，从而在不需要任何辅助技巧的情况下缓解大小不平衡问题。第三，由于其连续学习表示，IOSNet 自然支持超分辨率（即在推理过程中以任意分辨率采样）。此外，尽管使用了一个简单的轻量级解码器，IOSNet 始终优于离散专业分割架构 UNet。因此，我们的方法表明隐式神经表示非常适合医学成像应用，尤其是处理高分辨率 3D 医学扫描。</t>
+  </si>
+  <si>
+    <t>最近，神经辐射场 (NeRF) 在重建 3D 场景和从一组稀疏的 2D 图像合成新视图方面显示出令人鼓舞的性能。尽管有效，但 NeRF 的性能很大程度上受训练样本质量的影响。由于场景中的姿势图像有限，NeRF 无法很好地泛化到新颖的视图，并且可能会在未观察到的区域中崩溃为琐碎的解决方案。这使得 NeRF 在资源受限的情况下变得不切实际。在本文中，我们提出了一种新颖的学习框架 ActiveNeRF，旨在对输入预算受限的 3D 场景进行建模。具体来说，我们首先将不确定性估计纳入 NeRF 模型，以确保在少量观察下的稳健性，并提供对 NeRF 如何理解场景的解释。在此基础上，我们建议使用基于主动学习方案的新捕获样本来补充现有的训练集。通过评估给定新输入的不确定性减少情况，我们选择带来最多信息增益的样本。通过这种方式，可以用最少的额外资源提高新视图合成的质量。大量实验验证了我们的模型在真实场景和合成场景上的性能，尤其是在训练数据较少的情况下。代码将在 \url{this https URL} 发布。</t>
+  </si>
+  <si>
+    <t>我们提出了一种新颖的端到端 RGB-D SLAM iDF-SLAM，它采用基于特征的深度神经跟踪器作为前端，采用 NeRF 风格的神经隐式映射器作为后端。神经隐式映射器是即时训练的，虽然神经跟踪器是在 ScanNet 数据集上进行预训练的，但它也会随着神经隐式映射器的训练进行微调。在这样的设计下，我们的 iDF-SLAM 能够学习使用特定场景的特征进行相机跟踪，从而实现 SLAM 系统的终身学习。跟踪器和映射器的训练都是自我监督的，没有引入地面真实姿势。我们在 Replica 和 ScanNet 数据集上测试了 iDF-SLAM 的性能，并将结果与​​最近的两个基于 NeRF 的神经 SLAM 系统进行了比较。所提出的 iDF-SLAM 在场景重建和相机跟踪的竞争性能方面展示了最先进的结果。</t>
+  </si>
+  <si>
+    <t>面部 3D 可变形模型是具有无数应用的主要计算机视觉主题，并且在过去二十年中得到了高度优化。深度生成网络的巨大改进为改进此类模型创造了各种可能性，并引起了广泛的兴趣。此外，神经辐射领域的最新进展正在彻底改变已知场景的新视图合成。在这项工作中，我们提出了一个面部 3D 可变形模型，它利用了上述两者，并且可以准确地建模对象的身份、姿势和表情，并在任意光照下渲染它。这是通过利用强大的基于深度样式的生成器来克服神经辐射场的两个主要弱点，即它们的刚性和渲染速度来实现的。我们引入了一种基于样式的生成网络，它一次性合成所有且仅合成神经辐射场所需的渲染样本。我们创建了一个巨大的面部渲染标记合成数据集，并在这些数据上训练网络，以便它可以准确地建模和概括面部身份、姿势和外观。最后，我们证明该模型可以准确地拟合任意姿势和光照的“in-the-wild”人脸图像，提取人脸特征，并用于在可控条件下重新渲染人脸。</t>
+  </si>
+  <si>
+    <t>单目图像的自监督深度学习通常依赖于时间相邻图像帧之间的 2D 像素级光度关系。然而，它们既没有充分利用 3D 逐点几何对应，也没有有效地解决由遮挡或照明不一致引起的光度翘曲的模糊性。为了解决这些问题，这项工作提出了密度体积构建网络 (DevNet)，这是一种新颖的自我监督单目深度学习框架，可以考虑 3D 空间信息，并利用相邻相机平截头体之间更强的几何约束。我们的 DevNet 不是直接从单个图像中回归像素值，而是将相机平截头体划分为多个平行平面，并预测每个平面上的逐点遮挡概率密度。最终的深度图是通过沿相应光线对密度进行积分来生成的。在训练过程中，引入了新的正则化策略和损失函数来减轻光度模糊和过拟合。在没有明显扩大模型参数大小或运行时间的情况下，DevNet 在 KITTI-2015 室外数据集和 NYU-V2 室内数据集上都优于几个具有代表性的基线。特别是，在深度估计任务中，KITTI-2015 和 NYU-V2 上的 DevNet 的均方根偏差降低了约 4%。此 https 网址提供了代码。</t>
+  </si>
+  <si>
+    <t>与成本高昂的传统头像创建流程相比，当代生成方法直接从照片中学习数据分布。虽然大量工作扩展了无条件生成模型并实现了一定程度的可控性，但确保多视图一致性仍然具有挑战性，尤其是在大姿势中。在这项工作中，我们提出了一个生成 3D 感知肖像的网络，同时可以根据有关姿势、身份、表情和照明的语义参数进行控制。我们的网络使用神经场景表示来建模 3D 感知肖像，其生成由支持显式控制的参数化面部模型引导。虽然通过对比具有部分不同属性的图像可以进一步增强潜在的解缠结，但在为表情制作动画时，非面部区域（例如头发和背景）仍然存在明显的不一致。我们通过提出一种体积混合策略来解决这个问题，在该策略中，我们通过混合动态和静态区域来形成复合输出，其中两部分从联合学习的语义场中分割出来。我们的方法在广泛的实验中优于现有技术，当从自由视角观看时，可以在自然光下生成逼真的肖像，并具有生动的表达。它还展示了对真实图像和域外数据的泛化能力，在实际应用中显示出巨大的前景。</t>
+  </si>
+  <si>
+    <t>神经辐射场 (NeRF) 使用密集捕获的输入图像实现照片般逼真的视图合成。然而，在给定稀疏视图的情况下，NeRF 的几何形状受到极大限制，导致新视图合成质量显着下降。受自监督深度估计方法的启发，我们提出了 StructNeRF，这是一种针对具有稀疏输入的室内场景的新颖视图合成的解决方案。 StructNeRF 利用自然嵌入在多视图输入中的结构提示来处理 NeRF 中的无约束几何问题。具体来说，它分别处理纹理和非纹理区域：提出了一种基于块的多视图一致光度损失来约束纹理区域的几何形状；对于非纹理平面，我们明确将它们限制为 3D 一致平面。通过密集的自监督深度约束，我们的方法提高了 NeRF 的几何和视图合成性能，而无需对外部数据进行任何额外的训练。对几个真实世界数据集的广泛实验表明，StructNeRF 在数量和质量上都超过了用于室内场景的最先进的方法。</t>
+  </si>
+  <si>
+    <t>基于 3D 点云表示的视图合成方法已证明是有效的。然而，现有方法通常仅从单个源视图合成新视图，并且将它们泛化以处理多个源视图以追求更高的重建质量并非易事。在本文中，我们提出了一种新的基于深度学习的视图合成范式，它从不同的源视图中学习统一的 3D 点云。具体来说，我们首先通过根据深度图将源视图投影到 3D 空间来构建子点云。然后，我们通过自适应融合子点云联合上定义的局部邻域中的点来学习统一的 3D 点云。此外，我们还提出了一个 3D 几何引导图像恢复模块来填充孔洞并恢复渲染新视图的高频细节。三个基准数据集的实验结果表明，我们的方法在数量上和视觉上都在很大程度上优于最先进的视图合成方法。</t>
+  </si>
+  <si>
+    <t>在目前的工作中，我们提出了一种自监督坐标投影网络（SCOPE），通过解决逆断层扫描成像问题，从单个 SV 正弦图重建无伪影的 CT 图像。与最近使用隐式神经表示网络 (INR) 解决类似问题的相关工作相比，我们的重要贡献是一种有效且简单的重投影策略，该策略将断层扫描图像重建质量提高到有监督的深度学习 CT 重建工作之上。所提出的策略受到线性代数和逆问题之间简单关系的启发。为了求解欠定线性方程组，我们首先引入INR，通过图像连续性先验来约束解空间并获得粗解。其次，我们建议生成密集视图正弦图，提高线性方程组的秩并产生更稳定的 CT 图像解空间。我们的实验结果表明，重投影策略显着提高了图像重建质量（PSNR 至少 +3 dB）。此外，我们将最近的哈希编码集成到我们的 SCOPE 模型中，这极大地加速了模型训练。最后，我们在并行和扇形 X 射线束 SVCT 重建任务中评估 SCOPE。实验结果表明，所提出的 SCOPE 模型在数量和质量上都优于两种最新的基于 INR 的方法和两种流行的监督 DL 方法。</t>
+  </si>
+  <si>
+    <t>增强现实、虚拟现实和远程呈现场景需要点云上采样。尽管几何上采样被很好地研究以致密点云坐标，但颜色的上采样在很大程度上被忽略了。在本文中，我们提出了第一个深度学习点云颜色上采样模型 CU-Net。利用基于稀疏卷积的特征提取器和基于神经隐函数的颜色预测模块，CU-Net 实现了线性时间和空间复杂度。因此，理论上保证 CU-Net 比大多数具有二次复杂度的现有方法更有效。实验结果表明，CU-Net 可以实时为具有近百万个点的照片般逼真的点云着色，同时具有比基线更好的视觉质量。此外，CU-Net 可以适应任意的上采样率和看不见的对象。我们的源代码将很快向公众发布。</t>
+  </si>
+  <si>
+    <t>这项工作的目标是从扫描平台捕获的数据中执行 3D 重建和新颖的视图合成，这些平台通常用于城市户外环境（例如街景）中的世界地图绘制。给定一系列由相机和扫描仪在户外场景中移动获得的 RGB 图像序列和激光雷达扫描，我们生成了一个模型，可以从中提取 3D 表面并合成新的 RGB 图像。我们的方法扩展了神经辐射场，该方法已被证明可以在受控环境中为小场景合成逼真的新颖图像，以及利用异步捕获的激光雷达数据、解决捕获图像之间的曝光变化以及利用预测的图像分割来监督密度的新方法在指向天空的光线上。这三个扩展中的每一个都在街景数据的实验中提供了显着的性能改进。与传统方法（例如~COLMAP）和最近的神经表示（例如~Mip-NeRF）相比，我们的系统产生最先进的 3D 表面重建并合成更高质量的新视图。</t>
   </si>
 </sst>
 </file>
@@ -3425,12 +3785,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T144"/>
+  <dimension ref="A1:T166"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="H19" sqref="H19"/>
+      <selection pane="bottomLeft" activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3507,215 +3867,203 @@
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>783</v>
+        <v>878</v>
       </c>
       <c r="B2" t="s">
-        <v>816</v>
+        <v>920</v>
       </c>
       <c r="D2" t="s">
-        <v>817</v>
+        <v>921</v>
       </c>
       <c r="E2" t="s">
-        <v>818</v>
+        <v>922</v>
       </c>
       <c r="G2" t="s">
-        <v>819</v>
+        <v>925</v>
       </c>
       <c r="H2" t="s">
-        <v>834</v>
-      </c>
-      <c r="O2">
+        <v>947</v>
+      </c>
+      <c r="Q2">
+        <v>1</v>
+      </c>
+      <c r="R2">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>783</v>
+        <v>878</v>
       </c>
       <c r="B3" t="s">
-        <v>813</v>
+        <v>917</v>
+      </c>
+      <c r="C3" t="s">
+        <v>290</v>
       </c>
       <c r="D3" t="s">
-        <v>814</v>
+        <v>918</v>
       </c>
       <c r="E3" t="s">
-        <v>815</v>
+        <v>919</v>
       </c>
       <c r="G3" t="s">
-        <v>820</v>
+        <v>926</v>
       </c>
       <c r="H3" t="s">
-        <v>835</v>
-      </c>
-      <c r="T3">
+        <v>948</v>
+      </c>
+      <c r="L3">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>783</v>
+        <v>878</v>
       </c>
       <c r="B4" t="s">
-        <v>810</v>
+        <v>914</v>
       </c>
       <c r="D4" t="s">
-        <v>811</v>
+        <v>915</v>
       </c>
       <c r="E4" t="s">
-        <v>812</v>
+        <v>916</v>
       </c>
       <c r="G4" t="s">
-        <v>821</v>
+        <v>927</v>
       </c>
       <c r="H4" t="s">
-        <v>836</v>
-      </c>
-      <c r="N4">
-        <v>1</v>
-      </c>
-      <c r="P4">
+        <v>949</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="T4">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>783</v>
+        <v>878</v>
       </c>
       <c r="B5" t="s">
-        <v>807</v>
+        <v>910</v>
       </c>
       <c r="D5" t="s">
-        <v>808</v>
+        <v>911</v>
       </c>
       <c r="E5" t="s">
-        <v>809</v>
+        <v>912</v>
+      </c>
+      <c r="F5" t="s">
+        <v>913</v>
       </c>
       <c r="G5" t="s">
-        <v>822</v>
+        <v>928</v>
       </c>
       <c r="H5" t="s">
-        <v>837</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="N5">
-        <v>1</v>
-      </c>
-      <c r="R5">
+        <v>950</v>
+      </c>
+      <c r="O5">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>783</v>
+        <v>878</v>
       </c>
       <c r="B6" t="s">
-        <v>782</v>
-      </c>
-      <c r="C6" t="s">
-        <v>784</v>
+        <v>907</v>
       </c>
       <c r="D6" t="s">
-        <v>785</v>
+        <v>908</v>
       </c>
       <c r="E6" t="s">
-        <v>786</v>
-      </c>
-      <c r="F6" t="s">
-        <v>787</v>
+        <v>909</v>
       </c>
       <c r="G6" t="s">
-        <v>823</v>
+        <v>929</v>
       </c>
       <c r="H6" t="s">
-        <v>838</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="S6">
+        <v>951</v>
+      </c>
+      <c r="T6">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>783</v>
+        <v>878</v>
       </c>
       <c r="B7" t="s">
-        <v>791</v>
+        <v>903</v>
       </c>
       <c r="D7" t="s">
-        <v>792</v>
+        <v>904</v>
       </c>
       <c r="E7" t="s">
-        <v>793</v>
+        <v>906</v>
       </c>
       <c r="F7" t="s">
-        <v>794</v>
+        <v>905</v>
       </c>
       <c r="G7" t="s">
-        <v>824</v>
+        <v>930</v>
       </c>
       <c r="H7" t="s">
-        <v>839</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="R7">
+        <v>952</v>
+      </c>
+      <c r="S7">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>770</v>
+        <v>878</v>
       </c>
       <c r="B8" t="s">
-        <v>788</v>
+        <v>900</v>
+      </c>
+      <c r="C8" t="s">
+        <v>901</v>
       </c>
       <c r="D8" t="s">
-        <v>789</v>
+        <v>923</v>
       </c>
       <c r="E8" t="s">
-        <v>790</v>
+        <v>902</v>
       </c>
       <c r="G8" t="s">
-        <v>825</v>
+        <v>931</v>
       </c>
       <c r="H8" t="s">
-        <v>840</v>
-      </c>
-      <c r="N8">
+        <v>953</v>
+      </c>
+      <c r="O8">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>770</v>
+        <v>878</v>
       </c>
       <c r="B9" t="s">
-        <v>795</v>
-      </c>
-      <c r="C9" t="s">
-        <v>633</v>
+        <v>897</v>
       </c>
       <c r="D9" t="s">
-        <v>796</v>
+        <v>898</v>
       </c>
       <c r="E9" t="s">
-        <v>797</v>
+        <v>899</v>
       </c>
       <c r="G9" t="s">
-        <v>826</v>
+        <v>932</v>
       </c>
       <c r="H9" t="s">
-        <v>841</v>
-      </c>
-      <c r="M9">
-        <v>1</v>
-      </c>
-      <c r="N9">
+        <v>954</v>
+      </c>
+      <c r="P9">
         <v>1</v>
       </c>
       <c r="R9">
@@ -3724,27 +4072,30 @@
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>770</v>
+        <v>878</v>
       </c>
       <c r="B10" t="s">
-        <v>798</v>
+        <v>892</v>
       </c>
       <c r="C10" t="s">
-        <v>779</v>
+        <v>893</v>
       </c>
       <c r="D10" t="s">
-        <v>799</v>
+        <v>894</v>
       </c>
       <c r="E10" t="s">
-        <v>800</v>
+        <v>895</v>
+      </c>
+      <c r="F10" t="s">
+        <v>896</v>
       </c>
       <c r="G10" t="s">
-        <v>827</v>
+        <v>933</v>
       </c>
       <c r="H10" t="s">
-        <v>842</v>
-      </c>
-      <c r="K10">
+        <v>955</v>
+      </c>
+      <c r="O10">
         <v>1</v>
       </c>
       <c r="T10">
@@ -3753,1131 +4104,1128 @@
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>770</v>
+        <v>878</v>
       </c>
       <c r="B11" t="s">
-        <v>801</v>
-      </c>
-      <c r="C11" t="s">
-        <v>633</v>
+        <v>889</v>
       </c>
       <c r="D11" t="s">
-        <v>802</v>
+        <v>890</v>
       </c>
       <c r="E11" t="s">
-        <v>803</v>
+        <v>891</v>
       </c>
       <c r="G11" t="s">
-        <v>828</v>
+        <v>934</v>
       </c>
       <c r="H11" t="s">
-        <v>843</v>
-      </c>
-      <c r="I11">
+        <v>956</v>
+      </c>
+      <c r="N11">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>770</v>
+        <v>878</v>
       </c>
       <c r="B12" t="s">
-        <v>804</v>
+        <v>885</v>
+      </c>
+      <c r="C12" t="s">
+        <v>886</v>
       </c>
       <c r="D12" t="s">
-        <v>805</v>
+        <v>887</v>
       </c>
       <c r="E12" t="s">
-        <v>806</v>
+        <v>888</v>
       </c>
       <c r="G12" t="s">
-        <v>829</v>
+        <v>935</v>
       </c>
       <c r="H12" t="s">
-        <v>844</v>
-      </c>
-      <c r="K12">
-        <v>1</v>
-      </c>
-      <c r="T12">
+        <v>957</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>770</v>
+        <v>878</v>
       </c>
       <c r="B13" t="s">
-        <v>778</v>
+        <v>882</v>
       </c>
       <c r="C13" t="s">
-        <v>779</v>
+        <v>883</v>
       </c>
       <c r="D13" t="s">
-        <v>780</v>
+        <v>924</v>
       </c>
       <c r="E13" t="s">
-        <v>781</v>
+        <v>884</v>
       </c>
       <c r="G13" t="s">
-        <v>830</v>
+        <v>936</v>
       </c>
       <c r="H13" t="s">
-        <v>845</v>
-      </c>
-      <c r="J13">
-        <v>1</v>
-      </c>
-      <c r="N13">
-        <v>1</v>
-      </c>
-      <c r="R13">
+        <v>958</v>
+      </c>
+      <c r="S13">
+        <v>1</v>
+      </c>
+      <c r="T13">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>698</v>
+        <v>878</v>
       </c>
       <c r="B14" t="s">
-        <v>774</v>
+        <v>877</v>
       </c>
       <c r="D14" t="s">
-        <v>775</v>
+        <v>879</v>
       </c>
       <c r="E14" t="s">
-        <v>776</v>
+        <v>880</v>
       </c>
       <c r="F14" t="s">
-        <v>777</v>
+        <v>881</v>
       </c>
       <c r="G14" t="s">
-        <v>831</v>
+        <v>937</v>
       </c>
       <c r="H14" t="s">
-        <v>846</v>
-      </c>
-      <c r="J14">
+        <v>959</v>
+      </c>
+      <c r="M14">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>698</v>
+        <v>852</v>
       </c>
       <c r="B15" t="s">
-        <v>771</v>
+        <v>874</v>
       </c>
       <c r="D15" t="s">
-        <v>772</v>
+        <v>875</v>
       </c>
       <c r="E15" t="s">
-        <v>773</v>
+        <v>876</v>
       </c>
       <c r="G15" t="s">
-        <v>832</v>
+        <v>938</v>
       </c>
       <c r="H15" t="s">
-        <v>847</v>
-      </c>
-      <c r="K15">
+        <v>960</v>
+      </c>
+      <c r="O15">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>852</v>
+      </c>
+      <c r="B16" t="s">
+        <v>871</v>
+      </c>
+      <c r="D16" t="s">
+        <v>872</v>
+      </c>
+      <c r="E16" t="s">
+        <v>873</v>
+      </c>
+      <c r="G16" t="s">
+        <v>939</v>
+      </c>
+      <c r="H16" t="s">
+        <v>961</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="R16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>852</v>
+      </c>
+      <c r="B17" t="s">
+        <v>868</v>
+      </c>
+      <c r="C17" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" t="s">
+        <v>869</v>
+      </c>
+      <c r="E17" t="s">
+        <v>870</v>
+      </c>
+      <c r="G17" t="s">
+        <v>940</v>
+      </c>
+      <c r="H17" t="s">
+        <v>962</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="T17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>852</v>
+      </c>
+      <c r="B18" t="s">
+        <v>865</v>
+      </c>
+      <c r="D18" t="s">
+        <v>866</v>
+      </c>
+      <c r="E18" t="s">
+        <v>867</v>
+      </c>
+      <c r="G18" t="s">
+        <v>941</v>
+      </c>
+      <c r="H18" t="s">
+        <v>963</v>
+      </c>
+      <c r="R18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>852</v>
+      </c>
+      <c r="B19" t="s">
+        <v>862</v>
+      </c>
+      <c r="D19" t="s">
+        <v>863</v>
+      </c>
+      <c r="E19" t="s">
+        <v>864</v>
+      </c>
+      <c r="G19" t="s">
+        <v>942</v>
+      </c>
+      <c r="H19" t="s">
+        <v>964</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="P19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>852</v>
+      </c>
+      <c r="B20" t="s">
+        <v>859</v>
+      </c>
+      <c r="D20" t="s">
+        <v>860</v>
+      </c>
+      <c r="E20" t="s">
+        <v>861</v>
+      </c>
+      <c r="G20" t="s">
+        <v>943</v>
+      </c>
+      <c r="H20" t="s">
+        <v>965</v>
+      </c>
+      <c r="M20">
+        <v>1</v>
+      </c>
+      <c r="T20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>852</v>
+      </c>
+      <c r="B21" t="s">
+        <v>856</v>
+      </c>
+      <c r="D21" t="s">
+        <v>857</v>
+      </c>
+      <c r="E21" t="s">
+        <v>858</v>
+      </c>
+      <c r="G21" t="s">
+        <v>944</v>
+      </c>
+      <c r="H21" t="s">
+        <v>966</v>
+      </c>
+      <c r="T21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>852</v>
+      </c>
+      <c r="B22" t="s">
+        <v>853</v>
+      </c>
+      <c r="D22" t="s">
+        <v>854</v>
+      </c>
+      <c r="E22" t="s">
+        <v>855</v>
+      </c>
+      <c r="G22" t="s">
+        <v>945</v>
+      </c>
+      <c r="H22" t="s">
+        <v>967</v>
+      </c>
+      <c r="T22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
         <v>154</v>
       </c>
-      <c r="B16" t="s">
-        <v>766</v>
-      </c>
-      <c r="C16" t="s">
-        <v>209</v>
-      </c>
-      <c r="D16" t="s">
-        <v>767</v>
-      </c>
-      <c r="E16" t="s">
-        <v>768</v>
-      </c>
-      <c r="F16" t="s">
-        <v>769</v>
-      </c>
-      <c r="G16" t="s">
-        <v>833</v>
-      </c>
-      <c r="H16" t="s">
-        <v>848</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="Q16">
-        <f>+L13</f>
-        <v>0</v>
-      </c>
-      <c r="T16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>698</v>
-      </c>
-      <c r="B17" t="s">
-        <v>736</v>
-      </c>
-      <c r="D17" t="s">
-        <v>737</v>
-      </c>
-      <c r="E17" t="s">
-        <v>738</v>
-      </c>
-      <c r="G17" t="s">
-        <v>740</v>
-      </c>
-      <c r="H17" t="s">
-        <v>753</v>
-      </c>
-      <c r="R17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>698</v>
-      </c>
-      <c r="B18" t="s">
-        <v>733</v>
-      </c>
-      <c r="D18" t="s">
-        <v>734</v>
-      </c>
-      <c r="E18" t="s">
-        <v>735</v>
-      </c>
-      <c r="G18" t="s">
-        <v>741</v>
-      </c>
-      <c r="H18" t="s">
-        <v>754</v>
-      </c>
-      <c r="J18">
-        <v>1</v>
-      </c>
-      <c r="M18">
-        <v>1</v>
-      </c>
-      <c r="S18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>698</v>
-      </c>
-      <c r="B19" t="s">
-        <v>730</v>
-      </c>
-      <c r="D19" t="s">
-        <v>731</v>
-      </c>
-      <c r="E19" t="s">
-        <v>732</v>
-      </c>
-      <c r="G19" t="s">
-        <v>742</v>
-      </c>
-      <c r="H19" t="s">
-        <v>755</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>698</v>
-      </c>
-      <c r="B20" t="s">
-        <v>727</v>
-      </c>
-      <c r="C20" t="s">
-        <v>48</v>
-      </c>
-      <c r="D20" t="s">
-        <v>728</v>
-      </c>
-      <c r="E20" t="s">
-        <v>729</v>
-      </c>
-      <c r="F20" t="s">
-        <v>729</v>
-      </c>
-      <c r="G20" t="s">
-        <v>743</v>
-      </c>
-      <c r="H20" t="s">
-        <v>756</v>
-      </c>
-      <c r="J20">
-        <v>1</v>
-      </c>
-      <c r="M20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>698</v>
-      </c>
-      <c r="B21" t="s">
-        <v>724</v>
-      </c>
-      <c r="D21" t="s">
-        <v>725</v>
-      </c>
-      <c r="E21" t="s">
-        <v>726</v>
-      </c>
-      <c r="G21" t="s">
-        <v>744</v>
-      </c>
-      <c r="H21" t="s">
-        <v>757</v>
-      </c>
-      <c r="O21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>668</v>
-      </c>
-      <c r="B22" t="s">
-        <v>721</v>
-      </c>
-      <c r="D22" t="s">
-        <v>722</v>
-      </c>
-      <c r="E22" t="s">
-        <v>723</v>
-      </c>
-      <c r="G22" t="s">
-        <v>745</v>
-      </c>
-      <c r="H22" t="s">
-        <v>758</v>
-      </c>
-      <c r="J22">
-        <v>1</v>
-      </c>
-      <c r="N22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>668</v>
-      </c>
       <c r="B23" t="s">
-        <v>716</v>
+        <v>849</v>
       </c>
       <c r="C23" t="s">
-        <v>717</v>
+        <v>205</v>
       </c>
       <c r="D23" t="s">
-        <v>718</v>
+        <v>850</v>
       </c>
       <c r="E23" t="s">
-        <v>719</v>
-      </c>
-      <c r="F23" t="s">
-        <v>720</v>
+        <v>851</v>
       </c>
       <c r="G23" t="s">
-        <v>746</v>
+        <v>946</v>
       </c>
       <c r="H23" t="s">
-        <v>759</v>
-      </c>
-      <c r="Q23">
-        <v>1</v>
-      </c>
-      <c r="R23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
+        <v>968</v>
+      </c>
+      <c r="T23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>668</v>
+        <v>783</v>
       </c>
       <c r="B24" t="s">
-        <v>713</v>
-      </c>
-      <c r="C24" t="s">
-        <v>48</v>
+        <v>816</v>
       </c>
       <c r="D24" t="s">
-        <v>714</v>
+        <v>817</v>
       </c>
       <c r="E24" t="s">
-        <v>715</v>
+        <v>818</v>
       </c>
       <c r="G24" t="s">
-        <v>747</v>
+        <v>819</v>
       </c>
       <c r="H24" t="s">
-        <v>760</v>
-      </c>
-      <c r="R24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
+        <v>834</v>
+      </c>
+      <c r="O24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>668</v>
+        <v>783</v>
       </c>
       <c r="B25" t="s">
-        <v>710</v>
-      </c>
-      <c r="C25" t="s">
-        <v>48</v>
+        <v>813</v>
       </c>
       <c r="D25" t="s">
-        <v>711</v>
+        <v>814</v>
       </c>
       <c r="E25" t="s">
-        <v>712</v>
+        <v>815</v>
       </c>
       <c r="G25" t="s">
-        <v>748</v>
+        <v>820</v>
       </c>
       <c r="H25" t="s">
-        <v>761</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="N25">
-        <v>1</v>
-      </c>
-      <c r="Q25">
-        <v>1</v>
-      </c>
-      <c r="R25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
+        <v>835</v>
+      </c>
+      <c r="T25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>668</v>
+        <v>783</v>
       </c>
       <c r="B26" t="s">
-        <v>706</v>
-      </c>
-      <c r="C26" t="s">
+        <v>810</v>
+      </c>
+      <c r="D26" t="s">
+        <v>811</v>
+      </c>
+      <c r="E26" t="s">
+        <v>812</v>
+      </c>
+      <c r="G26" t="s">
+        <v>821</v>
+      </c>
+      <c r="H26" t="s">
+        <v>836</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="P26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>783</v>
+      </c>
+      <c r="B27" t="s">
+        <v>807</v>
+      </c>
+      <c r="D27" t="s">
+        <v>808</v>
+      </c>
+      <c r="E27" t="s">
+        <v>809</v>
+      </c>
+      <c r="G27" t="s">
+        <v>822</v>
+      </c>
+      <c r="H27" t="s">
+        <v>837</v>
+      </c>
+      <c r="J27">
+        <v>1</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="R27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>783</v>
+      </c>
+      <c r="B28" t="s">
+        <v>782</v>
+      </c>
+      <c r="C28" t="s">
+        <v>784</v>
+      </c>
+      <c r="D28" t="s">
+        <v>785</v>
+      </c>
+      <c r="E28" t="s">
+        <v>786</v>
+      </c>
+      <c r="F28" t="s">
+        <v>787</v>
+      </c>
+      <c r="G28" t="s">
+        <v>823</v>
+      </c>
+      <c r="H28" t="s">
+        <v>838</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="S28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>783</v>
+      </c>
+      <c r="B29" t="s">
+        <v>791</v>
+      </c>
+      <c r="D29" t="s">
+        <v>792</v>
+      </c>
+      <c r="E29" t="s">
+        <v>793</v>
+      </c>
+      <c r="F29" t="s">
+        <v>794</v>
+      </c>
+      <c r="G29" t="s">
+        <v>824</v>
+      </c>
+      <c r="H29" t="s">
+        <v>839</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="R29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>770</v>
+      </c>
+      <c r="B30" t="s">
+        <v>788</v>
+      </c>
+      <c r="D30" t="s">
+        <v>789</v>
+      </c>
+      <c r="E30" t="s">
+        <v>790</v>
+      </c>
+      <c r="G30" t="s">
+        <v>825</v>
+      </c>
+      <c r="H30" t="s">
+        <v>840</v>
+      </c>
+      <c r="N30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>770</v>
+      </c>
+      <c r="B31" t="s">
+        <v>795</v>
+      </c>
+      <c r="C31" t="s">
         <v>633</v>
       </c>
-      <c r="D26" t="s">
-        <v>707</v>
-      </c>
-      <c r="E26" t="s">
-        <v>708</v>
-      </c>
-      <c r="F26" t="s">
-        <v>709</v>
-      </c>
-      <c r="G26" t="s">
-        <v>749</v>
-      </c>
-      <c r="H26" t="s">
-        <v>762</v>
-      </c>
-      <c r="O26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>668</v>
-      </c>
-      <c r="B27" t="s">
-        <v>703</v>
-      </c>
-      <c r="D27" t="s">
-        <v>704</v>
-      </c>
-      <c r="E27" t="s">
-        <v>705</v>
-      </c>
-      <c r="G27" t="s">
-        <v>750</v>
-      </c>
-      <c r="H27" t="s">
-        <v>763</v>
-      </c>
-      <c r="K27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>668</v>
-      </c>
-      <c r="B28" t="s">
-        <v>701</v>
-      </c>
-      <c r="D28" t="s">
-        <v>739</v>
-      </c>
-      <c r="E28" t="s">
-        <v>702</v>
-      </c>
-      <c r="G28" t="s">
-        <v>751</v>
-      </c>
-      <c r="H28" t="s">
-        <v>764</v>
-      </c>
-      <c r="M28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>668</v>
-      </c>
-      <c r="B29" t="s">
-        <v>697</v>
-      </c>
-      <c r="D29" t="s">
-        <v>699</v>
-      </c>
-      <c r="E29" t="s">
-        <v>700</v>
-      </c>
-      <c r="G29" t="s">
-        <v>752</v>
-      </c>
-      <c r="H29" t="s">
-        <v>765</v>
-      </c>
-      <c r="I29">
-        <v>1</v>
-      </c>
-      <c r="Q29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>668</v>
-      </c>
-      <c r="B30" t="s">
-        <v>664</v>
-      </c>
-      <c r="D30" t="s">
-        <v>665</v>
-      </c>
-      <c r="E30" t="s">
-        <v>666</v>
-      </c>
-      <c r="F30" t="s">
-        <v>667</v>
-      </c>
-      <c r="G30" t="s">
-        <v>683</v>
-      </c>
-      <c r="H30" t="s">
-        <v>670</v>
-      </c>
-      <c r="M30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>668</v>
-      </c>
-      <c r="B31" t="s">
-        <v>660</v>
-      </c>
       <c r="D31" t="s">
-        <v>661</v>
+        <v>796</v>
       </c>
       <c r="E31" t="s">
-        <v>662</v>
-      </c>
-      <c r="F31" t="s">
-        <v>663</v>
+        <v>797</v>
       </c>
       <c r="G31" t="s">
-        <v>684</v>
+        <v>826</v>
       </c>
       <c r="H31" t="s">
-        <v>671</v>
-      </c>
-      <c r="J31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
+        <v>841</v>
+      </c>
+      <c r="M31">
+        <v>1</v>
+      </c>
+      <c r="N31">
+        <v>1</v>
+      </c>
+      <c r="R31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>668</v>
+        <v>770</v>
       </c>
       <c r="B32" t="s">
-        <v>657</v>
+        <v>798</v>
       </c>
       <c r="C32" t="s">
-        <v>48</v>
+        <v>779</v>
       </c>
       <c r="D32" t="s">
-        <v>658</v>
+        <v>799</v>
       </c>
       <c r="E32" t="s">
-        <v>659</v>
+        <v>800</v>
       </c>
       <c r="G32" t="s">
-        <v>685</v>
+        <v>827</v>
       </c>
       <c r="H32" t="s">
-        <v>672</v>
-      </c>
-      <c r="I32">
-        <v>1</v>
+        <v>842</v>
       </c>
       <c r="K32">
+        <v>1</v>
+      </c>
+      <c r="T32">
         <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>625</v>
+        <v>770</v>
       </c>
       <c r="B33" t="s">
-        <v>654</v>
+        <v>801</v>
       </c>
       <c r="C33" t="s">
         <v>633</v>
       </c>
       <c r="D33" t="s">
-        <v>655</v>
+        <v>802</v>
       </c>
       <c r="E33" t="s">
-        <v>656</v>
+        <v>803</v>
       </c>
       <c r="G33" t="s">
-        <v>686</v>
+        <v>828</v>
       </c>
       <c r="H33" t="s">
-        <v>673</v>
-      </c>
-      <c r="R33">
+        <v>843</v>
+      </c>
+      <c r="I33">
         <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>625</v>
+        <v>770</v>
       </c>
       <c r="B34" t="s">
-        <v>651</v>
-      </c>
-      <c r="C34" t="s">
-        <v>652</v>
+        <v>804</v>
       </c>
       <c r="D34" t="s">
-        <v>669</v>
+        <v>805</v>
       </c>
       <c r="E34" t="s">
-        <v>653</v>
+        <v>806</v>
       </c>
       <c r="G34" t="s">
-        <v>687</v>
+        <v>829</v>
       </c>
       <c r="H34" t="s">
-        <v>674</v>
+        <v>844</v>
       </c>
       <c r="K34">
         <v>1</v>
       </c>
-      <c r="N34">
+      <c r="T34">
         <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>625</v>
+        <v>770</v>
       </c>
       <c r="B35" t="s">
-        <v>648</v>
+        <v>778</v>
+      </c>
+      <c r="C35" t="s">
+        <v>779</v>
       </c>
       <c r="D35" t="s">
-        <v>649</v>
+        <v>780</v>
       </c>
       <c r="E35" t="s">
-        <v>650</v>
+        <v>781</v>
       </c>
       <c r="G35" t="s">
-        <v>688</v>
+        <v>830</v>
       </c>
       <c r="H35" t="s">
-        <v>675</v>
-      </c>
-      <c r="T35">
+        <v>845</v>
+      </c>
+      <c r="J35">
+        <v>1</v>
+      </c>
+      <c r="N35">
+        <v>1</v>
+      </c>
+      <c r="R35">
         <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>625</v>
+        <v>698</v>
       </c>
       <c r="B36" t="s">
-        <v>644</v>
-      </c>
-      <c r="C36" t="s">
-        <v>48</v>
+        <v>774</v>
       </c>
       <c r="D36" t="s">
-        <v>647</v>
+        <v>775</v>
       </c>
       <c r="E36" t="s">
-        <v>646</v>
+        <v>776</v>
       </c>
       <c r="F36" t="s">
-        <v>645</v>
+        <v>777</v>
       </c>
       <c r="G36" t="s">
-        <v>689</v>
+        <v>831</v>
       </c>
       <c r="H36" t="s">
-        <v>676</v>
-      </c>
-      <c r="O36">
+        <v>846</v>
+      </c>
+      <c r="J36">
         <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>625</v>
+        <v>698</v>
       </c>
       <c r="B37" t="s">
-        <v>641</v>
+        <v>771</v>
       </c>
       <c r="D37" t="s">
-        <v>642</v>
+        <v>772</v>
       </c>
       <c r="E37" t="s">
-        <v>643</v>
+        <v>773</v>
       </c>
       <c r="G37" t="s">
-        <v>690</v>
+        <v>832</v>
       </c>
       <c r="H37" t="s">
-        <v>677</v>
-      </c>
-      <c r="T37">
+        <v>847</v>
+      </c>
+      <c r="K37">
         <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>625</v>
+        <v>154</v>
       </c>
       <c r="B38" t="s">
-        <v>639</v>
+        <v>766</v>
+      </c>
+      <c r="C38" t="s">
+        <v>209</v>
       </c>
       <c r="D38" t="s">
-        <v>640</v>
+        <v>767</v>
       </c>
       <c r="E38" t="s">
-        <v>696</v>
+        <v>768</v>
+      </c>
+      <c r="F38" t="s">
+        <v>769</v>
       </c>
       <c r="G38" t="s">
-        <v>691</v>
+        <v>833</v>
       </c>
       <c r="H38" t="s">
-        <v>678</v>
+        <v>848</v>
       </c>
       <c r="K38">
         <v>1</v>
       </c>
-      <c r="M38">
+      <c r="Q38">
+        <f>+L35</f>
+        <v>0</v>
+      </c>
+      <c r="T38">
         <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>625</v>
+        <v>698</v>
       </c>
       <c r="B39" t="s">
-        <v>636</v>
+        <v>736</v>
       </c>
       <c r="D39" t="s">
-        <v>637</v>
+        <v>737</v>
       </c>
       <c r="E39" t="s">
-        <v>638</v>
+        <v>738</v>
       </c>
       <c r="G39" t="s">
-        <v>692</v>
+        <v>740</v>
       </c>
       <c r="H39" t="s">
-        <v>679</v>
-      </c>
-      <c r="T39">
+        <v>753</v>
+      </c>
+      <c r="R39">
         <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>625</v>
+        <v>698</v>
       </c>
       <c r="B40" t="s">
-        <v>632</v>
-      </c>
-      <c r="C40" t="s">
-        <v>633</v>
+        <v>733</v>
       </c>
       <c r="D40" t="s">
-        <v>634</v>
+        <v>734</v>
       </c>
       <c r="E40" t="s">
-        <v>635</v>
+        <v>735</v>
       </c>
       <c r="G40" t="s">
-        <v>693</v>
+        <v>741</v>
       </c>
       <c r="H40" t="s">
-        <v>680</v>
-      </c>
-      <c r="N40">
+        <v>754</v>
+      </c>
+      <c r="J40">
+        <v>1</v>
+      </c>
+      <c r="M40">
+        <v>1</v>
+      </c>
+      <c r="S40">
         <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>625</v>
+        <v>698</v>
       </c>
       <c r="B41" t="s">
-        <v>629</v>
-      </c>
-      <c r="C41" t="s">
-        <v>48</v>
+        <v>730</v>
       </c>
       <c r="D41" t="s">
-        <v>630</v>
+        <v>731</v>
       </c>
       <c r="E41" t="s">
-        <v>631</v>
+        <v>732</v>
       </c>
       <c r="G41" t="s">
-        <v>694</v>
+        <v>742</v>
       </c>
       <c r="H41" t="s">
-        <v>681</v>
-      </c>
-      <c r="N41">
+        <v>755</v>
+      </c>
+      <c r="K41">
+        <v>1</v>
+      </c>
+      <c r="L41">
+        <v>1</v>
+      </c>
+      <c r="M41">
         <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>625</v>
+        <v>698</v>
       </c>
       <c r="B42" t="s">
-        <v>626</v>
+        <v>727</v>
+      </c>
+      <c r="C42" t="s">
+        <v>48</v>
       </c>
       <c r="D42" t="s">
-        <v>627</v>
+        <v>728</v>
       </c>
       <c r="E42" t="s">
-        <v>628</v>
+        <v>729</v>
+      </c>
+      <c r="F42" t="s">
+        <v>729</v>
       </c>
       <c r="G42" t="s">
-        <v>695</v>
+        <v>743</v>
       </c>
       <c r="H42" t="s">
-        <v>682</v>
-      </c>
-      <c r="N42">
-        <v>1</v>
-      </c>
-      <c r="Q42">
+        <v>756</v>
+      </c>
+      <c r="J42">
+        <v>1</v>
+      </c>
+      <c r="M42">
         <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>17</v>
+        <v>698</v>
       </c>
       <c r="B43" t="s">
-        <v>24</v>
-      </c>
-      <c r="C43" t="s">
-        <v>19</v>
+        <v>724</v>
       </c>
       <c r="D43" t="s">
-        <v>20</v>
+        <v>725</v>
       </c>
       <c r="E43" t="s">
-        <v>21</v>
+        <v>726</v>
       </c>
       <c r="G43" t="s">
-        <v>22</v>
+        <v>744</v>
       </c>
       <c r="H43" t="s">
-        <v>23</v>
-      </c>
-      <c r="L43">
+        <v>757</v>
+      </c>
+      <c r="O43">
         <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>17</v>
+        <v>668</v>
       </c>
       <c r="B44" t="s">
-        <v>25</v>
+        <v>721</v>
       </c>
       <c r="D44" t="s">
-        <v>56</v>
+        <v>722</v>
       </c>
       <c r="E44" t="s">
-        <v>78</v>
+        <v>723</v>
       </c>
       <c r="G44" t="s">
-        <v>108</v>
+        <v>745</v>
       </c>
       <c r="H44" t="s">
-        <v>129</v>
-      </c>
-      <c r="M44">
-        <v>1</v>
-      </c>
-      <c r="S44">
+        <v>758</v>
+      </c>
+      <c r="J44">
+        <v>1</v>
+      </c>
+      <c r="N44">
         <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>17</v>
+        <v>668</v>
       </c>
       <c r="B45" t="s">
-        <v>26</v>
+        <v>716</v>
+      </c>
+      <c r="C45" t="s">
+        <v>717</v>
       </c>
       <c r="D45" t="s">
-        <v>57</v>
+        <v>718</v>
       </c>
       <c r="E45" t="s">
-        <v>79</v>
+        <v>719</v>
+      </c>
+      <c r="F45" t="s">
+        <v>720</v>
       </c>
       <c r="G45" t="s">
-        <v>26</v>
+        <v>746</v>
       </c>
       <c r="H45" t="s">
-        <v>130</v>
-      </c>
-      <c r="N45">
-        <v>1</v>
-      </c>
-      <c r="O45">
+        <v>759</v>
+      </c>
+      <c r="Q45">
+        <v>1</v>
+      </c>
+      <c r="R45">
         <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>17</v>
+        <v>668</v>
       </c>
       <c r="B46" t="s">
-        <v>34</v>
+        <v>713</v>
       </c>
       <c r="C46" t="s">
         <v>48</v>
       </c>
       <c r="D46" t="s">
-        <v>58</v>
+        <v>714</v>
       </c>
       <c r="E46" t="s">
-        <v>80</v>
-      </c>
-      <c r="F46" t="s">
-        <v>100</v>
+        <v>715</v>
       </c>
       <c r="G46" t="s">
-        <v>34</v>
+        <v>747</v>
       </c>
       <c r="H46" t="s">
-        <v>131</v>
-      </c>
-      <c r="M46">
+        <v>760</v>
+      </c>
+      <c r="R46">
         <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>17</v>
+        <v>668</v>
       </c>
       <c r="B47" t="s">
-        <v>27</v>
+        <v>710</v>
+      </c>
+      <c r="C47" t="s">
+        <v>48</v>
       </c>
       <c r="D47" t="s">
-        <v>59</v>
+        <v>711</v>
       </c>
       <c r="E47" t="s">
-        <v>81</v>
+        <v>712</v>
       </c>
       <c r="G47" t="s">
-        <v>109</v>
+        <v>748</v>
       </c>
       <c r="H47" t="s">
-        <v>132</v>
-      </c>
-      <c r="K47">
+        <v>761</v>
+      </c>
+      <c r="L47">
+        <v>1</v>
+      </c>
+      <c r="N47">
+        <v>1</v>
+      </c>
+      <c r="Q47">
+        <v>1</v>
+      </c>
+      <c r="R47">
         <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>17</v>
+        <v>668</v>
       </c>
       <c r="B48" t="s">
-        <v>28</v>
+        <v>706</v>
+      </c>
+      <c r="C48" t="s">
+        <v>633</v>
       </c>
       <c r="D48" t="s">
-        <v>60</v>
+        <v>707</v>
       </c>
       <c r="E48" t="s">
-        <v>82</v>
+        <v>708</v>
+      </c>
+      <c r="F48" t="s">
+        <v>709</v>
       </c>
       <c r="G48" t="s">
-        <v>110</v>
+        <v>749</v>
       </c>
       <c r="H48" t="s">
-        <v>133</v>
-      </c>
-      <c r="J48">
-        <v>1</v>
-      </c>
-      <c r="M48">
+        <v>762</v>
+      </c>
+      <c r="O48">
         <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>17</v>
+        <v>668</v>
       </c>
       <c r="B49" t="s">
-        <v>35</v>
-      </c>
-      <c r="C49" t="s">
-        <v>55</v>
+        <v>703</v>
       </c>
       <c r="D49" t="s">
-        <v>61</v>
+        <v>704</v>
       </c>
       <c r="E49" t="s">
-        <v>83</v>
+        <v>705</v>
       </c>
       <c r="G49" t="s">
-        <v>111</v>
+        <v>750</v>
       </c>
       <c r="H49" t="s">
-        <v>134</v>
-      </c>
-      <c r="J49">
-        <v>1</v>
-      </c>
-      <c r="L49">
+        <v>763</v>
+      </c>
+      <c r="K49">
         <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>17</v>
+        <v>668</v>
       </c>
       <c r="B50" t="s">
-        <v>36</v>
-      </c>
-      <c r="C50" t="s">
-        <v>54</v>
+        <v>701</v>
       </c>
       <c r="D50" t="s">
-        <v>151</v>
+        <v>739</v>
       </c>
       <c r="E50" t="s">
-        <v>83</v>
+        <v>702</v>
       </c>
       <c r="G50" t="s">
-        <v>127</v>
+        <v>751</v>
       </c>
       <c r="H50" t="s">
-        <v>152</v>
-      </c>
-      <c r="J50">
-        <v>1</v>
-      </c>
-      <c r="L50">
+        <v>764</v>
+      </c>
+      <c r="M50">
         <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>18</v>
+        <v>668</v>
       </c>
       <c r="B51" t="s">
-        <v>37</v>
-      </c>
-      <c r="C51" t="s">
-        <v>53</v>
+        <v>697</v>
       </c>
       <c r="D51" t="s">
-        <v>62</v>
+        <v>699</v>
       </c>
       <c r="E51" t="s">
-        <v>84</v>
-      </c>
-      <c r="F51" t="s">
-        <v>101</v>
+        <v>700</v>
       </c>
       <c r="G51" t="s">
-        <v>112</v>
+        <v>752</v>
       </c>
       <c r="H51" t="s">
-        <v>135</v>
-      </c>
-      <c r="T51">
+        <v>765</v>
+      </c>
+      <c r="I51">
+        <v>1</v>
+      </c>
+      <c r="Q51">
         <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>18</v>
+        <v>668</v>
       </c>
       <c r="B52" t="s">
-        <v>38</v>
-      </c>
-      <c r="C52" t="s">
-        <v>52</v>
+        <v>664</v>
       </c>
       <c r="D52" t="s">
-        <v>63</v>
+        <v>665</v>
       </c>
       <c r="E52" t="s">
-        <v>85</v>
+        <v>666</v>
+      </c>
+      <c r="F52" t="s">
+        <v>667</v>
       </c>
       <c r="G52" t="s">
-        <v>113</v>
+        <v>683</v>
       </c>
       <c r="H52" t="s">
-        <v>136</v>
+        <v>670</v>
       </c>
       <c r="M52">
         <v>1</v>
@@ -4885,56 +5233,53 @@
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>18</v>
+        <v>668</v>
       </c>
       <c r="B53" t="s">
-        <v>39</v>
-      </c>
-      <c r="C53" t="s">
-        <v>51</v>
+        <v>660</v>
       </c>
       <c r="D53" t="s">
-        <v>64</v>
+        <v>661</v>
       </c>
       <c r="E53" t="s">
-        <v>86</v>
+        <v>662</v>
+      </c>
+      <c r="F53" t="s">
+        <v>663</v>
       </c>
       <c r="G53" t="s">
-        <v>114</v>
+        <v>684</v>
       </c>
       <c r="H53" t="s">
-        <v>137</v>
-      </c>
-      <c r="M53">
-        <v>1</v>
-      </c>
-      <c r="O53">
+        <v>671</v>
+      </c>
+      <c r="J53">
         <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>18</v>
+        <v>668</v>
       </c>
       <c r="B54" t="s">
-        <v>29</v>
+        <v>657</v>
+      </c>
+      <c r="C54" t="s">
+        <v>48</v>
       </c>
       <c r="D54" t="s">
-        <v>65</v>
+        <v>658</v>
       </c>
       <c r="E54" t="s">
-        <v>87</v>
-      </c>
-      <c r="F54" t="s">
-        <v>102</v>
+        <v>659</v>
       </c>
       <c r="G54" t="s">
-        <v>115</v>
+        <v>685</v>
       </c>
       <c r="H54" t="s">
-        <v>138</v>
-      </c>
-      <c r="J54">
+        <v>672</v>
+      </c>
+      <c r="I54">
         <v>1</v>
       </c>
       <c r="K54">
@@ -4943,437 +5288,386 @@
     </row>
     <row r="55" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>18</v>
+        <v>625</v>
       </c>
       <c r="B55" t="s">
-        <v>40</v>
+        <v>654</v>
       </c>
       <c r="C55" t="s">
-        <v>48</v>
+        <v>633</v>
       </c>
       <c r="D55" t="s">
-        <v>66</v>
+        <v>655</v>
       </c>
       <c r="E55" t="s">
-        <v>88</v>
-      </c>
-      <c r="F55" t="s">
-        <v>103</v>
+        <v>656</v>
       </c>
       <c r="G55" t="s">
-        <v>116</v>
+        <v>686</v>
       </c>
       <c r="H55" t="s">
-        <v>139</v>
-      </c>
-      <c r="O55">
-        <v>1</v>
-      </c>
-      <c r="T55">
+        <v>673</v>
+      </c>
+      <c r="R55">
         <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>18</v>
+        <v>625</v>
       </c>
       <c r="B56" t="s">
-        <v>30</v>
+        <v>651</v>
+      </c>
+      <c r="C56" t="s">
+        <v>652</v>
       </c>
       <c r="D56" t="s">
-        <v>67</v>
+        <v>669</v>
       </c>
       <c r="E56" t="s">
-        <v>89</v>
+        <v>653</v>
       </c>
       <c r="G56" t="s">
-        <v>117</v>
+        <v>687</v>
       </c>
       <c r="H56" t="s">
-        <v>140</v>
+        <v>674</v>
       </c>
       <c r="K56">
         <v>1</v>
       </c>
-      <c r="M56">
-        <v>1</v>
-      </c>
-      <c r="T56">
+      <c r="N56">
         <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>18</v>
+        <v>625</v>
       </c>
       <c r="B57" t="s">
-        <v>41</v>
-      </c>
-      <c r="C57" t="s">
-        <v>50</v>
+        <v>648</v>
       </c>
       <c r="D57" t="s">
-        <v>68</v>
+        <v>649</v>
       </c>
       <c r="E57" t="s">
-        <v>90</v>
+        <v>650</v>
       </c>
       <c r="G57" t="s">
-        <v>118</v>
+        <v>688</v>
       </c>
       <c r="H57" t="s">
-        <v>141</v>
-      </c>
-      <c r="K57">
-        <v>1</v>
-      </c>
-      <c r="N57">
+        <v>675</v>
+      </c>
+      <c r="T57">
         <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>18</v>
+        <v>625</v>
       </c>
       <c r="B58" t="s">
-        <v>42</v>
+        <v>644</v>
       </c>
       <c r="C58" t="s">
         <v>48</v>
       </c>
       <c r="D58" t="s">
-        <v>69</v>
+        <v>647</v>
       </c>
       <c r="E58" t="s">
-        <v>91</v>
+        <v>646</v>
       </c>
       <c r="F58" t="s">
-        <v>104</v>
+        <v>645</v>
       </c>
       <c r="G58" t="s">
-        <v>119</v>
+        <v>689</v>
       </c>
       <c r="H58" t="s">
-        <v>142</v>
-      </c>
-      <c r="R58">
-        <v>1</v>
-      </c>
-      <c r="T58">
+        <v>676</v>
+      </c>
+      <c r="O58">
         <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>18</v>
+        <v>625</v>
       </c>
       <c r="B59" t="s">
-        <v>31</v>
+        <v>641</v>
       </c>
       <c r="D59" t="s">
-        <v>70</v>
+        <v>642</v>
       </c>
       <c r="E59" t="s">
-        <v>92</v>
+        <v>643</v>
       </c>
       <c r="G59" t="s">
-        <v>120</v>
+        <v>690</v>
       </c>
       <c r="H59" t="s">
-        <v>143</v>
-      </c>
-      <c r="I59">
+        <v>677</v>
+      </c>
+      <c r="T59">
         <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>18</v>
+        <v>625</v>
       </c>
       <c r="B60" t="s">
-        <v>43</v>
-      </c>
-      <c r="C60" t="s">
-        <v>48</v>
+        <v>639</v>
       </c>
       <c r="D60" t="s">
-        <v>71</v>
+        <v>640</v>
       </c>
       <c r="E60" t="s">
-        <v>93</v>
-      </c>
-      <c r="F60" t="s">
-        <v>105</v>
+        <v>696</v>
       </c>
       <c r="G60" t="s">
-        <v>121</v>
+        <v>691</v>
       </c>
       <c r="H60" t="s">
-        <v>144</v>
-      </c>
-      <c r="O60">
-        <v>1</v>
-      </c>
-      <c r="P60">
+        <v>678</v>
+      </c>
+      <c r="K60">
+        <v>1</v>
+      </c>
+      <c r="M60">
         <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>18</v>
+        <v>625</v>
       </c>
       <c r="B61" t="s">
-        <v>32</v>
+        <v>636</v>
       </c>
       <c r="D61" t="s">
-        <v>72</v>
+        <v>637</v>
       </c>
       <c r="E61" t="s">
-        <v>94</v>
-      </c>
-      <c r="F61" t="s">
-        <v>106</v>
+        <v>638</v>
       </c>
       <c r="G61" t="s">
-        <v>122</v>
+        <v>692</v>
       </c>
       <c r="H61" t="s">
-        <v>145</v>
-      </c>
-      <c r="N61">
-        <v>1</v>
-      </c>
-      <c r="O61">
+        <v>679</v>
+      </c>
+      <c r="T61">
         <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>18</v>
+        <v>625</v>
       </c>
       <c r="B62" t="s">
-        <v>44</v>
+        <v>632</v>
       </c>
       <c r="C62" t="s">
-        <v>48</v>
+        <v>633</v>
       </c>
       <c r="D62" t="s">
-        <v>73</v>
+        <v>634</v>
       </c>
       <c r="E62" t="s">
-        <v>95</v>
-      </c>
-      <c r="F62" t="s">
-        <v>107</v>
+        <v>635</v>
       </c>
       <c r="G62" t="s">
-        <v>123</v>
+        <v>693</v>
       </c>
       <c r="H62" t="s">
-        <v>146</v>
+        <v>680</v>
       </c>
       <c r="N62">
-        <v>1</v>
-      </c>
-      <c r="O62">
         <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>18</v>
+        <v>625</v>
       </c>
       <c r="B63" t="s">
-        <v>45</v>
+        <v>629</v>
       </c>
       <c r="C63" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D63" t="s">
-        <v>74</v>
+        <v>630</v>
       </c>
       <c r="E63" t="s">
-        <v>96</v>
+        <v>631</v>
       </c>
       <c r="G63" t="s">
-        <v>124</v>
+        <v>694</v>
       </c>
       <c r="H63" t="s">
-        <v>147</v>
-      </c>
-      <c r="T63">
+        <v>681</v>
+      </c>
+      <c r="N63">
         <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>18</v>
+        <v>625</v>
       </c>
       <c r="B64" t="s">
-        <v>46</v>
-      </c>
-      <c r="C64" t="s">
-        <v>48</v>
+        <v>626</v>
       </c>
       <c r="D64" t="s">
-        <v>75</v>
+        <v>627</v>
       </c>
       <c r="E64" t="s">
-        <v>97</v>
+        <v>628</v>
       </c>
       <c r="G64" t="s">
-        <v>125</v>
+        <v>695</v>
       </c>
       <c r="H64" t="s">
-        <v>148</v>
-      </c>
-      <c r="J64">
-        <v>1</v>
-      </c>
-      <c r="L64">
+        <v>682</v>
+      </c>
+      <c r="N64">
+        <v>1</v>
+      </c>
+      <c r="Q64">
         <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B65" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="C65" t="s">
-        <v>290</v>
+        <v>19</v>
       </c>
       <c r="D65" t="s">
-        <v>76</v>
+        <v>20</v>
       </c>
       <c r="E65" t="s">
-        <v>98</v>
+        <v>21</v>
       </c>
       <c r="G65" t="s">
-        <v>126</v>
+        <v>22</v>
       </c>
       <c r="H65" t="s">
-        <v>149</v>
-      </c>
-      <c r="J65">
-        <v>1</v>
-      </c>
-      <c r="N65">
-        <v>1</v>
-      </c>
-      <c r="P65">
+        <v>23</v>
+      </c>
+      <c r="L65">
         <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B66" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="D66" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="E66" t="s">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="G66" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="H66" t="s">
-        <v>150</v>
-      </c>
-      <c r="T66">
+        <v>129</v>
+      </c>
+      <c r="M66">
+        <v>1</v>
+      </c>
+      <c r="S66">
         <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>154</v>
+        <v>17</v>
       </c>
       <c r="B67" t="s">
-        <v>155</v>
-      </c>
-      <c r="C67" t="s">
-        <v>157</v>
+        <v>26</v>
       </c>
       <c r="D67" t="s">
-        <v>259</v>
+        <v>57</v>
       </c>
       <c r="E67" t="s">
-        <v>158</v>
-      </c>
-      <c r="F67" t="s">
-        <v>159</v>
+        <v>79</v>
       </c>
       <c r="G67" t="s">
-        <v>160</v>
+        <v>26</v>
       </c>
       <c r="H67" t="s">
-        <v>161</v>
-      </c>
-      <c r="T67">
+        <v>130</v>
+      </c>
+      <c r="N67">
+        <v>1</v>
+      </c>
+      <c r="O67">
         <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>154</v>
+        <v>17</v>
       </c>
       <c r="B68" t="s">
-        <v>156</v>
+        <v>34</v>
       </c>
       <c r="C68" t="s">
-        <v>357</v>
+        <v>48</v>
       </c>
       <c r="D68" t="s">
-        <v>162</v>
+        <v>58</v>
       </c>
       <c r="E68" t="s">
-        <v>163</v>
+        <v>80</v>
       </c>
       <c r="F68" t="s">
-        <v>164</v>
+        <v>100</v>
       </c>
       <c r="G68" t="s">
-        <v>166</v>
+        <v>34</v>
       </c>
       <c r="H68" t="s">
-        <v>165</v>
-      </c>
-      <c r="J68">
-        <v>1</v>
-      </c>
-      <c r="K68">
+        <v>131</v>
+      </c>
+      <c r="M68">
         <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>154</v>
+        <v>17</v>
       </c>
       <c r="B69" t="s">
-        <v>167</v>
-      </c>
-      <c r="C69" t="s">
-        <v>168</v>
+        <v>27</v>
       </c>
       <c r="D69" t="s">
-        <v>169</v>
+        <v>59</v>
       </c>
       <c r="E69" t="s">
-        <v>172</v>
-      </c>
-      <c r="F69" t="s">
-        <v>173</v>
+        <v>81</v>
       </c>
       <c r="G69" t="s">
-        <v>171</v>
+        <v>109</v>
       </c>
       <c r="H69" t="s">
-        <v>170</v>
+        <v>132</v>
       </c>
       <c r="K69">
         <v>1</v>
@@ -5381,190 +5675,196 @@
     </row>
     <row r="70" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>154</v>
+        <v>17</v>
       </c>
       <c r="B70" t="s">
-        <v>174</v>
+        <v>28</v>
       </c>
       <c r="D70" t="s">
-        <v>175</v>
+        <v>60</v>
       </c>
       <c r="E70" t="s">
-        <v>176</v>
+        <v>82</v>
       </c>
       <c r="G70" t="s">
-        <v>474</v>
+        <v>110</v>
       </c>
       <c r="H70" t="s">
-        <v>549</v>
-      </c>
-      <c r="K70">
+        <v>133</v>
+      </c>
+      <c r="J70">
+        <v>1</v>
+      </c>
+      <c r="M70">
         <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>154</v>
+        <v>17</v>
       </c>
       <c r="B71" t="s">
-        <v>177</v>
+        <v>35</v>
       </c>
       <c r="C71" t="s">
-        <v>178</v>
+        <v>55</v>
       </c>
       <c r="D71" t="s">
-        <v>179</v>
+        <v>61</v>
       </c>
       <c r="E71" t="s">
-        <v>180</v>
-      </c>
-      <c r="F71" t="s">
-        <v>181</v>
+        <v>83</v>
       </c>
       <c r="G71" t="s">
-        <v>475</v>
+        <v>111</v>
       </c>
       <c r="H71" t="s">
-        <v>550</v>
-      </c>
-      <c r="K71">
+        <v>134</v>
+      </c>
+      <c r="J71">
+        <v>1</v>
+      </c>
+      <c r="L71">
         <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>154</v>
+        <v>17</v>
       </c>
       <c r="B72" t="s">
-        <v>182</v>
+        <v>36</v>
       </c>
       <c r="C72" t="s">
-        <v>185</v>
+        <v>54</v>
       </c>
       <c r="D72" t="s">
-        <v>183</v>
+        <v>151</v>
       </c>
       <c r="E72" t="s">
-        <v>184</v>
+        <v>83</v>
       </c>
       <c r="G72" t="s">
-        <v>476</v>
+        <v>127</v>
       </c>
       <c r="H72" t="s">
-        <v>551</v>
-      </c>
-      <c r="K72">
+        <v>152</v>
+      </c>
+      <c r="J72">
+        <v>1</v>
+      </c>
+      <c r="L72">
         <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>154</v>
+        <v>18</v>
       </c>
       <c r="B73" t="s">
-        <v>186</v>
+        <v>37</v>
       </c>
       <c r="C73" t="s">
-        <v>185</v>
+        <v>53</v>
       </c>
       <c r="D73" t="s">
-        <v>187</v>
+        <v>62</v>
       </c>
       <c r="E73" t="s">
-        <v>188</v>
+        <v>84</v>
       </c>
       <c r="F73" t="s">
-        <v>189</v>
+        <v>101</v>
       </c>
       <c r="G73" t="s">
-        <v>477</v>
+        <v>112</v>
       </c>
       <c r="H73" t="s">
-        <v>552</v>
-      </c>
-      <c r="K73">
+        <v>135</v>
+      </c>
+      <c r="T73">
         <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>154</v>
+        <v>18</v>
       </c>
       <c r="B74" t="s">
-        <v>190</v>
+        <v>38</v>
       </c>
       <c r="C74" t="s">
-        <v>191</v>
+        <v>52</v>
       </c>
       <c r="D74" t="s">
-        <v>192</v>
+        <v>63</v>
       </c>
       <c r="E74" t="s">
-        <v>193</v>
-      </c>
-      <c r="F74" t="s">
-        <v>194</v>
+        <v>85</v>
       </c>
       <c r="G74" t="s">
-        <v>478</v>
+        <v>113</v>
       </c>
       <c r="H74" t="s">
-        <v>553</v>
-      </c>
-      <c r="K74">
+        <v>136</v>
+      </c>
+      <c r="M74">
         <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>154</v>
+        <v>18</v>
       </c>
       <c r="B75" t="s">
-        <v>195</v>
+        <v>39</v>
       </c>
       <c r="C75" t="s">
-        <v>196</v>
+        <v>51</v>
       </c>
       <c r="D75" t="s">
-        <v>197</v>
+        <v>64</v>
       </c>
       <c r="E75" t="s">
-        <v>198</v>
+        <v>86</v>
       </c>
       <c r="G75" t="s">
-        <v>479</v>
+        <v>114</v>
       </c>
       <c r="H75" t="s">
-        <v>554</v>
-      </c>
-      <c r="K75">
+        <v>137</v>
+      </c>
+      <c r="M75">
+        <v>1</v>
+      </c>
+      <c r="O75">
         <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>154</v>
+        <v>18</v>
       </c>
       <c r="B76" t="s">
-        <v>199</v>
-      </c>
-      <c r="C76" t="s">
-        <v>358</v>
+        <v>29</v>
       </c>
       <c r="D76" t="s">
-        <v>200</v>
+        <v>65</v>
       </c>
       <c r="E76" t="s">
-        <v>201</v>
+        <v>87</v>
       </c>
       <c r="F76" t="s">
-        <v>202</v>
+        <v>102</v>
       </c>
       <c r="G76" t="s">
-        <v>480</v>
+        <v>115</v>
       </c>
       <c r="H76" t="s">
-        <v>555</v>
+        <v>138</v>
+      </c>
+      <c r="J76">
+        <v>1</v>
       </c>
       <c r="K76">
         <v>1</v>
@@ -5572,123 +5872,120 @@
     </row>
     <row r="77" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>154</v>
+        <v>18</v>
       </c>
       <c r="B77" t="s">
-        <v>203</v>
+        <v>40</v>
       </c>
       <c r="C77" t="s">
-        <v>205</v>
+        <v>48</v>
       </c>
       <c r="D77" t="s">
-        <v>206</v>
+        <v>66</v>
       </c>
       <c r="E77" t="s">
-        <v>207</v>
+        <v>88</v>
       </c>
       <c r="F77" t="s">
-        <v>204</v>
+        <v>103</v>
       </c>
       <c r="G77" t="s">
-        <v>481</v>
+        <v>116</v>
       </c>
       <c r="H77" t="s">
-        <v>556</v>
-      </c>
-      <c r="K77">
+        <v>139</v>
+      </c>
+      <c r="O77">
+        <v>1</v>
+      </c>
+      <c r="T77">
         <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>154</v>
+        <v>18</v>
       </c>
       <c r="B78" t="s">
-        <v>208</v>
-      </c>
-      <c r="C78" t="s">
-        <v>209</v>
+        <v>30</v>
       </c>
       <c r="D78" t="s">
-        <v>210</v>
+        <v>67</v>
       </c>
       <c r="E78" t="s">
-        <v>211</v>
-      </c>
-      <c r="F78" t="s">
-        <v>212</v>
+        <v>89</v>
       </c>
       <c r="G78" t="s">
-        <v>482</v>
+        <v>117</v>
       </c>
       <c r="H78" t="s">
-        <v>557</v>
+        <v>140</v>
       </c>
       <c r="K78">
+        <v>1</v>
+      </c>
+      <c r="M78">
+        <v>1</v>
+      </c>
+      <c r="T78">
         <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>154</v>
+        <v>18</v>
       </c>
       <c r="B79" t="s">
-        <v>213</v>
+        <v>41</v>
       </c>
       <c r="C79" t="s">
-        <v>168</v>
+        <v>50</v>
       </c>
       <c r="D79" t="s">
-        <v>214</v>
+        <v>68</v>
       </c>
       <c r="E79" t="s">
-        <v>215</v>
+        <v>90</v>
       </c>
       <c r="G79" t="s">
-        <v>483</v>
+        <v>118</v>
       </c>
       <c r="H79" t="s">
-        <v>558</v>
-      </c>
-      <c r="I79">
-        <v>1</v>
-      </c>
-      <c r="O79">
-        <v>1</v>
-      </c>
-      <c r="T79">
+        <v>141</v>
+      </c>
+      <c r="K79">
+        <v>1</v>
+      </c>
+      <c r="N79">
         <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>154</v>
+        <v>18</v>
       </c>
       <c r="B80" t="s">
-        <v>216</v>
+        <v>42</v>
       </c>
       <c r="C80" t="s">
-        <v>205</v>
+        <v>48</v>
       </c>
       <c r="D80" t="s">
-        <v>217</v>
+        <v>69</v>
       </c>
       <c r="E80" t="s">
-        <v>218</v>
+        <v>91</v>
       </c>
       <c r="F80" t="s">
-        <v>219</v>
+        <v>104</v>
       </c>
       <c r="G80" t="s">
-        <v>484</v>
+        <v>119</v>
       </c>
       <c r="H80" t="s">
-        <v>559</v>
-      </c>
-      <c r="I80">
-        <v>1</v>
-      </c>
-      <c r="O80">
+        <v>142</v>
+      </c>
+      <c r="R80">
         <v>1</v>
       </c>
       <c r="T80">
@@ -5697,159 +5994,141 @@
     </row>
     <row r="81" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>154</v>
+        <v>18</v>
       </c>
       <c r="B81" t="s">
-        <v>220</v>
-      </c>
-      <c r="C81" t="s">
-        <v>185</v>
+        <v>31</v>
       </c>
       <c r="D81" t="s">
-        <v>221</v>
+        <v>70</v>
       </c>
       <c r="E81" t="s">
-        <v>222</v>
+        <v>92</v>
       </c>
       <c r="G81" t="s">
-        <v>485</v>
+        <v>120</v>
       </c>
       <c r="H81" t="s">
-        <v>560</v>
-      </c>
-      <c r="O81">
-        <v>1</v>
-      </c>
-      <c r="T81">
+        <v>143</v>
+      </c>
+      <c r="I81">
         <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>154</v>
+        <v>18</v>
       </c>
       <c r="B82" t="s">
-        <v>223</v>
+        <v>43</v>
       </c>
       <c r="C82" t="s">
-        <v>168</v>
+        <v>48</v>
       </c>
       <c r="D82" t="s">
-        <v>224</v>
+        <v>71</v>
       </c>
       <c r="E82" t="s">
-        <v>225</v>
+        <v>93</v>
       </c>
       <c r="F82" t="s">
-        <v>226</v>
+        <v>105</v>
       </c>
       <c r="G82" t="s">
-        <v>486</v>
+        <v>121</v>
       </c>
       <c r="H82" t="s">
-        <v>561</v>
-      </c>
-      <c r="L82">
-        <v>1</v>
-      </c>
-      <c r="T82">
+        <v>144</v>
+      </c>
+      <c r="O82">
+        <v>1</v>
+      </c>
+      <c r="P82">
         <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>154</v>
+        <v>18</v>
       </c>
       <c r="B83" t="s">
-        <v>227</v>
-      </c>
-      <c r="C83" t="s">
-        <v>168</v>
+        <v>32</v>
       </c>
       <c r="D83" t="s">
-        <v>228</v>
+        <v>72</v>
       </c>
       <c r="E83" t="s">
-        <v>229</v>
+        <v>94</v>
       </c>
       <c r="F83" t="s">
-        <v>230</v>
+        <v>106</v>
       </c>
       <c r="G83" t="s">
-        <v>487</v>
+        <v>122</v>
       </c>
       <c r="H83" t="s">
-        <v>562</v>
-      </c>
-      <c r="L83">
+        <v>145</v>
+      </c>
+      <c r="N83">
         <v>1</v>
       </c>
       <c r="O83">
-        <v>1</v>
-      </c>
-      <c r="R83">
-        <v>1</v>
-      </c>
-      <c r="T83">
         <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>154</v>
+        <v>18</v>
       </c>
       <c r="B84" t="s">
-        <v>231</v>
+        <v>44</v>
       </c>
       <c r="C84" t="s">
-        <v>185</v>
+        <v>48</v>
       </c>
       <c r="D84" t="s">
-        <v>232</v>
+        <v>73</v>
       </c>
       <c r="E84" t="s">
-        <v>233</v>
+        <v>95</v>
       </c>
       <c r="F84" t="s">
-        <v>234</v>
+        <v>107</v>
       </c>
       <c r="G84" t="s">
-        <v>488</v>
+        <v>123</v>
       </c>
       <c r="H84" t="s">
-        <v>563</v>
-      </c>
-      <c r="L84">
-        <v>1</v>
+        <v>146</v>
       </c>
       <c r="N84">
+        <v>1</v>
+      </c>
+      <c r="O84">
         <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>154</v>
+        <v>18</v>
       </c>
       <c r="B85" t="s">
-        <v>235</v>
+        <v>45</v>
       </c>
       <c r="C85" t="s">
-        <v>168</v>
+        <v>49</v>
       </c>
       <c r="D85" t="s">
-        <v>236</v>
+        <v>74</v>
       </c>
       <c r="E85" t="s">
-        <v>237</v>
+        <v>96</v>
       </c>
       <c r="G85" t="s">
-        <v>489</v>
+        <v>124</v>
       </c>
       <c r="H85" t="s">
-        <v>564</v>
-      </c>
-      <c r="R85">
-        <v>1</v>
+        <v>147</v>
       </c>
       <c r="T85">
         <v>1</v>
@@ -5857,89 +6136,83 @@
     </row>
     <row r="86" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>154</v>
+        <v>18</v>
       </c>
       <c r="B86" t="s">
-        <v>238</v>
+        <v>46</v>
       </c>
       <c r="C86" t="s">
-        <v>185</v>
+        <v>48</v>
       </c>
       <c r="D86" t="s">
-        <v>239</v>
+        <v>75</v>
       </c>
       <c r="E86" t="s">
-        <v>240</v>
-      </c>
-      <c r="F86" t="s">
-        <v>241</v>
+        <v>97</v>
       </c>
       <c r="G86" t="s">
-        <v>490</v>
+        <v>125</v>
       </c>
       <c r="H86" t="s">
-        <v>565</v>
-      </c>
-      <c r="N86">
-        <v>1</v>
-      </c>
-      <c r="O86">
+        <v>148</v>
+      </c>
+      <c r="J86">
+        <v>1</v>
+      </c>
+      <c r="L86">
         <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>154</v>
+        <v>18</v>
       </c>
       <c r="B87" t="s">
-        <v>242</v>
+        <v>47</v>
       </c>
       <c r="C87" t="s">
-        <v>243</v>
+        <v>290</v>
       </c>
       <c r="D87" t="s">
-        <v>244</v>
+        <v>76</v>
       </c>
       <c r="E87" t="s">
-        <v>245</v>
+        <v>98</v>
       </c>
       <c r="G87" t="s">
-        <v>491</v>
+        <v>126</v>
       </c>
       <c r="H87" t="s">
-        <v>566</v>
-      </c>
-      <c r="M87">
+        <v>149</v>
+      </c>
+      <c r="J87">
+        <v>1</v>
+      </c>
+      <c r="N87">
+        <v>1</v>
+      </c>
+      <c r="P87">
         <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>154</v>
+        <v>18</v>
       </c>
       <c r="B88" t="s">
-        <v>246</v>
-      </c>
-      <c r="C88" t="s">
-        <v>185</v>
+        <v>33</v>
       </c>
       <c r="D88" t="s">
-        <v>247</v>
+        <v>77</v>
       </c>
       <c r="E88" t="s">
-        <v>248</v>
-      </c>
-      <c r="F88" t="s">
-        <v>249</v>
+        <v>99</v>
       </c>
       <c r="G88" t="s">
-        <v>492</v>
+        <v>128</v>
       </c>
       <c r="H88" t="s">
-        <v>567</v>
-      </c>
-      <c r="R88">
-        <v>1</v>
+        <v>150</v>
       </c>
       <c r="T88">
         <v>1</v>
@@ -5950,30 +6223,27 @@
         <v>154</v>
       </c>
       <c r="B89" t="s">
-        <v>250</v>
+        <v>155</v>
       </c>
       <c r="C89" t="s">
-        <v>251</v>
+        <v>157</v>
       </c>
       <c r="D89" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="E89" t="s">
-        <v>253</v>
+        <v>158</v>
       </c>
       <c r="F89" t="s">
-        <v>254</v>
+        <v>159</v>
       </c>
       <c r="G89" t="s">
-        <v>493</v>
+        <v>160</v>
       </c>
       <c r="H89" t="s">
-        <v>568</v>
-      </c>
-      <c r="O89">
-        <v>1</v>
-      </c>
-      <c r="R89">
+        <v>161</v>
+      </c>
+      <c r="T89">
         <v>1</v>
       </c>
     </row>
@@ -5982,27 +6252,30 @@
         <v>154</v>
       </c>
       <c r="B90" t="s">
-        <v>255</v>
+        <v>156</v>
       </c>
       <c r="C90" t="s">
-        <v>168</v>
+        <v>357</v>
       </c>
       <c r="D90" t="s">
-        <v>260</v>
+        <v>162</v>
       </c>
       <c r="E90" t="s">
-        <v>256</v>
+        <v>163</v>
       </c>
       <c r="F90" t="s">
-        <v>257</v>
+        <v>164</v>
       </c>
       <c r="G90" t="s">
-        <v>494</v>
+        <v>166</v>
       </c>
       <c r="H90" t="s">
-        <v>569</v>
-      </c>
-      <c r="Q90">
+        <v>165</v>
+      </c>
+      <c r="J90">
+        <v>1</v>
+      </c>
+      <c r="K90">
         <v>1</v>
       </c>
     </row>
@@ -6011,30 +6284,27 @@
         <v>154</v>
       </c>
       <c r="B91" t="s">
-        <v>262</v>
+        <v>167</v>
       </c>
       <c r="C91" t="s">
         <v>168</v>
       </c>
       <c r="D91" t="s">
-        <v>263</v>
+        <v>169</v>
       </c>
       <c r="E91" t="s">
-        <v>264</v>
+        <v>172</v>
       </c>
       <c r="F91" t="s">
-        <v>265</v>
+        <v>173</v>
       </c>
       <c r="G91" t="s">
-        <v>495</v>
+        <v>171</v>
       </c>
       <c r="H91" t="s">
-        <v>570</v>
-      </c>
-      <c r="L91">
-        <v>1</v>
-      </c>
-      <c r="R91">
+        <v>170</v>
+      </c>
+      <c r="K91">
         <v>1</v>
       </c>
     </row>
@@ -6043,24 +6313,21 @@
         <v>154</v>
       </c>
       <c r="B92" t="s">
-        <v>266</v>
-      </c>
-      <c r="C92" t="s">
-        <v>209</v>
+        <v>174</v>
       </c>
       <c r="D92" t="s">
-        <v>267</v>
+        <v>175</v>
       </c>
       <c r="E92" t="s">
-        <v>268</v>
+        <v>176</v>
       </c>
       <c r="G92" t="s">
-        <v>496</v>
+        <v>474</v>
       </c>
       <c r="H92" t="s">
-        <v>571</v>
-      </c>
-      <c r="Q92">
+        <v>549</v>
+      </c>
+      <c r="K92">
         <v>1</v>
       </c>
     </row>
@@ -6069,30 +6336,27 @@
         <v>154</v>
       </c>
       <c r="B93" t="s">
-        <v>269</v>
+        <v>177</v>
       </c>
       <c r="C93" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="D93" t="s">
-        <v>270</v>
+        <v>179</v>
       </c>
       <c r="E93" t="s">
-        <v>271</v>
+        <v>180</v>
       </c>
       <c r="F93" t="s">
-        <v>272</v>
+        <v>181</v>
       </c>
       <c r="G93" t="s">
-        <v>497</v>
+        <v>475</v>
       </c>
       <c r="H93" t="s">
-        <v>572</v>
-      </c>
-      <c r="L93">
-        <v>1</v>
-      </c>
-      <c r="Q93">
+        <v>550</v>
+      </c>
+      <c r="K93">
         <v>1</v>
       </c>
     </row>
@@ -6101,27 +6365,24 @@
         <v>154</v>
       </c>
       <c r="B94" t="s">
-        <v>273</v>
+        <v>182</v>
       </c>
       <c r="C94" t="s">
-        <v>357</v>
+        <v>185</v>
       </c>
       <c r="D94" t="s">
-        <v>275</v>
+        <v>183</v>
       </c>
       <c r="E94" t="s">
-        <v>359</v>
-      </c>
-      <c r="F94" t="s">
-        <v>274</v>
+        <v>184</v>
       </c>
       <c r="G94" t="s">
-        <v>498</v>
+        <v>476</v>
       </c>
       <c r="H94" t="s">
-        <v>573</v>
-      </c>
-      <c r="M94">
+        <v>551</v>
+      </c>
+      <c r="K94">
         <v>1</v>
       </c>
     </row>
@@ -6130,30 +6391,27 @@
         <v>154</v>
       </c>
       <c r="B95" t="s">
-        <v>276</v>
+        <v>186</v>
       </c>
       <c r="C95" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="D95" t="s">
-        <v>277</v>
+        <v>187</v>
       </c>
       <c r="E95" t="s">
-        <v>278</v>
+        <v>188</v>
       </c>
       <c r="F95" t="s">
-        <v>279</v>
+        <v>189</v>
       </c>
       <c r="G95" t="s">
-        <v>499</v>
+        <v>477</v>
       </c>
       <c r="H95" t="s">
-        <v>574</v>
-      </c>
-      <c r="M95">
-        <v>1</v>
-      </c>
-      <c r="N95">
+        <v>552</v>
+      </c>
+      <c r="K95">
         <v>1</v>
       </c>
     </row>
@@ -6162,1475 +6420,2150 @@
         <v>154</v>
       </c>
       <c r="B96" t="s">
-        <v>280</v>
+        <v>190</v>
       </c>
       <c r="C96" t="s">
-        <v>168</v>
+        <v>191</v>
       </c>
       <c r="D96" t="s">
-        <v>281</v>
+        <v>192</v>
       </c>
       <c r="E96" t="s">
-        <v>282</v>
+        <v>193</v>
       </c>
       <c r="F96" t="s">
-        <v>283</v>
+        <v>194</v>
       </c>
       <c r="G96" t="s">
-        <v>500</v>
+        <v>478</v>
       </c>
       <c r="H96" t="s">
-        <v>575</v>
-      </c>
-      <c r="M96">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.2">
+        <v>553</v>
+      </c>
+      <c r="K96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>154</v>
       </c>
       <c r="B97" t="s">
-        <v>284</v>
+        <v>195</v>
       </c>
       <c r="C97" t="s">
-        <v>168</v>
+        <v>196</v>
       </c>
       <c r="D97" t="s">
-        <v>285</v>
+        <v>197</v>
       </c>
       <c r="E97" t="s">
-        <v>287</v>
-      </c>
-      <c r="F97" t="s">
-        <v>286</v>
+        <v>198</v>
       </c>
       <c r="G97" t="s">
-        <v>501</v>
+        <v>479</v>
       </c>
       <c r="H97" t="s">
-        <v>576</v>
-      </c>
-      <c r="M97">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.2">
+        <v>554</v>
+      </c>
+      <c r="K97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>154</v>
       </c>
       <c r="B98" t="s">
-        <v>288</v>
+        <v>199</v>
       </c>
       <c r="C98" t="s">
-        <v>289</v>
+        <v>358</v>
       </c>
       <c r="D98" t="s">
-        <v>291</v>
+        <v>200</v>
       </c>
       <c r="E98" t="s">
-        <v>292</v>
+        <v>201</v>
       </c>
       <c r="F98" t="s">
-        <v>293</v>
+        <v>202</v>
       </c>
       <c r="G98" t="s">
-        <v>502</v>
+        <v>480</v>
       </c>
       <c r="H98" t="s">
-        <v>577</v>
-      </c>
-      <c r="M98">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99" spans="1:19" x14ac:dyDescent="0.2">
+        <v>555</v>
+      </c>
+      <c r="K98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>154</v>
       </c>
       <c r="B99" t="s">
-        <v>294</v>
+        <v>203</v>
+      </c>
+      <c r="C99" t="s">
+        <v>205</v>
       </c>
       <c r="D99" t="s">
-        <v>295</v>
+        <v>206</v>
       </c>
       <c r="E99" t="s">
-        <v>296</v>
+        <v>207</v>
+      </c>
+      <c r="F99" t="s">
+        <v>204</v>
       </c>
       <c r="G99" t="s">
-        <v>503</v>
+        <v>481</v>
       </c>
       <c r="H99" t="s">
-        <v>578</v>
-      </c>
-      <c r="M99">
-        <v>1</v>
-      </c>
-      <c r="R99">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.2">
+        <v>556</v>
+      </c>
+      <c r="K99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>154</v>
       </c>
       <c r="B100" t="s">
-        <v>297</v>
+        <v>208</v>
       </c>
       <c r="C100" t="s">
-        <v>298</v>
+        <v>209</v>
       </c>
       <c r="D100" t="s">
-        <v>299</v>
+        <v>210</v>
       </c>
       <c r="E100" t="s">
-        <v>300</v>
+        <v>211</v>
       </c>
       <c r="F100" t="s">
-        <v>301</v>
+        <v>212</v>
       </c>
       <c r="G100" t="s">
-        <v>504</v>
+        <v>482</v>
       </c>
       <c r="H100" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="101" spans="1:19" x14ac:dyDescent="0.2">
+        <v>557</v>
+      </c>
+      <c r="K100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>154</v>
       </c>
       <c r="B101" t="s">
-        <v>302</v>
+        <v>213</v>
       </c>
       <c r="C101" t="s">
         <v>168</v>
       </c>
       <c r="D101" t="s">
-        <v>303</v>
+        <v>214</v>
       </c>
       <c r="E101" t="s">
-        <v>304</v>
-      </c>
-      <c r="F101" t="s">
-        <v>305</v>
+        <v>215</v>
       </c>
       <c r="G101" t="s">
-        <v>505</v>
+        <v>483</v>
       </c>
       <c r="H101" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="102" spans="1:19" x14ac:dyDescent="0.2">
+        <v>558</v>
+      </c>
+      <c r="I101">
+        <v>1</v>
+      </c>
+      <c r="O101">
+        <v>1</v>
+      </c>
+      <c r="T101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>154</v>
       </c>
       <c r="B102" t="s">
-        <v>306</v>
+        <v>216</v>
+      </c>
+      <c r="C102" t="s">
+        <v>205</v>
       </c>
       <c r="D102" t="s">
-        <v>307</v>
+        <v>217</v>
       </c>
       <c r="E102" t="s">
-        <v>308</v>
+        <v>218</v>
+      </c>
+      <c r="F102" t="s">
+        <v>219</v>
       </c>
       <c r="G102" t="s">
-        <v>506</v>
+        <v>484</v>
       </c>
       <c r="H102" t="s">
-        <v>581</v>
-      </c>
-      <c r="J102">
-        <v>1</v>
-      </c>
-      <c r="M102">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="103" spans="1:19" x14ac:dyDescent="0.2">
+        <v>559</v>
+      </c>
+      <c r="I102">
+        <v>1</v>
+      </c>
+      <c r="O102">
+        <v>1</v>
+      </c>
+      <c r="T102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>154</v>
       </c>
       <c r="B103" t="s">
-        <v>309</v>
+        <v>220</v>
+      </c>
+      <c r="C103" t="s">
+        <v>185</v>
       </c>
       <c r="D103" t="s">
-        <v>310</v>
+        <v>221</v>
       </c>
       <c r="E103" t="s">
-        <v>311</v>
+        <v>222</v>
       </c>
       <c r="G103" t="s">
-        <v>507</v>
+        <v>485</v>
       </c>
       <c r="H103" t="s">
-        <v>582</v>
-      </c>
-      <c r="M103">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="104" spans="1:19" x14ac:dyDescent="0.2">
+        <v>560</v>
+      </c>
+      <c r="O103">
+        <v>1</v>
+      </c>
+      <c r="T103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>154</v>
       </c>
       <c r="B104" t="s">
-        <v>312</v>
+        <v>223</v>
       </c>
       <c r="C104" t="s">
-        <v>185</v>
+        <v>168</v>
       </c>
       <c r="D104" t="s">
-        <v>471</v>
+        <v>224</v>
       </c>
       <c r="E104" t="s">
-        <v>313</v>
+        <v>225</v>
       </c>
       <c r="F104" t="s">
-        <v>314</v>
+        <v>226</v>
       </c>
       <c r="G104" t="s">
-        <v>508</v>
+        <v>486</v>
       </c>
       <c r="H104" t="s">
-        <v>583</v>
-      </c>
-      <c r="M104">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="105" spans="1:19" x14ac:dyDescent="0.2">
+        <v>561</v>
+      </c>
+      <c r="L104">
+        <v>1</v>
+      </c>
+      <c r="T104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>154</v>
       </c>
       <c r="B105" t="s">
-        <v>315</v>
+        <v>227</v>
       </c>
       <c r="C105" t="s">
-        <v>185</v>
+        <v>168</v>
       </c>
       <c r="D105" t="s">
-        <v>316</v>
+        <v>228</v>
       </c>
       <c r="E105" t="s">
-        <v>317</v>
+        <v>229</v>
       </c>
       <c r="F105" t="s">
-        <v>318</v>
+        <v>230</v>
       </c>
       <c r="G105" t="s">
-        <v>509</v>
+        <v>487</v>
       </c>
       <c r="H105" t="s">
-        <v>584</v>
-      </c>
-      <c r="M105">
-        <v>1</v>
-      </c>
-      <c r="N105">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106" spans="1:19" x14ac:dyDescent="0.2">
+        <v>562</v>
+      </c>
+      <c r="L105">
+        <v>1</v>
+      </c>
+      <c r="O105">
+        <v>1</v>
+      </c>
+      <c r="R105">
+        <v>1</v>
+      </c>
+      <c r="T105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>154</v>
       </c>
       <c r="B106" t="s">
-        <v>319</v>
+        <v>231</v>
       </c>
       <c r="C106" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="D106" t="s">
-        <v>320</v>
+        <v>232</v>
       </c>
       <c r="E106" t="s">
-        <v>321</v>
+        <v>233</v>
       </c>
       <c r="F106" t="s">
-        <v>322</v>
+        <v>234</v>
       </c>
       <c r="G106" t="s">
-        <v>510</v>
+        <v>488</v>
       </c>
       <c r="H106" t="s">
-        <v>585</v>
-      </c>
-      <c r="M106">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="107" spans="1:19" x14ac:dyDescent="0.2">
+        <v>563</v>
+      </c>
+      <c r="L106">
+        <v>1</v>
+      </c>
+      <c r="N106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>154</v>
       </c>
       <c r="B107" t="s">
-        <v>323</v>
+        <v>235</v>
       </c>
       <c r="C107" t="s">
-        <v>205</v>
+        <v>168</v>
       </c>
       <c r="D107" t="s">
-        <v>324</v>
+        <v>236</v>
       </c>
       <c r="E107" t="s">
-        <v>325</v>
-      </c>
-      <c r="F107" t="s">
-        <v>326</v>
+        <v>237</v>
       </c>
       <c r="G107" t="s">
-        <v>511</v>
+        <v>489</v>
       </c>
       <c r="H107" t="s">
-        <v>586</v>
-      </c>
-      <c r="M107">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108" spans="1:19" x14ac:dyDescent="0.2">
+        <v>564</v>
+      </c>
+      <c r="R107">
+        <v>1</v>
+      </c>
+      <c r="T107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>154</v>
       </c>
       <c r="B108" t="s">
-        <v>327</v>
+        <v>238</v>
       </c>
       <c r="C108" t="s">
         <v>185</v>
       </c>
       <c r="D108" t="s">
-        <v>472</v>
+        <v>239</v>
       </c>
       <c r="E108" t="s">
-        <v>328</v>
+        <v>240</v>
       </c>
       <c r="F108" t="s">
-        <v>329</v>
+        <v>241</v>
       </c>
       <c r="G108" t="s">
-        <v>512</v>
+        <v>490</v>
       </c>
       <c r="H108" t="s">
-        <v>587</v>
-      </c>
-      <c r="M108">
-        <v>1</v>
-      </c>
-      <c r="S108">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109" spans="1:19" x14ac:dyDescent="0.2">
+        <v>565</v>
+      </c>
+      <c r="N108">
+        <v>1</v>
+      </c>
+      <c r="O108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>154</v>
       </c>
       <c r="B109" t="s">
-        <v>330</v>
+        <v>242</v>
       </c>
       <c r="C109" t="s">
-        <v>185</v>
+        <v>243</v>
       </c>
       <c r="D109" t="s">
-        <v>331</v>
+        <v>244</v>
       </c>
       <c r="E109" t="s">
-        <v>332</v>
-      </c>
-      <c r="F109" t="s">
-        <v>333</v>
+        <v>245</v>
       </c>
       <c r="G109" t="s">
-        <v>513</v>
+        <v>491</v>
       </c>
       <c r="H109" t="s">
-        <v>588</v>
-      </c>
-      <c r="N109">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="110" spans="1:19" x14ac:dyDescent="0.2">
+        <v>566</v>
+      </c>
+      <c r="M109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>154</v>
       </c>
       <c r="B110" t="s">
-        <v>334</v>
+        <v>246</v>
       </c>
       <c r="C110" t="s">
-        <v>360</v>
+        <v>185</v>
       </c>
       <c r="D110" t="s">
-        <v>335</v>
+        <v>247</v>
       </c>
       <c r="E110" t="s">
-        <v>336</v>
+        <v>248</v>
       </c>
       <c r="F110" t="s">
-        <v>337</v>
+        <v>249</v>
       </c>
       <c r="G110" t="s">
-        <v>514</v>
+        <v>492</v>
       </c>
       <c r="H110" t="s">
-        <v>589</v>
-      </c>
-      <c r="L110">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111" spans="1:19" x14ac:dyDescent="0.2">
+        <v>567</v>
+      </c>
+      <c r="R110">
+        <v>1</v>
+      </c>
+      <c r="T110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>154</v>
       </c>
       <c r="B111" t="s">
-        <v>338</v>
+        <v>250</v>
       </c>
       <c r="C111" t="s">
-        <v>191</v>
+        <v>251</v>
       </c>
       <c r="D111" t="s">
-        <v>339</v>
+        <v>252</v>
       </c>
       <c r="E111" t="s">
-        <v>341</v>
+        <v>253</v>
       </c>
       <c r="F111" t="s">
-        <v>340</v>
+        <v>254</v>
       </c>
       <c r="G111" t="s">
-        <v>515</v>
+        <v>493</v>
       </c>
       <c r="H111" t="s">
-        <v>590</v>
-      </c>
-      <c r="M111">
-        <v>1</v>
-      </c>
-      <c r="P111">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="112" spans="1:19" x14ac:dyDescent="0.2">
+        <v>568</v>
+      </c>
+      <c r="O111">
+        <v>1</v>
+      </c>
+      <c r="R111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>154</v>
       </c>
       <c r="B112" t="s">
-        <v>342</v>
+        <v>255</v>
       </c>
       <c r="C112" t="s">
-        <v>343</v>
+        <v>168</v>
       </c>
       <c r="D112" t="s">
-        <v>344</v>
+        <v>260</v>
       </c>
       <c r="E112" t="s">
-        <v>345</v>
+        <v>256</v>
       </c>
       <c r="F112" t="s">
-        <v>346</v>
+        <v>257</v>
       </c>
       <c r="G112" t="s">
-        <v>516</v>
+        <v>494</v>
       </c>
       <c r="H112" t="s">
-        <v>591</v>
-      </c>
-      <c r="M112">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113" spans="1:20" x14ac:dyDescent="0.2">
+        <v>569</v>
+      </c>
+      <c r="Q112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>154</v>
       </c>
       <c r="B113" t="s">
-        <v>347</v>
+        <v>262</v>
       </c>
       <c r="C113" t="s">
-        <v>209</v>
+        <v>168</v>
       </c>
       <c r="D113" t="s">
-        <v>348</v>
+        <v>263</v>
       </c>
       <c r="E113" t="s">
-        <v>349</v>
+        <v>264</v>
       </c>
       <c r="F113" t="s">
-        <v>350</v>
+        <v>265</v>
       </c>
       <c r="G113" t="s">
-        <v>517</v>
+        <v>495</v>
       </c>
       <c r="H113" t="s">
-        <v>592</v>
-      </c>
-      <c r="I113">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="114" spans="1:20" x14ac:dyDescent="0.2">
+        <v>570</v>
+      </c>
+      <c r="L113">
+        <v>1</v>
+      </c>
+      <c r="R113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>154</v>
       </c>
       <c r="B114" t="s">
-        <v>351</v>
+        <v>266</v>
       </c>
       <c r="C114" t="s">
-        <v>352</v>
+        <v>209</v>
       </c>
       <c r="D114" t="s">
-        <v>353</v>
+        <v>267</v>
       </c>
       <c r="E114" t="s">
-        <v>354</v>
-      </c>
-      <c r="F114" t="s">
-        <v>355</v>
+        <v>268</v>
       </c>
       <c r="G114" t="s">
-        <v>518</v>
+        <v>496</v>
       </c>
       <c r="H114" t="s">
-        <v>593</v>
-      </c>
-      <c r="O114">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115" spans="1:20" x14ac:dyDescent="0.2">
+        <v>571</v>
+      </c>
+      <c r="Q114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>154</v>
       </c>
       <c r="B115" t="s">
-        <v>356</v>
+        <v>269</v>
       </c>
       <c r="C115" t="s">
-        <v>360</v>
+        <v>185</v>
       </c>
       <c r="D115" t="s">
-        <v>361</v>
+        <v>270</v>
       </c>
       <c r="E115" t="s">
-        <v>362</v>
+        <v>271</v>
       </c>
       <c r="F115" t="s">
-        <v>363</v>
+        <v>272</v>
       </c>
       <c r="G115" t="s">
-        <v>519</v>
+        <v>497</v>
       </c>
       <c r="H115" t="s">
-        <v>594</v>
-      </c>
-      <c r="O115">
-        <v>1</v>
-      </c>
-      <c r="R115">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116" spans="1:20" x14ac:dyDescent="0.2">
+        <v>572</v>
+      </c>
+      <c r="L115">
+        <v>1</v>
+      </c>
+      <c r="Q115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>154</v>
       </c>
       <c r="B116" t="s">
-        <v>365</v>
+        <v>273</v>
+      </c>
+      <c r="C116" t="s">
+        <v>357</v>
       </c>
       <c r="D116" t="s">
-        <v>473</v>
+        <v>275</v>
       </c>
       <c r="E116" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="F116" t="s">
-        <v>366</v>
+        <v>274</v>
       </c>
       <c r="G116" t="s">
-        <v>520</v>
+        <v>498</v>
       </c>
       <c r="H116" t="s">
-        <v>595</v>
-      </c>
-      <c r="O116">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117" spans="1:20" x14ac:dyDescent="0.2">
+        <v>573</v>
+      </c>
+      <c r="M116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>154</v>
       </c>
       <c r="B117" t="s">
-        <v>367</v>
+        <v>276</v>
       </c>
       <c r="C117" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="D117" t="s">
-        <v>368</v>
+        <v>277</v>
       </c>
       <c r="E117" t="s">
-        <v>369</v>
+        <v>278</v>
+      </c>
+      <c r="F117" t="s">
+        <v>279</v>
       </c>
       <c r="G117" t="s">
-        <v>521</v>
+        <v>499</v>
       </c>
       <c r="H117" t="s">
-        <v>596</v>
-      </c>
-      <c r="K117">
-        <v>1</v>
-      </c>
-      <c r="O117">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118" spans="1:20" x14ac:dyDescent="0.2">
+        <v>574</v>
+      </c>
+      <c r="M117">
+        <v>1</v>
+      </c>
+      <c r="N117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>154</v>
       </c>
       <c r="B118" t="s">
-        <v>370</v>
+        <v>280</v>
       </c>
       <c r="C118" t="s">
-        <v>205</v>
+        <v>168</v>
       </c>
       <c r="D118" t="s">
-        <v>371</v>
+        <v>281</v>
       </c>
       <c r="E118" t="s">
-        <v>372</v>
+        <v>282</v>
       </c>
       <c r="F118" t="s">
-        <v>373</v>
+        <v>283</v>
       </c>
       <c r="G118" t="s">
-        <v>522</v>
+        <v>500</v>
       </c>
       <c r="H118" t="s">
-        <v>597</v>
-      </c>
-      <c r="O118">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119" spans="1:20" x14ac:dyDescent="0.2">
+        <v>575</v>
+      </c>
+      <c r="M118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>154</v>
       </c>
       <c r="B119" t="s">
-        <v>374</v>
+        <v>284</v>
       </c>
       <c r="C119" t="s">
-        <v>191</v>
+        <v>168</v>
       </c>
       <c r="D119" t="s">
-        <v>375</v>
+        <v>285</v>
       </c>
       <c r="E119" t="s">
-        <v>376</v>
+        <v>287</v>
+      </c>
+      <c r="F119" t="s">
+        <v>286</v>
       </c>
       <c r="G119" t="s">
-        <v>523</v>
+        <v>501</v>
       </c>
       <c r="H119" t="s">
-        <v>598</v>
+        <v>576</v>
       </c>
       <c r="M119">
         <v>1</v>
       </c>
-      <c r="O119">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120" spans="1:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="120" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>154</v>
       </c>
       <c r="B120" t="s">
-        <v>377</v>
+        <v>288</v>
       </c>
       <c r="C120" t="s">
-        <v>191</v>
+        <v>289</v>
       </c>
       <c r="D120" t="s">
-        <v>378</v>
+        <v>291</v>
       </c>
       <c r="E120" t="s">
-        <v>379</v>
+        <v>292</v>
       </c>
       <c r="F120" t="s">
-        <v>380</v>
+        <v>293</v>
       </c>
       <c r="G120" t="s">
-        <v>524</v>
+        <v>502</v>
       </c>
       <c r="H120" t="s">
-        <v>599</v>
-      </c>
-      <c r="O120">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121" spans="1:20" x14ac:dyDescent="0.2">
+        <v>577</v>
+      </c>
+      <c r="M120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>154</v>
       </c>
       <c r="B121" t="s">
-        <v>381</v>
-      </c>
-      <c r="C121" t="s">
-        <v>185</v>
+        <v>294</v>
       </c>
       <c r="D121" t="s">
-        <v>382</v>
+        <v>295</v>
       </c>
       <c r="E121" t="s">
-        <v>383</v>
-      </c>
-      <c r="F121" t="s">
-        <v>384</v>
+        <v>296</v>
       </c>
       <c r="G121" t="s">
-        <v>525</v>
+        <v>503</v>
       </c>
       <c r="H121" t="s">
-        <v>600</v>
-      </c>
-      <c r="O121">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122" spans="1:20" x14ac:dyDescent="0.2">
+        <v>578</v>
+      </c>
+      <c r="M121">
+        <v>1</v>
+      </c>
+      <c r="R121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>154</v>
       </c>
       <c r="B122" t="s">
-        <v>385</v>
+        <v>297</v>
       </c>
       <c r="C122" t="s">
-        <v>185</v>
+        <v>298</v>
       </c>
       <c r="D122" t="s">
-        <v>386</v>
+        <v>299</v>
       </c>
       <c r="E122" t="s">
-        <v>387</v>
+        <v>300</v>
       </c>
       <c r="F122" t="s">
-        <v>388</v>
+        <v>301</v>
       </c>
       <c r="G122" t="s">
-        <v>526</v>
+        <v>504</v>
       </c>
       <c r="H122" t="s">
-        <v>601</v>
-      </c>
-      <c r="M122">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123" spans="1:20" x14ac:dyDescent="0.2">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="123" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>154</v>
       </c>
       <c r="B123" t="s">
-        <v>389</v>
+        <v>302</v>
       </c>
       <c r="C123" t="s">
         <v>168</v>
       </c>
       <c r="D123" t="s">
-        <v>390</v>
+        <v>303</v>
       </c>
       <c r="E123" t="s">
-        <v>391</v>
+        <v>304</v>
+      </c>
+      <c r="F123" t="s">
+        <v>305</v>
       </c>
       <c r="G123" t="s">
-        <v>527</v>
+        <v>505</v>
       </c>
       <c r="H123" t="s">
-        <v>602</v>
-      </c>
-      <c r="I123">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124" spans="1:20" x14ac:dyDescent="0.2">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="124" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>154</v>
       </c>
       <c r="B124" t="s">
-        <v>392</v>
-      </c>
-      <c r="C124" t="s">
-        <v>289</v>
+        <v>306</v>
       </c>
       <c r="D124" t="s">
-        <v>393</v>
+        <v>307</v>
       </c>
       <c r="E124" t="s">
-        <v>394</v>
-      </c>
-      <c r="F124" t="s">
-        <v>395</v>
+        <v>308</v>
       </c>
       <c r="G124" t="s">
-        <v>528</v>
+        <v>506</v>
       </c>
       <c r="H124" t="s">
-        <v>603</v>
-      </c>
-      <c r="I124">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125" spans="1:20" x14ac:dyDescent="0.2">
+        <v>581</v>
+      </c>
+      <c r="J124">
+        <v>1</v>
+      </c>
+      <c r="M124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>154</v>
       </c>
       <c r="B125" t="s">
-        <v>397</v>
-      </c>
-      <c r="C125" t="s">
-        <v>398</v>
+        <v>309</v>
       </c>
       <c r="D125" t="s">
-        <v>399</v>
+        <v>310</v>
       </c>
       <c r="E125" t="s">
-        <v>396</v>
+        <v>311</v>
       </c>
       <c r="G125" t="s">
-        <v>529</v>
+        <v>507</v>
       </c>
       <c r="H125" t="s">
-        <v>604</v>
-      </c>
-      <c r="I125">
-        <v>1</v>
-      </c>
-      <c r="J125">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126" spans="1:20" x14ac:dyDescent="0.2">
+        <v>582</v>
+      </c>
+      <c r="M125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>154</v>
       </c>
       <c r="B126" t="s">
-        <v>400</v>
+        <v>312</v>
+      </c>
+      <c r="C126" t="s">
+        <v>185</v>
       </c>
       <c r="D126" t="s">
-        <v>401</v>
+        <v>471</v>
       </c>
       <c r="E126" t="s">
-        <v>403</v>
+        <v>313</v>
       </c>
       <c r="F126" t="s">
-        <v>402</v>
+        <v>314</v>
       </c>
       <c r="G126" t="s">
-        <v>530</v>
+        <v>508</v>
       </c>
       <c r="H126" t="s">
-        <v>605</v>
+        <v>583</v>
       </c>
       <c r="M126">
         <v>1</v>
       </c>
-      <c r="T126">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127" spans="1:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="127" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>154</v>
       </c>
       <c r="B127" t="s">
-        <v>404</v>
+        <v>315</v>
       </c>
       <c r="C127" t="s">
-        <v>289</v>
+        <v>185</v>
       </c>
       <c r="D127" t="s">
-        <v>405</v>
+        <v>316</v>
       </c>
       <c r="E127" t="s">
-        <v>406</v>
+        <v>317</v>
       </c>
       <c r="F127" t="s">
-        <v>407</v>
+        <v>318</v>
       </c>
       <c r="G127" t="s">
-        <v>531</v>
+        <v>509</v>
       </c>
       <c r="H127" t="s">
-        <v>606</v>
+        <v>584</v>
       </c>
       <c r="M127">
         <v>1</v>
       </c>
-    </row>
-    <row r="128" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="N127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>154</v>
       </c>
       <c r="B128" t="s">
-        <v>408</v>
+        <v>319</v>
+      </c>
+      <c r="C128" t="s">
+        <v>168</v>
       </c>
       <c r="D128" t="s">
-        <v>409</v>
+        <v>320</v>
       </c>
       <c r="E128" t="s">
-        <v>410</v>
+        <v>321</v>
       </c>
       <c r="F128" t="s">
-        <v>410</v>
+        <v>322</v>
       </c>
       <c r="G128" t="s">
-        <v>532</v>
+        <v>510</v>
       </c>
       <c r="H128" t="s">
-        <v>607</v>
-      </c>
-      <c r="J128">
-        <v>1</v>
-      </c>
-      <c r="L128">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129" spans="1:20" x14ac:dyDescent="0.2">
+        <v>585</v>
+      </c>
+      <c r="M128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>154</v>
       </c>
       <c r="B129" t="s">
-        <v>411</v>
+        <v>323</v>
       </c>
       <c r="C129" t="s">
-        <v>289</v>
+        <v>205</v>
       </c>
       <c r="D129" t="s">
-        <v>412</v>
+        <v>324</v>
       </c>
       <c r="E129" t="s">
-        <v>413</v>
+        <v>325</v>
+      </c>
+      <c r="F129" t="s">
+        <v>326</v>
       </c>
       <c r="G129" t="s">
-        <v>533</v>
+        <v>511</v>
       </c>
       <c r="H129" t="s">
-        <v>608</v>
-      </c>
-      <c r="L129">
-        <v>1</v>
-      </c>
-      <c r="R129">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130" spans="1:20" x14ac:dyDescent="0.2">
+        <v>586</v>
+      </c>
+      <c r="M129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>154</v>
       </c>
       <c r="B130" t="s">
-        <v>414</v>
+        <v>327</v>
       </c>
       <c r="C130" t="s">
-        <v>289</v>
+        <v>185</v>
       </c>
       <c r="D130" t="s">
-        <v>415</v>
+        <v>472</v>
       </c>
       <c r="E130" t="s">
-        <v>416</v>
+        <v>328</v>
       </c>
       <c r="F130" t="s">
-        <v>417</v>
+        <v>329</v>
       </c>
       <c r="G130" t="s">
-        <v>534</v>
+        <v>512</v>
       </c>
       <c r="H130" t="s">
-        <v>609</v>
-      </c>
-      <c r="L130">
-        <v>1</v>
-      </c>
-      <c r="O130">
-        <v>1</v>
-      </c>
-      <c r="T130">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131" spans="1:20" x14ac:dyDescent="0.2">
+        <v>587</v>
+      </c>
+      <c r="M130">
+        <v>1</v>
+      </c>
+      <c r="S130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>154</v>
       </c>
       <c r="B131" t="s">
-        <v>418</v>
+        <v>330</v>
       </c>
       <c r="C131" t="s">
-        <v>343</v>
+        <v>185</v>
       </c>
       <c r="D131" t="s">
-        <v>419</v>
+        <v>331</v>
       </c>
       <c r="E131" t="s">
-        <v>624</v>
+        <v>332</v>
+      </c>
+      <c r="F131" t="s">
+        <v>333</v>
       </c>
       <c r="G131" t="s">
-        <v>535</v>
+        <v>513</v>
       </c>
       <c r="H131" t="s">
-        <v>610</v>
-      </c>
-      <c r="J131">
-        <v>1</v>
-      </c>
-      <c r="P131">
-        <v>1</v>
-      </c>
-      <c r="S131">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132" spans="1:20" x14ac:dyDescent="0.2">
+        <v>588</v>
+      </c>
+      <c r="N131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>154</v>
       </c>
       <c r="B132" t="s">
-        <v>420</v>
+        <v>334</v>
       </c>
       <c r="C132" t="s">
-        <v>185</v>
+        <v>360</v>
       </c>
       <c r="D132" t="s">
-        <v>421</v>
+        <v>335</v>
       </c>
       <c r="E132" t="s">
-        <v>422</v>
+        <v>336</v>
       </c>
       <c r="F132" t="s">
-        <v>423</v>
+        <v>337</v>
       </c>
       <c r="G132" t="s">
-        <v>536</v>
+        <v>514</v>
       </c>
       <c r="H132" t="s">
-        <v>611</v>
-      </c>
-      <c r="J132">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133" spans="1:20" x14ac:dyDescent="0.2">
+        <v>589</v>
+      </c>
+      <c r="L132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>154</v>
       </c>
       <c r="B133" t="s">
-        <v>427</v>
+        <v>338</v>
       </c>
       <c r="C133" t="s">
         <v>191</v>
       </c>
       <c r="D133" t="s">
-        <v>426</v>
+        <v>339</v>
       </c>
       <c r="E133" t="s">
-        <v>424</v>
+        <v>341</v>
       </c>
       <c r="F133" t="s">
-        <v>425</v>
+        <v>340</v>
       </c>
       <c r="G133" t="s">
-        <v>537</v>
+        <v>515</v>
       </c>
       <c r="H133" t="s">
-        <v>612</v>
-      </c>
-      <c r="S133">
-        <v>1</v>
-      </c>
-      <c r="T133">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134" spans="1:20" x14ac:dyDescent="0.2">
+        <v>590</v>
+      </c>
+      <c r="M133">
+        <v>1</v>
+      </c>
+      <c r="P133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>154</v>
       </c>
       <c r="B134" t="s">
-        <v>428</v>
+        <v>342</v>
       </c>
       <c r="C134" t="s">
-        <v>185</v>
+        <v>343</v>
       </c>
       <c r="D134" t="s">
-        <v>429</v>
+        <v>344</v>
       </c>
       <c r="E134" t="s">
-        <v>430</v>
+        <v>345</v>
       </c>
       <c r="F134" t="s">
-        <v>431</v>
+        <v>346</v>
       </c>
       <c r="G134" t="s">
-        <v>538</v>
+        <v>516</v>
       </c>
       <c r="H134" t="s">
-        <v>613</v>
-      </c>
-      <c r="J134">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135" spans="1:20" x14ac:dyDescent="0.2">
+        <v>591</v>
+      </c>
+      <c r="M134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>154</v>
       </c>
       <c r="B135" t="s">
-        <v>432</v>
+        <v>347</v>
       </c>
       <c r="C135" t="s">
-        <v>196</v>
+        <v>209</v>
       </c>
       <c r="D135" t="s">
-        <v>433</v>
+        <v>348</v>
       </c>
       <c r="E135" t="s">
-        <v>434</v>
+        <v>349</v>
       </c>
       <c r="F135" t="s">
-        <v>435</v>
+        <v>350</v>
       </c>
       <c r="G135" t="s">
-        <v>539</v>
+        <v>517</v>
       </c>
       <c r="H135" t="s">
-        <v>614</v>
-      </c>
-      <c r="J135">
-        <v>1</v>
-      </c>
-      <c r="Q135">
-        <v>1</v>
-      </c>
-      <c r="R135">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136" spans="1:20" x14ac:dyDescent="0.2">
+        <v>592</v>
+      </c>
+      <c r="I135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>154</v>
       </c>
       <c r="B136" t="s">
-        <v>436</v>
+        <v>351</v>
       </c>
       <c r="C136" t="s">
-        <v>437</v>
+        <v>352</v>
       </c>
       <c r="D136" t="s">
-        <v>438</v>
+        <v>353</v>
       </c>
       <c r="E136" t="s">
-        <v>439</v>
+        <v>354</v>
+      </c>
+      <c r="F136" t="s">
+        <v>355</v>
       </c>
       <c r="G136" t="s">
-        <v>540</v>
+        <v>518</v>
       </c>
       <c r="H136" t="s">
-        <v>615</v>
-      </c>
-      <c r="I136">
-        <v>1</v>
-      </c>
-      <c r="M136">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137" spans="1:20" x14ac:dyDescent="0.2">
+        <v>593</v>
+      </c>
+      <c r="O136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>154</v>
       </c>
       <c r="B137" t="s">
-        <v>440</v>
+        <v>356</v>
       </c>
       <c r="C137" t="s">
-        <v>441</v>
+        <v>360</v>
       </c>
       <c r="D137" t="s">
-        <v>442</v>
+        <v>361</v>
       </c>
       <c r="E137" t="s">
-        <v>443</v>
+        <v>362</v>
       </c>
       <c r="F137" t="s">
-        <v>444</v>
+        <v>363</v>
       </c>
       <c r="G137" t="s">
-        <v>541</v>
+        <v>519</v>
       </c>
       <c r="H137" t="s">
-        <v>616</v>
-      </c>
-      <c r="P137">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138" spans="1:20" x14ac:dyDescent="0.2">
+        <v>594</v>
+      </c>
+      <c r="O137">
+        <v>1</v>
+      </c>
+      <c r="R137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>154</v>
       </c>
       <c r="B138" t="s">
-        <v>445</v>
-      </c>
-      <c r="C138" t="s">
-        <v>191</v>
+        <v>365</v>
       </c>
       <c r="D138" t="s">
-        <v>446</v>
+        <v>473</v>
       </c>
       <c r="E138" t="s">
-        <v>447</v>
+        <v>364</v>
       </c>
       <c r="F138" t="s">
-        <v>448</v>
+        <v>366</v>
       </c>
       <c r="G138" t="s">
-        <v>542</v>
+        <v>520</v>
       </c>
       <c r="H138" t="s">
-        <v>617</v>
-      </c>
-      <c r="K138">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139" spans="1:20" x14ac:dyDescent="0.2">
+        <v>595</v>
+      </c>
+      <c r="O138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>154</v>
       </c>
       <c r="B139" t="s">
-        <v>450</v>
+        <v>367</v>
       </c>
       <c r="C139" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="D139" t="s">
-        <v>451</v>
+        <v>368</v>
       </c>
       <c r="E139" t="s">
-        <v>449</v>
-      </c>
-      <c r="F139" t="s">
-        <v>452</v>
+        <v>369</v>
       </c>
       <c r="G139" t="s">
-        <v>543</v>
+        <v>521</v>
       </c>
       <c r="H139" t="s">
-        <v>618</v>
-      </c>
-      <c r="N139">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140" spans="1:20" x14ac:dyDescent="0.2">
+        <v>596</v>
+      </c>
+      <c r="K139">
+        <v>1</v>
+      </c>
+      <c r="O139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>154</v>
       </c>
       <c r="B140" t="s">
-        <v>453</v>
+        <v>370</v>
       </c>
       <c r="C140" t="s">
-        <v>360</v>
+        <v>205</v>
       </c>
       <c r="D140" t="s">
-        <v>454</v>
+        <v>371</v>
       </c>
       <c r="E140" t="s">
-        <v>455</v>
+        <v>372</v>
       </c>
       <c r="F140" t="s">
-        <v>456</v>
+        <v>373</v>
       </c>
       <c r="G140" t="s">
-        <v>544</v>
+        <v>522</v>
       </c>
       <c r="H140" t="s">
-        <v>619</v>
-      </c>
-      <c r="N140">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141" spans="1:20" x14ac:dyDescent="0.2">
+        <v>597</v>
+      </c>
+      <c r="O140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>154</v>
       </c>
       <c r="B141" t="s">
-        <v>457</v>
+        <v>374</v>
       </c>
       <c r="C141" t="s">
-        <v>360</v>
+        <v>191</v>
       </c>
       <c r="D141" t="s">
-        <v>458</v>
+        <v>375</v>
       </c>
       <c r="E141" t="s">
-        <v>459</v>
+        <v>376</v>
       </c>
       <c r="G141" t="s">
-        <v>545</v>
+        <v>523</v>
       </c>
       <c r="H141" t="s">
-        <v>620</v>
-      </c>
-      <c r="N141">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142" spans="1:20" x14ac:dyDescent="0.2">
+        <v>598</v>
+      </c>
+      <c r="M141">
+        <v>1</v>
+      </c>
+      <c r="O141">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>154</v>
       </c>
       <c r="B142" t="s">
-        <v>460</v>
+        <v>377</v>
       </c>
       <c r="C142" t="s">
         <v>191</v>
       </c>
       <c r="D142" t="s">
-        <v>461</v>
+        <v>378</v>
       </c>
       <c r="E142" t="s">
-        <v>462</v>
+        <v>379</v>
       </c>
       <c r="F142" t="s">
-        <v>463</v>
+        <v>380</v>
       </c>
       <c r="G142" t="s">
-        <v>546</v>
+        <v>524</v>
       </c>
       <c r="H142" t="s">
-        <v>621</v>
-      </c>
-      <c r="I142">
-        <v>1</v>
-      </c>
-      <c r="M142">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143" spans="1:20" x14ac:dyDescent="0.2">
+        <v>599</v>
+      </c>
+      <c r="O142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>154</v>
       </c>
       <c r="B143" t="s">
-        <v>464</v>
+        <v>381</v>
       </c>
       <c r="C143" t="s">
-        <v>465</v>
+        <v>185</v>
       </c>
       <c r="D143" t="s">
-        <v>466</v>
+        <v>382</v>
       </c>
       <c r="E143" t="s">
-        <v>467</v>
+        <v>383</v>
+      </c>
+      <c r="F143" t="s">
+        <v>384</v>
       </c>
       <c r="G143" t="s">
-        <v>547</v>
+        <v>525</v>
       </c>
       <c r="H143" t="s">
-        <v>622</v>
-      </c>
-      <c r="L143">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144" spans="1:20" x14ac:dyDescent="0.2">
+        <v>600</v>
+      </c>
+      <c r="O143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>154</v>
       </c>
       <c r="B144" t="s">
+        <v>385</v>
+      </c>
+      <c r="C144" t="s">
+        <v>185</v>
+      </c>
+      <c r="D144" t="s">
+        <v>386</v>
+      </c>
+      <c r="E144" t="s">
+        <v>387</v>
+      </c>
+      <c r="F144" t="s">
+        <v>388</v>
+      </c>
+      <c r="G144" t="s">
+        <v>526</v>
+      </c>
+      <c r="H144" t="s">
+        <v>601</v>
+      </c>
+      <c r="M144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>154</v>
+      </c>
+      <c r="B145" t="s">
+        <v>389</v>
+      </c>
+      <c r="C145" t="s">
+        <v>168</v>
+      </c>
+      <c r="D145" t="s">
+        <v>390</v>
+      </c>
+      <c r="E145" t="s">
+        <v>391</v>
+      </c>
+      <c r="G145" t="s">
+        <v>527</v>
+      </c>
+      <c r="H145" t="s">
+        <v>602</v>
+      </c>
+      <c r="I145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>154</v>
+      </c>
+      <c r="B146" t="s">
+        <v>392</v>
+      </c>
+      <c r="C146" t="s">
+        <v>289</v>
+      </c>
+      <c r="D146" t="s">
+        <v>393</v>
+      </c>
+      <c r="E146" t="s">
+        <v>394</v>
+      </c>
+      <c r="F146" t="s">
+        <v>395</v>
+      </c>
+      <c r="G146" t="s">
+        <v>528</v>
+      </c>
+      <c r="H146" t="s">
+        <v>603</v>
+      </c>
+      <c r="I146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>154</v>
+      </c>
+      <c r="B147" t="s">
+        <v>397</v>
+      </c>
+      <c r="C147" t="s">
+        <v>398</v>
+      </c>
+      <c r="D147" t="s">
+        <v>399</v>
+      </c>
+      <c r="E147" t="s">
+        <v>396</v>
+      </c>
+      <c r="G147" t="s">
+        <v>529</v>
+      </c>
+      <c r="H147" t="s">
+        <v>604</v>
+      </c>
+      <c r="I147">
+        <v>1</v>
+      </c>
+      <c r="J147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
+        <v>154</v>
+      </c>
+      <c r="B148" t="s">
+        <v>400</v>
+      </c>
+      <c r="D148" t="s">
+        <v>401</v>
+      </c>
+      <c r="E148" t="s">
+        <v>403</v>
+      </c>
+      <c r="F148" t="s">
+        <v>402</v>
+      </c>
+      <c r="G148" t="s">
+        <v>530</v>
+      </c>
+      <c r="H148" t="s">
+        <v>605</v>
+      </c>
+      <c r="M148">
+        <v>1</v>
+      </c>
+      <c r="T148">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>154</v>
+      </c>
+      <c r="B149" t="s">
+        <v>404</v>
+      </c>
+      <c r="C149" t="s">
+        <v>289</v>
+      </c>
+      <c r="D149" t="s">
+        <v>405</v>
+      </c>
+      <c r="E149" t="s">
+        <v>406</v>
+      </c>
+      <c r="F149" t="s">
+        <v>407</v>
+      </c>
+      <c r="G149" t="s">
+        <v>531</v>
+      </c>
+      <c r="H149" t="s">
+        <v>606</v>
+      </c>
+      <c r="M149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>154</v>
+      </c>
+      <c r="B150" t="s">
+        <v>408</v>
+      </c>
+      <c r="D150" t="s">
+        <v>409</v>
+      </c>
+      <c r="E150" t="s">
+        <v>410</v>
+      </c>
+      <c r="F150" t="s">
+        <v>410</v>
+      </c>
+      <c r="G150" t="s">
+        <v>532</v>
+      </c>
+      <c r="H150" t="s">
+        <v>607</v>
+      </c>
+      <c r="J150">
+        <v>1</v>
+      </c>
+      <c r="L150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
+        <v>154</v>
+      </c>
+      <c r="B151" t="s">
+        <v>411</v>
+      </c>
+      <c r="C151" t="s">
+        <v>289</v>
+      </c>
+      <c r="D151" t="s">
+        <v>412</v>
+      </c>
+      <c r="E151" t="s">
+        <v>413</v>
+      </c>
+      <c r="G151" t="s">
+        <v>533</v>
+      </c>
+      <c r="H151" t="s">
+        <v>608</v>
+      </c>
+      <c r="L151">
+        <v>1</v>
+      </c>
+      <c r="R151">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
+        <v>154</v>
+      </c>
+      <c r="B152" t="s">
+        <v>414</v>
+      </c>
+      <c r="C152" t="s">
+        <v>289</v>
+      </c>
+      <c r="D152" t="s">
+        <v>415</v>
+      </c>
+      <c r="E152" t="s">
+        <v>416</v>
+      </c>
+      <c r="F152" t="s">
+        <v>417</v>
+      </c>
+      <c r="G152" t="s">
+        <v>534</v>
+      </c>
+      <c r="H152" t="s">
+        <v>609</v>
+      </c>
+      <c r="L152">
+        <v>1</v>
+      </c>
+      <c r="O152">
+        <v>1</v>
+      </c>
+      <c r="T152">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
+        <v>154</v>
+      </c>
+      <c r="B153" t="s">
+        <v>418</v>
+      </c>
+      <c r="C153" t="s">
+        <v>343</v>
+      </c>
+      <c r="D153" t="s">
+        <v>419</v>
+      </c>
+      <c r="E153" t="s">
+        <v>624</v>
+      </c>
+      <c r="G153" t="s">
+        <v>535</v>
+      </c>
+      <c r="H153" t="s">
+        <v>610</v>
+      </c>
+      <c r="J153">
+        <v>1</v>
+      </c>
+      <c r="P153">
+        <v>1</v>
+      </c>
+      <c r="S153">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
+        <v>154</v>
+      </c>
+      <c r="B154" t="s">
+        <v>420</v>
+      </c>
+      <c r="C154" t="s">
+        <v>185</v>
+      </c>
+      <c r="D154" t="s">
+        <v>421</v>
+      </c>
+      <c r="E154" t="s">
+        <v>422</v>
+      </c>
+      <c r="F154" t="s">
+        <v>423</v>
+      </c>
+      <c r="G154" t="s">
+        <v>536</v>
+      </c>
+      <c r="H154" t="s">
+        <v>611</v>
+      </c>
+      <c r="J154">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
+        <v>154</v>
+      </c>
+      <c r="B155" t="s">
+        <v>427</v>
+      </c>
+      <c r="C155" t="s">
+        <v>191</v>
+      </c>
+      <c r="D155" t="s">
+        <v>426</v>
+      </c>
+      <c r="E155" t="s">
+        <v>424</v>
+      </c>
+      <c r="F155" t="s">
+        <v>425</v>
+      </c>
+      <c r="G155" t="s">
+        <v>537</v>
+      </c>
+      <c r="H155" t="s">
+        <v>612</v>
+      </c>
+      <c r="S155">
+        <v>1</v>
+      </c>
+      <c r="T155">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
+        <v>154</v>
+      </c>
+      <c r="B156" t="s">
+        <v>428</v>
+      </c>
+      <c r="C156" t="s">
+        <v>185</v>
+      </c>
+      <c r="D156" t="s">
+        <v>429</v>
+      </c>
+      <c r="E156" t="s">
+        <v>430</v>
+      </c>
+      <c r="F156" t="s">
+        <v>431</v>
+      </c>
+      <c r="G156" t="s">
+        <v>538</v>
+      </c>
+      <c r="H156" t="s">
+        <v>613</v>
+      </c>
+      <c r="J156">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
+        <v>154</v>
+      </c>
+      <c r="B157" t="s">
+        <v>432</v>
+      </c>
+      <c r="C157" t="s">
+        <v>196</v>
+      </c>
+      <c r="D157" t="s">
+        <v>433</v>
+      </c>
+      <c r="E157" t="s">
+        <v>434</v>
+      </c>
+      <c r="F157" t="s">
+        <v>435</v>
+      </c>
+      <c r="G157" t="s">
+        <v>539</v>
+      </c>
+      <c r="H157" t="s">
+        <v>614</v>
+      </c>
+      <c r="J157">
+        <v>1</v>
+      </c>
+      <c r="Q157">
+        <v>1</v>
+      </c>
+      <c r="R157">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
+        <v>154</v>
+      </c>
+      <c r="B158" t="s">
+        <v>436</v>
+      </c>
+      <c r="C158" t="s">
+        <v>437</v>
+      </c>
+      <c r="D158" t="s">
+        <v>438</v>
+      </c>
+      <c r="E158" t="s">
+        <v>439</v>
+      </c>
+      <c r="G158" t="s">
+        <v>540</v>
+      </c>
+      <c r="H158" t="s">
+        <v>615</v>
+      </c>
+      <c r="I158">
+        <v>1</v>
+      </c>
+      <c r="M158">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
+        <v>154</v>
+      </c>
+      <c r="B159" t="s">
+        <v>440</v>
+      </c>
+      <c r="C159" t="s">
+        <v>441</v>
+      </c>
+      <c r="D159" t="s">
+        <v>442</v>
+      </c>
+      <c r="E159" t="s">
+        <v>443</v>
+      </c>
+      <c r="F159" t="s">
+        <v>444</v>
+      </c>
+      <c r="G159" t="s">
+        <v>541</v>
+      </c>
+      <c r="H159" t="s">
+        <v>616</v>
+      </c>
+      <c r="P159">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
+        <v>154</v>
+      </c>
+      <c r="B160" t="s">
+        <v>445</v>
+      </c>
+      <c r="C160" t="s">
+        <v>191</v>
+      </c>
+      <c r="D160" t="s">
+        <v>446</v>
+      </c>
+      <c r="E160" t="s">
+        <v>447</v>
+      </c>
+      <c r="F160" t="s">
+        <v>448</v>
+      </c>
+      <c r="G160" t="s">
+        <v>542</v>
+      </c>
+      <c r="H160" t="s">
+        <v>617</v>
+      </c>
+      <c r="K160">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
+        <v>154</v>
+      </c>
+      <c r="B161" t="s">
+        <v>450</v>
+      </c>
+      <c r="C161" t="s">
+        <v>191</v>
+      </c>
+      <c r="D161" t="s">
+        <v>451</v>
+      </c>
+      <c r="E161" t="s">
+        <v>449</v>
+      </c>
+      <c r="F161" t="s">
+        <v>452</v>
+      </c>
+      <c r="G161" t="s">
+        <v>543</v>
+      </c>
+      <c r="H161" t="s">
+        <v>618</v>
+      </c>
+      <c r="N161">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
+        <v>154</v>
+      </c>
+      <c r="B162" t="s">
+        <v>453</v>
+      </c>
+      <c r="C162" t="s">
+        <v>360</v>
+      </c>
+      <c r="D162" t="s">
+        <v>454</v>
+      </c>
+      <c r="E162" t="s">
+        <v>455</v>
+      </c>
+      <c r="F162" t="s">
+        <v>456</v>
+      </c>
+      <c r="G162" t="s">
+        <v>544</v>
+      </c>
+      <c r="H162" t="s">
+        <v>619</v>
+      </c>
+      <c r="N162">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A163" t="s">
+        <v>154</v>
+      </c>
+      <c r="B163" t="s">
+        <v>457</v>
+      </c>
+      <c r="C163" t="s">
+        <v>360</v>
+      </c>
+      <c r="D163" t="s">
+        <v>458</v>
+      </c>
+      <c r="E163" t="s">
+        <v>459</v>
+      </c>
+      <c r="G163" t="s">
+        <v>545</v>
+      </c>
+      <c r="H163" t="s">
+        <v>620</v>
+      </c>
+      <c r="N163">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
+        <v>154</v>
+      </c>
+      <c r="B164" t="s">
+        <v>460</v>
+      </c>
+      <c r="C164" t="s">
+        <v>191</v>
+      </c>
+      <c r="D164" t="s">
+        <v>461</v>
+      </c>
+      <c r="E164" t="s">
+        <v>462</v>
+      </c>
+      <c r="F164" t="s">
+        <v>463</v>
+      </c>
+      <c r="G164" t="s">
+        <v>546</v>
+      </c>
+      <c r="H164" t="s">
+        <v>621</v>
+      </c>
+      <c r="I164">
+        <v>1</v>
+      </c>
+      <c r="M164">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
+        <v>154</v>
+      </c>
+      <c r="B165" t="s">
+        <v>464</v>
+      </c>
+      <c r="C165" t="s">
+        <v>465</v>
+      </c>
+      <c r="D165" t="s">
+        <v>466</v>
+      </c>
+      <c r="E165" t="s">
+        <v>467</v>
+      </c>
+      <c r="G165" t="s">
+        <v>547</v>
+      </c>
+      <c r="H165" t="s">
+        <v>622</v>
+      </c>
+      <c r="L165">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
+        <v>154</v>
+      </c>
+      <c r="B166" t="s">
         <v>468</v>
       </c>
-      <c r="D144" t="s">
+      <c r="D166" t="s">
         <v>469</v>
       </c>
-      <c r="E144" t="s">
+      <c r="E166" t="s">
         <v>470</v>
       </c>
-      <c r="G144" t="s">
+      <c r="G166" t="s">
         <v>548</v>
       </c>
-      <c r="H144" t="s">
+      <c r="H166" t="s">
         <v>623</v>
       </c>
-      <c r="L144">
+      <c r="L166">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B67" r:id="rId1" display="https://www.matthewtancik.com/nerf" xr:uid="{35967FB2-814A-154F-8541-7714319F096C}"/>
-    <hyperlink ref="B68" r:id="rId2" display="https://lingjie0206.github.io/papers/NSVF/" xr:uid="{F2DD4E80-7653-6B46-BE0A-8E826172F88C}"/>
-    <hyperlink ref="B69" r:id="rId3" display="http://www.computationalimaging.org/publications/automatic-integration/" xr:uid="{A28EC183-687F-8A46-9CA4-4A7708A6C750}"/>
-    <hyperlink ref="B70" r:id="rId4" display="https://arxiv.org/abs/2011.12490" xr:uid="{C5B06987-5C0D-E443-82C4-02F6431045D1}"/>
-    <hyperlink ref="B71" r:id="rId5" display="https://depthoraclenerf.github.io/" xr:uid="{3CEB0E14-63E6-574A-9FC6-2051AD0460B0}"/>
-    <hyperlink ref="B72" r:id="rId6" display="https://arxiv.org/abs/2103.10380" xr:uid="{EA18432D-CDAD-5D46-AB83-9539228413CB}"/>
-    <hyperlink ref="B73" r:id="rId7" display="https://arxiv.org/abs/2103.13744" xr:uid="{429A6E53-E8CB-BC4C-9538-A2470024449F}"/>
-    <hyperlink ref="B74" r:id="rId8" display="https://alexyu.net/plenoctrees/" xr:uid="{7DC25326-9D8E-8D47-A044-DD17F9ED0CD0}"/>
-    <hyperlink ref="B75" r:id="rId9" display="https://arxiv.org/abs/2103.01954" xr:uid="{A2FF4FE9-43D0-5F44-93A7-55BE57938D31}"/>
-    <hyperlink ref="B76" r:id="rId10" display="https://vsitzmann.github.io/lfns/" xr:uid="{F6597C48-9252-3349-B84C-D97A31F62416}"/>
-    <hyperlink ref="B77" r:id="rId11" display="https://arxiv.org/pdf/2107.02791.pdf" xr:uid="{4E32310C-E8E8-1445-9B6E-B1A0C6585A89}"/>
-    <hyperlink ref="B79" r:id="rId12" display="https://nerf-w.github.io/" xr:uid="{1C3AF7E4-0ED6-6341-ACDB-04910971A9DA}"/>
-    <hyperlink ref="B84" r:id="rId13" display="https://gvv.mpi-inf.mpg.de/projects/nonrigid_nerf/" xr:uid="{2DDCA2B8-C06B-604A-A893-ED7E083125F7}"/>
-    <hyperlink ref="B85" r:id="rId14" display="https://volumetric-avatars.github.io/" xr:uid="{B38221A4-28D3-EC48-BD13-F22F93351407}"/>
-    <hyperlink ref="B87" r:id="rId15" display="https://arxiv.org/abs/2202.00181" xr:uid="{A924BD42-5B3F-3740-81C0-0C81F8B5122D}"/>
-    <hyperlink ref="B88" r:id="rId16" display="https://zju3dv.github.io/animatable_nerf/" xr:uid="{79B54E94-A634-C04E-BBD6-E0740CB05D22}"/>
-    <hyperlink ref="B89" r:id="rId17" display="https://vcai.mpi-inf.mpg.de/projects/NeuralActor/" xr:uid="{8B2119CC-BEBB-1141-9295-5A03BB8F0926}"/>
-    <hyperlink ref="B91" r:id="rId18" display="https://zju3dv.github.io/neuralbody/" xr:uid="{B4F98C3C-2C12-3647-8B14-C77A228D92A6}"/>
-    <hyperlink ref="D92" r:id="rId19" display="https://neural-3d-video.github.io/" xr:uid="{F5C4215C-421A-2E4F-9166-06F8B5156E7B}"/>
-    <hyperlink ref="B96" r:id="rId20" display="https://arxiv.org/abs/2012.02190" xr:uid="{53D1B557-9DD9-0941-A181-C2437740945C}"/>
-    <hyperlink ref="D96" r:id="rId21" display="https://alexyu.net/pixelnerf" xr:uid="{FE08CB9D-CA82-2641-899B-1CED2638D0C9}"/>
-    <hyperlink ref="B97" r:id="rId22" display="https://arxiv.org/abs/2012.02189" xr:uid="{A3166556-FD50-524F-9D7B-7DFABC9BA22F}"/>
-    <hyperlink ref="B100" r:id="rId23" display="https://arxiv.org/pdf/2102.08860.pdf" xr:uid="{C98AD7DA-8A21-4B40-A0E6-ABB79200584D}"/>
-    <hyperlink ref="B101" r:id="rId24" display="https://ibrnet.github.io/static/paper.pdf" xr:uid="{B64854DE-6A9F-EE41-8605-5F214EE9ADE2}"/>
-    <hyperlink ref="D101" r:id="rId25" display="https://ibrnet.github.io/" xr:uid="{5B6CC4DE-F7F9-2647-9B5C-A1E194127C73}"/>
-    <hyperlink ref="B102" r:id="rId26" display="https://arxiv.org/pdf/2103.17269.pdf" xr:uid="{62D8EC5C-C4AC-DA46-9FDF-0E23E2D5C874}"/>
-    <hyperlink ref="B103" r:id="rId27" display="https://arxiv.org/pdf/2104.00587.pdf" xr:uid="{B37AC469-58DD-BF4C-8A04-F712B1A8EB94}"/>
-    <hyperlink ref="B104" r:id="rId28" display="https://apple.github.io/ml-gsn/" xr:uid="{7717E2BE-FF3E-EF48-92FF-8653D9AB6AAE}"/>
-    <hyperlink ref="B105" r:id="rId29" display="https://apchenstu.github.io/mvsnerf/" xr:uid="{D01EC804-00BD-B442-AED3-391DEE153AF0}"/>
-    <hyperlink ref="B106" r:id="rId30" display="https://virtualhumans.mpi-inf.mpg.de/srf/" xr:uid="{BBFCEAB6-1067-4A46-B94B-1149F1DB3378}"/>
-    <hyperlink ref="D106" r:id="rId31" display="https://virtualhumans.mpi-inf.mpg.de/srf/" xr:uid="{99CFE0A6-49E8-6C47-AD0F-4876EDDD5257}"/>
-    <hyperlink ref="B107" r:id="rId32" display="https://liuyuan-pal.github.io/NeuRay/" xr:uid="{B8E198D5-170F-6445-ABD6-FC745FE3BB4F}"/>
-    <hyperlink ref="D109" r:id="rId33" display="https://github.com/vincentfung13/MINE" xr:uid="{BC5BAD36-364E-6749-BCB4-A976C125DDC5}"/>
-    <hyperlink ref="B111" r:id="rId34" display="https://sites.google.com/view/wbjang/home/codenerf" xr:uid="{187E0164-3464-5F42-AACD-3D5C2BF3C820}"/>
-    <hyperlink ref="B113" r:id="rId35" display="https://bmild.github.io/rawnerf/" xr:uid="{A6B8E96F-1F53-7041-B6A4-60B9508480D4}"/>
-    <hyperlink ref="B114" r:id="rId36" display="http://yenchenlin.me/inerf/" xr:uid="{EE610F53-3CF1-1E40-8ACB-F1984A3C3C5D}"/>
-    <hyperlink ref="B115" r:id="rId37" display="https://lemonatsu.github.io/ANeRF-Surface-free-Pose-Refinement/" xr:uid="{8812967F-CC98-5B4A-995D-AC01039F534F}"/>
-    <hyperlink ref="D115" r:id="rId38" display="https://lemonatsu.github.io/anerf/" xr:uid="{9D7EFC10-490A-E447-9D5C-8E801A904206}"/>
-    <hyperlink ref="B120" r:id="rId39" display="https://chenhsuanlin.bitbucket.io/bundle-adjusting-NeRF/" xr:uid="{20F5B6EF-8807-F341-AF88-60ED41CC6280}"/>
-    <hyperlink ref="B121" r:id="rId40" display="https://postech-cvlab.github.io/SCNeRF/" xr:uid="{2F6B0D04-F664-0240-95C8-8B039E05A6FE}"/>
-    <hyperlink ref="B122" r:id="rId41" display="https://markboss.me/publication/2021-nerd/" xr:uid="{D07E6E46-FE31-B345-8F53-0E980351DB40}"/>
-    <hyperlink ref="B123" r:id="rId42" display="https://people.eecs.berkeley.edu/~pratul/nerv/" xr:uid="{8DA1DFFB-66B7-D945-A567-262763835FE0}"/>
-    <hyperlink ref="B126" r:id="rId43" display="https://arxiv.org/abs/2010.07492" xr:uid="{24173C9F-D45A-1744-981B-21CA290E8730}"/>
-    <hyperlink ref="D126" r:id="rId44" display="https://github.com/Kai-46/nerfplusplus" xr:uid="{AC3D8F12-8792-6341-9EDD-3119722F4FB3}"/>
-    <hyperlink ref="B127" r:id="rId45" display="https://arxiv.org/abs/2011.12100" xr:uid="{A6421490-778F-404C-9B50-F4DF3C3222E3}"/>
-    <hyperlink ref="B129" r:id="rId46" display="https://ziyanw1.github.io/hybrid_nerf/" xr:uid="{21255C5F-2079-BD42-A4E8-1473A711251E}"/>
-    <hyperlink ref="B136" r:id="rId47" display="https://fig-nerf.github.io/" xr:uid="{BCB08482-216E-F445-961F-79B17BAB2894}"/>
-    <hyperlink ref="B137" r:id="rId48" display="https://developer.nvidia.com/blog/nvidia-research-nerf-tex-neural-reflectance-field-textures/" xr:uid="{46F7C388-1CC4-9149-B59B-559EE7BCD36A}"/>
-    <hyperlink ref="B138" r:id="rId49" display="https://jonbarron.info/mipnerf/" xr:uid="{3CF7024E-5382-C942-836E-26A20DA4524C}"/>
-    <hyperlink ref="B140" r:id="rId50" display="https://arxiv.org/abs/2106.10689" xr:uid="{E7185A93-C91C-F24C-9829-6325E236C3EB}"/>
-    <hyperlink ref="B142" r:id="rId51" display="https://weiyithu.github.io/NerfingMVS/" xr:uid="{22220255-E2B3-4341-A8DE-DF8098C5B6B6}"/>
-    <hyperlink ref="B143" r:id="rId52" display="https://3d-representation-learning.github.io/nerf-dy/" xr:uid="{433A7789-7958-4642-A629-FBF537BFB55E}"/>
-    <hyperlink ref="D144" r:id="rId53" display="https://mikh3x4.github.io/nerf-navigation/" xr:uid="{8A666769-9523-DC43-A0CD-D271CCCC1BDC}"/>
+    <hyperlink ref="B89" r:id="rId1" display="https://www.matthewtancik.com/nerf" xr:uid="{35967FB2-814A-154F-8541-7714319F096C}"/>
+    <hyperlink ref="B90" r:id="rId2" display="https://lingjie0206.github.io/papers/NSVF/" xr:uid="{F2DD4E80-7653-6B46-BE0A-8E826172F88C}"/>
+    <hyperlink ref="B91" r:id="rId3" display="http://www.computationalimaging.org/publications/automatic-integration/" xr:uid="{A28EC183-687F-8A46-9CA4-4A7708A6C750}"/>
+    <hyperlink ref="B92" r:id="rId4" display="https://arxiv.org/abs/2011.12490" xr:uid="{C5B06987-5C0D-E443-82C4-02F6431045D1}"/>
+    <hyperlink ref="B93" r:id="rId5" display="https://depthoraclenerf.github.io/" xr:uid="{3CEB0E14-63E6-574A-9FC6-2051AD0460B0}"/>
+    <hyperlink ref="B94" r:id="rId6" display="https://arxiv.org/abs/2103.10380" xr:uid="{EA18432D-CDAD-5D46-AB83-9539228413CB}"/>
+    <hyperlink ref="B95" r:id="rId7" display="https://arxiv.org/abs/2103.13744" xr:uid="{429A6E53-E8CB-BC4C-9538-A2470024449F}"/>
+    <hyperlink ref="B96" r:id="rId8" display="https://alexyu.net/plenoctrees/" xr:uid="{7DC25326-9D8E-8D47-A044-DD17F9ED0CD0}"/>
+    <hyperlink ref="B97" r:id="rId9" display="https://arxiv.org/abs/2103.01954" xr:uid="{A2FF4FE9-43D0-5F44-93A7-55BE57938D31}"/>
+    <hyperlink ref="B98" r:id="rId10" display="https://vsitzmann.github.io/lfns/" xr:uid="{F6597C48-9252-3349-B84C-D97A31F62416}"/>
+    <hyperlink ref="B99" r:id="rId11" display="https://arxiv.org/pdf/2107.02791.pdf" xr:uid="{4E32310C-E8E8-1445-9B6E-B1A0C6585A89}"/>
+    <hyperlink ref="B101" r:id="rId12" display="https://nerf-w.github.io/" xr:uid="{1C3AF7E4-0ED6-6341-ACDB-04910971A9DA}"/>
+    <hyperlink ref="B106" r:id="rId13" display="https://gvv.mpi-inf.mpg.de/projects/nonrigid_nerf/" xr:uid="{2DDCA2B8-C06B-604A-A893-ED7E083125F7}"/>
+    <hyperlink ref="B107" r:id="rId14" display="https://volumetric-avatars.github.io/" xr:uid="{B38221A4-28D3-EC48-BD13-F22F93351407}"/>
+    <hyperlink ref="B109" r:id="rId15" display="https://arxiv.org/abs/2202.00181" xr:uid="{A924BD42-5B3F-3740-81C0-0C81F8B5122D}"/>
+    <hyperlink ref="B110" r:id="rId16" display="https://zju3dv.github.io/animatable_nerf/" xr:uid="{79B54E94-A634-C04E-BBD6-E0740CB05D22}"/>
+    <hyperlink ref="B111" r:id="rId17" display="https://vcai.mpi-inf.mpg.de/projects/NeuralActor/" xr:uid="{8B2119CC-BEBB-1141-9295-5A03BB8F0926}"/>
+    <hyperlink ref="B113" r:id="rId18" display="https://zju3dv.github.io/neuralbody/" xr:uid="{B4F98C3C-2C12-3647-8B14-C77A228D92A6}"/>
+    <hyperlink ref="D114" r:id="rId19" display="https://neural-3d-video.github.io/" xr:uid="{F5C4215C-421A-2E4F-9166-06F8B5156E7B}"/>
+    <hyperlink ref="B118" r:id="rId20" display="https://arxiv.org/abs/2012.02190" xr:uid="{53D1B557-9DD9-0941-A181-C2437740945C}"/>
+    <hyperlink ref="D118" r:id="rId21" display="https://alexyu.net/pixelnerf" xr:uid="{FE08CB9D-CA82-2641-899B-1CED2638D0C9}"/>
+    <hyperlink ref="B119" r:id="rId22" display="https://arxiv.org/abs/2012.02189" xr:uid="{A3166556-FD50-524F-9D7B-7DFABC9BA22F}"/>
+    <hyperlink ref="B122" r:id="rId23" display="https://arxiv.org/pdf/2102.08860.pdf" xr:uid="{C98AD7DA-8A21-4B40-A0E6-ABB79200584D}"/>
+    <hyperlink ref="B123" r:id="rId24" display="https://ibrnet.github.io/static/paper.pdf" xr:uid="{B64854DE-6A9F-EE41-8605-5F214EE9ADE2}"/>
+    <hyperlink ref="D123" r:id="rId25" display="https://ibrnet.github.io/" xr:uid="{5B6CC4DE-F7F9-2647-9B5C-A1E194127C73}"/>
+    <hyperlink ref="B124" r:id="rId26" display="https://arxiv.org/pdf/2103.17269.pdf" xr:uid="{62D8EC5C-C4AC-DA46-9FDF-0E23E2D5C874}"/>
+    <hyperlink ref="B125" r:id="rId27" display="https://arxiv.org/pdf/2104.00587.pdf" xr:uid="{B37AC469-58DD-BF4C-8A04-F712B1A8EB94}"/>
+    <hyperlink ref="B126" r:id="rId28" display="https://apple.github.io/ml-gsn/" xr:uid="{7717E2BE-FF3E-EF48-92FF-8653D9AB6AAE}"/>
+    <hyperlink ref="B127" r:id="rId29" display="https://apchenstu.github.io/mvsnerf/" xr:uid="{D01EC804-00BD-B442-AED3-391DEE153AF0}"/>
+    <hyperlink ref="B128" r:id="rId30" display="https://virtualhumans.mpi-inf.mpg.de/srf/" xr:uid="{BBFCEAB6-1067-4A46-B94B-1149F1DB3378}"/>
+    <hyperlink ref="D128" r:id="rId31" display="https://virtualhumans.mpi-inf.mpg.de/srf/" xr:uid="{99CFE0A6-49E8-6C47-AD0F-4876EDDD5257}"/>
+    <hyperlink ref="B129" r:id="rId32" display="https://liuyuan-pal.github.io/NeuRay/" xr:uid="{B8E198D5-170F-6445-ABD6-FC745FE3BB4F}"/>
+    <hyperlink ref="D131" r:id="rId33" display="https://github.com/vincentfung13/MINE" xr:uid="{BC5BAD36-364E-6749-BCB4-A976C125DDC5}"/>
+    <hyperlink ref="B133" r:id="rId34" display="https://sites.google.com/view/wbjang/home/codenerf" xr:uid="{187E0164-3464-5F42-AACD-3D5C2BF3C820}"/>
+    <hyperlink ref="B135" r:id="rId35" display="https://bmild.github.io/rawnerf/" xr:uid="{A6B8E96F-1F53-7041-B6A4-60B9508480D4}"/>
+    <hyperlink ref="B136" r:id="rId36" display="http://yenchenlin.me/inerf/" xr:uid="{EE610F53-3CF1-1E40-8ACB-F1984A3C3C5D}"/>
+    <hyperlink ref="B137" r:id="rId37" display="https://lemonatsu.github.io/ANeRF-Surface-free-Pose-Refinement/" xr:uid="{8812967F-CC98-5B4A-995D-AC01039F534F}"/>
+    <hyperlink ref="D137" r:id="rId38" display="https://lemonatsu.github.io/anerf/" xr:uid="{9D7EFC10-490A-E447-9D5C-8E801A904206}"/>
+    <hyperlink ref="B142" r:id="rId39" display="https://chenhsuanlin.bitbucket.io/bundle-adjusting-NeRF/" xr:uid="{20F5B6EF-8807-F341-AF88-60ED41CC6280}"/>
+    <hyperlink ref="B143" r:id="rId40" display="https://postech-cvlab.github.io/SCNeRF/" xr:uid="{2F6B0D04-F664-0240-95C8-8B039E05A6FE}"/>
+    <hyperlink ref="B144" r:id="rId41" display="https://markboss.me/publication/2021-nerd/" xr:uid="{D07E6E46-FE31-B345-8F53-0E980351DB40}"/>
+    <hyperlink ref="B145" r:id="rId42" display="https://people.eecs.berkeley.edu/~pratul/nerv/" xr:uid="{8DA1DFFB-66B7-D945-A567-262763835FE0}"/>
+    <hyperlink ref="B148" r:id="rId43" display="https://arxiv.org/abs/2010.07492" xr:uid="{24173C9F-D45A-1744-981B-21CA290E8730}"/>
+    <hyperlink ref="D148" r:id="rId44" display="https://github.com/Kai-46/nerfplusplus" xr:uid="{AC3D8F12-8792-6341-9EDD-3119722F4FB3}"/>
+    <hyperlink ref="B149" r:id="rId45" display="https://arxiv.org/abs/2011.12100" xr:uid="{A6421490-778F-404C-9B50-F4DF3C3222E3}"/>
+    <hyperlink ref="B151" r:id="rId46" display="https://ziyanw1.github.io/hybrid_nerf/" xr:uid="{21255C5F-2079-BD42-A4E8-1473A711251E}"/>
+    <hyperlink ref="B158" r:id="rId47" display="https://fig-nerf.github.io/" xr:uid="{BCB08482-216E-F445-961F-79B17BAB2894}"/>
+    <hyperlink ref="B159" r:id="rId48" display="https://developer.nvidia.com/blog/nvidia-research-nerf-tex-neural-reflectance-field-textures/" xr:uid="{46F7C388-1CC4-9149-B59B-559EE7BCD36A}"/>
+    <hyperlink ref="B160" r:id="rId49" display="https://jonbarron.info/mipnerf/" xr:uid="{3CF7024E-5382-C942-836E-26A20DA4524C}"/>
+    <hyperlink ref="B162" r:id="rId50" display="https://arxiv.org/abs/2106.10689" xr:uid="{E7185A93-C91C-F24C-9829-6325E236C3EB}"/>
+    <hyperlink ref="B164" r:id="rId51" display="https://weiyithu.github.io/NerfingMVS/" xr:uid="{22220255-E2B3-4341-A8DE-DF8098C5B6B6}"/>
+    <hyperlink ref="B165" r:id="rId52" display="https://3d-representation-learning.github.io/nerf-dy/" xr:uid="{433A7789-7958-4642-A629-FBF537BFB55E}"/>
+    <hyperlink ref="D166" r:id="rId53" display="https://mikh3x4.github.io/nerf-navigation/" xr:uid="{8A666769-9523-DC43-A0CD-D271CCCC1BDC}"/>
+    <hyperlink ref="D14" r:id="rId54" display="https://github.com/LeapLabTHU/ActiveNeRF" xr:uid="{E900C90C-6019-C44E-8258-46FC93A580B3}"/>
+    <hyperlink ref="D10" r:id="rId55" display="https://github.com/jike5/LATITUDE" xr:uid="{91F35CF0-E18D-5643-90B6-6E663E131672}"/>
+    <hyperlink ref="D7" r:id="rId56" display="https://zhiwenfan.github.io/NeRF-SOS" xr:uid="{30070045-BF89-9A40-89C3-AD835799302F}"/>
+    <hyperlink ref="D5" r:id="rId57" display="https://github.com/MIT-SPARK/Loc-NeRF" xr:uid="{75D1A9A5-F43B-2249-8F7D-6B28308F1EF6}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/docs/weekly_nerf_meta_data.xlsx
+++ b/docs/weekly_nerf_meta_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zelinzhao/cache/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58330613-8045-1443-B643-95764F93A6E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA5FBDA5-3D6F-0245-9C5A-14824E078F4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38400" yWindow="1240" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="weekly_nerf_meta_data" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1198" uniqueCount="969">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1488" uniqueCount="1210">
   <si>
     <t>week</t>
   </si>
@@ -2939,6 +2939,729 @@
   </si>
   <si>
     <t>这项工作的目标是从扫描平台捕获的数据中执行 3D 重建和新颖的视图合成，这些平台通常用于城市户外环境（例如街景）中的世界地图绘制。给定一系列由相机和扫描仪在户外场景中移动获得的 RGB 图像序列和激光雷达扫描，我们生成了一个模型，可以从中提取 3D 表面并合成新的 RGB 图像。我们的方法扩展了神经辐射场，该方法已被证明可以在受控环境中为小场景合成逼真的新颖图像，以及利用异步捕获的激光雷达数据、解决捕获图像之间的曝光变化以及利用预测的图像分割来监督密度的新方法在指向天空的光线上。这三个扩展中的每一个都在街景数据的实验中提供了显着的性能改进。与传统方法（例如~COLMAP）和最近的神经表示（例如~Mip-NeRF）相比，我们的系统产生最先进的 3D 表面重建并合成更高质量的新视图。</t>
+  </si>
+  <si>
+    <t>Fast Disparity Estimation from a Single Compressed Light Field Measurement</t>
+  </si>
+  <si>
+    <t>The abundant spatial and angular information from light fields has allowed the development of multiple disparity estimation approaches. However, the acquisition of light fields requires high storage and processing cost, limiting the use of this technology in practical applications. To overcome these drawbacks, the compressive sensing (CS) theory has allowed the development of optical architectures to acquire a single coded light field measurement. This measurement is decoded using an optimization algorithm or deep neural network that requires high computational costs. The traditional approach for disparity estimation from compressed light fields requires first recovering the entire light field and then a post-processing step, thus requiring long times. In contrast, this work proposes a fast disparity estimation from a single compressed measurement by omitting the recovery step required in traditional approaches. Specifically, we propose to jointly optimize an optical architecture for acquiring a single coded light field snapshot and a convolutional neural network (CNN) for estimating the disparity maps. Experimentally, the proposed method estimates disparity maps comparable with those obtained from light fields reconstructed using deep learning approaches. Furthermore, the proposed method is 20 times faster in training and inference than the best method that estimates the disparity from reconstructed light fields.</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2209.11342</t>
+  </si>
+  <si>
+    <t>Edge-oriented Implicit Neural Representation with Channel Tuning</t>
+  </si>
+  <si>
+    <t>Implicit neural representation, which expresses an image as a continuous function rather than a discrete grid form, is widely used for image processing. Despite its outperforming results, there are still remaining limitations on restoring clear shapes of a given signal such as the edges of an image. In this paper, we propose Gradient Magnitude Adjustment algorithm which calculates the gradient of an image for training the implicit representation. In addition, we propose Edge-oriented Representation Network (EoREN) that can reconstruct the image with clear edges by fitting gradient information (Edge-oriented module). Furthermore, we add Channel-tuning module to adjust the distribution of given signals so that it solves a chronic problem of fitting gradients. By separating backpropagation paths of the two modules, EoREN can learn true color of the image without hindering the role for gradients. We qualitatively show that our model can reconstruct complex signals and demonstrate general reconstruction ability of our model with quantitative results.</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2209.11697</t>
+  </si>
+  <si>
+    <t>How Does It Feel? Self-Supervised Costmap Learning for Off-Road Vehicle Traversability</t>
+  </si>
+  <si>
+    <t>Estimating terrain traversability in off-road environments requires reasoning about complex interaction dynamics between the robot and these terrains. However, it is challenging to build an accurate physics model, or create informative labels to learn a model in a supervised manner, for these interactions. We propose a method that learns to predict traversability costmaps by combining exteroceptive environmental information with proprioceptive terrain interaction feedback in a self-supervised manner. Additionally, we propose a novel way of incorporating robot velocity in the costmap prediction pipeline. We validate our method in multiple short and large-scale navigation tasks on a large, autonomous all-terrain vehicle (ATV) on challenging off-road terrains, and demonstrate ease of integration on a separate large ground robot. Our short-scale navigation results show that using our learned costmaps leads to overall smoother navigation, and provides the robot with a more fine-grained understanding of the interactions between the robot and different terrain types, such as grass and gravel. Our large-scale navigation trials show that we can reduce the number of interventions by up to 57% compared to an occupancy-based navigation baseline in challenging off-road courses ranging from 400 m to 3150 m.</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2209.10788</t>
+  </si>
+  <si>
+    <t>PNeRF: Probabilistic Neural Scene Representations for Uncertain 3D Visual Mapping</t>
+  </si>
+  <si>
+    <t>Recently neural scene representations have provided very impressive results for representing 3D scenes visually, however, their study and progress have mainly been limited to visualization of virtual models in computer graphics or scene reconstruction in computer vision without explicitly accounting for sensor and pose uncertainty. Using this novel scene representation in robotics applications, however, would require accounting for this uncertainty in the neural map. The aim of this paper is therefore to propose a novel method for training {\em probabilistic neural scene representations} with uncertain training data that could enable the inclusion of these representations in robotics applications. Acquiring images using cameras or depth sensors contains inherent uncertainty, and furthermore, the camera poses used for learning a 3D model are also imperfect. If these measurements are used for training without accounting for their uncertainty, then the resulting models are non-optimal, and the resulting scene representations are likely to contain artifacts such as blur and un-even geometry. In this work, the problem of uncertainty integration to the learning process is investigated by focusing on training with uncertain information in a probabilistic manner. The proposed method involves explicitly augmenting the training likelihood with an uncertainty term such that the learnt probability distribution of the network is minimized with respect to the training uncertainty. It will be shown that this leads to more accurate image rendering quality, in addition to more precise and consistent geometry. Validation has been carried out on both synthetic and real datasets showing that the proposed approach outperforms state-of-the-art methods. The results show notably that the proposed method is capable of rendering novel high-quality views even when the training data is limited.</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2209.11677</t>
+  </si>
+  <si>
+    <t>SG-SRNs: Superpixel-Guided Scene Representation Networks</t>
+  </si>
+  <si>
+    <t>SignalProcessingLetters</t>
+  </si>
+  <si>
+    <t>Recently, Scene Representation Networks (SRNs) have attracted increasing attention in computer vision, due to their continuous and light-weight scene representation ability. However, SRNs generally perform poorly on low-texture image regions. Addressing this problem, we propose superpixel-guided scene representation networks in this paper, called SG-SRNs, consisting of a backbone module (SRNs), a superpixel segmentation module, and a superpixel regularization module. In the proposed method, except for the novel view synthesis task, the task of representation-aware superpixel segmentation mask generation is realized by the proposed superpixel segmentation module. Then, the superpixel regularization module utilizes the superpixel segmentation mask to guide the backbone to be learned in a locally smooth way, and optimizes the scene representations of the local regions to indirectly alleviate the structure distortion of low-texture regions in a self-supervised manner. Extensive experimental results on both our constructed datasets and the public Synthetic-NeRF dataset demonstrated that the proposed SG-SRNs achieved a significantly better 3D structure representing performance.</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/abstract/document/9900405</t>
+  </si>
+  <si>
+    <t>NeRF-Loc: Transformer-Based Object Localization Within Neural Radiance Fields</t>
+  </si>
+  <si>
+    <t>Neural Radiance Fields (NeRFs) have been successfully used for scene representation. Recent works have also developed robotic navigation and manipulation systems using NeRF-based environment representations. As object localization is the foundation for many robotic applications, to further unleash the potential of NeRFs in robotic systems, we study object localization within a NeRF scene. We propose a transformer-based framework NeRF-Loc to extract 3D bounding boxes of objects in NeRF scenes. NeRF-Loc takes a pre-trained NeRF model and camera view as input, and produces labeled 3D bounding boxes of objects as output. Concretely, we design a pair of paralleled transformer encoder branches, namely the coarse stream and the fine stream, to encode both the context and details of target objects. The encoded features are then fused together with attention layers to alleviate ambiguities for accurate object localization. We have compared our method with the conventional transformer-based method and our method achieves better performance. In addition, we also present the first NeRF samples-based object localization benchmark NeRFLocBench.</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2209.12068</t>
+  </si>
+  <si>
+    <t>Local_INN: Implicit Map Representation and Localization with Invertible Neural Networks</t>
+  </si>
+  <si>
+    <t>Robot localization is an inverse problem of finding a robot's pose using a map and sensor measurements. In recent years, Invertible Neural Networks (INNs) have successfully solved ambiguous inverse problems in various fields. This paper proposes a framework that solves the localization problem with INN. We design an INN that provides implicit map representation in the forward path and localization in the inverse path. By sampling the latent space in evaluation, Local\_INN outputs robot poses with covariance, which can be used to estimate the uncertainty. We show that the localization performance of Local\_INN is on par with current methods with much lower latency. We show detailed 2D and 3D map reconstruction from Local\_INN using poses exterior to the training set. We also provide a global localization algorithm using Local\_INN to tackle the kidnapping problem.</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2209.11925</t>
+  </si>
+  <si>
+    <t>Enforcing safety for vision-based controllers via Control Barrier Functions and Neural Radiance Fields</t>
+  </si>
+  <si>
+    <t>To navigate complex environments, robots must increasingly use high-dimensional visual feedback (e.g. images) for control. However, relying on high-dimensional image data to make control decisions raises important questions; particularly, how might we prove the safety of a visual-feedback controller? Control barrier functions (CBFs) are powerful tools for certifying the safety of feedback controllers in the state-feedback setting, but CBFs have traditionally been poorly-suited to visual feedback control due to the need to predict future observations in order to evaluate the barrier function. In this work, we solve this issue by leveraging recent advances in neural radiance fields (NeRFs), which learn implicit representations of 3D scenes and can render images from previously-unseen camera perspectives, to provide single-step visual foresight for a CBF-based controller. This novel combination is able to filter out unsafe actions and intervene to preserve safety. We demonstrate the effect of our controller in real-time simulation experiments where it successfully prevents the robot from taking dangerous actions.</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2209.12266</t>
+  </si>
+  <si>
+    <t>Sep25 - Oct1, 2022</t>
+  </si>
+  <si>
+    <t>Baking in the Feature: Accelerating Volumetric Segmentation by Rendering Feature Maps</t>
+  </si>
+  <si>
+    <t>Methods have recently been proposed that densely segment 3D volumes into classes using only color images and expert supervision in the form of sparse semantically annotated pixels. While impressive, these methods still require a relatively large amount of supervision and segmenting an object can take several minutes in practice. Such systems typically only optimize their representation on the particular scene they are fitting, without leveraging any prior information from previously seen images. In this paper, we propose to use features extracted with models trained on large existing datasets to improve segmentation performance. We bake this feature representation into a Neural Radiance Field (NeRF) by volumetrically rendering feature maps and supervising on features extracted from each input image. We show that by baking this representation into the NeRF, we make the subsequent classification task much easier. Our experiments show that our method achieves higher segmentation accuracy with fewer semantic annotations than existing methods over a wide range of scenes.</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2209.12744</t>
+  </si>
+  <si>
+    <t>Neural Global Illumination: Interactive Indirect Illumination Prediction under Dynamic Area Lights</t>
+  </si>
+  <si>
+    <t>We propose neural global illumination, a novel method for fast rendering full global illumination in static scenes with dynamic viewpoint and area lighting. The key idea of our method is to utilize a deep rendering network to model the complex mapping from each shading point to global illumination. To efficiently learn the mapping, we propose a neural-network-friendly input representation including attributes of each shading point, viewpoint information, and a combinational lighting representation that enables high-quality fitting with a compact neural network. To synthesize high-frequency global illumination effects, we transform the low-dimension input to higher-dimension space by positional encoding and model the rendering network as a deep fully-connected network. Besides, we feed a screen-space neural buffer to our rendering network to share global information between objects in the screen-space to each shading point. We have demonstrated our neural global illumination method in rendering a wide variety of scenes exhibiting complex and all-frequency global illumination effects such as multiple-bounce glossy interreflection, color bleeding, and caustics.</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/abstract/document/9904431</t>
+  </si>
+  <si>
+    <t>WaterNeRF: Neural Radiance Fields for Underwater Scenes</t>
+  </si>
+  <si>
+    <t>Underwater imaging is a critical task performed by marine robots for a wide range of applications including aquaculture, marine infrastructure inspection, and environmental monitoring. However, water column effects, such as attenuation and backscattering, drastically change the color and quality of imagery captured underwater. Due to varying water conditions and range-dependency of these effects, restoring underwater imagery is a challenging problem. This impacts downstream perception tasks including depth estimation and 3D reconstruction. In this paper, we advance state-of-the-art in neural radiance fields (NeRFs) to enable physics-informed dense depth estimation and color correction. Our proposed method, WaterNeRF, estimates parameters of a physics-based model for underwater image formation, leading to a hybrid data-driven and model-based solution. After determining the scene structure and radiance field, we can produce novel views of degraded as well as corrected underwater images, along with dense depth of the scene. We evaluate the proposed method qualitatively and quantitatively on a real underwater dataset.</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2209.13091</t>
+  </si>
+  <si>
+    <t>Efficient View Path Planning for Autonomous Implicit Reconstruction</t>
+  </si>
+  <si>
+    <t>Implicit neural representations have shown promising potential for the 3D scene reconstruction. Recent work applies it to autonomous 3D reconstruction by learning information gain for view path planning. Effective as it is, the computation of the information gain is expensive, and compared with that using volumetric representations, collision checking using the implicit representation for a 3D point is much slower. In the paper, we propose to 1) leverage a neural network as an implicit function approximator for the information gain field and 2) combine the implicit fine-grained representation with coarse volumetric representations to improve efficiency. Further with the improved efficiency, we propose a novel informative path planning based on a graph-based planner. Our method demonstrates significant improvements in the reconstruction quality and planning efficiency compared with autonomous reconstructions with implicit and explicit representations. We deploy the method on a real UAV and the results show that our method can plan informative views and reconstruct a scene with high quality.</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2209.13159</t>
+  </si>
+  <si>
+    <t>Orbeez-SLAM: A Real-time Monocular Visual SLAM with ORB Features and NeRF-realized Mapping</t>
+  </si>
+  <si>
+    <t>A spatial AI that can perform complex tasks through visual signals and cooperate with humans is highly anticipated. To achieve this, we need a visual SLAM that easily adapts to new scenes without pre-training and generates dense maps for downstream tasks in real-time. None of the previous learning-based and non-learning-based visual SLAMs satisfy all needs due to the intrinsic limitations of their components. In this work, we develop a visual SLAM named Orbeez-SLAM, which successfully collaborates with implicit neural representation (NeRF) and visual odometry to achieve our goals. Moreover, Orbeez-SLAM can work with the monocular camera since it only needs RGB inputs, making it widely applicable to the real world. We validate its effectiveness on various challenging benchmarks. Results show that our SLAM is up to 800x faster than the strong baseline with superior rendering outcomes.</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2209.13274</t>
+  </si>
+  <si>
+    <t>360FusionNeRF: Panoramic Neural Radiance Fields with Joint Guidance</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2209.14265</t>
+  </si>
+  <si>
+    <t>City-scale Incremental Neural Mapping with Three-layer Sampling and Panoptic Representation</t>
+  </si>
+  <si>
+    <t>Neural implicit representations are drawing a lot of attention from the robotics community recently, as they are expressive, continuous and compact. However, city-scale incremental implicit dense mapping based on sparse LiDAR input is still an under-explored challenge. To this end,we successfully build the first city-scale incremental neural mapping system with a panoptic representation that consists of both environment-level and instance-level modelling. Given a stream of sparse LiDAR point cloud, it maintains a dynamic generative model that maps 3D coordinates to signed distance field (SDF) values. To address the difficulty of representing geometric information at different levels in city-scale space, we propose a tailored three-layer sampling strategy to dynamically sample the global, local and near-surface domains. Meanwhile, to realize high fidelity mapping, category-specific prior is introduced to better model the geometric details, leading to a panoptic representation. We evaluate on the public SemanticKITTI dataset and demonstrate the significance of the newly proposed three-layer sampling strategy and panoptic representation, using both quantitative and qualitative results. Codes and data will be publicly available.</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2209.14072</t>
+  </si>
+  <si>
+    <t>GeoInformatica</t>
+  </si>
+  <si>
+    <t>Towards General-Purpose Representation Learning of Polygonal Geometries</t>
+  </si>
+  <si>
+    <t>Neural network representation learning for spatial data is a common need for geographic artificial intelligence (GeoAI) problems. In recent years, many advancements have been made in representation learning for points, polylines, and networks, whereas little progress has been made for polygons, especially complex polygonal geometries. In this work, we focus on developing a general-purpose polygon encoding model, which can encode a polygonal geometry (with or without holes, single or multipolygons) into an embedding space. The result embeddings can be leveraged directly (or finetuned) for downstream tasks such as shape classification, spatial relation prediction, and so on. To achieve model generalizability guarantees, we identify a few desirable properties: loop origin invariance, trivial vertex invariance, part permutation invariance, and topology awareness. We explore two different designs for the encoder: one derives all representations in the spatial domain; the other leverages spectral domain representations. For the spatial domain approach, we propose ResNet1D, a 1D CNN-based polygon encoder, which uses circular padding to achieve loop origin invariance on simple polygons. For the spectral domain approach, we develop NUFTspec based on Non-Uniform Fourier Transformation (NUFT), which naturally satisfies all the desired properties. We conduct experiments on two tasks: 1) shape classification based on MNIST; 2) spatial relation prediction based on two new datasets - DBSR-46K and DBSR-cplx46K. Our results show that NUFTspec and ResNet1D outperform multiple existing baselines with significant margins. While ResNet1D suffers from model performance degradation after shape-invariance geometry modifications, NUFTspec is very robust to these modifications due to the nature of the NUFT.</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2209.15458</t>
+  </si>
+  <si>
+    <t>SymmNeRF: Learning to Explore Symmetry Prior for Single-View View Synthesis</t>
+  </si>
+  <si>
+    <t>ACCV2022</t>
+  </si>
+  <si>
+    <t>We study the problem of novel view synthesis of objects from a single image. Existing methods have demonstrated the potential in single-view view synthesis. However, they still fail to recover the fine appearance details, especially in self-occluded areas. This is because a single view only provides limited information. We observe that manmade objects usually exhibit symmetric appearances, which introduce additional prior knowledge. Motivated by this, we investigate the potential performance gains of explicitly embedding symmetry into the scene representation. In this paper, we propose SymmNeRF, a neural radiance field (NeRF) based framework that combines local and global conditioning under the introduction of symmetry priors. In particular, SymmNeRF takes the pixel-aligned image features and the corresponding symmetric features as extra inputs to the NeRF, whose parameters are generated by a hypernetwork. As the parameters are conditioned on the image-encoded latent codes, SymmNeRF is thus scene-independent and can generalize to new scenes. Experiments on synthetic and realworld datasets show that SymmNeRF synthesizes novel views with more details regardless of the pose transformation, and demonstrates good generalization when applied to unseen objects. Code is available at: this https URL.</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2209.14819</t>
+  </si>
+  <si>
+    <t>https://github.com/xingyi-li/SymmNeRF</t>
+  </si>
+  <si>
+    <t>Continuous PDE Dynamics Forecasting with Implicit Neural Representations</t>
+  </si>
+  <si>
+    <t>Effective data-driven PDE forecasting methods often rely on fixed spatial and / or temporal discretizations. This raises limitations in real-world applications like weather prediction where flexible extrapolation at arbitrary spatiotemporal locations is required. We address this problem by introducing a new data-driven approach, DINo, that models a PDE's flow with continuous-time dynamics of spatially continuous functions. This is achieved by embedding spatial observations independently of their discretization via Implicit Neural Representations in a small latent space temporally driven by a learned ODE. This separate and flexible treatment of time and space makes DINo the first data-driven model to combine the following advantages. It extrapolates at arbitrary spatial and temporal locations; it can learn from sparse irregular grids or manifolds; at test time, it generalizes to new grids or resolutions. DINo outperforms alternative neural PDE forecasters in a variety of challenging generalization scenarios on representative PDE systems.</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2209.14855</t>
+  </si>
+  <si>
+    <t>Implicit Neural Spatial Representations for Time-dependent PDEs</t>
+  </si>
+  <si>
+    <t>Numerically solving partial differential equations (PDEs) often entails spatial and temporal discretizations. Traditional methods (e.g., finite difference, finite element, smoothed-particle hydrodynamics) frequently adopt explicit spatial discretizations, such as grids, meshes, and point clouds, where each degree-of-freedom corresponds to a location in space. While these explicit spatial correspondences are intuitive to model and understand, these representations are not necessarily optimal for accuracy, memory-usage, or adaptivity. In this work, we explore implicit neural representation as an alternative spatial discretization, where spatial information is implicitly stored in the neural network weights. With implicit neural spatial representation, PDE-constrained time-stepping translates into updating neural network weights, which naturally integrates with commonly adopted optimization time integrators. We validate our approach on a variety of classic PDEs with examples involving large elastic deformations, turbulent fluids, and multiscale phenomena. While slower to compute than traditional representations, our approach exhibits higher accuracy, lower memory consumption, and dynamically adaptive allocation of degrees of freedom without complex remeshing.</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2210.00124</t>
+  </si>
+  <si>
+    <t>MonoNeuralFusion: Online Monocular Neural 3D Reconstruction with Geometric Priors</t>
+  </si>
+  <si>
+    <t>High-fidelity 3D scene reconstruction from monocular videos continues to be challenging, especially for complete and fine-grained geometry reconstruction. The previous 3D reconstruction approaches with neural implicit representations have shown a promising ability for complete scene reconstruction, while their results are often over-smooth and lack enough geometric details. This paper introduces a novel neural implicit scene representation with volume rendering for high-fidelity online 3D scene reconstruction from monocular videos. For fine-grained reconstruction, our key insight is to incorporate geometric priors into both the neural implicit scene representation and neural volume rendering, thus leading to an effective geometry learning mechanism based on volume rendering optimization. Benefiting from this, we present MonoNeuralFusion to perform the online neural 3D reconstruction from monocular videos, by which the 3D scene geometry is efficiently generated and optimized during the on-the-fly 3D monocular scanning. The extensive comparisons with state-of-the-art approaches show that our MonoNeuralFusion consistently generates much better complete and fine-grained reconstruction results, both quantitatively and qualitatively.</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2209.15153</t>
+  </si>
+  <si>
+    <t>Towards Multi-spatiotemporal-scale Generalized PDE Modeling</t>
+  </si>
+  <si>
+    <t>Partial differential equations (PDEs) are central to describing complex physical system simulations. Their expensive solution techniques have led to an increased interest in deep neural network based surrogates. However, the practical utility of training such surrogates is contingent on their ability to model complex multi-scale spatio-temporal phenomena. Various neural network architectures have been proposed to target such phenomena, most notably Fourier Neural Operators (FNOs) which give a natural handle over local \&amp; global spatial information via parameterization of different Fourier modes, and U-Nets which treat local and global information via downsampling and upsampling paths. However, generalizing across different equation parameters or different time-scales still remains a challenge. In this work, we make a comprehensive comparison between various FNO and U-Net like approaches on fluid mechanics problems in both vorticity-stream and velocity function form. For U-Nets, we transfer recent architectural improvements from computer vision, most notably from object segmentation and generative modeling. We further analyze the design considerations for using FNO layers to improve performance of U-Net architectures without major degradation of computational performance. Finally, we show promising results on generalization to different PDE parameters and time-scales with a single surrogate model.</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2209.15616</t>
+  </si>
+  <si>
+    <t>Sphere-Guided Training of Neural Implicit Surfaces</t>
+  </si>
+  <si>
+    <t>In recent years, surface modeling via neural implicit functions has become one of the main techniques for multi-view 3D reconstruction. However, the state-of-the-art methods rely on the implicit functions to model an entire volume of the scene, leading to reduced reconstruction fidelity in the areas with thin objects or high-frequency details. To address that, we present a method for jointly training neural implicit surfaces alongside an auxiliary explicit shape representation, which acts as surface guide. In our approach, this representation encapsulates the surface region of the scene and enables us to boost the efficiency of the implicit function training by only modeling the volume in that region. We propose using a set of learnable spherical primitives as a learnable surface guidance since they can be efficiently trained alongside the neural surface function using its gradients. Our training pipeline consists of iterative updates of the spheres' centers using the gradients of the implicit function and then fine-tuning the latter to the updated surface region of the scene. We show that such modification to the training procedure can be plugged into several popular implicit reconstruction methods, improving the quality of the results over multiple 3D reconstruction benchmarks.</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2209.15511</t>
+  </si>
+  <si>
+    <t>Distilling Style from Image Pairs for Global Forward and Inverse Tone Mapping</t>
+  </si>
+  <si>
+    <t>CVMP2022</t>
+  </si>
+  <si>
+    <t>Many image enhancement or editing operations, such as forward and inverse tone mapping or color grading, do not have a unique solution, but instead a range of solutions, each representing a different style. Despite this, existing learning-based methods attempt to learn a unique mapping, disregarding this style. In this work, we show that information about the style can be distilled from collections of image pairs and encoded into a 2- or 3-dimensional vector. This gives us not only an efficient representation but also an interpretable latent space for editing the image style. We represent the global color mapping between a pair of images as a custom normalizing flow, conditioned on a polynomial basis of the pixel color. We show that such a network is more effective than PCA or VAE at encoding image style in low-dimensional space and lets us obtain an accuracy close to 40 dB, which is about 7-10 dB improvement over the state-of-the-art methods.</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2209.15165</t>
+  </si>
+  <si>
+    <t>Understanding Pure CLIP Guidance for Voxel Grid NeRF Models</t>
+  </si>
+  <si>
+    <t>We explore the task of text to 3D object generation using CLIP. Specifically, we use CLIP for guidance without access to any datasets, a setting we refer to as pure CLIP guidance. While prior work has adopted this setting, there is no systematic study of mechanics for preventing adversarial generations within CLIP. We illustrate how different image-based augmentations prevent the adversarial generation problem, and how the generated results are impacted. We test different CLIP model architectures and show that ensembling different models for guidance can prevent adversarial generations within bigger models and generate sharper results. Furthermore, we implement an implicit voxel grid model to show how neural networks provide an additional layer of regularization, resulting in better geometrical structure and coherency of generated objects. Compared to prior work, we achieve more coherent results with higher memory efficiency and faster training speeds.</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2209.15172</t>
+  </si>
+  <si>
+    <t>Improving 3D-aware Image Synthesis with A Geometry-aware Discriminator</t>
+  </si>
+  <si>
+    <t>NeurIPS2022</t>
+  </si>
+  <si>
+    <t>3D-aware image synthesis aims at learning a generative model that can render photo-realistic 2D images while capturing decent underlying 3D shapes. A popular solution is to adopt the generative adversarial network (GAN) and replace the generator with a 3D renderer, where volume rendering with neural radiance field (NeRF) is commonly used. Despite the advancement of synthesis quality, existing methods fail to obtain moderate 3D shapes. We argue that, considering the two-player game in the formulation of GANs, only making the generator 3D-aware is not enough. In other words, displacing the generative mechanism only offers the capability, but not the guarantee, of producing 3D-aware images, because the supervision of the generator primarily comes from the discriminator. To address this issue, we propose GeoD through learning a geometry-aware discriminator to improve 3D-aware GANs. Concretely, besides differentiating real and fake samples from the 2D image space, the discriminator is additionally asked to derive the geometry information from the inputs, which is then applied as the guidance of the generator. Such a simple yet effective design facilitates learning substantially more accurate 3D shapes. Extensive experiments on various generator architectures and training datasets verify the superiority of GeoD over state-of-the-art alternatives. Moreover, our approach is registered as a general framework such that a more capable discriminator (i.e., with a third task of novel view synthesis beyond domain classification and geometry extraction) can further assist the generator with a better multi-view consistency.</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2209.15637</t>
+  </si>
+  <si>
+    <t>https://github.com/vivianszf/geod</t>
+  </si>
+  <si>
+    <t>SCI: A spectrum concentrated implicit neural compression for biomedical data</t>
+  </si>
+  <si>
+    <t>Massive collection and explosive growth of the huge amount of medical data, demands effective compression for efficient storage, transmission and sharing. Readily available visual data compression techniques have been studied extensively but tailored for nature images/videos, and thus show limited performance on medical data which are of different characteristics. Emerging implicit neural representation (INR) is gaining momentum and demonstrates high promise for fitting diverse visual data in target-data-specific manner, but a general compression scheme covering diverse medical data is so far absent. To address this issue, we firstly derive a mathematical explanation for INR's spectrum concentration property and an analytical insight on the design of compression-oriented INR architecture. Further, we design a funnel shaped neural network capable of covering broad spectrum of complex medical data and achieving high compression ratio. Based on this design, we conduct compression via optimization under given budget and propose an adaptive compression approach SCI, which adaptively partitions the target data into blocks matching the concentrated spectrum envelop of the adopted INR, and allocates parameter with high representation accuracy under given compression ratio. The experiments show SCI's superior performance over conventional techniques and wide applicability across diverse medical data.</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2209.15180</t>
+  </si>
+  <si>
+    <t>Structure-Aware NeRF without Posed Camera via Epipolar Constraint</t>
+  </si>
+  <si>
+    <t>The neural radiance field (NeRF) for realistic novel view synthesis requires camera poses to be pre-acquired by a structure-from-motion (SfM) approach. This two-stage strategy is not convenient to use and degrades the performance because the error in the pose extraction can propagate to the view synthesis. We integrate the pose extraction and view synthesis into a single end-to-end procedure so they can benefit from each other. For training NeRF models, only RGB images are given, without pre-known camera poses. The camera poses are obtained by the epipolar constraint in which the identical feature in different views has the same world coordinates transformed from the local camera coordinates according to the extracted poses. The epipolar constraint is jointly optimized with pixel color constraint. The poses are represented by a CNN-based deep network, whose input is the related frames. This joint optimization enables NeRF to be aware of the scene's structure that has an improved generalization performance. Extensive experiments on a variety of scenes demonstrate the effectiveness of the proposed approach. Code is available at this https URL.</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2210.00183</t>
+  </si>
+  <si>
+    <t>https://github.com/XTU-PR-LAB/SaNerf</t>
+  </si>
+  <si>
+    <t>NeRF: Neural Radiance Field in 3D Vision, A Comprehensive Review</t>
+  </si>
+  <si>
+    <t>Neural Radiance Field (NeRF), a new novel view synthesis with implicit scene representation has taken the field of Computer Vision by storm. As a novel view synthesis and 3D reconstruction method, NeRF models find applications in robotics, urban mapping, autonomous navigation, virtual reality/augmented reality, and more. Since the original paper by Mildenhall et al., more than 250 preprints were published, with more than 100 eventually being accepted in tier one Computer Vision Conferences. Given NeRF popularity and the current interest in this research area, we believe it necessary to compile a comprehensive survey of NeRF papers from the past two years, which we organized into both architecture, and application based taxonomies. We also provide an introduction to the theory of NeRF based novel view synthesis, and a benchmark comparison of the performance and speed of key NeRF models. By creating this survey, we hope to introduce new researchers to NeRF, provide a helpful reference for influential works in this field, as well as motivate future research directions with our discussion section.</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2210.00379</t>
+  </si>
+  <si>
+    <t>MonoNHR: Monocular Neural Human Renderer</t>
+  </si>
+  <si>
+    <t>Existing neural human rendering methods struggle with a single image input due to the lack of information in invisible areas and the depth ambiguity of pixels in visible areas. In this regard, we propose Monocular Neural Human Renderer (MonoNHR), a novel approach that renders robust free-viewpoint images of an arbitrary human given only a single image. MonoNHR is the first method that (i) renders human subjects never seen during training in a monocular setup, and (ii) is trained in a weakly-supervised manner without geometry supervision. First, we propose to disentangle 3D geometry and texture features and to condition the texture inference on the 3D geometry features. Second, we introduce a Mesh Inpainter module that inpaints the occluded parts exploiting human structural priors such as symmetry. Experiments on ZJU-MoCap, AIST, and HUMBI datasets show that our approach significantly outperforms the recent methods adapted to the monocular case.</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2210.00627</t>
+  </si>
+  <si>
+    <t>Oct2- Oct8, 2022</t>
+  </si>
+  <si>
+    <t>Unsupervised Multi-View Object Segmentation Using Radiance Field Propagation</t>
+  </si>
+  <si>
+    <t>We present radiance field propagation (RFP), a novel approach to segmenting objects in 3D during reconstruction given only unlabeled multi-view images of a scene. RFP is derived from emerging neural radiance field-based techniques, which jointly encodes semantics with appearance and geometry. The core of our method is a novel propagation strategy for individual objects' radiance fields with a bidirectional photometric loss, enabling an unsupervised partitioning of a scene into salient or meaningful regions corresponding to different object instances. To better handle complex scenes with multiple objects and occlusions, we further propose an iterative expectation-maximization algorithm to refine object masks. To the best of our knowledge, RFP is the first unsupervised approach for tackling 3D scene object segmentation for neural radiance field (NeRF) without any supervision, annotations, or other cues such as 3D bounding boxes and prior knowledge of object class. Experiments demonstrate that RFP achieves feasible segmentation results that are more accurate than previous unsupervised image/scene segmentation approaches, and are comparable to existing supervised NeRF-based methods. The segmented object representations enable individual 3D object editing operations.</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2210.00489</t>
+  </si>
+  <si>
+    <t>IntrinsicNeRF: Learning Intrinsic Neural Radiance Fields for Editable Novel View Synthesis</t>
+  </si>
+  <si>
+    <t>We present intrinsic neural radiance fields, dubbed IntrinsicNeRF, that introduce intrinsic decomposition into the NeRF-based~\cite{mildenhall2020nerf} neural rendering method and can perform editable novel view synthesis in room-scale scenes while existing inverse rendering combined with neural rendering methods~\cite{zhang2021physg, zhang2022modeling} can only work on object-specific scenes. Given that intrinsic decomposition is a fundamentally ambiguous and under-constrained inverse problem, we propose a novel distance-aware point sampling and adaptive reflectance iterative clustering optimization method that enables IntrinsicNeRF with traditional intrinsic decomposition constraints to be trained in an unsupervised manner, resulting in temporally consistent intrinsic decomposition results. To cope with the problem of different adjacent instances of similar reflectance in a scene being incorrectly clustered together, we further propose a hierarchical clustering method with coarse-to-fine optimization to obtain a fast hierarchical indexing representation. It enables compelling real-time augmented reality applications such as scene recoloring, material editing, and illumination variation. Extensive experiments on Blender Object and Replica Scene demonstrate that we can obtain high-quality, consistent intrinsic decomposition results and high-fidelity novel view synthesis even for challenging sequences. Code and data are available on the project webpage: this https URL.</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2210.00647</t>
+  </si>
+  <si>
+    <t>https://github.com/zju3dv/IntrinsicNeRF</t>
+  </si>
+  <si>
+    <t>SinGRAV: Learning a Generative Radiance Volume from a Single Natural Scene</t>
+  </si>
+  <si>
+    <t>We present a 3D generative model for general natural scenes. Lacking necessary volumes of 3D data characterizing the target scene, we propose to learn from a single scene. Our key insight is that a natural scene often contains multiple constituents whose geometry, texture, and spatial arrangements follow some clear patterns, but still exhibit rich variations over different regions within the same scene. This suggests localizing the learning of a generative model on substantial local regions. Hence, we exploit a multi-scale convolutional network, which possesses the spatial locality bias in nature, to learn from the statistics of local regions at multiple scales within a single scene. In contrast to existing methods, our learning setup bypasses the need to collect data from many homogeneous 3D scenes for learning common features. We coin our method SinGRAV, for learning a Generative RAdiance Volume from a Single natural scene. We demonstrate the ability of SinGRAV in generating plausible and diverse variations from a single scene, the merits of SinGRAV over state-of-the-art generative neural scene methods, as well as the versatility of SinGRAV by its use in a variety of applications, spanning 3D scene editing, composition, and animation. Code and data will be released to facilitate further research.</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2210.01202</t>
+  </si>
+  <si>
+    <t>Probabilistic Volumetric Fusion for Dense Monocular SLAM</t>
+  </si>
+  <si>
+    <t>We present a novel method to reconstruct 3D scenes from images by leveraging deep dense monocular SLAM and fast uncertainty propagation. The proposed approach is able to 3D reconstruct scenes densely, accurately, and in real-time while being robust to extremely noisy depth estimates coming from dense monocular SLAM. Differently from previous approaches, that either use ad-hoc depth filters, or that estimate the depth uncertainty from RGB-D cameras' sensor models, our probabilistic depth uncertainty derives directly from the information matrix of the underlying bundle adjustment problem in SLAM. We show that the resulting depth uncertainty provides an excellent signal to weight the depth-maps for volumetric fusion. Without our depth uncertainty, the resulting mesh is noisy and with artifacts, while our approach generates an accurate 3D mesh with significantly fewer artifacts. We provide results on the challenging Euroc dataset, and show that our approach achieves 92% better accuracy than directly fusing depths from monocular SLAM, and up to 90% improvements compared to the best competing approach.</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2210.01276</t>
+  </si>
+  <si>
+    <t>NARF22: Neural Articulated Radiance Fields for Configuration-Aware Rendering</t>
+  </si>
+  <si>
+    <t>Articulated objects pose a unique challenge for robotic perception and manipulation. Their increased number of degrees-of-freedom makes tasks such as localization computationally difficult, while also making the process of real-world dataset collection unscalable. With the aim of addressing these scalability issues, we propose Neural Articulated Radiance Fields (NARF22), a pipeline which uses a fully-differentiable, configuration-parameterized Neural Radiance Field (NeRF) as a means of providing high quality renderings of articulated objects. NARF22 requires no explicit knowledge of the object structure at inference time. We propose a two-stage parts-based training mechanism which allows the object rendering models to generalize well across the configuration space even if the underlying training data has as few as one configuration represented. We demonstrate the efficacy of NARF22 by training configurable renderers on a real-world articulated tool dataset collected via a Fetch mobile manipulation robot. We show the applicability of the model to gradient-based inference methods through a configuration estimation and 6 degree-of-freedom pose refinement task. The project webpage is available at: this https URL.</t>
+  </si>
+  <si>
+    <t>https://progress.eecs.umich.edu/projects/narf/</t>
+  </si>
+  <si>
+    <t>Uncertainty-Driven Active Vision for Implicit Scene Reconstruction</t>
+  </si>
+  <si>
+    <t>Multi-view implicit scene reconstruction methods have become increasingly popular due to their ability to represent complex scene details. Recent efforts have been devoted to improving the representation of input information and to reducing the number of views required to obtain high quality reconstructions. Yet, perhaps surprisingly, the study of which views to select to maximally improve scene understanding remains largely unexplored. We propose an uncertainty-driven active vision approach for implicit scene reconstruction, which leverages occupancy uncertainty accumulated across the scene using volume rendering to select the next view to acquire. To this end, we develop an occupancy-based reconstruction method which accurately represents scenes using either 2D or 3D supervision. We evaluate our proposed approach on the ABC dataset and the in the wild CO3D dataset, and show that: (1) we are able to obtain high quality state-of-the-art occupancy reconstructions; (2) our perspective conditioned uncertainty definition is effective to drive improvements in next best view selection and outperforms strong baseline approaches; and (3) we can further improve shape understanding by performing a gradient-based search on the view selection candidates. Overall, our results highlight the importance of view selection for implicit scene reconstruction, making it a promising avenue to explore further.</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2210.00978</t>
+  </si>
+  <si>
+    <t>Self-improving Multiplane-to-layer Images for Novel View Synthesis</t>
+  </si>
+  <si>
+    <t>WACV2023</t>
+  </si>
+  <si>
+    <t>We present a new method for lightweight novel-view synthesis that generalizes to an arbitrary forward-facing scene. Recent approaches are computationally expensive, require per-scene optimization, or produce a memory-expensive representation. We start by representing the scene with a set of fronto-parallel semitransparent planes and afterward convert them to deformable layers in an end-to-end manner. Additionally, we employ a feed-forward refinement procedure that corrects the estimated representation by aggregating information from input views. Our method does not require fine-tuning when a new scene is processed and can handle an arbitrary number of views without restrictions. Experimental results show that our approach surpasses recent models in terms of common metrics and human evaluation, with the noticeable advantage in inference speed and compactness of the inferred layered geometry, see this https URL</t>
+  </si>
+  <si>
+    <t>https://samsunglabs.github.io/MLI/</t>
+  </si>
+  <si>
+    <t>https://github.com/SamsungLabs/MLI</t>
+  </si>
+  <si>
+    <t>Dfferentiable Raycasting for Self-supervised Occupancy Forecasting</t>
+  </si>
+  <si>
+    <t>Motion planning for safe autonomous driving requires learning how the environment around an ego-vehicle evolves with time. Ego-centric perception of driveable regions in a scene not only changes with the motion of actors in the environment, but also with the movement of the ego-vehicle itself. Self-supervised representations proposed for large-scale planning, such as ego-centric freespace, confound these two motions, making the representation difficult to use for downstream motion planners. In this paper, we use geometric occupancy as a natural alternative to view-dependent representations such as freespace. Occupancy maps naturally disentangle the motion of the environment from the motion of the ego-vehicle. However, one cannot directly observe the full 3D occupancy of a scene (due to occlusion), making it difficult to use as a signal for learning. Our key insight is to use differentiable raycasting to "render" future occupancy predictions into future LiDAR sweep predictions, which can be compared with ground-truth sweeps for self-supervised learning. The use of differentiable raycasting allows occupancy to emerge as an internal representation within the forecasting network. In the absence of groundtruth occupancy, we quantitatively evaluate the forecasting of raycasted LiDAR sweeps and show improvements of upto 15 F1 points. For downstream motion planners, where emergent occupancy can be directly used to guide non-driveable regions, this representation relatively reduces the number of collisions with objects by up to 17% as compared to freespace-centric motion planners.</t>
+  </si>
+  <si>
+    <t>https://github.com/tarashakhurana/emergent-occ-forecasting</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2210.01917</t>
+  </si>
+  <si>
+    <t>Learning Perception-Aware Agile Flight in Cluttered Environments</t>
+  </si>
+  <si>
+    <t>Recently, neural control policies have outperformed existing model-based planning-and-control methods for autonomously navigating quadrotors through cluttered environments in minimum time. However, they are not perception aware, a crucial requirement in vision-based navigation due to the camera's limited field of view and the underactuated nature of a quadrotor. We propose a method to learn neural network policies that achieve perception-aware, minimum-time flight in cluttered environments. Our method combines imitation learning and reinforcement learning (RL) by leveraging a privileged learning-by-cheating framework. Using RL, we first train a perception-aware teacher policy with full-state information to fly in minimum time through cluttered environments. Then, we use imitation learning to distill its knowledge into a vision-based student policy that only perceives the environment via a camera. Our approach tightly couples perception and control, showing a significant advantage in computation speed (10x faster) and success rate. We demonstrate the closed-loop control performance using a physical quadrotor and hardware-in-the-loop simulation at speeds up to 50km/h.</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2210.01841</t>
+  </si>
+  <si>
+    <t>Capturing and Animation of Body and Clothing from Monocular Video</t>
+  </si>
+  <si>
+    <t>While recent work has shown progress on extracting clothed 3D human avatars from a single image, video, or a set of 3D scans, several limitations remain. Most methods use a holistic representation to jointly model the body and clothing, which means that the clothing and body cannot be separated for applications like virtual try-on. Other methods separately model the body and clothing, but they require training from a large set of 3D clothed human meshes obtained from 3D/4D scanners or physics simulations. Our insight is that the body and clothing have different modeling requirements. While the body is well represented by a mesh-based parametric 3D model, implicit representations and neural radiance fields are better suited to capturing the large variety in shape and appearance present in clothing. Building on this insight, we propose SCARF (Segmented Clothed Avatar Radiance Field), a hybrid model combining a mesh-based body with a neural radiance field. Integrating the mesh into the volumetric rendering in combination with a differentiable rasterizer enables us to optimize SCARF directly from monocular videos, without any 3D supervision. The hybrid modeling enables SCARF to (i) animate the clothed body avatar by changing body poses (including hand articulation and facial expressions), (ii) synthesize novel views of the avatar, and (iii) transfer clothing between avatars in virtual try-on applications. We demonstrate that SCARF reconstructs clothing with higher visual quality than existing methods, that the clothing deforms with changing body pose and body shape, and that clothing can be successfully transferred between avatars of different subjects. The code and models are available at this https URL.</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2210.01868</t>
+  </si>
+  <si>
+    <t>SelfNeRF: Fast Training NeRF for Human from Monocular Self-rotating Video</t>
+  </si>
+  <si>
+    <t>In this paper, we propose SelfNeRF, an efficient neural radiance field based novel view synthesis method for human performance. Given monocular self-rotating videos of human performers, SelfNeRF can train from scratch and achieve high-fidelity results in about twenty minutes. Some recent works have utilized the neural radiance field for dynamic human reconstruction. However, most of these methods need multi-view inputs and require hours of training, making it still difficult for practical use. To address this challenging problem, we introduce a surface-relative representation based on multi-resolution hash encoding that can greatly improve the training speed and aggregate inter-frame information. Extensive experimental results on several different datasets demonstrate the effectiveness and efficiency of SelfNeRF to challenging monocular videos.</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2210.01651</t>
+  </si>
+  <si>
+    <t>IR-MCL: Implicit Representation-Based Online Global Localization</t>
+  </si>
+  <si>
+    <t>Determining the state of a mobile robot is an essential building block of robot navigation systems. In this paper, we address the problem of estimating the robots pose in an indoor environment using 2D LiDAR data and investigate how modern environment models can improve gold standard Monte-Carlo localization (MCL) systems. We propose a neural occupancy field (NOF) to implicitly represent the scene using a neural network. With the pretrained network, we can synthesize 2D LiDAR scans for an arbitrary robot pose through volume rendering. Based on the implicit representation, we can obtain the similarity between a synthesized and actual scan as an observation model and integrate it into an MCL system to perform accurate localization. We evaluate our approach on five sequences of a self-recorded dataset and three publicly available datasets. We show that we can accurately and efficiently localize a robot using our approach surpassing the localization performance of state-of-the-art methods. The experiments suggest that the presented implicit representation is able to predict more accurate 2D LiDAR scans leading to an improved observation model for our particle filter-based localization. The code of our approach is released at: this https URL.</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2210.03113</t>
+  </si>
+  <si>
+    <t>https://github.com/PRBonn/ir-mcl</t>
+  </si>
+  <si>
+    <t>Neural Matching Fields: Implicit Representation of Matching Fields for Visual Correspondence</t>
+  </si>
+  <si>
+    <t>Existing pipelines of semantic correspondence commonly include extracting high-level semantic features for the invariance against intra-class variations and background clutters. This architecture, however, inevitably results in a low-resolution matching field that additionally requires an ad-hoc interpolation process as a post-processing for converting it into a high-resolution one, certainly limiting the overall performance of matching results. To overcome this, inspired by recent success of implicit neural representation, we present a novel method for semantic correspondence, called Neural Matching Field (NeMF). However, complicacy and high-dimensionality of a 4D matching field are the major hindrances, which we propose a cost embedding network to process a coarse cost volume to use as a guidance for establishing high-precision matching field through the following fully-connected network. Nevertheless, learning a high-dimensional matching field remains challenging mainly due to computational complexity, since a naive exhaustive inference would require querying from all pixels in the 4D space to infer pixel-wise correspondences. To overcome this, we propose adequate training and inference procedures, which in the training phase, we randomly sample matching candidates and in the inference phase, we iteratively performs PatchMatch-based inference and coordinate optimization at test time. With these combined, competitive results are attained on several standard benchmarks for semantic correspondence. Code and pre-trained weights are available at this https URL.</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2210.02689</t>
+  </si>
+  <si>
+    <t>https://ku-cvlab.github.io/NeMF/</t>
+  </si>
+  <si>
+    <t>Feature-Realistic Neural Fusion for Real-Time, Open Set Scene Understanding</t>
+  </si>
+  <si>
+    <t>General scene understanding for robotics requires flexible semantic representation, so that novel objects and structures which may not have been known at training time can be identified, segmented and grouped. We present an algorithm which fuses general learned features from a standard pre-trained network into a highly efficient 3D geometric neural field representation during real-time SLAM. The fused 3D feature maps inherit the coherence of the neural field's geometry representation. This means that tiny amounts of human labelling interacting at runtime enable objects or even parts of objects to be robustly and accurately segmented in an open set manner.</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2210.03043</t>
+  </si>
+  <si>
+    <t>A Real2Sim2Real Method for Robust Object Grasping with Neural Surface Reconstruction</t>
+  </si>
+  <si>
+    <t>Recent 3D-based manipulation methods either directly predict the grasp pose using 3D neural networks, or solve the grasp pose using similar objects retrieved from shape databases. However, the former faces generalizability challenges when testing with new robot arms or unseen objects; and the latter assumes that similar objects exist in the databases. We hypothesize that recent 3D modeling methods provides a path towards building digital replica of the evaluation scene that affords physical simulation and supports robust manipulation algorithm learning. We propose to reconstruct high-quality meshes from real-world point clouds using state-of-the-art neural surface reconstruction method (the Real2Sim step). Because most simulators take meshes for fast simulation, the reconstructed meshes enable grasp pose labels generation without human efforts. The generated labels can train grasp network that performs robustly in the real evaluation scene (the Sim2Real step). In synthetic and real experiments, we show that the Real2Sim2Real pipeline performs better than baseline grasp networks trained with a large dataset and a grasp sampling method with retrieval-based reconstruction. The benefit of the Real2Sim2Real pipeline comes from 1) decoupling scene modeling and grasp sampling into sub-problems, and 2) both sub-problems can be solved with sufficiently high quality using recent 3D learning algorithms and mesh-based physical simulation techniques.</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2210.02685</t>
+  </si>
+  <si>
+    <t>XDGAN: Multi-Modal 3D Shape Generation in 2D Space</t>
+  </si>
+  <si>
+    <t>Generative models for 2D images has recently seen tremendous progress in quality, resolution and speed as a result of the efficiency of 2D convolutional architectures. However it is difficult to extend this progress into the 3D domain since most current 3D representations rely on custom network components. This paper addresses a central question: Is it possible to directly leverage 2D image generative models to generate 3D shapes instead? To answer this, we propose XDGAN, an effective and fast method for applying 2D image GAN architectures to the generation of 3D object geometry combined with additional surface attributes, like color textures and normals. Specifically, we propose a novel method to convert 3D shapes into compact 1-channel geometry images and leverage StyleGAN3 and image-to-image translation networks to generate 3D objects in 2D space. The generated geometry images are quick to convert to 3D meshes, enabling real-time 3D object synthesis, visualization and interactive editing. Moreover, the use of standard 2D architectures can help bring more 2D advances into the 3D realm. We show both quantitatively and qualitatively that our method is highly effective at various tasks such as 3D shape generation, single view reconstruction and shape manipulation, while being significantly faster and more flexible compared to recent 3D generative models.</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2210.03007</t>
+  </si>
+  <si>
+    <t>We present a method to synthesize novel views from a single 360∘ panorama image based on the neural radiance field (NeRF). Prior studies in a similar setting rely on the neighborhood interpolation capability of multi-layer perceptions to complete missing regions caused by occlusion, which leads to artifacts in their predictions. We propose 360FusionNeRF, a semi-supervised learning framework where we introduce geometric supervision and semantic consistency to guide the progressive training process. Firstly, the input image is re-projected to 360∘ images, and auxiliary depth maps are extracted at other camera positions. The depth supervision, in addition to the NeRF color guidance, improves the geometry of the synthesized views. Additionally, we introduce a semantic consistency loss that encourages realistic renderings of novel views. We extract these semantic features using a pre-trained visual encoder such as CLIP, a Vision Transformer trained on hundreds of millions of diverse 2D photographs mined from the web with natural language supervision. Experiments indicate that our proposed method can produce plausible completions of unobserved regions while preserving the features of the scene. When trained across various scenes, 360FusionNeRF consistently achieves the state-of-the-art performance when transferring to synthetic Structured3D dataset (PSNR~5%, SSIM~3% LPIPS~13%), real-world Matterport3D dataset (PSNR~3%, SSIM~3% LPIPS~9%) and Replica360 dataset (PSNR~8%, SSIM~2% LPIPS~18%).</t>
+  </si>
+  <si>
+    <t>XDGAN：2D 空间中的多模态 3D 形状生成</t>
+  </si>
+  <si>
+    <t>一种基于神经表面重建的鲁棒对象抓取的 Real2Sim2Real 方法</t>
+  </si>
+  <si>
+    <t>用于实时、开放集场景理解的特征真实神经融合</t>
+  </si>
+  <si>
+    <t>神经匹配字段：视觉对应匹配字段的隐式表示</t>
+  </si>
+  <si>
+    <t>IR-MCL：基于隐式表示的在线全球本地化</t>
+  </si>
+  <si>
+    <t>SelfNeRF：来自单目自旋转视频的人类快速训练 NeRF</t>
+  </si>
+  <si>
+    <t>从单目视频中捕捉和动画身体和服装</t>
+  </si>
+  <si>
+    <t>在杂乱的环境中学习感知感知敏捷飞行</t>
+  </si>
+  <si>
+    <t>用于自监督入住预测的可区分光线投射</t>
+  </si>
+  <si>
+    <t>用于新视图合成的自我改进多平面到层图像</t>
+  </si>
+  <si>
+    <t>用于隐式场景重建的不确定性驱动的主动视觉</t>
+  </si>
+  <si>
+    <t>NARF22：用于配置感知渲染的神经铰接辐射场</t>
+  </si>
+  <si>
+    <t>密集单目 SLAM 的概率体积融合</t>
+  </si>
+  <si>
+    <t>SinGRAV：从单个自然场景中学习生成辐射量</t>
+  </si>
+  <si>
+    <t>IntrinsicNeRF：学习用于可编辑新视图合成的内在神经辐射场</t>
+  </si>
+  <si>
+    <t>使用辐射场传播的无监督多视图对象分割</t>
+  </si>
+  <si>
+    <t>MonoNHR：单眼神经人类渲染器</t>
+  </si>
+  <si>
+    <t>NeRF：3D 视觉中的神经辐射场，综合评论</t>
+  </si>
+  <si>
+    <t>通过对极约束不带姿势相机的结构感知 NeRF</t>
+  </si>
+  <si>
+    <t>SCI：用于生物医学数据的频谱集中隐式神经压缩</t>
+  </si>
+  <si>
+    <t>使用几何感知鉴别器改进 3D 感知图像合成</t>
+  </si>
+  <si>
+    <t>了解体素网格 NeRF 模型的纯 CLIP 指导</t>
+  </si>
+  <si>
+    <t>从图像对中提取样式以进行全局正向和反向色调映射</t>
+  </si>
+  <si>
+    <t>神经隐式曲面的球面引导训练</t>
+  </si>
+  <si>
+    <t>迈向多时空尺度广义 PDE 建模</t>
+  </si>
+  <si>
+    <t>MonoNeuralFusion：具有几何先验的在线单目神经 3D 重建</t>
+  </si>
+  <si>
+    <t>时间相关 PDE 的隐式神经空间表示</t>
+  </si>
+  <si>
+    <t>具有隐式神经表示的连续 PDE 动态预测</t>
+  </si>
+  <si>
+    <t>SymmNeRF：学习探索单视图视图合成的对称先验</t>
+  </si>
+  <si>
+    <t>面向多边形几何的通用表示学习</t>
+  </si>
+  <si>
+    <t>具有三层采样和全景表示的城市级增量神经映射</t>
+  </si>
+  <si>
+    <t>360FusionNeRF：具有联合引导的全景神经辐射场</t>
+  </si>
+  <si>
+    <t>Orbeez-SLAM：具有 ORB 特征和 NeRF 实现映射的实时单目视觉 SLAM</t>
+  </si>
+  <si>
+    <t>通过控制屏障功能和神经辐射场增强基于视觉的控制器的安全性</t>
+  </si>
+  <si>
+    <t>自主隐式重建的高效视图路径规划</t>
+  </si>
+  <si>
+    <t>WaterNeRF：水下场景的神经辐射场</t>
+  </si>
+  <si>
+    <t>神经全局照明：动态区域光下的交互式间接照明预测</t>
+  </si>
+  <si>
+    <t>烘焙特征：通过渲染特征图加速体积分割</t>
+  </si>
+  <si>
+    <t>Local_INN：使用可逆神经网络的隐式地图表示和定位</t>
+  </si>
+  <si>
+    <t>NeRF-Loc：神经辐射场内基于变换器的对象定位</t>
+  </si>
+  <si>
+    <t>SG-SRNs：超像素引导的场景表示网络</t>
+  </si>
+  <si>
+    <t>PNeRF：用于不确定 3D 视觉映射的概率神经场景表示</t>
+  </si>
+  <si>
+    <t>感觉怎么样？ 用于越野车辆可穿越性的自我监督成本图学习</t>
+  </si>
+  <si>
+    <t>具有通道调谐的面向边缘的隐式神经表示</t>
+  </si>
+  <si>
+    <t>来自单个压缩光场测量的快速视差估计</t>
+  </si>
+  <si>
+    <t>由于二维卷积架构的效率，二维图像的生成模型最近在质量、分辨率和速度方面取得了巨大进步。然而，由于大多数当前的 3D 表示依赖于自定义网络组件，因此很难将此进展扩展到 3D 领域。本文解决了一个核心问题：是否可以直接利用 2D 图像生成模型来生成 3D 形状？为了回答这个问题，我们提出了 XDGAN，这是一种有效且快速的方法，用于将 2D 图像 GAN 架构应用于 3D 对象几何图形的生成，并结合附加的表面属性，如颜色纹理和法线。具体来说，我们提出了一种将 3D 形状转换为紧凑的 1 通道几何图像并利用 StyleGAN3 和图像到图像转换网络在 2D 空间中生成 3D 对象的新方法。生成的几何图像可以快速转换为 3D 网格，实现实时 3D 对象合成、可视化和交互式编辑。此外，使用标准 2D 架构有助于将更多 2D 进步带入 3D 领域。我们定量和定性地表明，我们的方法在各种任务中非常有效，例如 3D 形状生成、单视图重建和形状操作，同时与最近的 3D 生成模型相比明显更快、更灵活。</t>
+  </si>
+  <si>
+    <t>最近基于 3D 的操作方法要么使用 3D 神经网络直接预测抓取姿势，要么使用从形状数据库中检索到的类似对象来解决抓取姿势。然而，前者在使用新的机器人手臂或看不见的物体进行测试时面临着普遍性挑战；后者假设数据库中存在类似的对象。我们假设最近的 3D 建模方法为构建评估场景的数字副本提供了途径，该评估场景提供物理模拟并支持稳健的操作算法学习。我们建议使用最先进的神经表面重建方法（Real2Sim 步骤）从现实世界的点云中重建高质量的网格。由于大多数模拟器采用网格进行快速模拟，因此重建的网格无需人工即可生成抓取姿势标签。生成的标签可以训练在真实评估场景中表现稳健的抓取网络（Sim2Real 步骤）。在合成和真实实验中，我们表明 Real2Sim2Real 管道的性能优于使用大型数据集训练的基线抓取网络和基于检索的重建的抓取采样方法。 Real2Sim2Real 管道的好处来自 1) 将场景建模和抓取采样解耦为子问题，以及 2) 可以使用最新的 3D 学习算法和基于网格的物理模拟技术以足够高的质量解决这两个子问题。</t>
+  </si>
+  <si>
+    <t>机器人的一般场景理解需要灵活的语义表示，以便可以识别、分割和分组训练时可能不知道的新物体和结构。我们提出了一种算法，该算法在实时 SLAM 期间将来自标准预训练网络的一般学习特征融合到高效的 3D 几何神经场表示中。融合的 3D 特征图继承了神经域几何表示的连贯性。这意味着在运行时交互的少量人类标签使对象甚至对象的一部分能够以开放集的方式稳健而准确地分割。</t>
+  </si>
+  <si>
+    <t>现有的语义对应管道通常包括提取高级语义特征以保持对类内变化和背景杂波的不变性。然而，这种架构不可避免地会导致低分辨率匹配字段，该字段还需要临时插值过程作为将其转换为高分辨率的后处理，这肯定会限制匹配结果的整体性能。为了克服这个问题，受隐式神经表示最近成功的启发，我们提出了一种新的语义对应方法，称为神经匹配场 (NeMF)。然而，4D 匹配场的复杂性和高维性是主要障碍，我们提出了一种成本嵌入网络来处理粗略的成本量，以作为通过以下全连接网络建立高精度匹配场的指导。然而，学习高维匹配字段仍然具有挑战性，主要是由于计算复杂性，因为简单的穷举推理需要从 4D 空间中的所有像素中查询以推断像素级对应关系。为了克服这个问题，我们提出了充分的训练和推理程序，在训练阶段，我们随机抽取匹配的候选者，在推理阶段，我们在测试时迭代地执行基于 PatchMatch 的推理和坐标优化。通过这些结合，在语义对应的几个标准基准上获得了具有竞争力的结果。此 https URL 提供了代码和预训练的权重。</t>
+  </si>
+  <si>
+    <t>确定移动机器人的状态是机器人导航系统的重要组成部分。在本文中，我们解决了使用 2D LiDAR 数据估计机器人在室内环境中的姿势的问题，并研究了现代环境模型如何改进黄金标准 Monte-Carlo 定位 (MCL) 系统。我们提出了一个神经占用场（NOF）来使用神经网络隐式表示场景。借助预训练网络，我们可以通过体绘制合成 2D LiDAR 扫描以获取任意机器人姿势。基于隐式表示，我们可以获得合成扫描与实际扫描之间的相似度作为观察模型，并将其集成到 MCL 系统中以执行准确的定位。我们在五个自记录数据集和三个公开可用数据集的序列上评估我们的方法。我们表明，我们可以使用我们的方法准确有效地定位机器人，超过最先进方法的定位性能。实验表明，所呈现的隐式表示能够预测更准确的 2D LiDAR 扫描，从而为我们的基于粒子滤波器的定位提供改进的观察模型。我们方法的代码发布在：this https URL。</t>
+  </si>
+  <si>
+    <t>在本文中，我们提出了 SelfNeRF，一种有效的基于神经辐射场的新型视图合成方法，用于人类表现。给定人类表演者的单目自旋转视频，SelfNeRF 可以从头开始训练并在大约 20 分钟内获得高保真结果。最近的一些工作利用神经辐射场进行动态人体重建。然而，这些方法中的大多数都需要多视图输入并且需要数小时的训练，因此仍然难以实际使用。为了解决这个具有挑战性的问题，我们引入了一种基于多分辨率哈希编码的表面相对表示，可以大大提高训练速度并聚合帧间信息。在几个不同数据集上的广泛实验结果证明了 SelfNeRF 对具有挑战性的单目视频的有效性和效率。</t>
+  </si>
+  <si>
+    <t>虽然最近的工作已经显示出从单个图像、视频或一组 3D 扫描中提取穿衣服的 3D 人体化身的进展，但仍然存在一些限制。大多数方法使用整体表示来对身体和服装进行联合建模，这意味着对于虚拟试穿等应用，服装和身体不能分开。其他方法分别对身体和衣服进行建模，但它们需要从从 3D/4D 扫描仪或物理模拟获得的大量 3D 衣服人体网格中进行训练。我们的洞察是身体和服装有不同的造型要求。虽然基于网格的参数 3D 模型可以很好地表示身体，但隐式表示和神经辐射场更适合捕捉服装中存在的各种形状和外观。基于这一见解，我们提出了 SCARF（分段穿衣化身辐射场），这是一种将基于网格的身体与神经辐射场相结合的混合模型。将网格与可微分光栅器相结合将网格集成到体积渲染中，使我们能够直接从单目视频优化 SCARF，而无需任何 3D 监督。混合建模使 SCARF 能够（i）通过改变身体姿势（包括手部关节和面部表情）为穿着衣服的身体化身制作动画，（ii）合成化身的新视图，以及（iii）在虚拟试穿中在化身之间转移衣服应用程序。我们证明了 SCARF 重建的服装比现有方法具有更高的视觉质量，服装随着身体姿势和体形的变化而变形，并且服装可以在不同主体的化身之间成功转移。代码和模型可在此 https 网址获得。</t>
+  </si>
+  <si>
+    <t>最近，神经控制策略的性能优于现有的基于模型的规划和控制方法，可在最短的时间内通过杂乱的环境自主导航四旋翼飞行器。然而，它们没有感知意识，这是基于视觉的导航的关键要求，因为相机的视野有限和四旋翼的驱动不足。我们提出了一种学习神经网络策略的方法，该策略可在杂乱的环境中实现感知感知、最短时间飞行。我们的方法通过利用特权学习作弊框架结合了模仿学习和强化学习 (RL)。使用 RL，我们首先训练具有全状态信息的感知感知教师策略，以便在最短时间内通过杂乱的环境。然后，我们使用模仿学习将其知识提炼成基于视觉的学生策略，该策略仅通过相机感知环境。我们的方法将感知和控制紧密结合，在计算速度（快 10 倍）和成功率方面显示出显着优势。我们使用物理四旋翼和硬件在环仿真以高达 50 公里/小时的速度展示了闭环控制性能。</t>
+  </si>
+  <si>
+    <t>安全自动驾驶的运动规划需要了解自我车辆周围的环境如何随时间演变。场景中可驱动区域的以自我为中心的感知不仅随着环境中演员的运动而变化，而且随着自我车辆本身的运动而变化。为大规模规划（例如以自我为中心的自由空间）提出的自我监督表示混淆了这两种运动，使得该表示难以用于下游运动规划器。在本文中，我们使用几何占用作为自由空间等依赖于视图的表示的自然替代方案。占用图自然地将环境的运动与自我车辆的运动分开。然而，人们无法直接观察场景的完整 3D 占用情况（由于遮挡），因此难以用作学习信号。我们的主要见解是使用可微分光线投射将未来占用预测“渲染”到未来的 LiDAR 扫描预测中，这可以与自监督学习的地面实况扫描进行比较。可微光线投射的使用允许占用率作为预测网络中的内部表示出现。在没有地面实况占用的情况下，我们定量评估了光线投射 LiDAR 扫描的预测，并显示了多达 15 个 F1 点的改进。对于下游运动规划器，紧急占用可以直接用于引导不可驱动区域，与以自由空间为中心的运动规划器相比，这种表示相对减少了高达 17% 的物体碰撞次数。</t>
+  </si>
+  <si>
+    <t>我们提出了一种用于轻量级小说视图合成的新方法，该方法可以推广到任意前向场景。最近的方法在计算上很昂贵，需要逐场景优化，或者产生内存昂贵的表示。我们首先用一组正面平行的半透明平面来表示场景，然后以端到端的方式将它们转换为可变形层。此外，我们采用前馈细化程序，通过聚合来自输入视图的信息来纠正估计的表示。我们的方法在处理新场景时不需要微调，并且可以不受限制地处理任意数量的视图。实验结果表明，我们的方法在常用指标和人工评估方面超过了最近的模型，在推理速度和推断分层几何的紧凑性方面具有显着优势，请参阅此 https URL</t>
+  </si>
+  <si>
+    <t>多视图隐式场景重建方法由于能够表示复杂的场景细节而变得越来越流行。最近的努力致力于改进输入信息的表示并减少获得高质量重建所需的视图数量。然而，也许令人惊讶的是，关于选择哪些视图以最大限度地提高场景理解的研究在很大程度上仍未得到探索。我们提出了一种用于隐式场景重建的不确定性驱动的主动视觉方法，该方法利用体积渲染在场景中累积的占用不确定性来选择下一个要获取的视图。为此，我们开发了一种基于占用的重建方法，该方法使用 2D 或 3D 监督准确地表示场景。我们在 ABC 数据集和野外 CO3D 数据集上评估了我们提出的方法，并表明：（1）我们能够获得高质量的最先进的占用重建； (2) 我们的视角条件不确定性定义有效地推动了下一个最佳视图选择的改进，并且优于强大的基线方法； (3) 我们可以通过对视图选择候选执行基于梯度的搜索来进一步提高形状理解。总体而言，我们的结果突出了视图选择对于隐式场景重建的重要性，使其成为进一步探索的有希望的途径。</t>
+  </si>
+  <si>
+    <t>铰接物体对机器人的感知和操作提出了独特的挑战。它们增加的自由度数量使得定位等任务在计算上变得困难，同时也使得现实世界数据集收集的过程无法扩展。为了解决这些可扩展性问题，我们提出了神经铰接辐射场 (NARF22)，这是一个使用完全可微分、配置参数化神经辐射场 (NeRF) 作为提供铰接对象高质量渲染的方法的管道。 NARF22 在推理时不需要明确了解对象结构。我们提出了一种两阶段的基于部件的训练机制，即使底层训练数据只有一个配置表示，它也允许对象渲染模型在配置空间中很好地泛化。我们通过在通过 Fetch 移动操作机器人收集的真实关节工具数据集上训练可配置渲染器来展示 NARF22 的功效。我们通过配置估计和 6 自由度姿态细化任务展示了该模型对基于梯度的推理方法的适用性。项目网页位于：此 https URL。</t>
+  </si>
+  <si>
+    <t>我们提出了一种利用深度密集单目 SLAM 和快速不确定性传播从图像中重建 3D 场景的新方法。所提出的方法能够密集、准确、实时地对场景进行 3D 重建，同时对来自密集单目 SLAM 的极其嘈杂的深度估计具有鲁棒性。与以前的方法不同，要么使用 ad-hoc 深度滤波器，要么从 RGB-D 相机的传感器模型估计深度不确定性，我们的概率深度不确定性直接来自 SLAM 中底层束调整问题的信息矩阵。我们表明，由此产生的深度不确定性提供了一个很好的信号来加权深度图以进行体积融合。如果没有我们的深度不确定性，生成的网格会很嘈杂并带有伪影，而我们的方法会生成准确的 3D 网格，并且伪影要少得多。我们提供了具有挑战性的 Euroc 数据集的结果，并表明我们的方法比直接融合来自单目 SLAM 的深度的准确度提高了 92%，与最佳竞争方法相比提高了 90%。</t>
+  </si>
+  <si>
+    <t>我们提出了一个用于一般自然场景的 3D 生成模型。由于缺乏表征目标场景的必要 3D 数据量，我们建议从单个场景中学习。我们的关键见解是，一个自然场景通常包含多个组成部分，其几何、纹理和空间排列遵循一些清晰的模式，但在同一场景中的不同区域仍然表现出丰富的变化。这表明将生成模型的学习本地化在大量局部区域上。因此，我们利用具有空间局部性偏差的多尺度卷积网络来学习单个场景中多个尺度的局部区域的统计信息。与现有方法相比，我们的学习设置绕过了从许多同质 3D 场景中收集数据以学习共同特征的需要。我们创造了我们的方法 SinGRAV，用于从单个自然场景中学习生成辐射体积。我们展示了 SinGRAV 从单个场景生成合理多样的变化的能力，SingGRAV 相对于最先进的生成神经场景方法的优点，以及 SinGRAV 在各种应用中的多功能性，涵盖 3D 场景编辑、合成和动画。代码和数据将被发布以促进进一步的研究。</t>
+  </si>
+  <si>
+    <t>我们提出了被称为 IntrinsicNeRF 的内在神经辐射场，它将内在分解引入到基于 NeRF 的~\cite{mildenhall2020nerf} 神经渲染方法中，并且可以在现有的逆向渲染结合神经渲染方法的同时在房间规模的场景中执行可编辑的新视图合成~ \cite{zhang2021physg, zhang2022modeling} 只能用于特定对象的场景。鉴于内在分解本质上是一个模棱两可且约束不足的逆问题，我们提出了一种新颖的距离感知点采样和自适应反射率迭代聚类优化方法，该方法使具有传统内在分解约束的 IntrinsicNeRF 能够以无监督的方式进行训练，从而在时间上一致的内在分解结果。为了解决场景中相似反射率的不同相邻实例被错误地聚集在一起的问题，我们进一步提出了一种从粗到细优化的层次聚类方法，以获得快速的层次索引表示。它支持引人注目的实时增强现实应用，例如场景重新着色、材质编辑和照明变化。 Blender 对象和副本场景的大量实验表明，即使对于具有挑战性的序列，我们也可以获得高质量、一致的内在分解结果和高保真新视图合成。项目网页上提供了代码和数据：此 https 网址。</t>
+  </si>
+  <si>
+    <t>我们提出了辐射场传播 (RFP)，这是一种在重建过程中分割 3D 对象的新方法，仅给出场景的未标记多视图图像。 RFP 源自新兴的基于神经辐射场的技术，该技术将语义与外观和几何形状联合编码。我们方法的核心是一种新颖的传播策略，用于具有双向光度损失的单个对象的辐射场，能够将场景无监督地划分为对应于不同对象实例的显着或有意义的区域。为了更好地处理具有多个对象和遮挡的复杂场景，我们进一步提出了一种迭代期望最大化算法来细化对象掩码。据我们所知，RFP 是第一个在没有任何监督、注释或其他线索（如 3D 边界框和对象类别的先验知识）的情况下处理神经辐射场 (NeRF) 的 3D 场景对象分割的无监督方法。实验表明，RFP 实现了可行的分割结果，比以前的无监督图像/场景分割方法更准确，并且可与现有的基于 NeRF 监督的方法相媲美。分段对象表示支持单独的 3D 对象编辑操作。</t>
+  </si>
+  <si>
+    <t>由于不可见区域中缺乏信息以及可见区域中像素的深度模糊性，现有的神经人类渲染方法难以处理单个图像输入。在这方面，我们提出了单目神经人类渲染器 (MonoNHR)，这是一种新颖的方法，可以仅在给定单个图像的情况下渲染任意人的鲁棒自由视点图像。 MonoNHR 是第一个（i）在单目设置中呈现在训练期间从未见过的人类受试者，以及（ii）在没有几何监督的情况下以弱监督方式训练的方法。首先，我们建议解开 3D 几何和纹理特征，并根据 3D 几何特征调整纹理推断。其次，我们引入了一个 Mesh Inpainter 模块，该模块利用人类结构先验（例如对称性）来修复被遮挡的部分。在 ZJU-MoCap、AIST 和 HUMBI 数据集上的实验表明，我们的方法明显优于最近适应单目情况的方法。</t>
+  </si>
+  <si>
+    <t>神经辐射场 (NeRF) 是一种具有隐式场景表示的新型视图合成，已经席卷了计算机视觉领域。作为一种新颖的视图合成和 3D 重建方法，NeRF 模型在机器人技术、城市测绘、自主导航、虚拟现实/增强现实等领域都有应用。自 Mildenhall 等人的原始论文以来，已发表了 250 多份预印本，其中 100 多份最终被一级计算机​​视觉会议接受。鉴于 NeRF 的受欢迎程度和当前对该研究领域的兴趣，我们认为有必要对过去两年的 NeRF 论文进行全面调查，我们将其组织成基于架构和基于应用程序的分类法。我们还介绍了基于 NeRF 的新颖视图合成理论，以及关键 NeRF 模型的性能和速度的基准比较。通过创建这项调查，我们希望向 NeRF 介绍新的研究人员，为该领域有影响力的工作提供有益的参考，并通过我们的讨论部分激发未来的研究方向。</t>
+  </si>
+  <si>
+    <t>用于逼真的新视图合成的神经辐射场 (NeRF) 需要通过运动结构 (SfM) 方法预先获取相机姿势。这种两阶段策略使用不方便并且会降低性能，因为姿势提取中的错误会传播到视图合成。我们将姿势提取和视图合成集成到一个端到端的过程中，这样它们就可以相互受益。为了训练 NeRF 模型，只给出了 RGB 图像，没有预先知道的相机姿势。相机位姿是通过极线约束获得的，其中不同视图中的相同特征具有根据提取的位姿从本地相机坐标转换而来的相同世界坐标。对极约束与像素颜色约束联合优化。姿势由基于 CNN 的深度网络表示，其输入是相关帧。这种联合优化使 NeRF 能够感知场景的结构，从而提高泛化性能。在各种场景上进行的大量实验证明了所提出方法的有效性。此 https 网址提供了代码。</t>
+  </si>
+  <si>
+    <t>海量医疗数据的海量采集和爆炸式增长，需要有效压缩以实现高效存储、传输和共享。现成的视觉数据压缩技术已被广泛研究，但针对自然图像/视频量身定制，因此在具有不同特征的医学数据上表现出有限的性能。新兴的隐式神经表示 (INR) 正在获得动力，并展示了以特定于目标数据的方式拟合各种视觉数据的高前景，但迄今为止还没有涵盖各种医疗数据的通用压缩方案。为了解决这个问题，我们首先对 INR 的频谱集中特性进行了数学解释，并对面向压缩的 INR 架构的设计进行了分析洞察。此外，我们设计了一个漏斗形神经网络，能够覆盖广泛的复杂医疗数据并实现高压缩比。在此设计的基础上，我们在给定预算下通过优化进行压缩，并提出了一种自适应压缩方法SCI，该方法将目标数据自适应地划分为与所采用的INR的集中频谱包络匹配的块，并在给定压缩比下分配具有高表示精度的参数.实验表明 SCI 优于传统技术的性能以及在各种医学数据中的广泛适用性。</t>
+  </si>
+  <si>
+    <t>3D 感知图像合成旨在学习一个生成模型，该模型可以渲染逼真的 2D 图像，同时捕捉体面的底层 3D 形状。一种流行的解决方案是采用生成对抗网络 (GAN)，并用 3D 渲染器替换生成器，其中通常使用带有神经辐射场 (NeRF) 的体积渲染。尽管合成质量有所提高，但现有方法无法获得适度的 3D 形状。我们认为，考虑到 GAN 公式中的两人游戏，仅使生成器具有 3D 感知能力是不够的。换句话说，取代生成机制只能提供生成 3D 感知图像的能力，但不能保证，因为生成器的监督主要来自鉴别器。为了解决这个问题，我们提出 GeoD 通过学习几何感知鉴别器来改进 3D 感知 GAN。具体来说，除了从 2D 图像空间中区分真假样本外，还要求鉴别器从输入中获取几何信息，然后将其用作生成器的指导。这种简单而有效的设计有助于学习更准确的 3D 形状。对各种生成器架构和训练数据集的广泛实验验证了 GeoD 优于最先进的替代方案。此外，我们的方法被注册为一个通用框架，这样一个更有能力的鉴别器（即，除了域分类和几何提取之外，还有第三个新的视图合成任务）可以进一步帮助生成器获得更好的多视图一致性。</t>
+  </si>
+  <si>
+    <t>我们使用 CLIP 探索文本到 3D 对象生成的任务。具体来说，我们在不访问任何数据集的情况下使用 CLIP 进行指导，我们将这种设置称为纯 CLIP 指导。虽然之前的工作采用了这种设置，但没有系统研究防止 CLIP 中产生对抗性生成的机制。我们说明了不同的基于图像的增强如何防止对抗性生成问题，以及生成的结果如何受到影响。我们测试了不同的 CLIP 模型架构，并表明集成不同的模型进行指导可以防止更大模型中的对抗性生成并产生更清晰的结果。此外，我们实现了一个隐式体素网格模型，以展示神经网络如何提供额外的正则化层，从而产生更好的几何结构和生成对象的连贯性。与之前的工作相比，我们以更高的记忆效率和更快的训练速度获得了更连贯的结果。</t>
+  </si>
+  <si>
+    <t>许多图像增强或编辑操作，例如正向和反向色调映射或颜色分级，没有唯一的解决方案，而是有一系列解决方案，每个解决方案代表不同的风格。尽管如此，现有的基于学习的方法试图学习一个独特的映射，而忽略了这种风格。在这项工作中，我们展示了有关风格的信息可以从图像对的集合中提取并编码为 2 维或 3 维向量。这不仅为我们提供了有效的表示，而且为编辑图像样式提供了可解释的潜在空间。我们将一对图像之间的全局颜色映射表示为自定义归一化流，以像素颜色的多项式为条件。我们表明，这样的网络在低维空间中编码图像风格方面比 PCA 或 VAE 更有效，并且让我们获得接近 40 dB 的准确度，这比现有技术提高了大约 7-10 dB方法。</t>
+  </si>
+  <si>
+    <t>近年来，通过神经隐函数进行表面建模已成为多视图 3D 重建的主要技术之一。然而，最先进的方法依赖于隐式函数来模拟整个场景体积，导致在具有薄物体或高频细节的区域中降低重建保真度。为了解决这个问题，我们提出了一种与辅助显式形状表示一起联合训练神经隐式表面的方法，该辅助显式形状表示充当表面引导。在我们的方法中，这种表示封装了场景的表面区域，使我们能够通过仅对该区域的体积进行建模来提高隐式函数训练的效率。我们建议使用一组可学习的球形基元作为可学习的表面指导，因为它们可以使用其梯度与神经表面函数一起有效地训练。我们的训练管道包括使用隐函数的梯度对球体中心的迭代更新，然后将后者微调到场景的更新表面区域。我们表明，对训练过程的这种修改可以插入到几种流行的隐式重建方法中，从而提高多个 3D 重建基准的结果质量。</t>
+  </si>
+  <si>
+    <t>偏微分方程 (PDE) 是描述复杂物理系统模拟的核心。他们昂贵的解决方案技术引起了人们对基于深度神经网络的代理的兴趣增加。然而，训练这些代理人的实际效用取决于他们模拟复杂的多尺度时空现象的能力。已经提出了各种神经网络架构来针对此类现象，最着名的是傅里叶神经算子（FNO），它通过不同傅里叶模式的参数化对局部\和全局空间信息进行自然处理，以及通过以下方式处理局部和全局信息的 U-Nets下采样和上采样路径。然而，跨不同方程参数或不同时间尺度的泛化仍然是一个挑战。在这项工作中，我们对涡流和速度函数形式的流体力学问题的各种 FNO 和 U-Net 方法进行了全面比较。对于 U-Net，我们从计算机视觉中转移了最近的架构改进，最显着的是来自对象分割和生成建模。我们进一步分析了使用 FNO 层来提高 U-Net 架构的性能而不显着降低计算性能的设计考虑因素。最后，我们展示了使用单个代理模型泛化到不同 PDE 参数和时间尺度的有希望的结果。</t>
+  </si>
+  <si>
+    <t>从单目视频重建高保真 3D 场景仍然具有挑战性，特别是对于完整和细粒度的几何重建。先前具有神经隐式表示的 3D 重建方法已显示出完整场景重建的有希望的能力，但它们的结果通常过于平滑且缺乏足够的几何细节。本文介绍了一种新颖的神经隐式场景表示法，用于从单目视频中进行高保真在线 3D 场景重建的体积渲染。对于细粒度重建，我们的关键见解是将几何先验纳入神经隐式场景表示和神经体绘制，从而产生基于体绘制优化的有效几何学习机制。受益于此，我们提出了 MonoNeuralFusion 来从单目视频执行在线神经 3D 重建，从而在动态 3D 单目扫描期间有效地生成和优化 3D 场景几何图形。与最先进方法的广泛比较表明，我们的 MonoNeuralFusion 在数量和质量上始终生成更好的完整和细粒度的重建结果。</t>
+  </si>
+  <si>
+    <t>数值求解偏微分方程 (PDE) 通常需要空间和时间离散化。传统方法（例如，有限差分、有限元、平滑粒子流体动力学）经常采用显式空间离散化，例如网格、网格和点云，其中每个自由度对应于空间中的一个位置。虽然这些明确的空间对应对于建模和理解来说是直观的，但这些表示对于准确性、内存使用或适应性而言不一定是最佳的。在这项工作中，我们探索隐式神经表示作为替代空间离散化，其中空间信息隐式存储在神经网络权重中。通过隐式神经空间表示，受 PDE 约束的时间步长转化为更新神经网络权重，它自然地与常用的优化时间积分器集成。我们通过涉及大弹性变形、湍流流体和多尺度现象的示例验证了我们在各种经典 PDE 上的方法。虽然计算速度比传统表示慢，但我们的方法表现出更高的准确性、更低的内存消耗和动态自适应分配的自由度，而无需复杂的重新划分网格。</t>
+  </si>
+  <si>
+    <t>有效的数据驱动 PDE 预测方法通常依赖于固定的空间和/或时间离散化。这增加了现实世界应用的限制，例如需要在任意时空位置进行灵活外推的天气预报。我们通过引入一种新的数据驱动方法 DINo 来解决这个问题，该方法使用空间连续函数的连续时间动态对 PDE 的流进行建模。这是通过在由学习的 ODE 时间驱动的小潜在空间中通过隐式神经表示独立于其离散化嵌入空间观察来实现的。这种对时间和空间的分离和灵活处理使 DINo 成为第一个结合以下优点的数据驱动模型。它在任意空间和时间位置外推；它可以从稀疏的不规则网格或流形中学习；在测试时，它会推广到新的网格或分辨率。在代表性 PDE 系统的各种具有挑战性的泛化场景中，DINo 的表现优于替代神经 PDE 预测器。</t>
+  </si>
+  <si>
+    <t>我们研究了从单个图像中对对象进行新视图合成的问题。现有方法已经证明了单视图视图合成的潜力。但是，它们仍然无法恢复精细的外观细节，尤其是在自闭区域。这是因为单个视图仅提供有限的信息。我们观察到人造物体通常表现出对称的外观，这会引入额外的先验知识。受此启发，我们研究了将对称性显式嵌入场景表示的潜在性能增益。在本文中，我们提出了 SymmNeRF，这是一种基于神经辐射场 (NeRF) 的框架，在引入对称先验的情况下结合了局部和全局条件。特别是，SymmNeRF 将像素对齐的图像特征和相应的对称特征作为 NeRF 的额外输入，其参数由超网络生成。由于参数以图像编码的潜在代码为条件，因此 SymmNeRF 与场景无关，可以推广到新场景。对合成数据集和真实世界数据集的实验表明，SymmNeRF 可以合成具有更多细节的新颖视图，而不管姿势变换如何，并且在应用于看不见的对象时表现出良好的泛化性。代码位于：此 https URL。</t>
+  </si>
+  <si>
+    <t>空间数据的神经网络表示学习是地理人工智能 (GeoAI) 问题的普遍需求。近年来，在点、折线和网络的表示学习方面取得了许多进展，而在多边形，尤其是复杂的多边形几何形状方面进展甚微。在这项工作中，我们专注于开发一种通用的多边形编码模型，该模型可以将多边形几何体（有或没有孔，单面或多面体）编码到嵌入空间中。结果嵌入可以直接用于（或微调）下游任务，例如形状分类、空间关系预测等。为了实现模型的泛化性保证，我们确定了一些理想的属性：循环原点不变性、平凡顶点不变性、部分置换不变性和拓扑感知。我们探索了两种不同的编码器设计：一种是在空间域中派生所有表示；另一个利用谱域表示。对于空间域方法，我们提出了 ResNet1D，这是一种基于 CNN 的 1D 多边形编码器，它使用圆形填充来实现简单多边形上的循环原点不变性。对于谱域方法，我们开发了基于非均匀傅里叶变换 (NUFT) 的 NUFTspec，它自然地满足了所有所需的属性。我们对两个任务进行了实验：1）基于MNIST的形状分类； 2）基于两个新数据集——DBSR-46K和DBSR-cplx46K的空间关系预测。我们的结果表明，NUFTspec 和 ResNet1D 的性能优于多个现有的基线，具有显着的优势。虽然 ResNet1D 在形状不变几何修改后模型性能下降，但由于 NUFT 的性质，NUFTspec 对这些修改非常稳健。</t>
+  </si>
+  <si>
+    <t>神经隐式表示最近引起了机器人界的广泛关注，因为它们具有表现力、连续性和紧凑性。然而，基于稀疏 LiDAR 输入的城市规模增量隐式密集映射仍然是一个未充分探索的挑战。为此，我们成功构建了第一个具有全景表示的城市规模增量神经映射系统，该系统由环境级和实例级建模组成。给定一个稀疏的 LiDAR 点云流，它维护一个动态生成模型，将 3D 坐标映射到有符号距离场 (SDF) 值。为了解决在城市尺度空间中表示不同层次几何信息的困难，我们提出了一种定制的三层采样策略来动态采样全局、局部和近地表域。同时，为了实现高保真映射，引入了特定类别的先验以更好地对几何细节进行建模，从而实现全景表示。我们评估了公共 SemanticKITTI 数据集，并使用定量和定性结果证明了新提出的三层采样策略和全景表示的重要性。代码和数据将公开。</t>
+  </si>
+  <si>
+    <t>我们提出了一种基于神经辐射场 (NeRF) 从单个 360 度全景图像合成新视图的方法。类似设置中的先前研究依赖于多层感知的邻域插值能力来完成由遮挡引起的缺失区域，这导致其预测中的伪影。我们提出了 360FusionNeRF，这是一个半监督学习框架，我们在其中引入几何监督和语义一致性来指导渐进式训练过程。首先，将输入图像重新投影到 360 度图像，并在其他相机位置提取辅助深度图。除了 NeRF 颜色指导之外，深度监督还改进了合成视图的几何形状。此外，我们引入了语义一致性损失，鼓励对新视图进行逼真的渲染。我们使用预训练的视觉编码器（例如 CLIP）提取这些语义特征，CLIP 是一种视觉转换器，通过自然语言监督从网络挖掘出的数亿张不同的 2D 照片进行训练。实验表明，我们提出的方法可以在保留场景特征的同时产生未观察到的区域的合理完成。在跨各种场景进行训练时，360FusionNeRF 在转移到合成 Structured3D 数据集（PSNR~5%，SSIM~3% LPIPS~13%）、真实世界的 Matterport3D 数据集（PSNR~3%）时始终保持最先进的性能, SSIM~3% LPIPS~9%) 和 Replica360 数据集 (PSNR~8%, SSIM~2% LPIPS~18%)。</t>
+  </si>
+  <si>
+    <t>一种可以通过视觉信号执行复杂任务并与人类合作的空间人工智能备受期待。为了实现这一点，我们需要一个无需预训练即可轻松适应新场景并实时为下游任务生成密集地图的视觉 SLAM。由于其组件的内在限制，以前的基于学习和非基于学习的视觉 SLAM 都不能满足所有需求。在这项工作中，我们开发了一个名为 Orbeez-SLAM 的视觉 SLAM，它成功地与隐式神经表示 (NeRF) 和视觉里程计合作来实现我们的目标。此外，Orbeez-SLAM 可以与单目相机配合使用，因为它只需要 RGB 输入，使其广泛适用于现实世界。我们在各种具有挑战性的基准上验证了它的有效性。结果表明，我们的 SLAM 比强基线快 800 倍，并具有出色的渲染结果。</t>
+  </si>
+  <si>
+    <t>为了在复杂的环境中导航，机器人必须越来越多地使用高维视觉反馈（例如图像）进行控制。然而，依靠高维图像数据做出控制决策会引发重要问题；特别是，我们如何证明视觉反馈控制器的安全性？控制障碍函数 (CBF) 是在状态反馈设置中验证反馈控制器安全性的强大工具，但由于需要预测未来的观察结果以评估障碍函数，CBF 传统上不太适合视觉反馈控制.在这项工作中，我们利用神经辐射场 (NeRFs) 的最新进展来解决这个问题，神经辐射场 (NeRFs) 学习 3D 场景的隐式表示并可以从以前看不见的相机视角渲染图像，为基于 CBF 的单步视觉预测提供控制器。这种新颖的组合能够过滤掉不安全的行为并进行干预以保护安全。我们在实时模拟实验中展示了我们的控制器的效果，它成功地防止了机器人采取危险行动。</t>
+  </si>
+  <si>
+    <t>隐式神经表示已显示出用于 3D 场景重建的巨大潜力。最近的工作通过学习用于视图路径规划的信息增益，将其应用于自主 3D 重建。虽然有效，但信息增益的计算成本很高，并且与使用体积表示的计算相比，使用 3D 点的隐式表示的碰撞检查要慢得多。在本文中，我们建议 1）利用神经网络作为信息增益场的隐式函数逼近器，以及 2）将隐式细粒度表示与粗略的体积表示相结合以提高效率。随着效率的进一步提高，我们提出了一种基于基于图的规划器的新颖的信息路径规划。与具有隐式和显式表示的自主重建相比，我们的方法证明了重建质量和规划效率的显着提高。我们将该方法部署在真实的无人机上，结果表明我们的方法可以规划信息丰富的视图并重建高质量的场景。</t>
+  </si>
+  <si>
+    <t>水下成像是海洋机器人执行的一项关键任务，其应用范围广泛，包括水产养殖、海洋基础设施检查和环境监测。然而，水柱效应，例如衰减和反向散射，会极大地改变水下捕获图像的颜色和质量。由于不同的水条件和这些影响的范围依赖性，恢复水下图像是一个具有挑战性的问题。这会影响下游感知任务，包括深度估计和 3D 重建。在本文中，我们推进了神经辐射场 (NeRF) 的最新技术，以实现基于物理的密集深度估计和颜色校正。我们提出的方法 WaterNeRF 估计了基于物理的水下图像形成模型的参数，从而产生了混合数据驱动和基于模型的解决方案。在确定场景结构和辐射场后，我们可以生成退化和校正的水下图像的新视图，以及场景的密集深度。我们在真实的水下数据集上定性和定量地评估所提出的方法。</t>
+  </si>
+  <si>
+    <t>我们提出了神经全局照明，这是一种在具有动态视点和区域照明的静态场景中快速渲染全全局照明的新方法。我们方法的关键思想是利用深度渲染网络来模拟从每个着色点到全局照明的复杂映射。为了有效地学习映射，我们提出了一种对神经网络友好的输入表示，包括每个着色点的属性、视点信息和组合照明表示，该表示能够与紧凑的神经网络进行高质量的拟合。为了合成高频全局光照效果，我们通过位置编码将低维输入转换为高维空间，并将渲染网络建模为深度全连接网络。此外，我们将屏幕空间神经缓冲区提供给我们的渲染网络，以将屏幕空间中的对象之间的全局信息共享到每个着色点。我们已经证明了我们的神经全局照明方法可以渲染各种场景，这些场景表现出复杂的全频全局照明效果，例如多次反射光泽互反射、渗色和焦散。</t>
+  </si>
+  <si>
+    <t>最近提出了一些方法，即仅使用彩色图像和专家监督以稀疏语义注释像素的形式将 3D 体积密集分割成类。虽然令人印象深刻，但这些方法仍然需要相对大量的监督，并且在实践中分割对象可能需要几分钟。这样的系统通常只优化它们在它们适合的特定场景上的表示，而不利用来自先前看到的图像的任何先验信息。在本文中，我们建议使用在现有大型数据集上训练的模型提取的特征来提高分割性能。我们通过体积渲染特征图并监督从每个输入图像中提取的特征，将这种特征表示烘焙到神经辐射场 (NeRF) 中。我们表明，通过将这种表示烘焙到 NeRF 中，我们使后续的分类任务变得更加容易。我们的实验表明，与现有方法相比，我们的方法在广泛的场景中以更少的语义注释实现了更高的分割精度。</t>
+  </si>
+  <si>
+    <t>机器人定位是使用地图和传感器测量找到机器人姿势的逆问题。近年来，可逆神经网络（INNs）成功地解决了各个领域的模糊逆问题。本文提出了一个用 INN 解决本地化问题的框架。我们设计了一个 INN，它在正向路径中提供隐式地图表示并在反向路径中提供定位。通过在评估中对潜在空间进行采样，Local\_INN 输出具有协方差的机器人位姿，可用于估计不确定性。我们表明 Local\_INN 的本地化性能与当前的方法相当，但延迟要低得多。我们使用训练集外部的姿势从 Local\_INN 显示详细的 2D 和 3D 地图重建。我们还提供了一个使用 Local\_INN 的全局定位算法来解决绑架问题。</t>
+  </si>
+  <si>
+    <t>神经辐射场 (NeRFs) 已成功用于场景表示。最近的工作还开发了使用基于 NeRF 的环境表示的机器人导航和操纵系统。由于对象定位是许多机器人应用的基础，为了进一步释放 NeRF 在机器人系统中的潜力，我们研究了 NeRF 场景中的对象定位。我们提出了一个基于转换器的框架 NeRF-Loc 来提取 NeRF 场景中对象的 3D 边界框。 NeRF-Loc 将预先训练的 NeRF 模型和相机视图作为输入，并生成标记的 3D 对象边界框作为输出。具体来说，我们设计了一对并行的转换器编码器分支，即粗流和细流，对目标对象的上下文和细节进行编码。然后将编码特征与注意力层融合在一起，以减轻模糊性，从而实现准确的对象定位。我们将我们的方法与传统的基于变压器的方法进行了比较，我们的方法取得了更好的性能。此外，我们还展示了第一个基于 NeRF 样本的对象定位基准 NeRFLocBench。</t>
+  </si>
+  <si>
+    <t>最近，场景表示网络（SRNs）由于其连续且轻量级的场景表示能力，在计算机视觉领域引起了越来越多的关注。然而，SRN 通常在低纹理图像区域上表现不佳。为了解决这个问题，我们在本文中提出了超像素引导的场景表示网络，称为 SG-SRN，由主干模块 (SRN)、超像素分割模块和超像素正则化模块组成。在所提出的方法中，除了新颖的视图合成任务外，表示感知的超像素分割掩码生成任务由所提出的超像素分割模块实现。然后，超像素正则化模块利用超像素分割掩码以局部平滑的方式引导要学习的主干，并优化局部区域的场景表示，以自监督的方式间接缓解低纹理区域的结构失真.在我们构建的数据集和公共 Synthetic-NeRF 数据集上的广泛实验结果表明，所提出的 SG-SRN 实现了显着更好的 3D 结构表示性能。</t>
+  </si>
+  <si>
+    <t>最近，神经场景表示在视觉上表示 3D 场景提供了非常令人印象深刻的结果，但是，它们的研究和进展主要局限于计算机图形中虚拟模型的可视化或计算机视觉中的场景重建，而没有明确考虑传感器和姿势的不确定性。然而，在机器人应用中使用这种新颖的场景表示需要考虑神经图中的这种不确定性。因此，本文的目的是提出一种用不确定的训练数据训练 {\em 概率神经场景表示} 的新方法，该方法可以将这些表示包含在机器人应用程序中。使用相机或深度传感器获取图像包含固有的不确定性，此外，用于学习 3D 模型的相机姿势也不完善。如果将这些测量值用于训练而不考虑其不确定性，则生成的模型不是最优的，并且生成的场景表示可能包含诸如模糊和几何不均匀等伪影。在这项工作中，通过关注以概率方式使用不确定信息进行训练，研究了将不确定性整合到学习过程中的问题。所提出的方法涉及使用不确定性项显式增加训练似然性，使得网络的学习概率分布相对于训练不确定性最小化。将会显示，除了更精确和一致的几何形状之外，这会导致更准确的图像渲染质量。已经对合成数据集和真实数据集进行了验证，表明所提出的方法优于最先进的方法。结果表明，即使在训练数据有限的情况下，所提出的方法也能够呈现新颖的高质量视图。</t>
+  </si>
+  <si>
+    <t>估计越野环境中的地形可穿越性需要推理机器人与这些地形之间的复杂交互动力学。然而，对于这些交互，构建准确的物理模型或创建信息标签以有监督的方式学习模型具有挑战性。我们提出了一种方法，该方法通过以自我监督的方式将外部感知环境信息与本体感知地形交互反馈相结合来学习预测可遍历性成本图。此外，我们提出了一种将机器人速度纳入成本图预测管道的新方法。我们在具有挑战性的越野地形的大型自主全地形车 (ATV) 上的多个短距离和大规模导航任务中验证了我们的方法，并证明了在单独的大型地面机器人上易于集成。我们的短尺度导航结果表明，使用我们学习的成本图可以使导航整体更顺畅，并为机器人提供对机器人与不同地形类型（如草地和砾石）之间相互作用的更细粒度的理解。我们的大规模导航试验表明，在 400 米到 3150 米的具有挑战性的越野路线中，与基于占用的导航基线相比，我们可以将干预次数减少多达 57%。</t>
+  </si>
+  <si>
+    <t>隐式神经表示，将图像表示为连续函数而不是离散网格形式，广泛用于图像处理。尽管其表现出色，但在恢复给定信号的清晰形状（例如图像边缘）方面仍然存在限制。在本文中，我们提出了梯度幅度调整算法，该算法计算图像的梯度以训练隐式表示。此外，我们提出了面向边缘的表示网络（EoREN），它可以通过拟合梯度信息（面向边缘的模块）来重建具有清晰边缘的图像。此外，我们添加了 Channel-tuning 模块来调整给定信号的分布，从而解决了拟合梯度的长期问题。通过分离两个模块的反向传播路径，EoREN 可以在不妨碍梯度作用的情况下学习图像的真实颜色。我们定性地证明了我们的模型可以重建复杂的信号，并通过定量结果证明了我们模型的一般重建能力。</t>
+  </si>
+  <si>
+    <t>来自光场的丰富空间和角度信息允许开发多种视差估计方法。然而，光场的获取需要较高的存储和处理成本，限制了该技术在实际应用中的使用。为了克服这些缺点，压缩传感 (CS) 理论允许开发光学架构来获取单个编码光场测量。该测量使用需要高计算成本的优化算法或深度神经网络进行解码。从压缩光场进行视差估计的传统方法需要首先恢复整个光场，然后进行后处理步骤，因此需要很长时间。相比之下，这项工作通过省略传统方法中所需的恢复步骤，从单个压缩测量中提出了一种快速的视差估计。具体来说，我们建议联合优化用于获取单个编码光场快照的光学架构和用于估计视差图的卷积神经网络 (CNN)。在实验上，所提出的方法估计的视差图与使用深度学习方法重建的光场获得的视差图相当。此外，所提出的方法在训练和推理方面比从重建光场估计视差的最佳方法快 20 倍。</t>
   </si>
 </sst>
 </file>
@@ -3785,20 +4508,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T166"/>
+  <dimension ref="A1:T211"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="G9" sqref="G9"/>
+      <selection pane="bottomLeft" activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19.1640625" customWidth="1"/>
     <col min="2" max="2" width="61.5" customWidth="1"/>
-    <col min="3" max="6" width="10.83203125" customWidth="1"/>
-    <col min="7" max="7" width="57.83203125" customWidth="1"/>
+    <col min="3" max="4" width="10.83203125" customWidth="1"/>
+    <col min="5" max="6" width="10.83203125" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="57.83203125" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="88.6640625" customWidth="1"/>
     <col min="9" max="17" width="10.83203125" customWidth="1"/>
   </cols>
@@ -3867,236 +4591,221 @@
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>878</v>
+        <v>1064</v>
       </c>
       <c r="B2" t="s">
-        <v>920</v>
+        <v>1116</v>
       </c>
       <c r="D2" t="s">
-        <v>921</v>
+        <v>1117</v>
       </c>
       <c r="E2" t="s">
-        <v>922</v>
+        <v>1118</v>
       </c>
       <c r="G2" t="s">
-        <v>925</v>
+        <v>1120</v>
       </c>
       <c r="H2" t="s">
-        <v>947</v>
-      </c>
-      <c r="Q2">
-        <v>1</v>
-      </c>
-      <c r="R2">
+        <v>1165</v>
+      </c>
+      <c r="N2">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>878</v>
+        <v>1064</v>
       </c>
       <c r="B3" t="s">
-        <v>917</v>
-      </c>
-      <c r="C3" t="s">
-        <v>290</v>
+        <v>1113</v>
       </c>
       <c r="D3" t="s">
-        <v>918</v>
+        <v>1114</v>
       </c>
       <c r="E3" t="s">
-        <v>919</v>
+        <v>1115</v>
       </c>
       <c r="G3" t="s">
-        <v>926</v>
+        <v>1121</v>
       </c>
       <c r="H3" t="s">
-        <v>948</v>
-      </c>
-      <c r="L3">
+        <v>1166</v>
+      </c>
+      <c r="O3">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>878</v>
+        <v>1064</v>
       </c>
       <c r="B4" t="s">
-        <v>914</v>
+        <v>1110</v>
       </c>
       <c r="D4" t="s">
-        <v>915</v>
+        <v>1111</v>
       </c>
       <c r="E4" t="s">
-        <v>916</v>
+        <v>1112</v>
       </c>
       <c r="G4" t="s">
-        <v>927</v>
+        <v>1122</v>
       </c>
       <c r="H4" t="s">
-        <v>949</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="T4">
+        <v>1167</v>
+      </c>
+      <c r="O4">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>878</v>
+        <v>1064</v>
       </c>
       <c r="B5" t="s">
-        <v>910</v>
+        <v>1106</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1047</v>
       </c>
       <c r="D5" t="s">
-        <v>911</v>
+        <v>1107</v>
       </c>
       <c r="E5" t="s">
-        <v>912</v>
+        <v>1108</v>
       </c>
       <c r="F5" t="s">
-        <v>913</v>
+        <v>1109</v>
       </c>
       <c r="G5" t="s">
-        <v>928</v>
+        <v>1123</v>
       </c>
       <c r="H5" t="s">
-        <v>950</v>
-      </c>
-      <c r="O5">
+        <v>1168</v>
+      </c>
+      <c r="S5">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>878</v>
+        <v>1064</v>
       </c>
       <c r="B6" t="s">
-        <v>907</v>
+        <v>1102</v>
       </c>
       <c r="D6" t="s">
-        <v>908</v>
+        <v>1103</v>
       </c>
       <c r="E6" t="s">
-        <v>909</v>
+        <v>1104</v>
+      </c>
+      <c r="F6" t="s">
+        <v>1105</v>
       </c>
       <c r="G6" t="s">
-        <v>929</v>
+        <v>1124</v>
       </c>
       <c r="H6" t="s">
-        <v>951</v>
-      </c>
-      <c r="T6">
+        <v>1169</v>
+      </c>
+      <c r="O6">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>878</v>
+        <v>1064</v>
       </c>
       <c r="B7" t="s">
-        <v>903</v>
+        <v>1099</v>
       </c>
       <c r="D7" t="s">
-        <v>904</v>
+        <v>1100</v>
       </c>
       <c r="E7" t="s">
-        <v>906</v>
-      </c>
-      <c r="F7" t="s">
-        <v>905</v>
+        <v>1101</v>
       </c>
       <c r="G7" t="s">
-        <v>930</v>
+        <v>1125</v>
       </c>
       <c r="H7" t="s">
-        <v>952</v>
-      </c>
-      <c r="S7">
+        <v>1170</v>
+      </c>
+      <c r="R7">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>878</v>
+        <v>1064</v>
       </c>
       <c r="B8" t="s">
-        <v>900</v>
-      </c>
-      <c r="C8" t="s">
-        <v>901</v>
+        <v>1096</v>
       </c>
       <c r="D8" t="s">
-        <v>923</v>
+        <v>1097</v>
       </c>
       <c r="E8" t="s">
-        <v>902</v>
+        <v>1098</v>
       </c>
       <c r="G8" t="s">
-        <v>931</v>
+        <v>1126</v>
       </c>
       <c r="H8" t="s">
-        <v>953</v>
-      </c>
-      <c r="O8">
+        <v>1171</v>
+      </c>
+      <c r="R8">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>878</v>
+        <v>1064</v>
       </c>
       <c r="B9" t="s">
-        <v>897</v>
+        <v>1093</v>
       </c>
       <c r="D9" t="s">
-        <v>898</v>
+        <v>1094</v>
       </c>
       <c r="E9" t="s">
-        <v>899</v>
+        <v>1095</v>
       </c>
       <c r="G9" t="s">
-        <v>932</v>
+        <v>1127</v>
       </c>
       <c r="H9" t="s">
-        <v>954</v>
-      </c>
-      <c r="P9">
-        <v>1</v>
-      </c>
-      <c r="R9">
+        <v>1172</v>
+      </c>
+      <c r="K9">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>878</v>
+        <v>1064</v>
       </c>
       <c r="B10" t="s">
-        <v>892</v>
+        <v>1089</v>
       </c>
       <c r="C10" t="s">
-        <v>893</v>
+        <v>48</v>
       </c>
       <c r="D10" t="s">
-        <v>894</v>
+        <v>1090</v>
       </c>
       <c r="E10" t="s">
-        <v>895</v>
+        <v>1092</v>
       </c>
       <c r="F10" t="s">
-        <v>896</v>
+        <v>1091</v>
       </c>
       <c r="G10" t="s">
-        <v>933</v>
+        <v>1128</v>
       </c>
       <c r="H10" t="s">
-        <v>955</v>
-      </c>
-      <c r="O10">
-        <v>1</v>
+        <v>1173</v>
       </c>
       <c r="T10">
         <v>1</v>
@@ -4104,79 +4813,82 @@
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>878</v>
+        <v>1064</v>
       </c>
       <c r="B11" t="s">
-        <v>889</v>
+        <v>1084</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1085</v>
       </c>
       <c r="D11" t="s">
-        <v>890</v>
+        <v>1086</v>
       </c>
       <c r="E11" t="s">
-        <v>891</v>
+        <v>1087</v>
+      </c>
+      <c r="F11" t="s">
+        <v>1088</v>
       </c>
       <c r="G11" t="s">
-        <v>934</v>
+        <v>1129</v>
       </c>
       <c r="H11" t="s">
-        <v>956</v>
-      </c>
-      <c r="N11">
+        <v>1174</v>
+      </c>
+      <c r="M11">
+        <v>1</v>
+      </c>
+      <c r="T11">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>878</v>
+        <v>1064</v>
       </c>
       <c r="B12" t="s">
-        <v>885</v>
-      </c>
-      <c r="C12" t="s">
-        <v>886</v>
+        <v>1081</v>
       </c>
       <c r="D12" t="s">
-        <v>887</v>
+        <v>1082</v>
       </c>
       <c r="E12" t="s">
-        <v>888</v>
+        <v>1083</v>
       </c>
       <c r="G12" t="s">
-        <v>935</v>
+        <v>1130</v>
       </c>
       <c r="H12" t="s">
-        <v>957</v>
-      </c>
-      <c r="N12">
-        <v>1</v>
-      </c>
-      <c r="O12">
+        <v>1175</v>
+      </c>
+      <c r="M12">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>878</v>
+        <v>1064</v>
       </c>
       <c r="B13" t="s">
-        <v>882</v>
+        <v>1078</v>
       </c>
       <c r="C13" t="s">
-        <v>883</v>
+        <v>54</v>
       </c>
       <c r="D13" t="s">
-        <v>924</v>
+        <v>1079</v>
       </c>
       <c r="E13" t="s">
-        <v>884</v>
+        <v>1080</v>
       </c>
       <c r="G13" t="s">
-        <v>936</v>
+        <v>1131</v>
       </c>
       <c r="H13" t="s">
-        <v>958</v>
-      </c>
-      <c r="S13">
+        <v>1176</v>
+      </c>
+      <c r="O13">
         <v>1</v>
       </c>
       <c r="T13">
@@ -4185,126 +4897,129 @@
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>878</v>
+        <v>1064</v>
       </c>
       <c r="B14" t="s">
-        <v>877</v>
+        <v>1075</v>
       </c>
       <c r="D14" t="s">
-        <v>879</v>
+        <v>1076</v>
       </c>
       <c r="E14" t="s">
-        <v>880</v>
-      </c>
-      <c r="F14" t="s">
-        <v>881</v>
+        <v>1077</v>
       </c>
       <c r="G14" t="s">
-        <v>937</v>
+        <v>1132</v>
       </c>
       <c r="H14" t="s">
-        <v>959</v>
-      </c>
-      <c r="M14">
+        <v>1177</v>
+      </c>
+      <c r="O14">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>852</v>
+        <v>1064</v>
       </c>
       <c r="B15" t="s">
-        <v>874</v>
+        <v>1072</v>
       </c>
       <c r="D15" t="s">
-        <v>875</v>
+        <v>1073</v>
       </c>
       <c r="E15" t="s">
-        <v>876</v>
+        <v>1074</v>
       </c>
       <c r="G15" t="s">
-        <v>938</v>
+        <v>1133</v>
       </c>
       <c r="H15" t="s">
-        <v>960</v>
-      </c>
-      <c r="O15">
+        <v>1178</v>
+      </c>
+      <c r="M15">
+        <v>1</v>
+      </c>
+      <c r="T15">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>852</v>
+        <v>1064</v>
       </c>
       <c r="B16" t="s">
-        <v>871</v>
+        <v>1068</v>
       </c>
       <c r="D16" t="s">
-        <v>872</v>
+        <v>1069</v>
       </c>
       <c r="E16" t="s">
-        <v>873</v>
+        <v>1070</v>
+      </c>
+      <c r="F16" t="s">
+        <v>1071</v>
       </c>
       <c r="G16" t="s">
-        <v>939</v>
+        <v>1134</v>
       </c>
       <c r="H16" t="s">
-        <v>961</v>
-      </c>
-      <c r="J16">
-        <v>1</v>
-      </c>
-      <c r="R16">
+        <v>1179</v>
+      </c>
+      <c r="M16">
+        <v>1</v>
+      </c>
+      <c r="T16">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>852</v>
+        <v>1064</v>
       </c>
       <c r="B17" t="s">
-        <v>868</v>
+        <v>1065</v>
       </c>
       <c r="C17" t="s">
-        <v>48</v>
+        <v>1047</v>
       </c>
       <c r="D17" t="s">
-        <v>869</v>
+        <v>1066</v>
       </c>
       <c r="E17" t="s">
-        <v>870</v>
+        <v>1067</v>
       </c>
       <c r="G17" t="s">
-        <v>940</v>
+        <v>1135</v>
       </c>
       <c r="H17" t="s">
-        <v>962</v>
+        <v>1180</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
       </c>
       <c r="N17">
-        <v>1</v>
-      </c>
-      <c r="T17">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>852</v>
+        <v>1064</v>
       </c>
       <c r="B18" t="s">
-        <v>865</v>
+        <v>1061</v>
       </c>
       <c r="D18" t="s">
-        <v>866</v>
+        <v>1062</v>
       </c>
       <c r="E18" t="s">
-        <v>867</v>
+        <v>1063</v>
       </c>
       <c r="G18" t="s">
-        <v>941</v>
+        <v>1136</v>
       </c>
       <c r="H18" t="s">
-        <v>963</v>
+        <v>1181</v>
       </c>
       <c r="R18">
         <v>1</v>
@@ -4312,74 +5027,71 @@
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>852</v>
+        <v>1064</v>
       </c>
       <c r="B19" t="s">
-        <v>862</v>
+        <v>1058</v>
       </c>
       <c r="D19" t="s">
-        <v>863</v>
+        <v>1059</v>
       </c>
       <c r="E19" t="s">
-        <v>864</v>
+        <v>1060</v>
       </c>
       <c r="G19" t="s">
-        <v>942</v>
+        <v>1137</v>
       </c>
       <c r="H19" t="s">
-        <v>964</v>
-      </c>
-      <c r="I19">
-        <v>1</v>
-      </c>
-      <c r="P19">
+        <v>1182</v>
+      </c>
+      <c r="O19">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>852</v>
+        <v>994</v>
       </c>
       <c r="B20" t="s">
-        <v>859</v>
+        <v>1054</v>
       </c>
       <c r="D20" t="s">
-        <v>860</v>
+        <v>1055</v>
       </c>
       <c r="E20" t="s">
-        <v>861</v>
+        <v>1056</v>
+      </c>
+      <c r="F20" t="s">
+        <v>1057</v>
       </c>
       <c r="G20" t="s">
-        <v>943</v>
+        <v>1138</v>
       </c>
       <c r="H20" t="s">
-        <v>965</v>
+        <v>1183</v>
       </c>
       <c r="M20">
-        <v>1</v>
-      </c>
-      <c r="T20">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>852</v>
+        <v>994</v>
       </c>
       <c r="B21" t="s">
-        <v>856</v>
+        <v>1051</v>
       </c>
       <c r="D21" t="s">
-        <v>857</v>
+        <v>1052</v>
       </c>
       <c r="E21" t="s">
-        <v>858</v>
+        <v>1053</v>
       </c>
       <c r="G21" t="s">
-        <v>944</v>
+        <v>1139</v>
       </c>
       <c r="H21" t="s">
-        <v>966</v>
+        <v>1184</v>
       </c>
       <c r="T21">
         <v>1</v>
@@ -4387,718 +5099,648 @@
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>852</v>
+        <v>994</v>
       </c>
       <c r="B22" t="s">
-        <v>853</v>
+        <v>1046</v>
+      </c>
+      <c r="C22" t="s">
+        <v>1047</v>
       </c>
       <c r="D22" t="s">
-        <v>854</v>
+        <v>1048</v>
       </c>
       <c r="E22" t="s">
-        <v>855</v>
+        <v>1049</v>
+      </c>
+      <c r="F22" t="s">
+        <v>1050</v>
       </c>
       <c r="G22" t="s">
-        <v>945</v>
+        <v>1140</v>
       </c>
       <c r="H22" t="s">
-        <v>967</v>
-      </c>
-      <c r="T22">
+        <v>1185</v>
+      </c>
+      <c r="M22">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>154</v>
+        <v>994</v>
       </c>
       <c r="B23" t="s">
-        <v>849</v>
-      </c>
-      <c r="C23" t="s">
-        <v>205</v>
+        <v>1043</v>
       </c>
       <c r="D23" t="s">
-        <v>850</v>
+        <v>1044</v>
       </c>
       <c r="E23" t="s">
-        <v>851</v>
+        <v>1045</v>
       </c>
       <c r="G23" t="s">
-        <v>946</v>
+        <v>1141</v>
       </c>
       <c r="H23" t="s">
-        <v>968</v>
-      </c>
-      <c r="T23">
+        <v>1186</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="S23">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>783</v>
+        <v>994</v>
       </c>
       <c r="B24" t="s">
-        <v>816</v>
+        <v>1039</v>
+      </c>
+      <c r="C24" t="s">
+        <v>1040</v>
       </c>
       <c r="D24" t="s">
-        <v>817</v>
+        <v>1041</v>
       </c>
       <c r="E24" t="s">
-        <v>818</v>
+        <v>1042</v>
       </c>
       <c r="G24" t="s">
-        <v>819</v>
+        <v>1142</v>
       </c>
       <c r="H24" t="s">
-        <v>834</v>
-      </c>
-      <c r="O24">
+        <v>1187</v>
+      </c>
+      <c r="T24">
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>783</v>
+        <v>994</v>
       </c>
       <c r="B25" t="s">
-        <v>813</v>
+        <v>1036</v>
       </c>
       <c r="D25" t="s">
-        <v>814</v>
+        <v>1037</v>
       </c>
       <c r="E25" t="s">
-        <v>815</v>
+        <v>1038</v>
       </c>
       <c r="G25" t="s">
-        <v>820</v>
+        <v>1143</v>
       </c>
       <c r="H25" t="s">
-        <v>835</v>
-      </c>
-      <c r="T25">
+        <v>1188</v>
+      </c>
+      <c r="N25">
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>783</v>
+        <v>994</v>
       </c>
       <c r="B26" t="s">
-        <v>810</v>
+        <v>1033</v>
       </c>
       <c r="D26" t="s">
-        <v>811</v>
+        <v>1034</v>
       </c>
       <c r="E26" t="s">
-        <v>812</v>
+        <v>1035</v>
       </c>
       <c r="G26" t="s">
-        <v>821</v>
+        <v>1144</v>
       </c>
       <c r="H26" t="s">
-        <v>836</v>
-      </c>
-      <c r="N26">
-        <v>1</v>
-      </c>
-      <c r="P26">
+        <v>1189</v>
+      </c>
+      <c r="T26">
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>783</v>
+        <v>994</v>
       </c>
       <c r="B27" t="s">
-        <v>807</v>
+        <v>1030</v>
       </c>
       <c r="D27" t="s">
-        <v>808</v>
+        <v>1031</v>
       </c>
       <c r="E27" t="s">
-        <v>809</v>
+        <v>1032</v>
       </c>
       <c r="G27" t="s">
-        <v>822</v>
+        <v>1145</v>
       </c>
       <c r="H27" t="s">
-        <v>837</v>
-      </c>
-      <c r="J27">
-        <v>1</v>
-      </c>
-      <c r="N27">
-        <v>1</v>
-      </c>
-      <c r="R27">
+        <v>1190</v>
+      </c>
+      <c r="M27">
+        <v>1</v>
+      </c>
+      <c r="Q27">
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>783</v>
+        <v>994</v>
       </c>
       <c r="B28" t="s">
-        <v>782</v>
-      </c>
-      <c r="C28" t="s">
-        <v>784</v>
+        <v>1027</v>
       </c>
       <c r="D28" t="s">
-        <v>785</v>
+        <v>1028</v>
       </c>
       <c r="E28" t="s">
-        <v>786</v>
-      </c>
-      <c r="F28" t="s">
-        <v>787</v>
+        <v>1029</v>
       </c>
       <c r="G28" t="s">
-        <v>823</v>
+        <v>1146</v>
       </c>
       <c r="H28" t="s">
-        <v>838</v>
-      </c>
-      <c r="L28">
-        <v>1</v>
-      </c>
-      <c r="S28">
+        <v>1191</v>
+      </c>
+      <c r="T28">
         <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>783</v>
+        <v>994</v>
       </c>
       <c r="B29" t="s">
-        <v>791</v>
+        <v>1024</v>
       </c>
       <c r="D29" t="s">
-        <v>792</v>
+        <v>1025</v>
       </c>
       <c r="E29" t="s">
-        <v>793</v>
-      </c>
-      <c r="F29" t="s">
-        <v>794</v>
+        <v>1026</v>
       </c>
       <c r="G29" t="s">
-        <v>824</v>
+        <v>1147</v>
       </c>
       <c r="H29" t="s">
-        <v>839</v>
-      </c>
-      <c r="L29">
-        <v>1</v>
-      </c>
-      <c r="R29">
+        <v>1192</v>
+      </c>
+      <c r="T29">
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>770</v>
+        <v>994</v>
       </c>
       <c r="B30" t="s">
-        <v>788</v>
+        <v>1019</v>
+      </c>
+      <c r="C30" t="s">
+        <v>1020</v>
       </c>
       <c r="D30" t="s">
-        <v>789</v>
+        <v>1021</v>
       </c>
       <c r="E30" t="s">
-        <v>790</v>
+        <v>1022</v>
+      </c>
+      <c r="F30" t="s">
+        <v>1023</v>
       </c>
       <c r="G30" t="s">
-        <v>825</v>
+        <v>1148</v>
       </c>
       <c r="H30" t="s">
-        <v>840</v>
-      </c>
-      <c r="N30">
+        <v>1193</v>
+      </c>
+      <c r="M30">
         <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>770</v>
+        <v>994</v>
       </c>
       <c r="B31" t="s">
-        <v>795</v>
+        <v>1016</v>
       </c>
       <c r="C31" t="s">
-        <v>633</v>
+        <v>1015</v>
       </c>
       <c r="D31" t="s">
-        <v>796</v>
+        <v>1017</v>
       </c>
       <c r="E31" t="s">
-        <v>797</v>
+        <v>1018</v>
       </c>
       <c r="G31" t="s">
-        <v>826</v>
+        <v>1149</v>
       </c>
       <c r="H31" t="s">
-        <v>841</v>
-      </c>
-      <c r="M31">
-        <v>1</v>
-      </c>
-      <c r="N31">
-        <v>1</v>
-      </c>
-      <c r="R31">
+        <v>1194</v>
+      </c>
+      <c r="T31">
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>770</v>
+        <v>994</v>
       </c>
       <c r="B32" t="s">
-        <v>798</v>
-      </c>
-      <c r="C32" t="s">
-        <v>779</v>
+        <v>1012</v>
       </c>
       <c r="D32" t="s">
-        <v>799</v>
+        <v>1013</v>
       </c>
       <c r="E32" t="s">
-        <v>800</v>
+        <v>1014</v>
       </c>
       <c r="G32" t="s">
-        <v>827</v>
+        <v>1150</v>
       </c>
       <c r="H32" t="s">
-        <v>842</v>
-      </c>
-      <c r="K32">
-        <v>1</v>
-      </c>
-      <c r="T32">
+        <v>1195</v>
+      </c>
+      <c r="O32">
+        <v>1</v>
+      </c>
+      <c r="S32">
         <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>770</v>
+        <v>994</v>
       </c>
       <c r="B33" t="s">
-        <v>801</v>
-      </c>
-      <c r="C33" t="s">
-        <v>633</v>
+        <v>1010</v>
       </c>
       <c r="D33" t="s">
-        <v>802</v>
+        <v>1119</v>
       </c>
       <c r="E33" t="s">
-        <v>803</v>
+        <v>1011</v>
       </c>
       <c r="G33" t="s">
-        <v>828</v>
+        <v>1151</v>
       </c>
       <c r="H33" t="s">
-        <v>843</v>
-      </c>
-      <c r="I33">
+        <v>1196</v>
+      </c>
+      <c r="M33">
+        <v>1</v>
+      </c>
+      <c r="N33">
+        <v>1</v>
+      </c>
+      <c r="S33">
         <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>770</v>
+        <v>994</v>
       </c>
       <c r="B34" t="s">
-        <v>804</v>
+        <v>1007</v>
       </c>
       <c r="D34" t="s">
-        <v>805</v>
+        <v>1008</v>
       </c>
       <c r="E34" t="s">
-        <v>806</v>
+        <v>1009</v>
       </c>
       <c r="G34" t="s">
-        <v>829</v>
+        <v>1152</v>
       </c>
       <c r="H34" t="s">
-        <v>844</v>
-      </c>
-      <c r="K34">
-        <v>1</v>
-      </c>
-      <c r="T34">
+        <v>1197</v>
+      </c>
+      <c r="O34">
         <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>770</v>
+        <v>994</v>
       </c>
       <c r="B35" t="s">
-        <v>778</v>
-      </c>
-      <c r="C35" t="s">
-        <v>779</v>
+        <v>991</v>
       </c>
       <c r="D35" t="s">
-        <v>780</v>
+        <v>992</v>
       </c>
       <c r="E35" t="s">
-        <v>781</v>
+        <v>993</v>
       </c>
       <c r="G35" t="s">
-        <v>830</v>
+        <v>1153</v>
       </c>
       <c r="H35" t="s">
-        <v>845</v>
-      </c>
-      <c r="J35">
-        <v>1</v>
-      </c>
-      <c r="N35">
-        <v>1</v>
-      </c>
-      <c r="R35">
+        <v>1198</v>
+      </c>
+      <c r="O35">
+        <v>1</v>
+      </c>
+      <c r="T35">
         <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>698</v>
+        <v>994</v>
       </c>
       <c r="B36" t="s">
-        <v>774</v>
+        <v>1004</v>
       </c>
       <c r="D36" t="s">
-        <v>775</v>
+        <v>1005</v>
       </c>
       <c r="E36" t="s">
-        <v>776</v>
-      </c>
-      <c r="F36" t="s">
-        <v>777</v>
+        <v>1006</v>
       </c>
       <c r="G36" t="s">
-        <v>831</v>
+        <v>1154</v>
       </c>
       <c r="H36" t="s">
-        <v>846</v>
-      </c>
-      <c r="J36">
+        <v>1199</v>
+      </c>
+      <c r="N36">
         <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>698</v>
+        <v>994</v>
       </c>
       <c r="B37" t="s">
-        <v>771</v>
+        <v>1001</v>
       </c>
       <c r="D37" t="s">
-        <v>772</v>
+        <v>1002</v>
       </c>
       <c r="E37" t="s">
-        <v>773</v>
+        <v>1003</v>
       </c>
       <c r="G37" t="s">
-        <v>832</v>
+        <v>1155</v>
       </c>
       <c r="H37" t="s">
-        <v>847</v>
-      </c>
-      <c r="K37">
+        <v>1200</v>
+      </c>
+      <c r="T37">
         <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>154</v>
+        <v>994</v>
       </c>
       <c r="B38" t="s">
-        <v>766</v>
+        <v>998</v>
       </c>
       <c r="C38" t="s">
-        <v>209</v>
+        <v>779</v>
       </c>
       <c r="D38" t="s">
-        <v>767</v>
+        <v>999</v>
       </c>
       <c r="E38" t="s">
-        <v>768</v>
-      </c>
-      <c r="F38" t="s">
-        <v>769</v>
+        <v>1000</v>
       </c>
       <c r="G38" t="s">
-        <v>833</v>
+        <v>1156</v>
       </c>
       <c r="H38" t="s">
-        <v>848</v>
-      </c>
-      <c r="K38">
-        <v>1</v>
-      </c>
-      <c r="Q38">
-        <f>+L35</f>
-        <v>0</v>
-      </c>
-      <c r="T38">
+        <v>1201</v>
+      </c>
+      <c r="I38">
         <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>698</v>
+        <v>994</v>
       </c>
       <c r="B39" t="s">
-        <v>736</v>
+        <v>995</v>
       </c>
       <c r="D39" t="s">
-        <v>737</v>
+        <v>996</v>
       </c>
       <c r="E39" t="s">
-        <v>738</v>
+        <v>997</v>
       </c>
       <c r="G39" t="s">
-        <v>740</v>
+        <v>1157</v>
       </c>
       <c r="H39" t="s">
-        <v>753</v>
-      </c>
-      <c r="R39">
+        <v>1202</v>
+      </c>
+      <c r="S39">
         <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>698</v>
+        <v>878</v>
       </c>
       <c r="B40" t="s">
-        <v>733</v>
+        <v>988</v>
       </c>
       <c r="D40" t="s">
-        <v>734</v>
+        <v>989</v>
       </c>
       <c r="E40" t="s">
-        <v>735</v>
+        <v>990</v>
       </c>
       <c r="G40" t="s">
-        <v>741</v>
+        <v>1158</v>
       </c>
       <c r="H40" t="s">
-        <v>754</v>
-      </c>
-      <c r="J40">
-        <v>1</v>
-      </c>
-      <c r="M40">
-        <v>1</v>
-      </c>
-      <c r="S40">
+        <v>1203</v>
+      </c>
+      <c r="O40">
         <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>698</v>
+        <v>878</v>
       </c>
       <c r="B41" t="s">
-        <v>730</v>
+        <v>985</v>
       </c>
       <c r="D41" t="s">
-        <v>731</v>
+        <v>986</v>
       </c>
       <c r="E41" t="s">
-        <v>732</v>
+        <v>987</v>
       </c>
       <c r="G41" t="s">
-        <v>742</v>
+        <v>1159</v>
       </c>
       <c r="H41" t="s">
-        <v>755</v>
-      </c>
-      <c r="K41">
-        <v>1</v>
-      </c>
-      <c r="L41">
-        <v>1</v>
-      </c>
-      <c r="M41">
+        <v>1204</v>
+      </c>
+      <c r="O41">
         <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>698</v>
+        <v>878</v>
       </c>
       <c r="B42" t="s">
-        <v>727</v>
+        <v>981</v>
       </c>
       <c r="C42" t="s">
-        <v>48</v>
+        <v>982</v>
       </c>
       <c r="D42" t="s">
-        <v>728</v>
+        <v>983</v>
       </c>
       <c r="E42" t="s">
-        <v>729</v>
-      </c>
-      <c r="F42" t="s">
-        <v>729</v>
+        <v>984</v>
       </c>
       <c r="G42" t="s">
-        <v>743</v>
+        <v>1160</v>
       </c>
       <c r="H42" t="s">
-        <v>756</v>
-      </c>
-      <c r="J42">
-        <v>1</v>
-      </c>
-      <c r="M42">
+        <v>1205</v>
+      </c>
+      <c r="N42">
+        <v>1</v>
+      </c>
+      <c r="P42">
         <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>698</v>
+        <v>878</v>
       </c>
       <c r="B43" t="s">
-        <v>724</v>
+        <v>978</v>
+      </c>
+      <c r="C43" t="s">
+        <v>893</v>
       </c>
       <c r="D43" t="s">
-        <v>725</v>
+        <v>979</v>
       </c>
       <c r="E43" t="s">
-        <v>726</v>
+        <v>980</v>
       </c>
       <c r="G43" t="s">
-        <v>744</v>
+        <v>1161</v>
       </c>
       <c r="H43" t="s">
-        <v>757</v>
-      </c>
-      <c r="O43">
+        <v>1206</v>
+      </c>
+      <c r="M43">
         <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>668</v>
+        <v>878</v>
       </c>
       <c r="B44" t="s">
-        <v>721</v>
+        <v>975</v>
       </c>
       <c r="D44" t="s">
-        <v>722</v>
+        <v>976</v>
       </c>
       <c r="E44" t="s">
-        <v>723</v>
+        <v>977</v>
       </c>
       <c r="G44" t="s">
-        <v>745</v>
+        <v>1162</v>
       </c>
       <c r="H44" t="s">
-        <v>758</v>
-      </c>
-      <c r="J44">
-        <v>1</v>
-      </c>
-      <c r="N44">
+        <v>1207</v>
+      </c>
+      <c r="O44">
+        <v>1</v>
+      </c>
+      <c r="T44">
         <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>668</v>
+        <v>878</v>
       </c>
       <c r="B45" t="s">
-        <v>716</v>
-      </c>
-      <c r="C45" t="s">
-        <v>717</v>
+        <v>972</v>
       </c>
       <c r="D45" t="s">
-        <v>718</v>
+        <v>973</v>
       </c>
       <c r="E45" t="s">
-        <v>719</v>
-      </c>
-      <c r="F45" t="s">
-        <v>720</v>
+        <v>974</v>
       </c>
       <c r="G45" t="s">
-        <v>746</v>
+        <v>1163</v>
       </c>
       <c r="H45" t="s">
-        <v>759</v>
-      </c>
-      <c r="Q45">
-        <v>1</v>
-      </c>
-      <c r="R45">
+        <v>1208</v>
+      </c>
+      <c r="N45">
         <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>668</v>
+        <v>878</v>
       </c>
       <c r="B46" t="s">
-        <v>713</v>
-      </c>
-      <c r="C46" t="s">
-        <v>48</v>
+        <v>969</v>
       </c>
       <c r="D46" t="s">
-        <v>714</v>
+        <v>970</v>
       </c>
       <c r="E46" t="s">
-        <v>715</v>
+        <v>971</v>
       </c>
       <c r="G46" t="s">
-        <v>747</v>
+        <v>1164</v>
       </c>
       <c r="H46" t="s">
-        <v>760</v>
-      </c>
-      <c r="R46">
+        <v>1209</v>
+      </c>
+      <c r="K46">
         <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>668</v>
+        <v>878</v>
       </c>
       <c r="B47" t="s">
-        <v>710</v>
-      </c>
-      <c r="C47" t="s">
-        <v>48</v>
+        <v>920</v>
       </c>
       <c r="D47" t="s">
-        <v>711</v>
+        <v>921</v>
       </c>
       <c r="E47" t="s">
-        <v>712</v>
+        <v>922</v>
       </c>
       <c r="G47" t="s">
-        <v>748</v>
+        <v>925</v>
       </c>
       <c r="H47" t="s">
-        <v>761</v>
-      </c>
-      <c r="L47">
-        <v>1</v>
-      </c>
-      <c r="N47">
-        <v>1</v>
-      </c>
-      <c r="Q47">
-        <v>1</v>
+        <v>947</v>
       </c>
       <c r="R47">
         <v>1</v>
@@ -5106,236 +5748,233 @@
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>668</v>
+        <v>878</v>
       </c>
       <c r="B48" t="s">
-        <v>706</v>
+        <v>917</v>
       </c>
       <c r="C48" t="s">
-        <v>633</v>
+        <v>290</v>
       </c>
       <c r="D48" t="s">
-        <v>707</v>
+        <v>918</v>
       </c>
       <c r="E48" t="s">
-        <v>708</v>
-      </c>
-      <c r="F48" t="s">
-        <v>709</v>
+        <v>919</v>
       </c>
       <c r="G48" t="s">
-        <v>749</v>
+        <v>926</v>
       </c>
       <c r="H48" t="s">
-        <v>762</v>
-      </c>
-      <c r="O48">
+        <v>948</v>
+      </c>
+      <c r="L48">
         <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>668</v>
+        <v>878</v>
       </c>
       <c r="B49" t="s">
-        <v>703</v>
+        <v>914</v>
       </c>
       <c r="D49" t="s">
-        <v>704</v>
+        <v>915</v>
       </c>
       <c r="E49" t="s">
-        <v>705</v>
+        <v>916</v>
       </c>
       <c r="G49" t="s">
-        <v>750</v>
+        <v>927</v>
       </c>
       <c r="H49" t="s">
-        <v>763</v>
+        <v>949</v>
       </c>
       <c r="K49">
+        <v>1</v>
+      </c>
+      <c r="T49">
         <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>668</v>
+        <v>878</v>
       </c>
       <c r="B50" t="s">
-        <v>701</v>
+        <v>910</v>
       </c>
       <c r="D50" t="s">
-        <v>739</v>
+        <v>911</v>
       </c>
       <c r="E50" t="s">
-        <v>702</v>
+        <v>912</v>
+      </c>
+      <c r="F50" t="s">
+        <v>913</v>
       </c>
       <c r="G50" t="s">
-        <v>751</v>
+        <v>928</v>
       </c>
       <c r="H50" t="s">
-        <v>764</v>
-      </c>
-      <c r="M50">
+        <v>950</v>
+      </c>
+      <c r="O50">
         <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>668</v>
+        <v>878</v>
       </c>
       <c r="B51" t="s">
-        <v>697</v>
+        <v>907</v>
       </c>
       <c r="D51" t="s">
-        <v>699</v>
+        <v>908</v>
       </c>
       <c r="E51" t="s">
-        <v>700</v>
+        <v>909</v>
       </c>
       <c r="G51" t="s">
-        <v>752</v>
+        <v>929</v>
       </c>
       <c r="H51" t="s">
-        <v>765</v>
-      </c>
-      <c r="I51">
-        <v>1</v>
-      </c>
-      <c r="Q51">
+        <v>951</v>
+      </c>
+      <c r="T51">
         <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>668</v>
+        <v>878</v>
       </c>
       <c r="B52" t="s">
-        <v>664</v>
+        <v>903</v>
       </c>
       <c r="D52" t="s">
-        <v>665</v>
+        <v>904</v>
       </c>
       <c r="E52" t="s">
-        <v>666</v>
+        <v>906</v>
       </c>
       <c r="F52" t="s">
-        <v>667</v>
+        <v>905</v>
       </c>
       <c r="G52" t="s">
-        <v>683</v>
+        <v>930</v>
       </c>
       <c r="H52" t="s">
-        <v>670</v>
-      </c>
-      <c r="M52">
+        <v>952</v>
+      </c>
+      <c r="S52">
         <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>668</v>
+        <v>878</v>
       </c>
       <c r="B53" t="s">
-        <v>660</v>
+        <v>900</v>
+      </c>
+      <c r="C53" t="s">
+        <v>901</v>
       </c>
       <c r="D53" t="s">
-        <v>661</v>
+        <v>923</v>
       </c>
       <c r="E53" t="s">
-        <v>662</v>
-      </c>
-      <c r="F53" t="s">
-        <v>663</v>
+        <v>902</v>
       </c>
       <c r="G53" t="s">
-        <v>684</v>
+        <v>931</v>
       </c>
       <c r="H53" t="s">
-        <v>671</v>
-      </c>
-      <c r="J53">
+        <v>953</v>
+      </c>
+      <c r="O53">
         <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>668</v>
+        <v>878</v>
       </c>
       <c r="B54" t="s">
-        <v>657</v>
-      </c>
-      <c r="C54" t="s">
-        <v>48</v>
+        <v>897</v>
       </c>
       <c r="D54" t="s">
-        <v>658</v>
+        <v>898</v>
       </c>
       <c r="E54" t="s">
-        <v>659</v>
+        <v>899</v>
       </c>
       <c r="G54" t="s">
-        <v>685</v>
+        <v>932</v>
       </c>
       <c r="H54" t="s">
-        <v>672</v>
-      </c>
-      <c r="I54">
-        <v>1</v>
-      </c>
-      <c r="K54">
+        <v>954</v>
+      </c>
+      <c r="P54">
+        <v>1</v>
+      </c>
+      <c r="R54">
         <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>625</v>
+        <v>878</v>
       </c>
       <c r="B55" t="s">
-        <v>654</v>
+        <v>892</v>
       </c>
       <c r="C55" t="s">
-        <v>633</v>
+        <v>893</v>
       </c>
       <c r="D55" t="s">
-        <v>655</v>
+        <v>894</v>
       </c>
       <c r="E55" t="s">
-        <v>656</v>
+        <v>895</v>
+      </c>
+      <c r="F55" t="s">
+        <v>896</v>
       </c>
       <c r="G55" t="s">
-        <v>686</v>
+        <v>933</v>
       </c>
       <c r="H55" t="s">
-        <v>673</v>
-      </c>
-      <c r="R55">
+        <v>955</v>
+      </c>
+      <c r="O55">
+        <v>1</v>
+      </c>
+      <c r="T55">
         <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>625</v>
+        <v>878</v>
       </c>
       <c r="B56" t="s">
-        <v>651</v>
-      </c>
-      <c r="C56" t="s">
-        <v>652</v>
+        <v>889</v>
       </c>
       <c r="D56" t="s">
-        <v>669</v>
+        <v>890</v>
       </c>
       <c r="E56" t="s">
-        <v>653</v>
+        <v>891</v>
       </c>
       <c r="G56" t="s">
-        <v>687</v>
+        <v>934</v>
       </c>
       <c r="H56" t="s">
-        <v>674</v>
-      </c>
-      <c r="K56">
-        <v>1</v>
+        <v>956</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -5343,559 +5982,553 @@
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>625</v>
+        <v>878</v>
       </c>
       <c r="B57" t="s">
-        <v>648</v>
+        <v>885</v>
+      </c>
+      <c r="C57" t="s">
+        <v>886</v>
       </c>
       <c r="D57" t="s">
-        <v>649</v>
+        <v>887</v>
       </c>
       <c r="E57" t="s">
-        <v>650</v>
+        <v>888</v>
       </c>
       <c r="G57" t="s">
-        <v>688</v>
+        <v>935</v>
       </c>
       <c r="H57" t="s">
-        <v>675</v>
-      </c>
-      <c r="T57">
+        <v>957</v>
+      </c>
+      <c r="N57">
+        <v>1</v>
+      </c>
+      <c r="O57">
         <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>625</v>
+        <v>878</v>
       </c>
       <c r="B58" t="s">
-        <v>644</v>
+        <v>882</v>
       </c>
       <c r="C58" t="s">
-        <v>48</v>
+        <v>883</v>
       </c>
       <c r="D58" t="s">
-        <v>647</v>
+        <v>924</v>
       </c>
       <c r="E58" t="s">
-        <v>646</v>
-      </c>
-      <c r="F58" t="s">
-        <v>645</v>
+        <v>884</v>
       </c>
       <c r="G58" t="s">
-        <v>689</v>
+        <v>936</v>
       </c>
       <c r="H58" t="s">
-        <v>676</v>
-      </c>
-      <c r="O58">
+        <v>958</v>
+      </c>
+      <c r="S58">
+        <v>1</v>
+      </c>
+      <c r="T58">
         <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>625</v>
+        <v>878</v>
       </c>
       <c r="B59" t="s">
-        <v>641</v>
+        <v>877</v>
       </c>
       <c r="D59" t="s">
-        <v>642</v>
+        <v>879</v>
       </c>
       <c r="E59" t="s">
-        <v>643</v>
+        <v>880</v>
+      </c>
+      <c r="F59" t="s">
+        <v>881</v>
       </c>
       <c r="G59" t="s">
-        <v>690</v>
+        <v>937</v>
       </c>
       <c r="H59" t="s">
-        <v>677</v>
-      </c>
-      <c r="T59">
+        <v>959</v>
+      </c>
+      <c r="M59">
         <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>625</v>
+        <v>852</v>
       </c>
       <c r="B60" t="s">
-        <v>639</v>
+        <v>874</v>
       </c>
       <c r="D60" t="s">
-        <v>640</v>
+        <v>875</v>
       </c>
       <c r="E60" t="s">
-        <v>696</v>
+        <v>876</v>
       </c>
       <c r="G60" t="s">
-        <v>691</v>
+        <v>938</v>
       </c>
       <c r="H60" t="s">
-        <v>678</v>
-      </c>
-      <c r="K60">
-        <v>1</v>
-      </c>
-      <c r="M60">
+        <v>960</v>
+      </c>
+      <c r="O60">
         <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>625</v>
+        <v>852</v>
       </c>
       <c r="B61" t="s">
-        <v>636</v>
+        <v>871</v>
       </c>
       <c r="D61" t="s">
-        <v>637</v>
+        <v>872</v>
       </c>
       <c r="E61" t="s">
-        <v>638</v>
+        <v>873</v>
       </c>
       <c r="G61" t="s">
-        <v>692</v>
+        <v>939</v>
       </c>
       <c r="H61" t="s">
-        <v>679</v>
-      </c>
-      <c r="T61">
+        <v>961</v>
+      </c>
+      <c r="J61">
+        <v>1</v>
+      </c>
+      <c r="R61">
         <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>625</v>
+        <v>852</v>
       </c>
       <c r="B62" t="s">
-        <v>632</v>
+        <v>868</v>
       </c>
       <c r="C62" t="s">
-        <v>633</v>
+        <v>48</v>
       </c>
       <c r="D62" t="s">
-        <v>634</v>
+        <v>869</v>
       </c>
       <c r="E62" t="s">
-        <v>635</v>
+        <v>870</v>
       </c>
       <c r="G62" t="s">
-        <v>693</v>
+        <v>940</v>
       </c>
       <c r="H62" t="s">
-        <v>680</v>
+        <v>962</v>
       </c>
       <c r="N62">
+        <v>1</v>
+      </c>
+      <c r="T62">
         <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>625</v>
+        <v>852</v>
       </c>
       <c r="B63" t="s">
-        <v>629</v>
-      </c>
-      <c r="C63" t="s">
-        <v>48</v>
+        <v>865</v>
       </c>
       <c r="D63" t="s">
-        <v>630</v>
+        <v>866</v>
       </c>
       <c r="E63" t="s">
-        <v>631</v>
+        <v>867</v>
       </c>
       <c r="G63" t="s">
-        <v>694</v>
+        <v>941</v>
       </c>
       <c r="H63" t="s">
-        <v>681</v>
-      </c>
-      <c r="N63">
+        <v>963</v>
+      </c>
+      <c r="R63">
         <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>625</v>
+        <v>852</v>
       </c>
       <c r="B64" t="s">
-        <v>626</v>
+        <v>862</v>
       </c>
       <c r="D64" t="s">
-        <v>627</v>
+        <v>863</v>
       </c>
       <c r="E64" t="s">
-        <v>628</v>
+        <v>864</v>
       </c>
       <c r="G64" t="s">
-        <v>695</v>
+        <v>942</v>
       </c>
       <c r="H64" t="s">
-        <v>682</v>
-      </c>
-      <c r="N64">
-        <v>1</v>
-      </c>
-      <c r="Q64">
+        <v>964</v>
+      </c>
+      <c r="I64">
+        <v>1</v>
+      </c>
+      <c r="P64">
         <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>17</v>
+        <v>852</v>
       </c>
       <c r="B65" t="s">
-        <v>24</v>
-      </c>
-      <c r="C65" t="s">
-        <v>19</v>
+        <v>859</v>
       </c>
       <c r="D65" t="s">
-        <v>20</v>
+        <v>860</v>
       </c>
       <c r="E65" t="s">
-        <v>21</v>
+        <v>861</v>
       </c>
       <c r="G65" t="s">
-        <v>22</v>
+        <v>943</v>
       </c>
       <c r="H65" t="s">
-        <v>23</v>
-      </c>
-      <c r="L65">
+        <v>965</v>
+      </c>
+      <c r="M65">
+        <v>1</v>
+      </c>
+      <c r="T65">
         <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>17</v>
+        <v>852</v>
       </c>
       <c r="B66" t="s">
-        <v>25</v>
+        <v>856</v>
       </c>
       <c r="D66" t="s">
-        <v>56</v>
+        <v>857</v>
       </c>
       <c r="E66" t="s">
-        <v>78</v>
+        <v>858</v>
       </c>
       <c r="G66" t="s">
-        <v>108</v>
+        <v>944</v>
       </c>
       <c r="H66" t="s">
-        <v>129</v>
-      </c>
-      <c r="M66">
-        <v>1</v>
-      </c>
-      <c r="S66">
+        <v>966</v>
+      </c>
+      <c r="T66">
         <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>17</v>
+        <v>852</v>
       </c>
       <c r="B67" t="s">
-        <v>26</v>
+        <v>853</v>
       </c>
       <c r="D67" t="s">
-        <v>57</v>
+        <v>854</v>
       </c>
       <c r="E67" t="s">
-        <v>79</v>
+        <v>855</v>
       </c>
       <c r="G67" t="s">
-        <v>26</v>
+        <v>945</v>
       </c>
       <c r="H67" t="s">
-        <v>130</v>
-      </c>
-      <c r="N67">
-        <v>1</v>
-      </c>
-      <c r="O67">
+        <v>967</v>
+      </c>
+      <c r="T67">
         <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>17</v>
+        <v>154</v>
       </c>
       <c r="B68" t="s">
-        <v>34</v>
+        <v>849</v>
       </c>
       <c r="C68" t="s">
-        <v>48</v>
+        <v>205</v>
       </c>
       <c r="D68" t="s">
-        <v>58</v>
+        <v>850</v>
       </c>
       <c r="E68" t="s">
-        <v>80</v>
-      </c>
-      <c r="F68" t="s">
-        <v>100</v>
+        <v>851</v>
       </c>
       <c r="G68" t="s">
-        <v>34</v>
+        <v>946</v>
       </c>
       <c r="H68" t="s">
-        <v>131</v>
-      </c>
-      <c r="M68">
+        <v>968</v>
+      </c>
+      <c r="T68">
         <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>17</v>
+        <v>783</v>
       </c>
       <c r="B69" t="s">
-        <v>27</v>
+        <v>816</v>
       </c>
       <c r="D69" t="s">
-        <v>59</v>
+        <v>817</v>
       </c>
       <c r="E69" t="s">
-        <v>81</v>
+        <v>818</v>
       </c>
       <c r="G69" t="s">
-        <v>109</v>
+        <v>819</v>
       </c>
       <c r="H69" t="s">
-        <v>132</v>
-      </c>
-      <c r="K69">
+        <v>834</v>
+      </c>
+      <c r="O69">
         <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>17</v>
+        <v>783</v>
       </c>
       <c r="B70" t="s">
-        <v>28</v>
+        <v>813</v>
       </c>
       <c r="D70" t="s">
-        <v>60</v>
+        <v>814</v>
       </c>
       <c r="E70" t="s">
-        <v>82</v>
+        <v>815</v>
       </c>
       <c r="G70" t="s">
-        <v>110</v>
+        <v>820</v>
       </c>
       <c r="H70" t="s">
-        <v>133</v>
-      </c>
-      <c r="J70">
-        <v>1</v>
-      </c>
-      <c r="M70">
+        <v>835</v>
+      </c>
+      <c r="T70">
         <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>17</v>
+        <v>783</v>
       </c>
       <c r="B71" t="s">
-        <v>35</v>
-      </c>
-      <c r="C71" t="s">
-        <v>55</v>
+        <v>810</v>
       </c>
       <c r="D71" t="s">
-        <v>61</v>
+        <v>811</v>
       </c>
       <c r="E71" t="s">
-        <v>83</v>
+        <v>812</v>
       </c>
       <c r="G71" t="s">
-        <v>111</v>
+        <v>821</v>
       </c>
       <c r="H71" t="s">
-        <v>134</v>
-      </c>
-      <c r="J71">
-        <v>1</v>
-      </c>
-      <c r="L71">
+        <v>836</v>
+      </c>
+      <c r="N71">
+        <v>1</v>
+      </c>
+      <c r="P71">
         <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>17</v>
+        <v>783</v>
       </c>
       <c r="B72" t="s">
-        <v>36</v>
-      </c>
-      <c r="C72" t="s">
-        <v>54</v>
+        <v>807</v>
       </c>
       <c r="D72" t="s">
-        <v>151</v>
+        <v>808</v>
       </c>
       <c r="E72" t="s">
-        <v>83</v>
+        <v>809</v>
       </c>
       <c r="G72" t="s">
-        <v>127</v>
+        <v>822</v>
       </c>
       <c r="H72" t="s">
-        <v>152</v>
+        <v>837</v>
       </c>
       <c r="J72">
         <v>1</v>
       </c>
-      <c r="L72">
+      <c r="N72">
+        <v>1</v>
+      </c>
+      <c r="R72">
         <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>18</v>
+        <v>783</v>
       </c>
       <c r="B73" t="s">
-        <v>37</v>
+        <v>782</v>
       </c>
       <c r="C73" t="s">
-        <v>53</v>
+        <v>784</v>
       </c>
       <c r="D73" t="s">
-        <v>62</v>
+        <v>785</v>
       </c>
       <c r="E73" t="s">
-        <v>84</v>
+        <v>786</v>
       </c>
       <c r="F73" t="s">
-        <v>101</v>
+        <v>787</v>
       </c>
       <c r="G73" t="s">
-        <v>112</v>
+        <v>823</v>
       </c>
       <c r="H73" t="s">
-        <v>135</v>
-      </c>
-      <c r="T73">
+        <v>838</v>
+      </c>
+      <c r="L73">
+        <v>1</v>
+      </c>
+      <c r="S73">
         <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>18</v>
+        <v>783</v>
       </c>
       <c r="B74" t="s">
-        <v>38</v>
-      </c>
-      <c r="C74" t="s">
-        <v>52</v>
+        <v>791</v>
       </c>
       <c r="D74" t="s">
-        <v>63</v>
+        <v>792</v>
       </c>
       <c r="E74" t="s">
-        <v>85</v>
+        <v>793</v>
+      </c>
+      <c r="F74" t="s">
+        <v>794</v>
       </c>
       <c r="G74" t="s">
-        <v>113</v>
+        <v>824</v>
       </c>
       <c r="H74" t="s">
-        <v>136</v>
-      </c>
-      <c r="M74">
+        <v>839</v>
+      </c>
+      <c r="L74">
+        <v>1</v>
+      </c>
+      <c r="R74">
         <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>18</v>
+        <v>770</v>
       </c>
       <c r="B75" t="s">
-        <v>39</v>
-      </c>
-      <c r="C75" t="s">
-        <v>51</v>
+        <v>788</v>
       </c>
       <c r="D75" t="s">
-        <v>64</v>
+        <v>789</v>
       </c>
       <c r="E75" t="s">
-        <v>86</v>
+        <v>790</v>
       </c>
       <c r="G75" t="s">
-        <v>114</v>
+        <v>825</v>
       </c>
       <c r="H75" t="s">
-        <v>137</v>
-      </c>
-      <c r="M75">
-        <v>1</v>
-      </c>
-      <c r="O75">
+        <v>840</v>
+      </c>
+      <c r="N75">
         <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>18</v>
+        <v>770</v>
       </c>
       <c r="B76" t="s">
-        <v>29</v>
+        <v>795</v>
+      </c>
+      <c r="C76" t="s">
+        <v>633</v>
       </c>
       <c r="D76" t="s">
-        <v>65</v>
+        <v>796</v>
       </c>
       <c r="E76" t="s">
-        <v>87</v>
-      </c>
-      <c r="F76" t="s">
-        <v>102</v>
+        <v>797</v>
       </c>
       <c r="G76" t="s">
-        <v>115</v>
+        <v>826</v>
       </c>
       <c r="H76" t="s">
-        <v>138</v>
-      </c>
-      <c r="J76">
-        <v>1</v>
-      </c>
-      <c r="K76">
+        <v>841</v>
+      </c>
+      <c r="M76">
+        <v>1</v>
+      </c>
+      <c r="N76">
+        <v>1</v>
+      </c>
+      <c r="R76">
         <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>18</v>
+        <v>770</v>
       </c>
       <c r="B77" t="s">
-        <v>40</v>
+        <v>798</v>
       </c>
       <c r="C77" t="s">
-        <v>48</v>
+        <v>779</v>
       </c>
       <c r="D77" t="s">
-        <v>66</v>
+        <v>799</v>
       </c>
       <c r="E77" t="s">
-        <v>88</v>
-      </c>
-      <c r="F77" t="s">
-        <v>103</v>
+        <v>800</v>
       </c>
       <c r="G77" t="s">
-        <v>116</v>
+        <v>827</v>
       </c>
       <c r="H77" t="s">
-        <v>139</v>
-      </c>
-      <c r="O77">
+        <v>842</v>
+      </c>
+      <c r="K77">
         <v>1</v>
       </c>
       <c r="T77">
@@ -5904,483 +6537,475 @@
     </row>
     <row r="78" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>18</v>
+        <v>770</v>
       </c>
       <c r="B78" t="s">
-        <v>30</v>
+        <v>801</v>
+      </c>
+      <c r="C78" t="s">
+        <v>633</v>
       </c>
       <c r="D78" t="s">
-        <v>67</v>
+        <v>802</v>
       </c>
       <c r="E78" t="s">
-        <v>89</v>
+        <v>803</v>
       </c>
       <c r="G78" t="s">
-        <v>117</v>
+        <v>828</v>
       </c>
       <c r="H78" t="s">
-        <v>140</v>
-      </c>
-      <c r="K78">
-        <v>1</v>
-      </c>
-      <c r="M78">
-        <v>1</v>
-      </c>
-      <c r="T78">
+        <v>843</v>
+      </c>
+      <c r="I78">
         <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>18</v>
+        <v>770</v>
       </c>
       <c r="B79" t="s">
-        <v>41</v>
-      </c>
-      <c r="C79" t="s">
-        <v>50</v>
+        <v>804</v>
       </c>
       <c r="D79" t="s">
-        <v>68</v>
+        <v>805</v>
       </c>
       <c r="E79" t="s">
-        <v>90</v>
+        <v>806</v>
       </c>
       <c r="G79" t="s">
-        <v>118</v>
+        <v>829</v>
       </c>
       <c r="H79" t="s">
-        <v>141</v>
+        <v>844</v>
       </c>
       <c r="K79">
         <v>1</v>
       </c>
-      <c r="N79">
+      <c r="T79">
         <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>18</v>
+        <v>770</v>
       </c>
       <c r="B80" t="s">
-        <v>42</v>
+        <v>778</v>
       </c>
       <c r="C80" t="s">
-        <v>48</v>
+        <v>779</v>
       </c>
       <c r="D80" t="s">
-        <v>69</v>
+        <v>780</v>
       </c>
       <c r="E80" t="s">
-        <v>91</v>
-      </c>
-      <c r="F80" t="s">
-        <v>104</v>
+        <v>781</v>
       </c>
       <c r="G80" t="s">
-        <v>119</v>
+        <v>830</v>
       </c>
       <c r="H80" t="s">
-        <v>142</v>
+        <v>845</v>
+      </c>
+      <c r="J80">
+        <v>1</v>
+      </c>
+      <c r="N80">
+        <v>1</v>
       </c>
       <c r="R80">
-        <v>1</v>
-      </c>
-      <c r="T80">
         <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>18</v>
+        <v>698</v>
       </c>
       <c r="B81" t="s">
-        <v>31</v>
+        <v>774</v>
       </c>
       <c r="D81" t="s">
-        <v>70</v>
+        <v>775</v>
       </c>
       <c r="E81" t="s">
-        <v>92</v>
+        <v>776</v>
+      </c>
+      <c r="F81" t="s">
+        <v>777</v>
       </c>
       <c r="G81" t="s">
-        <v>120</v>
+        <v>831</v>
       </c>
       <c r="H81" t="s">
-        <v>143</v>
-      </c>
-      <c r="I81">
+        <v>846</v>
+      </c>
+      <c r="J81">
         <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>18</v>
+        <v>698</v>
       </c>
       <c r="B82" t="s">
-        <v>43</v>
-      </c>
-      <c r="C82" t="s">
-        <v>48</v>
+        <v>771</v>
       </c>
       <c r="D82" t="s">
-        <v>71</v>
+        <v>772</v>
       </c>
       <c r="E82" t="s">
-        <v>93</v>
-      </c>
-      <c r="F82" t="s">
-        <v>105</v>
+        <v>773</v>
       </c>
       <c r="G82" t="s">
-        <v>121</v>
+        <v>832</v>
       </c>
       <c r="H82" t="s">
-        <v>144</v>
-      </c>
-      <c r="O82">
-        <v>1</v>
-      </c>
-      <c r="P82">
+        <v>847</v>
+      </c>
+      <c r="K82">
         <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>18</v>
+        <v>154</v>
       </c>
       <c r="B83" t="s">
-        <v>32</v>
+        <v>766</v>
+      </c>
+      <c r="C83" t="s">
+        <v>209</v>
       </c>
       <c r="D83" t="s">
-        <v>72</v>
+        <v>767</v>
       </c>
       <c r="E83" t="s">
-        <v>94</v>
+        <v>768</v>
       </c>
       <c r="F83" t="s">
-        <v>106</v>
+        <v>769</v>
       </c>
       <c r="G83" t="s">
-        <v>122</v>
+        <v>833</v>
       </c>
       <c r="H83" t="s">
-        <v>145</v>
-      </c>
-      <c r="N83">
-        <v>1</v>
-      </c>
-      <c r="O83">
+        <v>848</v>
+      </c>
+      <c r="K83">
+        <v>1</v>
+      </c>
+      <c r="Q83">
+        <f>+L80</f>
+        <v>0</v>
+      </c>
+      <c r="T83">
         <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>18</v>
+        <v>698</v>
       </c>
       <c r="B84" t="s">
-        <v>44</v>
-      </c>
-      <c r="C84" t="s">
-        <v>48</v>
+        <v>736</v>
       </c>
       <c r="D84" t="s">
-        <v>73</v>
+        <v>737</v>
       </c>
       <c r="E84" t="s">
-        <v>95</v>
-      </c>
-      <c r="F84" t="s">
-        <v>107</v>
+        <v>738</v>
       </c>
       <c r="G84" t="s">
-        <v>123</v>
+        <v>740</v>
       </c>
       <c r="H84" t="s">
-        <v>146</v>
-      </c>
-      <c r="N84">
-        <v>1</v>
-      </c>
-      <c r="O84">
+        <v>753</v>
+      </c>
+      <c r="R84">
         <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>18</v>
+        <v>698</v>
       </c>
       <c r="B85" t="s">
-        <v>45</v>
-      </c>
-      <c r="C85" t="s">
-        <v>49</v>
+        <v>733</v>
       </c>
       <c r="D85" t="s">
-        <v>74</v>
+        <v>734</v>
       </c>
       <c r="E85" t="s">
-        <v>96</v>
+        <v>735</v>
       </c>
       <c r="G85" t="s">
-        <v>124</v>
+        <v>741</v>
       </c>
       <c r="H85" t="s">
-        <v>147</v>
-      </c>
-      <c r="T85">
+        <v>754</v>
+      </c>
+      <c r="J85">
+        <v>1</v>
+      </c>
+      <c r="M85">
+        <v>1</v>
+      </c>
+      <c r="S85">
         <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>18</v>
+        <v>698</v>
       </c>
       <c r="B86" t="s">
-        <v>46</v>
-      </c>
-      <c r="C86" t="s">
-        <v>48</v>
+        <v>730</v>
       </c>
       <c r="D86" t="s">
-        <v>75</v>
+        <v>731</v>
       </c>
       <c r="E86" t="s">
-        <v>97</v>
+        <v>732</v>
       </c>
       <c r="G86" t="s">
-        <v>125</v>
+        <v>742</v>
       </c>
       <c r="H86" t="s">
-        <v>148</v>
-      </c>
-      <c r="J86">
+        <v>755</v>
+      </c>
+      <c r="K86">
         <v>1</v>
       </c>
       <c r="L86">
+        <v>1</v>
+      </c>
+      <c r="M86">
         <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>18</v>
+        <v>698</v>
       </c>
       <c r="B87" t="s">
-        <v>47</v>
+        <v>727</v>
       </c>
       <c r="C87" t="s">
-        <v>290</v>
+        <v>48</v>
       </c>
       <c r="D87" t="s">
-        <v>76</v>
+        <v>728</v>
       </c>
       <c r="E87" t="s">
-        <v>98</v>
+        <v>729</v>
+      </c>
+      <c r="F87" t="s">
+        <v>729</v>
       </c>
       <c r="G87" t="s">
-        <v>126</v>
+        <v>743</v>
       </c>
       <c r="H87" t="s">
-        <v>149</v>
+        <v>756</v>
       </c>
       <c r="J87">
         <v>1</v>
       </c>
-      <c r="N87">
-        <v>1</v>
-      </c>
-      <c r="P87">
+      <c r="M87">
         <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>18</v>
+        <v>698</v>
       </c>
       <c r="B88" t="s">
-        <v>33</v>
+        <v>724</v>
       </c>
       <c r="D88" t="s">
-        <v>77</v>
+        <v>725</v>
       </c>
       <c r="E88" t="s">
-        <v>99</v>
+        <v>726</v>
       </c>
       <c r="G88" t="s">
-        <v>128</v>
+        <v>744</v>
       </c>
       <c r="H88" t="s">
-        <v>150</v>
-      </c>
-      <c r="T88">
+        <v>757</v>
+      </c>
+      <c r="O88">
         <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>154</v>
+        <v>668</v>
       </c>
       <c r="B89" t="s">
-        <v>155</v>
-      </c>
-      <c r="C89" t="s">
-        <v>157</v>
+        <v>721</v>
       </c>
       <c r="D89" t="s">
-        <v>259</v>
+        <v>722</v>
       </c>
       <c r="E89" t="s">
-        <v>158</v>
-      </c>
-      <c r="F89" t="s">
-        <v>159</v>
+        <v>723</v>
       </c>
       <c r="G89" t="s">
-        <v>160</v>
+        <v>745</v>
       </c>
       <c r="H89" t="s">
-        <v>161</v>
-      </c>
-      <c r="T89">
+        <v>758</v>
+      </c>
+      <c r="J89">
+        <v>1</v>
+      </c>
+      <c r="N89">
         <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>154</v>
+        <v>668</v>
       </c>
       <c r="B90" t="s">
-        <v>156</v>
+        <v>716</v>
       </c>
       <c r="C90" t="s">
-        <v>357</v>
+        <v>717</v>
       </c>
       <c r="D90" t="s">
-        <v>162</v>
+        <v>718</v>
       </c>
       <c r="E90" t="s">
-        <v>163</v>
+        <v>719</v>
       </c>
       <c r="F90" t="s">
-        <v>164</v>
+        <v>720</v>
       </c>
       <c r="G90" t="s">
-        <v>166</v>
+        <v>746</v>
       </c>
       <c r="H90" t="s">
-        <v>165</v>
-      </c>
-      <c r="J90">
-        <v>1</v>
-      </c>
-      <c r="K90">
+        <v>759</v>
+      </c>
+      <c r="Q90">
+        <v>1</v>
+      </c>
+      <c r="R90">
         <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>154</v>
+        <v>668</v>
       </c>
       <c r="B91" t="s">
-        <v>167</v>
+        <v>713</v>
       </c>
       <c r="C91" t="s">
-        <v>168</v>
+        <v>48</v>
       </c>
       <c r="D91" t="s">
-        <v>169</v>
+        <v>714</v>
       </c>
       <c r="E91" t="s">
-        <v>172</v>
-      </c>
-      <c r="F91" t="s">
-        <v>173</v>
+        <v>715</v>
       </c>
       <c r="G91" t="s">
-        <v>171</v>
+        <v>747</v>
       </c>
       <c r="H91" t="s">
-        <v>170</v>
-      </c>
-      <c r="K91">
+        <v>760</v>
+      </c>
+      <c r="R91">
         <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>154</v>
+        <v>668</v>
       </c>
       <c r="B92" t="s">
-        <v>174</v>
+        <v>710</v>
+      </c>
+      <c r="C92" t="s">
+        <v>48</v>
       </c>
       <c r="D92" t="s">
-        <v>175</v>
+        <v>711</v>
       </c>
       <c r="E92" t="s">
-        <v>176</v>
+        <v>712</v>
       </c>
       <c r="G92" t="s">
-        <v>474</v>
+        <v>748</v>
       </c>
       <c r="H92" t="s">
-        <v>549</v>
-      </c>
-      <c r="K92">
+        <v>761</v>
+      </c>
+      <c r="L92">
+        <v>1</v>
+      </c>
+      <c r="N92">
+        <v>1</v>
+      </c>
+      <c r="Q92">
+        <v>1</v>
+      </c>
+      <c r="R92">
         <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>154</v>
+        <v>668</v>
       </c>
       <c r="B93" t="s">
-        <v>177</v>
+        <v>706</v>
       </c>
       <c r="C93" t="s">
-        <v>178</v>
+        <v>633</v>
       </c>
       <c r="D93" t="s">
-        <v>179</v>
+        <v>707</v>
       </c>
       <c r="E93" t="s">
-        <v>180</v>
+        <v>708</v>
       </c>
       <c r="F93" t="s">
-        <v>181</v>
+        <v>709</v>
       </c>
       <c r="G93" t="s">
-        <v>475</v>
+        <v>749</v>
       </c>
       <c r="H93" t="s">
-        <v>550</v>
-      </c>
-      <c r="K93">
+        <v>762</v>
+      </c>
+      <c r="O93">
         <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>154</v>
+        <v>668</v>
       </c>
       <c r="B94" t="s">
-        <v>182</v>
-      </c>
-      <c r="C94" t="s">
-        <v>185</v>
+        <v>703</v>
       </c>
       <c r="D94" t="s">
-        <v>183</v>
+        <v>704</v>
       </c>
       <c r="E94" t="s">
-        <v>184</v>
+        <v>705</v>
       </c>
       <c r="G94" t="s">
-        <v>476</v>
+        <v>750</v>
       </c>
       <c r="H94" t="s">
-        <v>551</v>
+        <v>763</v>
       </c>
       <c r="K94">
         <v>1</v>
@@ -6388,141 +7013,129 @@
     </row>
     <row r="95" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>154</v>
+        <v>668</v>
       </c>
       <c r="B95" t="s">
-        <v>186</v>
-      </c>
-      <c r="C95" t="s">
-        <v>185</v>
+        <v>701</v>
       </c>
       <c r="D95" t="s">
-        <v>187</v>
+        <v>739</v>
       </c>
       <c r="E95" t="s">
-        <v>188</v>
-      </c>
-      <c r="F95" t="s">
-        <v>189</v>
+        <v>702</v>
       </c>
       <c r="G95" t="s">
-        <v>477</v>
+        <v>751</v>
       </c>
       <c r="H95" t="s">
-        <v>552</v>
-      </c>
-      <c r="K95">
+        <v>764</v>
+      </c>
+      <c r="M95">
         <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>154</v>
+        <v>668</v>
       </c>
       <c r="B96" t="s">
-        <v>190</v>
-      </c>
-      <c r="C96" t="s">
-        <v>191</v>
+        <v>697</v>
       </c>
       <c r="D96" t="s">
-        <v>192</v>
+        <v>699</v>
       </c>
       <c r="E96" t="s">
-        <v>193</v>
-      </c>
-      <c r="F96" t="s">
-        <v>194</v>
+        <v>700</v>
       </c>
       <c r="G96" t="s">
-        <v>478</v>
+        <v>752</v>
       </c>
       <c r="H96" t="s">
-        <v>553</v>
-      </c>
-      <c r="K96">
+        <v>765</v>
+      </c>
+      <c r="I96">
+        <v>1</v>
+      </c>
+      <c r="Q96">
         <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>154</v>
+        <v>668</v>
       </c>
       <c r="B97" t="s">
-        <v>195</v>
-      </c>
-      <c r="C97" t="s">
-        <v>196</v>
+        <v>664</v>
       </c>
       <c r="D97" t="s">
-        <v>197</v>
+        <v>665</v>
       </c>
       <c r="E97" t="s">
-        <v>198</v>
+        <v>666</v>
+      </c>
+      <c r="F97" t="s">
+        <v>667</v>
       </c>
       <c r="G97" t="s">
-        <v>479</v>
+        <v>683</v>
       </c>
       <c r="H97" t="s">
-        <v>554</v>
-      </c>
-      <c r="K97">
+        <v>670</v>
+      </c>
+      <c r="M97">
         <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>154</v>
+        <v>668</v>
       </c>
       <c r="B98" t="s">
-        <v>199</v>
-      </c>
-      <c r="C98" t="s">
-        <v>358</v>
+        <v>660</v>
       </c>
       <c r="D98" t="s">
-        <v>200</v>
+        <v>661</v>
       </c>
       <c r="E98" t="s">
-        <v>201</v>
+        <v>662</v>
       </c>
       <c r="F98" t="s">
-        <v>202</v>
+        <v>663</v>
       </c>
       <c r="G98" t="s">
-        <v>480</v>
+        <v>684</v>
       </c>
       <c r="H98" t="s">
-        <v>555</v>
-      </c>
-      <c r="K98">
+        <v>671</v>
+      </c>
+      <c r="J98">
         <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>154</v>
+        <v>668</v>
       </c>
       <c r="B99" t="s">
-        <v>203</v>
+        <v>657</v>
       </c>
       <c r="C99" t="s">
-        <v>205</v>
+        <v>48</v>
       </c>
       <c r="D99" t="s">
-        <v>206</v>
+        <v>658</v>
       </c>
       <c r="E99" t="s">
-        <v>207</v>
-      </c>
-      <c r="F99" t="s">
-        <v>204</v>
+        <v>659</v>
       </c>
       <c r="G99" t="s">
-        <v>481</v>
+        <v>685</v>
       </c>
       <c r="H99" t="s">
-        <v>556</v>
+        <v>672</v>
+      </c>
+      <c r="I99">
+        <v>1</v>
       </c>
       <c r="K99">
         <v>1</v>
@@ -6530,95 +7143,77 @@
     </row>
     <row r="100" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>154</v>
+        <v>625</v>
       </c>
       <c r="B100" t="s">
-        <v>208</v>
+        <v>654</v>
       </c>
       <c r="C100" t="s">
-        <v>209</v>
+        <v>633</v>
       </c>
       <c r="D100" t="s">
-        <v>210</v>
+        <v>655</v>
       </c>
       <c r="E100" t="s">
-        <v>211</v>
-      </c>
-      <c r="F100" t="s">
-        <v>212</v>
+        <v>656</v>
       </c>
       <c r="G100" t="s">
-        <v>482</v>
+        <v>686</v>
       </c>
       <c r="H100" t="s">
-        <v>557</v>
-      </c>
-      <c r="K100">
+        <v>673</v>
+      </c>
+      <c r="R100">
         <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>154</v>
+        <v>625</v>
       </c>
       <c r="B101" t="s">
-        <v>213</v>
+        <v>651</v>
       </c>
       <c r="C101" t="s">
-        <v>168</v>
+        <v>652</v>
       </c>
       <c r="D101" t="s">
-        <v>214</v>
+        <v>669</v>
       </c>
       <c r="E101" t="s">
-        <v>215</v>
+        <v>653</v>
       </c>
       <c r="G101" t="s">
-        <v>483</v>
+        <v>687</v>
       </c>
       <c r="H101" t="s">
-        <v>558</v>
-      </c>
-      <c r="I101">
-        <v>1</v>
-      </c>
-      <c r="O101">
-        <v>1</v>
-      </c>
-      <c r="T101">
+        <v>674</v>
+      </c>
+      <c r="K101">
+        <v>1</v>
+      </c>
+      <c r="N101">
         <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>154</v>
+        <v>625</v>
       </c>
       <c r="B102" t="s">
-        <v>216</v>
-      </c>
-      <c r="C102" t="s">
-        <v>205</v>
+        <v>648</v>
       </c>
       <c r="D102" t="s">
-        <v>217</v>
+        <v>649</v>
       </c>
       <c r="E102" t="s">
-        <v>218</v>
-      </c>
-      <c r="F102" t="s">
-        <v>219</v>
+        <v>650</v>
       </c>
       <c r="G102" t="s">
-        <v>484</v>
+        <v>688</v>
       </c>
       <c r="H102" t="s">
-        <v>559</v>
-      </c>
-      <c r="I102">
-        <v>1</v>
-      </c>
-      <c r="O102">
-        <v>1</v>
+        <v>675</v>
       </c>
       <c r="T102">
         <v>1</v>
@@ -6626,60 +7221,51 @@
     </row>
     <row r="103" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>154</v>
+        <v>625</v>
       </c>
       <c r="B103" t="s">
-        <v>220</v>
+        <v>644</v>
       </c>
       <c r="C103" t="s">
-        <v>185</v>
+        <v>48</v>
       </c>
       <c r="D103" t="s">
-        <v>221</v>
+        <v>647</v>
       </c>
       <c r="E103" t="s">
-        <v>222</v>
+        <v>646</v>
+      </c>
+      <c r="F103" t="s">
+        <v>645</v>
       </c>
       <c r="G103" t="s">
-        <v>485</v>
+        <v>689</v>
       </c>
       <c r="H103" t="s">
-        <v>560</v>
+        <v>676</v>
       </c>
       <c r="O103">
-        <v>1</v>
-      </c>
-      <c r="T103">
         <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>154</v>
+        <v>625</v>
       </c>
       <c r="B104" t="s">
-        <v>223</v>
-      </c>
-      <c r="C104" t="s">
-        <v>168</v>
+        <v>641</v>
       </c>
       <c r="D104" t="s">
-        <v>224</v>
+        <v>642</v>
       </c>
       <c r="E104" t="s">
-        <v>225</v>
-      </c>
-      <c r="F104" t="s">
-        <v>226</v>
+        <v>643</v>
       </c>
       <c r="G104" t="s">
-        <v>486</v>
+        <v>690</v>
       </c>
       <c r="H104" t="s">
-        <v>561</v>
-      </c>
-      <c r="L104">
-        <v>1</v>
+        <v>677</v>
       </c>
       <c r="T104">
         <v>1</v>
@@ -6687,1176 +7273,1113 @@
     </row>
     <row r="105" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>154</v>
+        <v>625</v>
       </c>
       <c r="B105" t="s">
-        <v>227</v>
-      </c>
-      <c r="C105" t="s">
-        <v>168</v>
+        <v>639</v>
       </c>
       <c r="D105" t="s">
-        <v>228</v>
+        <v>640</v>
       </c>
       <c r="E105" t="s">
-        <v>229</v>
-      </c>
-      <c r="F105" t="s">
-        <v>230</v>
+        <v>696</v>
       </c>
       <c r="G105" t="s">
-        <v>487</v>
+        <v>691</v>
       </c>
       <c r="H105" t="s">
-        <v>562</v>
-      </c>
-      <c r="L105">
-        <v>1</v>
-      </c>
-      <c r="O105">
-        <v>1</v>
-      </c>
-      <c r="R105">
-        <v>1</v>
-      </c>
-      <c r="T105">
+        <v>678</v>
+      </c>
+      <c r="K105">
+        <v>1</v>
+      </c>
+      <c r="M105">
         <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>154</v>
+        <v>625</v>
       </c>
       <c r="B106" t="s">
-        <v>231</v>
-      </c>
-      <c r="C106" t="s">
-        <v>185</v>
+        <v>636</v>
       </c>
       <c r="D106" t="s">
-        <v>232</v>
+        <v>637</v>
       </c>
       <c r="E106" t="s">
-        <v>233</v>
-      </c>
-      <c r="F106" t="s">
-        <v>234</v>
+        <v>638</v>
       </c>
       <c r="G106" t="s">
-        <v>488</v>
+        <v>692</v>
       </c>
       <c r="H106" t="s">
-        <v>563</v>
-      </c>
-      <c r="L106">
-        <v>1</v>
-      </c>
-      <c r="N106">
+        <v>679</v>
+      </c>
+      <c r="T106">
         <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>154</v>
+        <v>625</v>
       </c>
       <c r="B107" t="s">
-        <v>235</v>
+        <v>632</v>
       </c>
       <c r="C107" t="s">
-        <v>168</v>
+        <v>633</v>
       </c>
       <c r="D107" t="s">
-        <v>236</v>
+        <v>634</v>
       </c>
       <c r="E107" t="s">
-        <v>237</v>
+        <v>635</v>
       </c>
       <c r="G107" t="s">
-        <v>489</v>
+        <v>693</v>
       </c>
       <c r="H107" t="s">
-        <v>564</v>
-      </c>
-      <c r="R107">
-        <v>1</v>
-      </c>
-      <c r="T107">
+        <v>680</v>
+      </c>
+      <c r="N107">
         <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>154</v>
+        <v>625</v>
       </c>
       <c r="B108" t="s">
-        <v>238</v>
+        <v>629</v>
       </c>
       <c r="C108" t="s">
-        <v>185</v>
+        <v>48</v>
       </c>
       <c r="D108" t="s">
-        <v>239</v>
+        <v>630</v>
       </c>
       <c r="E108" t="s">
-        <v>240</v>
-      </c>
-      <c r="F108" t="s">
-        <v>241</v>
+        <v>631</v>
       </c>
       <c r="G108" t="s">
-        <v>490</v>
+        <v>694</v>
       </c>
       <c r="H108" t="s">
-        <v>565</v>
+        <v>681</v>
       </c>
       <c r="N108">
-        <v>1</v>
-      </c>
-      <c r="O108">
         <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>154</v>
+        <v>625</v>
       </c>
       <c r="B109" t="s">
-        <v>242</v>
-      </c>
-      <c r="C109" t="s">
-        <v>243</v>
+        <v>626</v>
       </c>
       <c r="D109" t="s">
-        <v>244</v>
+        <v>627</v>
       </c>
       <c r="E109" t="s">
-        <v>245</v>
+        <v>628</v>
       </c>
       <c r="G109" t="s">
-        <v>491</v>
+        <v>695</v>
       </c>
       <c r="H109" t="s">
-        <v>566</v>
-      </c>
-      <c r="M109">
+        <v>682</v>
+      </c>
+      <c r="N109">
+        <v>1</v>
+      </c>
+      <c r="Q109">
         <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>154</v>
+        <v>17</v>
       </c>
       <c r="B110" t="s">
-        <v>246</v>
+        <v>24</v>
       </c>
       <c r="C110" t="s">
-        <v>185</v>
+        <v>19</v>
       </c>
       <c r="D110" t="s">
-        <v>247</v>
+        <v>20</v>
       </c>
       <c r="E110" t="s">
-        <v>248</v>
-      </c>
-      <c r="F110" t="s">
-        <v>249</v>
+        <v>21</v>
       </c>
       <c r="G110" t="s">
-        <v>492</v>
+        <v>22</v>
       </c>
       <c r="H110" t="s">
-        <v>567</v>
-      </c>
-      <c r="R110">
-        <v>1</v>
-      </c>
-      <c r="T110">
+        <v>23</v>
+      </c>
+      <c r="L110">
         <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>154</v>
+        <v>17</v>
       </c>
       <c r="B111" t="s">
-        <v>250</v>
-      </c>
-      <c r="C111" t="s">
-        <v>251</v>
+        <v>25</v>
       </c>
       <c r="D111" t="s">
-        <v>252</v>
+        <v>56</v>
       </c>
       <c r="E111" t="s">
-        <v>253</v>
-      </c>
-      <c r="F111" t="s">
-        <v>254</v>
+        <v>78</v>
       </c>
       <c r="G111" t="s">
-        <v>493</v>
+        <v>108</v>
       </c>
       <c r="H111" t="s">
-        <v>568</v>
-      </c>
-      <c r="O111">
-        <v>1</v>
-      </c>
-      <c r="R111">
+        <v>129</v>
+      </c>
+      <c r="M111">
+        <v>1</v>
+      </c>
+      <c r="S111">
         <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>154</v>
+        <v>17</v>
       </c>
       <c r="B112" t="s">
-        <v>255</v>
-      </c>
-      <c r="C112" t="s">
-        <v>168</v>
+        <v>26</v>
       </c>
       <c r="D112" t="s">
-        <v>260</v>
+        <v>57</v>
       </c>
       <c r="E112" t="s">
-        <v>256</v>
-      </c>
-      <c r="F112" t="s">
-        <v>257</v>
+        <v>79</v>
       </c>
       <c r="G112" t="s">
-        <v>494</v>
+        <v>26</v>
       </c>
       <c r="H112" t="s">
-        <v>569</v>
-      </c>
-      <c r="Q112">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113" spans="1:18" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+      <c r="N112">
+        <v>1</v>
+      </c>
+      <c r="O112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>154</v>
+        <v>17</v>
       </c>
       <c r="B113" t="s">
-        <v>262</v>
+        <v>34</v>
       </c>
       <c r="C113" t="s">
-        <v>168</v>
+        <v>48</v>
       </c>
       <c r="D113" t="s">
-        <v>263</v>
+        <v>58</v>
       </c>
       <c r="E113" t="s">
-        <v>264</v>
+        <v>80</v>
       </c>
       <c r="F113" t="s">
-        <v>265</v>
+        <v>100</v>
       </c>
       <c r="G113" t="s">
-        <v>495</v>
+        <v>34</v>
       </c>
       <c r="H113" t="s">
-        <v>570</v>
-      </c>
-      <c r="L113">
-        <v>1</v>
-      </c>
-      <c r="R113">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="114" spans="1:18" x14ac:dyDescent="0.2">
+        <v>131</v>
+      </c>
+      <c r="M113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>154</v>
+        <v>17</v>
       </c>
       <c r="B114" t="s">
-        <v>266</v>
-      </c>
-      <c r="C114" t="s">
-        <v>209</v>
+        <v>27</v>
       </c>
       <c r="D114" t="s">
-        <v>267</v>
+        <v>59</v>
       </c>
       <c r="E114" t="s">
-        <v>268</v>
+        <v>81</v>
       </c>
       <c r="G114" t="s">
-        <v>496</v>
+        <v>109</v>
       </c>
       <c r="H114" t="s">
-        <v>571</v>
-      </c>
-      <c r="Q114">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115" spans="1:18" x14ac:dyDescent="0.2">
+        <v>132</v>
+      </c>
+      <c r="K114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>154</v>
+        <v>17</v>
       </c>
       <c r="B115" t="s">
-        <v>269</v>
-      </c>
-      <c r="C115" t="s">
-        <v>185</v>
+        <v>28</v>
       </c>
       <c r="D115" t="s">
-        <v>270</v>
+        <v>60</v>
       </c>
       <c r="E115" t="s">
-        <v>271</v>
-      </c>
-      <c r="F115" t="s">
-        <v>272</v>
+        <v>82</v>
       </c>
       <c r="G115" t="s">
-        <v>497</v>
+        <v>110</v>
       </c>
       <c r="H115" t="s">
-        <v>572</v>
-      </c>
-      <c r="L115">
-        <v>1</v>
-      </c>
-      <c r="Q115">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116" spans="1:18" x14ac:dyDescent="0.2">
+        <v>133</v>
+      </c>
+      <c r="J115">
+        <v>1</v>
+      </c>
+      <c r="M115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>154</v>
+        <v>17</v>
       </c>
       <c r="B116" t="s">
-        <v>273</v>
+        <v>35</v>
       </c>
       <c r="C116" t="s">
-        <v>357</v>
+        <v>55</v>
       </c>
       <c r="D116" t="s">
-        <v>275</v>
+        <v>61</v>
       </c>
       <c r="E116" t="s">
-        <v>359</v>
-      </c>
-      <c r="F116" t="s">
-        <v>274</v>
+        <v>83</v>
       </c>
       <c r="G116" t="s">
-        <v>498</v>
+        <v>111</v>
       </c>
       <c r="H116" t="s">
-        <v>573</v>
-      </c>
-      <c r="M116">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117" spans="1:18" x14ac:dyDescent="0.2">
+        <v>134</v>
+      </c>
+      <c r="J116">
+        <v>1</v>
+      </c>
+      <c r="L116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>154</v>
+        <v>17</v>
       </c>
       <c r="B117" t="s">
-        <v>276</v>
+        <v>36</v>
       </c>
       <c r="C117" t="s">
-        <v>191</v>
+        <v>54</v>
       </c>
       <c r="D117" t="s">
-        <v>277</v>
+        <v>151</v>
       </c>
       <c r="E117" t="s">
-        <v>278</v>
-      </c>
-      <c r="F117" t="s">
-        <v>279</v>
+        <v>83</v>
       </c>
       <c r="G117" t="s">
-        <v>499</v>
+        <v>127</v>
       </c>
       <c r="H117" t="s">
-        <v>574</v>
-      </c>
-      <c r="M117">
-        <v>1</v>
-      </c>
-      <c r="N117">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118" spans="1:18" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+      <c r="J117">
+        <v>1</v>
+      </c>
+      <c r="L117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>154</v>
+        <v>18</v>
       </c>
       <c r="B118" t="s">
-        <v>280</v>
+        <v>37</v>
       </c>
       <c r="C118" t="s">
-        <v>168</v>
+        <v>53</v>
       </c>
       <c r="D118" t="s">
-        <v>281</v>
+        <v>62</v>
       </c>
       <c r="E118" t="s">
-        <v>282</v>
+        <v>84</v>
       </c>
       <c r="F118" t="s">
-        <v>283</v>
+        <v>101</v>
       </c>
       <c r="G118" t="s">
-        <v>500</v>
+        <v>112</v>
       </c>
       <c r="H118" t="s">
-        <v>575</v>
-      </c>
-      <c r="M118">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119" spans="1:18" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="T118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>154</v>
+        <v>18</v>
       </c>
       <c r="B119" t="s">
-        <v>284</v>
+        <v>38</v>
       </c>
       <c r="C119" t="s">
-        <v>168</v>
+        <v>52</v>
       </c>
       <c r="D119" t="s">
-        <v>285</v>
+        <v>63</v>
       </c>
       <c r="E119" t="s">
-        <v>287</v>
-      </c>
-      <c r="F119" t="s">
-        <v>286</v>
+        <v>85</v>
       </c>
       <c r="G119" t="s">
-        <v>501</v>
+        <v>113</v>
       </c>
       <c r="H119" t="s">
-        <v>576</v>
+        <v>136</v>
       </c>
       <c r="M119">
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>154</v>
+        <v>18</v>
       </c>
       <c r="B120" t="s">
-        <v>288</v>
+        <v>39</v>
       </c>
       <c r="C120" t="s">
-        <v>289</v>
+        <v>51</v>
       </c>
       <c r="D120" t="s">
-        <v>291</v>
+        <v>64</v>
       </c>
       <c r="E120" t="s">
-        <v>292</v>
-      </c>
-      <c r="F120" t="s">
-        <v>293</v>
+        <v>86</v>
       </c>
       <c r="G120" t="s">
-        <v>502</v>
+        <v>114</v>
       </c>
       <c r="H120" t="s">
-        <v>577</v>
+        <v>137</v>
       </c>
       <c r="M120">
         <v>1</v>
       </c>
-    </row>
-    <row r="121" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="O120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>154</v>
+        <v>18</v>
       </c>
       <c r="B121" t="s">
-        <v>294</v>
+        <v>29</v>
       </c>
       <c r="D121" t="s">
-        <v>295</v>
+        <v>65</v>
       </c>
       <c r="E121" t="s">
-        <v>296</v>
+        <v>87</v>
+      </c>
+      <c r="F121" t="s">
+        <v>102</v>
       </c>
       <c r="G121" t="s">
-        <v>503</v>
+        <v>115</v>
       </c>
       <c r="H121" t="s">
-        <v>578</v>
-      </c>
-      <c r="M121">
-        <v>1</v>
-      </c>
-      <c r="R121">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122" spans="1:18" x14ac:dyDescent="0.2">
+        <v>138</v>
+      </c>
+      <c r="J121">
+        <v>1</v>
+      </c>
+      <c r="K121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>154</v>
+        <v>18</v>
       </c>
       <c r="B122" t="s">
-        <v>297</v>
+        <v>40</v>
       </c>
       <c r="C122" t="s">
-        <v>298</v>
+        <v>48</v>
       </c>
       <c r="D122" t="s">
-        <v>299</v>
+        <v>66</v>
       </c>
       <c r="E122" t="s">
-        <v>300</v>
+        <v>88</v>
       </c>
       <c r="F122" t="s">
-        <v>301</v>
+        <v>103</v>
       </c>
       <c r="G122" t="s">
-        <v>504</v>
+        <v>116</v>
       </c>
       <c r="H122" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="123" spans="1:18" x14ac:dyDescent="0.2">
+        <v>139</v>
+      </c>
+      <c r="O122">
+        <v>1</v>
+      </c>
+      <c r="T122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>154</v>
+        <v>18</v>
       </c>
       <c r="B123" t="s">
-        <v>302</v>
-      </c>
-      <c r="C123" t="s">
-        <v>168</v>
+        <v>30</v>
       </c>
       <c r="D123" t="s">
-        <v>303</v>
+        <v>67</v>
       </c>
       <c r="E123" t="s">
-        <v>304</v>
-      </c>
-      <c r="F123" t="s">
-        <v>305</v>
+        <v>89</v>
       </c>
       <c r="G123" t="s">
-        <v>505</v>
+        <v>117</v>
       </c>
       <c r="H123" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="124" spans="1:18" x14ac:dyDescent="0.2">
+        <v>140</v>
+      </c>
+      <c r="K123">
+        <v>1</v>
+      </c>
+      <c r="M123">
+        <v>1</v>
+      </c>
+      <c r="T123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>154</v>
+        <v>18</v>
       </c>
       <c r="B124" t="s">
-        <v>306</v>
+        <v>41</v>
+      </c>
+      <c r="C124" t="s">
+        <v>50</v>
       </c>
       <c r="D124" t="s">
-        <v>307</v>
+        <v>68</v>
       </c>
       <c r="E124" t="s">
-        <v>308</v>
+        <v>90</v>
       </c>
       <c r="G124" t="s">
-        <v>506</v>
+        <v>118</v>
       </c>
       <c r="H124" t="s">
-        <v>581</v>
-      </c>
-      <c r="J124">
-        <v>1</v>
-      </c>
-      <c r="M124">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125" spans="1:18" x14ac:dyDescent="0.2">
+        <v>141</v>
+      </c>
+      <c r="K124">
+        <v>1</v>
+      </c>
+      <c r="N124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>154</v>
+        <v>18</v>
       </c>
       <c r="B125" t="s">
-        <v>309</v>
+        <v>42</v>
+      </c>
+      <c r="C125" t="s">
+        <v>48</v>
       </c>
       <c r="D125" t="s">
-        <v>310</v>
+        <v>69</v>
       </c>
       <c r="E125" t="s">
-        <v>311</v>
+        <v>91</v>
+      </c>
+      <c r="F125" t="s">
+        <v>104</v>
       </c>
       <c r="G125" t="s">
-        <v>507</v>
+        <v>119</v>
       </c>
       <c r="H125" t="s">
-        <v>582</v>
-      </c>
-      <c r="M125">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126" spans="1:18" x14ac:dyDescent="0.2">
+        <v>142</v>
+      </c>
+      <c r="R125">
+        <v>1</v>
+      </c>
+      <c r="T125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>154</v>
+        <v>18</v>
       </c>
       <c r="B126" t="s">
-        <v>312</v>
-      </c>
-      <c r="C126" t="s">
-        <v>185</v>
+        <v>31</v>
       </c>
       <c r="D126" t="s">
-        <v>471</v>
+        <v>70</v>
       </c>
       <c r="E126" t="s">
-        <v>313</v>
-      </c>
-      <c r="F126" t="s">
-        <v>314</v>
+        <v>92</v>
       </c>
       <c r="G126" t="s">
-        <v>508</v>
+        <v>120</v>
       </c>
       <c r="H126" t="s">
-        <v>583</v>
-      </c>
-      <c r="M126">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127" spans="1:18" x14ac:dyDescent="0.2">
+        <v>143</v>
+      </c>
+      <c r="I126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>154</v>
+        <v>18</v>
       </c>
       <c r="B127" t="s">
-        <v>315</v>
+        <v>43</v>
       </c>
       <c r="C127" t="s">
-        <v>185</v>
+        <v>48</v>
       </c>
       <c r="D127" t="s">
-        <v>316</v>
+        <v>71</v>
       </c>
       <c r="E127" t="s">
-        <v>317</v>
+        <v>93</v>
       </c>
       <c r="F127" t="s">
-        <v>318</v>
+        <v>105</v>
       </c>
       <c r="G127" t="s">
-        <v>509</v>
+        <v>121</v>
       </c>
       <c r="H127" t="s">
-        <v>584</v>
-      </c>
-      <c r="M127">
-        <v>1</v>
-      </c>
-      <c r="N127">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128" spans="1:18" x14ac:dyDescent="0.2">
+        <v>144</v>
+      </c>
+      <c r="O127">
+        <v>1</v>
+      </c>
+      <c r="P127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>154</v>
+        <v>18</v>
       </c>
       <c r="B128" t="s">
-        <v>319</v>
-      </c>
-      <c r="C128" t="s">
-        <v>168</v>
+        <v>32</v>
       </c>
       <c r="D128" t="s">
-        <v>320</v>
+        <v>72</v>
       </c>
       <c r="E128" t="s">
-        <v>321</v>
+        <v>94</v>
       </c>
       <c r="F128" t="s">
-        <v>322</v>
+        <v>106</v>
       </c>
       <c r="G128" t="s">
-        <v>510</v>
+        <v>122</v>
       </c>
       <c r="H128" t="s">
-        <v>585</v>
-      </c>
-      <c r="M128">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129" spans="1:19" x14ac:dyDescent="0.2">
+        <v>145</v>
+      </c>
+      <c r="N128">
+        <v>1</v>
+      </c>
+      <c r="O128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>154</v>
+        <v>18</v>
       </c>
       <c r="B129" t="s">
-        <v>323</v>
+        <v>44</v>
       </c>
       <c r="C129" t="s">
-        <v>205</v>
+        <v>48</v>
       </c>
       <c r="D129" t="s">
-        <v>324</v>
+        <v>73</v>
       </c>
       <c r="E129" t="s">
-        <v>325</v>
+        <v>95</v>
       </c>
       <c r="F129" t="s">
-        <v>326</v>
+        <v>107</v>
       </c>
       <c r="G129" t="s">
-        <v>511</v>
+        <v>123</v>
       </c>
       <c r="H129" t="s">
-        <v>586</v>
-      </c>
-      <c r="M129">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130" spans="1:19" x14ac:dyDescent="0.2">
+        <v>146</v>
+      </c>
+      <c r="N129">
+        <v>1</v>
+      </c>
+      <c r="O129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>154</v>
+        <v>18</v>
       </c>
       <c r="B130" t="s">
-        <v>327</v>
+        <v>45</v>
       </c>
       <c r="C130" t="s">
-        <v>185</v>
+        <v>49</v>
       </c>
       <c r="D130" t="s">
-        <v>472</v>
+        <v>74</v>
       </c>
       <c r="E130" t="s">
-        <v>328</v>
-      </c>
-      <c r="F130" t="s">
-        <v>329</v>
+        <v>96</v>
       </c>
       <c r="G130" t="s">
-        <v>512</v>
+        <v>124</v>
       </c>
       <c r="H130" t="s">
-        <v>587</v>
-      </c>
-      <c r="M130">
-        <v>1</v>
-      </c>
-      <c r="S130">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131" spans="1:19" x14ac:dyDescent="0.2">
+        <v>147</v>
+      </c>
+      <c r="T130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>154</v>
+        <v>18</v>
       </c>
       <c r="B131" t="s">
-        <v>330</v>
+        <v>46</v>
       </c>
       <c r="C131" t="s">
-        <v>185</v>
+        <v>48</v>
       </c>
       <c r="D131" t="s">
-        <v>331</v>
+        <v>75</v>
       </c>
       <c r="E131" t="s">
-        <v>332</v>
-      </c>
-      <c r="F131" t="s">
-        <v>333</v>
+        <v>97</v>
       </c>
       <c r="G131" t="s">
-        <v>513</v>
+        <v>125</v>
       </c>
       <c r="H131" t="s">
-        <v>588</v>
-      </c>
-      <c r="N131">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132" spans="1:19" x14ac:dyDescent="0.2">
+        <v>148</v>
+      </c>
+      <c r="J131">
+        <v>1</v>
+      </c>
+      <c r="L131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>154</v>
+        <v>18</v>
       </c>
       <c r="B132" t="s">
-        <v>334</v>
+        <v>47</v>
       </c>
       <c r="C132" t="s">
-        <v>360</v>
+        <v>290</v>
       </c>
       <c r="D132" t="s">
-        <v>335</v>
+        <v>76</v>
       </c>
       <c r="E132" t="s">
-        <v>336</v>
-      </c>
-      <c r="F132" t="s">
-        <v>337</v>
+        <v>98</v>
       </c>
       <c r="G132" t="s">
-        <v>514</v>
+        <v>126</v>
       </c>
       <c r="H132" t="s">
-        <v>589</v>
-      </c>
-      <c r="L132">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133" spans="1:19" x14ac:dyDescent="0.2">
+        <v>149</v>
+      </c>
+      <c r="J132">
+        <v>1</v>
+      </c>
+      <c r="N132">
+        <v>1</v>
+      </c>
+      <c r="P132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>154</v>
+        <v>18</v>
       </c>
       <c r="B133" t="s">
-        <v>338</v>
-      </c>
-      <c r="C133" t="s">
-        <v>191</v>
+        <v>33</v>
       </c>
       <c r="D133" t="s">
-        <v>339</v>
+        <v>77</v>
       </c>
       <c r="E133" t="s">
-        <v>341</v>
-      </c>
-      <c r="F133" t="s">
-        <v>340</v>
+        <v>99</v>
       </c>
       <c r="G133" t="s">
-        <v>515</v>
+        <v>128</v>
       </c>
       <c r="H133" t="s">
-        <v>590</v>
-      </c>
-      <c r="M133">
-        <v>1</v>
-      </c>
-      <c r="P133">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134" spans="1:19" x14ac:dyDescent="0.2">
+        <v>150</v>
+      </c>
+      <c r="T133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>154</v>
       </c>
       <c r="B134" t="s">
-        <v>342</v>
+        <v>155</v>
       </c>
       <c r="C134" t="s">
-        <v>343</v>
+        <v>157</v>
       </c>
       <c r="D134" t="s">
-        <v>344</v>
+        <v>259</v>
       </c>
       <c r="E134" t="s">
-        <v>345</v>
+        <v>158</v>
       </c>
       <c r="F134" t="s">
-        <v>346</v>
+        <v>159</v>
       </c>
       <c r="G134" t="s">
-        <v>516</v>
+        <v>160</v>
       </c>
       <c r="H134" t="s">
-        <v>591</v>
-      </c>
-      <c r="M134">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135" spans="1:19" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+      <c r="T134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>154</v>
       </c>
       <c r="B135" t="s">
-        <v>347</v>
+        <v>156</v>
       </c>
       <c r="C135" t="s">
-        <v>209</v>
+        <v>357</v>
       </c>
       <c r="D135" t="s">
-        <v>348</v>
+        <v>162</v>
       </c>
       <c r="E135" t="s">
-        <v>349</v>
+        <v>163</v>
       </c>
       <c r="F135" t="s">
-        <v>350</v>
+        <v>164</v>
       </c>
       <c r="G135" t="s">
-        <v>517</v>
+        <v>166</v>
       </c>
       <c r="H135" t="s">
-        <v>592</v>
-      </c>
-      <c r="I135">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136" spans="1:19" x14ac:dyDescent="0.2">
+        <v>165</v>
+      </c>
+      <c r="J135">
+        <v>1</v>
+      </c>
+      <c r="K135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>154</v>
       </c>
       <c r="B136" t="s">
-        <v>351</v>
+        <v>167</v>
       </c>
       <c r="C136" t="s">
-        <v>352</v>
+        <v>168</v>
       </c>
       <c r="D136" t="s">
-        <v>353</v>
+        <v>169</v>
       </c>
       <c r="E136" t="s">
-        <v>354</v>
+        <v>172</v>
       </c>
       <c r="F136" t="s">
-        <v>355</v>
+        <v>173</v>
       </c>
       <c r="G136" t="s">
-        <v>518</v>
+        <v>171</v>
       </c>
       <c r="H136" t="s">
-        <v>593</v>
-      </c>
-      <c r="O136">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137" spans="1:19" x14ac:dyDescent="0.2">
+        <v>170</v>
+      </c>
+      <c r="K136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>154</v>
       </c>
       <c r="B137" t="s">
-        <v>356</v>
-      </c>
-      <c r="C137" t="s">
-        <v>360</v>
+        <v>174</v>
       </c>
       <c r="D137" t="s">
-        <v>361</v>
+        <v>175</v>
       </c>
       <c r="E137" t="s">
-        <v>362</v>
-      </c>
-      <c r="F137" t="s">
-        <v>363</v>
+        <v>176</v>
       </c>
       <c r="G137" t="s">
-        <v>519</v>
+        <v>474</v>
       </c>
       <c r="H137" t="s">
-        <v>594</v>
-      </c>
-      <c r="O137">
-        <v>1</v>
-      </c>
-      <c r="R137">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138" spans="1:19" x14ac:dyDescent="0.2">
+        <v>549</v>
+      </c>
+      <c r="K137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>154</v>
       </c>
       <c r="B138" t="s">
-        <v>365</v>
+        <v>177</v>
+      </c>
+      <c r="C138" t="s">
+        <v>178</v>
       </c>
       <c r="D138" t="s">
-        <v>473</v>
+        <v>179</v>
       </c>
       <c r="E138" t="s">
-        <v>364</v>
+        <v>180</v>
       </c>
       <c r="F138" t="s">
-        <v>366</v>
+        <v>181</v>
       </c>
       <c r="G138" t="s">
-        <v>520</v>
+        <v>475</v>
       </c>
       <c r="H138" t="s">
-        <v>595</v>
-      </c>
-      <c r="O138">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139" spans="1:19" x14ac:dyDescent="0.2">
+        <v>550</v>
+      </c>
+      <c r="K138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>154</v>
       </c>
       <c r="B139" t="s">
-        <v>367</v>
+        <v>182</v>
       </c>
       <c r="C139" t="s">
         <v>185</v>
       </c>
       <c r="D139" t="s">
-        <v>368</v>
+        <v>183</v>
       </c>
       <c r="E139" t="s">
-        <v>369</v>
+        <v>184</v>
       </c>
       <c r="G139" t="s">
-        <v>521</v>
+        <v>476</v>
       </c>
       <c r="H139" t="s">
-        <v>596</v>
+        <v>551</v>
       </c>
       <c r="K139">
         <v>1</v>
       </c>
-      <c r="O139">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="140" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>154</v>
       </c>
       <c r="B140" t="s">
-        <v>370</v>
+        <v>186</v>
       </c>
       <c r="C140" t="s">
-        <v>205</v>
+        <v>185</v>
       </c>
       <c r="D140" t="s">
-        <v>371</v>
+        <v>187</v>
       </c>
       <c r="E140" t="s">
-        <v>372</v>
+        <v>188</v>
       </c>
       <c r="F140" t="s">
-        <v>373</v>
+        <v>189</v>
       </c>
       <c r="G140" t="s">
-        <v>522</v>
+        <v>477</v>
       </c>
       <c r="H140" t="s">
-        <v>597</v>
-      </c>
-      <c r="O140">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141" spans="1:19" x14ac:dyDescent="0.2">
+        <v>552</v>
+      </c>
+      <c r="K140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>154</v>
       </c>
       <c r="B141" t="s">
-        <v>374</v>
+        <v>190</v>
       </c>
       <c r="C141" t="s">
         <v>191</v>
       </c>
       <c r="D141" t="s">
-        <v>375</v>
+        <v>192</v>
       </c>
       <c r="E141" t="s">
-        <v>376</v>
+        <v>193</v>
+      </c>
+      <c r="F141" t="s">
+        <v>194</v>
       </c>
       <c r="G141" t="s">
-        <v>523</v>
+        <v>478</v>
       </c>
       <c r="H141" t="s">
-        <v>598</v>
-      </c>
-      <c r="M141">
-        <v>1</v>
-      </c>
-      <c r="O141">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142" spans="1:19" x14ac:dyDescent="0.2">
+        <v>553</v>
+      </c>
+      <c r="K141">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>154</v>
       </c>
       <c r="B142" t="s">
-        <v>377</v>
+        <v>195</v>
       </c>
       <c r="C142" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="D142" t="s">
-        <v>378</v>
+        <v>197</v>
       </c>
       <c r="E142" t="s">
-        <v>379</v>
-      </c>
-      <c r="F142" t="s">
-        <v>380</v>
+        <v>198</v>
       </c>
       <c r="G142" t="s">
-        <v>524</v>
+        <v>479</v>
       </c>
       <c r="H142" t="s">
-        <v>599</v>
-      </c>
-      <c r="O142">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143" spans="1:19" x14ac:dyDescent="0.2">
+        <v>554</v>
+      </c>
+      <c r="K142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>154</v>
       </c>
       <c r="B143" t="s">
-        <v>381</v>
+        <v>199</v>
       </c>
       <c r="C143" t="s">
-        <v>185</v>
+        <v>358</v>
       </c>
       <c r="D143" t="s">
-        <v>382</v>
+        <v>200</v>
       </c>
       <c r="E143" t="s">
-        <v>383</v>
+        <v>201</v>
       </c>
       <c r="F143" t="s">
-        <v>384</v>
+        <v>202</v>
       </c>
       <c r="G143" t="s">
-        <v>525</v>
+        <v>480</v>
       </c>
       <c r="H143" t="s">
-        <v>600</v>
-      </c>
-      <c r="O143">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144" spans="1:19" x14ac:dyDescent="0.2">
+        <v>555</v>
+      </c>
+      <c r="K143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>154</v>
       </c>
       <c r="B144" t="s">
-        <v>385</v>
+        <v>203</v>
       </c>
       <c r="C144" t="s">
-        <v>185</v>
+        <v>205</v>
       </c>
       <c r="D144" t="s">
-        <v>386</v>
+        <v>206</v>
       </c>
       <c r="E144" t="s">
-        <v>387</v>
+        <v>207</v>
       </c>
       <c r="F144" t="s">
-        <v>388</v>
+        <v>204</v>
       </c>
       <c r="G144" t="s">
-        <v>526</v>
+        <v>481</v>
       </c>
       <c r="H144" t="s">
-        <v>601</v>
-      </c>
-      <c r="M144">
+        <v>556</v>
+      </c>
+      <c r="K144">
         <v>1</v>
       </c>
     </row>
@@ -7865,24 +8388,27 @@
         <v>154</v>
       </c>
       <c r="B145" t="s">
-        <v>389</v>
+        <v>208</v>
       </c>
       <c r="C145" t="s">
-        <v>168</v>
+        <v>209</v>
       </c>
       <c r="D145" t="s">
-        <v>390</v>
+        <v>210</v>
       </c>
       <c r="E145" t="s">
-        <v>391</v>
+        <v>211</v>
+      </c>
+      <c r="F145" t="s">
+        <v>212</v>
       </c>
       <c r="G145" t="s">
-        <v>527</v>
+        <v>482</v>
       </c>
       <c r="H145" t="s">
-        <v>602</v>
-      </c>
-      <c r="I145">
+        <v>557</v>
+      </c>
+      <c r="K145">
         <v>1</v>
       </c>
     </row>
@@ -7891,27 +8417,30 @@
         <v>154</v>
       </c>
       <c r="B146" t="s">
-        <v>392</v>
+        <v>213</v>
       </c>
       <c r="C146" t="s">
-        <v>289</v>
+        <v>168</v>
       </c>
       <c r="D146" t="s">
-        <v>393</v>
+        <v>214</v>
       </c>
       <c r="E146" t="s">
-        <v>394</v>
-      </c>
-      <c r="F146" t="s">
-        <v>395</v>
+        <v>215</v>
       </c>
       <c r="G146" t="s">
-        <v>528</v>
+        <v>483</v>
       </c>
       <c r="H146" t="s">
-        <v>603</v>
+        <v>558</v>
       </c>
       <c r="I146">
+        <v>1</v>
+      </c>
+      <c r="O146">
+        <v>1</v>
+      </c>
+      <c r="T146">
         <v>1</v>
       </c>
     </row>
@@ -7920,27 +8449,33 @@
         <v>154</v>
       </c>
       <c r="B147" t="s">
-        <v>397</v>
+        <v>216</v>
       </c>
       <c r="C147" t="s">
-        <v>398</v>
+        <v>205</v>
       </c>
       <c r="D147" t="s">
-        <v>399</v>
+        <v>217</v>
       </c>
       <c r="E147" t="s">
-        <v>396</v>
+        <v>218</v>
+      </c>
+      <c r="F147" t="s">
+        <v>219</v>
       </c>
       <c r="G147" t="s">
-        <v>529</v>
+        <v>484</v>
       </c>
       <c r="H147" t="s">
-        <v>604</v>
+        <v>559</v>
       </c>
       <c r="I147">
         <v>1</v>
       </c>
-      <c r="J147">
+      <c r="O147">
+        <v>1</v>
+      </c>
+      <c r="T147">
         <v>1</v>
       </c>
     </row>
@@ -7949,24 +8484,24 @@
         <v>154</v>
       </c>
       <c r="B148" t="s">
-        <v>400</v>
+        <v>220</v>
+      </c>
+      <c r="C148" t="s">
+        <v>185</v>
       </c>
       <c r="D148" t="s">
-        <v>401</v>
+        <v>221</v>
       </c>
       <c r="E148" t="s">
-        <v>403</v>
-      </c>
-      <c r="F148" t="s">
-        <v>402</v>
+        <v>222</v>
       </c>
       <c r="G148" t="s">
-        <v>530</v>
+        <v>485</v>
       </c>
       <c r="H148" t="s">
-        <v>605</v>
-      </c>
-      <c r="M148">
+        <v>560</v>
+      </c>
+      <c r="O148">
         <v>1</v>
       </c>
       <c r="T148">
@@ -7978,27 +8513,30 @@
         <v>154</v>
       </c>
       <c r="B149" t="s">
-        <v>404</v>
+        <v>223</v>
       </c>
       <c r="C149" t="s">
-        <v>289</v>
+        <v>168</v>
       </c>
       <c r="D149" t="s">
-        <v>405</v>
+        <v>224</v>
       </c>
       <c r="E149" t="s">
-        <v>406</v>
+        <v>225</v>
       </c>
       <c r="F149" t="s">
-        <v>407</v>
+        <v>226</v>
       </c>
       <c r="G149" t="s">
-        <v>531</v>
+        <v>486</v>
       </c>
       <c r="H149" t="s">
-        <v>606</v>
-      </c>
-      <c r="M149">
+        <v>561</v>
+      </c>
+      <c r="L149">
+        <v>1</v>
+      </c>
+      <c r="T149">
         <v>1</v>
       </c>
     </row>
@@ -8007,27 +8545,36 @@
         <v>154</v>
       </c>
       <c r="B150" t="s">
-        <v>408</v>
+        <v>227</v>
+      </c>
+      <c r="C150" t="s">
+        <v>168</v>
       </c>
       <c r="D150" t="s">
-        <v>409</v>
+        <v>228</v>
       </c>
       <c r="E150" t="s">
-        <v>410</v>
+        <v>229</v>
       </c>
       <c r="F150" t="s">
-        <v>410</v>
+        <v>230</v>
       </c>
       <c r="G150" t="s">
-        <v>532</v>
+        <v>487</v>
       </c>
       <c r="H150" t="s">
-        <v>607</v>
-      </c>
-      <c r="J150">
-        <v>1</v>
+        <v>562</v>
       </c>
       <c r="L150">
+        <v>1</v>
+      </c>
+      <c r="O150">
+        <v>1</v>
+      </c>
+      <c r="R150">
+        <v>1</v>
+      </c>
+      <c r="T150">
         <v>1</v>
       </c>
     </row>
@@ -8036,27 +8583,30 @@
         <v>154</v>
       </c>
       <c r="B151" t="s">
-        <v>411</v>
+        <v>231</v>
       </c>
       <c r="C151" t="s">
-        <v>289</v>
+        <v>185</v>
       </c>
       <c r="D151" t="s">
-        <v>412</v>
+        <v>232</v>
       </c>
       <c r="E151" t="s">
-        <v>413</v>
+        <v>233</v>
+      </c>
+      <c r="F151" t="s">
+        <v>234</v>
       </c>
       <c r="G151" t="s">
-        <v>533</v>
+        <v>488</v>
       </c>
       <c r="H151" t="s">
-        <v>608</v>
+        <v>563</v>
       </c>
       <c r="L151">
         <v>1</v>
       </c>
-      <c r="R151">
+      <c r="N151">
         <v>1</v>
       </c>
     </row>
@@ -8065,30 +8615,24 @@
         <v>154</v>
       </c>
       <c r="B152" t="s">
-        <v>414</v>
+        <v>235</v>
       </c>
       <c r="C152" t="s">
-        <v>289</v>
+        <v>168</v>
       </c>
       <c r="D152" t="s">
-        <v>415</v>
+        <v>236</v>
       </c>
       <c r="E152" t="s">
-        <v>416</v>
-      </c>
-      <c r="F152" t="s">
-        <v>417</v>
+        <v>237</v>
       </c>
       <c r="G152" t="s">
-        <v>534</v>
+        <v>489</v>
       </c>
       <c r="H152" t="s">
-        <v>609</v>
-      </c>
-      <c r="L152">
-        <v>1</v>
-      </c>
-      <c r="O152">
+        <v>564</v>
+      </c>
+      <c r="R152">
         <v>1</v>
       </c>
       <c r="T152">
@@ -8100,30 +8644,30 @@
         <v>154</v>
       </c>
       <c r="B153" t="s">
-        <v>418</v>
+        <v>238</v>
       </c>
       <c r="C153" t="s">
-        <v>343</v>
+        <v>185</v>
       </c>
       <c r="D153" t="s">
-        <v>419</v>
+        <v>239</v>
       </c>
       <c r="E153" t="s">
-        <v>624</v>
+        <v>240</v>
+      </c>
+      <c r="F153" t="s">
+        <v>241</v>
       </c>
       <c r="G153" t="s">
-        <v>535</v>
+        <v>490</v>
       </c>
       <c r="H153" t="s">
-        <v>610</v>
-      </c>
-      <c r="J153">
-        <v>1</v>
-      </c>
-      <c r="P153">
-        <v>1</v>
-      </c>
-      <c r="S153">
+        <v>565</v>
+      </c>
+      <c r="N153">
+        <v>1</v>
+      </c>
+      <c r="O153">
         <v>1</v>
       </c>
     </row>
@@ -8132,27 +8676,24 @@
         <v>154</v>
       </c>
       <c r="B154" t="s">
-        <v>420</v>
+        <v>242</v>
       </c>
       <c r="C154" t="s">
-        <v>185</v>
+        <v>243</v>
       </c>
       <c r="D154" t="s">
-        <v>421</v>
+        <v>244</v>
       </c>
       <c r="E154" t="s">
-        <v>422</v>
-      </c>
-      <c r="F154" t="s">
-        <v>423</v>
+        <v>245</v>
       </c>
       <c r="G154" t="s">
-        <v>536</v>
+        <v>491</v>
       </c>
       <c r="H154" t="s">
-        <v>611</v>
-      </c>
-      <c r="J154">
+        <v>566</v>
+      </c>
+      <c r="M154">
         <v>1</v>
       </c>
     </row>
@@ -8161,27 +8702,27 @@
         <v>154</v>
       </c>
       <c r="B155" t="s">
-        <v>427</v>
+        <v>246</v>
       </c>
       <c r="C155" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="D155" t="s">
-        <v>426</v>
+        <v>247</v>
       </c>
       <c r="E155" t="s">
-        <v>424</v>
+        <v>248</v>
       </c>
       <c r="F155" t="s">
-        <v>425</v>
+        <v>249</v>
       </c>
       <c r="G155" t="s">
-        <v>537</v>
+        <v>492</v>
       </c>
       <c r="H155" t="s">
-        <v>612</v>
-      </c>
-      <c r="S155">
+        <v>567</v>
+      </c>
+      <c r="R155">
         <v>1</v>
       </c>
       <c r="T155">
@@ -8193,27 +8734,30 @@
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>428</v>
+        <v>250</v>
       </c>
       <c r="C156" t="s">
-        <v>185</v>
+        <v>251</v>
       </c>
       <c r="D156" t="s">
-        <v>429</v>
+        <v>252</v>
       </c>
       <c r="E156" t="s">
-        <v>430</v>
+        <v>253</v>
       </c>
       <c r="F156" t="s">
-        <v>431</v>
+        <v>254</v>
       </c>
       <c r="G156" t="s">
-        <v>538</v>
+        <v>493</v>
       </c>
       <c r="H156" t="s">
-        <v>613</v>
-      </c>
-      <c r="J156">
+        <v>568</v>
+      </c>
+      <c r="O156">
+        <v>1</v>
+      </c>
+      <c r="R156">
         <v>1</v>
       </c>
     </row>
@@ -8222,33 +8766,27 @@
         <v>154</v>
       </c>
       <c r="B157" t="s">
-        <v>432</v>
+        <v>255</v>
       </c>
       <c r="C157" t="s">
-        <v>196</v>
+        <v>168</v>
       </c>
       <c r="D157" t="s">
-        <v>433</v>
+        <v>260</v>
       </c>
       <c r="E157" t="s">
-        <v>434</v>
+        <v>256</v>
       </c>
       <c r="F157" t="s">
-        <v>435</v>
+        <v>257</v>
       </c>
       <c r="G157" t="s">
-        <v>539</v>
+        <v>494</v>
       </c>
       <c r="H157" t="s">
-        <v>614</v>
-      </c>
-      <c r="J157">
-        <v>1</v>
+        <v>569</v>
       </c>
       <c r="Q157">
-        <v>1</v>
-      </c>
-      <c r="R157">
         <v>1</v>
       </c>
     </row>
@@ -8257,27 +8795,30 @@
         <v>154</v>
       </c>
       <c r="B158" t="s">
-        <v>436</v>
+        <v>262</v>
       </c>
       <c r="C158" t="s">
-        <v>437</v>
+        <v>168</v>
       </c>
       <c r="D158" t="s">
-        <v>438</v>
+        <v>263</v>
       </c>
       <c r="E158" t="s">
-        <v>439</v>
+        <v>264</v>
+      </c>
+      <c r="F158" t="s">
+        <v>265</v>
       </c>
       <c r="G158" t="s">
-        <v>540</v>
+        <v>495</v>
       </c>
       <c r="H158" t="s">
-        <v>615</v>
-      </c>
-      <c r="I158">
-        <v>1</v>
-      </c>
-      <c r="M158">
+        <v>570</v>
+      </c>
+      <c r="L158">
+        <v>1</v>
+      </c>
+      <c r="R158">
         <v>1</v>
       </c>
     </row>
@@ -8286,27 +8827,24 @@
         <v>154</v>
       </c>
       <c r="B159" t="s">
-        <v>440</v>
+        <v>266</v>
       </c>
       <c r="C159" t="s">
-        <v>441</v>
+        <v>209</v>
       </c>
       <c r="D159" t="s">
-        <v>442</v>
+        <v>267</v>
       </c>
       <c r="E159" t="s">
-        <v>443</v>
-      </c>
-      <c r="F159" t="s">
-        <v>444</v>
+        <v>268</v>
       </c>
       <c r="G159" t="s">
-        <v>541</v>
+        <v>496</v>
       </c>
       <c r="H159" t="s">
-        <v>616</v>
-      </c>
-      <c r="P159">
+        <v>571</v>
+      </c>
+      <c r="Q159">
         <v>1</v>
       </c>
     </row>
@@ -8315,255 +8853,1572 @@
         <v>154</v>
       </c>
       <c r="B160" t="s">
-        <v>445</v>
+        <v>269</v>
       </c>
       <c r="C160" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="D160" t="s">
-        <v>446</v>
+        <v>270</v>
       </c>
       <c r="E160" t="s">
-        <v>447</v>
+        <v>271</v>
       </c>
       <c r="F160" t="s">
-        <v>448</v>
+        <v>272</v>
       </c>
       <c r="G160" t="s">
-        <v>542</v>
+        <v>497</v>
       </c>
       <c r="H160" t="s">
-        <v>617</v>
-      </c>
-      <c r="K160">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="161" spans="1:14" x14ac:dyDescent="0.2">
+        <v>572</v>
+      </c>
+      <c r="L160">
+        <v>1</v>
+      </c>
+      <c r="Q160">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>154</v>
       </c>
       <c r="B161" t="s">
-        <v>450</v>
+        <v>273</v>
       </c>
       <c r="C161" t="s">
-        <v>191</v>
+        <v>357</v>
       </c>
       <c r="D161" t="s">
-        <v>451</v>
+        <v>275</v>
       </c>
       <c r="E161" t="s">
-        <v>449</v>
+        <v>359</v>
       </c>
       <c r="F161" t="s">
-        <v>452</v>
+        <v>274</v>
       </c>
       <c r="G161" t="s">
-        <v>543</v>
+        <v>498</v>
       </c>
       <c r="H161" t="s">
-        <v>618</v>
-      </c>
-      <c r="N161">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="162" spans="1:14" x14ac:dyDescent="0.2">
+        <v>573</v>
+      </c>
+      <c r="M161">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>154</v>
       </c>
       <c r="B162" t="s">
-        <v>453</v>
+        <v>276</v>
       </c>
       <c r="C162" t="s">
-        <v>360</v>
+        <v>191</v>
       </c>
       <c r="D162" t="s">
-        <v>454</v>
+        <v>277</v>
       </c>
       <c r="E162" t="s">
-        <v>455</v>
+        <v>278</v>
       </c>
       <c r="F162" t="s">
-        <v>456</v>
+        <v>279</v>
       </c>
       <c r="G162" t="s">
-        <v>544</v>
+        <v>499</v>
       </c>
       <c r="H162" t="s">
-        <v>619</v>
+        <v>574</v>
+      </c>
+      <c r="M162">
+        <v>1</v>
       </c>
       <c r="N162">
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>154</v>
       </c>
       <c r="B163" t="s">
-        <v>457</v>
+        <v>280</v>
       </c>
       <c r="C163" t="s">
-        <v>360</v>
+        <v>168</v>
       </c>
       <c r="D163" t="s">
-        <v>458</v>
+        <v>281</v>
       </c>
       <c r="E163" t="s">
-        <v>459</v>
+        <v>282</v>
+      </c>
+      <c r="F163" t="s">
+        <v>283</v>
       </c>
       <c r="G163" t="s">
-        <v>545</v>
+        <v>500</v>
       </c>
       <c r="H163" t="s">
-        <v>620</v>
-      </c>
-      <c r="N163">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="164" spans="1:14" x14ac:dyDescent="0.2">
+        <v>575</v>
+      </c>
+      <c r="M163">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>154</v>
       </c>
       <c r="B164" t="s">
-        <v>460</v>
+        <v>284</v>
       </c>
       <c r="C164" t="s">
-        <v>191</v>
+        <v>168</v>
       </c>
       <c r="D164" t="s">
-        <v>461</v>
+        <v>285</v>
       </c>
       <c r="E164" t="s">
-        <v>462</v>
+        <v>287</v>
       </c>
       <c r="F164" t="s">
-        <v>463</v>
+        <v>286</v>
       </c>
       <c r="G164" t="s">
-        <v>546</v>
+        <v>501</v>
       </c>
       <c r="H164" t="s">
-        <v>621</v>
-      </c>
-      <c r="I164">
-        <v>1</v>
+        <v>576</v>
       </c>
       <c r="M164">
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>154</v>
       </c>
       <c r="B165" t="s">
-        <v>464</v>
+        <v>288</v>
       </c>
       <c r="C165" t="s">
-        <v>465</v>
+        <v>289</v>
       </c>
       <c r="D165" t="s">
-        <v>466</v>
+        <v>291</v>
       </c>
       <c r="E165" t="s">
-        <v>467</v>
+        <v>292</v>
+      </c>
+      <c r="F165" t="s">
+        <v>293</v>
       </c>
       <c r="G165" t="s">
-        <v>547</v>
+        <v>502</v>
       </c>
       <c r="H165" t="s">
-        <v>622</v>
-      </c>
-      <c r="L165">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="166" spans="1:14" x14ac:dyDescent="0.2">
+        <v>577</v>
+      </c>
+      <c r="M165">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>154</v>
       </c>
       <c r="B166" t="s">
+        <v>294</v>
+      </c>
+      <c r="D166" t="s">
+        <v>295</v>
+      </c>
+      <c r="E166" t="s">
+        <v>296</v>
+      </c>
+      <c r="G166" t="s">
+        <v>503</v>
+      </c>
+      <c r="H166" t="s">
+        <v>578</v>
+      </c>
+      <c r="M166">
+        <v>1</v>
+      </c>
+      <c r="R166">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A167" t="s">
+        <v>154</v>
+      </c>
+      <c r="B167" t="s">
+        <v>297</v>
+      </c>
+      <c r="C167" t="s">
+        <v>298</v>
+      </c>
+      <c r="D167" t="s">
+        <v>299</v>
+      </c>
+      <c r="E167" t="s">
+        <v>300</v>
+      </c>
+      <c r="F167" t="s">
+        <v>301</v>
+      </c>
+      <c r="G167" t="s">
+        <v>504</v>
+      </c>
+      <c r="H167" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="168" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A168" t="s">
+        <v>154</v>
+      </c>
+      <c r="B168" t="s">
+        <v>302</v>
+      </c>
+      <c r="C168" t="s">
+        <v>168</v>
+      </c>
+      <c r="D168" t="s">
+        <v>303</v>
+      </c>
+      <c r="E168" t="s">
+        <v>304</v>
+      </c>
+      <c r="F168" t="s">
+        <v>305</v>
+      </c>
+      <c r="G168" t="s">
+        <v>505</v>
+      </c>
+      <c r="H168" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="169" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A169" t="s">
+        <v>154</v>
+      </c>
+      <c r="B169" t="s">
+        <v>306</v>
+      </c>
+      <c r="D169" t="s">
+        <v>307</v>
+      </c>
+      <c r="E169" t="s">
+        <v>308</v>
+      </c>
+      <c r="G169" t="s">
+        <v>506</v>
+      </c>
+      <c r="H169" t="s">
+        <v>581</v>
+      </c>
+      <c r="J169">
+        <v>1</v>
+      </c>
+      <c r="M169">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A170" t="s">
+        <v>154</v>
+      </c>
+      <c r="B170" t="s">
+        <v>309</v>
+      </c>
+      <c r="D170" t="s">
+        <v>310</v>
+      </c>
+      <c r="E170" t="s">
+        <v>311</v>
+      </c>
+      <c r="G170" t="s">
+        <v>507</v>
+      </c>
+      <c r="H170" t="s">
+        <v>582</v>
+      </c>
+      <c r="M170">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A171" t="s">
+        <v>154</v>
+      </c>
+      <c r="B171" t="s">
+        <v>312</v>
+      </c>
+      <c r="C171" t="s">
+        <v>185</v>
+      </c>
+      <c r="D171" t="s">
+        <v>471</v>
+      </c>
+      <c r="E171" t="s">
+        <v>313</v>
+      </c>
+      <c r="F171" t="s">
+        <v>314</v>
+      </c>
+      <c r="G171" t="s">
+        <v>508</v>
+      </c>
+      <c r="H171" t="s">
+        <v>583</v>
+      </c>
+      <c r="M171">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A172" t="s">
+        <v>154</v>
+      </c>
+      <c r="B172" t="s">
+        <v>315</v>
+      </c>
+      <c r="C172" t="s">
+        <v>185</v>
+      </c>
+      <c r="D172" t="s">
+        <v>316</v>
+      </c>
+      <c r="E172" t="s">
+        <v>317</v>
+      </c>
+      <c r="F172" t="s">
+        <v>318</v>
+      </c>
+      <c r="G172" t="s">
+        <v>509</v>
+      </c>
+      <c r="H172" t="s">
+        <v>584</v>
+      </c>
+      <c r="M172">
+        <v>1</v>
+      </c>
+      <c r="N172">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A173" t="s">
+        <v>154</v>
+      </c>
+      <c r="B173" t="s">
+        <v>319</v>
+      </c>
+      <c r="C173" t="s">
+        <v>168</v>
+      </c>
+      <c r="D173" t="s">
+        <v>320</v>
+      </c>
+      <c r="E173" t="s">
+        <v>321</v>
+      </c>
+      <c r="F173" t="s">
+        <v>322</v>
+      </c>
+      <c r="G173" t="s">
+        <v>510</v>
+      </c>
+      <c r="H173" t="s">
+        <v>585</v>
+      </c>
+      <c r="M173">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A174" t="s">
+        <v>154</v>
+      </c>
+      <c r="B174" t="s">
+        <v>323</v>
+      </c>
+      <c r="C174" t="s">
+        <v>205</v>
+      </c>
+      <c r="D174" t="s">
+        <v>324</v>
+      </c>
+      <c r="E174" t="s">
+        <v>325</v>
+      </c>
+      <c r="F174" t="s">
+        <v>326</v>
+      </c>
+      <c r="G174" t="s">
+        <v>511</v>
+      </c>
+      <c r="H174" t="s">
+        <v>586</v>
+      </c>
+      <c r="M174">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A175" t="s">
+        <v>154</v>
+      </c>
+      <c r="B175" t="s">
+        <v>327</v>
+      </c>
+      <c r="C175" t="s">
+        <v>185</v>
+      </c>
+      <c r="D175" t="s">
+        <v>472</v>
+      </c>
+      <c r="E175" t="s">
+        <v>328</v>
+      </c>
+      <c r="F175" t="s">
+        <v>329</v>
+      </c>
+      <c r="G175" t="s">
+        <v>512</v>
+      </c>
+      <c r="H175" t="s">
+        <v>587</v>
+      </c>
+      <c r="M175">
+        <v>1</v>
+      </c>
+      <c r="S175">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A176" t="s">
+        <v>154</v>
+      </c>
+      <c r="B176" t="s">
+        <v>330</v>
+      </c>
+      <c r="C176" t="s">
+        <v>185</v>
+      </c>
+      <c r="D176" t="s">
+        <v>331</v>
+      </c>
+      <c r="E176" t="s">
+        <v>332</v>
+      </c>
+      <c r="F176" t="s">
+        <v>333</v>
+      </c>
+      <c r="G176" t="s">
+        <v>513</v>
+      </c>
+      <c r="H176" t="s">
+        <v>588</v>
+      </c>
+      <c r="N176">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A177" t="s">
+        <v>154</v>
+      </c>
+      <c r="B177" t="s">
+        <v>334</v>
+      </c>
+      <c r="C177" t="s">
+        <v>360</v>
+      </c>
+      <c r="D177" t="s">
+        <v>335</v>
+      </c>
+      <c r="E177" t="s">
+        <v>336</v>
+      </c>
+      <c r="F177" t="s">
+        <v>337</v>
+      </c>
+      <c r="G177" t="s">
+        <v>514</v>
+      </c>
+      <c r="H177" t="s">
+        <v>589</v>
+      </c>
+      <c r="L177">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A178" t="s">
+        <v>154</v>
+      </c>
+      <c r="B178" t="s">
+        <v>338</v>
+      </c>
+      <c r="C178" t="s">
+        <v>191</v>
+      </c>
+      <c r="D178" t="s">
+        <v>339</v>
+      </c>
+      <c r="E178" t="s">
+        <v>341</v>
+      </c>
+      <c r="F178" t="s">
+        <v>340</v>
+      </c>
+      <c r="G178" t="s">
+        <v>515</v>
+      </c>
+      <c r="H178" t="s">
+        <v>590</v>
+      </c>
+      <c r="M178">
+        <v>1</v>
+      </c>
+      <c r="P178">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A179" t="s">
+        <v>154</v>
+      </c>
+      <c r="B179" t="s">
+        <v>342</v>
+      </c>
+      <c r="C179" t="s">
+        <v>343</v>
+      </c>
+      <c r="D179" t="s">
+        <v>344</v>
+      </c>
+      <c r="E179" t="s">
+        <v>345</v>
+      </c>
+      <c r="F179" t="s">
+        <v>346</v>
+      </c>
+      <c r="G179" t="s">
+        <v>516</v>
+      </c>
+      <c r="H179" t="s">
+        <v>591</v>
+      </c>
+      <c r="M179">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A180" t="s">
+        <v>154</v>
+      </c>
+      <c r="B180" t="s">
+        <v>347</v>
+      </c>
+      <c r="C180" t="s">
+        <v>209</v>
+      </c>
+      <c r="D180" t="s">
+        <v>348</v>
+      </c>
+      <c r="E180" t="s">
+        <v>349</v>
+      </c>
+      <c r="F180" t="s">
+        <v>350</v>
+      </c>
+      <c r="G180" t="s">
+        <v>517</v>
+      </c>
+      <c r="H180" t="s">
+        <v>592</v>
+      </c>
+      <c r="I180">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A181" t="s">
+        <v>154</v>
+      </c>
+      <c r="B181" t="s">
+        <v>351</v>
+      </c>
+      <c r="C181" t="s">
+        <v>352</v>
+      </c>
+      <c r="D181" t="s">
+        <v>353</v>
+      </c>
+      <c r="E181" t="s">
+        <v>354</v>
+      </c>
+      <c r="F181" t="s">
+        <v>355</v>
+      </c>
+      <c r="G181" t="s">
+        <v>518</v>
+      </c>
+      <c r="H181" t="s">
+        <v>593</v>
+      </c>
+      <c r="O181">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A182" t="s">
+        <v>154</v>
+      </c>
+      <c r="B182" t="s">
+        <v>356</v>
+      </c>
+      <c r="C182" t="s">
+        <v>360</v>
+      </c>
+      <c r="D182" t="s">
+        <v>361</v>
+      </c>
+      <c r="E182" t="s">
+        <v>362</v>
+      </c>
+      <c r="F182" t="s">
+        <v>363</v>
+      </c>
+      <c r="G182" t="s">
+        <v>519</v>
+      </c>
+      <c r="H182" t="s">
+        <v>594</v>
+      </c>
+      <c r="O182">
+        <v>1</v>
+      </c>
+      <c r="R182">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A183" t="s">
+        <v>154</v>
+      </c>
+      <c r="B183" t="s">
+        <v>365</v>
+      </c>
+      <c r="D183" t="s">
+        <v>473</v>
+      </c>
+      <c r="E183" t="s">
+        <v>364</v>
+      </c>
+      <c r="F183" t="s">
+        <v>366</v>
+      </c>
+      <c r="G183" t="s">
+        <v>520</v>
+      </c>
+      <c r="H183" t="s">
+        <v>595</v>
+      </c>
+      <c r="O183">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A184" t="s">
+        <v>154</v>
+      </c>
+      <c r="B184" t="s">
+        <v>367</v>
+      </c>
+      <c r="C184" t="s">
+        <v>185</v>
+      </c>
+      <c r="D184" t="s">
+        <v>368</v>
+      </c>
+      <c r="E184" t="s">
+        <v>369</v>
+      </c>
+      <c r="G184" t="s">
+        <v>521</v>
+      </c>
+      <c r="H184" t="s">
+        <v>596</v>
+      </c>
+      <c r="K184">
+        <v>1</v>
+      </c>
+      <c r="O184">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A185" t="s">
+        <v>154</v>
+      </c>
+      <c r="B185" t="s">
+        <v>370</v>
+      </c>
+      <c r="C185" t="s">
+        <v>205</v>
+      </c>
+      <c r="D185" t="s">
+        <v>371</v>
+      </c>
+      <c r="E185" t="s">
+        <v>372</v>
+      </c>
+      <c r="F185" t="s">
+        <v>373</v>
+      </c>
+      <c r="G185" t="s">
+        <v>522</v>
+      </c>
+      <c r="H185" t="s">
+        <v>597</v>
+      </c>
+      <c r="O185">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A186" t="s">
+        <v>154</v>
+      </c>
+      <c r="B186" t="s">
+        <v>374</v>
+      </c>
+      <c r="C186" t="s">
+        <v>191</v>
+      </c>
+      <c r="D186" t="s">
+        <v>375</v>
+      </c>
+      <c r="E186" t="s">
+        <v>376</v>
+      </c>
+      <c r="G186" t="s">
+        <v>523</v>
+      </c>
+      <c r="H186" t="s">
+        <v>598</v>
+      </c>
+      <c r="M186">
+        <v>1</v>
+      </c>
+      <c r="O186">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A187" t="s">
+        <v>154</v>
+      </c>
+      <c r="B187" t="s">
+        <v>377</v>
+      </c>
+      <c r="C187" t="s">
+        <v>191</v>
+      </c>
+      <c r="D187" t="s">
+        <v>378</v>
+      </c>
+      <c r="E187" t="s">
+        <v>379</v>
+      </c>
+      <c r="F187" t="s">
+        <v>380</v>
+      </c>
+      <c r="G187" t="s">
+        <v>524</v>
+      </c>
+      <c r="H187" t="s">
+        <v>599</v>
+      </c>
+      <c r="O187">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A188" t="s">
+        <v>154</v>
+      </c>
+      <c r="B188" t="s">
+        <v>381</v>
+      </c>
+      <c r="C188" t="s">
+        <v>185</v>
+      </c>
+      <c r="D188" t="s">
+        <v>382</v>
+      </c>
+      <c r="E188" t="s">
+        <v>383</v>
+      </c>
+      <c r="F188" t="s">
+        <v>384</v>
+      </c>
+      <c r="G188" t="s">
+        <v>525</v>
+      </c>
+      <c r="H188" t="s">
+        <v>600</v>
+      </c>
+      <c r="O188">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A189" t="s">
+        <v>154</v>
+      </c>
+      <c r="B189" t="s">
+        <v>385</v>
+      </c>
+      <c r="C189" t="s">
+        <v>185</v>
+      </c>
+      <c r="D189" t="s">
+        <v>386</v>
+      </c>
+      <c r="E189" t="s">
+        <v>387</v>
+      </c>
+      <c r="F189" t="s">
+        <v>388</v>
+      </c>
+      <c r="G189" t="s">
+        <v>526</v>
+      </c>
+      <c r="H189" t="s">
+        <v>601</v>
+      </c>
+      <c r="M189">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A190" t="s">
+        <v>154</v>
+      </c>
+      <c r="B190" t="s">
+        <v>389</v>
+      </c>
+      <c r="C190" t="s">
+        <v>168</v>
+      </c>
+      <c r="D190" t="s">
+        <v>390</v>
+      </c>
+      <c r="E190" t="s">
+        <v>391</v>
+      </c>
+      <c r="G190" t="s">
+        <v>527</v>
+      </c>
+      <c r="H190" t="s">
+        <v>602</v>
+      </c>
+      <c r="I190">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A191" t="s">
+        <v>154</v>
+      </c>
+      <c r="B191" t="s">
+        <v>392</v>
+      </c>
+      <c r="C191" t="s">
+        <v>289</v>
+      </c>
+      <c r="D191" t="s">
+        <v>393</v>
+      </c>
+      <c r="E191" t="s">
+        <v>394</v>
+      </c>
+      <c r="F191" t="s">
+        <v>395</v>
+      </c>
+      <c r="G191" t="s">
+        <v>528</v>
+      </c>
+      <c r="H191" t="s">
+        <v>603</v>
+      </c>
+      <c r="I191">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A192" t="s">
+        <v>154</v>
+      </c>
+      <c r="B192" t="s">
+        <v>397</v>
+      </c>
+      <c r="C192" t="s">
+        <v>398</v>
+      </c>
+      <c r="D192" t="s">
+        <v>399</v>
+      </c>
+      <c r="E192" t="s">
+        <v>396</v>
+      </c>
+      <c r="G192" t="s">
+        <v>529</v>
+      </c>
+      <c r="H192" t="s">
+        <v>604</v>
+      </c>
+      <c r="I192">
+        <v>1</v>
+      </c>
+      <c r="J192">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A193" t="s">
+        <v>154</v>
+      </c>
+      <c r="B193" t="s">
+        <v>400</v>
+      </c>
+      <c r="D193" t="s">
+        <v>401</v>
+      </c>
+      <c r="E193" t="s">
+        <v>403</v>
+      </c>
+      <c r="F193" t="s">
+        <v>402</v>
+      </c>
+      <c r="G193" t="s">
+        <v>530</v>
+      </c>
+      <c r="H193" t="s">
+        <v>605</v>
+      </c>
+      <c r="M193">
+        <v>1</v>
+      </c>
+      <c r="T193">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A194" t="s">
+        <v>154</v>
+      </c>
+      <c r="B194" t="s">
+        <v>404</v>
+      </c>
+      <c r="C194" t="s">
+        <v>289</v>
+      </c>
+      <c r="D194" t="s">
+        <v>405</v>
+      </c>
+      <c r="E194" t="s">
+        <v>406</v>
+      </c>
+      <c r="F194" t="s">
+        <v>407</v>
+      </c>
+      <c r="G194" t="s">
+        <v>531</v>
+      </c>
+      <c r="H194" t="s">
+        <v>606</v>
+      </c>
+      <c r="M194">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A195" t="s">
+        <v>154</v>
+      </c>
+      <c r="B195" t="s">
+        <v>408</v>
+      </c>
+      <c r="D195" t="s">
+        <v>409</v>
+      </c>
+      <c r="E195" t="s">
+        <v>410</v>
+      </c>
+      <c r="F195" t="s">
+        <v>410</v>
+      </c>
+      <c r="G195" t="s">
+        <v>532</v>
+      </c>
+      <c r="H195" t="s">
+        <v>607</v>
+      </c>
+      <c r="J195">
+        <v>1</v>
+      </c>
+      <c r="L195">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A196" t="s">
+        <v>154</v>
+      </c>
+      <c r="B196" t="s">
+        <v>411</v>
+      </c>
+      <c r="C196" t="s">
+        <v>289</v>
+      </c>
+      <c r="D196" t="s">
+        <v>412</v>
+      </c>
+      <c r="E196" t="s">
+        <v>413</v>
+      </c>
+      <c r="G196" t="s">
+        <v>533</v>
+      </c>
+      <c r="H196" t="s">
+        <v>608</v>
+      </c>
+      <c r="L196">
+        <v>1</v>
+      </c>
+      <c r="R196">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A197" t="s">
+        <v>154</v>
+      </c>
+      <c r="B197" t="s">
+        <v>414</v>
+      </c>
+      <c r="C197" t="s">
+        <v>289</v>
+      </c>
+      <c r="D197" t="s">
+        <v>415</v>
+      </c>
+      <c r="E197" t="s">
+        <v>416</v>
+      </c>
+      <c r="F197" t="s">
+        <v>417</v>
+      </c>
+      <c r="G197" t="s">
+        <v>534</v>
+      </c>
+      <c r="H197" t="s">
+        <v>609</v>
+      </c>
+      <c r="L197">
+        <v>1</v>
+      </c>
+      <c r="O197">
+        <v>1</v>
+      </c>
+      <c r="T197">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A198" t="s">
+        <v>154</v>
+      </c>
+      <c r="B198" t="s">
+        <v>418</v>
+      </c>
+      <c r="C198" t="s">
+        <v>343</v>
+      </c>
+      <c r="D198" t="s">
+        <v>419</v>
+      </c>
+      <c r="E198" t="s">
+        <v>624</v>
+      </c>
+      <c r="G198" t="s">
+        <v>535</v>
+      </c>
+      <c r="H198" t="s">
+        <v>610</v>
+      </c>
+      <c r="J198">
+        <v>1</v>
+      </c>
+      <c r="P198">
+        <v>1</v>
+      </c>
+      <c r="S198">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A199" t="s">
+        <v>154</v>
+      </c>
+      <c r="B199" t="s">
+        <v>420</v>
+      </c>
+      <c r="C199" t="s">
+        <v>185</v>
+      </c>
+      <c r="D199" t="s">
+        <v>421</v>
+      </c>
+      <c r="E199" t="s">
+        <v>422</v>
+      </c>
+      <c r="F199" t="s">
+        <v>423</v>
+      </c>
+      <c r="G199" t="s">
+        <v>536</v>
+      </c>
+      <c r="H199" t="s">
+        <v>611</v>
+      </c>
+      <c r="J199">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A200" t="s">
+        <v>154</v>
+      </c>
+      <c r="B200" t="s">
+        <v>427</v>
+      </c>
+      <c r="C200" t="s">
+        <v>191</v>
+      </c>
+      <c r="D200" t="s">
+        <v>426</v>
+      </c>
+      <c r="E200" t="s">
+        <v>424</v>
+      </c>
+      <c r="F200" t="s">
+        <v>425</v>
+      </c>
+      <c r="G200" t="s">
+        <v>537</v>
+      </c>
+      <c r="H200" t="s">
+        <v>612</v>
+      </c>
+      <c r="S200">
+        <v>1</v>
+      </c>
+      <c r="T200">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A201" t="s">
+        <v>154</v>
+      </c>
+      <c r="B201" t="s">
+        <v>428</v>
+      </c>
+      <c r="C201" t="s">
+        <v>185</v>
+      </c>
+      <c r="D201" t="s">
+        <v>429</v>
+      </c>
+      <c r="E201" t="s">
+        <v>430</v>
+      </c>
+      <c r="F201" t="s">
+        <v>431</v>
+      </c>
+      <c r="G201" t="s">
+        <v>538</v>
+      </c>
+      <c r="H201" t="s">
+        <v>613</v>
+      </c>
+      <c r="J201">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A202" t="s">
+        <v>154</v>
+      </c>
+      <c r="B202" t="s">
+        <v>432</v>
+      </c>
+      <c r="C202" t="s">
+        <v>196</v>
+      </c>
+      <c r="D202" t="s">
+        <v>433</v>
+      </c>
+      <c r="E202" t="s">
+        <v>434</v>
+      </c>
+      <c r="F202" t="s">
+        <v>435</v>
+      </c>
+      <c r="G202" t="s">
+        <v>539</v>
+      </c>
+      <c r="H202" t="s">
+        <v>614</v>
+      </c>
+      <c r="J202">
+        <v>1</v>
+      </c>
+      <c r="Q202">
+        <v>1</v>
+      </c>
+      <c r="R202">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A203" t="s">
+        <v>154</v>
+      </c>
+      <c r="B203" t="s">
+        <v>436</v>
+      </c>
+      <c r="C203" t="s">
+        <v>437</v>
+      </c>
+      <c r="D203" t="s">
+        <v>438</v>
+      </c>
+      <c r="E203" t="s">
+        <v>439</v>
+      </c>
+      <c r="G203" t="s">
+        <v>540</v>
+      </c>
+      <c r="H203" t="s">
+        <v>615</v>
+      </c>
+      <c r="I203">
+        <v>1</v>
+      </c>
+      <c r="M203">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A204" t="s">
+        <v>154</v>
+      </c>
+      <c r="B204" t="s">
+        <v>440</v>
+      </c>
+      <c r="C204" t="s">
+        <v>441</v>
+      </c>
+      <c r="D204" t="s">
+        <v>442</v>
+      </c>
+      <c r="E204" t="s">
+        <v>443</v>
+      </c>
+      <c r="F204" t="s">
+        <v>444</v>
+      </c>
+      <c r="G204" t="s">
+        <v>541</v>
+      </c>
+      <c r="H204" t="s">
+        <v>616</v>
+      </c>
+      <c r="P204">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A205" t="s">
+        <v>154</v>
+      </c>
+      <c r="B205" t="s">
+        <v>445</v>
+      </c>
+      <c r="C205" t="s">
+        <v>191</v>
+      </c>
+      <c r="D205" t="s">
+        <v>446</v>
+      </c>
+      <c r="E205" t="s">
+        <v>447</v>
+      </c>
+      <c r="F205" t="s">
+        <v>448</v>
+      </c>
+      <c r="G205" t="s">
+        <v>542</v>
+      </c>
+      <c r="H205" t="s">
+        <v>617</v>
+      </c>
+      <c r="K205">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A206" t="s">
+        <v>154</v>
+      </c>
+      <c r="B206" t="s">
+        <v>450</v>
+      </c>
+      <c r="C206" t="s">
+        <v>191</v>
+      </c>
+      <c r="D206" t="s">
+        <v>451</v>
+      </c>
+      <c r="E206" t="s">
+        <v>449</v>
+      </c>
+      <c r="F206" t="s">
+        <v>452</v>
+      </c>
+      <c r="G206" t="s">
+        <v>543</v>
+      </c>
+      <c r="H206" t="s">
+        <v>618</v>
+      </c>
+      <c r="N206">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A207" t="s">
+        <v>154</v>
+      </c>
+      <c r="B207" t="s">
+        <v>453</v>
+      </c>
+      <c r="C207" t="s">
+        <v>360</v>
+      </c>
+      <c r="D207" t="s">
+        <v>454</v>
+      </c>
+      <c r="E207" t="s">
+        <v>455</v>
+      </c>
+      <c r="F207" t="s">
+        <v>456</v>
+      </c>
+      <c r="G207" t="s">
+        <v>544</v>
+      </c>
+      <c r="H207" t="s">
+        <v>619</v>
+      </c>
+      <c r="N207">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A208" t="s">
+        <v>154</v>
+      </c>
+      <c r="B208" t="s">
+        <v>457</v>
+      </c>
+      <c r="C208" t="s">
+        <v>360</v>
+      </c>
+      <c r="D208" t="s">
+        <v>458</v>
+      </c>
+      <c r="E208" t="s">
+        <v>459</v>
+      </c>
+      <c r="G208" t="s">
+        <v>545</v>
+      </c>
+      <c r="H208" t="s">
+        <v>620</v>
+      </c>
+      <c r="N208">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A209" t="s">
+        <v>154</v>
+      </c>
+      <c r="B209" t="s">
+        <v>460</v>
+      </c>
+      <c r="C209" t="s">
+        <v>191</v>
+      </c>
+      <c r="D209" t="s">
+        <v>461</v>
+      </c>
+      <c r="E209" t="s">
+        <v>462</v>
+      </c>
+      <c r="F209" t="s">
+        <v>463</v>
+      </c>
+      <c r="G209" t="s">
+        <v>546</v>
+      </c>
+      <c r="H209" t="s">
+        <v>621</v>
+      </c>
+      <c r="I209">
+        <v>1</v>
+      </c>
+      <c r="M209">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A210" t="s">
+        <v>154</v>
+      </c>
+      <c r="B210" t="s">
+        <v>464</v>
+      </c>
+      <c r="C210" t="s">
+        <v>465</v>
+      </c>
+      <c r="D210" t="s">
+        <v>466</v>
+      </c>
+      <c r="E210" t="s">
+        <v>467</v>
+      </c>
+      <c r="G210" t="s">
+        <v>547</v>
+      </c>
+      <c r="H210" t="s">
+        <v>622</v>
+      </c>
+      <c r="L210">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A211" t="s">
+        <v>154</v>
+      </c>
+      <c r="B211" t="s">
         <v>468</v>
       </c>
-      <c r="D166" t="s">
+      <c r="D211" t="s">
         <v>469</v>
       </c>
-      <c r="E166" t="s">
+      <c r="E211" t="s">
         <v>470</v>
       </c>
-      <c r="G166" t="s">
+      <c r="G211" t="s">
         <v>548</v>
       </c>
-      <c r="H166" t="s">
+      <c r="H211" t="s">
         <v>623</v>
       </c>
-      <c r="L166">
+      <c r="L211">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B89" r:id="rId1" display="https://www.matthewtancik.com/nerf" xr:uid="{35967FB2-814A-154F-8541-7714319F096C}"/>
-    <hyperlink ref="B90" r:id="rId2" display="https://lingjie0206.github.io/papers/NSVF/" xr:uid="{F2DD4E80-7653-6B46-BE0A-8E826172F88C}"/>
-    <hyperlink ref="B91" r:id="rId3" display="http://www.computationalimaging.org/publications/automatic-integration/" xr:uid="{A28EC183-687F-8A46-9CA4-4A7708A6C750}"/>
-    <hyperlink ref="B92" r:id="rId4" display="https://arxiv.org/abs/2011.12490" xr:uid="{C5B06987-5C0D-E443-82C4-02F6431045D1}"/>
-    <hyperlink ref="B93" r:id="rId5" display="https://depthoraclenerf.github.io/" xr:uid="{3CEB0E14-63E6-574A-9FC6-2051AD0460B0}"/>
-    <hyperlink ref="B94" r:id="rId6" display="https://arxiv.org/abs/2103.10380" xr:uid="{EA18432D-CDAD-5D46-AB83-9539228413CB}"/>
-    <hyperlink ref="B95" r:id="rId7" display="https://arxiv.org/abs/2103.13744" xr:uid="{429A6E53-E8CB-BC4C-9538-A2470024449F}"/>
-    <hyperlink ref="B96" r:id="rId8" display="https://alexyu.net/plenoctrees/" xr:uid="{7DC25326-9D8E-8D47-A044-DD17F9ED0CD0}"/>
-    <hyperlink ref="B97" r:id="rId9" display="https://arxiv.org/abs/2103.01954" xr:uid="{A2FF4FE9-43D0-5F44-93A7-55BE57938D31}"/>
-    <hyperlink ref="B98" r:id="rId10" display="https://vsitzmann.github.io/lfns/" xr:uid="{F6597C48-9252-3349-B84C-D97A31F62416}"/>
-    <hyperlink ref="B99" r:id="rId11" display="https://arxiv.org/pdf/2107.02791.pdf" xr:uid="{4E32310C-E8E8-1445-9B6E-B1A0C6585A89}"/>
-    <hyperlink ref="B101" r:id="rId12" display="https://nerf-w.github.io/" xr:uid="{1C3AF7E4-0ED6-6341-ACDB-04910971A9DA}"/>
-    <hyperlink ref="B106" r:id="rId13" display="https://gvv.mpi-inf.mpg.de/projects/nonrigid_nerf/" xr:uid="{2DDCA2B8-C06B-604A-A893-ED7E083125F7}"/>
-    <hyperlink ref="B107" r:id="rId14" display="https://volumetric-avatars.github.io/" xr:uid="{B38221A4-28D3-EC48-BD13-F22F93351407}"/>
-    <hyperlink ref="B109" r:id="rId15" display="https://arxiv.org/abs/2202.00181" xr:uid="{A924BD42-5B3F-3740-81C0-0C81F8B5122D}"/>
-    <hyperlink ref="B110" r:id="rId16" display="https://zju3dv.github.io/animatable_nerf/" xr:uid="{79B54E94-A634-C04E-BBD6-E0740CB05D22}"/>
-    <hyperlink ref="B111" r:id="rId17" display="https://vcai.mpi-inf.mpg.de/projects/NeuralActor/" xr:uid="{8B2119CC-BEBB-1141-9295-5A03BB8F0926}"/>
-    <hyperlink ref="B113" r:id="rId18" display="https://zju3dv.github.io/neuralbody/" xr:uid="{B4F98C3C-2C12-3647-8B14-C77A228D92A6}"/>
-    <hyperlink ref="D114" r:id="rId19" display="https://neural-3d-video.github.io/" xr:uid="{F5C4215C-421A-2E4F-9166-06F8B5156E7B}"/>
-    <hyperlink ref="B118" r:id="rId20" display="https://arxiv.org/abs/2012.02190" xr:uid="{53D1B557-9DD9-0941-A181-C2437740945C}"/>
-    <hyperlink ref="D118" r:id="rId21" display="https://alexyu.net/pixelnerf" xr:uid="{FE08CB9D-CA82-2641-899B-1CED2638D0C9}"/>
-    <hyperlink ref="B119" r:id="rId22" display="https://arxiv.org/abs/2012.02189" xr:uid="{A3166556-FD50-524F-9D7B-7DFABC9BA22F}"/>
-    <hyperlink ref="B122" r:id="rId23" display="https://arxiv.org/pdf/2102.08860.pdf" xr:uid="{C98AD7DA-8A21-4B40-A0E6-ABB79200584D}"/>
-    <hyperlink ref="B123" r:id="rId24" display="https://ibrnet.github.io/static/paper.pdf" xr:uid="{B64854DE-6A9F-EE41-8605-5F214EE9ADE2}"/>
-    <hyperlink ref="D123" r:id="rId25" display="https://ibrnet.github.io/" xr:uid="{5B6CC4DE-F7F9-2647-9B5C-A1E194127C73}"/>
-    <hyperlink ref="B124" r:id="rId26" display="https://arxiv.org/pdf/2103.17269.pdf" xr:uid="{62D8EC5C-C4AC-DA46-9FDF-0E23E2D5C874}"/>
-    <hyperlink ref="B125" r:id="rId27" display="https://arxiv.org/pdf/2104.00587.pdf" xr:uid="{B37AC469-58DD-BF4C-8A04-F712B1A8EB94}"/>
-    <hyperlink ref="B126" r:id="rId28" display="https://apple.github.io/ml-gsn/" xr:uid="{7717E2BE-FF3E-EF48-92FF-8653D9AB6AAE}"/>
-    <hyperlink ref="B127" r:id="rId29" display="https://apchenstu.github.io/mvsnerf/" xr:uid="{D01EC804-00BD-B442-AED3-391DEE153AF0}"/>
-    <hyperlink ref="B128" r:id="rId30" display="https://virtualhumans.mpi-inf.mpg.de/srf/" xr:uid="{BBFCEAB6-1067-4A46-B94B-1149F1DB3378}"/>
-    <hyperlink ref="D128" r:id="rId31" display="https://virtualhumans.mpi-inf.mpg.de/srf/" xr:uid="{99CFE0A6-49E8-6C47-AD0F-4876EDDD5257}"/>
-    <hyperlink ref="B129" r:id="rId32" display="https://liuyuan-pal.github.io/NeuRay/" xr:uid="{B8E198D5-170F-6445-ABD6-FC745FE3BB4F}"/>
-    <hyperlink ref="D131" r:id="rId33" display="https://github.com/vincentfung13/MINE" xr:uid="{BC5BAD36-364E-6749-BCB4-A976C125DDC5}"/>
-    <hyperlink ref="B133" r:id="rId34" display="https://sites.google.com/view/wbjang/home/codenerf" xr:uid="{187E0164-3464-5F42-AACD-3D5C2BF3C820}"/>
-    <hyperlink ref="B135" r:id="rId35" display="https://bmild.github.io/rawnerf/" xr:uid="{A6B8E96F-1F53-7041-B6A4-60B9508480D4}"/>
-    <hyperlink ref="B136" r:id="rId36" display="http://yenchenlin.me/inerf/" xr:uid="{EE610F53-3CF1-1E40-8ACB-F1984A3C3C5D}"/>
-    <hyperlink ref="B137" r:id="rId37" display="https://lemonatsu.github.io/ANeRF-Surface-free-Pose-Refinement/" xr:uid="{8812967F-CC98-5B4A-995D-AC01039F534F}"/>
-    <hyperlink ref="D137" r:id="rId38" display="https://lemonatsu.github.io/anerf/" xr:uid="{9D7EFC10-490A-E447-9D5C-8E801A904206}"/>
-    <hyperlink ref="B142" r:id="rId39" display="https://chenhsuanlin.bitbucket.io/bundle-adjusting-NeRF/" xr:uid="{20F5B6EF-8807-F341-AF88-60ED41CC6280}"/>
-    <hyperlink ref="B143" r:id="rId40" display="https://postech-cvlab.github.io/SCNeRF/" xr:uid="{2F6B0D04-F664-0240-95C8-8B039E05A6FE}"/>
-    <hyperlink ref="B144" r:id="rId41" display="https://markboss.me/publication/2021-nerd/" xr:uid="{D07E6E46-FE31-B345-8F53-0E980351DB40}"/>
-    <hyperlink ref="B145" r:id="rId42" display="https://people.eecs.berkeley.edu/~pratul/nerv/" xr:uid="{8DA1DFFB-66B7-D945-A567-262763835FE0}"/>
-    <hyperlink ref="B148" r:id="rId43" display="https://arxiv.org/abs/2010.07492" xr:uid="{24173C9F-D45A-1744-981B-21CA290E8730}"/>
-    <hyperlink ref="D148" r:id="rId44" display="https://github.com/Kai-46/nerfplusplus" xr:uid="{AC3D8F12-8792-6341-9EDD-3119722F4FB3}"/>
-    <hyperlink ref="B149" r:id="rId45" display="https://arxiv.org/abs/2011.12100" xr:uid="{A6421490-778F-404C-9B50-F4DF3C3222E3}"/>
-    <hyperlink ref="B151" r:id="rId46" display="https://ziyanw1.github.io/hybrid_nerf/" xr:uid="{21255C5F-2079-BD42-A4E8-1473A711251E}"/>
-    <hyperlink ref="B158" r:id="rId47" display="https://fig-nerf.github.io/" xr:uid="{BCB08482-216E-F445-961F-79B17BAB2894}"/>
-    <hyperlink ref="B159" r:id="rId48" display="https://developer.nvidia.com/blog/nvidia-research-nerf-tex-neural-reflectance-field-textures/" xr:uid="{46F7C388-1CC4-9149-B59B-559EE7BCD36A}"/>
-    <hyperlink ref="B160" r:id="rId49" display="https://jonbarron.info/mipnerf/" xr:uid="{3CF7024E-5382-C942-836E-26A20DA4524C}"/>
-    <hyperlink ref="B162" r:id="rId50" display="https://arxiv.org/abs/2106.10689" xr:uid="{E7185A93-C91C-F24C-9829-6325E236C3EB}"/>
-    <hyperlink ref="B164" r:id="rId51" display="https://weiyithu.github.io/NerfingMVS/" xr:uid="{22220255-E2B3-4341-A8DE-DF8098C5B6B6}"/>
-    <hyperlink ref="B165" r:id="rId52" display="https://3d-representation-learning.github.io/nerf-dy/" xr:uid="{433A7789-7958-4642-A629-FBF537BFB55E}"/>
-    <hyperlink ref="D166" r:id="rId53" display="https://mikh3x4.github.io/nerf-navigation/" xr:uid="{8A666769-9523-DC43-A0CD-D271CCCC1BDC}"/>
-    <hyperlink ref="D14" r:id="rId54" display="https://github.com/LeapLabTHU/ActiveNeRF" xr:uid="{E900C90C-6019-C44E-8258-46FC93A580B3}"/>
-    <hyperlink ref="D10" r:id="rId55" display="https://github.com/jike5/LATITUDE" xr:uid="{91F35CF0-E18D-5643-90B6-6E663E131672}"/>
-    <hyperlink ref="D7" r:id="rId56" display="https://zhiwenfan.github.io/NeRF-SOS" xr:uid="{30070045-BF89-9A40-89C3-AD835799302F}"/>
-    <hyperlink ref="D5" r:id="rId57" display="https://github.com/MIT-SPARK/Loc-NeRF" xr:uid="{75D1A9A5-F43B-2249-8F7D-6B28308F1EF6}"/>
+    <hyperlink ref="B134" r:id="rId1" display="https://www.matthewtancik.com/nerf" xr:uid="{35967FB2-814A-154F-8541-7714319F096C}"/>
+    <hyperlink ref="B135" r:id="rId2" display="https://lingjie0206.github.io/papers/NSVF/" xr:uid="{F2DD4E80-7653-6B46-BE0A-8E826172F88C}"/>
+    <hyperlink ref="B136" r:id="rId3" display="http://www.computationalimaging.org/publications/automatic-integration/" xr:uid="{A28EC183-687F-8A46-9CA4-4A7708A6C750}"/>
+    <hyperlink ref="B137" r:id="rId4" display="https://arxiv.org/abs/2011.12490" xr:uid="{C5B06987-5C0D-E443-82C4-02F6431045D1}"/>
+    <hyperlink ref="B138" r:id="rId5" display="https://depthoraclenerf.github.io/" xr:uid="{3CEB0E14-63E6-574A-9FC6-2051AD0460B0}"/>
+    <hyperlink ref="B139" r:id="rId6" display="https://arxiv.org/abs/2103.10380" xr:uid="{EA18432D-CDAD-5D46-AB83-9539228413CB}"/>
+    <hyperlink ref="B140" r:id="rId7" display="https://arxiv.org/abs/2103.13744" xr:uid="{429A6E53-E8CB-BC4C-9538-A2470024449F}"/>
+    <hyperlink ref="B141" r:id="rId8" display="https://alexyu.net/plenoctrees/" xr:uid="{7DC25326-9D8E-8D47-A044-DD17F9ED0CD0}"/>
+    <hyperlink ref="B142" r:id="rId9" display="https://arxiv.org/abs/2103.01954" xr:uid="{A2FF4FE9-43D0-5F44-93A7-55BE57938D31}"/>
+    <hyperlink ref="B143" r:id="rId10" display="https://vsitzmann.github.io/lfns/" xr:uid="{F6597C48-9252-3349-B84C-D97A31F62416}"/>
+    <hyperlink ref="B144" r:id="rId11" display="https://arxiv.org/pdf/2107.02791.pdf" xr:uid="{4E32310C-E8E8-1445-9B6E-B1A0C6585A89}"/>
+    <hyperlink ref="B146" r:id="rId12" display="https://nerf-w.github.io/" xr:uid="{1C3AF7E4-0ED6-6341-ACDB-04910971A9DA}"/>
+    <hyperlink ref="B151" r:id="rId13" display="https://gvv.mpi-inf.mpg.de/projects/nonrigid_nerf/" xr:uid="{2DDCA2B8-C06B-604A-A893-ED7E083125F7}"/>
+    <hyperlink ref="B152" r:id="rId14" display="https://volumetric-avatars.github.io/" xr:uid="{B38221A4-28D3-EC48-BD13-F22F93351407}"/>
+    <hyperlink ref="B154" r:id="rId15" display="https://arxiv.org/abs/2202.00181" xr:uid="{A924BD42-5B3F-3740-81C0-0C81F8B5122D}"/>
+    <hyperlink ref="B155" r:id="rId16" display="https://zju3dv.github.io/animatable_nerf/" xr:uid="{79B54E94-A634-C04E-BBD6-E0740CB05D22}"/>
+    <hyperlink ref="B156" r:id="rId17" display="https://vcai.mpi-inf.mpg.de/projects/NeuralActor/" xr:uid="{8B2119CC-BEBB-1141-9295-5A03BB8F0926}"/>
+    <hyperlink ref="B158" r:id="rId18" display="https://zju3dv.github.io/neuralbody/" xr:uid="{B4F98C3C-2C12-3647-8B14-C77A228D92A6}"/>
+    <hyperlink ref="D159" r:id="rId19" display="https://neural-3d-video.github.io/" xr:uid="{F5C4215C-421A-2E4F-9166-06F8B5156E7B}"/>
+    <hyperlink ref="B163" r:id="rId20" display="https://arxiv.org/abs/2012.02190" xr:uid="{53D1B557-9DD9-0941-A181-C2437740945C}"/>
+    <hyperlink ref="D163" r:id="rId21" display="https://alexyu.net/pixelnerf" xr:uid="{FE08CB9D-CA82-2641-899B-1CED2638D0C9}"/>
+    <hyperlink ref="B164" r:id="rId22" display="https://arxiv.org/abs/2012.02189" xr:uid="{A3166556-FD50-524F-9D7B-7DFABC9BA22F}"/>
+    <hyperlink ref="B167" r:id="rId23" display="https://arxiv.org/pdf/2102.08860.pdf" xr:uid="{C98AD7DA-8A21-4B40-A0E6-ABB79200584D}"/>
+    <hyperlink ref="B168" r:id="rId24" display="https://ibrnet.github.io/static/paper.pdf" xr:uid="{B64854DE-6A9F-EE41-8605-5F214EE9ADE2}"/>
+    <hyperlink ref="D168" r:id="rId25" display="https://ibrnet.github.io/" xr:uid="{5B6CC4DE-F7F9-2647-9B5C-A1E194127C73}"/>
+    <hyperlink ref="B169" r:id="rId26" display="https://arxiv.org/pdf/2103.17269.pdf" xr:uid="{62D8EC5C-C4AC-DA46-9FDF-0E23E2D5C874}"/>
+    <hyperlink ref="B170" r:id="rId27" display="https://arxiv.org/pdf/2104.00587.pdf" xr:uid="{B37AC469-58DD-BF4C-8A04-F712B1A8EB94}"/>
+    <hyperlink ref="B171" r:id="rId28" display="https://apple.github.io/ml-gsn/" xr:uid="{7717E2BE-FF3E-EF48-92FF-8653D9AB6AAE}"/>
+    <hyperlink ref="B172" r:id="rId29" display="https://apchenstu.github.io/mvsnerf/" xr:uid="{D01EC804-00BD-B442-AED3-391DEE153AF0}"/>
+    <hyperlink ref="B173" r:id="rId30" display="https://virtualhumans.mpi-inf.mpg.de/srf/" xr:uid="{BBFCEAB6-1067-4A46-B94B-1149F1DB3378}"/>
+    <hyperlink ref="D173" r:id="rId31" display="https://virtualhumans.mpi-inf.mpg.de/srf/" xr:uid="{99CFE0A6-49E8-6C47-AD0F-4876EDDD5257}"/>
+    <hyperlink ref="B174" r:id="rId32" display="https://liuyuan-pal.github.io/NeuRay/" xr:uid="{B8E198D5-170F-6445-ABD6-FC745FE3BB4F}"/>
+    <hyperlink ref="D176" r:id="rId33" display="https://github.com/vincentfung13/MINE" xr:uid="{BC5BAD36-364E-6749-BCB4-A976C125DDC5}"/>
+    <hyperlink ref="B178" r:id="rId34" display="https://sites.google.com/view/wbjang/home/codenerf" xr:uid="{187E0164-3464-5F42-AACD-3D5C2BF3C820}"/>
+    <hyperlink ref="B180" r:id="rId35" display="https://bmild.github.io/rawnerf/" xr:uid="{A6B8E96F-1F53-7041-B6A4-60B9508480D4}"/>
+    <hyperlink ref="B181" r:id="rId36" display="http://yenchenlin.me/inerf/" xr:uid="{EE610F53-3CF1-1E40-8ACB-F1984A3C3C5D}"/>
+    <hyperlink ref="B182" r:id="rId37" display="https://lemonatsu.github.io/ANeRF-Surface-free-Pose-Refinement/" xr:uid="{8812967F-CC98-5B4A-995D-AC01039F534F}"/>
+    <hyperlink ref="D182" r:id="rId38" display="https://lemonatsu.github.io/anerf/" xr:uid="{9D7EFC10-490A-E447-9D5C-8E801A904206}"/>
+    <hyperlink ref="B187" r:id="rId39" display="https://chenhsuanlin.bitbucket.io/bundle-adjusting-NeRF/" xr:uid="{20F5B6EF-8807-F341-AF88-60ED41CC6280}"/>
+    <hyperlink ref="B188" r:id="rId40" display="https://postech-cvlab.github.io/SCNeRF/" xr:uid="{2F6B0D04-F664-0240-95C8-8B039E05A6FE}"/>
+    <hyperlink ref="B189" r:id="rId41" display="https://markboss.me/publication/2021-nerd/" xr:uid="{D07E6E46-FE31-B345-8F53-0E980351DB40}"/>
+    <hyperlink ref="B190" r:id="rId42" display="https://people.eecs.berkeley.edu/~pratul/nerv/" xr:uid="{8DA1DFFB-66B7-D945-A567-262763835FE0}"/>
+    <hyperlink ref="B193" r:id="rId43" display="https://arxiv.org/abs/2010.07492" xr:uid="{24173C9F-D45A-1744-981B-21CA290E8730}"/>
+    <hyperlink ref="D193" r:id="rId44" display="https://github.com/Kai-46/nerfplusplus" xr:uid="{AC3D8F12-8792-6341-9EDD-3119722F4FB3}"/>
+    <hyperlink ref="B194" r:id="rId45" display="https://arxiv.org/abs/2011.12100" xr:uid="{A6421490-778F-404C-9B50-F4DF3C3222E3}"/>
+    <hyperlink ref="B196" r:id="rId46" display="https://ziyanw1.github.io/hybrid_nerf/" xr:uid="{21255C5F-2079-BD42-A4E8-1473A711251E}"/>
+    <hyperlink ref="B203" r:id="rId47" display="https://fig-nerf.github.io/" xr:uid="{BCB08482-216E-F445-961F-79B17BAB2894}"/>
+    <hyperlink ref="B204" r:id="rId48" display="https://developer.nvidia.com/blog/nvidia-research-nerf-tex-neural-reflectance-field-textures/" xr:uid="{46F7C388-1CC4-9149-B59B-559EE7BCD36A}"/>
+    <hyperlink ref="B205" r:id="rId49" display="https://jonbarron.info/mipnerf/" xr:uid="{3CF7024E-5382-C942-836E-26A20DA4524C}"/>
+    <hyperlink ref="B207" r:id="rId50" display="https://arxiv.org/abs/2106.10689" xr:uid="{E7185A93-C91C-F24C-9829-6325E236C3EB}"/>
+    <hyperlink ref="B209" r:id="rId51" display="https://weiyithu.github.io/NerfingMVS/" xr:uid="{22220255-E2B3-4341-A8DE-DF8098C5B6B6}"/>
+    <hyperlink ref="B210" r:id="rId52" display="https://3d-representation-learning.github.io/nerf-dy/" xr:uid="{433A7789-7958-4642-A629-FBF537BFB55E}"/>
+    <hyperlink ref="D211" r:id="rId53" display="https://mikh3x4.github.io/nerf-navigation/" xr:uid="{8A666769-9523-DC43-A0CD-D271CCCC1BDC}"/>
+    <hyperlink ref="D59" r:id="rId54" display="https://github.com/LeapLabTHU/ActiveNeRF" xr:uid="{E900C90C-6019-C44E-8258-46FC93A580B3}"/>
+    <hyperlink ref="D55" r:id="rId55" display="https://github.com/jike5/LATITUDE" xr:uid="{91F35CF0-E18D-5643-90B6-6E663E131672}"/>
+    <hyperlink ref="D52" r:id="rId56" display="https://zhiwenfan.github.io/NeRF-SOS" xr:uid="{30070045-BF89-9A40-89C3-AD835799302F}"/>
+    <hyperlink ref="D50" r:id="rId57" display="https://github.com/MIT-SPARK/Loc-NeRF" xr:uid="{75D1A9A5-F43B-2249-8F7D-6B28308F1EF6}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
